--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1737.44791349446</v>
+        <v>581.108393117276</v>
       </c>
       <c r="C2">
-        <v>30.9783887739313</v>
+        <v>51.1800215410198</v>
       </c>
       <c r="D2">
-        <v>42.6150144871499</v>
+        <v>74.39516048882091</v>
       </c>
       <c r="E2">
-        <v>44.4883069354302</v>
+        <v>77.71096308664239</v>
       </c>
       <c r="F2">
-        <v>17.4147231806841</v>
+        <v>26.454520444971</v>
       </c>
       <c r="G2">
-        <v>8.30518735181718</v>
+        <v>16.8127878279601</v>
       </c>
       <c r="H2">
-        <v>11.4051350042026</v>
+        <v>23.6866796402262</v>
       </c>
       <c r="I2">
-        <v>16.9007373502747</v>
+        <v>21.3079929196343</v>
       </c>
       <c r="J2">
-        <v>52.3640008787208</v>
+        <v>80.56595338737679</v>
       </c>
       <c r="K2">
-        <v>17.6854081596538</v>
+        <v>27.5154981715018</v>
       </c>
       <c r="L2">
-        <v>26.6179180692189</v>
+        <v>40.1233147861199</v>
       </c>
       <c r="M2">
-        <v>44.6293764045026</v>
+        <v>54.3690246318331</v>
       </c>
       <c r="N2">
-        <v>27.3189292123394</v>
+        <v>28.5363014537812</v>
       </c>
       <c r="O2">
-        <v>1108.77327955255</v>
+        <v>2070.28824893983</v>
       </c>
       <c r="P2">
-        <v>26.2208739978958</v>
+        <v>37.0185266402274</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>264.583121573522</v>
+        <v>99.1386607784778</v>
       </c>
       <c r="C3">
-        <v>6.29498129138754</v>
+        <v>5.20996420322668</v>
       </c>
       <c r="D3">
-        <v>0.229980108542419</v>
+        <v>0.14623962734529</v>
       </c>
       <c r="E3">
-        <v>1.00552317826932</v>
+        <v>1.06970049491564</v>
       </c>
       <c r="F3">
-        <v>11.0945090812321</v>
+        <v>13.9649058551636</v>
       </c>
       <c r="G3">
-        <v>0.102484817601636</v>
+        <v>0.29610339693531</v>
       </c>
       <c r="H3">
-        <v>0.0543745387303411</v>
+        <v>0.070528671054153</v>
       </c>
       <c r="I3">
-        <v>0.686741772439591</v>
+        <v>0.302463245789943</v>
       </c>
       <c r="J3">
-        <v>0.245463921391217</v>
+        <v>0.162650917698183</v>
       </c>
       <c r="K3">
-        <v>0.109888019782944</v>
+        <v>0.0560020968662705</v>
       </c>
       <c r="L3">
-        <v>0.322281244741064</v>
+        <v>0.0863042225798729</v>
       </c>
       <c r="M3">
-        <v>0.701830850289025</v>
+        <v>0.379395465615762</v>
       </c>
       <c r="N3">
-        <v>0.5459012844778151</v>
+        <v>0.777345452864288</v>
       </c>
       <c r="O3">
-        <v>265.242051301725</v>
+        <v>390.532632932402</v>
       </c>
       <c r="P3">
-        <v>3.7789871974809</v>
+        <v>11.7748862724327</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1916.42309386878</v>
+        <v>702.419504996784</v>
       </c>
       <c r="C4">
-        <v>19.5900430256597</v>
+        <v>15.2658317519547</v>
       </c>
       <c r="D4">
-        <v>2.76480484705428</v>
+        <v>4.04342735937429</v>
       </c>
       <c r="E4">
-        <v>15.3114661110989</v>
+        <v>17.0699407602565</v>
       </c>
       <c r="F4">
-        <v>13.8747461530092</v>
+        <v>9.324634684668521</v>
       </c>
       <c r="G4">
-        <v>9.464708330325379</v>
+        <v>8.26532481162535</v>
       </c>
       <c r="H4">
-        <v>11.3266618402854</v>
+        <v>10.4723707903415</v>
       </c>
       <c r="I4">
-        <v>8.41241314399138</v>
+        <v>15.9076750598511</v>
       </c>
       <c r="J4">
-        <v>25.4828234873865</v>
+        <v>40.7608044313189</v>
       </c>
       <c r="K4">
-        <v>11.0043659811486</v>
+        <v>11.9273278141524</v>
       </c>
       <c r="L4">
-        <v>73.877000338011</v>
+        <v>81.16682911782679</v>
       </c>
       <c r="M4">
-        <v>56.6044508676168</v>
+        <v>58.1681057530264</v>
       </c>
       <c r="N4">
-        <v>29.3676847932127</v>
+        <v>38.5969921132198</v>
       </c>
       <c r="O4">
-        <v>1644.22039877385</v>
+        <v>2794.06648218711</v>
       </c>
       <c r="P4">
-        <v>28.2810374497737</v>
+        <v>46.358155802632</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>1083.50656085023</v>
+        <v>326.120618162401</v>
       </c>
       <c r="C5">
-        <v>60.2846246729022</v>
+        <v>89.3450467018241</v>
       </c>
       <c r="D5">
-        <v>6.89208146498539</v>
+        <v>17.0358694832149</v>
       </c>
       <c r="E5">
-        <v>34.3216148702012</v>
+        <v>53.2357764207506</v>
       </c>
       <c r="F5">
-        <v>3.80220290972082</v>
+        <v>5.56454244215577</v>
       </c>
       <c r="G5">
-        <v>11.9756568509394</v>
+        <v>10.0897754572442</v>
       </c>
       <c r="H5">
-        <v>12.9005422147715</v>
+        <v>18.0019809666031</v>
       </c>
       <c r="I5">
-        <v>5.67084341611459</v>
+        <v>10.9383269738875</v>
       </c>
       <c r="J5">
-        <v>17.8791405347482</v>
+        <v>33.9649784180299</v>
       </c>
       <c r="K5">
-        <v>16.1618747222605</v>
+        <v>22.4625268231425</v>
       </c>
       <c r="L5">
-        <v>13.9104934224543</v>
+        <v>21.2269173491018</v>
       </c>
       <c r="M5">
-        <v>19.4440231537436</v>
+        <v>28.4565317431175</v>
       </c>
       <c r="N5">
-        <v>14.6160375208718</v>
+        <v>23.0464868582333</v>
       </c>
       <c r="O5">
-        <v>594.237055162856</v>
+        <v>1197.48838746631</v>
       </c>
       <c r="P5">
-        <v>35.4719370620893</v>
+        <v>79.30310514524611</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>10480.562547591</v>
+        <v>4517.35172625814</v>
       </c>
       <c r="C6">
-        <v>144.686823407321</v>
+        <v>191.573954258887</v>
       </c>
       <c r="D6">
-        <v>124.125167800959</v>
+        <v>141.882590890106</v>
       </c>
       <c r="E6">
-        <v>202.902594518653</v>
+        <v>172.440651864472</v>
       </c>
       <c r="F6">
-        <v>35.8323209593883</v>
+        <v>31.0302638731877</v>
       </c>
       <c r="G6">
-        <v>90.27147719976991</v>
+        <v>104.808222632325</v>
       </c>
       <c r="H6">
-        <v>48.9164288578114</v>
+        <v>64.5395995544236</v>
       </c>
       <c r="I6">
-        <v>44.912614278397</v>
+        <v>49.3484265036263</v>
       </c>
       <c r="J6">
-        <v>149.33248060783</v>
+        <v>182.008565425619</v>
       </c>
       <c r="K6">
-        <v>111.200947210068</v>
+        <v>102.139682021138</v>
       </c>
       <c r="L6">
-        <v>557.183932965321</v>
+        <v>566.513579355797</v>
       </c>
       <c r="M6">
-        <v>232.819155585189</v>
+        <v>281.681214658946</v>
       </c>
       <c r="N6">
-        <v>214.594758761513</v>
+        <v>295.366570337601</v>
       </c>
       <c r="O6">
-        <v>9548.806317379869</v>
+        <v>15500.9826885574</v>
       </c>
       <c r="P6">
-        <v>213.626892050205</v>
+        <v>282.031666375997</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1236.41649211376</v>
+        <v>419.55923590202</v>
       </c>
       <c r="C7">
-        <v>19.5332346709102</v>
+        <v>36.8910808031629</v>
       </c>
       <c r="D7">
-        <v>5.31305424394241</v>
+        <v>3.22092370009736</v>
       </c>
       <c r="E7">
-        <v>22.0100766439774</v>
+        <v>22.4012751896313</v>
       </c>
       <c r="F7">
-        <v>28.3055943553673</v>
+        <v>18.8174301013918</v>
       </c>
       <c r="G7">
-        <v>13.953075568422</v>
+        <v>10.0077277813054</v>
       </c>
       <c r="H7">
-        <v>5.61068347696091</v>
+        <v>5.35263069343896</v>
       </c>
       <c r="I7">
-        <v>6.887512575191</v>
+        <v>10.7794859821617</v>
       </c>
       <c r="J7">
-        <v>16.003652590394</v>
+        <v>16.4151300293762</v>
       </c>
       <c r="K7">
-        <v>11.9858290100218</v>
+        <v>11.659249503636</v>
       </c>
       <c r="L7">
-        <v>61.9478327286813</v>
+        <v>60.3368446886987</v>
       </c>
       <c r="M7">
-        <v>19.7862462674986</v>
+        <v>18.7495001425954</v>
       </c>
       <c r="N7">
-        <v>25.4132798292368</v>
+        <v>24.6515423516036</v>
       </c>
       <c r="O7">
-        <v>1381.70097037675</v>
+        <v>2234.23592794233</v>
       </c>
       <c r="P7">
-        <v>51.3671432133672</v>
+        <v>40.5739723147409</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>1014.95608427192</v>
+        <v>341.537626559372</v>
       </c>
       <c r="C8">
-        <v>8.66681500149409</v>
+        <v>10.8691470756434</v>
       </c>
       <c r="D8">
-        <v>4.54444127626732</v>
+        <v>7.09975555305117</v>
       </c>
       <c r="E8">
-        <v>22.4440443787958</v>
+        <v>20.8243335303697</v>
       </c>
       <c r="F8">
-        <v>1.77840617610138</v>
+        <v>2.10844915040594</v>
       </c>
       <c r="G8">
-        <v>27.9081645431974</v>
+        <v>36.4792537855428</v>
       </c>
       <c r="H8">
-        <v>5.45400132833741</v>
+        <v>9.57209084834583</v>
       </c>
       <c r="I8">
-        <v>2.14289306433053</v>
+        <v>2.4950147224903</v>
       </c>
       <c r="J8">
-        <v>48.8905883937623</v>
+        <v>58.7191772508458</v>
       </c>
       <c r="K8">
-        <v>22.133131211306</v>
+        <v>21.6733913944053</v>
       </c>
       <c r="L8">
-        <v>37.6292371301056</v>
+        <v>42.5249420483315</v>
       </c>
       <c r="M8">
-        <v>58.0999148392533</v>
+        <v>63.6792491853457</v>
       </c>
       <c r="N8">
-        <v>19.236039540862</v>
+        <v>21.2882754141033</v>
       </c>
       <c r="O8">
-        <v>1030.78420232446</v>
+        <v>1669.8466672205</v>
       </c>
       <c r="P8">
-        <v>5.23361069395495</v>
+        <v>7.04513023155</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>396.844521138393</v>
+        <v>82.8415529881719</v>
       </c>
       <c r="C9">
-        <v>8.07052908069101</v>
+        <v>15.5362845094979</v>
       </c>
       <c r="D9">
-        <v>1.0226942633903</v>
+        <v>1.74082651148084</v>
       </c>
       <c r="E9">
-        <v>3.72320183353331</v>
+        <v>7.64631074523336</v>
       </c>
       <c r="F9">
-        <v>1.85029674870835</v>
+        <v>1.85627359219188</v>
       </c>
       <c r="G9">
-        <v>21.6391228508128</v>
+        <v>28.5393785035071</v>
       </c>
       <c r="H9">
-        <v>1.66467284821776</v>
+        <v>2.1353854845758</v>
       </c>
       <c r="I9">
-        <v>1.07092510876817</v>
+        <v>3.03048256114158</v>
       </c>
       <c r="J9">
-        <v>2.98014834550609</v>
+        <v>5.23097111499697</v>
       </c>
       <c r="K9">
-        <v>2.05996745603101</v>
+        <v>4.32027177263033</v>
       </c>
       <c r="L9">
-        <v>3.94423631110261</v>
+        <v>4.79650005176094</v>
       </c>
       <c r="M9">
-        <v>5.29231533919289</v>
+        <v>11.4067713525487</v>
       </c>
       <c r="N9">
-        <v>5.01823879864395</v>
+        <v>6.46527972398348</v>
       </c>
       <c r="O9">
-        <v>283.864893306219</v>
+        <v>512.91866444162</v>
       </c>
       <c r="P9">
-        <v>5.44576179517149</v>
+        <v>9.675955823517439</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>6609.3235732228</v>
+        <v>2110.96557239861</v>
       </c>
       <c r="C10">
-        <v>45.5767683972956</v>
+        <v>59.1294340022343</v>
       </c>
       <c r="D10">
-        <v>18.8358444121487</v>
+        <v>17.8522878905398</v>
       </c>
       <c r="E10">
-        <v>83.7389081308596</v>
+        <v>63.4849143764212</v>
       </c>
       <c r="F10">
-        <v>10.494674412264</v>
+        <v>15.7883107315949</v>
       </c>
       <c r="G10">
-        <v>26.5934239354101</v>
+        <v>26.1229379952228</v>
       </c>
       <c r="H10">
-        <v>21.6619535023707</v>
+        <v>18.6671026518</v>
       </c>
       <c r="I10">
-        <v>28.7845768503237</v>
+        <v>33.3874685665453</v>
       </c>
       <c r="J10">
-        <v>41.7499936857391</v>
+        <v>59.0330640466925</v>
       </c>
       <c r="K10">
-        <v>41.4475645814579</v>
+        <v>22.394692421987</v>
       </c>
       <c r="L10">
-        <v>76.892122757549</v>
+        <v>102.973522899189</v>
       </c>
       <c r="M10">
-        <v>87.4854226747205</v>
+        <v>109.107833859793</v>
       </c>
       <c r="N10">
-        <v>73.0165646478811</v>
+        <v>110.511526740897</v>
       </c>
       <c r="O10">
-        <v>5196.13456779241</v>
+        <v>9447.95555447273</v>
       </c>
       <c r="P10">
-        <v>54.4809642647209</v>
+        <v>82.0471445945691</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2842.04696280701</v>
+        <v>938.084128846747</v>
       </c>
       <c r="C11">
-        <v>55.831719080988</v>
+        <v>66.52956935373049</v>
       </c>
       <c r="D11">
-        <v>71.0717835819985</v>
+        <v>156.894863500167</v>
       </c>
       <c r="E11">
-        <v>101.585001174027</v>
+        <v>103.353958882033</v>
       </c>
       <c r="F11">
-        <v>12.2975347197702</v>
+        <v>7.78302882529079</v>
       </c>
       <c r="G11">
-        <v>30.1791612187834</v>
+        <v>31.771286455001</v>
       </c>
       <c r="H11">
-        <v>27.9916538681611</v>
+        <v>24.956173820489</v>
       </c>
       <c r="I11">
-        <v>21.1360750591485</v>
+        <v>20.5741374886074</v>
       </c>
       <c r="J11">
-        <v>36.4703852122081</v>
+        <v>76.5959284312214</v>
       </c>
       <c r="K11">
-        <v>40.9714622445857</v>
+        <v>30.8879622604398</v>
       </c>
       <c r="L11">
-        <v>45.5922979615628</v>
+        <v>59.4052306827293</v>
       </c>
       <c r="M11">
-        <v>68.316499524235</v>
+        <v>61.1487391849197</v>
       </c>
       <c r="N11">
-        <v>54.5267517042508</v>
+        <v>53.8518477307697</v>
       </c>
       <c r="O11">
-        <v>2389.91379263631</v>
+        <v>4185.48720174355</v>
       </c>
       <c r="P11">
-        <v>31.7655787394204</v>
+        <v>31.1824243782634</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>492.492535127105</v>
+        <v>139.755802826192</v>
       </c>
       <c r="C12">
-        <v>5.03007511549591</v>
+        <v>7.55821216292546</v>
       </c>
       <c r="D12">
-        <v>2.80527727635413</v>
+        <v>1.48682116134701</v>
       </c>
       <c r="E12">
-        <v>2.65505613270263</v>
+        <v>1.51107402147149</v>
       </c>
       <c r="F12">
-        <v>0.446580255485339</v>
+        <v>0.240796123475036</v>
       </c>
       <c r="G12">
-        <v>0.840870616731912</v>
+        <v>0.934418613832338</v>
       </c>
       <c r="H12">
-        <v>0.285045307719975</v>
+        <v>0.580221968375219</v>
       </c>
       <c r="I12">
-        <v>0.473676482679445</v>
+        <v>1.47714585028976</v>
       </c>
       <c r="J12">
-        <v>0.51553866861472</v>
+        <v>0.765095875757463</v>
       </c>
       <c r="K12">
-        <v>0.0785327454546183</v>
+        <v>0.0988753180764046</v>
       </c>
       <c r="L12">
-        <v>0.902279576848011</v>
+        <v>0.296534135364747</v>
       </c>
       <c r="M12">
-        <v>2.32591410026792</v>
+        <v>2.5939679605856</v>
       </c>
       <c r="N12">
-        <v>4.78128175808148</v>
+        <v>5.1198551446839</v>
       </c>
       <c r="O12">
-        <v>478.361771260439</v>
+        <v>774.839104044901</v>
       </c>
       <c r="P12">
-        <v>11.7247547218852</v>
+        <v>26.314972077642</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>505.468549641578</v>
+        <v>135.587717487767</v>
       </c>
       <c r="C13">
-        <v>20.9939148617226</v>
+        <v>32.5222573614596</v>
       </c>
       <c r="D13">
-        <v>0.692499793277145</v>
+        <v>1.39539164815654</v>
       </c>
       <c r="E13">
-        <v>20.476949172519</v>
+        <v>17.7438217283681</v>
       </c>
       <c r="F13">
-        <v>1.10505343375574</v>
+        <v>3.8095769255775</v>
       </c>
       <c r="G13">
-        <v>3.54393566276681</v>
+        <v>4.62785868961897</v>
       </c>
       <c r="H13">
-        <v>1.60146687973968</v>
+        <v>3.07074741535569</v>
       </c>
       <c r="I13">
-        <v>2.52767441049396</v>
+        <v>1.82136411158034</v>
       </c>
       <c r="J13">
-        <v>5.52931756854287</v>
+        <v>7.97035338004222</v>
       </c>
       <c r="K13">
-        <v>4.94245636608705</v>
+        <v>3.18763969973699</v>
       </c>
       <c r="L13">
-        <v>15.0546346392732</v>
+        <v>23.0277755042029</v>
       </c>
       <c r="M13">
-        <v>1.61803219078327</v>
+        <v>2.22057104016837</v>
       </c>
       <c r="N13">
-        <v>6.03553533627585</v>
+        <v>8.03191040605938</v>
       </c>
       <c r="O13">
-        <v>391.046990423268</v>
+        <v>693.4718524413</v>
       </c>
       <c r="P13">
-        <v>50.6229124831784</v>
+        <v>65.6837045451141</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3771.3603877635</v>
+        <v>1432.5058496009</v>
       </c>
       <c r="C14">
-        <v>93.4877636496232</v>
+        <v>109.180107768623</v>
       </c>
       <c r="D14">
-        <v>19.4914647149668</v>
+        <v>12.528922438286</v>
       </c>
       <c r="E14">
-        <v>133.984951470838</v>
+        <v>92.430001587071</v>
       </c>
       <c r="F14">
-        <v>32.4279602862499</v>
+        <v>23.6863037641357</v>
       </c>
       <c r="G14">
-        <v>67.7020011247144</v>
+        <v>78.5923885595976</v>
       </c>
       <c r="H14">
-        <v>66.8780832400614</v>
+        <v>68.6450546176401</v>
       </c>
       <c r="I14">
-        <v>13.0088783944351</v>
+        <v>22.5004493516015</v>
       </c>
       <c r="J14">
-        <v>130.039363850878</v>
+        <v>153.267408385783</v>
       </c>
       <c r="K14">
-        <v>128.301198881324</v>
+        <v>160.317172011125</v>
       </c>
       <c r="L14">
-        <v>100.169894580037</v>
+        <v>118.091504961968</v>
       </c>
       <c r="M14">
-        <v>74.4429184008268</v>
+        <v>84.6868479648566</v>
       </c>
       <c r="N14">
-        <v>62.1164734993031</v>
+        <v>76.7382010878152</v>
       </c>
       <c r="O14">
-        <v>3536.61034668567</v>
+        <v>5872.46099236163</v>
       </c>
       <c r="P14">
-        <v>91.82220486788511</v>
+        <v>75.727235131755</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1936.57144771261</v>
+        <v>602.728110487988</v>
       </c>
       <c r="C15">
-        <v>49.4505707899114</v>
+        <v>61.7912975089328</v>
       </c>
       <c r="D15">
-        <v>6.55300454722359</v>
+        <v>6.87210963392475</v>
       </c>
       <c r="E15">
-        <v>64.3028957422361</v>
+        <v>75.63184223457201</v>
       </c>
       <c r="F15">
-        <v>10.393649801277</v>
+        <v>15.3926403536236</v>
       </c>
       <c r="G15">
-        <v>38.435261035647</v>
+        <v>41.7224216542955</v>
       </c>
       <c r="H15">
-        <v>26.7796515727538</v>
+        <v>44.0581696915395</v>
       </c>
       <c r="I15">
-        <v>25.5320962055323</v>
+        <v>44.0306607409622</v>
       </c>
       <c r="J15">
-        <v>137.696820328295</v>
+        <v>202.704806380178</v>
       </c>
       <c r="K15">
-        <v>38.181738815816</v>
+        <v>48.8278643773479</v>
       </c>
       <c r="L15">
-        <v>47.859885770031</v>
+        <v>50.7157448086607</v>
       </c>
       <c r="M15">
-        <v>216.091335349247</v>
+        <v>191.950444298227</v>
       </c>
       <c r="N15">
-        <v>56.3013345523748</v>
+        <v>86.48073964999711</v>
       </c>
       <c r="O15">
-        <v>1586.58398011414</v>
+        <v>2752.09851826569</v>
       </c>
       <c r="P15">
-        <v>39.1334750887462</v>
+        <v>54.2468718897273</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>894.2065502339231</v>
+        <v>198.498152888763</v>
       </c>
       <c r="C16">
-        <v>54.1236996894915</v>
+        <v>78.1536091475257</v>
       </c>
       <c r="D16">
-        <v>5.49950627080633</v>
+        <v>8.01802700516544</v>
       </c>
       <c r="E16">
-        <v>36.6667397736903</v>
+        <v>34.0562956261737</v>
       </c>
       <c r="F16">
-        <v>2.59018446572087</v>
+        <v>5.55369729000261</v>
       </c>
       <c r="G16">
-        <v>9.541529976459559</v>
+        <v>14.3682893953666</v>
       </c>
       <c r="H16">
-        <v>16.5318541150706</v>
+        <v>24.6110500193365</v>
       </c>
       <c r="I16">
-        <v>3.46407843999989</v>
+        <v>6.27120615873678</v>
       </c>
       <c r="J16">
-        <v>56.7599824240374</v>
+        <v>54.1504527905691</v>
       </c>
       <c r="K16">
-        <v>46.8296276054294</v>
+        <v>58.917290757595</v>
       </c>
       <c r="L16">
-        <v>24.5092461793928</v>
+        <v>37.3979282786942</v>
       </c>
       <c r="M16">
-        <v>31.7881094596663</v>
+        <v>26.7542448045679</v>
       </c>
       <c r="N16">
-        <v>16.9433546469948</v>
+        <v>27.3396979157115</v>
       </c>
       <c r="O16">
-        <v>891.912015310305</v>
+        <v>1459.78740530576</v>
       </c>
       <c r="P16">
-        <v>83.98523435476601</v>
+        <v>107.356786982499</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>791.180489242455</v>
+        <v>254.613878638504</v>
       </c>
       <c r="C17">
-        <v>22.2803059423295</v>
+        <v>28.4487469609448</v>
       </c>
       <c r="D17">
-        <v>6.21003397049929</v>
+        <v>4.15685476622813</v>
       </c>
       <c r="E17">
-        <v>30.5780418812264</v>
+        <v>24.3425212756477</v>
       </c>
       <c r="F17">
-        <v>19.044561090778</v>
+        <v>17.0248759649564</v>
       </c>
       <c r="G17">
-        <v>9.028040988625211</v>
+        <v>12.5181207402351</v>
       </c>
       <c r="H17">
-        <v>9.31317384053999</v>
+        <v>14.0791820513865</v>
       </c>
       <c r="I17">
-        <v>11.1576958288057</v>
+        <v>7.86385652847749</v>
       </c>
       <c r="J17">
-        <v>17.1752819301672</v>
+        <v>19.0786446094446</v>
       </c>
       <c r="K17">
-        <v>20.5186073390086</v>
+        <v>17.5202962024359</v>
       </c>
       <c r="L17">
-        <v>9.575550315533169</v>
+        <v>11.6237232869797</v>
       </c>
       <c r="M17">
-        <v>65.5642539260048</v>
+        <v>87.49941034187469</v>
       </c>
       <c r="N17">
-        <v>13.0138190050683</v>
+        <v>11.8885228139843</v>
       </c>
       <c r="O17">
-        <v>822.669007137589</v>
+        <v>1319.92219163826</v>
       </c>
       <c r="P17">
-        <v>66.6574027118717</v>
+        <v>60.4255604694569</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1849.49158114607</v>
+        <v>555.907948376729</v>
       </c>
       <c r="C18">
-        <v>35.2943192845768</v>
+        <v>37.9392999266269</v>
       </c>
       <c r="D18">
-        <v>19.2251140983305</v>
+        <v>12.8218246871746</v>
       </c>
       <c r="E18">
-        <v>60.2620401943995</v>
+        <v>48.4093805244175</v>
       </c>
       <c r="F18">
-        <v>21.5610590838696</v>
+        <v>41.6490465684317</v>
       </c>
       <c r="G18">
-        <v>7.56139390782622</v>
+        <v>17.9220509162213</v>
       </c>
       <c r="H18">
-        <v>18.9583187564364</v>
+        <v>27.6661455069652</v>
       </c>
       <c r="I18">
-        <v>11.5097035345746</v>
+        <v>10.323955042416</v>
       </c>
       <c r="J18">
-        <v>46.393975558306</v>
+        <v>52.4859584748747</v>
       </c>
       <c r="K18">
-        <v>25.0963278176828</v>
+        <v>23.0623739889078</v>
       </c>
       <c r="L18">
-        <v>14.6205493805453</v>
+        <v>37.9751622592225</v>
       </c>
       <c r="M18">
-        <v>80.8216026617612</v>
+        <v>84.22897336428331</v>
       </c>
       <c r="N18">
-        <v>19.9942923375413</v>
+        <v>29.6112873493153</v>
       </c>
       <c r="O18">
-        <v>886.6504378711881</v>
+        <v>2015.67312084689</v>
       </c>
       <c r="P18">
-        <v>34.9536714483169</v>
+        <v>67.90164124198471</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1649.77953777472</v>
+        <v>588.580131781633</v>
       </c>
       <c r="C19">
-        <v>13.3000445599531</v>
+        <v>25.6479368366263</v>
       </c>
       <c r="D19">
-        <v>7.1976506207257</v>
+        <v>8.11268397529858</v>
       </c>
       <c r="E19">
-        <v>40.4676160688015</v>
+        <v>40.2900012268281</v>
       </c>
       <c r="F19">
-        <v>53.5787192069353</v>
+        <v>75.5478539171027</v>
       </c>
       <c r="G19">
-        <v>30.7748096564503</v>
+        <v>35.1494008011225</v>
       </c>
       <c r="H19">
-        <v>5.3220073083881</v>
+        <v>7.49890896327293</v>
       </c>
       <c r="I19">
-        <v>15.1073385513539</v>
+        <v>10.3636900349901</v>
       </c>
       <c r="J19">
-        <v>24.4326742252142</v>
+        <v>20.6026413219645</v>
       </c>
       <c r="K19">
-        <v>14.0882247628392</v>
+        <v>10.391360540729</v>
       </c>
       <c r="L19">
-        <v>5.97983880213526</v>
+        <v>2.71863068788893</v>
       </c>
       <c r="M19">
-        <v>30.1938631816644</v>
+        <v>52.4589504532704</v>
       </c>
       <c r="N19">
-        <v>2.85805766271141</v>
+        <v>3.94405956567795</v>
       </c>
       <c r="O19">
-        <v>1083.47112883994</v>
+        <v>2060.10291181657</v>
       </c>
       <c r="P19">
-        <v>36.2830355303189</v>
+        <v>58.9322877904675</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>518.286263388972</v>
+        <v>148.325687762561</v>
       </c>
       <c r="C20">
-        <v>6.15160901090025</v>
+        <v>10.5492078112158</v>
       </c>
       <c r="D20">
-        <v>6.24114714398498</v>
+        <v>12.4285361045801</v>
       </c>
       <c r="E20">
-        <v>34.5475980068794</v>
+        <v>40.8491234366067</v>
       </c>
       <c r="F20">
-        <v>0.224440905232701</v>
+        <v>0.962221234447223</v>
       </c>
       <c r="G20">
-        <v>1.24215950888951</v>
+        <v>0.931882915045706</v>
       </c>
       <c r="H20">
-        <v>1.84706653808765</v>
+        <v>2.30585267986742</v>
       </c>
       <c r="I20">
-        <v>0.8315630877093631</v>
+        <v>0.782997476928921</v>
       </c>
       <c r="J20">
-        <v>4.90652940538474</v>
+        <v>7.52414853434016</v>
       </c>
       <c r="K20">
-        <v>4.83138534799803</v>
+        <v>4.086029739357</v>
       </c>
       <c r="L20">
-        <v>6.7064285061414</v>
+        <v>8.1566349232078</v>
       </c>
       <c r="M20">
-        <v>15.7104738236234</v>
+        <v>19.3458802343527</v>
       </c>
       <c r="N20">
-        <v>4.76287050817286</v>
+        <v>6.46097359779725</v>
       </c>
       <c r="O20">
-        <v>376.723443520765</v>
+        <v>695.432841672982</v>
       </c>
       <c r="P20">
-        <v>13.649084482274</v>
+        <v>22.3300757649383</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1708.77675396463</v>
+        <v>459.362663063179</v>
       </c>
       <c r="C21">
-        <v>14.8346565478102</v>
+        <v>15.5404353894581</v>
       </c>
       <c r="D21">
-        <v>14.7343469330064</v>
+        <v>7.6521927379497</v>
       </c>
       <c r="E21">
-        <v>45.6959105336253</v>
+        <v>30.6974280492355</v>
       </c>
       <c r="F21">
-        <v>2.9680182261597</v>
+        <v>1.28997995355904</v>
       </c>
       <c r="G21">
-        <v>18.4227779420864</v>
+        <v>18.3233565621845</v>
       </c>
       <c r="H21">
-        <v>7.22403407408389</v>
+        <v>11.5121418265802</v>
       </c>
       <c r="I21">
-        <v>5.30424796383298</v>
+        <v>4.61702931838121</v>
       </c>
       <c r="J21">
-        <v>16.6181910544564</v>
+        <v>17.6337905331024</v>
       </c>
       <c r="K21">
-        <v>8.82548166693906</v>
+        <v>3.9401195531634</v>
       </c>
       <c r="L21">
-        <v>38.6919513919656</v>
+        <v>35.3452316123128</v>
       </c>
       <c r="M21">
-        <v>28.0066161829584</v>
+        <v>27.9343639374858</v>
       </c>
       <c r="N21">
-        <v>20.3216928686988</v>
+        <v>14.5843670659565</v>
       </c>
       <c r="O21">
-        <v>1646.82294265121</v>
+        <v>2893.76357032491</v>
       </c>
       <c r="P21">
-        <v>11.8196475007283</v>
+        <v>18.1985505879887</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1797.72281148004</v>
+        <v>611.745781639395</v>
       </c>
       <c r="C22">
-        <v>21.9427864098879</v>
+        <v>17.3312660631792</v>
       </c>
       <c r="D22">
-        <v>14.510955025977</v>
+        <v>18.6853714304238</v>
       </c>
       <c r="E22">
-        <v>49.8442521239159</v>
+        <v>45.1997339438853</v>
       </c>
       <c r="F22">
-        <v>0.65055790225094</v>
+        <v>0.857554414789503</v>
       </c>
       <c r="G22">
-        <v>27.494373733923</v>
+        <v>28.2399766842763</v>
       </c>
       <c r="H22">
-        <v>19.7010652586981</v>
+        <v>25.1752594108208</v>
       </c>
       <c r="I22">
-        <v>9.032532662664289</v>
+        <v>9.004516193879161</v>
       </c>
       <c r="J22">
-        <v>45.2453654295806</v>
+        <v>54.2205521669516</v>
       </c>
       <c r="K22">
-        <v>28.3007374094878</v>
+        <v>22.5915756067652</v>
       </c>
       <c r="L22">
-        <v>105.58614597082</v>
+        <v>120.08152112729</v>
       </c>
       <c r="M22">
-        <v>23.329703451671</v>
+        <v>25.7601710890394</v>
       </c>
       <c r="N22">
-        <v>39.664149021813</v>
+        <v>61.3842893583539</v>
       </c>
       <c r="O22">
-        <v>1987.45330894302</v>
+        <v>3179.71099462397</v>
       </c>
       <c r="P22">
-        <v>9.4007611959006</v>
+        <v>14.9311298881</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>3340.50266664832</v>
+        <v>1183.15814380438</v>
       </c>
       <c r="C23">
-        <v>50.6273721290289</v>
+        <v>52.4693927283778</v>
       </c>
       <c r="D23">
-        <v>5.15221657563477</v>
+        <v>10.3997350449146</v>
       </c>
       <c r="E23">
-        <v>82.5979678652956</v>
+        <v>70.8022367558771</v>
       </c>
       <c r="F23">
-        <v>7.30684137199444</v>
+        <v>2.20106609496194</v>
       </c>
       <c r="G23">
-        <v>51.0215745838494</v>
+        <v>65.28014960921401</v>
       </c>
       <c r="H23">
-        <v>65.1982585731665</v>
+        <v>100.524259959801</v>
       </c>
       <c r="I23">
-        <v>30.1589004299774</v>
+        <v>36.8926946199514</v>
       </c>
       <c r="J23">
-        <v>124.938795427307</v>
+        <v>164.310889393184</v>
       </c>
       <c r="K23">
-        <v>89.4997486773227</v>
+        <v>100.781671460968</v>
       </c>
       <c r="L23">
-        <v>35.645367049278</v>
+        <v>39.8253161654366</v>
       </c>
       <c r="M23">
-        <v>493.412217321766</v>
+        <v>679.111340463216</v>
       </c>
       <c r="N23">
-        <v>73.4884853834309</v>
+        <v>108.953609433658</v>
       </c>
       <c r="O23">
-        <v>2378.11250514226</v>
+        <v>4185.4347422883</v>
       </c>
       <c r="P23">
-        <v>53.6174638347742</v>
+        <v>70.59836264738971</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1252.01161456025</v>
+        <v>368.927402487513</v>
       </c>
       <c r="C24">
-        <v>62.7656900531125</v>
+        <v>72.2315209114887</v>
       </c>
       <c r="D24">
-        <v>6.88739593801506</v>
+        <v>12.1576841449532</v>
       </c>
       <c r="E24">
-        <v>83.52215304062619</v>
+        <v>65.16041804233799</v>
       </c>
       <c r="F24">
-        <v>8.901351229627281</v>
+        <v>21.4733641189172</v>
       </c>
       <c r="G24">
-        <v>11.1282852653283</v>
+        <v>14.8917607813414</v>
       </c>
       <c r="H24">
-        <v>11.5057185146131</v>
+        <v>14.810564794547</v>
       </c>
       <c r="I24">
-        <v>11.5986590087166</v>
+        <v>15.2679937600007</v>
       </c>
       <c r="J24">
-        <v>56.505558520718</v>
+        <v>63.997827001523</v>
       </c>
       <c r="K24">
-        <v>49.8611638031299</v>
+        <v>49.5924571548714</v>
       </c>
       <c r="L24">
-        <v>69.85772090029241</v>
+        <v>70.091211623767</v>
       </c>
       <c r="M24">
-        <v>28.4153712811736</v>
+        <v>25.4989399319399</v>
       </c>
       <c r="N24">
-        <v>42.8356556137652</v>
+        <v>67.8639115525387</v>
       </c>
       <c r="O24">
-        <v>1543.59127910981</v>
+        <v>2383.04366829653</v>
       </c>
       <c r="P24">
-        <v>104.233622382908</v>
+        <v>108.994860329037</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>1311.33091076145</v>
+        <v>446.889988193064</v>
       </c>
       <c r="C25">
-        <v>16.0308729262576</v>
+        <v>48.1826831334482</v>
       </c>
       <c r="D25">
-        <v>14.6463966900806</v>
+        <v>18.0987135162124</v>
       </c>
       <c r="E25">
-        <v>25.9331146533032</v>
+        <v>43.2550418743963</v>
       </c>
       <c r="F25">
-        <v>5.18572701594694</v>
+        <v>21.8567927952947</v>
       </c>
       <c r="G25">
-        <v>16.2046280247995</v>
+        <v>16.5968685583251</v>
       </c>
       <c r="H25">
-        <v>6.01272713007187</v>
+        <v>10.9424978933156</v>
       </c>
       <c r="I25">
-        <v>2.2297572551892</v>
+        <v>3.92692930221923</v>
       </c>
       <c r="J25">
-        <v>15.5980708092911</v>
+        <v>19.3091414955861</v>
       </c>
       <c r="K25">
-        <v>17.2699449873347</v>
+        <v>15.6239616880604</v>
       </c>
       <c r="L25">
-        <v>16.521520949552</v>
+        <v>33.0208780810424</v>
       </c>
       <c r="M25">
-        <v>14.8204043010571</v>
+        <v>50.3279195434949</v>
       </c>
       <c r="N25">
-        <v>41.2768753350841</v>
+        <v>47.9375245847252</v>
       </c>
       <c r="O25">
-        <v>597.913326597093</v>
+        <v>1237.45392543849</v>
       </c>
       <c r="P25">
-        <v>26.6461834908665</v>
+        <v>64.6532342198403</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1962.38274806035</v>
+        <v>532.312809000704</v>
       </c>
       <c r="C26">
-        <v>58.5546060960484</v>
+        <v>62.1519062812769</v>
       </c>
       <c r="D26">
-        <v>15.1194638009646</v>
+        <v>16.656521505459</v>
       </c>
       <c r="E26">
-        <v>40.5038457534337</v>
+        <v>49.504494132788</v>
       </c>
       <c r="F26">
-        <v>13.914011676633</v>
+        <v>10.8533943939839</v>
       </c>
       <c r="G26">
-        <v>22.8737806243543</v>
+        <v>44.7543887797894</v>
       </c>
       <c r="H26">
-        <v>13.0112509850021</v>
+        <v>25.9071358688736</v>
       </c>
       <c r="I26">
-        <v>9.05405352355835</v>
+        <v>13.3761607242605</v>
       </c>
       <c r="J26">
-        <v>61.8187214123923</v>
+        <v>54.5084622286499</v>
       </c>
       <c r="K26">
-        <v>44.44536709203</v>
+        <v>29.8696591694338</v>
       </c>
       <c r="L26">
-        <v>41.4782858444313</v>
+        <v>45.6223087636188</v>
       </c>
       <c r="M26">
-        <v>58.5331289016969</v>
+        <v>88.59579669936021</v>
       </c>
       <c r="N26">
-        <v>28.6869329533827</v>
+        <v>36.6395518561453</v>
       </c>
       <c r="O26">
-        <v>1402.04474655678</v>
+        <v>2748.71695814313</v>
       </c>
       <c r="P26">
-        <v>77.1499330721296</v>
+        <v>78.5404516030892</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>378.863122678825</v>
+        <v>86.87542221693791</v>
       </c>
       <c r="C27">
-        <v>3.30608702759645</v>
+        <v>4.20553196696818</v>
       </c>
       <c r="D27">
-        <v>0.397085597157011</v>
+        <v>1.26333628271668</v>
       </c>
       <c r="E27">
-        <v>6.88332211711261</v>
+        <v>15.345034480839</v>
       </c>
       <c r="F27">
-        <v>10.1025565055907</v>
+        <v>11.0783988252403</v>
       </c>
       <c r="G27">
-        <v>1.6051052857205</v>
+        <v>1.15833109536803</v>
       </c>
       <c r="H27">
-        <v>0.00665109567688316</v>
+        <v>0.150977239731304</v>
       </c>
       <c r="I27">
-        <v>1.50482291092703</v>
+        <v>2.22291428921202</v>
       </c>
       <c r="J27">
-        <v>2.63335609157165</v>
+        <v>4.63363390900596</v>
       </c>
       <c r="K27">
-        <v>1.04417060407212</v>
+        <v>2.66961451511113</v>
       </c>
       <c r="L27">
-        <v>1.75085845421232</v>
+        <v>2.47044184877203</v>
       </c>
       <c r="M27">
-        <v>1.24926545781635</v>
+        <v>0.812145412564027</v>
       </c>
       <c r="N27">
-        <v>4.1368139008456</v>
+        <v>5.81727406095993</v>
       </c>
       <c r="O27">
-        <v>307.704082656923</v>
+        <v>547.758603518041</v>
       </c>
       <c r="P27">
-        <v>45.8603274958075</v>
+        <v>58.7495912246984</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>505.539568862</v>
+        <v>126.203166437575</v>
       </c>
       <c r="C28">
-        <v>36.8759632800313</v>
+        <v>44.8168262753797</v>
       </c>
       <c r="D28">
-        <v>1.26247407816315</v>
+        <v>1.15842776240697</v>
       </c>
       <c r="E28">
-        <v>14.7155974787759</v>
+        <v>11.9592576666619</v>
       </c>
       <c r="F28">
-        <v>3.07736723899111</v>
+        <v>2.23385466565222</v>
       </c>
       <c r="G28">
-        <v>5.42566094563603</v>
+        <v>6.25174477550836</v>
       </c>
       <c r="H28">
-        <v>4.41055782245704</v>
+        <v>6.64419589054941</v>
       </c>
       <c r="I28">
-        <v>4.15808547540896</v>
+        <v>5.34182163752178</v>
       </c>
       <c r="J28">
-        <v>11.3387631924488</v>
+        <v>19.3861138325028</v>
       </c>
       <c r="K28">
-        <v>15.7712209211022</v>
+        <v>18.9622886914764</v>
       </c>
       <c r="L28">
-        <v>7.7549156881285</v>
+        <v>12.4124768424627</v>
       </c>
       <c r="M28">
-        <v>10.7164899879397</v>
+        <v>9.27345380403681</v>
       </c>
       <c r="N28">
-        <v>10.5855736591925</v>
+        <v>9.874052635081879</v>
       </c>
       <c r="O28">
-        <v>556.0716544384731</v>
+        <v>882.117070887234</v>
       </c>
       <c r="P28">
-        <v>90.887932046537</v>
+        <v>96.6584265432747</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>809.964099869399</v>
+        <v>243.697609398839</v>
       </c>
       <c r="C29">
-        <v>2.68357227974325</v>
+        <v>1.40292201029495</v>
       </c>
       <c r="D29">
-        <v>1.72852460448355</v>
+        <v>2.54696442802372</v>
       </c>
       <c r="E29">
-        <v>8.727581293862601</v>
+        <v>5.01153136338662</v>
       </c>
       <c r="F29">
-        <v>12.271014579957</v>
+        <v>20.3001257254383</v>
       </c>
       <c r="G29">
-        <v>2.57927238389787</v>
+        <v>1.95430379413187</v>
       </c>
       <c r="H29">
-        <v>2.66487909710472</v>
+        <v>2.60485553381555</v>
       </c>
       <c r="I29">
-        <v>5.753439632012</v>
+        <v>5.000167820804</v>
       </c>
       <c r="J29">
-        <v>8.38310131713277</v>
+        <v>5.48832250560343</v>
       </c>
       <c r="K29">
-        <v>2.61615975372391</v>
+        <v>2.37132606236285</v>
       </c>
       <c r="L29">
-        <v>7.90583948506045</v>
+        <v>5.13216255767438</v>
       </c>
       <c r="M29">
-        <v>2.27097812584152</v>
+        <v>2.76473654927782</v>
       </c>
       <c r="N29">
-        <v>8.157313964073691</v>
+        <v>11.3167444303207</v>
       </c>
       <c r="O29">
-        <v>778.064045596701</v>
+        <v>1314.65033713184</v>
       </c>
       <c r="P29">
-        <v>9.383828866348971</v>
+        <v>6.52048391007492</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>424.134567951584</v>
+        <v>110.576186458537</v>
       </c>
       <c r="C30">
-        <v>3.04356210466704</v>
+        <v>3.33227083971771</v>
       </c>
       <c r="D30">
-        <v>3.39603597504089</v>
+        <v>4.64646844981617</v>
       </c>
       <c r="E30">
-        <v>12.2458485917239</v>
+        <v>12.8525989488473</v>
       </c>
       <c r="F30">
-        <v>0.184720155711853</v>
+        <v>0.129828266591222</v>
       </c>
       <c r="G30">
-        <v>3.43810587178447</v>
+        <v>6.82751305326257</v>
       </c>
       <c r="H30">
-        <v>4.6533025484321</v>
+        <v>7.49310710104927</v>
       </c>
       <c r="I30">
-        <v>1.0530463120027</v>
+        <v>2.11190818559029</v>
       </c>
       <c r="J30">
-        <v>21.6055215374145</v>
+        <v>24.1108009150426</v>
       </c>
       <c r="K30">
-        <v>9.144387263819279</v>
+        <v>10.8239344915905</v>
       </c>
       <c r="L30">
-        <v>25.3922001306486</v>
+        <v>47.6565417401385</v>
       </c>
       <c r="M30">
-        <v>6.37841916875582</v>
+        <v>9.64948349285905</v>
       </c>
       <c r="N30">
-        <v>8.793122206869541</v>
+        <v>12.8359014934394</v>
       </c>
       <c r="O30">
-        <v>438.443581310404</v>
+        <v>686.220977080377</v>
       </c>
       <c r="P30">
-        <v>4.9719062041378</v>
+        <v>4.98340727192242</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2752.51566101199</v>
+        <v>980.739458489962</v>
       </c>
       <c r="C31">
-        <v>31.465977524531</v>
+        <v>43.6186003423496</v>
       </c>
       <c r="D31">
-        <v>15.2222900034232</v>
+        <v>22.4955431051578</v>
       </c>
       <c r="E31">
-        <v>49.1362757300339</v>
+        <v>42.7911355663617</v>
       </c>
       <c r="F31">
-        <v>18.8247791482195</v>
+        <v>10.7185487032749</v>
       </c>
       <c r="G31">
-        <v>132.998372652242</v>
+        <v>149.292620833762</v>
       </c>
       <c r="H31">
-        <v>21.7358587079989</v>
+        <v>17.5535314269916</v>
       </c>
       <c r="I31">
-        <v>19.2237938037015</v>
+        <v>27.0368838897653</v>
       </c>
       <c r="J31">
-        <v>49.0815423375624</v>
+        <v>42.6868319710622</v>
       </c>
       <c r="K31">
-        <v>26.631861087257</v>
+        <v>13.578466008035</v>
       </c>
       <c r="L31">
-        <v>83.05051766606719</v>
+        <v>90.6694303442623</v>
       </c>
       <c r="M31">
-        <v>16.563795034649</v>
+        <v>22.7970303976888</v>
       </c>
       <c r="N31">
-        <v>45.8930367457454</v>
+        <v>57.2193646908654</v>
       </c>
       <c r="O31">
-        <v>2433.15919102722</v>
+        <v>4194.4157357521</v>
       </c>
       <c r="P31">
-        <v>14.2767604332589</v>
+        <v>14.2159012602131</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>713.040828121584</v>
+        <v>246.015496860533</v>
       </c>
       <c r="C32">
-        <v>12.472228342829</v>
+        <v>6.83717970835388</v>
       </c>
       <c r="D32">
-        <v>0.850460357724778</v>
+        <v>1.98271415979447</v>
       </c>
       <c r="E32">
-        <v>4.18294666681319</v>
+        <v>5.63077999470216</v>
       </c>
       <c r="F32">
-        <v>27.7569204908121</v>
+        <v>29.0556551966622</v>
       </c>
       <c r="G32">
-        <v>1.91462400827054</v>
+        <v>1.23292173503023</v>
       </c>
       <c r="H32">
-        <v>0.000102694189242092</v>
+        <v>0.0708858805930548</v>
       </c>
       <c r="I32">
-        <v>4.6684899296155</v>
+        <v>5.514370004222</v>
       </c>
       <c r="J32">
-        <v>4.86894581851737</v>
+        <v>7.58021152569639</v>
       </c>
       <c r="K32">
-        <v>1.58147091456199</v>
+        <v>4.31868600471559</v>
       </c>
       <c r="L32">
-        <v>8.45737340536599</v>
+        <v>11.0347358662791</v>
       </c>
       <c r="M32">
-        <v>7.84995203799128</v>
+        <v>7.25152848991813</v>
       </c>
       <c r="N32">
-        <v>4.898671990767</v>
+        <v>8.397907997130631</v>
       </c>
       <c r="O32">
-        <v>541.250831868251</v>
+        <v>970.197615138404</v>
       </c>
       <c r="P32">
-        <v>20.6071901148775</v>
+        <v>33.5010255655562</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>6164.9081834645</v>
+        <v>2372.87548400261</v>
       </c>
       <c r="C33">
-        <v>62.9661604643737</v>
+        <v>83.30809958606849</v>
       </c>
       <c r="D33">
-        <v>62.8366490268506</v>
+        <v>71.6754106013415</v>
       </c>
       <c r="E33">
-        <v>116.94940582487</v>
+        <v>87.0497875776399</v>
       </c>
       <c r="F33">
-        <v>10.4625368371644</v>
+        <v>10.2486758440931</v>
       </c>
       <c r="G33">
-        <v>66.06891685725439</v>
+        <v>75.3320684172876</v>
       </c>
       <c r="H33">
-        <v>32.9553976991451</v>
+        <v>50.4239735403226</v>
       </c>
       <c r="I33">
-        <v>24.752732181058</v>
+        <v>26.7618694507238</v>
       </c>
       <c r="J33">
-        <v>83.8980266900427</v>
+        <v>115.912423104647</v>
       </c>
       <c r="K33">
-        <v>118.561411833222</v>
+        <v>91.61033837518831</v>
       </c>
       <c r="L33">
-        <v>132.019942908012</v>
+        <v>157.931880134075</v>
       </c>
       <c r="M33">
-        <v>93.9232518567698</v>
+        <v>86.16239826328381</v>
       </c>
       <c r="N33">
-        <v>89.3980676181412</v>
+        <v>160.399560591504</v>
       </c>
       <c r="O33">
-        <v>5369.22617505484</v>
+        <v>9203.49277439232</v>
       </c>
       <c r="P33">
-        <v>79.31978207050941</v>
+        <v>69.52190075293031</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2931.82568774766</v>
+        <v>941.726055920553</v>
       </c>
       <c r="C34">
-        <v>55.29892420034</v>
+        <v>101.764889080896</v>
       </c>
       <c r="D34">
-        <v>127.584346105851</v>
+        <v>207.491474489445</v>
       </c>
       <c r="E34">
-        <v>90.26512965012429</v>
+        <v>75.95142825671719</v>
       </c>
       <c r="F34">
-        <v>4.83314477584268</v>
+        <v>0.872018463667116</v>
       </c>
       <c r="G34">
-        <v>49.7661724601088</v>
+        <v>77.3193037854719</v>
       </c>
       <c r="H34">
-        <v>29.006443977603</v>
+        <v>52.5642459526546</v>
       </c>
       <c r="I34">
-        <v>21.2025296703847</v>
+        <v>27.5888858944551</v>
       </c>
       <c r="J34">
-        <v>35.8655576336909</v>
+        <v>44.0595050395982</v>
       </c>
       <c r="K34">
-        <v>35.9396599701155</v>
+        <v>48.1262743101242</v>
       </c>
       <c r="L34">
-        <v>69.6388641418509</v>
+        <v>106.67351468848</v>
       </c>
       <c r="M34">
-        <v>30.1323161300941</v>
+        <v>54.2567152830757</v>
       </c>
       <c r="N34">
-        <v>102.911009473891</v>
+        <v>161.75096230818</v>
       </c>
       <c r="O34">
-        <v>2201.19086609826</v>
+        <v>3877.67559684803</v>
       </c>
       <c r="P34">
-        <v>48.319267179156</v>
+        <v>87.3744464261621</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>219.919026477828</v>
+        <v>52.4246653137679</v>
       </c>
       <c r="C35">
-        <v>6.95535515371882</v>
+        <v>10.0549563236987</v>
       </c>
       <c r="D35">
-        <v>1.13152434071415</v>
+        <v>0.8096145411335151</v>
       </c>
       <c r="E35">
-        <v>2.47632732909077</v>
+        <v>3.77414599042841</v>
       </c>
       <c r="F35">
-        <v>7.82413022027006</v>
+        <v>6.82682074482074</v>
       </c>
       <c r="G35">
-        <v>0.609455729693105</v>
+        <v>0.474786812963329</v>
       </c>
       <c r="H35">
-        <v>0.07592350224100571</v>
+        <v>0.458700062772227</v>
       </c>
       <c r="I35">
-        <v>0.80041203002594</v>
+        <v>0.617001239800361</v>
       </c>
       <c r="J35">
-        <v>2.19341909977209</v>
+        <v>2.41218849045765</v>
       </c>
       <c r="K35">
-        <v>4.79304262638593</v>
+        <v>6.21564934600707</v>
       </c>
       <c r="L35">
-        <v>3.73688687635581</v>
+        <v>2.81210556822489</v>
       </c>
       <c r="M35">
-        <v>3.48418481149275</v>
+        <v>2.5132767649771</v>
       </c>
       <c r="N35">
-        <v>2.77447158224133</v>
+        <v>3.45976449738433</v>
       </c>
       <c r="O35">
-        <v>228.419524836048</v>
+        <v>359.051655328602</v>
       </c>
       <c r="P35">
-        <v>44.6993206865617</v>
+        <v>61.1132940515018</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3732.655143426</v>
+        <v>1235.50071415383</v>
       </c>
       <c r="C36">
-        <v>76.0129552018535</v>
+        <v>83.9416607090278</v>
       </c>
       <c r="D36">
-        <v>26.3655727452013</v>
+        <v>20.434328256365</v>
       </c>
       <c r="E36">
-        <v>116.806223142109</v>
+        <v>122.911935871191</v>
       </c>
       <c r="F36">
-        <v>18.5486328069366</v>
+        <v>28.155215241043</v>
       </c>
       <c r="G36">
-        <v>81.4655033156979</v>
+        <v>91.3227213093313</v>
       </c>
       <c r="H36">
-        <v>82.5745555140583</v>
+        <v>116.920604732109</v>
       </c>
       <c r="I36">
-        <v>44.8005699965431</v>
+        <v>62.2703064885463</v>
       </c>
       <c r="J36">
-        <v>211.220015982834</v>
+        <v>257.009634084215</v>
       </c>
       <c r="K36">
-        <v>109.543450186204</v>
+        <v>92.7819669287919</v>
       </c>
       <c r="L36">
-        <v>78.16418849834901</v>
+        <v>105.368055168645</v>
       </c>
       <c r="M36">
-        <v>240.888607874078</v>
+        <v>282.176754789094</v>
       </c>
       <c r="N36">
-        <v>75.0056235959526</v>
+        <v>101.370514935634</v>
       </c>
       <c r="O36">
-        <v>2941.90143660002</v>
+        <v>5236.42411908422</v>
       </c>
       <c r="P36">
-        <v>36.480310384672</v>
+        <v>53.208290521059</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1243.83655796651</v>
+        <v>381.448807474169</v>
       </c>
       <c r="C37">
-        <v>19.426673729048</v>
+        <v>27.8637794351204</v>
       </c>
       <c r="D37">
-        <v>8.511731462661251</v>
+        <v>5.89391540157691</v>
       </c>
       <c r="E37">
-        <v>10.4534102864656</v>
+        <v>17.1586845848958</v>
       </c>
       <c r="F37">
-        <v>44.969696899962</v>
+        <v>49.9153032258234</v>
       </c>
       <c r="G37">
-        <v>10.792265970332</v>
+        <v>6.91571535033187</v>
       </c>
       <c r="H37">
-        <v>12.9406024058064</v>
+        <v>24.3381524813105</v>
       </c>
       <c r="I37">
-        <v>7.51029170087985</v>
+        <v>9.71437921810865</v>
       </c>
       <c r="J37">
-        <v>30.1857020483452</v>
+        <v>37.8211536322451</v>
       </c>
       <c r="K37">
-        <v>41.4829390266242</v>
+        <v>45.1037312000516</v>
       </c>
       <c r="L37">
-        <v>17.3714811438306</v>
+        <v>25.5738081507175</v>
       </c>
       <c r="M37">
-        <v>23.0506975428947</v>
+        <v>34.1257108628192</v>
       </c>
       <c r="N37">
-        <v>10.0903529303001</v>
+        <v>19.2875929182407</v>
       </c>
       <c r="O37">
-        <v>882.728190996693</v>
+        <v>1647.96062012976</v>
       </c>
       <c r="P37">
-        <v>22.262764451845</v>
+        <v>51.5626931472833</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1203.85533193675</v>
+        <v>390.386753668195</v>
       </c>
       <c r="C38">
-        <v>16.92006583723</v>
+        <v>33.1630252078465</v>
       </c>
       <c r="D38">
-        <v>12.5451009285635</v>
+        <v>14.2491536246672</v>
       </c>
       <c r="E38">
-        <v>62.34808820594</v>
+        <v>58.476969366899</v>
       </c>
       <c r="F38">
-        <v>3.50971293087499</v>
+        <v>1.59736321861755</v>
       </c>
       <c r="G38">
-        <v>7.07250270870366</v>
+        <v>8.14944366808604</v>
       </c>
       <c r="H38">
-        <v>5.36058868387023</v>
+        <v>7.24262588550947</v>
       </c>
       <c r="I38">
-        <v>1.32634707624765</v>
+        <v>2.61555085211114</v>
       </c>
       <c r="J38">
-        <v>35.3053919846399</v>
+        <v>44.816353806438</v>
       </c>
       <c r="K38">
-        <v>24.1522083153213</v>
+        <v>19.1322538411102</v>
       </c>
       <c r="L38">
-        <v>67.3258312138905</v>
+        <v>87.01450991993801</v>
       </c>
       <c r="M38">
-        <v>25.3840421402104</v>
+        <v>24.8040016840147</v>
       </c>
       <c r="N38">
-        <v>20.3084493596429</v>
+        <v>23.7098979316747</v>
       </c>
       <c r="O38">
-        <v>1025.41313528708</v>
+        <v>1757.6476663192</v>
       </c>
       <c r="P38">
-        <v>54.5734862309221</v>
+        <v>87.4769395064786</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>4158.50779515658</v>
+        <v>1345.11757144738</v>
       </c>
       <c r="C39">
-        <v>79.5508487134607</v>
+        <v>110.318653603329</v>
       </c>
       <c r="D39">
-        <v>60.3410806621486</v>
+        <v>77.423116518999</v>
       </c>
       <c r="E39">
-        <v>114.259859307845</v>
+        <v>117.404987029449</v>
       </c>
       <c r="F39">
-        <v>29.8690888556709</v>
+        <v>31.9405948895302</v>
       </c>
       <c r="G39">
-        <v>76.4864396488444</v>
+        <v>115.283340365579</v>
       </c>
       <c r="H39">
-        <v>49.2628699758332</v>
+        <v>58.185437966865</v>
       </c>
       <c r="I39">
-        <v>47.3171587304356</v>
+        <v>55.2162491789348</v>
       </c>
       <c r="J39">
-        <v>195.827339977256</v>
+        <v>205.553977634306</v>
       </c>
       <c r="K39">
-        <v>73.0962095730162</v>
+        <v>104.054236670968</v>
       </c>
       <c r="L39">
-        <v>95.0762908752513</v>
+        <v>114.07260692384</v>
       </c>
       <c r="M39">
-        <v>64.8499909105044</v>
+        <v>86.67594931290689</v>
       </c>
       <c r="N39">
-        <v>87.9261739216973</v>
+        <v>123.806939598314</v>
       </c>
       <c r="O39">
-        <v>3464.80715653127</v>
+        <v>6034.22948507597</v>
       </c>
       <c r="P39">
-        <v>61.6835422913868</v>
+        <v>76.7747348796544</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>421.177171383471</v>
+        <v>102.533715120921</v>
       </c>
       <c r="C40">
-        <v>1.96387946360933</v>
+        <v>3.94563040234755</v>
       </c>
       <c r="D40">
-        <v>4.06086971619499</v>
+        <v>11.6472460000617</v>
       </c>
       <c r="E40">
-        <v>5.91453957420469</v>
+        <v>9.08303694565765</v>
       </c>
       <c r="F40">
-        <v>0.228947355435515</v>
+        <v>0.156596452193809</v>
       </c>
       <c r="G40">
-        <v>4.03554109424258</v>
+        <v>6.10501630739514</v>
       </c>
       <c r="H40">
-        <v>3.04902152152873</v>
+        <v>6.014714711161</v>
       </c>
       <c r="I40">
-        <v>1.02800787783947</v>
+        <v>2.24245342760582</v>
       </c>
       <c r="J40">
-        <v>13.2225123798196</v>
+        <v>17.9686682151828</v>
       </c>
       <c r="K40">
-        <v>5.33475333324851</v>
+        <v>5.2381205130175</v>
       </c>
       <c r="L40">
-        <v>9.961759180171381</v>
+        <v>17.8781254305921</v>
       </c>
       <c r="M40">
-        <v>6.56556819417213</v>
+        <v>8.08562286577849</v>
       </c>
       <c r="N40">
-        <v>17.9594774067851</v>
+        <v>34.7812398510831</v>
       </c>
       <c r="O40">
-        <v>347.38019585045</v>
+        <v>585.514661829373</v>
       </c>
       <c r="P40">
-        <v>0.718768681004972</v>
+        <v>2.32522569909482</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1603.61950944104</v>
+        <v>487.913725688493</v>
       </c>
       <c r="C41">
-        <v>12.0042271240303</v>
+        <v>16.6105448692778</v>
       </c>
       <c r="D41">
-        <v>50.3028074632193</v>
+        <v>98.28852885193059</v>
       </c>
       <c r="E41">
-        <v>40.338921953629</v>
+        <v>59.4221778417168</v>
       </c>
       <c r="F41">
-        <v>1.47550620101823</v>
+        <v>2.72142525318229</v>
       </c>
       <c r="G41">
-        <v>27.9504918377012</v>
+        <v>42.2684824659825</v>
       </c>
       <c r="H41">
-        <v>40.0001285906147</v>
+        <v>48.9834413519019</v>
       </c>
       <c r="I41">
-        <v>6.97708895524658</v>
+        <v>9.023699969499161</v>
       </c>
       <c r="J41">
-        <v>30.3843493243095</v>
+        <v>63.0651003780393</v>
       </c>
       <c r="K41">
-        <v>23.2990545749282</v>
+        <v>29.2362182594269</v>
       </c>
       <c r="L41">
-        <v>23.8051112134634</v>
+        <v>34.7536664076797</v>
       </c>
       <c r="M41">
-        <v>30.665538297135</v>
+        <v>54.3795667056968</v>
       </c>
       <c r="N41">
-        <v>22.6678035070975</v>
+        <v>26.8953534253721</v>
       </c>
       <c r="O41">
-        <v>990.10451929845</v>
+        <v>1927.19427147069</v>
       </c>
       <c r="P41">
-        <v>15.6979389220202</v>
+        <v>20.0117654646149</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>278.419882175918</v>
+        <v>58.3550050227182</v>
       </c>
       <c r="C42">
-        <v>10.0155957061695</v>
+        <v>11.7467518214746</v>
       </c>
       <c r="D42">
-        <v>0.849994624553893</v>
+        <v>0.291405894202611</v>
       </c>
       <c r="E42">
-        <v>8.15472432381968</v>
+        <v>11.4288926704662</v>
       </c>
       <c r="F42">
-        <v>2.99108786085536</v>
+        <v>3.3372013871468</v>
       </c>
       <c r="G42">
-        <v>0.588533354454619</v>
+        <v>0.814272840950273</v>
       </c>
       <c r="H42">
-        <v>1.71761598904835</v>
+        <v>1.8558806356977</v>
       </c>
       <c r="I42">
-        <v>4.9319701755938</v>
+        <v>3.36890943839971</v>
       </c>
       <c r="J42">
-        <v>7.09420512597929</v>
+        <v>5.94106490846927</v>
       </c>
       <c r="K42">
-        <v>5.56024678022483</v>
+        <v>5.36799017205762</v>
       </c>
       <c r="L42">
-        <v>5.07305499130261</v>
+        <v>8.1325419481689</v>
       </c>
       <c r="M42">
-        <v>3.03393455382981</v>
+        <v>3.72620224112754</v>
       </c>
       <c r="N42">
-        <v>11.2444774881377</v>
+        <v>9.777095623884261</v>
       </c>
       <c r="O42">
-        <v>299.136419620187</v>
+        <v>461.454699987663</v>
       </c>
       <c r="P42">
-        <v>42.7807929605555</v>
+        <v>63.2007692938633</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>2185.48092884171</v>
+        <v>773.430588871133</v>
       </c>
       <c r="C43">
-        <v>43.4531677708151</v>
+        <v>58.0705119813857</v>
       </c>
       <c r="D43">
-        <v>13.6984706763933</v>
+        <v>31.0722679135879</v>
       </c>
       <c r="E43">
-        <v>63.098438566374</v>
+        <v>73.42863286587389</v>
       </c>
       <c r="F43">
-        <v>3.75880868091415</v>
+        <v>7.08055690531058</v>
       </c>
       <c r="G43">
-        <v>38.5410123141794</v>
+        <v>44.3814118164603</v>
       </c>
       <c r="H43">
-        <v>28.7720620042581</v>
+        <v>32.57844806397</v>
       </c>
       <c r="I43">
-        <v>11.7553907549686</v>
+        <v>21.9381872622743</v>
       </c>
       <c r="J43">
-        <v>53.4391602488773</v>
+        <v>60.8360841640783</v>
       </c>
       <c r="K43">
-        <v>40.7812040493339</v>
+        <v>44.260348804599</v>
       </c>
       <c r="L43">
-        <v>28.8223906065394</v>
+        <v>45.7553832779655</v>
       </c>
       <c r="M43">
-        <v>102.613483030676</v>
+        <v>109.586313528163</v>
       </c>
       <c r="N43">
-        <v>41.7912239833522</v>
+        <v>58.2273652939571</v>
       </c>
       <c r="O43">
-        <v>1482.2665584378</v>
+        <v>2752.34275594003</v>
       </c>
       <c r="P43">
-        <v>27.1991917040151</v>
+        <v>57.367530995328</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>6707.16431562215</v>
+        <v>2692.19965721251</v>
       </c>
       <c r="C44">
-        <v>83.39115673501929</v>
+        <v>141.907833041588</v>
       </c>
       <c r="D44">
-        <v>51.2267725443291</v>
+        <v>53.934092668285</v>
       </c>
       <c r="E44">
-        <v>102.339546360694</v>
+        <v>103.509449304171</v>
       </c>
       <c r="F44">
-        <v>226.464574356229</v>
+        <v>273.366748106994</v>
       </c>
       <c r="G44">
-        <v>98.50739222402009</v>
+        <v>118.896363953679</v>
       </c>
       <c r="H44">
-        <v>48.9968481791475</v>
+        <v>48.7282019706778</v>
       </c>
       <c r="I44">
-        <v>47.3705289602416</v>
+        <v>50.466424640753</v>
       </c>
       <c r="J44">
-        <v>129.433473908693</v>
+        <v>128.229320151467</v>
       </c>
       <c r="K44">
-        <v>89.3273189756769</v>
+        <v>84.30437947090989</v>
       </c>
       <c r="L44">
-        <v>211.176306474443</v>
+        <v>222.399576793639</v>
       </c>
       <c r="M44">
-        <v>143.39306003044</v>
+        <v>129.038167007014</v>
       </c>
       <c r="N44">
-        <v>97.14187942315149</v>
+        <v>116.296733372781</v>
       </c>
       <c r="O44">
-        <v>5963.94969243401</v>
+        <v>9843.39037111775</v>
       </c>
       <c r="P44">
-        <v>92.3479140229345</v>
+        <v>227.455674861253</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>664.347182213566</v>
+        <v>285.209435769895</v>
       </c>
       <c r="C45">
-        <v>14.4468392009378</v>
+        <v>22.5205992757382</v>
       </c>
       <c r="D45">
-        <v>3.5945763405049</v>
+        <v>4.15667032505816</v>
       </c>
       <c r="E45">
-        <v>21.2981700942231</v>
+        <v>13.9695011014597</v>
       </c>
       <c r="F45">
-        <v>16.4688971101099</v>
+        <v>23.4968100892657</v>
       </c>
       <c r="G45">
-        <v>16.2102638214169</v>
+        <v>14.331479927593</v>
       </c>
       <c r="H45">
-        <v>1.42452883133099</v>
+        <v>2.33986790082572</v>
       </c>
       <c r="I45">
-        <v>6.60835406961362</v>
+        <v>4.52502082381256</v>
       </c>
       <c r="J45">
-        <v>13.8188349804987</v>
+        <v>16.6025272505192</v>
       </c>
       <c r="K45">
-        <v>7.59039951649609</v>
+        <v>5.69618379821874</v>
       </c>
       <c r="L45">
-        <v>17.3916484396417</v>
+        <v>19.1485148857996</v>
       </c>
       <c r="M45">
-        <v>22.0546490193692</v>
+        <v>23.8133673975547</v>
       </c>
       <c r="N45">
-        <v>18.3193950494249</v>
+        <v>26.3759275828369</v>
       </c>
       <c r="O45">
-        <v>667.441253488488</v>
+        <v>1019.67204408965</v>
       </c>
       <c r="P45">
-        <v>7.8080475794526</v>
+        <v>18.6970129582401</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>232.16317044254</v>
+        <v>50.0146676356584</v>
       </c>
       <c r="C46">
-        <v>5.14392797133391</v>
+        <v>6.73291647564069</v>
       </c>
       <c r="D46">
-        <v>1.15908804448554</v>
+        <v>1.37204043380447</v>
       </c>
       <c r="E46">
-        <v>8.26764776650101</v>
+        <v>8.14870355532782</v>
       </c>
       <c r="F46">
-        <v>0.957144252089892</v>
+        <v>1.71464888269149</v>
       </c>
       <c r="G46">
-        <v>1.88051637475026</v>
+        <v>2.54006927815297</v>
       </c>
       <c r="H46">
-        <v>3.37829864981409</v>
+        <v>3.02511218418605</v>
       </c>
       <c r="I46">
-        <v>1.88059369500517</v>
+        <v>1.90860108078491</v>
       </c>
       <c r="J46">
-        <v>5.95832169098141</v>
+        <v>6.96010289679796</v>
       </c>
       <c r="K46">
-        <v>3.56592036744528</v>
+        <v>3.9919133451484</v>
       </c>
       <c r="L46">
-        <v>14.9802400988844</v>
+        <v>16.4277995274017</v>
       </c>
       <c r="M46">
-        <v>5.64435356837837</v>
+        <v>6.2725498412798</v>
       </c>
       <c r="N46">
-        <v>5.95262012259177</v>
+        <v>7.29185694715528</v>
       </c>
       <c r="O46">
-        <v>243.748219735253</v>
+        <v>387.091981289537</v>
       </c>
       <c r="P46">
-        <v>12.7567764462101</v>
+        <v>15.2590691141596</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>2262.92341944084</v>
+        <v>720.017902482545</v>
       </c>
       <c r="C47">
-        <v>41.3338651993891</v>
+        <v>63.9935028602417</v>
       </c>
       <c r="D47">
-        <v>35.5682646795905</v>
+        <v>40.566354416795</v>
       </c>
       <c r="E47">
-        <v>60.3719214127266</v>
+        <v>58.1002779893633</v>
       </c>
       <c r="F47">
-        <v>17.7149872922818</v>
+        <v>14.9352548983761</v>
       </c>
       <c r="G47">
-        <v>14.6816935629358</v>
+        <v>18.0420174058371</v>
       </c>
       <c r="H47">
-        <v>22.9205007390956</v>
+        <v>18.8475804336048</v>
       </c>
       <c r="I47">
-        <v>14.745483839855</v>
+        <v>10.3253381493693</v>
       </c>
       <c r="J47">
-        <v>30.9460524250765</v>
+        <v>40.7374598277926</v>
       </c>
       <c r="K47">
-        <v>17.6625914364306</v>
+        <v>12.5934629635343</v>
       </c>
       <c r="L47">
-        <v>37.1920362940073</v>
+        <v>48.1819993856485</v>
       </c>
       <c r="M47">
-        <v>67.6169765288853</v>
+        <v>70.03112925513371</v>
       </c>
       <c r="N47">
-        <v>43.6212125594184</v>
+        <v>30.71112784932</v>
       </c>
       <c r="O47">
-        <v>2130.44237347911</v>
+        <v>3629.64406918197</v>
       </c>
       <c r="P47">
-        <v>25.1570644156728</v>
+        <v>57.5875591733739</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>2047.69426489463</v>
+        <v>719.269726476356</v>
       </c>
       <c r="C48">
-        <v>29.5136145395304</v>
+        <v>29.9935239787924</v>
       </c>
       <c r="D48">
-        <v>8.7584375461641</v>
+        <v>8.613526568448259</v>
       </c>
       <c r="E48">
-        <v>38.3113948416115</v>
+        <v>59.3023532712754</v>
       </c>
       <c r="F48">
-        <v>3.76196838394157</v>
+        <v>8.67030996731782</v>
       </c>
       <c r="G48">
-        <v>4.50407853875206</v>
+        <v>3.64247022110882</v>
       </c>
       <c r="H48">
-        <v>5.95313067477876</v>
+        <v>5.61133993750177</v>
       </c>
       <c r="I48">
-        <v>9.68805434616996</v>
+        <v>14.6141294451363</v>
       </c>
       <c r="J48">
-        <v>16.7956833040046</v>
+        <v>38.2475322553315</v>
       </c>
       <c r="K48">
-        <v>20.5062653458537</v>
+        <v>14.9995157686966</v>
       </c>
       <c r="L48">
-        <v>36.6284532070254</v>
+        <v>46.8895749585554</v>
       </c>
       <c r="M48">
-        <v>124.657382704833</v>
+        <v>139.644405841044</v>
       </c>
       <c r="N48">
-        <v>27.2766700139631</v>
+        <v>36.3842638200588</v>
       </c>
       <c r="O48">
-        <v>1776.21062385383</v>
+        <v>2981.64106593919</v>
       </c>
       <c r="P48">
-        <v>49.3044680304936</v>
+        <v>103.893963429845</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>1026.21592441798</v>
+        <v>363.865872970017</v>
       </c>
       <c r="C49">
-        <v>4.12985892006901</v>
+        <v>7.67175756277746</v>
       </c>
       <c r="D49">
-        <v>0.714901514829433</v>
+        <v>1.3288246152101</v>
       </c>
       <c r="E49">
-        <v>9.850486227047879</v>
+        <v>21.3377915417139</v>
       </c>
       <c r="F49">
-        <v>22.5836909698206</v>
+        <v>46.9473875520783</v>
       </c>
       <c r="G49">
-        <v>14.3486608759464</v>
+        <v>21.6819011363778</v>
       </c>
       <c r="H49">
-        <v>7.35856916570238</v>
+        <v>11.1985670160876</v>
       </c>
       <c r="I49">
-        <v>1.64224894632958</v>
+        <v>6.59286887032391</v>
       </c>
       <c r="J49">
-        <v>18.3432889180578</v>
+        <v>31.1758786293399</v>
       </c>
       <c r="K49">
-        <v>6.13260692021618</v>
+        <v>9.970848815171809</v>
       </c>
       <c r="L49">
-        <v>2.46195019002544</v>
+        <v>3.40248344581141</v>
       </c>
       <c r="M49">
-        <v>3.67787139798141</v>
+        <v>5.79376807530853</v>
       </c>
       <c r="N49">
-        <v>3.468105106032</v>
+        <v>3.81644990855772</v>
       </c>
       <c r="O49">
-        <v>386.524477734579</v>
+        <v>922.782883910376</v>
       </c>
       <c r="P49">
-        <v>12.9809478775124</v>
+        <v>20.9399479766607</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1664.00460225556</v>
+        <v>442.359106918773</v>
       </c>
       <c r="C50">
-        <v>76.73213711054851</v>
+        <v>85.2829698319688</v>
       </c>
       <c r="D50">
-        <v>9.14104774223596</v>
+        <v>10.9274153342802</v>
       </c>
       <c r="E50">
-        <v>149.923009039442</v>
+        <v>155.155180550839</v>
       </c>
       <c r="F50">
-        <v>8.76772578092314</v>
+        <v>7.93983219691825</v>
       </c>
       <c r="G50">
-        <v>15.946795997477</v>
+        <v>27.5848338898628</v>
       </c>
       <c r="H50">
-        <v>47.4623063428226</v>
+        <v>52.3745384527017</v>
       </c>
       <c r="I50">
-        <v>11.1260473503914</v>
+        <v>20.4092489777543</v>
       </c>
       <c r="J50">
-        <v>85.21987357025409</v>
+        <v>131.604128173251</v>
       </c>
       <c r="K50">
-        <v>70.9118030008774</v>
+        <v>73.531402322353</v>
       </c>
       <c r="L50">
-        <v>45.9033675933616</v>
+        <v>75.5480281605581</v>
       </c>
       <c r="M50">
-        <v>45.7186069251914</v>
+        <v>41.9330485263354</v>
       </c>
       <c r="N50">
-        <v>58.5685155202577</v>
+        <v>74.76064909046541</v>
       </c>
       <c r="O50">
-        <v>1395.86946988162</v>
+        <v>2486.40648831883</v>
       </c>
       <c r="P50">
-        <v>98.13561704649091</v>
+        <v>99.4533265515141</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>247.658014119572</v>
+        <v>62.8433195147283</v>
       </c>
       <c r="C51">
-        <v>0.505124962478777</v>
+        <v>1.58997552670647</v>
       </c>
       <c r="D51">
-        <v>0.564204850442193</v>
+        <v>0.164755767709492</v>
       </c>
       <c r="E51">
-        <v>1.22988949872006</v>
+        <v>2.90071797293611</v>
       </c>
       <c r="F51">
-        <v>34.9329547526759</v>
+        <v>47.071432811704</v>
       </c>
       <c r="G51">
-        <v>6.51604321536261</v>
+        <v>3.96855952517263</v>
       </c>
       <c r="H51">
-        <v>0.455278598670983</v>
+        <v>0.321883547378621</v>
       </c>
       <c r="I51">
-        <v>0.278170987836579</v>
+        <v>0.751744773048416</v>
       </c>
       <c r="J51">
-        <v>2.76229962885327</v>
+        <v>2.13081038339599</v>
       </c>
       <c r="K51">
-        <v>0.744964204292494</v>
+        <v>0.769782017437187</v>
       </c>
       <c r="L51">
-        <v>0.270504063435131</v>
+        <v>0.290039639598133</v>
       </c>
       <c r="M51">
-        <v>0.460825845602023</v>
+        <v>0.47728723173617</v>
       </c>
       <c r="N51">
-        <v>1.6021991858104</v>
+        <v>1.46860293750434</v>
       </c>
       <c r="O51">
-        <v>233.459811228623</v>
+        <v>355.287091681641</v>
       </c>
       <c r="P51">
-        <v>9.18359676325834</v>
+        <v>23.1939257900214</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>581.108393117276</v>
+        <v>400.104559864065</v>
       </c>
       <c r="C2">
-        <v>51.1800215410198</v>
+        <v>47.4558278666399</v>
       </c>
       <c r="D2">
-        <v>74.39516048882091</v>
+        <v>70.2622409743351</v>
       </c>
       <c r="E2">
-        <v>77.71096308664239</v>
+        <v>93.7609674689094</v>
       </c>
       <c r="F2">
-        <v>26.454520444971</v>
+        <v>29.683429361217</v>
       </c>
       <c r="G2">
-        <v>16.8127878279601</v>
+        <v>22.6129822997728</v>
       </c>
       <c r="H2">
-        <v>23.6866796402262</v>
+        <v>36.1441771744809</v>
       </c>
       <c r="I2">
-        <v>21.3079929196343</v>
+        <v>27.4646252164225</v>
       </c>
       <c r="J2">
-        <v>80.56595338737679</v>
+        <v>91.1104034526594</v>
       </c>
       <c r="K2">
-        <v>27.5154981715018</v>
+        <v>28.4381129826188</v>
       </c>
       <c r="L2">
-        <v>40.1233147861199</v>
+        <v>38.4695853897144</v>
       </c>
       <c r="M2">
-        <v>54.3690246318331</v>
+        <v>62.0961637658766</v>
       </c>
       <c r="N2">
-        <v>28.5363014537812</v>
+        <v>28.3934065290334</v>
       </c>
       <c r="O2">
-        <v>2070.28824893983</v>
+        <v>2175.95251190863</v>
       </c>
       <c r="P2">
-        <v>37.0185266402274</v>
+        <v>38.1138605551366</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>99.1386607784778</v>
+        <v>91.8071421946761</v>
       </c>
       <c r="C3">
-        <v>5.20996420322668</v>
+        <v>4.31900449141926</v>
       </c>
       <c r="D3">
-        <v>0.14623962734529</v>
+        <v>0.200393324775782</v>
       </c>
       <c r="E3">
-        <v>1.06970049491564</v>
+        <v>1.03343201217371</v>
       </c>
       <c r="F3">
-        <v>13.9649058551636</v>
+        <v>16.6573166698977</v>
       </c>
       <c r="G3">
-        <v>0.29610339693531</v>
+        <v>0.278189112142568</v>
       </c>
       <c r="H3">
-        <v>0.070528671054153</v>
+        <v>0.0902282060238781</v>
       </c>
       <c r="I3">
-        <v>0.302463245789943</v>
+        <v>0.279616827273391</v>
       </c>
       <c r="J3">
-        <v>0.162650917698183</v>
+        <v>0.187962297090579</v>
       </c>
       <c r="K3">
-        <v>0.0560020968662705</v>
+        <v>0.109683621173462</v>
       </c>
       <c r="L3">
-        <v>0.0863042225798729</v>
+        <v>0.0999796993649532</v>
       </c>
       <c r="M3">
-        <v>0.379395465615762</v>
+        <v>0.428218841250645</v>
       </c>
       <c r="N3">
-        <v>0.777345452864288</v>
+        <v>0.909922388460933</v>
       </c>
       <c r="O3">
-        <v>390.532632932402</v>
+        <v>436.20198922982</v>
       </c>
       <c r="P3">
-        <v>11.7748862724327</v>
+        <v>11.0412816973797</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>702.419504996784</v>
+        <v>520.4351030369201</v>
       </c>
       <c r="C4">
-        <v>15.2658317519547</v>
+        <v>15.6365104432133</v>
       </c>
       <c r="D4">
-        <v>4.04342735937429</v>
+        <v>5.86304676473243</v>
       </c>
       <c r="E4">
-        <v>17.0699407602565</v>
+        <v>12.3535223091193</v>
       </c>
       <c r="F4">
-        <v>9.324634684668521</v>
+        <v>6.03775868419776</v>
       </c>
       <c r="G4">
-        <v>8.26532481162535</v>
+        <v>11.0065622898288</v>
       </c>
       <c r="H4">
-        <v>10.4723707903415</v>
+        <v>11.6121414071183</v>
       </c>
       <c r="I4">
-        <v>15.9076750598511</v>
+        <v>16.8613815707431</v>
       </c>
       <c r="J4">
-        <v>40.7608044313189</v>
+        <v>42.6699306225388</v>
       </c>
       <c r="K4">
-        <v>11.9273278141524</v>
+        <v>12.3015808113223</v>
       </c>
       <c r="L4">
-        <v>81.16682911782679</v>
+        <v>102.597749850314</v>
       </c>
       <c r="M4">
-        <v>58.1681057530264</v>
+        <v>66.0236060479063</v>
       </c>
       <c r="N4">
-        <v>38.5969921132198</v>
+        <v>42.0965235328567</v>
       </c>
       <c r="O4">
-        <v>2794.06648218711</v>
+        <v>2887.46359814494</v>
       </c>
       <c r="P4">
-        <v>46.358155802632</v>
+        <v>38.9364078070982</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>326.120618162401</v>
+        <v>242.240291078735</v>
       </c>
       <c r="C5">
-        <v>89.3450467018241</v>
+        <v>86.2440072765218</v>
       </c>
       <c r="D5">
-        <v>17.0358694832149</v>
+        <v>18.792021853093</v>
       </c>
       <c r="E5">
-        <v>53.2357764207506</v>
+        <v>48.3926599369111</v>
       </c>
       <c r="F5">
-        <v>5.56454244215577</v>
+        <v>3.66856866453952</v>
       </c>
       <c r="G5">
-        <v>10.0897754572442</v>
+        <v>9.91027539353318</v>
       </c>
       <c r="H5">
-        <v>18.0019809666031</v>
+        <v>18.5484616333617</v>
       </c>
       <c r="I5">
-        <v>10.9383269738875</v>
+        <v>12.0516484053575</v>
       </c>
       <c r="J5">
-        <v>33.9649784180299</v>
+        <v>41.2665044874793</v>
       </c>
       <c r="K5">
-        <v>22.4625268231425</v>
+        <v>26.9893565601121</v>
       </c>
       <c r="L5">
-        <v>21.2269173491018</v>
+        <v>26.0750807428243</v>
       </c>
       <c r="M5">
-        <v>28.4565317431175</v>
+        <v>24.5626107788839</v>
       </c>
       <c r="N5">
-        <v>23.0464868582333</v>
+        <v>22.4626424642644</v>
       </c>
       <c r="O5">
-        <v>1197.48838746631</v>
+        <v>1288.30354453048</v>
       </c>
       <c r="P5">
-        <v>79.30310514524611</v>
+        <v>65.36270392332371</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>4517.35172625814</v>
+        <v>3498.66941777968</v>
       </c>
       <c r="C6">
-        <v>191.573954258887</v>
+        <v>170.993050947292</v>
       </c>
       <c r="D6">
-        <v>141.882590890106</v>
+        <v>176.225017778138</v>
       </c>
       <c r="E6">
-        <v>172.440651864472</v>
+        <v>148.759436995431</v>
       </c>
       <c r="F6">
-        <v>31.0302638731877</v>
+        <v>33.5136645633608</v>
       </c>
       <c r="G6">
-        <v>104.808222632325</v>
+        <v>130.333189445003</v>
       </c>
       <c r="H6">
-        <v>64.5395995544236</v>
+        <v>75.3902161284675</v>
       </c>
       <c r="I6">
-        <v>49.3484265036263</v>
+        <v>56.3833814832605</v>
       </c>
       <c r="J6">
-        <v>182.008565425619</v>
+        <v>201.502192101569</v>
       </c>
       <c r="K6">
-        <v>102.139682021138</v>
+        <v>123.318422200305</v>
       </c>
       <c r="L6">
-        <v>566.513579355797</v>
+        <v>578.848339282715</v>
       </c>
       <c r="M6">
-        <v>281.681214658946</v>
+        <v>361.041908970643</v>
       </c>
       <c r="N6">
-        <v>295.366570337601</v>
+        <v>336.795564098662</v>
       </c>
       <c r="O6">
-        <v>15500.9826885574</v>
+        <v>16129.9254061898</v>
       </c>
       <c r="P6">
-        <v>282.031666375997</v>
+        <v>215.822074584842</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>419.55923590202</v>
+        <v>344.849207799858</v>
       </c>
       <c r="C7">
-        <v>36.8910808031629</v>
+        <v>43.1315186617154</v>
       </c>
       <c r="D7">
-        <v>3.22092370009736</v>
+        <v>3.12946026779241</v>
       </c>
       <c r="E7">
-        <v>22.4012751896313</v>
+        <v>18.4688308105702</v>
       </c>
       <c r="F7">
-        <v>18.8174301013918</v>
+        <v>16.6911997451793</v>
       </c>
       <c r="G7">
-        <v>10.0077277813054</v>
+        <v>11.6770971637906</v>
       </c>
       <c r="H7">
-        <v>5.35263069343896</v>
+        <v>7.00311258289975</v>
       </c>
       <c r="I7">
-        <v>10.7794859821617</v>
+        <v>9.940034832411509</v>
       </c>
       <c r="J7">
-        <v>16.4151300293762</v>
+        <v>17.6250962193776</v>
       </c>
       <c r="K7">
-        <v>11.659249503636</v>
+        <v>13.7095184845588</v>
       </c>
       <c r="L7">
-        <v>60.3368446886987</v>
+        <v>65.4349557225807</v>
       </c>
       <c r="M7">
-        <v>18.7495001425954</v>
+        <v>23.6072312996558</v>
       </c>
       <c r="N7">
-        <v>24.6515423516036</v>
+        <v>27.1558853644219</v>
       </c>
       <c r="O7">
-        <v>2234.23592794233</v>
+        <v>2310.85063791141</v>
       </c>
       <c r="P7">
-        <v>40.5739723147409</v>
+        <v>26.3624144466065</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>341.537626559372</v>
+        <v>245.865881350436</v>
       </c>
       <c r="C8">
-        <v>10.8691470756434</v>
+        <v>13.6275547826261</v>
       </c>
       <c r="D8">
-        <v>7.09975555305117</v>
+        <v>5.65597691126456</v>
       </c>
       <c r="E8">
-        <v>20.8243335303697</v>
+        <v>15.545524473649</v>
       </c>
       <c r="F8">
-        <v>2.10844915040594</v>
+        <v>1.4710762090341</v>
       </c>
       <c r="G8">
-        <v>36.4792537855428</v>
+        <v>39.7024884869158</v>
       </c>
       <c r="H8">
-        <v>9.57209084834583</v>
+        <v>13.1344016632753</v>
       </c>
       <c r="I8">
-        <v>2.4950147224903</v>
+        <v>1.63701324815275</v>
       </c>
       <c r="J8">
-        <v>58.7191772508458</v>
+        <v>59.6946752365717</v>
       </c>
       <c r="K8">
-        <v>21.6733913944053</v>
+        <v>31.6714192058568</v>
       </c>
       <c r="L8">
-        <v>42.5249420483315</v>
+        <v>50.9966907997805</v>
       </c>
       <c r="M8">
-        <v>63.6792491853457</v>
+        <v>82.9526463191828</v>
       </c>
       <c r="N8">
-        <v>21.2882754141033</v>
+        <v>28.2154046140718</v>
       </c>
       <c r="O8">
-        <v>1669.8466672205</v>
+        <v>1734.18078713167</v>
       </c>
       <c r="P8">
-        <v>7.04513023155</v>
+        <v>5.55110820108116</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>82.8415529881719</v>
+        <v>67.7793301398177</v>
       </c>
       <c r="C9">
-        <v>15.5362845094979</v>
+        <v>13.8999663502242</v>
       </c>
       <c r="D9">
-        <v>1.74082651148084</v>
+        <v>1.7454998371492</v>
       </c>
       <c r="E9">
-        <v>7.64631074523336</v>
+        <v>6.45042582725964</v>
       </c>
       <c r="F9">
-        <v>1.85627359219188</v>
+        <v>2.52347643585126</v>
       </c>
       <c r="G9">
-        <v>28.5393785035071</v>
+        <v>35.7679517022291</v>
       </c>
       <c r="H9">
-        <v>2.1353854845758</v>
+        <v>2.52615721497846</v>
       </c>
       <c r="I9">
-        <v>3.03048256114158</v>
+        <v>2.65981758282191</v>
       </c>
       <c r="J9">
-        <v>5.23097111499697</v>
+        <v>5.70316919481887</v>
       </c>
       <c r="K9">
-        <v>4.32027177263033</v>
+        <v>6.37991396171105</v>
       </c>
       <c r="L9">
-        <v>4.79650005176094</v>
+        <v>5.97650681147275</v>
       </c>
       <c r="M9">
-        <v>11.4067713525487</v>
+        <v>11.1319441891407</v>
       </c>
       <c r="N9">
-        <v>6.46527972398348</v>
+        <v>8.193076372716311</v>
       </c>
       <c r="O9">
-        <v>512.91866444162</v>
+        <v>564.292351045466</v>
       </c>
       <c r="P9">
-        <v>9.675955823517439</v>
+        <v>10.0454457994072</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>2110.96557239861</v>
+        <v>1494.94653498691</v>
       </c>
       <c r="C10">
-        <v>59.1294340022343</v>
+        <v>57.0014188237445</v>
       </c>
       <c r="D10">
-        <v>17.8522878905398</v>
+        <v>19.6954604705196</v>
       </c>
       <c r="E10">
-        <v>63.4849143764212</v>
+        <v>52.6284932393229</v>
       </c>
       <c r="F10">
-        <v>15.7883107315949</v>
+        <v>14.4769984355904</v>
       </c>
       <c r="G10">
-        <v>26.1229379952228</v>
+        <v>28.4908545382142</v>
       </c>
       <c r="H10">
-        <v>18.6671026518</v>
+        <v>18.7643393979674</v>
       </c>
       <c r="I10">
-        <v>33.3874685665453</v>
+        <v>36.4644796740533</v>
       </c>
       <c r="J10">
-        <v>59.0330640466925</v>
+        <v>59.811935065831</v>
       </c>
       <c r="K10">
-        <v>22.394692421987</v>
+        <v>29.5257913043269</v>
       </c>
       <c r="L10">
-        <v>102.973522899189</v>
+        <v>117.50208533424</v>
       </c>
       <c r="M10">
-        <v>109.107833859793</v>
+        <v>125.293412221652</v>
       </c>
       <c r="N10">
-        <v>110.511526740897</v>
+        <v>121.357076635783</v>
       </c>
       <c r="O10">
-        <v>9447.95555447273</v>
+        <v>9959.34261943309</v>
       </c>
       <c r="P10">
-        <v>82.0471445945691</v>
+        <v>65.7234811417196</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>938.084128846747</v>
+        <v>697.730805496373</v>
       </c>
       <c r="C11">
-        <v>66.52956935373049</v>
+        <v>66.9441364875173</v>
       </c>
       <c r="D11">
-        <v>156.894863500167</v>
+        <v>170.84288374768</v>
       </c>
       <c r="E11">
-        <v>103.353958882033</v>
+        <v>113.851826844757</v>
       </c>
       <c r="F11">
-        <v>7.78302882529079</v>
+        <v>6.26478956704672</v>
       </c>
       <c r="G11">
-        <v>31.771286455001</v>
+        <v>36.7948621151075</v>
       </c>
       <c r="H11">
-        <v>24.956173820489</v>
+        <v>21.7970935895263</v>
       </c>
       <c r="I11">
-        <v>20.5741374886074</v>
+        <v>23.8871209992249</v>
       </c>
       <c r="J11">
-        <v>76.5959284312214</v>
+        <v>70.85923855948551</v>
       </c>
       <c r="K11">
-        <v>30.8879622604398</v>
+        <v>37.0226598172477</v>
       </c>
       <c r="L11">
-        <v>59.4052306827293</v>
+        <v>66.19058179129421</v>
       </c>
       <c r="M11">
-        <v>61.1487391849197</v>
+        <v>57.6251795573497</v>
       </c>
       <c r="N11">
-        <v>53.8518477307697</v>
+        <v>53.2852383138709</v>
       </c>
       <c r="O11">
-        <v>4185.48720174355</v>
+        <v>4389.03765360417</v>
       </c>
       <c r="P11">
-        <v>31.1824243782634</v>
+        <v>25.4613484089235</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>139.755802826192</v>
+        <v>111.689134513153</v>
       </c>
       <c r="C12">
-        <v>7.55821216292546</v>
+        <v>10.528651437708</v>
       </c>
       <c r="D12">
-        <v>1.48682116134701</v>
+        <v>1.67121065884505</v>
       </c>
       <c r="E12">
-        <v>1.51107402147149</v>
+        <v>1.48759029933254</v>
       </c>
       <c r="F12">
-        <v>0.240796123475036</v>
+        <v>0.365900976497038</v>
       </c>
       <c r="G12">
-        <v>0.934418613832338</v>
+        <v>0.839521965763345</v>
       </c>
       <c r="H12">
-        <v>0.580221968375219</v>
+        <v>0.497600078610266</v>
       </c>
       <c r="I12">
-        <v>1.47714585028976</v>
+        <v>1.79058308702767</v>
       </c>
       <c r="J12">
-        <v>0.765095875757463</v>
+        <v>0.973106059092171</v>
       </c>
       <c r="K12">
-        <v>0.0988753180764046</v>
+        <v>0.121589722157737</v>
       </c>
       <c r="L12">
-        <v>0.296534135364747</v>
+        <v>0.340622131647806</v>
       </c>
       <c r="M12">
-        <v>2.5939679605856</v>
+        <v>3.34920055139748</v>
       </c>
       <c r="N12">
-        <v>5.1198551446839</v>
+        <v>5.8911765694628</v>
       </c>
       <c r="O12">
-        <v>774.839104044901</v>
+        <v>846.200474740092</v>
       </c>
       <c r="P12">
-        <v>26.314972077642</v>
+        <v>23.622993751203</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>135.587717487767</v>
+        <v>114.467301256102</v>
       </c>
       <c r="C13">
-        <v>32.5222573614596</v>
+        <v>33.6743291118893</v>
       </c>
       <c r="D13">
-        <v>1.39539164815654</v>
+        <v>1.20392744262689</v>
       </c>
       <c r="E13">
-        <v>17.7438217283681</v>
+        <v>17.4369432596633</v>
       </c>
       <c r="F13">
-        <v>3.8095769255775</v>
+        <v>4.25474027760292</v>
       </c>
       <c r="G13">
-        <v>4.62785868961897</v>
+        <v>6.08714822667956</v>
       </c>
       <c r="H13">
-        <v>3.07074741535569</v>
+        <v>3.32208376046533</v>
       </c>
       <c r="I13">
-        <v>1.82136411158034</v>
+        <v>1.75947787655819</v>
       </c>
       <c r="J13">
-        <v>7.97035338004222</v>
+        <v>8.23246393653565</v>
       </c>
       <c r="K13">
-        <v>3.18763969973699</v>
+        <v>4.0836439864049</v>
       </c>
       <c r="L13">
-        <v>23.0277755042029</v>
+        <v>29.8946936448928</v>
       </c>
       <c r="M13">
-        <v>2.22057104016837</v>
+        <v>3.00700727923339</v>
       </c>
       <c r="N13">
-        <v>8.03191040605938</v>
+        <v>8.967548237057221</v>
       </c>
       <c r="O13">
-        <v>693.4718524413</v>
+        <v>726.805049764392</v>
       </c>
       <c r="P13">
-        <v>65.6837045451141</v>
+        <v>60.2100959973606</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1432.5058496009</v>
+        <v>1106.24385706547</v>
       </c>
       <c r="C14">
-        <v>109.180107768623</v>
+        <v>112.52083805715</v>
       </c>
       <c r="D14">
-        <v>12.528922438286</v>
+        <v>12.6186077142819</v>
       </c>
       <c r="E14">
-        <v>92.430001587071</v>
+        <v>65.96736682193451</v>
       </c>
       <c r="F14">
-        <v>23.6863037641357</v>
+        <v>18.0043557526944</v>
       </c>
       <c r="G14">
-        <v>78.5923885595976</v>
+        <v>99.49969138345639</v>
       </c>
       <c r="H14">
-        <v>68.6450546176401</v>
+        <v>69.3422990760845</v>
       </c>
       <c r="I14">
-        <v>22.5004493516015</v>
+        <v>25.4570326629789</v>
       </c>
       <c r="J14">
-        <v>153.267408385783</v>
+        <v>140.874193166388</v>
       </c>
       <c r="K14">
-        <v>160.317172011125</v>
+        <v>191.997264161916</v>
       </c>
       <c r="L14">
-        <v>118.091504961968</v>
+        <v>136.423220844812</v>
       </c>
       <c r="M14">
-        <v>84.6868479648566</v>
+        <v>82.6861770637863</v>
       </c>
       <c r="N14">
-        <v>76.7382010878152</v>
+        <v>80.496103532484</v>
       </c>
       <c r="O14">
-        <v>5872.46099236163</v>
+        <v>6162.22122327619</v>
       </c>
       <c r="P14">
-        <v>75.727235131755</v>
+        <v>48.7688879474504</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>602.728110487988</v>
+        <v>478.551280265297</v>
       </c>
       <c r="C15">
-        <v>61.7912975089328</v>
+        <v>51.1173173123072</v>
       </c>
       <c r="D15">
-        <v>6.87210963392475</v>
+        <v>8.73734093170931</v>
       </c>
       <c r="E15">
-        <v>75.63184223457201</v>
+        <v>73.8283668877679</v>
       </c>
       <c r="F15">
-        <v>15.3926403536236</v>
+        <v>15.0982373244648</v>
       </c>
       <c r="G15">
-        <v>41.7224216542955</v>
+        <v>50.1804915557136</v>
       </c>
       <c r="H15">
-        <v>44.0581696915395</v>
+        <v>48.1235435847183</v>
       </c>
       <c r="I15">
-        <v>44.0306607409622</v>
+        <v>58.5847234055643</v>
       </c>
       <c r="J15">
-        <v>202.704806380178</v>
+        <v>240.141975615342</v>
       </c>
       <c r="K15">
-        <v>48.8278643773479</v>
+        <v>66.1561419935713</v>
       </c>
       <c r="L15">
-        <v>50.7157448086607</v>
+        <v>54.013820928716</v>
       </c>
       <c r="M15">
-        <v>191.950444298227</v>
+        <v>166.248617903343</v>
       </c>
       <c r="N15">
-        <v>86.48073964999711</v>
+        <v>102.596836193405</v>
       </c>
       <c r="O15">
-        <v>2752.09851826569</v>
+        <v>2828.69919665551</v>
       </c>
       <c r="P15">
-        <v>54.2468718897273</v>
+        <v>48.7701634283757</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>198.498152888763</v>
+        <v>155.828422009836</v>
       </c>
       <c r="C16">
-        <v>78.1536091475257</v>
+        <v>79.7574271815475</v>
       </c>
       <c r="D16">
-        <v>8.01802700516544</v>
+        <v>14.3860115435264</v>
       </c>
       <c r="E16">
-        <v>34.0562956261737</v>
+        <v>27.9322467071309</v>
       </c>
       <c r="F16">
-        <v>5.55369729000261</v>
+        <v>5.54694440358353</v>
       </c>
       <c r="G16">
-        <v>14.3682893953666</v>
+        <v>17.403224472617</v>
       </c>
       <c r="H16">
-        <v>24.6110500193365</v>
+        <v>23.0804715614974</v>
       </c>
       <c r="I16">
-        <v>6.27120615873678</v>
+        <v>7.23727324234173</v>
       </c>
       <c r="J16">
-        <v>54.1504527905691</v>
+        <v>56.4389288232469</v>
       </c>
       <c r="K16">
-        <v>58.917290757595</v>
+        <v>64.8263094421667</v>
       </c>
       <c r="L16">
-        <v>37.3979282786942</v>
+        <v>36.5659713828975</v>
       </c>
       <c r="M16">
-        <v>26.7542448045679</v>
+        <v>18.4790455743324</v>
       </c>
       <c r="N16">
-        <v>27.3396979157115</v>
+        <v>32.6361763165155</v>
       </c>
       <c r="O16">
-        <v>1459.78740530576</v>
+        <v>1547.75435608046</v>
       </c>
       <c r="P16">
-        <v>107.356786982499</v>
+        <v>105.828008944708</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>254.613878638504</v>
+        <v>192.27137421636</v>
       </c>
       <c r="C17">
-        <v>28.4487469609448</v>
+        <v>25.0808465573551</v>
       </c>
       <c r="D17">
-        <v>4.15685476622813</v>
+        <v>5.71562276538233</v>
       </c>
       <c r="E17">
-        <v>24.3425212756477</v>
+        <v>18.0219671953146</v>
       </c>
       <c r="F17">
-        <v>17.0248759649564</v>
+        <v>16.6857378418002</v>
       </c>
       <c r="G17">
-        <v>12.5181207402351</v>
+        <v>15.5107649558851</v>
       </c>
       <c r="H17">
-        <v>14.0791820513865</v>
+        <v>11.7145355292458</v>
       </c>
       <c r="I17">
-        <v>7.86385652847749</v>
+        <v>9.302157398809539</v>
       </c>
       <c r="J17">
-        <v>19.0786446094446</v>
+        <v>19.8156058273676</v>
       </c>
       <c r="K17">
-        <v>17.5202962024359</v>
+        <v>21.9013456330402</v>
       </c>
       <c r="L17">
-        <v>11.6237232869797</v>
+        <v>13.0718613434473</v>
       </c>
       <c r="M17">
-        <v>87.49941034187469</v>
+        <v>95.60900039764179</v>
       </c>
       <c r="N17">
-        <v>11.8885228139843</v>
+        <v>13.0573017089986</v>
       </c>
       <c r="O17">
-        <v>1319.92219163826</v>
+        <v>1414.54773904971</v>
       </c>
       <c r="P17">
-        <v>60.4255604694569</v>
+        <v>54.9851188193882</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>555.907948376729</v>
+        <v>413.689061230709</v>
       </c>
       <c r="C18">
-        <v>37.9392999266269</v>
+        <v>40.3016515990276</v>
       </c>
       <c r="D18">
-        <v>12.8218246871746</v>
+        <v>11.0116194864393</v>
       </c>
       <c r="E18">
-        <v>48.4093805244175</v>
+        <v>41.4402677374371</v>
       </c>
       <c r="F18">
-        <v>41.6490465684317</v>
+        <v>45.0606671205068</v>
       </c>
       <c r="G18">
-        <v>17.9220509162213</v>
+        <v>30.0573642532535</v>
       </c>
       <c r="H18">
-        <v>27.6661455069652</v>
+        <v>28.8512089830093</v>
       </c>
       <c r="I18">
-        <v>10.323955042416</v>
+        <v>11.307204132848</v>
       </c>
       <c r="J18">
-        <v>52.4859584748747</v>
+        <v>47.2521850465669</v>
       </c>
       <c r="K18">
-        <v>23.0623739889078</v>
+        <v>26.7710010808391</v>
       </c>
       <c r="L18">
-        <v>37.9751622592225</v>
+        <v>46.0225146067893</v>
       </c>
       <c r="M18">
-        <v>84.22897336428331</v>
+        <v>81.4164057628347</v>
       </c>
       <c r="N18">
-        <v>29.6112873493153</v>
+        <v>28.4862870437446</v>
       </c>
       <c r="O18">
-        <v>2015.67312084689</v>
+        <v>2181.02383817674</v>
       </c>
       <c r="P18">
-        <v>67.90164124198471</v>
+        <v>62.3042758466718</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>588.580131781633</v>
+        <v>451.365533271647</v>
       </c>
       <c r="C19">
-        <v>25.6479368366263</v>
+        <v>27.4860092781142</v>
       </c>
       <c r="D19">
-        <v>8.11268397529858</v>
+        <v>7.98353207337075</v>
       </c>
       <c r="E19">
-        <v>40.2900012268281</v>
+        <v>30.9129756296555</v>
       </c>
       <c r="F19">
-        <v>75.5478539171027</v>
+        <v>89.7310566897558</v>
       </c>
       <c r="G19">
-        <v>35.1494008011225</v>
+        <v>42.1019385331795</v>
       </c>
       <c r="H19">
-        <v>7.49890896327293</v>
+        <v>6.71485715086726</v>
       </c>
       <c r="I19">
-        <v>10.3636900349901</v>
+        <v>11.8627267124603</v>
       </c>
       <c r="J19">
-        <v>20.6026413219645</v>
+        <v>15.2732557866252</v>
       </c>
       <c r="K19">
-        <v>10.391360540729</v>
+        <v>11.7255338174293</v>
       </c>
       <c r="L19">
-        <v>2.71863068788893</v>
+        <v>3.29645026356915</v>
       </c>
       <c r="M19">
-        <v>52.4589504532704</v>
+        <v>46.6443166731296</v>
       </c>
       <c r="N19">
-        <v>3.94405956567795</v>
+        <v>3.95455918195045</v>
       </c>
       <c r="O19">
-        <v>2060.10291181657</v>
+        <v>2203.43775289308</v>
       </c>
       <c r="P19">
-        <v>58.9322877904675</v>
+        <v>48.7719927515503</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>148.325687762561</v>
+        <v>116.053845810547</v>
       </c>
       <c r="C20">
-        <v>10.5492078112158</v>
+        <v>10.8586956611176</v>
       </c>
       <c r="D20">
-        <v>12.4285361045801</v>
+        <v>13.5790390652516</v>
       </c>
       <c r="E20">
-        <v>40.8491234366067</v>
+        <v>39.8545214817105</v>
       </c>
       <c r="F20">
-        <v>0.962221234447223</v>
+        <v>0.836672979853381</v>
       </c>
       <c r="G20">
-        <v>0.931882915045706</v>
+        <v>0.98361469487184</v>
       </c>
       <c r="H20">
-        <v>2.30585267986742</v>
+        <v>4.01165414009655</v>
       </c>
       <c r="I20">
-        <v>0.782997476928921</v>
+        <v>0.631133462220241</v>
       </c>
       <c r="J20">
-        <v>7.52414853434016</v>
+        <v>6.68575880558444</v>
       </c>
       <c r="K20">
-        <v>4.086029739357</v>
+        <v>5.31207830466716</v>
       </c>
       <c r="L20">
-        <v>8.1566349232078</v>
+        <v>8.615639257663441</v>
       </c>
       <c r="M20">
-        <v>19.3458802343527</v>
+        <v>27.9879344017247</v>
       </c>
       <c r="N20">
-        <v>6.46097359779725</v>
+        <v>6.44759573299494</v>
       </c>
       <c r="O20">
-        <v>695.432841672982</v>
+        <v>742.096313916651</v>
       </c>
       <c r="P20">
-        <v>22.3300757649383</v>
+        <v>19.7053025497312</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>459.362663063179</v>
+        <v>359.634122089136</v>
       </c>
       <c r="C21">
-        <v>15.5404353894581</v>
+        <v>16.488791303521</v>
       </c>
       <c r="D21">
-        <v>7.6521927379497</v>
+        <v>7.25040322982183</v>
       </c>
       <c r="E21">
-        <v>30.6974280492355</v>
+        <v>23.8649781036471</v>
       </c>
       <c r="F21">
-        <v>1.28997995355904</v>
+        <v>1.07588654709299</v>
       </c>
       <c r="G21">
-        <v>18.3233565621845</v>
+        <v>19.9808213063733</v>
       </c>
       <c r="H21">
-        <v>11.5121418265802</v>
+        <v>11.6779091777777</v>
       </c>
       <c r="I21">
-        <v>4.61702931838121</v>
+        <v>4.9537530547954</v>
       </c>
       <c r="J21">
-        <v>17.6337905331024</v>
+        <v>15.034612345641</v>
       </c>
       <c r="K21">
-        <v>3.9401195531634</v>
+        <v>6.45291648569104</v>
       </c>
       <c r="L21">
-        <v>35.3452316123128</v>
+        <v>34.8919415217129</v>
       </c>
       <c r="M21">
-        <v>27.9343639374858</v>
+        <v>28.299166239949</v>
       </c>
       <c r="N21">
-        <v>14.5843670659565</v>
+        <v>14.435610905955</v>
       </c>
       <c r="O21">
-        <v>2893.76357032491</v>
+        <v>3011.55308283166</v>
       </c>
       <c r="P21">
-        <v>18.1985505879887</v>
+        <v>19.8109870897168</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>611.745781639395</v>
+        <v>458.7539707721</v>
       </c>
       <c r="C22">
-        <v>17.3312660631792</v>
+        <v>17.2480853711464</v>
       </c>
       <c r="D22">
-        <v>18.6853714304238</v>
+        <v>20.6385749627698</v>
       </c>
       <c r="E22">
-        <v>45.1997339438853</v>
+        <v>33.4104141921215</v>
       </c>
       <c r="F22">
-        <v>0.857554414789503</v>
+        <v>0.971705063700219</v>
       </c>
       <c r="G22">
-        <v>28.2399766842763</v>
+        <v>31.2418965766368</v>
       </c>
       <c r="H22">
-        <v>25.1752594108208</v>
+        <v>32.4294979302609</v>
       </c>
       <c r="I22">
-        <v>9.004516193879161</v>
+        <v>7.28369097892241</v>
       </c>
       <c r="J22">
-        <v>54.2205521669516</v>
+        <v>55.6534388430403</v>
       </c>
       <c r="K22">
-        <v>22.5915756067652</v>
+        <v>31.4206132267317</v>
       </c>
       <c r="L22">
-        <v>120.08152112729</v>
+        <v>123.863228567913</v>
       </c>
       <c r="M22">
-        <v>25.7601710890394</v>
+        <v>27.3808366560301</v>
       </c>
       <c r="N22">
-        <v>61.3842893583539</v>
+        <v>85.5252239236894</v>
       </c>
       <c r="O22">
-        <v>3179.71099462397</v>
+        <v>3307.12564233456</v>
       </c>
       <c r="P22">
-        <v>14.9311298881</v>
+        <v>13.4315625323183</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1183.15814380438</v>
+        <v>900.124639486097</v>
       </c>
       <c r="C23">
-        <v>52.4693927283778</v>
+        <v>52.0891517511437</v>
       </c>
       <c r="D23">
-        <v>10.3997350449146</v>
+        <v>12.4871104258091</v>
       </c>
       <c r="E23">
-        <v>70.8022367558771</v>
+        <v>53.1661863170347</v>
       </c>
       <c r="F23">
-        <v>2.20106609496194</v>
+        <v>1.20773263806028</v>
       </c>
       <c r="G23">
-        <v>65.28014960921401</v>
+        <v>82.0309394277851</v>
       </c>
       <c r="H23">
-        <v>100.524259959801</v>
+        <v>96.0887280523048</v>
       </c>
       <c r="I23">
-        <v>36.8926946199514</v>
+        <v>37.7301038272508</v>
       </c>
       <c r="J23">
-        <v>164.310889393184</v>
+        <v>167.083716829411</v>
       </c>
       <c r="K23">
-        <v>100.781671460968</v>
+        <v>125.166992002662</v>
       </c>
       <c r="L23">
-        <v>39.8253161654366</v>
+        <v>48.2841670235748</v>
       </c>
       <c r="M23">
-        <v>679.111340463216</v>
+        <v>739.579448958586</v>
       </c>
       <c r="N23">
-        <v>108.953609433658</v>
+        <v>119.460815832359</v>
       </c>
       <c r="O23">
-        <v>4185.4347422883</v>
+        <v>4397.46356047258</v>
       </c>
       <c r="P23">
-        <v>70.59836264738971</v>
+        <v>49.3448923842042</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>368.927402487513</v>
+        <v>294.424226801811</v>
       </c>
       <c r="C24">
-        <v>72.2315209114887</v>
+        <v>52.1966970719793</v>
       </c>
       <c r="D24">
-        <v>12.1576841449532</v>
+        <v>13.7269691718748</v>
       </c>
       <c r="E24">
-        <v>65.16041804233799</v>
+        <v>49.8106223937902</v>
       </c>
       <c r="F24">
-        <v>21.4733641189172</v>
+        <v>16.8845141626161</v>
       </c>
       <c r="G24">
-        <v>14.8917607813414</v>
+        <v>23.0292798387854</v>
       </c>
       <c r="H24">
-        <v>14.810564794547</v>
+        <v>16.523516056557</v>
       </c>
       <c r="I24">
-        <v>15.2679937600007</v>
+        <v>14.0085236983716</v>
       </c>
       <c r="J24">
-        <v>63.997827001523</v>
+        <v>55.7602198437896</v>
       </c>
       <c r="K24">
-        <v>49.5924571548714</v>
+        <v>71.5868566947814</v>
       </c>
       <c r="L24">
-        <v>70.091211623767</v>
+        <v>67.4206556494422</v>
       </c>
       <c r="M24">
-        <v>25.4989399319399</v>
+        <v>19.1604214078636</v>
       </c>
       <c r="N24">
-        <v>67.8639115525387</v>
+        <v>83.9362762891665</v>
       </c>
       <c r="O24">
-        <v>2383.04366829653</v>
+        <v>2496.62112426262</v>
       </c>
       <c r="P24">
-        <v>108.994860329037</v>
+        <v>87.1178466265894</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>446.889988193064</v>
+        <v>339.316863535421</v>
       </c>
       <c r="C25">
-        <v>48.1826831334482</v>
+        <v>51.4539386956926</v>
       </c>
       <c r="D25">
-        <v>18.0987135162124</v>
+        <v>17.0344661548905</v>
       </c>
       <c r="E25">
-        <v>43.2550418743963</v>
+        <v>49.7485224694072</v>
       </c>
       <c r="F25">
-        <v>21.8567927952947</v>
+        <v>34.2450790186796</v>
       </c>
       <c r="G25">
-        <v>16.5968685583251</v>
+        <v>18.1133137456197</v>
       </c>
       <c r="H25">
-        <v>10.9424978933156</v>
+        <v>13.9730475333189</v>
       </c>
       <c r="I25">
-        <v>3.92692930221923</v>
+        <v>4.45051624445813</v>
       </c>
       <c r="J25">
-        <v>19.3091414955861</v>
+        <v>18.5784120501781</v>
       </c>
       <c r="K25">
-        <v>15.6239616880604</v>
+        <v>16.6417667585518</v>
       </c>
       <c r="L25">
-        <v>33.0208780810424</v>
+        <v>34.5888562714854</v>
       </c>
       <c r="M25">
-        <v>50.3279195434949</v>
+        <v>48.1204156120193</v>
       </c>
       <c r="N25">
-        <v>47.9375245847252</v>
+        <v>39.5860076678115</v>
       </c>
       <c r="O25">
-        <v>1237.45392543849</v>
+        <v>1359.02427120378</v>
       </c>
       <c r="P25">
-        <v>64.6532342198403</v>
+        <v>60.5259800255595</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>532.312809000704</v>
+        <v>392.669855898407</v>
       </c>
       <c r="C26">
-        <v>62.1519062812769</v>
+        <v>59.4500808673128</v>
       </c>
       <c r="D26">
-        <v>16.656521505459</v>
+        <v>14.1030162924856</v>
       </c>
       <c r="E26">
-        <v>49.504494132788</v>
+        <v>41.2340158498653</v>
       </c>
       <c r="F26">
-        <v>10.8533943939839</v>
+        <v>8.68692876632624</v>
       </c>
       <c r="G26">
-        <v>44.7543887797894</v>
+        <v>55.9370107147182</v>
       </c>
       <c r="H26">
-        <v>25.9071358688736</v>
+        <v>20.0961406298008</v>
       </c>
       <c r="I26">
-        <v>13.3761607242605</v>
+        <v>14.4056967557798</v>
       </c>
       <c r="J26">
-        <v>54.5084622286499</v>
+        <v>55.6626364060486</v>
       </c>
       <c r="K26">
-        <v>29.8696591694338</v>
+        <v>31.9321642865139</v>
       </c>
       <c r="L26">
-        <v>45.6223087636188</v>
+        <v>40.1688425041386</v>
       </c>
       <c r="M26">
-        <v>88.59579669936021</v>
+        <v>86.3636654940242</v>
       </c>
       <c r="N26">
-        <v>36.6395518561453</v>
+        <v>38.5814210949498</v>
       </c>
       <c r="O26">
-        <v>2748.71695814313</v>
+        <v>2941.60223276367</v>
       </c>
       <c r="P26">
-        <v>78.5404516030892</v>
+        <v>55.4736261923037</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>86.87542221693791</v>
+        <v>73.6057594687954</v>
       </c>
       <c r="C27">
-        <v>4.20553196696818</v>
+        <v>4.34929127129183</v>
       </c>
       <c r="D27">
-        <v>1.26333628271668</v>
+        <v>1.39740744367918</v>
       </c>
       <c r="E27">
-        <v>15.345034480839</v>
+        <v>17.1429756315087</v>
       </c>
       <c r="F27">
-        <v>11.0783988252403</v>
+        <v>11.4802377331706</v>
       </c>
       <c r="G27">
-        <v>1.15833109536803</v>
+        <v>1.06711868222226</v>
       </c>
       <c r="H27">
-        <v>0.150977239731304</v>
+        <v>0.177591508525151</v>
       </c>
       <c r="I27">
-        <v>2.22291428921202</v>
+        <v>3.15610461173919</v>
       </c>
       <c r="J27">
-        <v>4.63363390900596</v>
+        <v>4.38006744269361</v>
       </c>
       <c r="K27">
-        <v>2.66961451511113</v>
+        <v>2.70646052333418</v>
       </c>
       <c r="L27">
-        <v>2.47044184877203</v>
+        <v>3.4301040737908</v>
       </c>
       <c r="M27">
-        <v>0.812145412564027</v>
+        <v>0.882542994515108</v>
       </c>
       <c r="N27">
-        <v>5.81727406095993</v>
+        <v>6.37412764724592</v>
       </c>
       <c r="O27">
-        <v>547.758603518041</v>
+        <v>592.258229689527</v>
       </c>
       <c r="P27">
-        <v>58.7495912246984</v>
+        <v>56.2267842481413</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>126.203166437575</v>
+        <v>93.8647815931338</v>
       </c>
       <c r="C28">
-        <v>44.8168262753797</v>
+        <v>38.9519506457294</v>
       </c>
       <c r="D28">
-        <v>1.15842776240697</v>
+        <v>1.72005854154434</v>
       </c>
       <c r="E28">
-        <v>11.9592576666619</v>
+        <v>9.200659744925691</v>
       </c>
       <c r="F28">
-        <v>2.23385466565222</v>
+        <v>2.80748584489791</v>
       </c>
       <c r="G28">
-        <v>6.25174477550836</v>
+        <v>8.07357731193243</v>
       </c>
       <c r="H28">
-        <v>6.64419589054941</v>
+        <v>9.074664310011441</v>
       </c>
       <c r="I28">
-        <v>5.34182163752178</v>
+        <v>5.54770503199907</v>
       </c>
       <c r="J28">
-        <v>19.3861138325028</v>
+        <v>19.813412440379</v>
       </c>
       <c r="K28">
-        <v>18.9622886914764</v>
+        <v>19.5178629168111</v>
       </c>
       <c r="L28">
-        <v>12.4124768424627</v>
+        <v>13.2460165064091</v>
       </c>
       <c r="M28">
-        <v>9.27345380403681</v>
+        <v>8.42806141406686</v>
       </c>
       <c r="N28">
-        <v>9.874052635081879</v>
+        <v>10.8513009089111</v>
       </c>
       <c r="O28">
-        <v>882.117070887234</v>
+        <v>960.593563396048</v>
       </c>
       <c r="P28">
-        <v>96.6584265432747</v>
+        <v>93.2345311530767</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>243.697609398839</v>
+        <v>194.919428994982</v>
       </c>
       <c r="C29">
-        <v>1.40292201029495</v>
+        <v>1.36869353458521</v>
       </c>
       <c r="D29">
-        <v>2.54696442802372</v>
+        <v>3.85065099814908</v>
       </c>
       <c r="E29">
-        <v>5.01153136338662</v>
+        <v>3.95042017121345</v>
       </c>
       <c r="F29">
-        <v>20.3001257254383</v>
+        <v>22.1619603217112</v>
       </c>
       <c r="G29">
-        <v>1.95430379413187</v>
+        <v>2.56425716578403</v>
       </c>
       <c r="H29">
-        <v>2.60485553381555</v>
+        <v>2.97206628939335</v>
       </c>
       <c r="I29">
-        <v>5.000167820804</v>
+        <v>6.77665128239173</v>
       </c>
       <c r="J29">
-        <v>5.48832250560343</v>
+        <v>5.54771332579399</v>
       </c>
       <c r="K29">
-        <v>2.37132606236285</v>
+        <v>3.06865538444895</v>
       </c>
       <c r="L29">
-        <v>5.13216255767438</v>
+        <v>4.72994544289234</v>
       </c>
       <c r="M29">
-        <v>2.76473654927782</v>
+        <v>2.86110167486004</v>
       </c>
       <c r="N29">
-        <v>11.3167444303207</v>
+        <v>11.7308719735975</v>
       </c>
       <c r="O29">
-        <v>1314.65033713184</v>
+        <v>1397.0083866785</v>
       </c>
       <c r="P29">
-        <v>6.52048391007492</v>
+        <v>5.33366474763555</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>110.576186458537</v>
+        <v>86.11516530604079</v>
       </c>
       <c r="C30">
-        <v>3.33227083971771</v>
+        <v>3.84365383003447</v>
       </c>
       <c r="D30">
-        <v>4.64646844981617</v>
+        <v>5.63668299063952</v>
       </c>
       <c r="E30">
-        <v>12.8525989488473</v>
+        <v>10.3425875858379</v>
       </c>
       <c r="F30">
-        <v>0.129828266591222</v>
+        <v>0.138344604044358</v>
       </c>
       <c r="G30">
-        <v>6.82751305326257</v>
+        <v>7.49173981972697</v>
       </c>
       <c r="H30">
-        <v>7.49310710104927</v>
+        <v>9.390101217193671</v>
       </c>
       <c r="I30">
-        <v>2.11190818559029</v>
+        <v>2.46232873643614</v>
       </c>
       <c r="J30">
-        <v>24.1108009150426</v>
+        <v>22.4373531701015</v>
       </c>
       <c r="K30">
-        <v>10.8239344915905</v>
+        <v>15.6974496298074</v>
       </c>
       <c r="L30">
-        <v>47.6565417401385</v>
+        <v>54.6155651524903</v>
       </c>
       <c r="M30">
-        <v>9.64948349285905</v>
+        <v>11.259391944239</v>
       </c>
       <c r="N30">
-        <v>12.8359014934394</v>
+        <v>13.6153030575096</v>
       </c>
       <c r="O30">
-        <v>686.220977080377</v>
+        <v>729.238458093268</v>
       </c>
       <c r="P30">
-        <v>4.98340727192242</v>
+        <v>4.85377423712088</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>980.739458489962</v>
+        <v>757.551707150978</v>
       </c>
       <c r="C31">
-        <v>43.6186003423496</v>
+        <v>49.24848414232</v>
       </c>
       <c r="D31">
-        <v>22.4955431051578</v>
+        <v>23.8731303315271</v>
       </c>
       <c r="E31">
-        <v>42.7911355663617</v>
+        <v>31.2873426115621</v>
       </c>
       <c r="F31">
-        <v>10.7185487032749</v>
+        <v>11.1513793156463</v>
       </c>
       <c r="G31">
-        <v>149.292620833762</v>
+        <v>160.592258108845</v>
       </c>
       <c r="H31">
-        <v>17.5535314269916</v>
+        <v>19.0098939313367</v>
       </c>
       <c r="I31">
-        <v>27.0368838897653</v>
+        <v>33.837387130061</v>
       </c>
       <c r="J31">
-        <v>42.6868319710622</v>
+        <v>40.6464824568825</v>
       </c>
       <c r="K31">
-        <v>13.578466008035</v>
+        <v>18.7174124154389</v>
       </c>
       <c r="L31">
-        <v>90.6694303442623</v>
+        <v>90.1519967148662</v>
       </c>
       <c r="M31">
-        <v>22.7970303976888</v>
+        <v>22.0225625893235</v>
       </c>
       <c r="N31">
-        <v>57.2193646908654</v>
+        <v>62.1148829434596</v>
       </c>
       <c r="O31">
-        <v>4194.4157357521</v>
+        <v>4376.94643712035</v>
       </c>
       <c r="P31">
-        <v>14.2159012602131</v>
+        <v>11.4971582061486</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>246.015496860533</v>
+        <v>198.17173459236</v>
       </c>
       <c r="C32">
-        <v>6.83717970835388</v>
+        <v>6.28864911760119</v>
       </c>
       <c r="D32">
-        <v>1.98271415979447</v>
+        <v>2.55677605717972</v>
       </c>
       <c r="E32">
-        <v>5.63077999470216</v>
+        <v>4.07648368847348</v>
       </c>
       <c r="F32">
-        <v>29.0556551966622</v>
+        <v>38.6226706397297</v>
       </c>
       <c r="G32">
-        <v>1.23292173503023</v>
+        <v>1.59315144779384</v>
       </c>
       <c r="H32">
-        <v>0.0708858805930548</v>
+        <v>0.216286243246873</v>
       </c>
       <c r="I32">
-        <v>5.514370004222</v>
+        <v>5.69599222790936</v>
       </c>
       <c r="J32">
-        <v>7.58021152569639</v>
+        <v>7.33443620890862</v>
       </c>
       <c r="K32">
-        <v>4.31868600471559</v>
+        <v>6.29732472114869</v>
       </c>
       <c r="L32">
-        <v>11.0347358662791</v>
+        <v>12.5769108069882</v>
       </c>
       <c r="M32">
-        <v>7.25152848991813</v>
+        <v>6.95537488448687</v>
       </c>
       <c r="N32">
-        <v>8.397907997130631</v>
+        <v>8.95427275382756</v>
       </c>
       <c r="O32">
-        <v>970.197615138404</v>
+        <v>1008.30098707511</v>
       </c>
       <c r="P32">
-        <v>33.5010255655562</v>
+        <v>31.6498526807238</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>2372.87548400261</v>
+        <v>1815.78320857262</v>
       </c>
       <c r="C33">
-        <v>83.30809958606849</v>
+        <v>81.962603330283</v>
       </c>
       <c r="D33">
-        <v>71.6754106013415</v>
+        <v>76.9841969710469</v>
       </c>
       <c r="E33">
-        <v>87.0497875776399</v>
+        <v>63.0985813543067</v>
       </c>
       <c r="F33">
-        <v>10.2486758440931</v>
+        <v>9.474818093556131</v>
       </c>
       <c r="G33">
-        <v>75.3320684172876</v>
+        <v>68.2873009664804</v>
       </c>
       <c r="H33">
-        <v>50.4239735403226</v>
+        <v>50.3754657697025</v>
       </c>
       <c r="I33">
-        <v>26.7618694507238</v>
+        <v>26.9271547579518</v>
       </c>
       <c r="J33">
-        <v>115.912423104647</v>
+        <v>118.149549145715</v>
       </c>
       <c r="K33">
-        <v>91.61033837518831</v>
+        <v>100.07089990445</v>
       </c>
       <c r="L33">
-        <v>157.931880134075</v>
+        <v>168.229552227433</v>
       </c>
       <c r="M33">
-        <v>86.16239826328381</v>
+        <v>93.03866602805461</v>
       </c>
       <c r="N33">
-        <v>160.399560591504</v>
+        <v>183.90841323054</v>
       </c>
       <c r="O33">
-        <v>9203.49277439232</v>
+        <v>9666.839435497959</v>
       </c>
       <c r="P33">
-        <v>69.52190075293031</v>
+        <v>53.5082727294392</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>941.726055920553</v>
+        <v>697.803636536682</v>
       </c>
       <c r="C34">
-        <v>101.764889080896</v>
+        <v>102.448575542165</v>
       </c>
       <c r="D34">
-        <v>207.491474489445</v>
+        <v>221.27743502837</v>
       </c>
       <c r="E34">
-        <v>75.95142825671719</v>
+        <v>68.5243065070547</v>
       </c>
       <c r="F34">
-        <v>0.872018463667116</v>
+        <v>0.879589669698011</v>
       </c>
       <c r="G34">
-        <v>77.3193037854719</v>
+        <v>86.5263190214402</v>
       </c>
       <c r="H34">
-        <v>52.5642459526546</v>
+        <v>63.678386188418</v>
       </c>
       <c r="I34">
-        <v>27.5888858944551</v>
+        <v>30.3603892188278</v>
       </c>
       <c r="J34">
-        <v>44.0595050395982</v>
+        <v>49.101587156244</v>
       </c>
       <c r="K34">
-        <v>48.1262743101242</v>
+        <v>73.75396036549</v>
       </c>
       <c r="L34">
-        <v>106.67351468848</v>
+        <v>132.967008020916</v>
       </c>
       <c r="M34">
-        <v>54.2567152830757</v>
+        <v>54.1592677197427</v>
       </c>
       <c r="N34">
-        <v>161.75096230818</v>
+        <v>171.318789290935</v>
       </c>
       <c r="O34">
-        <v>3877.67559684803</v>
+        <v>4041.34967426054</v>
       </c>
       <c r="P34">
-        <v>87.3744464261621</v>
+        <v>82.2211466346219</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>52.4246653137679</v>
+        <v>40.9559901879085</v>
       </c>
       <c r="C35">
-        <v>10.0549563236987</v>
+        <v>8.951401403976471</v>
       </c>
       <c r="D35">
-        <v>0.8096145411335151</v>
+        <v>0.844412084053015</v>
       </c>
       <c r="E35">
-        <v>3.77414599042841</v>
+        <v>4.38868155163904</v>
       </c>
       <c r="F35">
-        <v>6.82682074482074</v>
+        <v>6.66708005113097</v>
       </c>
       <c r="G35">
-        <v>0.474786812963329</v>
+        <v>0.411513598174158</v>
       </c>
       <c r="H35">
-        <v>0.458700062772227</v>
+        <v>0.6528366348401901</v>
       </c>
       <c r="I35">
-        <v>0.617001239800361</v>
+        <v>0.818017172110496</v>
       </c>
       <c r="J35">
-        <v>2.41218849045765</v>
+        <v>2.21486172741578</v>
       </c>
       <c r="K35">
-        <v>6.21564934600707</v>
+        <v>7.93211495138759</v>
       </c>
       <c r="L35">
-        <v>2.81210556822489</v>
+        <v>3.01237166237208</v>
       </c>
       <c r="M35">
-        <v>2.5132767649771</v>
+        <v>2.64764905643376</v>
       </c>
       <c r="N35">
-        <v>3.45976449738433</v>
+        <v>3.46112398189057</v>
       </c>
       <c r="O35">
-        <v>359.051655328602</v>
+        <v>397.455428606183</v>
       </c>
       <c r="P35">
-        <v>61.1132940515018</v>
+        <v>54.2679387809904</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1235.50071415383</v>
+        <v>912.325795775941</v>
       </c>
       <c r="C36">
-        <v>83.9416607090278</v>
+        <v>82.3354274473318</v>
       </c>
       <c r="D36">
-        <v>20.434328256365</v>
+        <v>20.707964148569</v>
       </c>
       <c r="E36">
-        <v>122.911935871191</v>
+        <v>93.72953095281071</v>
       </c>
       <c r="F36">
-        <v>28.155215241043</v>
+        <v>40.4188844379877</v>
       </c>
       <c r="G36">
-        <v>91.3227213093313</v>
+        <v>117.800551677225</v>
       </c>
       <c r="H36">
-        <v>116.920604732109</v>
+        <v>124.644097339054</v>
       </c>
       <c r="I36">
-        <v>62.2703064885463</v>
+        <v>54.9601143003961</v>
       </c>
       <c r="J36">
-        <v>257.009634084215</v>
+        <v>255.172288247342</v>
       </c>
       <c r="K36">
-        <v>92.7819669287919</v>
+        <v>123.10885218453</v>
       </c>
       <c r="L36">
-        <v>105.368055168645</v>
+        <v>115.008187627309</v>
       </c>
       <c r="M36">
-        <v>282.176754789094</v>
+        <v>270.234986619314</v>
       </c>
       <c r="N36">
-        <v>101.370514935634</v>
+        <v>112.470684540502</v>
       </c>
       <c r="O36">
-        <v>5236.42411908422</v>
+        <v>5530.95675875097</v>
       </c>
       <c r="P36">
-        <v>53.208290521059</v>
+        <v>46.1848049953877</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>381.448807474169</v>
+        <v>277.486379552103</v>
       </c>
       <c r="C37">
-        <v>27.8637794351204</v>
+        <v>24.9884823131749</v>
       </c>
       <c r="D37">
-        <v>5.89391540157691</v>
+        <v>6.43680561994062</v>
       </c>
       <c r="E37">
-        <v>17.1586845848958</v>
+        <v>16.0511031161247</v>
       </c>
       <c r="F37">
-        <v>49.9153032258234</v>
+        <v>51.6662889101299</v>
       </c>
       <c r="G37">
-        <v>6.91571535033187</v>
+        <v>8.1717480966264</v>
       </c>
       <c r="H37">
-        <v>24.3381524813105</v>
+        <v>26.1720527167815</v>
       </c>
       <c r="I37">
-        <v>9.71437921810865</v>
+        <v>13.1392055049094</v>
       </c>
       <c r="J37">
-        <v>37.8211536322451</v>
+        <v>39.0576635954048</v>
       </c>
       <c r="K37">
-        <v>45.1037312000516</v>
+        <v>52.4425358212707</v>
       </c>
       <c r="L37">
-        <v>25.5738081507175</v>
+        <v>28.2470115446325</v>
       </c>
       <c r="M37">
-        <v>34.1257108628192</v>
+        <v>33.4097799489567</v>
       </c>
       <c r="N37">
-        <v>19.2875929182407</v>
+        <v>22.8571515631333</v>
       </c>
       <c r="O37">
-        <v>1647.96062012976</v>
+        <v>1714.90107455416</v>
       </c>
       <c r="P37">
-        <v>51.5626931472833</v>
+        <v>51.1777767199675</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>390.386753668195</v>
+        <v>317.524008067439</v>
       </c>
       <c r="C38">
-        <v>33.1630252078465</v>
+        <v>31.5346340442021</v>
       </c>
       <c r="D38">
-        <v>14.2491536246672</v>
+        <v>18.4028375632716</v>
       </c>
       <c r="E38">
-        <v>58.476969366899</v>
+        <v>52.267886180528</v>
       </c>
       <c r="F38">
-        <v>1.59736321861755</v>
+        <v>1.42459243286349</v>
       </c>
       <c r="G38">
-        <v>8.14944366808604</v>
+        <v>9.381623913980791</v>
       </c>
       <c r="H38">
-        <v>7.24262588550947</v>
+        <v>8.88811820936394</v>
       </c>
       <c r="I38">
-        <v>2.61555085211114</v>
+        <v>2.875894924048</v>
       </c>
       <c r="J38">
-        <v>44.816353806438</v>
+        <v>46.8076199877651</v>
       </c>
       <c r="K38">
-        <v>19.1322538411102</v>
+        <v>21.9192623055751</v>
       </c>
       <c r="L38">
-        <v>87.01450991993801</v>
+        <v>97.4475273434895</v>
       </c>
       <c r="M38">
-        <v>24.8040016840147</v>
+        <v>27.8590857727158</v>
       </c>
       <c r="N38">
-        <v>23.7098979316747</v>
+        <v>26.8212339994989</v>
       </c>
       <c r="O38">
-        <v>1757.6476663192</v>
+        <v>1807.83563768401</v>
       </c>
       <c r="P38">
-        <v>87.4769395064786</v>
+        <v>74.7149554492452</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>1345.11757144738</v>
+        <v>990.8548291756611</v>
       </c>
       <c r="C39">
-        <v>110.318653603329</v>
+        <v>129.044105464652</v>
       </c>
       <c r="D39">
-        <v>77.423116518999</v>
+        <v>67.12375320721971</v>
       </c>
       <c r="E39">
-        <v>117.404987029449</v>
+        <v>86.77076086599951</v>
       </c>
       <c r="F39">
-        <v>31.9405948895302</v>
+        <v>24.3426243480916</v>
       </c>
       <c r="G39">
-        <v>115.283340365579</v>
+        <v>145.637161309749</v>
       </c>
       <c r="H39">
-        <v>58.185437966865</v>
+        <v>52.6772068620439</v>
       </c>
       <c r="I39">
-        <v>55.2162491789348</v>
+        <v>55.9180704160482</v>
       </c>
       <c r="J39">
-        <v>205.553977634306</v>
+        <v>187.923292856471</v>
       </c>
       <c r="K39">
-        <v>104.054236670968</v>
+        <v>136.130688147317</v>
       </c>
       <c r="L39">
-        <v>114.07260692384</v>
+        <v>126.685464374018</v>
       </c>
       <c r="M39">
-        <v>86.67594931290689</v>
+        <v>90.608794588289</v>
       </c>
       <c r="N39">
-        <v>123.806939598314</v>
+        <v>133.433586575393</v>
       </c>
       <c r="O39">
-        <v>6034.22948507597</v>
+        <v>6360.11687893408</v>
       </c>
       <c r="P39">
-        <v>76.7747348796544</v>
+        <v>59.9981206911295</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>102.533715120921</v>
+        <v>82.4976772112709</v>
       </c>
       <c r="C40">
-        <v>3.94563040234755</v>
+        <v>3.72629065490519</v>
       </c>
       <c r="D40">
-        <v>11.6472460000617</v>
+        <v>11.8074221449274</v>
       </c>
       <c r="E40">
-        <v>9.08303694565765</v>
+        <v>7.21987766078373</v>
       </c>
       <c r="F40">
-        <v>0.156596452193809</v>
+        <v>0.296420594034861</v>
       </c>
       <c r="G40">
-        <v>6.10501630739514</v>
+        <v>7.45636341222732</v>
       </c>
       <c r="H40">
-        <v>6.014714711161</v>
+        <v>8.60055565658126</v>
       </c>
       <c r="I40">
-        <v>2.24245342760582</v>
+        <v>1.8948719328464</v>
       </c>
       <c r="J40">
-        <v>17.9686682151828</v>
+        <v>18.0669705019549</v>
       </c>
       <c r="K40">
-        <v>5.2381205130175</v>
+        <v>10.1560308752766</v>
       </c>
       <c r="L40">
-        <v>17.8781254305921</v>
+        <v>17.1272419065337</v>
       </c>
       <c r="M40">
-        <v>8.08562286577849</v>
+        <v>9.337740632492841</v>
       </c>
       <c r="N40">
-        <v>34.7812398510831</v>
+        <v>39.1983470702753</v>
       </c>
       <c r="O40">
-        <v>585.514661829373</v>
+        <v>629.884312999738</v>
       </c>
       <c r="P40">
-        <v>2.32522569909482</v>
+        <v>2.16127463651688</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>487.913725688493</v>
+        <v>368.844255597723</v>
       </c>
       <c r="C41">
-        <v>16.6105448692778</v>
+        <v>12.611003428772</v>
       </c>
       <c r="D41">
-        <v>98.28852885193059</v>
+        <v>106.043361473829</v>
       </c>
       <c r="E41">
-        <v>59.4221778417168</v>
+        <v>57.8528783551301</v>
       </c>
       <c r="F41">
-        <v>2.72142525318229</v>
+        <v>2.71287619148639</v>
       </c>
       <c r="G41">
-        <v>42.2684824659825</v>
+        <v>62.3981300896831</v>
       </c>
       <c r="H41">
-        <v>48.9834413519019</v>
+        <v>60.3971406699564</v>
       </c>
       <c r="I41">
-        <v>9.023699969499161</v>
+        <v>10.8564332842828</v>
       </c>
       <c r="J41">
-        <v>63.0651003780393</v>
+        <v>72.4776462570017</v>
       </c>
       <c r="K41">
-        <v>29.2362182594269</v>
+        <v>40.3770950911152</v>
       </c>
       <c r="L41">
-        <v>34.7536664076797</v>
+        <v>35.5321137246191</v>
       </c>
       <c r="M41">
-        <v>54.3795667056968</v>
+        <v>57.1659186329572</v>
       </c>
       <c r="N41">
-        <v>26.8953534253721</v>
+        <v>28.3093475630854</v>
       </c>
       <c r="O41">
-        <v>1927.19427147069</v>
+        <v>1984.9032123895</v>
       </c>
       <c r="P41">
-        <v>20.0117654646149</v>
+        <v>19.2980557335185</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>58.3550050227182</v>
+        <v>48.9395569852525</v>
       </c>
       <c r="C42">
-        <v>11.7467518214746</v>
+        <v>12.1899531818717</v>
       </c>
       <c r="D42">
-        <v>0.291405894202611</v>
+        <v>0.401055712422216</v>
       </c>
       <c r="E42">
-        <v>11.4288926704662</v>
+        <v>10.7272925360269</v>
       </c>
       <c r="F42">
-        <v>3.3372013871468</v>
+        <v>3.4357953621044</v>
       </c>
       <c r="G42">
-        <v>0.814272840950273</v>
+        <v>1.09075038724088</v>
       </c>
       <c r="H42">
-        <v>1.8558806356977</v>
+        <v>1.970326115021</v>
       </c>
       <c r="I42">
-        <v>3.36890943839971</v>
+        <v>2.50180465568771</v>
       </c>
       <c r="J42">
-        <v>5.94106490846927</v>
+        <v>6.44257050137271</v>
       </c>
       <c r="K42">
-        <v>5.36799017205762</v>
+        <v>7.89300252655639</v>
       </c>
       <c r="L42">
-        <v>8.1325419481689</v>
+        <v>10.5240029021778</v>
       </c>
       <c r="M42">
-        <v>3.72620224112754</v>
+        <v>4.45018855305834</v>
       </c>
       <c r="N42">
-        <v>9.777095623884261</v>
+        <v>11.3501977823361</v>
       </c>
       <c r="O42">
-        <v>461.454699987663</v>
+        <v>521.6329103467079</v>
       </c>
       <c r="P42">
-        <v>63.2007692938633</v>
+        <v>57.7303247439176</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>773.430588871133</v>
+        <v>560.471445356052</v>
       </c>
       <c r="C43">
-        <v>58.0705119813857</v>
+        <v>51.2072478286674</v>
       </c>
       <c r="D43">
-        <v>31.0722679135879</v>
+        <v>34.89888201301</v>
       </c>
       <c r="E43">
-        <v>73.42863286587389</v>
+        <v>54.6259054969276</v>
       </c>
       <c r="F43">
-        <v>7.08055690531058</v>
+        <v>10.6027305744668</v>
       </c>
       <c r="G43">
-        <v>44.3814118164603</v>
+        <v>51.6616750966764</v>
       </c>
       <c r="H43">
-        <v>32.57844806397</v>
+        <v>30.5341382605476</v>
       </c>
       <c r="I43">
-        <v>21.9381872622743</v>
+        <v>33.2446347582801</v>
       </c>
       <c r="J43">
-        <v>60.8360841640783</v>
+        <v>56.1314081757294</v>
       </c>
       <c r="K43">
-        <v>44.260348804599</v>
+        <v>63.84162374266</v>
       </c>
       <c r="L43">
-        <v>45.7553832779655</v>
+        <v>48.0659616436421</v>
       </c>
       <c r="M43">
-        <v>109.586313528163</v>
+        <v>102.873683226649</v>
       </c>
       <c r="N43">
-        <v>58.2273652939571</v>
+        <v>73.3952917720743</v>
       </c>
       <c r="O43">
-        <v>2752.34275594003</v>
+        <v>2921.83064827646</v>
       </c>
       <c r="P43">
-        <v>57.367530995328</v>
+        <v>60.4306512322639</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>2692.19965721251</v>
+        <v>2045.65725276643</v>
       </c>
       <c r="C44">
-        <v>141.907833041588</v>
+        <v>174.808194675609</v>
       </c>
       <c r="D44">
-        <v>53.934092668285</v>
+        <v>57.7381971601259</v>
       </c>
       <c r="E44">
-        <v>103.509449304171</v>
+        <v>88.60342081254269</v>
       </c>
       <c r="F44">
-        <v>273.366748106994</v>
+        <v>313.320983968375</v>
       </c>
       <c r="G44">
-        <v>118.896363953679</v>
+        <v>153.920983148435</v>
       </c>
       <c r="H44">
-        <v>48.7282019706778</v>
+        <v>49.0243132254432</v>
       </c>
       <c r="I44">
-        <v>50.466424640753</v>
+        <v>58.7553576729632</v>
       </c>
       <c r="J44">
-        <v>128.229320151467</v>
+        <v>135.53208031978</v>
       </c>
       <c r="K44">
-        <v>84.30437947090989</v>
+        <v>105.052919343525</v>
       </c>
       <c r="L44">
-        <v>222.399576793639</v>
+        <v>244.420819738799</v>
       </c>
       <c r="M44">
-        <v>129.038167007014</v>
+        <v>128.784054936125</v>
       </c>
       <c r="N44">
-        <v>116.296733372781</v>
+        <v>114.109214046237</v>
       </c>
       <c r="O44">
-        <v>9843.39037111775</v>
+        <v>10145.8893192067</v>
       </c>
       <c r="P44">
-        <v>227.455674861253</v>
+        <v>246.887800421016</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>285.209435769895</v>
+        <v>228.599894786841</v>
       </c>
       <c r="C45">
-        <v>22.5205992757382</v>
+        <v>19.8483249422849</v>
       </c>
       <c r="D45">
-        <v>4.15667032505816</v>
+        <v>4.69606039215786</v>
       </c>
       <c r="E45">
-        <v>13.9695011014597</v>
+        <v>10.0601097672067</v>
       </c>
       <c r="F45">
-        <v>23.4968100892657</v>
+        <v>26.605004112496</v>
       </c>
       <c r="G45">
-        <v>14.331479927593</v>
+        <v>14.8553858839553</v>
       </c>
       <c r="H45">
-        <v>2.33986790082572</v>
+        <v>3.36179577261004</v>
       </c>
       <c r="I45">
-        <v>4.52502082381256</v>
+        <v>4.30019586231477</v>
       </c>
       <c r="J45">
-        <v>16.6025272505192</v>
+        <v>16.8267423840524</v>
       </c>
       <c r="K45">
-        <v>5.69618379821874</v>
+        <v>8.26843063916983</v>
       </c>
       <c r="L45">
-        <v>19.1485148857996</v>
+        <v>21.3683076215267</v>
       </c>
       <c r="M45">
-        <v>23.8133673975547</v>
+        <v>24.7245765371544</v>
       </c>
       <c r="N45">
-        <v>26.3759275828369</v>
+        <v>27.7807886880361</v>
       </c>
       <c r="O45">
-        <v>1019.67204408965</v>
+        <v>1071.55225223783</v>
       </c>
       <c r="P45">
-        <v>18.6970129582401</v>
+        <v>15.2228999069751</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>50.0146676356584</v>
+        <v>43.1255526061159</v>
       </c>
       <c r="C46">
-        <v>6.73291647564069</v>
+        <v>6.75176070252583</v>
       </c>
       <c r="D46">
-        <v>1.37204043380447</v>
+        <v>1.47592228228061</v>
       </c>
       <c r="E46">
-        <v>8.14870355532782</v>
+        <v>7.44137008503501</v>
       </c>
       <c r="F46">
-        <v>1.71464888269149</v>
+        <v>1.68743029363389</v>
       </c>
       <c r="G46">
-        <v>2.54006927815297</v>
+        <v>2.69972458851393</v>
       </c>
       <c r="H46">
-        <v>3.02511218418605</v>
+        <v>4.44127292276108</v>
       </c>
       <c r="I46">
-        <v>1.90860108078491</v>
+        <v>2.12982302421665</v>
       </c>
       <c r="J46">
-        <v>6.96010289679796</v>
+        <v>6.93370599544567</v>
       </c>
       <c r="K46">
-        <v>3.9919133451484</v>
+        <v>4.96681530900973</v>
       </c>
       <c r="L46">
-        <v>16.4277995274017</v>
+        <v>20.8267680013262</v>
       </c>
       <c r="M46">
-        <v>6.2725498412798</v>
+        <v>6.85960247427177</v>
       </c>
       <c r="N46">
-        <v>7.29185694715528</v>
+        <v>7.96828050164045</v>
       </c>
       <c r="O46">
-        <v>387.091981289537</v>
+        <v>424.269216417943</v>
       </c>
       <c r="P46">
-        <v>15.2590691141596</v>
+        <v>12.9068596456254</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>720.017902482545</v>
+        <v>528.650634804229</v>
       </c>
       <c r="C47">
-        <v>63.9935028602417</v>
+        <v>69.0223545082787</v>
       </c>
       <c r="D47">
-        <v>40.566354416795</v>
+        <v>35.5750607589275</v>
       </c>
       <c r="E47">
-        <v>58.1002779893633</v>
+        <v>44.3265349368305</v>
       </c>
       <c r="F47">
-        <v>14.9352548983761</v>
+        <v>12.7290903591754</v>
       </c>
       <c r="G47">
-        <v>18.0420174058371</v>
+        <v>22.8754684834023</v>
       </c>
       <c r="H47">
-        <v>18.8475804336048</v>
+        <v>20.2044598770052</v>
       </c>
       <c r="I47">
-        <v>10.3253381493693</v>
+        <v>12.4459785839535</v>
       </c>
       <c r="J47">
-        <v>40.7374598277926</v>
+        <v>55.6156741490136</v>
       </c>
       <c r="K47">
-        <v>12.5934629635343</v>
+        <v>13.3206311254702</v>
       </c>
       <c r="L47">
-        <v>48.1819993856485</v>
+        <v>56.1986356533859</v>
       </c>
       <c r="M47">
-        <v>70.03112925513371</v>
+        <v>75.17984829532649</v>
       </c>
       <c r="N47">
-        <v>30.71112784932</v>
+        <v>29.9128195338224</v>
       </c>
       <c r="O47">
-        <v>3629.64406918197</v>
+        <v>3817.08606625925</v>
       </c>
       <c r="P47">
-        <v>57.5875591733739</v>
+        <v>46.1076062315896</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>719.269726476356</v>
+        <v>564.824752028711</v>
       </c>
       <c r="C48">
-        <v>29.9935239787924</v>
+        <v>21.5472582633894</v>
       </c>
       <c r="D48">
-        <v>8.613526568448259</v>
+        <v>11.8520573168046</v>
       </c>
       <c r="E48">
-        <v>59.3023532712754</v>
+        <v>64.2752904145276</v>
       </c>
       <c r="F48">
-        <v>8.67030996731782</v>
+        <v>11.8529547146469</v>
       </c>
       <c r="G48">
-        <v>3.64247022110882</v>
+        <v>5.25831400645201</v>
       </c>
       <c r="H48">
-        <v>5.61133993750177</v>
+        <v>5.32057711208071</v>
       </c>
       <c r="I48">
-        <v>14.6141294451363</v>
+        <v>19.4098017997067</v>
       </c>
       <c r="J48">
-        <v>38.2475322553315</v>
+        <v>34.289522948371</v>
       </c>
       <c r="K48">
-        <v>14.9995157686966</v>
+        <v>18.7120958265872</v>
       </c>
       <c r="L48">
-        <v>46.8895749585554</v>
+        <v>46.3929316939021</v>
       </c>
       <c r="M48">
-        <v>139.644405841044</v>
+        <v>175.947515537265</v>
       </c>
       <c r="N48">
-        <v>36.3842638200588</v>
+        <v>32.1991095330596</v>
       </c>
       <c r="O48">
-        <v>2981.64106593919</v>
+        <v>3086.51380675822</v>
       </c>
       <c r="P48">
-        <v>103.893963429845</v>
+        <v>88.3204506730806</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>363.865872970017</v>
+        <v>266.112696253908</v>
       </c>
       <c r="C49">
-        <v>7.67175756277746</v>
+        <v>7.21241842900359</v>
       </c>
       <c r="D49">
-        <v>1.3288246152101</v>
+        <v>2.34099176759048</v>
       </c>
       <c r="E49">
-        <v>21.3377915417139</v>
+        <v>21.9260524145998</v>
       </c>
       <c r="F49">
-        <v>46.9473875520783</v>
+        <v>55.1842675765229</v>
       </c>
       <c r="G49">
-        <v>21.6819011363778</v>
+        <v>27.7518009115487</v>
       </c>
       <c r="H49">
-        <v>11.1985670160876</v>
+        <v>10.0096931903916</v>
       </c>
       <c r="I49">
-        <v>6.59286887032391</v>
+        <v>7.46384297573941</v>
       </c>
       <c r="J49">
-        <v>31.1758786293399</v>
+        <v>34.6456007518235</v>
       </c>
       <c r="K49">
-        <v>9.970848815171809</v>
+        <v>11.7335347706873</v>
       </c>
       <c r="L49">
-        <v>3.40248344581141</v>
+        <v>4.27850323263446</v>
       </c>
       <c r="M49">
-        <v>5.79376807530853</v>
+        <v>6.23481381241752</v>
       </c>
       <c r="N49">
-        <v>3.81644990855772</v>
+        <v>3.86426014312997</v>
       </c>
       <c r="O49">
-        <v>922.782883910376</v>
+        <v>1004.62692360842</v>
       </c>
       <c r="P49">
-        <v>20.9399479766607</v>
+        <v>17.4936239522841</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>442.359106918773</v>
+        <v>353.749111718378</v>
       </c>
       <c r="C50">
-        <v>85.2829698319688</v>
+        <v>87.43328494781621</v>
       </c>
       <c r="D50">
-        <v>10.9274153342802</v>
+        <v>11.4879921593156</v>
       </c>
       <c r="E50">
-        <v>155.155180550839</v>
+        <v>128.534901324753</v>
       </c>
       <c r="F50">
-        <v>7.93983219691825</v>
+        <v>5.62741393330906</v>
       </c>
       <c r="G50">
-        <v>27.5848338898628</v>
+        <v>40.4765590332688</v>
       </c>
       <c r="H50">
-        <v>52.3745384527017</v>
+        <v>46.2761094798768</v>
       </c>
       <c r="I50">
-        <v>20.4092489777543</v>
+        <v>19.2116683606637</v>
       </c>
       <c r="J50">
-        <v>131.604128173251</v>
+        <v>124.213877765869</v>
       </c>
       <c r="K50">
-        <v>73.531402322353</v>
+        <v>84.38706824782911</v>
       </c>
       <c r="L50">
-        <v>75.5480281605581</v>
+        <v>93.3587511102797</v>
       </c>
       <c r="M50">
-        <v>41.9330485263354</v>
+        <v>32.1056298909989</v>
       </c>
       <c r="N50">
-        <v>74.76064909046541</v>
+        <v>84.2183173237141</v>
       </c>
       <c r="O50">
-        <v>2486.40648831883</v>
+        <v>2630.6898466701</v>
       </c>
       <c r="P50">
-        <v>99.4533265515141</v>
+        <v>67.6771787817799</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>62.8433195147283</v>
+        <v>53.7764331949531</v>
       </c>
       <c r="C51">
-        <v>1.58997552670647</v>
+        <v>1.74199905354338</v>
       </c>
       <c r="D51">
-        <v>0.164755767709492</v>
+        <v>0.184546486974773</v>
       </c>
       <c r="E51">
-        <v>2.90071797293611</v>
+        <v>2.52989331750555</v>
       </c>
       <c r="F51">
-        <v>47.071432811704</v>
+        <v>55.0193626776945</v>
       </c>
       <c r="G51">
-        <v>3.96855952517263</v>
+        <v>3.66780068302074</v>
       </c>
       <c r="H51">
-        <v>0.321883547378621</v>
+        <v>0.335374358221133</v>
       </c>
       <c r="I51">
-        <v>0.751744773048416</v>
+        <v>0.862278487895605</v>
       </c>
       <c r="J51">
-        <v>2.13081038339599</v>
+        <v>2.75793352306874</v>
       </c>
       <c r="K51">
-        <v>0.769782017437187</v>
+        <v>1.17489437553961</v>
       </c>
       <c r="L51">
-        <v>0.290039639598133</v>
+        <v>0.347406138919798</v>
       </c>
       <c r="M51">
-        <v>0.47728723173617</v>
+        <v>0.577277528218621</v>
       </c>
       <c r="N51">
-        <v>1.46860293750434</v>
+        <v>1.53382668710763</v>
       </c>
       <c r="O51">
-        <v>355.287091681641</v>
+        <v>404.117579382233</v>
       </c>
       <c r="P51">
-        <v>23.1939257900214</v>
+        <v>24.3341008969968</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>400.104559864065</v>
+        <v>918.996216664012</v>
       </c>
       <c r="C2">
-        <v>47.4558278666399</v>
+        <v>37.4640540206157</v>
       </c>
       <c r="D2">
-        <v>70.2622409743351</v>
+        <v>57.498069339954</v>
       </c>
       <c r="E2">
-        <v>93.7609674689094</v>
+        <v>67.1550612616622</v>
       </c>
       <c r="F2">
-        <v>29.683429361217</v>
+        <v>22.7886406619957</v>
       </c>
       <c r="G2">
-        <v>22.6129822997728</v>
+        <v>18.5107505146767</v>
       </c>
       <c r="H2">
-        <v>36.1441771744809</v>
+        <v>30.5491903631561</v>
       </c>
       <c r="I2">
-        <v>27.4646252164225</v>
+        <v>22.6453665749099</v>
       </c>
       <c r="J2">
-        <v>91.1104034526594</v>
+        <v>72.5232881652736</v>
       </c>
       <c r="K2">
-        <v>28.4381129826188</v>
+        <v>22.7197818622228</v>
       </c>
       <c r="L2">
-        <v>38.4695853897144</v>
+        <v>34.4178484386378</v>
       </c>
       <c r="M2">
-        <v>62.0961637658766</v>
+        <v>48.8833234568935</v>
       </c>
       <c r="N2">
-        <v>28.3934065290334</v>
+        <v>22.4673313384613</v>
       </c>
       <c r="O2">
-        <v>2175.95251190863</v>
+        <v>1783.02602252883</v>
       </c>
       <c r="P2">
-        <v>38.1138605551366</v>
+        <v>32.0433778845729</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>91.8071421946761</v>
+        <v>145.743347888659</v>
       </c>
       <c r="C3">
-        <v>4.31900449141926</v>
+        <v>3.61566390971809</v>
       </c>
       <c r="D3">
-        <v>0.200393324775782</v>
+        <v>0.176100149853745</v>
       </c>
       <c r="E3">
-        <v>1.03343201217371</v>
+        <v>0.880533088297709</v>
       </c>
       <c r="F3">
-        <v>16.6573166698977</v>
+        <v>14.4795796722807</v>
       </c>
       <c r="G3">
-        <v>0.278189112142568</v>
+        <v>0.245303356310856</v>
       </c>
       <c r="H3">
-        <v>0.0902282060238781</v>
+        <v>0.240237794825526</v>
       </c>
       <c r="I3">
-        <v>0.279616827273391</v>
+        <v>0.246234838851095</v>
       </c>
       <c r="J3">
-        <v>0.187962297090579</v>
+        <v>0.260576081003963</v>
       </c>
       <c r="K3">
-        <v>0.109683621173462</v>
+        <v>0.09754818174299181</v>
       </c>
       <c r="L3">
-        <v>0.0999796993649532</v>
+        <v>0.0880579634924496</v>
       </c>
       <c r="M3">
-        <v>0.428218841250645</v>
+        <v>0.401951030632784</v>
       </c>
       <c r="N3">
-        <v>0.909922388460933</v>
+        <v>0.913028814222692</v>
       </c>
       <c r="O3">
-        <v>436.20198922982</v>
+        <v>386.216624965553</v>
       </c>
       <c r="P3">
-        <v>11.0412816973797</v>
+        <v>9.551049507502221</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>520.4351030369201</v>
+        <v>983.969681141989</v>
       </c>
       <c r="C4">
-        <v>15.6365104432133</v>
+        <v>13.5255534176069</v>
       </c>
       <c r="D4">
-        <v>5.86304676473243</v>
+        <v>5.00185806558259</v>
       </c>
       <c r="E4">
-        <v>12.3535223091193</v>
+        <v>10.7230468844121</v>
       </c>
       <c r="F4">
-        <v>6.03775868419776</v>
+        <v>5.17137470806825</v>
       </c>
       <c r="G4">
-        <v>11.0065622898288</v>
+        <v>9.245409113238329</v>
       </c>
       <c r="H4">
-        <v>11.6121414071183</v>
+        <v>9.48668845575607</v>
       </c>
       <c r="I4">
-        <v>16.8613815707431</v>
+        <v>14.9919542245653</v>
       </c>
       <c r="J4">
-        <v>42.6699306225388</v>
+        <v>35.301907321586</v>
       </c>
       <c r="K4">
-        <v>12.3015808113223</v>
+        <v>10.6588230306164</v>
       </c>
       <c r="L4">
-        <v>102.597749850314</v>
+        <v>83.5811389171669</v>
       </c>
       <c r="M4">
-        <v>66.0236060479063</v>
+        <v>54.762338837846</v>
       </c>
       <c r="N4">
-        <v>42.0965235328567</v>
+        <v>36.3037494296405</v>
       </c>
       <c r="O4">
-        <v>2887.46359814494</v>
+        <v>2493.29142202427</v>
       </c>
       <c r="P4">
-        <v>38.9364078070982</v>
+        <v>32.4884018323146</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>242.240291078735</v>
+        <v>585.9891075194</v>
       </c>
       <c r="C5">
-        <v>86.2440072765218</v>
+        <v>69.639491806517</v>
       </c>
       <c r="D5">
-        <v>18.792021853093</v>
+        <v>13.717232983518</v>
       </c>
       <c r="E5">
-        <v>48.3926599369111</v>
+        <v>38.0994157830766</v>
       </c>
       <c r="F5">
-        <v>3.66856866453952</v>
+        <v>4.12588431978349</v>
       </c>
       <c r="G5">
-        <v>9.91027539353318</v>
+        <v>8.031335930120839</v>
       </c>
       <c r="H5">
-        <v>18.5484616333617</v>
+        <v>15.1070927105971</v>
       </c>
       <c r="I5">
-        <v>12.0516484053575</v>
+        <v>8.954462117988131</v>
       </c>
       <c r="J5">
-        <v>41.2665044874793</v>
+        <v>32.6474091768427</v>
       </c>
       <c r="K5">
-        <v>26.9893565601121</v>
+        <v>21.6892522947394</v>
       </c>
       <c r="L5">
-        <v>26.0750807428243</v>
+        <v>20.9744344578965</v>
       </c>
       <c r="M5">
-        <v>24.5626107788839</v>
+        <v>18.1693183459879</v>
       </c>
       <c r="N5">
-        <v>22.4626424642644</v>
+        <v>18.494718863522</v>
       </c>
       <c r="O5">
-        <v>1288.30354453048</v>
+        <v>1027.60987676194</v>
       </c>
       <c r="P5">
-        <v>65.36270392332371</v>
+        <v>53.114444715645</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>3498.66941777968</v>
+        <v>5667.75851415479</v>
       </c>
       <c r="C6">
-        <v>170.993050947292</v>
+        <v>154.158334907745</v>
       </c>
       <c r="D6">
-        <v>176.225017778138</v>
+        <v>153.674864984496</v>
       </c>
       <c r="E6">
-        <v>148.759436995431</v>
+        <v>129.404151719002</v>
       </c>
       <c r="F6">
-        <v>33.5136645633608</v>
+        <v>30.4179421088694</v>
       </c>
       <c r="G6">
-        <v>130.333189445003</v>
+        <v>116.550708210273</v>
       </c>
       <c r="H6">
-        <v>75.3902161284675</v>
+        <v>66.2833175719118</v>
       </c>
       <c r="I6">
-        <v>56.3833814832605</v>
+        <v>49.7300615140356</v>
       </c>
       <c r="J6">
-        <v>201.502192101569</v>
+        <v>178.850532528476</v>
       </c>
       <c r="K6">
-        <v>123.318422200305</v>
+        <v>109.57311258164</v>
       </c>
       <c r="L6">
-        <v>578.848339282715</v>
+        <v>505.193921796575</v>
       </c>
       <c r="M6">
-        <v>361.041908970643</v>
+        <v>319.609198569113</v>
       </c>
       <c r="N6">
-        <v>336.795564098662</v>
+        <v>297.250801553029</v>
       </c>
       <c r="O6">
-        <v>16129.9254061898</v>
+        <v>14259.6808369174</v>
       </c>
       <c r="P6">
-        <v>215.822074584842</v>
+        <v>194.699685637993</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>344.849207799858</v>
+        <v>612.787350750295</v>
       </c>
       <c r="C7">
-        <v>43.1315186617154</v>
+        <v>38.7936103517294</v>
       </c>
       <c r="D7">
-        <v>3.12946026779241</v>
+        <v>2.85343110473463</v>
       </c>
       <c r="E7">
-        <v>18.4688308105702</v>
+        <v>16.9982123352419</v>
       </c>
       <c r="F7">
-        <v>16.6911997451793</v>
+        <v>13.6356657932669</v>
       </c>
       <c r="G7">
-        <v>11.6770971637906</v>
+        <v>9.76657424578478</v>
       </c>
       <c r="H7">
-        <v>7.00311258289975</v>
+        <v>6.29649667385764</v>
       </c>
       <c r="I7">
-        <v>9.940034832411509</v>
+        <v>8.85180517886795</v>
       </c>
       <c r="J7">
-        <v>17.6250962193776</v>
+        <v>16.6691017289661</v>
       </c>
       <c r="K7">
-        <v>13.7095184845588</v>
+        <v>12.9795078210299</v>
       </c>
       <c r="L7">
-        <v>65.4349557225807</v>
+        <v>57.8362789492307</v>
       </c>
       <c r="M7">
-        <v>23.6072312996558</v>
+        <v>19.9269084045567</v>
       </c>
       <c r="N7">
-        <v>27.1558853644219</v>
+        <v>22.5553581681833</v>
       </c>
       <c r="O7">
-        <v>2310.85063791141</v>
+        <v>2074.7162187428</v>
       </c>
       <c r="P7">
-        <v>26.3624144466065</v>
+        <v>22.7297600744405</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>245.865881350436</v>
+        <v>463.174204305652</v>
       </c>
       <c r="C8">
-        <v>13.6275547826261</v>
+        <v>12.0103713253367</v>
       </c>
       <c r="D8">
-        <v>5.65597691126456</v>
+        <v>5.56310565840527</v>
       </c>
       <c r="E8">
-        <v>15.545524473649</v>
+        <v>13.9892942484397</v>
       </c>
       <c r="F8">
-        <v>1.4710762090341</v>
+        <v>1.40228211425068</v>
       </c>
       <c r="G8">
-        <v>39.7024884869158</v>
+        <v>35.2748747509654</v>
       </c>
       <c r="H8">
-        <v>13.1344016632753</v>
+        <v>12.0765494539003</v>
       </c>
       <c r="I8">
-        <v>1.63701324815275</v>
+        <v>1.47537895418549</v>
       </c>
       <c r="J8">
-        <v>59.6946752365717</v>
+        <v>53.524994942676</v>
       </c>
       <c r="K8">
-        <v>31.6714192058568</v>
+        <v>26.5623199404956</v>
       </c>
       <c r="L8">
-        <v>50.9966907997805</v>
+        <v>44.7365249573782</v>
       </c>
       <c r="M8">
-        <v>82.9526463191828</v>
+        <v>71.81385124161891</v>
       </c>
       <c r="N8">
-        <v>28.2154046140718</v>
+        <v>24.8548952242544</v>
       </c>
       <c r="O8">
-        <v>1734.18078713167</v>
+        <v>1554.42215251523</v>
       </c>
       <c r="P8">
-        <v>5.55110820108116</v>
+        <v>5.54012796177316</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>67.7793301398177</v>
+        <v>164.798305155934</v>
       </c>
       <c r="C9">
-        <v>13.8999663502242</v>
+        <v>11.663584240285</v>
       </c>
       <c r="D9">
-        <v>1.7454998371492</v>
+        <v>1.12317811805476</v>
       </c>
       <c r="E9">
-        <v>6.45042582725964</v>
+        <v>5.56278214928686</v>
       </c>
       <c r="F9">
-        <v>2.52347643585126</v>
+        <v>2.17657062739587</v>
       </c>
       <c r="G9">
-        <v>35.7679517022291</v>
+        <v>29.3383416331813</v>
       </c>
       <c r="H9">
-        <v>2.52615721497846</v>
+        <v>2.16137358591182</v>
       </c>
       <c r="I9">
-        <v>2.65981758282191</v>
+        <v>2.31010825063471</v>
       </c>
       <c r="J9">
-        <v>5.70316919481887</v>
+        <v>4.67952120977625</v>
       </c>
       <c r="K9">
-        <v>6.37991396171105</v>
+        <v>5.00617005670273</v>
       </c>
       <c r="L9">
-        <v>5.97650681147275</v>
+        <v>5.1016106103388</v>
       </c>
       <c r="M9">
-        <v>11.1319441891407</v>
+        <v>9.08215273704527</v>
       </c>
       <c r="N9">
-        <v>8.193076372716311</v>
+        <v>7.00343741212785</v>
       </c>
       <c r="O9">
-        <v>564.292351045466</v>
+        <v>487.097645975156</v>
       </c>
       <c r="P9">
-        <v>10.0454457994072</v>
+        <v>8.31292507310882</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>1494.94653498691</v>
+        <v>3020.66751913839</v>
       </c>
       <c r="C10">
-        <v>57.0014188237445</v>
+        <v>50.7548481990581</v>
       </c>
       <c r="D10">
-        <v>19.6954604705196</v>
+        <v>16.7371552985572</v>
       </c>
       <c r="E10">
-        <v>52.6284932393229</v>
+        <v>45.6598372873401</v>
       </c>
       <c r="F10">
-        <v>14.4769984355904</v>
+        <v>12.5672180430285</v>
       </c>
       <c r="G10">
-        <v>28.4908545382142</v>
+        <v>25.3986259296297</v>
       </c>
       <c r="H10">
-        <v>18.7643393979674</v>
+        <v>16.6337738148324</v>
       </c>
       <c r="I10">
-        <v>36.4644796740533</v>
+        <v>32.1019517059858</v>
       </c>
       <c r="J10">
-        <v>59.811935065831</v>
+        <v>49.4189041010692</v>
       </c>
       <c r="K10">
-        <v>29.5257913043269</v>
+        <v>25.0736027785289</v>
       </c>
       <c r="L10">
-        <v>117.50208533424</v>
+        <v>98.64608200265261</v>
       </c>
       <c r="M10">
-        <v>125.293412221652</v>
+        <v>105.537247163382</v>
       </c>
       <c r="N10">
-        <v>121.357076635783</v>
+        <v>104.818743637239</v>
       </c>
       <c r="O10">
-        <v>9959.34261943309</v>
+        <v>8544.21913913756</v>
       </c>
       <c r="P10">
-        <v>65.7234811417196</v>
+        <v>61.8909895352776</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>697.730805496373</v>
+        <v>1453.69309750003</v>
       </c>
       <c r="C11">
-        <v>66.9441364875173</v>
+        <v>57.3379334050535</v>
       </c>
       <c r="D11">
-        <v>170.84288374768</v>
+        <v>143.728750693757</v>
       </c>
       <c r="E11">
-        <v>113.851826844757</v>
+        <v>93.8824119190343</v>
       </c>
       <c r="F11">
-        <v>6.26478956704672</v>
+        <v>5.41130006396243</v>
       </c>
       <c r="G11">
-        <v>36.7948621151075</v>
+        <v>30.4207118572739</v>
       </c>
       <c r="H11">
-        <v>21.7970935895263</v>
+        <v>18.9735914668427</v>
       </c>
       <c r="I11">
-        <v>23.8871209992249</v>
+        <v>20.4890889499177</v>
       </c>
       <c r="J11">
-        <v>70.85923855948551</v>
+        <v>59.0899896621376</v>
       </c>
       <c r="K11">
-        <v>37.0226598172477</v>
+        <v>30.7780148206309</v>
       </c>
       <c r="L11">
-        <v>66.19058179129421</v>
+        <v>54.6550192520676</v>
       </c>
       <c r="M11">
-        <v>57.6251795573497</v>
+        <v>47.0709353014519</v>
       </c>
       <c r="N11">
-        <v>53.2852383138709</v>
+        <v>46.1896187507436</v>
       </c>
       <c r="O11">
-        <v>4389.03765360417</v>
+        <v>3754.92593100865</v>
       </c>
       <c r="P11">
-        <v>25.4613484089235</v>
+        <v>20.0881432626026</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>111.689134513153</v>
+        <v>220.725764282329</v>
       </c>
       <c r="C12">
-        <v>10.528651437708</v>
+        <v>8.869882790502521</v>
       </c>
       <c r="D12">
-        <v>1.67121065884505</v>
+        <v>1.27635561910067</v>
       </c>
       <c r="E12">
-        <v>1.48759029933254</v>
+        <v>1.6674615261256</v>
       </c>
       <c r="F12">
-        <v>0.365900976497038</v>
+        <v>0.326735307928155</v>
       </c>
       <c r="G12">
-        <v>0.839521965763345</v>
+        <v>0.745863698661029</v>
       </c>
       <c r="H12">
-        <v>0.497600078610266</v>
+        <v>0.440096107093011</v>
       </c>
       <c r="I12">
-        <v>1.79058308702767</v>
+        <v>1.58366252603716</v>
       </c>
       <c r="J12">
-        <v>0.973106059092171</v>
+        <v>0.857601406384391</v>
       </c>
       <c r="K12">
-        <v>0.121589722157737</v>
+        <v>0.0907192405278338</v>
       </c>
       <c r="L12">
-        <v>0.340622131647806</v>
+        <v>0.298920252813279</v>
       </c>
       <c r="M12">
-        <v>3.34920055139748</v>
+        <v>2.98539134757851</v>
       </c>
       <c r="N12">
-        <v>5.8911765694628</v>
+        <v>5.35582746401955</v>
       </c>
       <c r="O12">
-        <v>846.200474740092</v>
+        <v>745.817301241199</v>
       </c>
       <c r="P12">
-        <v>23.622993751203</v>
+        <v>19.1950200071946</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>114.467301256102</v>
+        <v>218.216573608041</v>
       </c>
       <c r="C13">
-        <v>33.6743291118893</v>
+        <v>28.7417938212056</v>
       </c>
       <c r="D13">
-        <v>1.20392744262689</v>
+        <v>1.05910794061888</v>
       </c>
       <c r="E13">
-        <v>17.4369432596633</v>
+        <v>15.6431803873762</v>
       </c>
       <c r="F13">
-        <v>4.25474027760292</v>
+        <v>3.74810673754862</v>
       </c>
       <c r="G13">
-        <v>6.08714822667956</v>
+        <v>5.3940990935194</v>
       </c>
       <c r="H13">
-        <v>3.32208376046533</v>
+        <v>2.37304527545928</v>
       </c>
       <c r="I13">
-        <v>1.75947787655819</v>
+        <v>1.57228347225985</v>
       </c>
       <c r="J13">
-        <v>8.23246393653565</v>
+        <v>7.28304821310016</v>
       </c>
       <c r="K13">
-        <v>4.0836439864049</v>
+        <v>3.60707147126252</v>
       </c>
       <c r="L13">
-        <v>29.8946936448928</v>
+        <v>26.1221510219476</v>
       </c>
       <c r="M13">
-        <v>3.00700727923339</v>
+        <v>3.26398946114683</v>
       </c>
       <c r="N13">
-        <v>8.967548237057221</v>
+        <v>7.41150952452196</v>
       </c>
       <c r="O13">
-        <v>726.805049764392</v>
+        <v>645.81719775739</v>
       </c>
       <c r="P13">
-        <v>60.2100959973606</v>
+        <v>53.0044432677952</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1106.24385706547</v>
+        <v>1877.72213591692</v>
       </c>
       <c r="C14">
-        <v>112.52083805715</v>
+        <v>98.3884963382578</v>
       </c>
       <c r="D14">
-        <v>12.6186077142819</v>
+        <v>11.3018427516539</v>
       </c>
       <c r="E14">
-        <v>65.96736682193451</v>
+        <v>59.6346875819849</v>
       </c>
       <c r="F14">
-        <v>18.0043557526944</v>
+        <v>15.1856042147953</v>
       </c>
       <c r="G14">
-        <v>99.49969138345639</v>
+        <v>86.4080876289114</v>
       </c>
       <c r="H14">
-        <v>69.3422990760845</v>
+        <v>60.7699653679233</v>
       </c>
       <c r="I14">
-        <v>25.4570326629789</v>
+        <v>22.7336577854021</v>
       </c>
       <c r="J14">
-        <v>140.874193166388</v>
+        <v>124.676134372002</v>
       </c>
       <c r="K14">
-        <v>191.997264161916</v>
+        <v>168.797993397211</v>
       </c>
       <c r="L14">
-        <v>136.423220844812</v>
+        <v>123.222019792695</v>
       </c>
       <c r="M14">
-        <v>82.6861770637863</v>
+        <v>73.043780395044</v>
       </c>
       <c r="N14">
-        <v>80.496103532484</v>
+        <v>73.3147443115101</v>
       </c>
       <c r="O14">
-        <v>6162.22122327619</v>
+        <v>5512.31177221182</v>
       </c>
       <c r="P14">
-        <v>48.7688879474504</v>
+        <v>43.3526413665522</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>478.551280265297</v>
+        <v>927.093875403338</v>
       </c>
       <c r="C15">
-        <v>51.1173173123072</v>
+        <v>45.6059832994473</v>
       </c>
       <c r="D15">
-        <v>8.73734093170931</v>
+        <v>8.23194544914494</v>
       </c>
       <c r="E15">
-        <v>73.8283668877679</v>
+        <v>65.2463975847873</v>
       </c>
       <c r="F15">
-        <v>15.0982373244648</v>
+        <v>13.3517020713445</v>
       </c>
       <c r="G15">
-        <v>50.1804915557136</v>
+        <v>45.471668547816</v>
       </c>
       <c r="H15">
-        <v>48.1235435847183</v>
+        <v>40.248738218628</v>
       </c>
       <c r="I15">
-        <v>58.5847234055643</v>
+        <v>49.7022704071763</v>
       </c>
       <c r="J15">
-        <v>240.141975615342</v>
+        <v>205.86621453267</v>
       </c>
       <c r="K15">
-        <v>66.1561419935713</v>
+        <v>52.0273384576707</v>
       </c>
       <c r="L15">
-        <v>54.013820928716</v>
+        <v>45.4028897023824</v>
       </c>
       <c r="M15">
-        <v>166.248617903343</v>
+        <v>143.28805855307</v>
       </c>
       <c r="N15">
-        <v>102.596836193405</v>
+        <v>89.960981215399</v>
       </c>
       <c r="O15">
-        <v>2828.69919665551</v>
+        <v>2508.7849010548</v>
       </c>
       <c r="P15">
-        <v>48.7701634283757</v>
+        <v>46.3706684043628</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>155.828422009836</v>
+        <v>347.15171058601</v>
       </c>
       <c r="C16">
-        <v>79.7574271815475</v>
+        <v>72.72253256345989</v>
       </c>
       <c r="D16">
-        <v>14.3860115435264</v>
+        <v>12.0435544428518</v>
       </c>
       <c r="E16">
-        <v>27.9322467071309</v>
+        <v>26.1529252351245</v>
       </c>
       <c r="F16">
-        <v>5.54694440358353</v>
+        <v>5.07540455727334</v>
       </c>
       <c r="G16">
-        <v>17.403224472617</v>
+        <v>15.4425474654164</v>
       </c>
       <c r="H16">
-        <v>23.0804715614974</v>
+        <v>20.9785182662345</v>
       </c>
       <c r="I16">
-        <v>7.23727324234173</v>
+        <v>6.53319916163994</v>
       </c>
       <c r="J16">
-        <v>56.4389288232469</v>
+        <v>51.8347481407051</v>
       </c>
       <c r="K16">
-        <v>64.8263094421667</v>
+        <v>57.7325366282256</v>
       </c>
       <c r="L16">
-        <v>36.5659713828975</v>
+        <v>33.5644699339149</v>
       </c>
       <c r="M16">
-        <v>18.4790455743324</v>
+        <v>16.7985828992052</v>
       </c>
       <c r="N16">
-        <v>32.6361763165155</v>
+        <v>29.6806307095296</v>
       </c>
       <c r="O16">
-        <v>1547.75435608046</v>
+        <v>1411.34559225516</v>
       </c>
       <c r="P16">
-        <v>105.828008944708</v>
+        <v>83.4191531269226</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>192.27137421636</v>
+        <v>366.301331311612</v>
       </c>
       <c r="C17">
-        <v>25.0808465573551</v>
+        <v>22.0930932550349</v>
       </c>
       <c r="D17">
-        <v>5.71562276538233</v>
+        <v>5.53442513618592</v>
       </c>
       <c r="E17">
-        <v>18.0219671953146</v>
+        <v>16.3704998934782</v>
       </c>
       <c r="F17">
-        <v>16.6857378418002</v>
+        <v>13.6530585604435</v>
       </c>
       <c r="G17">
-        <v>15.5107649558851</v>
+        <v>14.5395326994329</v>
       </c>
       <c r="H17">
-        <v>11.7145355292458</v>
+        <v>11.0236915297724</v>
       </c>
       <c r="I17">
-        <v>9.302157398809539</v>
+        <v>8.379009130454531</v>
       </c>
       <c r="J17">
-        <v>19.8156058273676</v>
+        <v>16.7410829278921</v>
       </c>
       <c r="K17">
-        <v>21.9013456330402</v>
+        <v>19.622249098774</v>
       </c>
       <c r="L17">
-        <v>13.0718613434473</v>
+        <v>11.7586275253818</v>
       </c>
       <c r="M17">
-        <v>95.60900039764179</v>
+        <v>85.1135035287392</v>
       </c>
       <c r="N17">
-        <v>13.0573017089986</v>
+        <v>11.4781212868549</v>
       </c>
       <c r="O17">
-        <v>1414.54773904971</v>
+        <v>1276.39755247283</v>
       </c>
       <c r="P17">
-        <v>54.9851188193882</v>
+        <v>46.3202550076061</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>413.689061230709</v>
+        <v>947.793155364639</v>
       </c>
       <c r="C18">
-        <v>40.3016515990276</v>
+        <v>32.9211023535229</v>
       </c>
       <c r="D18">
-        <v>11.0116194864393</v>
+        <v>9.388204892824829</v>
       </c>
       <c r="E18">
-        <v>41.4402677374371</v>
+        <v>32.2078949981092</v>
       </c>
       <c r="F18">
-        <v>45.0606671205068</v>
+        <v>34.4072301789746</v>
       </c>
       <c r="G18">
-        <v>30.0573642532535</v>
+        <v>22.6350316474932</v>
       </c>
       <c r="H18">
-        <v>28.8512089830093</v>
+        <v>23.6404914127267</v>
       </c>
       <c r="I18">
-        <v>11.307204132848</v>
+        <v>9.15996950237099</v>
       </c>
       <c r="J18">
-        <v>47.2521850465669</v>
+        <v>37.4943003078386</v>
       </c>
       <c r="K18">
-        <v>26.7710010808391</v>
+        <v>20.691465216882</v>
       </c>
       <c r="L18">
-        <v>46.0225146067893</v>
+        <v>37.5915123124276</v>
       </c>
       <c r="M18">
-        <v>81.4164057628347</v>
+        <v>65.700598356667</v>
       </c>
       <c r="N18">
-        <v>28.4862870437446</v>
+        <v>22.0909246515642</v>
       </c>
       <c r="O18">
-        <v>2181.02383817674</v>
+        <v>1749.17471412292</v>
       </c>
       <c r="P18">
-        <v>62.3042758466718</v>
+        <v>54.3888983224253</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>451.365533271647</v>
+        <v>904.52352267636</v>
       </c>
       <c r="C19">
-        <v>27.4860092781142</v>
+        <v>23.3991603510766</v>
       </c>
       <c r="D19">
-        <v>7.98353207337075</v>
+        <v>6.64965834185686</v>
       </c>
       <c r="E19">
-        <v>30.9129756296555</v>
+        <v>24.9583270122156</v>
       </c>
       <c r="F19">
-        <v>89.7310566897558</v>
+        <v>76.4952826408018</v>
       </c>
       <c r="G19">
-        <v>42.1019385331795</v>
+        <v>35.1676617428224</v>
       </c>
       <c r="H19">
-        <v>6.71485715086726</v>
+        <v>6.94970574154862</v>
       </c>
       <c r="I19">
-        <v>11.8627267124603</v>
+        <v>9.82565799612826</v>
       </c>
       <c r="J19">
-        <v>15.2732557866252</v>
+        <v>13.0913854635993</v>
       </c>
       <c r="K19">
-        <v>11.7255338174293</v>
+        <v>9.793733043571731</v>
       </c>
       <c r="L19">
-        <v>3.29645026356915</v>
+        <v>2.4932576386642</v>
       </c>
       <c r="M19">
-        <v>46.6443166731296</v>
+        <v>38.0287240780429</v>
       </c>
       <c r="N19">
-        <v>3.95455918195045</v>
+        <v>3.26716362593365</v>
       </c>
       <c r="O19">
-        <v>2203.43775289308</v>
+        <v>1808.32833317495</v>
       </c>
       <c r="P19">
-        <v>48.7719927515503</v>
+        <v>43.0506012508924</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>116.053845810547</v>
+        <v>247.604324133179</v>
       </c>
       <c r="C20">
-        <v>10.8586956611176</v>
+        <v>8.915760054229651</v>
       </c>
       <c r="D20">
-        <v>13.5790390652516</v>
+        <v>11.047204977757</v>
       </c>
       <c r="E20">
-        <v>39.8545214817105</v>
+        <v>31.0689367155925</v>
       </c>
       <c r="F20">
-        <v>0.836672979853381</v>
+        <v>0.66711148284806</v>
       </c>
       <c r="G20">
-        <v>0.98361469487184</v>
+        <v>0.843883414106537</v>
       </c>
       <c r="H20">
-        <v>4.01165414009655</v>
+        <v>3.13765539047273</v>
       </c>
       <c r="I20">
-        <v>0.631133462220241</v>
+        <v>0.727569831820736</v>
       </c>
       <c r="J20">
-        <v>6.68575880558444</v>
+        <v>6.02302457556705</v>
       </c>
       <c r="K20">
-        <v>5.31207830466716</v>
+        <v>4.77880613867184</v>
       </c>
       <c r="L20">
-        <v>8.615639257663441</v>
+        <v>6.87476407311931</v>
       </c>
       <c r="M20">
-        <v>27.9879344017247</v>
+        <v>23.341145239432</v>
       </c>
       <c r="N20">
-        <v>6.44759573299494</v>
+        <v>5.25955247037007</v>
       </c>
       <c r="O20">
-        <v>742.096313916651</v>
+        <v>636.872479219569</v>
       </c>
       <c r="P20">
-        <v>19.7053025497312</v>
+        <v>16.6751775496106</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>359.634122089136</v>
+        <v>743.509601306794</v>
       </c>
       <c r="C21">
-        <v>16.488791303521</v>
+        <v>14.2631488928867</v>
       </c>
       <c r="D21">
-        <v>7.25040322982183</v>
+        <v>6.37624026545618</v>
       </c>
       <c r="E21">
-        <v>23.8649781036471</v>
+        <v>20.3815039929161</v>
       </c>
       <c r="F21">
-        <v>1.07588654709299</v>
+        <v>0.964990846970883</v>
       </c>
       <c r="G21">
-        <v>19.9808213063733</v>
+        <v>17.6723518424129</v>
       </c>
       <c r="H21">
-        <v>11.6779091777777</v>
+        <v>10.3549872252509</v>
       </c>
       <c r="I21">
-        <v>4.9537530547954</v>
+        <v>4.74324899867531</v>
       </c>
       <c r="J21">
-        <v>15.034612345641</v>
+        <v>13.2285838977485</v>
       </c>
       <c r="K21">
-        <v>6.45291648569104</v>
+        <v>4.46646162498217</v>
       </c>
       <c r="L21">
-        <v>34.8919415217129</v>
+        <v>30.1416212672835</v>
       </c>
       <c r="M21">
-        <v>28.299166239949</v>
+        <v>25.1065548638418</v>
       </c>
       <c r="N21">
-        <v>14.435610905955</v>
+        <v>12.9224321354613</v>
       </c>
       <c r="O21">
-        <v>3011.55308283166</v>
+        <v>2655.24808834985</v>
       </c>
       <c r="P21">
-        <v>19.8109870897168</v>
+        <v>15.806177713609</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>458.7539707721</v>
+        <v>891.200592372665</v>
       </c>
       <c r="C22">
-        <v>17.2480853711464</v>
+        <v>15.3083596163449</v>
       </c>
       <c r="D22">
-        <v>20.6385749627698</v>
+        <v>16.9470565614</v>
       </c>
       <c r="E22">
-        <v>33.4104141921215</v>
+        <v>31.060373356336</v>
       </c>
       <c r="F22">
-        <v>0.971705063700219</v>
+        <v>0.8581055906937241</v>
       </c>
       <c r="G22">
-        <v>31.2418965766368</v>
+        <v>26.2161283497119</v>
       </c>
       <c r="H22">
-        <v>32.4294979302609</v>
+        <v>25.7835123413811</v>
       </c>
       <c r="I22">
-        <v>7.28369097892241</v>
+        <v>5.91531302166575</v>
       </c>
       <c r="J22">
-        <v>55.6534388430403</v>
+        <v>47.8518369706527</v>
       </c>
       <c r="K22">
-        <v>31.4206132267317</v>
+        <v>27.156126287749</v>
       </c>
       <c r="L22">
-        <v>123.863228567913</v>
+        <v>107.466792654302</v>
       </c>
       <c r="M22">
-        <v>27.3808366560301</v>
+        <v>25.2971481943341</v>
       </c>
       <c r="N22">
-        <v>85.5252239236894</v>
+        <v>74.2952456536012</v>
       </c>
       <c r="O22">
-        <v>3307.12564233456</v>
+        <v>2936.57945525539</v>
       </c>
       <c r="P22">
-        <v>13.4315625323183</v>
+        <v>12.8522895502686</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>900.124639486097</v>
+        <v>1716.12559409205</v>
       </c>
       <c r="C23">
-        <v>52.0891517511437</v>
+        <v>48.5845369113407</v>
       </c>
       <c r="D23">
-        <v>12.4871104258091</v>
+        <v>10.8508734509337</v>
       </c>
       <c r="E23">
-        <v>53.1661863170347</v>
+        <v>47.4720053581093</v>
       </c>
       <c r="F23">
-        <v>1.20773263806028</v>
+        <v>0.935192816781908</v>
       </c>
       <c r="G23">
-        <v>82.0309394277851</v>
+        <v>71.3401955174014</v>
       </c>
       <c r="H23">
-        <v>96.0887280523048</v>
+        <v>81.8838410965876</v>
       </c>
       <c r="I23">
-        <v>37.7301038272508</v>
+        <v>30.8492422379701</v>
       </c>
       <c r="J23">
-        <v>167.083716829411</v>
+        <v>143.097106700439</v>
       </c>
       <c r="K23">
-        <v>125.166992002662</v>
+        <v>109.151726493051</v>
       </c>
       <c r="L23">
-        <v>48.2841670235748</v>
+        <v>41.4433669537129</v>
       </c>
       <c r="M23">
-        <v>739.579448958586</v>
+        <v>628.962951121386</v>
       </c>
       <c r="N23">
-        <v>119.460815832359</v>
+        <v>101.619315868993</v>
       </c>
       <c r="O23">
-        <v>4397.46356047258</v>
+        <v>3804.88336021291</v>
       </c>
       <c r="P23">
-        <v>49.3448923842042</v>
+        <v>41.4378722036866</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>294.424226801811</v>
+        <v>551.17597057157</v>
       </c>
       <c r="C24">
-        <v>52.1966970719793</v>
+        <v>49.4709666649985</v>
       </c>
       <c r="D24">
-        <v>13.7269691718748</v>
+        <v>11.1010029705198</v>
       </c>
       <c r="E24">
-        <v>49.8106223937902</v>
+        <v>44.8686774826532</v>
       </c>
       <c r="F24">
-        <v>16.8845141626161</v>
+        <v>15.6943323300083</v>
       </c>
       <c r="G24">
-        <v>23.0292798387854</v>
+        <v>21.1694857418867</v>
       </c>
       <c r="H24">
-        <v>16.523516056557</v>
+        <v>15.158254802068</v>
       </c>
       <c r="I24">
-        <v>14.0085236983716</v>
+        <v>13.0122217312528</v>
       </c>
       <c r="J24">
-        <v>55.7602198437896</v>
+        <v>50.5620677333241</v>
       </c>
       <c r="K24">
-        <v>71.5868566947814</v>
+        <v>66.0640459011897</v>
       </c>
       <c r="L24">
-        <v>67.4206556494422</v>
+        <v>60.6736491186381</v>
       </c>
       <c r="M24">
-        <v>19.1604214078636</v>
+        <v>17.8741902716486</v>
       </c>
       <c r="N24">
-        <v>83.9362762891665</v>
+        <v>76.66376460813861</v>
       </c>
       <c r="O24">
-        <v>2496.62112426262</v>
+        <v>2290.03019060811</v>
       </c>
       <c r="P24">
-        <v>87.1178466265894</v>
+        <v>75.5084404189608</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>339.316863535421</v>
+        <v>677.34357221241</v>
       </c>
       <c r="C25">
-        <v>51.4539386956926</v>
+        <v>41.1565794513099</v>
       </c>
       <c r="D25">
-        <v>17.0344661548905</v>
+        <v>12.4806773987286</v>
       </c>
       <c r="E25">
-        <v>49.7485224694072</v>
+        <v>40.6960701634458</v>
       </c>
       <c r="F25">
-        <v>34.2450790186796</v>
+        <v>28.2493384962585</v>
       </c>
       <c r="G25">
-        <v>18.1133137456197</v>
+        <v>14.443718507174</v>
       </c>
       <c r="H25">
-        <v>13.9730475333189</v>
+        <v>10.5398367630768</v>
       </c>
       <c r="I25">
-        <v>4.45051624445813</v>
+        <v>3.63336442417335</v>
       </c>
       <c r="J25">
-        <v>18.5784120501781</v>
+        <v>14.6564033266144</v>
       </c>
       <c r="K25">
-        <v>16.6417667585518</v>
+        <v>13.8916756479272</v>
       </c>
       <c r="L25">
-        <v>34.5888562714854</v>
+        <v>25.4294240509682</v>
       </c>
       <c r="M25">
-        <v>48.1204156120193</v>
+        <v>39.5439241304381</v>
       </c>
       <c r="N25">
-        <v>39.5860076678115</v>
+        <v>33.3369307442123</v>
       </c>
       <c r="O25">
-        <v>1359.02427120378</v>
+        <v>1099.82996505483</v>
       </c>
       <c r="P25">
-        <v>60.5259800255595</v>
+        <v>52.1349888004178</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>392.669855898407</v>
+        <v>852.844359368752</v>
       </c>
       <c r="C26">
-        <v>59.4500808673128</v>
+        <v>52.2020295664066</v>
       </c>
       <c r="D26">
-        <v>14.1030162924856</v>
+        <v>11.2909407994169</v>
       </c>
       <c r="E26">
-        <v>41.2340158498653</v>
+        <v>34.6591706148551</v>
       </c>
       <c r="F26">
-        <v>8.68692876632624</v>
+        <v>6.69481659566484</v>
       </c>
       <c r="G26">
-        <v>55.9370107147182</v>
+        <v>49.2441588852818</v>
       </c>
       <c r="H26">
-        <v>20.0961406298008</v>
+        <v>17.6262482932349</v>
       </c>
       <c r="I26">
-        <v>14.4056967557798</v>
+        <v>11.9744883351776</v>
       </c>
       <c r="J26">
-        <v>55.6626364060486</v>
+        <v>47.7860032467106</v>
       </c>
       <c r="K26">
-        <v>31.9321642865139</v>
+        <v>27.8212324537154</v>
       </c>
       <c r="L26">
-        <v>40.1688425041386</v>
+        <v>33.8145874114347</v>
       </c>
       <c r="M26">
-        <v>86.3636654940242</v>
+        <v>75.6693304648667</v>
       </c>
       <c r="N26">
-        <v>38.5814210949498</v>
+        <v>33.8893142988002</v>
       </c>
       <c r="O26">
-        <v>2941.60223276367</v>
+        <v>2552.86781769157</v>
       </c>
       <c r="P26">
-        <v>55.4736261923037</v>
+        <v>49.1335788785478</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>73.6057594687954</v>
+        <v>182.370632077224</v>
       </c>
       <c r="C27">
-        <v>4.34929127129183</v>
+        <v>3.68345262425511</v>
       </c>
       <c r="D27">
-        <v>1.39740744367918</v>
+        <v>1.19135345142343</v>
       </c>
       <c r="E27">
-        <v>17.1429756315087</v>
+        <v>14.1889519136719</v>
       </c>
       <c r="F27">
-        <v>11.4802377331706</v>
+        <v>9.2011968188209</v>
       </c>
       <c r="G27">
-        <v>1.06711868222226</v>
+        <v>1.22292427605428</v>
       </c>
       <c r="H27">
-        <v>0.177591508525151</v>
+        <v>0.150546344459856</v>
       </c>
       <c r="I27">
-        <v>3.15610461173919</v>
+        <v>3.01502514165118</v>
       </c>
       <c r="J27">
-        <v>4.38006744269361</v>
+        <v>3.14927451577903</v>
       </c>
       <c r="K27">
-        <v>2.70646052333418</v>
+        <v>3.16518342851331</v>
       </c>
       <c r="L27">
-        <v>3.4301040737908</v>
+        <v>2.91741493232049</v>
       </c>
       <c r="M27">
-        <v>0.882542994515108</v>
+        <v>0.724665278733413</v>
       </c>
       <c r="N27">
-        <v>6.37412764724592</v>
+        <v>5.44446189568006</v>
       </c>
       <c r="O27">
-        <v>592.258229689527</v>
+        <v>499.394370577913</v>
       </c>
       <c r="P27">
-        <v>56.2267842481413</v>
+        <v>49.7906507033092</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>93.8647815931338</v>
+        <v>196.167580292901</v>
       </c>
       <c r="C28">
-        <v>38.9519506457294</v>
+        <v>35.1453998122472</v>
       </c>
       <c r="D28">
-        <v>1.72005854154434</v>
+        <v>1.57720883531914</v>
       </c>
       <c r="E28">
-        <v>9.200659744925691</v>
+        <v>8.1771388408562</v>
       </c>
       <c r="F28">
-        <v>2.80748584489791</v>
+        <v>2.89823312754791</v>
       </c>
       <c r="G28">
-        <v>8.07357731193243</v>
+        <v>6.92698647980265</v>
       </c>
       <c r="H28">
-        <v>9.074664310011441</v>
+        <v>7.8134717586537</v>
       </c>
       <c r="I28">
-        <v>5.54770503199907</v>
+        <v>4.43989199527853</v>
       </c>
       <c r="J28">
-        <v>19.813412440379</v>
+        <v>17.75870682292</v>
       </c>
       <c r="K28">
-        <v>19.5178629168111</v>
+        <v>17.8708104584039</v>
       </c>
       <c r="L28">
-        <v>13.2460165064091</v>
+        <v>11.5947990784834</v>
       </c>
       <c r="M28">
-        <v>8.42806141406686</v>
+        <v>7.74097177693747</v>
       </c>
       <c r="N28">
-        <v>10.8513009089111</v>
+        <v>9.94397041490822</v>
       </c>
       <c r="O28">
-        <v>960.593563396048</v>
+        <v>883.4928052408241</v>
       </c>
       <c r="P28">
-        <v>93.2345311530767</v>
+        <v>81.1851213831533</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>194.919428994982</v>
+        <v>394.567388756337</v>
       </c>
       <c r="C29">
-        <v>1.36869353458521</v>
+        <v>1.19606509115235</v>
       </c>
       <c r="D29">
-        <v>3.85065099814908</v>
+        <v>3.34484570481826</v>
       </c>
       <c r="E29">
-        <v>3.95042017121345</v>
+        <v>3.43260258673874</v>
       </c>
       <c r="F29">
-        <v>22.1619603217112</v>
+        <v>18.2351652075539</v>
       </c>
       <c r="G29">
-        <v>2.56425716578403</v>
+        <v>2.2336842637859</v>
       </c>
       <c r="H29">
-        <v>2.97206628939335</v>
+        <v>2.35270018322417</v>
       </c>
       <c r="I29">
-        <v>6.77665128239173</v>
+        <v>5.86276154597993</v>
       </c>
       <c r="J29">
-        <v>5.54771332579399</v>
+        <v>4.82423064336861</v>
       </c>
       <c r="K29">
-        <v>3.06865538444895</v>
+        <v>2.73244740433099</v>
       </c>
       <c r="L29">
-        <v>4.72994544289234</v>
+        <v>3.99362768792908</v>
       </c>
       <c r="M29">
-        <v>2.86110167486004</v>
+        <v>2.4937067202062</v>
       </c>
       <c r="N29">
-        <v>11.7308719735975</v>
+        <v>10.6121893669662</v>
       </c>
       <c r="O29">
-        <v>1397.0083866785</v>
+        <v>1209.88185526308</v>
       </c>
       <c r="P29">
-        <v>5.33366474763555</v>
+        <v>4.8299977597407</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>86.11516530604079</v>
+        <v>170.487315107938</v>
       </c>
       <c r="C30">
-        <v>3.84365383003447</v>
+        <v>3.50272080178742</v>
       </c>
       <c r="D30">
-        <v>5.63668299063952</v>
+        <v>5.32480690870663</v>
       </c>
       <c r="E30">
-        <v>10.3425875858379</v>
+        <v>9.47159103954354</v>
       </c>
       <c r="F30">
-        <v>0.138344604044358</v>
+        <v>0.124743452453573</v>
       </c>
       <c r="G30">
-        <v>7.49173981972697</v>
+        <v>6.83428154822152</v>
       </c>
       <c r="H30">
-        <v>9.390101217193671</v>
+        <v>8.228432385193029</v>
       </c>
       <c r="I30">
-        <v>2.46232873643614</v>
+        <v>2.20060273530811</v>
       </c>
       <c r="J30">
-        <v>22.4373531701015</v>
+        <v>19.8474096213975</v>
       </c>
       <c r="K30">
-        <v>15.6974496298074</v>
+        <v>14.1599032409373</v>
       </c>
       <c r="L30">
-        <v>54.6155651524903</v>
+        <v>49.2005334525836</v>
       </c>
       <c r="M30">
-        <v>11.259391944239</v>
+        <v>10.1467602601389</v>
       </c>
       <c r="N30">
-        <v>13.6153030575096</v>
+        <v>12.1993493645279</v>
       </c>
       <c r="O30">
-        <v>729.238458093268</v>
+        <v>658.884810913195</v>
       </c>
       <c r="P30">
-        <v>4.85377423712088</v>
+        <v>4.7589642623813</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>757.551707150978</v>
+        <v>1316.5496784474</v>
       </c>
       <c r="C31">
-        <v>49.24848414232</v>
+        <v>43.9105326530009</v>
       </c>
       <c r="D31">
-        <v>23.8731303315271</v>
+        <v>23.0111420317825</v>
       </c>
       <c r="E31">
-        <v>31.2873426115621</v>
+        <v>29.5716596002714</v>
       </c>
       <c r="F31">
-        <v>11.1513793156463</v>
+        <v>10.4316993899454</v>
       </c>
       <c r="G31">
-        <v>160.592258108845</v>
+        <v>135.469382746762</v>
       </c>
       <c r="H31">
-        <v>19.0098939313367</v>
+        <v>15.479809181346</v>
       </c>
       <c r="I31">
-        <v>33.837387130061</v>
+        <v>27.5647984837127</v>
       </c>
       <c r="J31">
-        <v>40.6464824568825</v>
+        <v>33.5449612600477</v>
       </c>
       <c r="K31">
-        <v>18.7174124154389</v>
+        <v>16.625954489096</v>
       </c>
       <c r="L31">
-        <v>90.1519967148662</v>
+        <v>81.4047831529264</v>
       </c>
       <c r="M31">
-        <v>22.0225625893235</v>
+        <v>19.6025579932212</v>
       </c>
       <c r="N31">
-        <v>62.1148829434596</v>
+        <v>55.3834000740621</v>
       </c>
       <c r="O31">
-        <v>4376.94643712035</v>
+        <v>3885.5710896517</v>
       </c>
       <c r="P31">
-        <v>11.4971582061486</v>
+        <v>11.35182035523</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>198.17173459236</v>
+        <v>369.984217875666</v>
       </c>
       <c r="C32">
-        <v>6.28864911760119</v>
+        <v>6.04507580417511</v>
       </c>
       <c r="D32">
-        <v>2.55677605717972</v>
+        <v>2.30207132290213</v>
       </c>
       <c r="E32">
-        <v>4.07648368847348</v>
+        <v>4.03023517964998</v>
       </c>
       <c r="F32">
-        <v>38.6226706397297</v>
+        <v>31.7061080621004</v>
       </c>
       <c r="G32">
-        <v>1.59315144779384</v>
+        <v>1.34346441473548</v>
       </c>
       <c r="H32">
-        <v>0.216286243246873</v>
+        <v>0.178905196737822</v>
       </c>
       <c r="I32">
-        <v>5.69599222790936</v>
+        <v>4.86491428596869</v>
       </c>
       <c r="J32">
-        <v>7.33443620890862</v>
+        <v>5.41110104119069</v>
       </c>
       <c r="K32">
-        <v>6.29732472114869</v>
+        <v>5.32087328847173</v>
       </c>
       <c r="L32">
-        <v>12.5769108069882</v>
+        <v>11.2537753949328</v>
       </c>
       <c r="M32">
-        <v>6.95537488448687</v>
+        <v>5.92251300708192</v>
       </c>
       <c r="N32">
-        <v>8.95427275382756</v>
+        <v>9.118411462485589</v>
       </c>
       <c r="O32">
-        <v>1008.30098707511</v>
+        <v>857.88045936788</v>
       </c>
       <c r="P32">
-        <v>31.6498526807238</v>
+        <v>25.9198166685735</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>1815.78320857262</v>
+        <v>3374.86370373358</v>
       </c>
       <c r="C33">
-        <v>81.962603330283</v>
+        <v>68.6535941430724</v>
       </c>
       <c r="D33">
-        <v>76.9841969710469</v>
+        <v>67.3844105473042</v>
       </c>
       <c r="E33">
-        <v>63.0985813543067</v>
+        <v>53.4745481223478</v>
       </c>
       <c r="F33">
-        <v>9.474818093556131</v>
+        <v>8.185052373625521</v>
       </c>
       <c r="G33">
-        <v>68.2873009664804</v>
+        <v>58.2918823925282</v>
       </c>
       <c r="H33">
-        <v>50.3754657697025</v>
+        <v>42.4852546026939</v>
       </c>
       <c r="I33">
-        <v>26.9271547579518</v>
+        <v>21.4108562787525</v>
       </c>
       <c r="J33">
-        <v>118.149549145715</v>
+        <v>95.63796955692131</v>
       </c>
       <c r="K33">
-        <v>100.07089990445</v>
+        <v>81.92952794286271</v>
       </c>
       <c r="L33">
-        <v>168.229552227433</v>
+        <v>138.124279511154</v>
       </c>
       <c r="M33">
-        <v>93.03866602805461</v>
+        <v>78.25006413729891</v>
       </c>
       <c r="N33">
-        <v>183.90841323054</v>
+        <v>155.558347257201</v>
       </c>
       <c r="O33">
-        <v>9666.839435497959</v>
+        <v>8293.29120894944</v>
       </c>
       <c r="P33">
-        <v>53.5082727294392</v>
+        <v>45.2350357838267</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>697.803636536682</v>
+        <v>1488.86315370155</v>
       </c>
       <c r="C34">
-        <v>102.448575542165</v>
+        <v>82.6097005155095</v>
       </c>
       <c r="D34">
-        <v>221.27743502837</v>
+        <v>187.944410036982</v>
       </c>
       <c r="E34">
-        <v>68.5243065070547</v>
+        <v>58.913203192786</v>
       </c>
       <c r="F34">
-        <v>0.879589669698011</v>
+        <v>0.746719363235772</v>
       </c>
       <c r="G34">
-        <v>86.5263190214402</v>
+        <v>72.4013794649144</v>
       </c>
       <c r="H34">
-        <v>63.678386188418</v>
+        <v>53.2615996487873</v>
       </c>
       <c r="I34">
-        <v>30.3603892188278</v>
+        <v>25.8919519041393</v>
       </c>
       <c r="J34">
-        <v>49.101587156244</v>
+        <v>39.9944320125505</v>
       </c>
       <c r="K34">
-        <v>73.75396036549</v>
+        <v>62.0279938852156</v>
       </c>
       <c r="L34">
-        <v>132.967008020916</v>
+        <v>111.780993422501</v>
       </c>
       <c r="M34">
-        <v>54.1592677197427</v>
+        <v>47.0970210372869</v>
       </c>
       <c r="N34">
-        <v>171.318789290935</v>
+        <v>139.461932239528</v>
       </c>
       <c r="O34">
-        <v>4041.34967426054</v>
+        <v>3437.6487449819</v>
       </c>
       <c r="P34">
-        <v>82.2211466346219</v>
+        <v>64.99008926862879</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>40.9559901879085</v>
+        <v>86.8655470892421</v>
       </c>
       <c r="C35">
-        <v>8.951401403976471</v>
+        <v>8.18725280148549</v>
       </c>
       <c r="D35">
-        <v>0.844412084053015</v>
+        <v>0.797312397851112</v>
       </c>
       <c r="E35">
-        <v>4.38868155163904</v>
+        <v>3.98706986507484</v>
       </c>
       <c r="F35">
-        <v>6.66708005113097</v>
+        <v>6.06958235025331</v>
       </c>
       <c r="G35">
-        <v>0.411513598174158</v>
+        <v>0.37498536283641</v>
       </c>
       <c r="H35">
-        <v>0.6528366348401901</v>
+        <v>0.590459431466988</v>
       </c>
       <c r="I35">
-        <v>0.818017172110496</v>
+        <v>0.752438859922223</v>
       </c>
       <c r="J35">
-        <v>2.21486172741578</v>
+        <v>1.9945516220329</v>
       </c>
       <c r="K35">
-        <v>7.93211495138759</v>
+        <v>7.16292057273639</v>
       </c>
       <c r="L35">
-        <v>3.01237166237208</v>
+        <v>2.76732866399441</v>
       </c>
       <c r="M35">
-        <v>2.64764905643376</v>
+        <v>2.39956479327463</v>
       </c>
       <c r="N35">
-        <v>3.46112398189057</v>
+        <v>3.16732750105227</v>
       </c>
       <c r="O35">
-        <v>397.455428606183</v>
+        <v>360.944608149528</v>
       </c>
       <c r="P35">
-        <v>54.2679387809904</v>
+        <v>47.7139477764293</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>912.325795775941</v>
+        <v>1856.50487337385</v>
       </c>
       <c r="C36">
-        <v>82.3354274473318</v>
+        <v>69.2307537513545</v>
       </c>
       <c r="D36">
-        <v>20.707964148569</v>
+        <v>17.3273184863854</v>
       </c>
       <c r="E36">
-        <v>93.72953095281071</v>
+        <v>79.0486163964504</v>
       </c>
       <c r="F36">
-        <v>40.4188844379877</v>
+        <v>36.6615547412715</v>
       </c>
       <c r="G36">
-        <v>117.800551677225</v>
+        <v>97.5990545004379</v>
       </c>
       <c r="H36">
-        <v>124.644097339054</v>
+        <v>99.05699437259629</v>
       </c>
       <c r="I36">
-        <v>54.9601143003961</v>
+        <v>46.3155905193172</v>
       </c>
       <c r="J36">
-        <v>255.172288247342</v>
+        <v>214.844438265491</v>
       </c>
       <c r="K36">
-        <v>123.10885218453</v>
+        <v>103.277739051657</v>
       </c>
       <c r="L36">
-        <v>115.008187627309</v>
+        <v>97.8851081993632</v>
       </c>
       <c r="M36">
-        <v>270.234986619314</v>
+        <v>224.512386642554</v>
       </c>
       <c r="N36">
-        <v>112.470684540502</v>
+        <v>97.3393314616188</v>
       </c>
       <c r="O36">
-        <v>5530.95675875097</v>
+        <v>4811.59743380159</v>
       </c>
       <c r="P36">
-        <v>46.1848049953877</v>
+        <v>45.2353968565898</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>277.486379552103</v>
+        <v>614.85316483011</v>
       </c>
       <c r="C37">
-        <v>24.9884823131749</v>
+        <v>21.4274284763763</v>
       </c>
       <c r="D37">
-        <v>6.43680561994062</v>
+        <v>4.94564207147127</v>
       </c>
       <c r="E37">
-        <v>16.0511031161247</v>
+        <v>14.2604459561245</v>
       </c>
       <c r="F37">
-        <v>51.6662889101299</v>
+        <v>43.4969790169046</v>
       </c>
       <c r="G37">
-        <v>8.1717480966264</v>
+        <v>6.90066781437409</v>
       </c>
       <c r="H37">
-        <v>26.1720527167815</v>
+        <v>22.9299663007858</v>
       </c>
       <c r="I37">
-        <v>13.1392055049094</v>
+        <v>11.171209705859</v>
       </c>
       <c r="J37">
-        <v>39.0576635954048</v>
+        <v>31.4112456944015</v>
       </c>
       <c r="K37">
-        <v>52.4425358212707</v>
+        <v>38.1380199798537</v>
       </c>
       <c r="L37">
-        <v>28.2470115446325</v>
+        <v>24.3306412196784</v>
       </c>
       <c r="M37">
-        <v>33.4097799489567</v>
+        <v>25.2738134364136</v>
       </c>
       <c r="N37">
-        <v>22.8571515631333</v>
+        <v>17.1125472557385</v>
       </c>
       <c r="O37">
-        <v>1714.90107455416</v>
+        <v>1443.17330938251</v>
       </c>
       <c r="P37">
-        <v>51.1777767199675</v>
+        <v>48.9212082393858</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>317.524008067439</v>
+        <v>616.774241353521</v>
       </c>
       <c r="C38">
-        <v>31.5346340442021</v>
+        <v>26.9707140065481</v>
       </c>
       <c r="D38">
-        <v>18.4028375632716</v>
+        <v>14.2509478859739</v>
       </c>
       <c r="E38">
-        <v>52.267886180528</v>
+        <v>44.8783634434903</v>
       </c>
       <c r="F38">
-        <v>1.42459243286349</v>
+        <v>1.25252503539299</v>
       </c>
       <c r="G38">
-        <v>9.381623913980791</v>
+        <v>7.65710152502223</v>
       </c>
       <c r="H38">
-        <v>8.88811820936394</v>
+        <v>7.66535652184517</v>
       </c>
       <c r="I38">
-        <v>2.875894924048</v>
+        <v>2.5028536636535</v>
       </c>
       <c r="J38">
-        <v>46.8076199877651</v>
+        <v>38.9144283801959</v>
       </c>
       <c r="K38">
-        <v>21.9192623055751</v>
+        <v>18.7844668878636</v>
       </c>
       <c r="L38">
-        <v>97.4475273434895</v>
+        <v>84.5079791675426</v>
       </c>
       <c r="M38">
-        <v>27.8590857727158</v>
+        <v>22.2903624274134</v>
       </c>
       <c r="N38">
-        <v>26.8212339994989</v>
+        <v>22.9884784103027</v>
       </c>
       <c r="O38">
-        <v>1807.83563768401</v>
+        <v>1575.62607642811</v>
       </c>
       <c r="P38">
-        <v>74.7149554492452</v>
+        <v>61.9790914964262</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>990.8548291756611</v>
+        <v>1992.58633150477</v>
       </c>
       <c r="C39">
-        <v>129.044105464652</v>
+        <v>114.458158329898</v>
       </c>
       <c r="D39">
-        <v>67.12375320721971</v>
+        <v>50.1786490001138</v>
       </c>
       <c r="E39">
-        <v>86.77076086599951</v>
+        <v>75.3612690622461</v>
       </c>
       <c r="F39">
-        <v>24.3426243480916</v>
+        <v>21.2365232244434</v>
       </c>
       <c r="G39">
-        <v>145.637161309749</v>
+        <v>123.475629065407</v>
       </c>
       <c r="H39">
-        <v>52.6772068620439</v>
+        <v>47.1751540387504</v>
       </c>
       <c r="I39">
-        <v>55.9180704160482</v>
+        <v>50.3715930832426</v>
       </c>
       <c r="J39">
-        <v>187.923292856471</v>
+        <v>164.403369749842</v>
       </c>
       <c r="K39">
-        <v>136.130688147317</v>
+        <v>115.588779102326</v>
       </c>
       <c r="L39">
-        <v>126.685464374018</v>
+        <v>103.719994104567</v>
       </c>
       <c r="M39">
-        <v>90.608794588289</v>
+        <v>76.9966362247051</v>
       </c>
       <c r="N39">
-        <v>133.433586575393</v>
+        <v>115.155483781664</v>
       </c>
       <c r="O39">
-        <v>6360.11687893408</v>
+        <v>5546.03200903313</v>
       </c>
       <c r="P39">
-        <v>59.9981206911295</v>
+        <v>48.9324446323144</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>82.4976772112709</v>
+        <v>181.609684981335</v>
       </c>
       <c r="C40">
-        <v>3.72629065490519</v>
+        <v>2.86802592528455</v>
       </c>
       <c r="D40">
-        <v>11.8074221449274</v>
+        <v>10.2602626122618</v>
       </c>
       <c r="E40">
-        <v>7.21987766078373</v>
+        <v>6.14525745349903</v>
       </c>
       <c r="F40">
-        <v>0.296420594034861</v>
+        <v>0.256280581666108</v>
       </c>
       <c r="G40">
-        <v>7.45636341222732</v>
+        <v>6.31881302692761</v>
       </c>
       <c r="H40">
-        <v>8.60055565658126</v>
+        <v>7.14735706934836</v>
       </c>
       <c r="I40">
-        <v>1.8948719328464</v>
+        <v>1.64804357046018</v>
       </c>
       <c r="J40">
-        <v>18.0669705019549</v>
+        <v>15.1980260138269</v>
       </c>
       <c r="K40">
-        <v>10.1560308752766</v>
+        <v>9.004560286431451</v>
       </c>
       <c r="L40">
-        <v>17.1272419065337</v>
+        <v>14.7713414366104</v>
       </c>
       <c r="M40">
-        <v>9.337740632492841</v>
+        <v>7.98260746326136</v>
       </c>
       <c r="N40">
-        <v>39.1983470702753</v>
+        <v>34.5230065099547</v>
       </c>
       <c r="O40">
-        <v>629.884312999738</v>
+        <v>549.686614875528</v>
       </c>
       <c r="P40">
-        <v>2.16127463651688</v>
+        <v>1.90771246246617</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>368.844255597723</v>
+        <v>812.489977693714</v>
       </c>
       <c r="C41">
-        <v>12.611003428772</v>
+        <v>11.557792021629</v>
       </c>
       <c r="D41">
-        <v>106.043361473829</v>
+        <v>87.96539264123329</v>
       </c>
       <c r="E41">
-        <v>57.8528783551301</v>
+        <v>46.5437841074246</v>
       </c>
       <c r="F41">
-        <v>2.71287619148639</v>
+        <v>2.20165250356654</v>
       </c>
       <c r="G41">
-        <v>62.3981300896831</v>
+        <v>48.557809027574</v>
       </c>
       <c r="H41">
-        <v>60.3971406699564</v>
+        <v>49.9490667065615</v>
       </c>
       <c r="I41">
-        <v>10.8564332842828</v>
+        <v>8.810455133714671</v>
       </c>
       <c r="J41">
-        <v>72.4776462570017</v>
+        <v>59.297320424396</v>
       </c>
       <c r="K41">
-        <v>40.3770950911152</v>
+        <v>32.3938138870145</v>
       </c>
       <c r="L41">
-        <v>35.5321137246191</v>
+        <v>29.4758425496821</v>
       </c>
       <c r="M41">
-        <v>57.1659186329572</v>
+        <v>46.1906682424492</v>
       </c>
       <c r="N41">
-        <v>28.3093475630854</v>
+        <v>21.9512573694302</v>
       </c>
       <c r="O41">
-        <v>1984.9032123895</v>
+        <v>1648.02548880343</v>
       </c>
       <c r="P41">
-        <v>19.2980557335185</v>
+        <v>14.9258581442177</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>48.9395569852525</v>
+        <v>102.249347753694</v>
       </c>
       <c r="C42">
-        <v>12.1899531818717</v>
+        <v>11.5182316327087</v>
       </c>
       <c r="D42">
-        <v>0.401055712422216</v>
+        <v>0.361793941166765</v>
       </c>
       <c r="E42">
-        <v>10.7272925360269</v>
+        <v>10.0067003798618</v>
       </c>
       <c r="F42">
-        <v>3.4357953621044</v>
+        <v>3.24107150465987</v>
       </c>
       <c r="G42">
-        <v>1.09075038724088</v>
+        <v>0.929448581538136</v>
       </c>
       <c r="H42">
-        <v>1.970326115021</v>
+        <v>1.79093850640755</v>
       </c>
       <c r="I42">
-        <v>2.50180465568771</v>
+        <v>2.36852574283008</v>
       </c>
       <c r="J42">
-        <v>6.44257050137271</v>
+        <v>5.66005388544942</v>
       </c>
       <c r="K42">
-        <v>7.89300252655639</v>
+        <v>6.62791147354422</v>
       </c>
       <c r="L42">
-        <v>10.5240029021778</v>
+        <v>9.351270499498771</v>
       </c>
       <c r="M42">
-        <v>4.45018855305834</v>
+        <v>4.04199318644264</v>
       </c>
       <c r="N42">
-        <v>11.3501977823361</v>
+        <v>10.2705795767029</v>
       </c>
       <c r="O42">
-        <v>521.6329103467079</v>
+        <v>477.971422807937</v>
       </c>
       <c r="P42">
-        <v>57.7303247439176</v>
+        <v>53.6872326922996</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>560.471445356052</v>
+        <v>1188.80359215694</v>
       </c>
       <c r="C43">
-        <v>51.2072478286674</v>
+        <v>41.3733931236498</v>
       </c>
       <c r="D43">
-        <v>34.89888201301</v>
+        <v>28.3715810561577</v>
       </c>
       <c r="E43">
-        <v>54.6259054969276</v>
+        <v>44.1441449677619</v>
       </c>
       <c r="F43">
-        <v>10.6027305744668</v>
+        <v>7.68741883608507</v>
       </c>
       <c r="G43">
-        <v>51.6616750966764</v>
+        <v>40.9738778194504</v>
       </c>
       <c r="H43">
-        <v>30.5341382605476</v>
+        <v>25.4044622341497</v>
       </c>
       <c r="I43">
-        <v>33.2446347582801</v>
+        <v>27.7261787379128</v>
       </c>
       <c r="J43">
-        <v>56.1314081757294</v>
+        <v>46.1831680540474</v>
       </c>
       <c r="K43">
-        <v>63.84162374266</v>
+        <v>53.1570881497298</v>
       </c>
       <c r="L43">
-        <v>48.0659616436421</v>
+        <v>38.6319722646807</v>
       </c>
       <c r="M43">
-        <v>102.873683226649</v>
+        <v>86.61013430213529</v>
       </c>
       <c r="N43">
-        <v>73.3952917720743</v>
+        <v>63.1963716154314</v>
       </c>
       <c r="O43">
-        <v>2921.83064827646</v>
+        <v>2424.46175831587</v>
       </c>
       <c r="P43">
-        <v>60.4306512322639</v>
+        <v>42.4002765529223</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>2045.65725276643</v>
+        <v>3455.58979667371</v>
       </c>
       <c r="C44">
-        <v>174.808194675609</v>
+        <v>153.748719218546</v>
       </c>
       <c r="D44">
-        <v>57.7381971601259</v>
+        <v>50.5293677657696</v>
       </c>
       <c r="E44">
-        <v>88.60342081254269</v>
+        <v>77.6122058508379</v>
       </c>
       <c r="F44">
-        <v>313.320983968375</v>
+        <v>274.910290572579</v>
       </c>
       <c r="G44">
-        <v>153.920983148435</v>
+        <v>132.395620967728</v>
       </c>
       <c r="H44">
-        <v>49.0243132254432</v>
+        <v>42.0606599059381</v>
       </c>
       <c r="I44">
-        <v>58.7553576729632</v>
+        <v>50.908386365329</v>
       </c>
       <c r="J44">
-        <v>135.53208031978</v>
+        <v>119.28592526129</v>
       </c>
       <c r="K44">
-        <v>105.052919343525</v>
+        <v>91.75775295741229</v>
       </c>
       <c r="L44">
-        <v>244.420819738799</v>
+        <v>214.711855147096</v>
       </c>
       <c r="M44">
-        <v>128.784054936125</v>
+        <v>113.908460770126</v>
       </c>
       <c r="N44">
-        <v>114.109214046237</v>
+        <v>104.616806872635</v>
       </c>
       <c r="O44">
-        <v>10145.8893192067</v>
+        <v>8964.030222932681</v>
       </c>
       <c r="P44">
-        <v>246.887800421016</v>
+        <v>212.77087751445</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>228.599894786841</v>
+        <v>351.903730395396</v>
       </c>
       <c r="C45">
-        <v>19.8483249422849</v>
+        <v>18.3107500965599</v>
       </c>
       <c r="D45">
-        <v>4.69606039215786</v>
+        <v>4.26299790562209</v>
       </c>
       <c r="E45">
-        <v>10.0601097672067</v>
+        <v>10.0940099765891</v>
       </c>
       <c r="F45">
-        <v>26.605004112496</v>
+        <v>23.4704041767008</v>
       </c>
       <c r="G45">
-        <v>14.8553858839553</v>
+        <v>13.4733903702604</v>
       </c>
       <c r="H45">
-        <v>3.36179577261004</v>
+        <v>3.04381436735668</v>
       </c>
       <c r="I45">
-        <v>4.30019586231477</v>
+        <v>3.86934404654973</v>
       </c>
       <c r="J45">
-        <v>16.8267423840524</v>
+        <v>15.243540327353</v>
       </c>
       <c r="K45">
-        <v>8.26843063916983</v>
+        <v>7.51002070647424</v>
       </c>
       <c r="L45">
-        <v>21.3683076215267</v>
+        <v>19.3139346904608</v>
       </c>
       <c r="M45">
-        <v>24.7245765371544</v>
+        <v>21.6473111684964</v>
       </c>
       <c r="N45">
-        <v>27.7807886880361</v>
+        <v>24.5123442820264</v>
       </c>
       <c r="O45">
-        <v>1071.55225223783</v>
+        <v>966.752279243455</v>
       </c>
       <c r="P45">
-        <v>15.2228999069751</v>
+        <v>12.8987152190339</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>43.1255526061159</v>
+        <v>97.2041059855308</v>
       </c>
       <c r="C46">
-        <v>6.75176070252583</v>
+        <v>6.11737998449582</v>
       </c>
       <c r="D46">
-        <v>1.47592228228061</v>
+        <v>1.43587469763254</v>
       </c>
       <c r="E46">
-        <v>7.44137008503501</v>
+        <v>6.79225032765074</v>
       </c>
       <c r="F46">
-        <v>1.68743029363389</v>
+        <v>1.54992920736891</v>
       </c>
       <c r="G46">
-        <v>2.69972458851393</v>
+        <v>2.44979745879675</v>
       </c>
       <c r="H46">
-        <v>4.44127292276108</v>
+        <v>3.96627567548555</v>
       </c>
       <c r="I46">
-        <v>2.12982302421665</v>
+        <v>1.84669233612074</v>
       </c>
       <c r="J46">
-        <v>6.93370599544567</v>
+        <v>6.29669873031704</v>
       </c>
       <c r="K46">
-        <v>4.96681530900973</v>
+        <v>3.83459405817037</v>
       </c>
       <c r="L46">
-        <v>20.8267680013262</v>
+        <v>17.7562751412761</v>
       </c>
       <c r="M46">
-        <v>6.85960247427177</v>
+        <v>5.58404282866069</v>
       </c>
       <c r="N46">
-        <v>7.96828050164045</v>
+        <v>7.15448875386626</v>
       </c>
       <c r="O46">
-        <v>424.269216417943</v>
+        <v>379.821196731399</v>
       </c>
       <c r="P46">
-        <v>12.9068596456254</v>
+        <v>11.7863821563066</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>528.650634804229</v>
+        <v>1070.28005288976</v>
       </c>
       <c r="C47">
-        <v>69.0223545082787</v>
+        <v>58.3787370454172</v>
       </c>
       <c r="D47">
-        <v>35.5750607589275</v>
+        <v>30.730052692535</v>
       </c>
       <c r="E47">
-        <v>44.3265349368305</v>
+        <v>39.1568585820554</v>
       </c>
       <c r="F47">
-        <v>12.7290903591754</v>
+        <v>10.532639207292</v>
       </c>
       <c r="G47">
-        <v>22.8754684834023</v>
+        <v>17.673131651559</v>
       </c>
       <c r="H47">
-        <v>20.2044598770052</v>
+        <v>16.6116215205713</v>
       </c>
       <c r="I47">
-        <v>12.4459785839535</v>
+        <v>10.8049095283806</v>
       </c>
       <c r="J47">
-        <v>55.6156741490136</v>
+        <v>47.4316516635014</v>
       </c>
       <c r="K47">
-        <v>13.3206311254702</v>
+        <v>10.0739666069283</v>
       </c>
       <c r="L47">
-        <v>56.1986356533859</v>
+        <v>47.0660805578057</v>
       </c>
       <c r="M47">
-        <v>75.17984829532649</v>
+        <v>67.7101739980244</v>
       </c>
       <c r="N47">
-        <v>29.9128195338224</v>
+        <v>25.9937033511027</v>
       </c>
       <c r="O47">
-        <v>3817.08606625925</v>
+        <v>3344.75679567656</v>
       </c>
       <c r="P47">
-        <v>46.1076062315896</v>
+        <v>42.2777700621889</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>564.824752028711</v>
+        <v>1046.06714149898</v>
       </c>
       <c r="C48">
-        <v>21.5472582633894</v>
+        <v>18.975850142307</v>
       </c>
       <c r="D48">
-        <v>11.8520573168046</v>
+        <v>8.87142363121367</v>
       </c>
       <c r="E48">
-        <v>64.2752904145276</v>
+        <v>56.0798463217501</v>
       </c>
       <c r="F48">
-        <v>11.8529547146469</v>
+        <v>10.4183604113123</v>
       </c>
       <c r="G48">
-        <v>5.25831400645201</v>
+        <v>4.58915115716796</v>
       </c>
       <c r="H48">
-        <v>5.32057711208071</v>
+        <v>4.48516270819294</v>
       </c>
       <c r="I48">
-        <v>19.4098017997067</v>
+        <v>17.2963633970338</v>
       </c>
       <c r="J48">
-        <v>34.289522948371</v>
+        <v>30.0627674441242</v>
       </c>
       <c r="K48">
-        <v>18.7120958265872</v>
+        <v>14.5804161617816</v>
       </c>
       <c r="L48">
-        <v>46.3929316939021</v>
+        <v>39.8336068356634</v>
       </c>
       <c r="M48">
-        <v>175.947515537265</v>
+        <v>154.575877291863</v>
       </c>
       <c r="N48">
-        <v>32.1991095330596</v>
+        <v>29.4793912939846</v>
       </c>
       <c r="O48">
-        <v>3086.51380675822</v>
+        <v>2676.5750637912</v>
       </c>
       <c r="P48">
-        <v>88.3204506730806</v>
+        <v>75.9041066896379</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>266.112696253908</v>
+        <v>547.3135499750561</v>
       </c>
       <c r="C49">
-        <v>7.21241842900359</v>
+        <v>5.19547788637862</v>
       </c>
       <c r="D49">
-        <v>2.34099176759048</v>
+        <v>1.14243430899253</v>
       </c>
       <c r="E49">
-        <v>21.9260524145998</v>
+        <v>17.2272639452165</v>
       </c>
       <c r="F49">
-        <v>55.1842675765229</v>
+        <v>41.0025894953632</v>
       </c>
       <c r="G49">
-        <v>27.7518009115487</v>
+        <v>20.6218242045094</v>
       </c>
       <c r="H49">
-        <v>10.0096931903916</v>
+        <v>8.21696426601968</v>
       </c>
       <c r="I49">
-        <v>7.46384297573941</v>
+        <v>6.48442390530521</v>
       </c>
       <c r="J49">
-        <v>34.6456007518235</v>
+        <v>27.3790843538065</v>
       </c>
       <c r="K49">
-        <v>11.7335347706873</v>
+        <v>8.543907072126659</v>
       </c>
       <c r="L49">
-        <v>4.27850323263446</v>
+        <v>3.33333729703953</v>
       </c>
       <c r="M49">
-        <v>6.23481381241752</v>
+        <v>5.15499793683789</v>
       </c>
       <c r="N49">
-        <v>3.86426014312997</v>
+        <v>2.83765447078514</v>
       </c>
       <c r="O49">
-        <v>1004.62692360842</v>
+        <v>778.757019320605</v>
       </c>
       <c r="P49">
-        <v>17.4936239522841</v>
+        <v>12.6455111689813</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>353.749111718378</v>
+        <v>744.774268188424</v>
       </c>
       <c r="C50">
-        <v>87.43328494781621</v>
+        <v>77.0666999305505</v>
       </c>
       <c r="D50">
-        <v>11.4879921593156</v>
+        <v>10.1644067235413</v>
       </c>
       <c r="E50">
-        <v>128.534901324753</v>
+        <v>111.587757285845</v>
       </c>
       <c r="F50">
-        <v>5.62741393330906</v>
+        <v>5.01600633522691</v>
       </c>
       <c r="G50">
-        <v>40.4765590332688</v>
+        <v>34.909428534123</v>
       </c>
       <c r="H50">
-        <v>46.2761094798768</v>
+        <v>42.6009803557882</v>
       </c>
       <c r="I50">
-        <v>19.2116683606637</v>
+        <v>15.7244325085868</v>
       </c>
       <c r="J50">
-        <v>124.213877765869</v>
+        <v>107.160597924841</v>
       </c>
       <c r="K50">
-        <v>84.38706824782911</v>
+        <v>72.06604534886679</v>
       </c>
       <c r="L50">
-        <v>93.3587511102797</v>
+        <v>82.45263414930091</v>
       </c>
       <c r="M50">
-        <v>32.1056298909989</v>
+        <v>26.4130246886949</v>
       </c>
       <c r="N50">
-        <v>84.2183173237141</v>
+        <v>71.74966160002001</v>
       </c>
       <c r="O50">
-        <v>2630.6898466701</v>
+        <v>2342.02071012223</v>
       </c>
       <c r="P50">
-        <v>67.6771787817799</v>
+        <v>62.9882267582474</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>53.7764331949531</v>
+        <v>111.243719858119</v>
       </c>
       <c r="C51">
-        <v>1.74199905354338</v>
+        <v>1.59370094140196</v>
       </c>
       <c r="D51">
-        <v>0.184546486974773</v>
+        <v>0.195981746354796</v>
       </c>
       <c r="E51">
-        <v>2.52989331750555</v>
+        <v>2.40384523279489</v>
       </c>
       <c r="F51">
-        <v>55.0193626776945</v>
+        <v>48.362077756911</v>
       </c>
       <c r="G51">
-        <v>3.66780068302074</v>
+        <v>3.25458291205706</v>
       </c>
       <c r="H51">
-        <v>0.335374358221133</v>
+        <v>0.294127512985783</v>
       </c>
       <c r="I51">
-        <v>0.862278487895605</v>
+        <v>0.719097640804848</v>
       </c>
       <c r="J51">
-        <v>2.75793352306874</v>
+        <v>2.43859289841151</v>
       </c>
       <c r="K51">
-        <v>1.17489437553961</v>
+        <v>1.04269575294087</v>
       </c>
       <c r="L51">
-        <v>0.347406138919798</v>
+        <v>0.303605557745408</v>
       </c>
       <c r="M51">
-        <v>0.577277528218621</v>
+        <v>0.691640103670313</v>
       </c>
       <c r="N51">
-        <v>1.53382668710763</v>
+        <v>1.40326588449523</v>
       </c>
       <c r="O51">
-        <v>404.117579382233</v>
+        <v>357.168481120122</v>
       </c>
       <c r="P51">
-        <v>24.3341008969968</v>
+        <v>20.5643800793899</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>918.996216664012</v>
+        <v>1248.59211159917</v>
       </c>
       <c r="C2">
-        <v>37.4640540206157</v>
+        <v>23.2784048817568</v>
       </c>
       <c r="D2">
-        <v>57.498069339954</v>
+        <v>25.7090997224148</v>
       </c>
       <c r="E2">
-        <v>67.1550612616622</v>
+        <v>53.6798791147542</v>
       </c>
       <c r="F2">
-        <v>22.7886406619957</v>
+        <v>23.4837177176872</v>
       </c>
       <c r="G2">
-        <v>18.5107505146767</v>
+        <v>20.3712253754605</v>
       </c>
       <c r="H2">
-        <v>30.5491903631561</v>
+        <v>15.1920071952835</v>
       </c>
       <c r="I2">
-        <v>22.6453665749099</v>
+        <v>11.7173612805874</v>
       </c>
       <c r="J2">
-        <v>72.5232881652736</v>
+        <v>78.29827844914961</v>
       </c>
       <c r="K2">
-        <v>22.7197818622228</v>
+        <v>15.5258400232387</v>
       </c>
       <c r="L2">
-        <v>34.4178484386378</v>
+        <v>52.1508405117356</v>
       </c>
       <c r="M2">
-        <v>48.8833234568935</v>
+        <v>54.0360823961693</v>
       </c>
       <c r="N2">
-        <v>22.4673313384613</v>
+        <v>24.8760875836899</v>
       </c>
       <c r="O2">
-        <v>1783.02602252883</v>
+        <v>1526.00740088049</v>
       </c>
       <c r="P2">
-        <v>32.0433778845729</v>
+        <v>21.1642075302799</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>145.743347888659</v>
+        <v>158.78674549022</v>
       </c>
       <c r="C3">
-        <v>3.61566390971809</v>
+        <v>2.05385455716205</v>
       </c>
       <c r="D3">
-        <v>0.176100149853745</v>
+        <v>0.343428529853431</v>
       </c>
       <c r="E3">
-        <v>0.880533088297709</v>
+        <v>1.36991038758294</v>
       </c>
       <c r="F3">
-        <v>14.4795796722807</v>
+        <v>12.6157986078909</v>
       </c>
       <c r="G3">
-        <v>0.245303356310856</v>
+        <v>0.580240448082917</v>
       </c>
       <c r="H3">
-        <v>0.240237794825526</v>
+        <v>0.0086765687459254</v>
       </c>
       <c r="I3">
-        <v>0.246234838851095</v>
+        <v>1.07289865221734</v>
       </c>
       <c r="J3">
-        <v>0.260576081003963</v>
+        <v>0.183781434118309</v>
       </c>
       <c r="K3">
-        <v>0.09754818174299181</v>
+        <v>0.15152944787666</v>
       </c>
       <c r="L3">
-        <v>0.0880579634924496</v>
+        <v>0.158518168396052</v>
       </c>
       <c r="M3">
-        <v>0.401951030632784</v>
+        <v>0.662554350841753</v>
       </c>
       <c r="N3">
-        <v>0.913028814222692</v>
+        <v>1.83401763698554</v>
       </c>
       <c r="O3">
-        <v>386.216624965553</v>
+        <v>372.024508987331</v>
       </c>
       <c r="P3">
-        <v>9.551049507502221</v>
+        <v>14.2539081386531</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>983.969681141989</v>
+        <v>1258.37887293668</v>
       </c>
       <c r="C4">
-        <v>13.5255534176069</v>
+        <v>13.058200586903</v>
       </c>
       <c r="D4">
-        <v>5.00185806558259</v>
+        <v>4.7202002862859</v>
       </c>
       <c r="E4">
-        <v>10.7230468844121</v>
+        <v>13.051808625763</v>
       </c>
       <c r="F4">
-        <v>5.17137470806825</v>
+        <v>10.9231601561344</v>
       </c>
       <c r="G4">
-        <v>9.245409113238329</v>
+        <v>8.85351503869148</v>
       </c>
       <c r="H4">
-        <v>9.48668845575607</v>
+        <v>7.4987270062366</v>
       </c>
       <c r="I4">
-        <v>14.9919542245653</v>
+        <v>6.27980859193053</v>
       </c>
       <c r="J4">
-        <v>35.301907321586</v>
+        <v>34.9386542527602</v>
       </c>
       <c r="K4">
-        <v>10.6588230306164</v>
+        <v>3.9010287541478</v>
       </c>
       <c r="L4">
-        <v>83.5811389171669</v>
+        <v>62.7378615469882</v>
       </c>
       <c r="M4">
-        <v>54.762338837846</v>
+        <v>38.9866463771056</v>
       </c>
       <c r="N4">
-        <v>36.3037494296405</v>
+        <v>30.6575901179167</v>
       </c>
       <c r="O4">
-        <v>2493.29142202427</v>
+        <v>2313.86500277692</v>
       </c>
       <c r="P4">
-        <v>32.4884018323146</v>
+        <v>12.6625579164391</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>585.9891075194</v>
+        <v>660.81811731836</v>
       </c>
       <c r="C5">
-        <v>69.639491806517</v>
+        <v>46.4997850685832</v>
       </c>
       <c r="D5">
-        <v>13.717232983518</v>
+        <v>10.3965484121694</v>
       </c>
       <c r="E5">
-        <v>38.0994157830766</v>
+        <v>25.9648100376636</v>
       </c>
       <c r="F5">
-        <v>4.12588431978349</v>
+        <v>6.36894937769328</v>
       </c>
       <c r="G5">
-        <v>8.031335930120839</v>
+        <v>6.46783790207355</v>
       </c>
       <c r="H5">
-        <v>15.1070927105971</v>
+        <v>8.383314057693701</v>
       </c>
       <c r="I5">
-        <v>8.954462117988131</v>
+        <v>5.91897552121448</v>
       </c>
       <c r="J5">
-        <v>32.6474091768427</v>
+        <v>29.2850962521095</v>
       </c>
       <c r="K5">
-        <v>21.6892522947394</v>
+        <v>4.35836659705407</v>
       </c>
       <c r="L5">
-        <v>20.9744344578965</v>
+        <v>11.6826630209207</v>
       </c>
       <c r="M5">
-        <v>18.1693183459879</v>
+        <v>18.0760409822948</v>
       </c>
       <c r="N5">
-        <v>18.494718863522</v>
+        <v>26.7642938193199</v>
       </c>
       <c r="O5">
-        <v>1027.60987676194</v>
+        <v>1022.02124521916</v>
       </c>
       <c r="P5">
-        <v>53.114444715645</v>
+        <v>52.5751285713946</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>5667.75851415479</v>
+        <v>6837.31703986296</v>
       </c>
       <c r="C6">
-        <v>154.158334907745</v>
+        <v>197.022885586228</v>
       </c>
       <c r="D6">
-        <v>153.674864984496</v>
+        <v>36.5035884241342</v>
       </c>
       <c r="E6">
-        <v>129.404151719002</v>
+        <v>168.220200992524</v>
       </c>
       <c r="F6">
-        <v>30.4179421088694</v>
+        <v>47.6092082035091</v>
       </c>
       <c r="G6">
-        <v>116.550708210273</v>
+        <v>101.224126420945</v>
       </c>
       <c r="H6">
-        <v>66.2833175719118</v>
+        <v>46.5675102855069</v>
       </c>
       <c r="I6">
-        <v>49.7300615140356</v>
+        <v>36.6249266111136</v>
       </c>
       <c r="J6">
-        <v>178.850532528476</v>
+        <v>165.282724197582</v>
       </c>
       <c r="K6">
-        <v>109.57311258164</v>
+        <v>42.2890819047858</v>
       </c>
       <c r="L6">
-        <v>505.193921796575</v>
+        <v>415.267588711852</v>
       </c>
       <c r="M6">
-        <v>319.609198569113</v>
+        <v>239.848425340091</v>
       </c>
       <c r="N6">
-        <v>297.250801553029</v>
+        <v>298.910243320966</v>
       </c>
       <c r="O6">
-        <v>14259.6808369174</v>
+        <v>13359.1591257424</v>
       </c>
       <c r="P6">
-        <v>194.699685637993</v>
+        <v>266.141305000851</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>612.787350750295</v>
+        <v>728.464205143794</v>
       </c>
       <c r="C7">
-        <v>38.7936103517294</v>
+        <v>42.4792053006056</v>
       </c>
       <c r="D7">
-        <v>2.85343110473463</v>
+        <v>4.2427270849531</v>
       </c>
       <c r="E7">
-        <v>16.9982123352419</v>
+        <v>18.8352909366296</v>
       </c>
       <c r="F7">
-        <v>13.6356657932669</v>
+        <v>17.8715484648439</v>
       </c>
       <c r="G7">
-        <v>9.76657424578478</v>
+        <v>10.1502852059757</v>
       </c>
       <c r="H7">
-        <v>6.29649667385764</v>
+        <v>2.63030023261293</v>
       </c>
       <c r="I7">
-        <v>8.85180517886795</v>
+        <v>8.576068821758851</v>
       </c>
       <c r="J7">
-        <v>16.6691017289661</v>
+        <v>18.1900375239918</v>
       </c>
       <c r="K7">
-        <v>12.9795078210299</v>
+        <v>5.95491745818887</v>
       </c>
       <c r="L7">
-        <v>57.8362789492307</v>
+        <v>49.5636311730999</v>
       </c>
       <c r="M7">
-        <v>19.9269084045567</v>
+        <v>17.5686063671177</v>
       </c>
       <c r="N7">
-        <v>22.5553581681833</v>
+        <v>19.431131694389</v>
       </c>
       <c r="O7">
-        <v>2074.7162187428</v>
+        <v>1970.9149131409</v>
       </c>
       <c r="P7">
-        <v>22.7297600744405</v>
+        <v>29.5213910123604</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>463.174204305652</v>
+        <v>589.838025900548</v>
       </c>
       <c r="C8">
-        <v>12.0103713253367</v>
+        <v>13.2910474929206</v>
       </c>
       <c r="D8">
-        <v>5.56310565840527</v>
+        <v>2.37486642715943</v>
       </c>
       <c r="E8">
-        <v>13.9892942484397</v>
+        <v>22.5041258979496</v>
       </c>
       <c r="F8">
-        <v>1.40228211425068</v>
+        <v>2.62054218890578</v>
       </c>
       <c r="G8">
-        <v>35.2748747509654</v>
+        <v>21.4935166185412</v>
       </c>
       <c r="H8">
-        <v>12.0765494539003</v>
+        <v>7.5533176940763</v>
       </c>
       <c r="I8">
-        <v>1.47537895418549</v>
+        <v>7.84451853755307</v>
       </c>
       <c r="J8">
-        <v>53.524994942676</v>
+        <v>42.4105824417752</v>
       </c>
       <c r="K8">
-        <v>26.5623199404956</v>
+        <v>8.989961377952101</v>
       </c>
       <c r="L8">
-        <v>44.7365249573782</v>
+        <v>39.9844373808811</v>
       </c>
       <c r="M8">
-        <v>71.81385124161891</v>
+        <v>52.7696699116199</v>
       </c>
       <c r="N8">
-        <v>24.8548952242544</v>
+        <v>32.4650973837577</v>
       </c>
       <c r="O8">
-        <v>1554.42215251523</v>
+        <v>1460.27782572421</v>
       </c>
       <c r="P8">
-        <v>5.54012796177316</v>
+        <v>9.016295222657901</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>164.798305155934</v>
+        <v>209.033092889979</v>
       </c>
       <c r="C9">
-        <v>11.663584240285</v>
+        <v>9.723339773597459</v>
       </c>
       <c r="D9">
-        <v>1.12317811805476</v>
+        <v>2.1282485902759</v>
       </c>
       <c r="E9">
-        <v>5.56278214928686</v>
+        <v>5.43168003560631</v>
       </c>
       <c r="F9">
-        <v>2.17657062739587</v>
+        <v>0.7274813086787491</v>
       </c>
       <c r="G9">
-        <v>29.3383416331813</v>
+        <v>25.3735575400609</v>
       </c>
       <c r="H9">
-        <v>2.16137358591182</v>
+        <v>2.60288199348799</v>
       </c>
       <c r="I9">
-        <v>2.31010825063471</v>
+        <v>1.85757890356206</v>
       </c>
       <c r="J9">
-        <v>4.67952120977625</v>
+        <v>4.3485595522923</v>
       </c>
       <c r="K9">
-        <v>5.00617005670273</v>
+        <v>0.501513559557616</v>
       </c>
       <c r="L9">
-        <v>5.1016106103388</v>
+        <v>2.82370510516746</v>
       </c>
       <c r="M9">
-        <v>9.08215273704527</v>
+        <v>6.95167327874425</v>
       </c>
       <c r="N9">
-        <v>7.00343741212785</v>
+        <v>3.25257689756411</v>
       </c>
       <c r="O9">
-        <v>487.097645975156</v>
+        <v>462.941131780921</v>
       </c>
       <c r="P9">
-        <v>8.31292507310882</v>
+        <v>6.77729389740831</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3020.66751913839</v>
+        <v>3756.46632422873</v>
       </c>
       <c r="C10">
-        <v>50.7548481990581</v>
+        <v>63.5184473280753</v>
       </c>
       <c r="D10">
-        <v>16.7371552985572</v>
+        <v>9.63118615367079</v>
       </c>
       <c r="E10">
-        <v>45.6598372873401</v>
+        <v>59.7901974304005</v>
       </c>
       <c r="F10">
-        <v>12.5672180430285</v>
+        <v>8.405793545041529</v>
       </c>
       <c r="G10">
-        <v>25.3986259296297</v>
+        <v>38.6979513985119</v>
       </c>
       <c r="H10">
-        <v>16.6337738148324</v>
+        <v>15.0928230311429</v>
       </c>
       <c r="I10">
-        <v>32.1019517059858</v>
+        <v>22.9760677667062</v>
       </c>
       <c r="J10">
-        <v>49.4189041010692</v>
+        <v>61.3958178379163</v>
       </c>
       <c r="K10">
-        <v>25.0736027785289</v>
+        <v>5.97504578731528</v>
       </c>
       <c r="L10">
-        <v>98.64608200265261</v>
+        <v>66.8689392815524</v>
       </c>
       <c r="M10">
-        <v>105.537247163382</v>
+        <v>75.8183270702816</v>
       </c>
       <c r="N10">
-        <v>104.818743637239</v>
+        <v>101.861028174898</v>
       </c>
       <c r="O10">
-        <v>8544.21913913756</v>
+        <v>7929.67815089039</v>
       </c>
       <c r="P10">
-        <v>61.8909895352776</v>
+        <v>64.4020993591533</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1453.69309750003</v>
+        <v>1842.49250053405</v>
       </c>
       <c r="C11">
-        <v>57.3379334050535</v>
+        <v>67.5350707806338</v>
       </c>
       <c r="D11">
-        <v>143.728750693757</v>
+        <v>134.897048350538</v>
       </c>
       <c r="E11">
-        <v>93.8824119190343</v>
+        <v>88.9818715974118</v>
       </c>
       <c r="F11">
-        <v>5.41130006396243</v>
+        <v>14.2833887387408</v>
       </c>
       <c r="G11">
-        <v>30.4207118572739</v>
+        <v>20.7413428252974</v>
       </c>
       <c r="H11">
-        <v>18.9735914668427</v>
+        <v>27.1429020597003</v>
       </c>
       <c r="I11">
-        <v>20.4890889499177</v>
+        <v>11.4949504221114</v>
       </c>
       <c r="J11">
-        <v>59.0899896621376</v>
+        <v>38.4745182805836</v>
       </c>
       <c r="K11">
-        <v>30.7780148206309</v>
+        <v>6.57074130643177</v>
       </c>
       <c r="L11">
-        <v>54.6550192520676</v>
+        <v>42.7530827246313</v>
       </c>
       <c r="M11">
-        <v>47.0709353014519</v>
+        <v>56.3294211657485</v>
       </c>
       <c r="N11">
-        <v>46.1896187507436</v>
+        <v>66.6763094354219</v>
       </c>
       <c r="O11">
-        <v>3754.92593100865</v>
+        <v>3366.92019915378</v>
       </c>
       <c r="P11">
-        <v>20.0881432626026</v>
+        <v>49.1751312289437</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>220.725764282329</v>
+        <v>265.038449439684</v>
       </c>
       <c r="C12">
-        <v>8.869882790502521</v>
+        <v>6.33277215845188</v>
       </c>
       <c r="D12">
-        <v>1.27635561910067</v>
+        <v>0.604809962659428</v>
       </c>
       <c r="E12">
-        <v>1.6674615261256</v>
+        <v>3.95928438976603</v>
       </c>
       <c r="F12">
-        <v>0.326735307928155</v>
+        <v>0.894024048128088</v>
       </c>
       <c r="G12">
-        <v>0.745863698661029</v>
+        <v>0.300714772507015</v>
       </c>
       <c r="H12">
-        <v>0.440096107093011</v>
+        <v>0.1121264683997</v>
       </c>
       <c r="I12">
-        <v>1.58366252603716</v>
+        <v>0.838366945566272</v>
       </c>
       <c r="J12">
-        <v>0.857601406384391</v>
+        <v>1.67466668400793</v>
       </c>
       <c r="K12">
-        <v>0.0907192405278338</v>
+        <v>0.245850692626571</v>
       </c>
       <c r="L12">
-        <v>0.298920252813279</v>
+        <v>0.0142754484012432</v>
       </c>
       <c r="M12">
-        <v>2.98539134757851</v>
+        <v>2.83039473711646</v>
       </c>
       <c r="N12">
-        <v>5.35582746401955</v>
+        <v>4.89544631736451</v>
       </c>
       <c r="O12">
-        <v>745.817301241199</v>
+        <v>702.833588987067</v>
       </c>
       <c r="P12">
-        <v>19.1950200071946</v>
+        <v>24.1694121922321</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>218.216573608041</v>
+        <v>253.746791387126</v>
       </c>
       <c r="C13">
-        <v>28.7417938212056</v>
+        <v>20.9239597674877</v>
       </c>
       <c r="D13">
-        <v>1.05910794061888</v>
+        <v>0.5600236301264651</v>
       </c>
       <c r="E13">
-        <v>15.6431803873762</v>
+        <v>13.3645691880004</v>
       </c>
       <c r="F13">
-        <v>3.74810673754862</v>
+        <v>3.48152845963459</v>
       </c>
       <c r="G13">
-        <v>5.3940990935194</v>
+        <v>7.65345083408958</v>
       </c>
       <c r="H13">
-        <v>2.37304527545928</v>
+        <v>2.53330510268688</v>
       </c>
       <c r="I13">
-        <v>1.57228347225985</v>
+        <v>2.66807281246232</v>
       </c>
       <c r="J13">
-        <v>7.28304821310016</v>
+        <v>5.89709788645794</v>
       </c>
       <c r="K13">
-        <v>3.60707147126252</v>
+        <v>4.91277043309126</v>
       </c>
       <c r="L13">
-        <v>26.1221510219476</v>
+        <v>18.03695376275</v>
       </c>
       <c r="M13">
-        <v>3.26398946114683</v>
+        <v>2.19627067716417</v>
       </c>
       <c r="N13">
-        <v>7.41150952452196</v>
+        <v>4.83228439609835</v>
       </c>
       <c r="O13">
-        <v>645.81719775739</v>
+        <v>634.553738583899</v>
       </c>
       <c r="P13">
-        <v>53.0044432677952</v>
+        <v>47.1692248657431</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1877.72213591692</v>
+        <v>2332.23219333686</v>
       </c>
       <c r="C14">
-        <v>98.3884963382578</v>
+        <v>120.169525380024</v>
       </c>
       <c r="D14">
-        <v>11.3018427516539</v>
+        <v>8.86108998554394</v>
       </c>
       <c r="E14">
-        <v>59.6346875819849</v>
+        <v>89.9538512619941</v>
       </c>
       <c r="F14">
-        <v>15.1856042147953</v>
+        <v>21.3675100461236</v>
       </c>
       <c r="G14">
-        <v>86.4080876289114</v>
+        <v>85.2404794671691</v>
       </c>
       <c r="H14">
-        <v>60.7699653679233</v>
+        <v>43.0012704462097</v>
       </c>
       <c r="I14">
-        <v>22.7336577854021</v>
+        <v>21.8280664393933</v>
       </c>
       <c r="J14">
-        <v>124.676134372002</v>
+        <v>126.866030125923</v>
       </c>
       <c r="K14">
-        <v>168.797993397211</v>
+        <v>68.0503375089878</v>
       </c>
       <c r="L14">
-        <v>123.222019792695</v>
+        <v>101.319634775216</v>
       </c>
       <c r="M14">
-        <v>73.043780395044</v>
+        <v>89.5188228086285</v>
       </c>
       <c r="N14">
-        <v>73.3147443115101</v>
+        <v>63.7403032676956</v>
       </c>
       <c r="O14">
-        <v>5512.31177221182</v>
+        <v>5110.68171970145</v>
       </c>
       <c r="P14">
-        <v>43.3526413665522</v>
+        <v>50.6021300379157</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>927.093875403338</v>
+        <v>1198.99265801454</v>
       </c>
       <c r="C15">
-        <v>45.6059832994473</v>
+        <v>63.9010859408975</v>
       </c>
       <c r="D15">
-        <v>8.23194544914494</v>
+        <v>4.73540990700392</v>
       </c>
       <c r="E15">
-        <v>65.2463975847873</v>
+        <v>72.0401929665331</v>
       </c>
       <c r="F15">
-        <v>13.3517020713445</v>
+        <v>20.1526335574944</v>
       </c>
       <c r="G15">
-        <v>45.471668547816</v>
+        <v>55.1545718828256</v>
       </c>
       <c r="H15">
-        <v>40.248738218628</v>
+        <v>38.3406344512002</v>
       </c>
       <c r="I15">
-        <v>49.7022704071763</v>
+        <v>23.8396916868383</v>
       </c>
       <c r="J15">
-        <v>205.86621453267</v>
+        <v>149.322767895099</v>
       </c>
       <c r="K15">
-        <v>52.0273384576707</v>
+        <v>34.2216475326658</v>
       </c>
       <c r="L15">
-        <v>45.4028897023824</v>
+        <v>42.1513125483923</v>
       </c>
       <c r="M15">
-        <v>143.28805855307</v>
+        <v>162.223267045836</v>
       </c>
       <c r="N15">
-        <v>89.960981215399</v>
+        <v>89.607415827503</v>
       </c>
       <c r="O15">
-        <v>2508.7849010548</v>
+        <v>2269.05568490829</v>
       </c>
       <c r="P15">
-        <v>46.3706684043628</v>
+        <v>45.3190192481188</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>347.15171058601</v>
+        <v>439.730901645056</v>
       </c>
       <c r="C16">
-        <v>72.72253256345989</v>
+        <v>66.7226788993201</v>
       </c>
       <c r="D16">
-        <v>12.0435544428518</v>
+        <v>5.48881060002891</v>
       </c>
       <c r="E16">
-        <v>26.1529252351245</v>
+        <v>28.1032877190176</v>
       </c>
       <c r="F16">
-        <v>5.07540455727334</v>
+        <v>3.28460476945795</v>
       </c>
       <c r="G16">
-        <v>15.4425474654164</v>
+        <v>16.9534927314728</v>
       </c>
       <c r="H16">
-        <v>20.9785182662345</v>
+        <v>18.3014116692534</v>
       </c>
       <c r="I16">
-        <v>6.53319916163994</v>
+        <v>5.38608803655318</v>
       </c>
       <c r="J16">
-        <v>51.8347481407051</v>
+        <v>45.2559125509545</v>
       </c>
       <c r="K16">
-        <v>57.7325366282256</v>
+        <v>44.8861538711039</v>
       </c>
       <c r="L16">
-        <v>33.5644699339149</v>
+        <v>18.2698769970368</v>
       </c>
       <c r="M16">
-        <v>16.7985828992052</v>
+        <v>24.2704884834889</v>
       </c>
       <c r="N16">
-        <v>29.6806307095296</v>
+        <v>30.7311998414869</v>
       </c>
       <c r="O16">
-        <v>1411.34559225516</v>
+        <v>1336.13963847294</v>
       </c>
       <c r="P16">
-        <v>83.4191531269226</v>
+        <v>91.3720856095799</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>366.301331311612</v>
+        <v>479.050675177554</v>
       </c>
       <c r="C17">
-        <v>22.0930932550349</v>
+        <v>23.7036592142761</v>
       </c>
       <c r="D17">
-        <v>5.53442513618592</v>
+        <v>3.32486739998424</v>
       </c>
       <c r="E17">
-        <v>16.3704998934782</v>
+        <v>23.9894124211351</v>
       </c>
       <c r="F17">
-        <v>13.6530585604435</v>
+        <v>13.3018600210647</v>
       </c>
       <c r="G17">
-        <v>14.5395326994329</v>
+        <v>9.8039079640478</v>
       </c>
       <c r="H17">
-        <v>11.0236915297724</v>
+        <v>13.3799438788561</v>
       </c>
       <c r="I17">
-        <v>8.379009130454531</v>
+        <v>7.05927877967964</v>
       </c>
       <c r="J17">
-        <v>16.7410829278921</v>
+        <v>23.0797857815674</v>
       </c>
       <c r="K17">
-        <v>19.622249098774</v>
+        <v>8.93582796165513</v>
       </c>
       <c r="L17">
-        <v>11.7586275253818</v>
+        <v>13.1040171059636</v>
       </c>
       <c r="M17">
-        <v>85.1135035287392</v>
+        <v>66.1197906917444</v>
       </c>
       <c r="N17">
-        <v>11.4781212868549</v>
+        <v>11.4691479578699</v>
       </c>
       <c r="O17">
-        <v>1276.39755247283</v>
+        <v>1172.48978490404</v>
       </c>
       <c r="P17">
-        <v>46.3202550076061</v>
+        <v>46.8583917236092</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>947.793155364639</v>
+        <v>1109.86255330986</v>
       </c>
       <c r="C18">
-        <v>32.9211023535229</v>
+        <v>31.672328477887</v>
       </c>
       <c r="D18">
-        <v>9.388204892824829</v>
+        <v>4.35351634772166</v>
       </c>
       <c r="E18">
-        <v>32.2078949981092</v>
+        <v>33.1925067415683</v>
       </c>
       <c r="F18">
-        <v>34.4072301789746</v>
+        <v>41.412971957547</v>
       </c>
       <c r="G18">
-        <v>22.6350316474932</v>
+        <v>13.7999410011132</v>
       </c>
       <c r="H18">
-        <v>23.6404914127267</v>
+        <v>11.3145280875762</v>
       </c>
       <c r="I18">
-        <v>9.15996950237099</v>
+        <v>4.20576056362238</v>
       </c>
       <c r="J18">
-        <v>37.4943003078386</v>
+        <v>22.3014692073048</v>
       </c>
       <c r="K18">
-        <v>20.691465216882</v>
+        <v>8.150322164100111</v>
       </c>
       <c r="L18">
-        <v>37.5915123124276</v>
+        <v>28.7578944576231</v>
       </c>
       <c r="M18">
-        <v>65.700598356667</v>
+        <v>67.0028778850665</v>
       </c>
       <c r="N18">
-        <v>22.0909246515642</v>
+        <v>27.6865992754746</v>
       </c>
       <c r="O18">
-        <v>1749.17471412292</v>
+        <v>1641.80463179875</v>
       </c>
       <c r="P18">
-        <v>54.3888983224253</v>
+        <v>62.8051328244296</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>904.52352267636</v>
+        <v>1031.03772068118</v>
       </c>
       <c r="C19">
-        <v>23.3991603510766</v>
+        <v>36.4770367958153</v>
       </c>
       <c r="D19">
-        <v>6.64965834185686</v>
+        <v>3.89543205987488</v>
       </c>
       <c r="E19">
-        <v>24.9583270122156</v>
+        <v>35.38018329889</v>
       </c>
       <c r="F19">
-        <v>76.4952826408018</v>
+        <v>75.8793179691403</v>
       </c>
       <c r="G19">
-        <v>35.1676617428224</v>
+        <v>46.9453461405301</v>
       </c>
       <c r="H19">
-        <v>6.94970574154862</v>
+        <v>13.2193777154086</v>
       </c>
       <c r="I19">
-        <v>9.82565799612826</v>
+        <v>5.57019543483199</v>
       </c>
       <c r="J19">
-        <v>13.0913854635993</v>
+        <v>20.5341440799257</v>
       </c>
       <c r="K19">
-        <v>9.793733043571731</v>
+        <v>8.22572988845485</v>
       </c>
       <c r="L19">
-        <v>2.4932576386642</v>
+        <v>3.36119405745499</v>
       </c>
       <c r="M19">
-        <v>38.0287240780429</v>
+        <v>23.6648476533781</v>
       </c>
       <c r="N19">
-        <v>3.26716362593365</v>
+        <v>13.6635126977707</v>
       </c>
       <c r="O19">
-        <v>1808.32833317495</v>
+        <v>1661.50081708807</v>
       </c>
       <c r="P19">
-        <v>43.0506012508924</v>
+        <v>39.8903242096743</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>247.604324133179</v>
+        <v>274.43578278258</v>
       </c>
       <c r="C20">
-        <v>8.915760054229651</v>
+        <v>9.78885119899592</v>
       </c>
       <c r="D20">
-        <v>11.047204977757</v>
+        <v>6.59602424740431</v>
       </c>
       <c r="E20">
-        <v>31.0689367155925</v>
+        <v>31.6472435179512</v>
       </c>
       <c r="F20">
-        <v>0.66711148284806</v>
+        <v>0.883129654859244</v>
       </c>
       <c r="G20">
-        <v>0.843883414106537</v>
+        <v>3.94048739321382</v>
       </c>
       <c r="H20">
-        <v>3.13765539047273</v>
+        <v>1.01136387273902</v>
       </c>
       <c r="I20">
-        <v>0.727569831820736</v>
+        <v>2.4700091152337</v>
       </c>
       <c r="J20">
-        <v>6.02302457556705</v>
+        <v>5.01904350745668</v>
       </c>
       <c r="K20">
-        <v>4.77880613867184</v>
+        <v>0.863420255243769</v>
       </c>
       <c r="L20">
-        <v>6.87476407311931</v>
+        <v>7.53321756795486</v>
       </c>
       <c r="M20">
-        <v>23.341145239432</v>
+        <v>19.0845088604578</v>
       </c>
       <c r="N20">
-        <v>5.25955247037007</v>
+        <v>5.93205476928064</v>
       </c>
       <c r="O20">
-        <v>636.872479219569</v>
+        <v>613.982199771472</v>
       </c>
       <c r="P20">
-        <v>16.6751775496106</v>
+        <v>21.62797337898</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>743.509601306794</v>
+        <v>979.098938522057</v>
       </c>
       <c r="C21">
-        <v>14.2631488928867</v>
+        <v>15.4424772690512</v>
       </c>
       <c r="D21">
-        <v>6.37624026545618</v>
+        <v>1.18419756334793</v>
       </c>
       <c r="E21">
-        <v>20.3815039929161</v>
+        <v>21.9059487033551</v>
       </c>
       <c r="F21">
-        <v>0.964990846970883</v>
+        <v>2.14404517175926</v>
       </c>
       <c r="G21">
-        <v>17.6723518424129</v>
+        <v>12.8593888303006</v>
       </c>
       <c r="H21">
-        <v>10.3549872252509</v>
+        <v>3.9658385900521</v>
       </c>
       <c r="I21">
-        <v>4.74324899867531</v>
+        <v>15.324548436291</v>
       </c>
       <c r="J21">
-        <v>13.2285838977485</v>
+        <v>13.4091998780884</v>
       </c>
       <c r="K21">
-        <v>4.46646162498217</v>
+        <v>0.72284780807761</v>
       </c>
       <c r="L21">
-        <v>30.1416212672835</v>
+        <v>28.0669250655871</v>
       </c>
       <c r="M21">
-        <v>25.1065548638418</v>
+        <v>17.7229513042661</v>
       </c>
       <c r="N21">
-        <v>12.9224321354613</v>
+        <v>16.6478350834464</v>
       </c>
       <c r="O21">
-        <v>2655.24808834985</v>
+        <v>2422.08262431284</v>
       </c>
       <c r="P21">
-        <v>15.806177713609</v>
+        <v>18.9148664115272</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>891.200592372665</v>
+        <v>1123.9597549398</v>
       </c>
       <c r="C22">
-        <v>15.3083596163449</v>
+        <v>26.0014726277017</v>
       </c>
       <c r="D22">
-        <v>16.9470565614</v>
+        <v>8.537324068152991</v>
       </c>
       <c r="E22">
-        <v>31.060373356336</v>
+        <v>37.8033405754144</v>
       </c>
       <c r="F22">
-        <v>0.8581055906937241</v>
+        <v>2.67199805598848</v>
       </c>
       <c r="G22">
-        <v>26.2161283497119</v>
+        <v>30.7416232365395</v>
       </c>
       <c r="H22">
-        <v>25.7835123413811</v>
+        <v>14.9798659170498</v>
       </c>
       <c r="I22">
-        <v>5.91531302166575</v>
+        <v>11.2750920103463</v>
       </c>
       <c r="J22">
-        <v>47.8518369706527</v>
+        <v>40.3555065877991</v>
       </c>
       <c r="K22">
-        <v>27.156126287749</v>
+        <v>3.06105350730527</v>
       </c>
       <c r="L22">
-        <v>107.466792654302</v>
+        <v>93.0530986038646</v>
       </c>
       <c r="M22">
-        <v>25.2971481943341</v>
+        <v>18.0294917168874</v>
       </c>
       <c r="N22">
-        <v>74.2952456536012</v>
+        <v>56.6102331035713</v>
       </c>
       <c r="O22">
-        <v>2936.57945525539</v>
+        <v>2757.52454142244</v>
       </c>
       <c r="P22">
-        <v>12.8522895502686</v>
+        <v>13.678537266097</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1716.12559409205</v>
+        <v>2241.10489389201</v>
       </c>
       <c r="C23">
-        <v>48.5845369113407</v>
+        <v>31.7212059857915</v>
       </c>
       <c r="D23">
-        <v>10.8508734509337</v>
+        <v>6.63774914416509</v>
       </c>
       <c r="E23">
-        <v>47.4720053581093</v>
+        <v>54.4664566203412</v>
       </c>
       <c r="F23">
-        <v>0.935192816781908</v>
+        <v>5.63618433582682</v>
       </c>
       <c r="G23">
-        <v>71.3401955174014</v>
+        <v>51.1716162054909</v>
       </c>
       <c r="H23">
-        <v>81.8838410965876</v>
+        <v>52.7768289617923</v>
       </c>
       <c r="I23">
-        <v>30.8492422379701</v>
+        <v>23.9785721244407</v>
       </c>
       <c r="J23">
-        <v>143.097106700439</v>
+        <v>109.897644879883</v>
       </c>
       <c r="K23">
-        <v>109.151726493051</v>
+        <v>64.7384947212206</v>
       </c>
       <c r="L23">
-        <v>41.4433669537129</v>
+        <v>32.8856750069695</v>
       </c>
       <c r="M23">
-        <v>628.962951121386</v>
+        <v>538.778355027563</v>
       </c>
       <c r="N23">
-        <v>101.619315868993</v>
+        <v>93.6684780812962</v>
       </c>
       <c r="O23">
-        <v>3804.88336021291</v>
+        <v>3497.17638042724</v>
       </c>
       <c r="P23">
-        <v>41.4378722036866</v>
+        <v>54.4034758154925</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>551.17597057157</v>
+        <v>739.572873336599</v>
       </c>
       <c r="C24">
-        <v>49.4709666649985</v>
+        <v>42.2614610260366</v>
       </c>
       <c r="D24">
-        <v>11.1010029705198</v>
+        <v>7.40619994752858</v>
       </c>
       <c r="E24">
-        <v>44.8686774826532</v>
+        <v>53.7141180097094</v>
       </c>
       <c r="F24">
-        <v>15.6943323300083</v>
+        <v>11.4731440955621</v>
       </c>
       <c r="G24">
-        <v>21.1694857418867</v>
+        <v>24.4147871857996</v>
       </c>
       <c r="H24">
-        <v>15.158254802068</v>
+        <v>19.6591282398833</v>
       </c>
       <c r="I24">
-        <v>13.0122217312528</v>
+        <v>17.5721776542842</v>
       </c>
       <c r="J24">
-        <v>50.5620677333241</v>
+        <v>53.2223218737194</v>
       </c>
       <c r="K24">
-        <v>66.0640459011897</v>
+        <v>19.0737292542665</v>
       </c>
       <c r="L24">
-        <v>60.6736491186381</v>
+        <v>57.7196716217689</v>
       </c>
       <c r="M24">
-        <v>17.8741902716486</v>
+        <v>20.9756474423008</v>
       </c>
       <c r="N24">
-        <v>76.66376460813861</v>
+        <v>71.9773938887251</v>
       </c>
       <c r="O24">
-        <v>2290.03019060811</v>
+        <v>2123.00531851862</v>
       </c>
       <c r="P24">
-        <v>75.5084404189608</v>
+        <v>80.0859388543513</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>677.34357221241</v>
+        <v>789.9245635274421</v>
       </c>
       <c r="C25">
-        <v>41.1565794513099</v>
+        <v>43.8946838484697</v>
       </c>
       <c r="D25">
-        <v>12.4806773987286</v>
+        <v>12.3075898052491</v>
       </c>
       <c r="E25">
-        <v>40.6960701634458</v>
+        <v>47.8991315979759</v>
       </c>
       <c r="F25">
-        <v>28.2493384962585</v>
+        <v>18.8686820519315</v>
       </c>
       <c r="G25">
-        <v>14.443718507174</v>
+        <v>13.9805827832213</v>
       </c>
       <c r="H25">
-        <v>10.5398367630768</v>
+        <v>8.5786126660132</v>
       </c>
       <c r="I25">
-        <v>3.63336442417335</v>
+        <v>3.80773821034988</v>
       </c>
       <c r="J25">
-        <v>14.6564033266144</v>
+        <v>9.1962524072325</v>
       </c>
       <c r="K25">
-        <v>13.8916756479272</v>
+        <v>7.95755276034708</v>
       </c>
       <c r="L25">
-        <v>25.4294240509682</v>
+        <v>8.2152104660421</v>
       </c>
       <c r="M25">
-        <v>39.5439241304381</v>
+        <v>35.3456827976406</v>
       </c>
       <c r="N25">
-        <v>33.3369307442123</v>
+        <v>43.0546997869842</v>
       </c>
       <c r="O25">
-        <v>1099.82996505483</v>
+        <v>1017.26301362456</v>
       </c>
       <c r="P25">
-        <v>52.1349888004178</v>
+        <v>50.1892027663786</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>852.844359368752</v>
+        <v>1038.1629054848</v>
       </c>
       <c r="C26">
-        <v>52.2020295664066</v>
+        <v>56.5187977411128</v>
       </c>
       <c r="D26">
-        <v>11.2909407994169</v>
+        <v>2.42589474506579</v>
       </c>
       <c r="E26">
-        <v>34.6591706148551</v>
+        <v>47.8313435498234</v>
       </c>
       <c r="F26">
-        <v>6.69481659566484</v>
+        <v>6.76461860765761</v>
       </c>
       <c r="G26">
-        <v>49.2441588852818</v>
+        <v>40.9188077629219</v>
       </c>
       <c r="H26">
-        <v>17.6262482932349</v>
+        <v>13.0821193795053</v>
       </c>
       <c r="I26">
-        <v>11.9744883351776</v>
+        <v>13.6374233733574</v>
       </c>
       <c r="J26">
-        <v>47.7860032467106</v>
+        <v>36.0284560033508</v>
       </c>
       <c r="K26">
-        <v>27.8212324537154</v>
+        <v>9.16957787167402</v>
       </c>
       <c r="L26">
-        <v>33.8145874114347</v>
+        <v>28.1683163186586</v>
       </c>
       <c r="M26">
-        <v>75.6693304648667</v>
+        <v>57.9096625949962</v>
       </c>
       <c r="N26">
-        <v>33.8893142988002</v>
+        <v>29.662677034893</v>
       </c>
       <c r="O26">
-        <v>2552.86781769157</v>
+        <v>2418.49852313912</v>
       </c>
       <c r="P26">
-        <v>49.1335788785478</v>
+        <v>53.9531333609422</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>182.370632077224</v>
+        <v>215.315504147599</v>
       </c>
       <c r="C27">
-        <v>3.68345262425511</v>
+        <v>2.19281630873138</v>
       </c>
       <c r="D27">
-        <v>1.19135345142343</v>
+        <v>1.78632598826011</v>
       </c>
       <c r="E27">
-        <v>14.1889519136719</v>
+        <v>13.2696178004794</v>
       </c>
       <c r="F27">
-        <v>9.2011968188209</v>
+        <v>8.61301841802719</v>
       </c>
       <c r="G27">
-        <v>1.22292427605428</v>
+        <v>0.792139405479503</v>
       </c>
       <c r="H27">
-        <v>0.150546344459856</v>
+        <v>0.190718666103993</v>
       </c>
       <c r="I27">
-        <v>3.01502514165118</v>
+        <v>3.38112867032612</v>
       </c>
       <c r="J27">
-        <v>3.14927451577903</v>
+        <v>4.64296520596383</v>
       </c>
       <c r="K27">
-        <v>3.16518342851331</v>
+        <v>0.863553633407118</v>
       </c>
       <c r="L27">
-        <v>2.91741493232049</v>
+        <v>3.13236635102001</v>
       </c>
       <c r="M27">
-        <v>0.724665278733413</v>
+        <v>0.676425058876045</v>
       </c>
       <c r="N27">
-        <v>5.44446189568006</v>
+        <v>4.37579292451783</v>
       </c>
       <c r="O27">
-        <v>499.394370577913</v>
+        <v>471.428439344598</v>
       </c>
       <c r="P27">
-        <v>49.7906507033092</v>
+        <v>52.2434529895002</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>196.167580292901</v>
+        <v>245.826623591745</v>
       </c>
       <c r="C28">
-        <v>35.1453998122472</v>
+        <v>40.2396735032125</v>
       </c>
       <c r="D28">
-        <v>1.57720883531914</v>
+        <v>2.00106134773355</v>
       </c>
       <c r="E28">
-        <v>8.1771388408562</v>
+        <v>8.022106966261051</v>
       </c>
       <c r="F28">
-        <v>2.89823312754791</v>
+        <v>0.468567306190948</v>
       </c>
       <c r="G28">
-        <v>6.92698647980265</v>
+        <v>5.52085777558143</v>
       </c>
       <c r="H28">
-        <v>7.8134717586537</v>
+        <v>6.56568799997554</v>
       </c>
       <c r="I28">
-        <v>4.43989199527853</v>
+        <v>3.83948754391255</v>
       </c>
       <c r="J28">
-        <v>17.75870682292</v>
+        <v>18.6068833583947</v>
       </c>
       <c r="K28">
-        <v>17.8708104584039</v>
+        <v>13.0060719915749</v>
       </c>
       <c r="L28">
-        <v>11.5947990784834</v>
+        <v>10.9304594736118</v>
       </c>
       <c r="M28">
-        <v>7.74097177693747</v>
+        <v>11.1600329028662</v>
       </c>
       <c r="N28">
-        <v>9.94397041490822</v>
+        <v>12.0729403663389</v>
       </c>
       <c r="O28">
-        <v>883.4928052408241</v>
+        <v>832.564236770737</v>
       </c>
       <c r="P28">
-        <v>81.1851213831533</v>
+        <v>74.78175139787611</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>394.567388756337</v>
+        <v>441.86606937037</v>
       </c>
       <c r="C29">
-        <v>1.19606509115235</v>
+        <v>3.20404258229696</v>
       </c>
       <c r="D29">
-        <v>3.34484570481826</v>
+        <v>1.04524115080268</v>
       </c>
       <c r="E29">
-        <v>3.43260258673874</v>
+        <v>5.44105551377373</v>
       </c>
       <c r="F29">
-        <v>18.2351652075539</v>
+        <v>25.3134547512026</v>
       </c>
       <c r="G29">
-        <v>2.2336842637859</v>
+        <v>4.00634840757599</v>
       </c>
       <c r="H29">
-        <v>2.35270018322417</v>
+        <v>0.790106522507495</v>
       </c>
       <c r="I29">
-        <v>5.86276154597993</v>
+        <v>2.45123901859315</v>
       </c>
       <c r="J29">
-        <v>4.82423064336861</v>
+        <v>2.98163624340924</v>
       </c>
       <c r="K29">
-        <v>2.73244740433099</v>
+        <v>1.61077737883986</v>
       </c>
       <c r="L29">
-        <v>3.99362768792908</v>
+        <v>3.69741039762549</v>
       </c>
       <c r="M29">
-        <v>2.4937067202062</v>
+        <v>4.33754442228972</v>
       </c>
       <c r="N29">
-        <v>10.6121893669662</v>
+        <v>12.6445400419535</v>
       </c>
       <c r="O29">
-        <v>1209.88185526308</v>
+        <v>1165.05187839503</v>
       </c>
       <c r="P29">
-        <v>4.8299977597407</v>
+        <v>4.4309471907407</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>170.487315107938</v>
+        <v>212.373225143874</v>
       </c>
       <c r="C30">
-        <v>3.50272080178742</v>
+        <v>4.72302279912832</v>
       </c>
       <c r="D30">
-        <v>5.32480690870663</v>
+        <v>4.68313715729602</v>
       </c>
       <c r="E30">
-        <v>9.47159103954354</v>
+        <v>12.2821933774556</v>
       </c>
       <c r="F30">
-        <v>0.124743452453573</v>
+        <v>0.142709294950262</v>
       </c>
       <c r="G30">
-        <v>6.83428154822152</v>
+        <v>5.03869951189287</v>
       </c>
       <c r="H30">
-        <v>8.228432385193029</v>
+        <v>4.41656572302707</v>
       </c>
       <c r="I30">
-        <v>2.20060273530811</v>
+        <v>3.12805072940217</v>
       </c>
       <c r="J30">
-        <v>19.8474096213975</v>
+        <v>20.3239299377665</v>
       </c>
       <c r="K30">
-        <v>14.1599032409373</v>
+        <v>4.27272299922869</v>
       </c>
       <c r="L30">
-        <v>49.2005334525836</v>
+        <v>45.7654924662429</v>
       </c>
       <c r="M30">
-        <v>10.1467602601389</v>
+        <v>9.968104912736481</v>
       </c>
       <c r="N30">
-        <v>12.1993493645279</v>
+        <v>16.9220230423146</v>
       </c>
       <c r="O30">
-        <v>658.884810913195</v>
+        <v>618.05893121298</v>
       </c>
       <c r="P30">
-        <v>4.7589642623813</v>
+        <v>6.14655449838349</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1316.5496784474</v>
+        <v>1481.94977929125</v>
       </c>
       <c r="C31">
-        <v>43.9105326530009</v>
+        <v>57.0055530933942</v>
       </c>
       <c r="D31">
-        <v>23.0111420317825</v>
+        <v>8.999736125466979</v>
       </c>
       <c r="E31">
-        <v>29.5716596002714</v>
+        <v>31.9208587702941</v>
       </c>
       <c r="F31">
-        <v>10.4316993899454</v>
+        <v>1.21155232431409</v>
       </c>
       <c r="G31">
-        <v>135.469382746762</v>
+        <v>111.100681881216</v>
       </c>
       <c r="H31">
-        <v>15.479809181346</v>
+        <v>10.1064797939799</v>
       </c>
       <c r="I31">
-        <v>27.5647984837127</v>
+        <v>9.338528951863751</v>
       </c>
       <c r="J31">
-        <v>33.5449612600477</v>
+        <v>27.3136552358474</v>
       </c>
       <c r="K31">
-        <v>16.625954489096</v>
+        <v>4.71153736254409</v>
       </c>
       <c r="L31">
-        <v>81.4047831529264</v>
+        <v>57.35251794066</v>
       </c>
       <c r="M31">
-        <v>19.6025579932212</v>
+        <v>20.0150732693147</v>
       </c>
       <c r="N31">
-        <v>55.3834000740621</v>
+        <v>77.68264881915201</v>
       </c>
       <c r="O31">
-        <v>3885.5710896517</v>
+        <v>3788.00262047741</v>
       </c>
       <c r="P31">
-        <v>11.35182035523</v>
+        <v>17.823814868707</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>369.984217875666</v>
+        <v>445.618398511945</v>
       </c>
       <c r="C32">
-        <v>6.04507580417511</v>
+        <v>3.20066175133517</v>
       </c>
       <c r="D32">
-        <v>2.30207132290213</v>
+        <v>0.694184045316132</v>
       </c>
       <c r="E32">
-        <v>4.03023517964998</v>
+        <v>2.90087588962754</v>
       </c>
       <c r="F32">
-        <v>31.7061080621004</v>
+        <v>24.1096924255553</v>
       </c>
       <c r="G32">
-        <v>1.34346441473548</v>
+        <v>1.94726116454676</v>
       </c>
       <c r="H32">
-        <v>0.178905196737822</v>
+        <v>0.40176932530074</v>
       </c>
       <c r="I32">
-        <v>4.86491428596869</v>
+        <v>1.99772591143481</v>
       </c>
       <c r="J32">
-        <v>5.41110104119069</v>
+        <v>5.52944769912035</v>
       </c>
       <c r="K32">
-        <v>5.32087328847173</v>
+        <v>2.73798587508501</v>
       </c>
       <c r="L32">
-        <v>11.2537753949328</v>
+        <v>6.61327850835246</v>
       </c>
       <c r="M32">
-        <v>5.92251300708192</v>
+        <v>9.43929840296158</v>
       </c>
       <c r="N32">
-        <v>9.118411462485589</v>
+        <v>15.9567727292178</v>
       </c>
       <c r="O32">
-        <v>857.88045936788</v>
+        <v>806.898475616654</v>
       </c>
       <c r="P32">
-        <v>25.9198166685735</v>
+        <v>20.102538585789</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3374.86370373358</v>
+        <v>4020.45220493425</v>
       </c>
       <c r="C33">
-        <v>68.6535941430724</v>
+        <v>83.3653862722401</v>
       </c>
       <c r="D33">
-        <v>67.3844105473042</v>
+        <v>14.2826763670329</v>
       </c>
       <c r="E33">
-        <v>53.4745481223478</v>
+        <v>66.1861029545811</v>
       </c>
       <c r="F33">
-        <v>8.185052373625521</v>
+        <v>10.8006377718884</v>
       </c>
       <c r="G33">
-        <v>58.2918823925282</v>
+        <v>69.33153470384281</v>
       </c>
       <c r="H33">
-        <v>42.4852546026939</v>
+        <v>44.9666305903821</v>
       </c>
       <c r="I33">
-        <v>21.4108562787525</v>
+        <v>19.3310537328398</v>
       </c>
       <c r="J33">
-        <v>95.63796955692131</v>
+        <v>88.32622175008829</v>
       </c>
       <c r="K33">
-        <v>81.92952794286271</v>
+        <v>58.7792885051822</v>
       </c>
       <c r="L33">
-        <v>138.124279511154</v>
+        <v>103.319040039664</v>
       </c>
       <c r="M33">
-        <v>78.25006413729891</v>
+        <v>54.2538272604597</v>
       </c>
       <c r="N33">
-        <v>155.558347257201</v>
+        <v>139.18804853113</v>
       </c>
       <c r="O33">
-        <v>8293.29120894944</v>
+        <v>7779.69441615502</v>
       </c>
       <c r="P33">
-        <v>45.2350357838267</v>
+        <v>59.4885595603457</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1488.86315370155</v>
+        <v>1802.5801913989</v>
       </c>
       <c r="C34">
-        <v>82.6097005155095</v>
+        <v>63.907249965361</v>
       </c>
       <c r="D34">
-        <v>187.944410036982</v>
+        <v>84.5867881704374</v>
       </c>
       <c r="E34">
-        <v>58.913203192786</v>
+        <v>62.1515556963591</v>
       </c>
       <c r="F34">
-        <v>0.746719363235772</v>
+        <v>2.52453874779854</v>
       </c>
       <c r="G34">
-        <v>72.4013794649144</v>
+        <v>46.4675835212199</v>
       </c>
       <c r="H34">
-        <v>53.2615996487873</v>
+        <v>45.0141714425686</v>
       </c>
       <c r="I34">
-        <v>25.8919519041393</v>
+        <v>13.9361193391965</v>
       </c>
       <c r="J34">
-        <v>39.9944320125505</v>
+        <v>44.1354299172045</v>
       </c>
       <c r="K34">
-        <v>62.0279938852156</v>
+        <v>7.86728312975565</v>
       </c>
       <c r="L34">
-        <v>111.780993422501</v>
+        <v>114.077713840312</v>
       </c>
       <c r="M34">
-        <v>47.0970210372869</v>
+        <v>33.5128426932839</v>
       </c>
       <c r="N34">
-        <v>139.461932239528</v>
+        <v>121.205263906634</v>
       </c>
       <c r="O34">
-        <v>3437.6487449819</v>
+        <v>3334.15515380932</v>
       </c>
       <c r="P34">
-        <v>64.99008926862879</v>
+        <v>73.4403528577722</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>86.8655470892421</v>
+        <v>100.185257874447</v>
       </c>
       <c r="C35">
-        <v>8.18725280148549</v>
+        <v>7.88456616174916</v>
       </c>
       <c r="D35">
-        <v>0.797312397851112</v>
+        <v>0.398192471538465</v>
       </c>
       <c r="E35">
-        <v>3.98706986507484</v>
+        <v>3.00385673224198</v>
       </c>
       <c r="F35">
-        <v>6.06958235025331</v>
+        <v>4.76032281697</v>
       </c>
       <c r="G35">
-        <v>0.37498536283641</v>
+        <v>0.351475181604624</v>
       </c>
       <c r="H35">
-        <v>0.590459431466988</v>
+        <v>1.16703879326931</v>
       </c>
       <c r="I35">
-        <v>0.752438859922223</v>
+        <v>1.10954930956113</v>
       </c>
       <c r="J35">
-        <v>1.9945516220329</v>
+        <v>2.98385024463963</v>
       </c>
       <c r="K35">
-        <v>7.16292057273639</v>
+        <v>4.86097749672059</v>
       </c>
       <c r="L35">
-        <v>2.76732866399441</v>
+        <v>3.57002768554286</v>
       </c>
       <c r="M35">
-        <v>2.39956479327463</v>
+        <v>3.42078223528235</v>
       </c>
       <c r="N35">
-        <v>3.16732750105227</v>
+        <v>4.65788663232832</v>
       </c>
       <c r="O35">
-        <v>360.944608149528</v>
+        <v>338.474393993261</v>
       </c>
       <c r="P35">
-        <v>47.7139477764293</v>
+        <v>53.3179587137809</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1856.50487337385</v>
+        <v>2403.08970829148</v>
       </c>
       <c r="C36">
-        <v>69.2307537513545</v>
+        <v>79.3955577406787</v>
       </c>
       <c r="D36">
-        <v>17.3273184863854</v>
+        <v>7.71547078798729</v>
       </c>
       <c r="E36">
-        <v>79.0486163964504</v>
+        <v>141.140882633409</v>
       </c>
       <c r="F36">
-        <v>36.6615547412715</v>
+        <v>27.7827848261121</v>
       </c>
       <c r="G36">
-        <v>97.5990545004379</v>
+        <v>93.21080770422741</v>
       </c>
       <c r="H36">
-        <v>99.05699437259629</v>
+        <v>72.9806995811752</v>
       </c>
       <c r="I36">
-        <v>46.3155905193172</v>
+        <v>37.2039609355979</v>
       </c>
       <c r="J36">
-        <v>214.844438265491</v>
+        <v>213.076002691883</v>
       </c>
       <c r="K36">
-        <v>103.277739051657</v>
+        <v>56.997309671559</v>
       </c>
       <c r="L36">
-        <v>97.8851081993632</v>
+        <v>58.7245934139685</v>
       </c>
       <c r="M36">
-        <v>224.512386642554</v>
+        <v>173.834159826939</v>
       </c>
       <c r="N36">
-        <v>97.3393314616188</v>
+        <v>109.189590127823</v>
       </c>
       <c r="O36">
-        <v>4811.59743380159</v>
+        <v>4349.41806871129</v>
       </c>
       <c r="P36">
-        <v>45.2353968565898</v>
+        <v>59.043366497471</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>614.85316483011</v>
+        <v>759.077471160398</v>
       </c>
       <c r="C37">
-        <v>21.4274284763763</v>
+        <v>18.424280699074</v>
       </c>
       <c r="D37">
-        <v>4.94564207147127</v>
+        <v>3.02305790215385</v>
       </c>
       <c r="E37">
-        <v>14.2604459561245</v>
+        <v>17.7085275585757</v>
       </c>
       <c r="F37">
-        <v>43.4969790169046</v>
+        <v>38.5457796106392</v>
       </c>
       <c r="G37">
-        <v>6.90066781437409</v>
+        <v>6.08293012386462</v>
       </c>
       <c r="H37">
-        <v>22.9299663007858</v>
+        <v>24.1507369384061</v>
       </c>
       <c r="I37">
-        <v>11.171209705859</v>
+        <v>7.00789562231106</v>
       </c>
       <c r="J37">
-        <v>31.4112456944015</v>
+        <v>29.3940981017282</v>
       </c>
       <c r="K37">
-        <v>38.1380199798537</v>
+        <v>5.48536603126224</v>
       </c>
       <c r="L37">
-        <v>24.3306412196784</v>
+        <v>18.4345832984423</v>
       </c>
       <c r="M37">
-        <v>25.2738134364136</v>
+        <v>34.6204273798667</v>
       </c>
       <c r="N37">
-        <v>17.1125472557385</v>
+        <v>18.1001434513333</v>
       </c>
       <c r="O37">
-        <v>1443.17330938251</v>
+        <v>1332.88219093923</v>
       </c>
       <c r="P37">
-        <v>48.9212082393858</v>
+        <v>56.0408512118476</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>616.774241353521</v>
+        <v>753.713074106403</v>
       </c>
       <c r="C38">
-        <v>26.9707140065481</v>
+        <v>23.7055023841999</v>
       </c>
       <c r="D38">
-        <v>14.2509478859739</v>
+        <v>2.81183091329588</v>
       </c>
       <c r="E38">
-        <v>44.8783634434903</v>
+        <v>42.6564797726612</v>
       </c>
       <c r="F38">
-        <v>1.25252503539299</v>
+        <v>1.86094774547556</v>
       </c>
       <c r="G38">
-        <v>7.65710152502223</v>
+        <v>9.325967343504381</v>
       </c>
       <c r="H38">
-        <v>7.66535652184517</v>
+        <v>1.88964258280705</v>
       </c>
       <c r="I38">
-        <v>2.5028536636535</v>
+        <v>2.91427782747647</v>
       </c>
       <c r="J38">
-        <v>38.9144283801959</v>
+        <v>37.7557113961401</v>
       </c>
       <c r="K38">
-        <v>18.7844668878636</v>
+        <v>2.87520204751419</v>
       </c>
       <c r="L38">
-        <v>84.5079791675426</v>
+        <v>80.5139896276247</v>
       </c>
       <c r="M38">
-        <v>22.2903624274134</v>
+        <v>21.9412373400688</v>
       </c>
       <c r="N38">
-        <v>22.9884784103027</v>
+        <v>38.7183907695121</v>
       </c>
       <c r="O38">
-        <v>1575.62607642811</v>
+        <v>1464.90848075839</v>
       </c>
       <c r="P38">
-        <v>61.9790914964262</v>
+        <v>64.920317955819</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>1992.58633150477</v>
+        <v>2495.90189759629</v>
       </c>
       <c r="C39">
-        <v>114.458158329898</v>
+        <v>97.73806589278681</v>
       </c>
       <c r="D39">
-        <v>50.1786490001138</v>
+        <v>30.0463376369586</v>
       </c>
       <c r="E39">
-        <v>75.3612690622461</v>
+        <v>121.973552977615</v>
       </c>
       <c r="F39">
-        <v>21.2365232244434</v>
+        <v>28.1646393318107</v>
       </c>
       <c r="G39">
-        <v>123.475629065407</v>
+        <v>112.779657010365</v>
       </c>
       <c r="H39">
-        <v>47.1751540387504</v>
+        <v>49.9535329368471</v>
       </c>
       <c r="I39">
-        <v>50.3715930832426</v>
+        <v>26.6825057226573</v>
       </c>
       <c r="J39">
-        <v>164.403369749842</v>
+        <v>196.007549304402</v>
       </c>
       <c r="K39">
-        <v>115.588779102326</v>
+        <v>43.0021163419483</v>
       </c>
       <c r="L39">
-        <v>103.719994104567</v>
+        <v>113.830899286144</v>
       </c>
       <c r="M39">
-        <v>76.9966362247051</v>
+        <v>78.11037381886381</v>
       </c>
       <c r="N39">
-        <v>115.155483781664</v>
+        <v>129.480166389449</v>
       </c>
       <c r="O39">
-        <v>5546.03200903313</v>
+        <v>5048.3333299773</v>
       </c>
       <c r="P39">
-        <v>48.9324446323144</v>
+        <v>60.828243877768</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>181.609684981335</v>
+        <v>226.449668395488</v>
       </c>
       <c r="C40">
-        <v>2.86802592528455</v>
+        <v>3.53063424227516</v>
       </c>
       <c r="D40">
-        <v>10.2602626122618</v>
+        <v>7.95236293883432</v>
       </c>
       <c r="E40">
-        <v>6.14525745349903</v>
+        <v>4.44192884571789</v>
       </c>
       <c r="F40">
-        <v>0.256280581666108</v>
+        <v>0.275181058490263</v>
       </c>
       <c r="G40">
-        <v>6.31881302692761</v>
+        <v>5.49029754430481</v>
       </c>
       <c r="H40">
-        <v>7.14735706934836</v>
+        <v>4.14108968868822</v>
       </c>
       <c r="I40">
-        <v>1.64804357046018</v>
+        <v>1.92227702225812</v>
       </c>
       <c r="J40">
-        <v>15.1980260138269</v>
+        <v>12.5919378856134</v>
       </c>
       <c r="K40">
-        <v>9.004560286431451</v>
+        <v>1.15253614653665</v>
       </c>
       <c r="L40">
-        <v>14.7713414366104</v>
+        <v>12.5121494779453</v>
       </c>
       <c r="M40">
-        <v>7.98260746326136</v>
+        <v>4.68302974150551</v>
       </c>
       <c r="N40">
-        <v>34.5230065099547</v>
+        <v>26.5409464603664</v>
       </c>
       <c r="O40">
-        <v>549.686614875528</v>
+        <v>530.368610642277</v>
       </c>
       <c r="P40">
-        <v>1.90771246246617</v>
+        <v>4.46653817680619</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>812.489977693714</v>
+        <v>981.825413623222</v>
       </c>
       <c r="C41">
-        <v>11.557792021629</v>
+        <v>14.3965903500848</v>
       </c>
       <c r="D41">
-        <v>87.96539264123329</v>
+        <v>59.4882337234361</v>
       </c>
       <c r="E41">
-        <v>46.5437841074246</v>
+        <v>34.1081530368946</v>
       </c>
       <c r="F41">
-        <v>2.20165250356654</v>
+        <v>1.0439088151623</v>
       </c>
       <c r="G41">
-        <v>48.557809027574</v>
+        <v>34.0895040367572</v>
       </c>
       <c r="H41">
-        <v>49.9490667065615</v>
+        <v>37.1281933662504</v>
       </c>
       <c r="I41">
-        <v>8.810455133714671</v>
+        <v>11.7972356916494</v>
       </c>
       <c r="J41">
-        <v>59.297320424396</v>
+        <v>39.1303701060878</v>
       </c>
       <c r="K41">
-        <v>32.3938138870145</v>
+        <v>8.50998293364167</v>
       </c>
       <c r="L41">
-        <v>29.4758425496821</v>
+        <v>26.1352040856234</v>
       </c>
       <c r="M41">
-        <v>46.1906682424492</v>
+        <v>33.752534123745</v>
       </c>
       <c r="N41">
-        <v>21.9512573694302</v>
+        <v>17.5344780783093</v>
       </c>
       <c r="O41">
-        <v>1648.02548880343</v>
+        <v>1582.57287565061</v>
       </c>
       <c r="P41">
-        <v>14.9258581442177</v>
+        <v>28.863287316346</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>102.249347753694</v>
+        <v>132.514426490261</v>
       </c>
       <c r="C42">
-        <v>11.5182316327087</v>
+        <v>9.01960665937604</v>
       </c>
       <c r="D42">
-        <v>0.361793941166765</v>
+        <v>1.5261933695118</v>
       </c>
       <c r="E42">
-        <v>10.0067003798618</v>
+        <v>9.152410031184481</v>
       </c>
       <c r="F42">
-        <v>3.24107150465987</v>
+        <v>2.85902854304946</v>
       </c>
       <c r="G42">
-        <v>0.929448581538136</v>
+        <v>2.28285067078683</v>
       </c>
       <c r="H42">
-        <v>1.79093850640755</v>
+        <v>1.23434333256458</v>
       </c>
       <c r="I42">
-        <v>2.36852574283008</v>
+        <v>2.49198414742231</v>
       </c>
       <c r="J42">
-        <v>5.66005388544942</v>
+        <v>8.13808818675151</v>
       </c>
       <c r="K42">
-        <v>6.62791147354422</v>
+        <v>5.10971696924472</v>
       </c>
       <c r="L42">
-        <v>9.351270499498771</v>
+        <v>6.67225813012083</v>
       </c>
       <c r="M42">
-        <v>4.04199318644264</v>
+        <v>4.96685988045856</v>
       </c>
       <c r="N42">
-        <v>10.2705795767029</v>
+        <v>13.6751053446914</v>
       </c>
       <c r="O42">
-        <v>477.971422807937</v>
+        <v>436.135879499628</v>
       </c>
       <c r="P42">
-        <v>53.6872326922996</v>
+        <v>60.607964133354</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1188.80359215694</v>
+        <v>1430.87470391924</v>
       </c>
       <c r="C43">
-        <v>41.3733931236498</v>
+        <v>37.5994619463214</v>
       </c>
       <c r="D43">
-        <v>28.3715810561577</v>
+        <v>24.5635929937792</v>
       </c>
       <c r="E43">
-        <v>44.1441449677619</v>
+        <v>70.5642709037662</v>
       </c>
       <c r="F43">
-        <v>7.68741883608507</v>
+        <v>6.78997731628879</v>
       </c>
       <c r="G43">
-        <v>40.9738778194504</v>
+        <v>33.1399673230168</v>
       </c>
       <c r="H43">
-        <v>25.4044622341497</v>
+        <v>45.969411603554</v>
       </c>
       <c r="I43">
-        <v>27.7261787379128</v>
+        <v>10.6899653194502</v>
       </c>
       <c r="J43">
-        <v>46.1831680540474</v>
+        <v>56.9607595203409</v>
       </c>
       <c r="K43">
-        <v>53.1570881497298</v>
+        <v>6.78663604596358</v>
       </c>
       <c r="L43">
-        <v>38.6319722646807</v>
+        <v>33.2178609406526</v>
       </c>
       <c r="M43">
-        <v>86.61013430213529</v>
+        <v>79.9540038045313</v>
       </c>
       <c r="N43">
-        <v>63.1963716154314</v>
+        <v>76.88249215853639</v>
       </c>
       <c r="O43">
-        <v>2424.46175831587</v>
+        <v>2215.05827111569</v>
       </c>
       <c r="P43">
-        <v>42.4002765529223</v>
+        <v>35.3723393428728</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>3455.58979667371</v>
+        <v>4134.73949244256</v>
       </c>
       <c r="C44">
-        <v>153.748719218546</v>
+        <v>150.591670557198</v>
       </c>
       <c r="D44">
-        <v>50.5293677657696</v>
+        <v>18.0414813921477</v>
       </c>
       <c r="E44">
-        <v>77.6122058508379</v>
+        <v>90.97417977759871</v>
       </c>
       <c r="F44">
-        <v>274.910290572579</v>
+        <v>255.748118194751</v>
       </c>
       <c r="G44">
-        <v>132.395620967728</v>
+        <v>128.381174259428</v>
       </c>
       <c r="H44">
-        <v>42.0606599059381</v>
+        <v>31.1062743677465</v>
       </c>
       <c r="I44">
-        <v>50.908386365329</v>
+        <v>39.3893066282188</v>
       </c>
       <c r="J44">
-        <v>119.28592526129</v>
+        <v>118.700385025717</v>
       </c>
       <c r="K44">
-        <v>91.75775295741229</v>
+        <v>27.2693896743792</v>
       </c>
       <c r="L44">
-        <v>214.711855147096</v>
+        <v>180.934268056542</v>
       </c>
       <c r="M44">
-        <v>113.908460770126</v>
+        <v>80.6272917877329</v>
       </c>
       <c r="N44">
-        <v>104.616806872635</v>
+        <v>81.28827585829301</v>
       </c>
       <c r="O44">
-        <v>8964.030222932681</v>
+        <v>8532.622054030049</v>
       </c>
       <c r="P44">
-        <v>212.77087751445</v>
+        <v>190.534055877698</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>351.903730395396</v>
+        <v>380.739883118363</v>
       </c>
       <c r="C45">
-        <v>18.3107500965599</v>
+        <v>17.0193808544267</v>
       </c>
       <c r="D45">
-        <v>4.26299790562209</v>
+        <v>1.65465473448964</v>
       </c>
       <c r="E45">
-        <v>10.0940099765891</v>
+        <v>17.425009065923</v>
       </c>
       <c r="F45">
-        <v>23.4704041767008</v>
+        <v>27.2868656949033</v>
       </c>
       <c r="G45">
-        <v>13.4733903702604</v>
+        <v>8.496883128178411</v>
       </c>
       <c r="H45">
-        <v>3.04381436735668</v>
+        <v>0.901029071745417</v>
       </c>
       <c r="I45">
-        <v>3.86934404654973</v>
+        <v>2.89641852499916</v>
       </c>
       <c r="J45">
-        <v>15.243540327353</v>
+        <v>24.4933873420776</v>
       </c>
       <c r="K45">
-        <v>7.51002070647424</v>
+        <v>2.13583782993837</v>
       </c>
       <c r="L45">
-        <v>19.3139346904608</v>
+        <v>15.4111135475611</v>
       </c>
       <c r="M45">
-        <v>21.6473111684964</v>
+        <v>12.4223521191634</v>
       </c>
       <c r="N45">
-        <v>24.5123442820264</v>
+        <v>33.2800124224826</v>
       </c>
       <c r="O45">
-        <v>966.752279243455</v>
+        <v>933.363688355719</v>
       </c>
       <c r="P45">
-        <v>12.8987152190339</v>
+        <v>17.8825965096878</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>97.2041059855308</v>
+        <v>116.858594706342</v>
       </c>
       <c r="C46">
-        <v>6.11737998449582</v>
+        <v>6.36065033923044</v>
       </c>
       <c r="D46">
-        <v>1.43587469763254</v>
+        <v>0.833550805840733</v>
       </c>
       <c r="E46">
-        <v>6.79225032765074</v>
+        <v>6.8873056873885</v>
       </c>
       <c r="F46">
-        <v>1.54992920736891</v>
+        <v>0.896072970325781</v>
       </c>
       <c r="G46">
-        <v>2.44979745879675</v>
+        <v>1.58364634410972</v>
       </c>
       <c r="H46">
-        <v>3.96627567548555</v>
+        <v>1.10735107436386</v>
       </c>
       <c r="I46">
-        <v>1.84669233612074</v>
+        <v>1.84513950889078</v>
       </c>
       <c r="J46">
-        <v>6.29669873031704</v>
+        <v>5.59557227095896</v>
       </c>
       <c r="K46">
-        <v>3.83459405817037</v>
+        <v>1.50240788092031</v>
       </c>
       <c r="L46">
-        <v>17.7562751412761</v>
+        <v>15.6611767735415</v>
       </c>
       <c r="M46">
-        <v>5.58404282866069</v>
+        <v>3.66881663195117</v>
       </c>
       <c r="N46">
-        <v>7.15448875386626</v>
+        <v>12.374515041655</v>
       </c>
       <c r="O46">
-        <v>379.821196731399</v>
+        <v>365.446820358983</v>
       </c>
       <c r="P46">
-        <v>11.7863821563066</v>
+        <v>9.285492108470329</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1070.28005288976</v>
+        <v>1402.14219077111</v>
       </c>
       <c r="C47">
-        <v>58.3787370454172</v>
+        <v>46.6716736860712</v>
       </c>
       <c r="D47">
-        <v>30.730052692535</v>
+        <v>9.224974785856119</v>
       </c>
       <c r="E47">
-        <v>39.1568585820554</v>
+        <v>41.8510516317542</v>
       </c>
       <c r="F47">
-        <v>10.532639207292</v>
+        <v>9.47588151864022</v>
       </c>
       <c r="G47">
-        <v>17.673131651559</v>
+        <v>23.692144363516</v>
       </c>
       <c r="H47">
-        <v>16.6116215205713</v>
+        <v>15.4276308088008</v>
       </c>
       <c r="I47">
-        <v>10.8049095283806</v>
+        <v>7.93819238494535</v>
       </c>
       <c r="J47">
-        <v>47.4316516635014</v>
+        <v>30.9734144837594</v>
       </c>
       <c r="K47">
-        <v>10.0739666069283</v>
+        <v>4.34662681768477</v>
       </c>
       <c r="L47">
-        <v>47.0660805578057</v>
+        <v>24.1499550667211</v>
       </c>
       <c r="M47">
-        <v>67.7101739980244</v>
+        <v>63.3203614008773</v>
       </c>
       <c r="N47">
-        <v>25.9937033511027</v>
+        <v>25.0394581261239</v>
       </c>
       <c r="O47">
-        <v>3344.75679567656</v>
+        <v>3092.65381729136</v>
       </c>
       <c r="P47">
-        <v>42.2777700621889</v>
+        <v>41.272429016777</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1046.06714149898</v>
+        <v>1159.25821451334</v>
       </c>
       <c r="C48">
-        <v>18.975850142307</v>
+        <v>35.0708544207193</v>
       </c>
       <c r="D48">
-        <v>8.87142363121367</v>
+        <v>7.21706053595252</v>
       </c>
       <c r="E48">
-        <v>56.0798463217501</v>
+        <v>64.75061425585911</v>
       </c>
       <c r="F48">
-        <v>10.4183604113123</v>
+        <v>11.4858011876883</v>
       </c>
       <c r="G48">
-        <v>4.58915115716796</v>
+        <v>7.64463782191747</v>
       </c>
       <c r="H48">
-        <v>4.48516270819294</v>
+        <v>8.489916383284591</v>
       </c>
       <c r="I48">
-        <v>17.2963633970338</v>
+        <v>8.556350995822539</v>
       </c>
       <c r="J48">
-        <v>30.0627674441242</v>
+        <v>34.1904678069849</v>
       </c>
       <c r="K48">
-        <v>14.5804161617816</v>
+        <v>6.08100608028811</v>
       </c>
       <c r="L48">
-        <v>39.8336068356634</v>
+        <v>51.5520178840842</v>
       </c>
       <c r="M48">
-        <v>154.575877291863</v>
+        <v>152.888255980811</v>
       </c>
       <c r="N48">
-        <v>29.4793912939846</v>
+        <v>45.3584242774748</v>
       </c>
       <c r="O48">
-        <v>2676.5750637912</v>
+        <v>2514.2013089116</v>
       </c>
       <c r="P48">
-        <v>75.9041066896379</v>
+        <v>84.2143817613087</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>547.3135499750561</v>
+        <v>684.662149480189</v>
       </c>
       <c r="C49">
-        <v>5.19547788637862</v>
+        <v>5.24928480068978</v>
       </c>
       <c r="D49">
-        <v>1.14243430899253</v>
+        <v>0.612676109328959</v>
       </c>
       <c r="E49">
-        <v>17.2272639452165</v>
+        <v>23.820975750718</v>
       </c>
       <c r="F49">
-        <v>41.0025894953632</v>
+        <v>32.3300721722538</v>
       </c>
       <c r="G49">
-        <v>20.6218242045094</v>
+        <v>13.506828931397</v>
       </c>
       <c r="H49">
-        <v>8.21696426601968</v>
+        <v>6.68206366671973</v>
       </c>
       <c r="I49">
-        <v>6.48442390530521</v>
+        <v>3.01391861038108</v>
       </c>
       <c r="J49">
-        <v>27.3790843538065</v>
+        <v>22.9630924871582</v>
       </c>
       <c r="K49">
-        <v>8.543907072126659</v>
+        <v>2.7277249120743</v>
       </c>
       <c r="L49">
-        <v>3.33333729703953</v>
+        <v>1.99067935804498</v>
       </c>
       <c r="M49">
-        <v>5.15499793683789</v>
+        <v>4.23245411475297</v>
       </c>
       <c r="N49">
-        <v>2.83765447078514</v>
+        <v>8.39806992843822</v>
       </c>
       <c r="O49">
-        <v>778.757019320605</v>
+        <v>680.945564213471</v>
       </c>
       <c r="P49">
-        <v>12.6455111689813</v>
+        <v>9.250987633720429</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>744.774268188424</v>
+        <v>886.2077276826281</v>
       </c>
       <c r="C50">
-        <v>77.0666999305505</v>
+        <v>69.267206010911</v>
       </c>
       <c r="D50">
-        <v>10.1644067235413</v>
+        <v>6.75548542197826</v>
       </c>
       <c r="E50">
-        <v>111.587757285845</v>
+        <v>124.966387404481</v>
       </c>
       <c r="F50">
-        <v>5.01600633522691</v>
+        <v>1.69449175421477</v>
       </c>
       <c r="G50">
-        <v>34.909428534123</v>
+        <v>29.799761090156</v>
       </c>
       <c r="H50">
-        <v>42.6009803557882</v>
+        <v>47.6474303266139</v>
       </c>
       <c r="I50">
-        <v>15.7244325085868</v>
+        <v>11.6623862586423</v>
       </c>
       <c r="J50">
-        <v>107.160597924841</v>
+        <v>79.81489150649929</v>
       </c>
       <c r="K50">
-        <v>72.06604534886679</v>
+        <v>47.971610377241</v>
       </c>
       <c r="L50">
-        <v>82.45263414930091</v>
+        <v>66.8866928612767</v>
       </c>
       <c r="M50">
-        <v>26.4130246886949</v>
+        <v>58.0140886229842</v>
       </c>
       <c r="N50">
-        <v>71.74966160002001</v>
+        <v>51.8144927728543</v>
       </c>
       <c r="O50">
-        <v>2342.02071012223</v>
+        <v>2226.15385002437</v>
       </c>
       <c r="P50">
-        <v>62.9882267582474</v>
+        <v>85.26520180554</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>111.243719858119</v>
+        <v>119.902749668441</v>
       </c>
       <c r="C51">
-        <v>1.59370094140196</v>
+        <v>2.31917384871571</v>
       </c>
       <c r="D51">
-        <v>0.195981746354796</v>
+        <v>0.0679193972406746</v>
       </c>
       <c r="E51">
-        <v>2.40384523279489</v>
+        <v>2.57025297152022</v>
       </c>
       <c r="F51">
-        <v>48.362077756911</v>
+        <v>43.3187749598719</v>
       </c>
       <c r="G51">
-        <v>3.25458291205706</v>
+        <v>2.71283336327541</v>
       </c>
       <c r="H51">
-        <v>0.294127512985783</v>
+        <v>0.151745370484423</v>
       </c>
       <c r="I51">
-        <v>0.719097640804848</v>
+        <v>1.65017277016375</v>
       </c>
       <c r="J51">
-        <v>2.43859289841151</v>
+        <v>1.74020627401023</v>
       </c>
       <c r="K51">
-        <v>1.04269575294087</v>
+        <v>1.60696401184001</v>
       </c>
       <c r="L51">
-        <v>0.303605557745408</v>
+        <v>1.2336853674847</v>
       </c>
       <c r="M51">
-        <v>0.691640103670313</v>
+        <v>0.472281993780648</v>
       </c>
       <c r="N51">
-        <v>1.40326588449523</v>
+        <v>1.04008985444366</v>
       </c>
       <c r="O51">
-        <v>357.168481120122</v>
+        <v>336.394973737155</v>
       </c>
       <c r="P51">
-        <v>20.5643800793899</v>
+        <v>34.9716015755495</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1248.59211159917</v>
+        <v>1299.32498164625</v>
       </c>
       <c r="C2">
-        <v>23.2784048817568</v>
+        <v>23.1082986958734</v>
       </c>
       <c r="D2">
-        <v>25.7090997224148</v>
+        <v>26.1039768001382</v>
       </c>
       <c r="E2">
-        <v>53.6798791147542</v>
+        <v>52.7447576927244</v>
       </c>
       <c r="F2">
-        <v>23.4837177176872</v>
+        <v>22.878075361328</v>
       </c>
       <c r="G2">
-        <v>20.3712253754605</v>
+        <v>19.6143409124101</v>
       </c>
       <c r="H2">
-        <v>15.1920071952835</v>
+        <v>14.3937568233739</v>
       </c>
       <c r="I2">
-        <v>11.7173612805874</v>
+        <v>11.31242970215</v>
       </c>
       <c r="J2">
-        <v>78.29827844914961</v>
+        <v>77.35024961408639</v>
       </c>
       <c r="K2">
-        <v>15.5258400232387</v>
+        <v>15.1462076897386</v>
       </c>
       <c r="L2">
-        <v>52.1508405117356</v>
+        <v>51.6390026306001</v>
       </c>
       <c r="M2">
-        <v>54.0360823961693</v>
+        <v>53.226696626576</v>
       </c>
       <c r="N2">
-        <v>24.8760875836899</v>
+        <v>24.500262911154</v>
       </c>
       <c r="O2">
-        <v>1526.00740088049</v>
+        <v>1494.04314421443</v>
       </c>
       <c r="P2">
-        <v>21.1642075302799</v>
+        <v>21.5410472647621</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>158.78674549022</v>
+        <v>149.268984791324</v>
       </c>
       <c r="C3">
-        <v>2.05385455716205</v>
+        <v>2.00187524236048</v>
       </c>
       <c r="D3">
-        <v>0.343428529853431</v>
+        <v>0.321539154805366</v>
       </c>
       <c r="E3">
-        <v>1.36991038758294</v>
+        <v>1.26310805017775</v>
       </c>
       <c r="F3">
-        <v>12.6157986078909</v>
+        <v>11.2897157861605</v>
       </c>
       <c r="G3">
-        <v>0.580240448082917</v>
+        <v>0.480436161418506</v>
       </c>
       <c r="H3">
-        <v>0.0086765687459254</v>
+        <v>0.00763459223961553</v>
       </c>
       <c r="I3">
-        <v>1.07289865221734</v>
+        <v>0.935792583863107</v>
       </c>
       <c r="J3">
-        <v>0.183781434118309</v>
+        <v>0.174394366485538</v>
       </c>
       <c r="K3">
-        <v>0.15152944787666</v>
+        <v>0.134256259207029</v>
       </c>
       <c r="L3">
-        <v>0.158518168396052</v>
+        <v>0.143403184123646</v>
       </c>
       <c r="M3">
-        <v>0.662554350841753</v>
+        <v>0.611126002286706</v>
       </c>
       <c r="N3">
-        <v>1.83401763698554</v>
+        <v>1.66679480014784</v>
       </c>
       <c r="O3">
-        <v>372.024508987331</v>
+        <v>337.991758983327</v>
       </c>
       <c r="P3">
-        <v>14.2539081386531</v>
+        <v>13.2474053802592</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1258.37887293668</v>
+        <v>1317.92872739965</v>
       </c>
       <c r="C4">
-        <v>13.058200586903</v>
+        <v>13.2413551361201</v>
       </c>
       <c r="D4">
-        <v>4.7202002862859</v>
+        <v>4.64178253772414</v>
       </c>
       <c r="E4">
-        <v>13.051808625763</v>
+        <v>13.1311113270959</v>
       </c>
       <c r="F4">
-        <v>10.9231601561344</v>
+        <v>11.0717220790726</v>
       </c>
       <c r="G4">
-        <v>8.85351503869148</v>
+        <v>8.63018201798004</v>
       </c>
       <c r="H4">
-        <v>7.4987270062366</v>
+        <v>7.54446311803117</v>
       </c>
       <c r="I4">
-        <v>6.27980859193053</v>
+        <v>6.1403014469335</v>
       </c>
       <c r="J4">
-        <v>34.9386542527602</v>
+        <v>34.9548414357149</v>
       </c>
       <c r="K4">
-        <v>3.9010287541478</v>
+        <v>3.84853032235475</v>
       </c>
       <c r="L4">
-        <v>62.7378615469882</v>
+        <v>61.4802457134637</v>
       </c>
       <c r="M4">
-        <v>38.9866463771056</v>
+        <v>38.4322758358802</v>
       </c>
       <c r="N4">
-        <v>30.6575901179167</v>
+        <v>30.700116097731</v>
       </c>
       <c r="O4">
-        <v>2313.86500277692</v>
+        <v>2296.30211244376</v>
       </c>
       <c r="P4">
-        <v>12.6625579164391</v>
+        <v>12.6372056859172</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>660.81811731836</v>
+        <v>684.424408657741</v>
       </c>
       <c r="C5">
-        <v>46.4997850685832</v>
+        <v>46.0954387712154</v>
       </c>
       <c r="D5">
-        <v>10.3965484121694</v>
+        <v>10.1228158252188</v>
       </c>
       <c r="E5">
-        <v>25.9648100376636</v>
+        <v>26.2362126373188</v>
       </c>
       <c r="F5">
-        <v>6.36894937769328</v>
+        <v>6.51158146312787</v>
       </c>
       <c r="G5">
-        <v>6.46783790207355</v>
+        <v>6.39776632187629</v>
       </c>
       <c r="H5">
-        <v>8.383314057693701</v>
+        <v>8.491724758564571</v>
       </c>
       <c r="I5">
-        <v>5.91897552121448</v>
+        <v>5.79798575489173</v>
       </c>
       <c r="J5">
-        <v>29.2850962521095</v>
+        <v>29.028335904573</v>
       </c>
       <c r="K5">
-        <v>4.35836659705407</v>
+        <v>4.34689723559867</v>
       </c>
       <c r="L5">
-        <v>11.6826630209207</v>
+        <v>11.090092917415</v>
       </c>
       <c r="M5">
-        <v>18.0760409822948</v>
+        <v>18.1316074915374</v>
       </c>
       <c r="N5">
-        <v>26.7642938193199</v>
+        <v>26.9561415338371</v>
       </c>
       <c r="O5">
-        <v>1022.02124521916</v>
+        <v>1005.31330760505</v>
       </c>
       <c r="P5">
-        <v>52.5751285713946</v>
+        <v>53.19217663648</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>6837.31703986296</v>
+        <v>7116.58250537916</v>
       </c>
       <c r="C6">
-        <v>197.022885586228</v>
+        <v>199.083792173471</v>
       </c>
       <c r="D6">
-        <v>36.5035884241342</v>
+        <v>35.8876632805067</v>
       </c>
       <c r="E6">
-        <v>168.220200992524</v>
+        <v>167.866275931467</v>
       </c>
       <c r="F6">
-        <v>47.6092082035091</v>
+        <v>47.0176642973901</v>
       </c>
       <c r="G6">
-        <v>101.224126420945</v>
+        <v>100.491920542576</v>
       </c>
       <c r="H6">
-        <v>46.5675102855069</v>
+        <v>46.0410244442708</v>
       </c>
       <c r="I6">
-        <v>36.6249266111136</v>
+        <v>35.9696292518034</v>
       </c>
       <c r="J6">
-        <v>165.282724197582</v>
+        <v>163.137013444916</v>
       </c>
       <c r="K6">
-        <v>42.2890819047858</v>
+        <v>41.8350658130933</v>
       </c>
       <c r="L6">
-        <v>415.267588711852</v>
+        <v>409.961959155077</v>
       </c>
       <c r="M6">
-        <v>239.848425340091</v>
+        <v>234.707952282968</v>
       </c>
       <c r="N6">
-        <v>298.910243320966</v>
+        <v>294.930921595599</v>
       </c>
       <c r="O6">
-        <v>13359.1591257424</v>
+        <v>13225.5082588616</v>
       </c>
       <c r="P6">
-        <v>266.141305000851</v>
+        <v>274.674996936919</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>728.464205143794</v>
+        <v>752.408585352792</v>
       </c>
       <c r="C7">
-        <v>42.4792053006056</v>
+        <v>42.0530784230654</v>
       </c>
       <c r="D7">
-        <v>4.2427270849531</v>
+        <v>4.21919414248525</v>
       </c>
       <c r="E7">
-        <v>18.8352909366296</v>
+        <v>18.8628145552914</v>
       </c>
       <c r="F7">
-        <v>17.8715484648439</v>
+        <v>18.180147287984</v>
       </c>
       <c r="G7">
-        <v>10.1502852059757</v>
+        <v>10.0670154065133</v>
       </c>
       <c r="H7">
-        <v>2.63030023261293</v>
+        <v>2.58508190388437</v>
       </c>
       <c r="I7">
-        <v>8.576068821758851</v>
+        <v>8.59318655369133</v>
       </c>
       <c r="J7">
-        <v>18.1900375239918</v>
+        <v>17.9207388061916</v>
       </c>
       <c r="K7">
-        <v>5.95491745818887</v>
+        <v>5.96742544462945</v>
       </c>
       <c r="L7">
-        <v>49.5636311730999</v>
+        <v>48.946396748693</v>
       </c>
       <c r="M7">
-        <v>17.5686063671177</v>
+        <v>17.3770458356014</v>
       </c>
       <c r="N7">
-        <v>19.431131694389</v>
+        <v>19.2314800158155</v>
       </c>
       <c r="O7">
-        <v>1970.9149131409</v>
+        <v>1960.4526466852</v>
       </c>
       <c r="P7">
-        <v>29.5213910123604</v>
+        <v>31.6189725821889</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>589.838025900548</v>
+        <v>615.618041220385</v>
       </c>
       <c r="C8">
-        <v>13.2910474929206</v>
+        <v>13.2623187681804</v>
       </c>
       <c r="D8">
-        <v>2.37486642715943</v>
+        <v>2.37215711756793</v>
       </c>
       <c r="E8">
-        <v>22.5041258979496</v>
+        <v>22.2951107203474</v>
       </c>
       <c r="F8">
-        <v>2.62054218890578</v>
+        <v>2.5405187966705</v>
       </c>
       <c r="G8">
-        <v>21.4935166185412</v>
+        <v>20.6718619978675</v>
       </c>
       <c r="H8">
-        <v>7.5533176940763</v>
+        <v>7.38464941347383</v>
       </c>
       <c r="I8">
-        <v>7.84451853755307</v>
+        <v>7.60136470168748</v>
       </c>
       <c r="J8">
-        <v>42.4105824417752</v>
+        <v>41.5197708156274</v>
       </c>
       <c r="K8">
-        <v>8.989961377952101</v>
+        <v>8.750534363598129</v>
       </c>
       <c r="L8">
-        <v>39.9844373808811</v>
+        <v>39.0438750043007</v>
       </c>
       <c r="M8">
-        <v>52.7696699116199</v>
+        <v>50.8044367068639</v>
       </c>
       <c r="N8">
-        <v>32.4650973837577</v>
+        <v>31.6925022125624</v>
       </c>
       <c r="O8">
-        <v>1460.27782572421</v>
+        <v>1441.56590165988</v>
       </c>
       <c r="P8">
-        <v>9.016295222657901</v>
+        <v>9.10096259084982</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>209.033092889979</v>
+        <v>204.917321331995</v>
       </c>
       <c r="C9">
-        <v>9.723339773597459</v>
+        <v>9.25436799815081</v>
       </c>
       <c r="D9">
-        <v>2.1282485902759</v>
+        <v>1.9738927581261</v>
       </c>
       <c r="E9">
-        <v>5.43168003560631</v>
+        <v>5.08548222355281</v>
       </c>
       <c r="F9">
-        <v>0.7274813086787491</v>
+        <v>0.66964518030001</v>
       </c>
       <c r="G9">
-        <v>25.3735575400609</v>
+        <v>23.3080950428444</v>
       </c>
       <c r="H9">
-        <v>2.60288199348799</v>
+        <v>2.40066448685087</v>
       </c>
       <c r="I9">
-        <v>1.85757890356206</v>
+        <v>1.73851829124545</v>
       </c>
       <c r="J9">
-        <v>4.3485595522923</v>
+        <v>4.02968457943662</v>
       </c>
       <c r="K9">
-        <v>0.501513559557616</v>
+        <v>0.462983906827142</v>
       </c>
       <c r="L9">
-        <v>2.82370510516746</v>
+        <v>2.65095079786045</v>
       </c>
       <c r="M9">
-        <v>6.95167327874425</v>
+        <v>6.63607068885802</v>
       </c>
       <c r="N9">
-        <v>3.25257689756411</v>
+        <v>3.01917419034499</v>
       </c>
       <c r="O9">
-        <v>462.941131780921</v>
+        <v>432.909948425746</v>
       </c>
       <c r="P9">
-        <v>6.77729389740831</v>
+        <v>6.43699492922761</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3756.46632422873</v>
+        <v>3945.37108057988</v>
       </c>
       <c r="C10">
-        <v>63.5184473280753</v>
+        <v>63.1532678614498</v>
       </c>
       <c r="D10">
-        <v>9.63118615367079</v>
+        <v>9.586796834046339</v>
       </c>
       <c r="E10">
-        <v>59.7901974304005</v>
+        <v>59.3542222831237</v>
       </c>
       <c r="F10">
-        <v>8.405793545041529</v>
+        <v>8.180595983006031</v>
       </c>
       <c r="G10">
-        <v>38.6979513985119</v>
+        <v>37.9966064916397</v>
       </c>
       <c r="H10">
-        <v>15.0928230311429</v>
+        <v>14.841903086021</v>
       </c>
       <c r="I10">
-        <v>22.9760677667062</v>
+        <v>22.4393400612578</v>
       </c>
       <c r="J10">
-        <v>61.3958178379163</v>
+        <v>60.5678899780409</v>
       </c>
       <c r="K10">
-        <v>5.97504578731528</v>
+        <v>5.82363839142693</v>
       </c>
       <c r="L10">
-        <v>66.8689392815524</v>
+        <v>65.4840954793299</v>
       </c>
       <c r="M10">
-        <v>75.8183270702816</v>
+        <v>74.3513409920961</v>
       </c>
       <c r="N10">
-        <v>101.861028174898</v>
+        <v>100.823958859444</v>
       </c>
       <c r="O10">
-        <v>7929.67815089039</v>
+        <v>7830.27297524044</v>
       </c>
       <c r="P10">
-        <v>64.4020993591533</v>
+        <v>64.25169086510771</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1842.49250053405</v>
+        <v>1899.61429002397</v>
       </c>
       <c r="C11">
-        <v>67.5350707806338</v>
+        <v>67.458374988628</v>
       </c>
       <c r="D11">
-        <v>134.897048350538</v>
+        <v>132.672484871879</v>
       </c>
       <c r="E11">
-        <v>88.9818715974118</v>
+        <v>88.8615296386852</v>
       </c>
       <c r="F11">
-        <v>14.2833887387408</v>
+        <v>14.1098017487801</v>
       </c>
       <c r="G11">
-        <v>20.7413428252974</v>
+        <v>20.6143148828971</v>
       </c>
       <c r="H11">
-        <v>27.1429020597003</v>
+        <v>26.9948659389283</v>
       </c>
       <c r="I11">
-        <v>11.4949504221114</v>
+        <v>11.3335985159396</v>
       </c>
       <c r="J11">
-        <v>38.4745182805836</v>
+        <v>38.3152871897641</v>
       </c>
       <c r="K11">
-        <v>6.57074130643177</v>
+        <v>6.45823006932345</v>
       </c>
       <c r="L11">
-        <v>42.7530827246313</v>
+        <v>42.2757473062798</v>
       </c>
       <c r="M11">
-        <v>56.3294211657485</v>
+        <v>56.0168657434048</v>
       </c>
       <c r="N11">
-        <v>66.6763094354219</v>
+        <v>66.08870160059971</v>
       </c>
       <c r="O11">
-        <v>3366.92019915378</v>
+        <v>3329.69258146964</v>
       </c>
       <c r="P11">
-        <v>49.1751312289437</v>
+        <v>50.2389732323744</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>265.038449439684</v>
+        <v>264.924375259762</v>
       </c>
       <c r="C12">
-        <v>6.33277215845188</v>
+        <v>5.82051508323862</v>
       </c>
       <c r="D12">
-        <v>0.604809962659428</v>
+        <v>0.562539594039051</v>
       </c>
       <c r="E12">
-        <v>3.95928438976603</v>
+        <v>3.66033227965459</v>
       </c>
       <c r="F12">
-        <v>0.894024048128088</v>
+        <v>0.812602667108308</v>
       </c>
       <c r="G12">
-        <v>0.300714772507015</v>
+        <v>0.282812313180795</v>
       </c>
       <c r="H12">
-        <v>0.1121264683997</v>
+        <v>0.104455178343213</v>
       </c>
       <c r="I12">
-        <v>0.838366945566272</v>
+        <v>0.787964398700247</v>
       </c>
       <c r="J12">
-        <v>1.67466668400793</v>
+        <v>1.51828970255366</v>
       </c>
       <c r="K12">
-        <v>0.245850692626571</v>
+        <v>0.22942028888929</v>
       </c>
       <c r="L12">
-        <v>0.0142754484012432</v>
+        <v>0.0135758197033269</v>
       </c>
       <c r="M12">
-        <v>2.83039473711646</v>
+        <v>2.62610452962747</v>
       </c>
       <c r="N12">
-        <v>4.89544631736451</v>
+        <v>4.57750333814392</v>
       </c>
       <c r="O12">
-        <v>702.833588987067</v>
+        <v>660.658185849261</v>
       </c>
       <c r="P12">
-        <v>24.1694121922321</v>
+        <v>23.0538173844844</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>253.746791387126</v>
+        <v>258.407879821623</v>
       </c>
       <c r="C13">
-        <v>20.9239597674877</v>
+        <v>20.4898933523214</v>
       </c>
       <c r="D13">
-        <v>0.5600236301264651</v>
+        <v>0.539222256839379</v>
       </c>
       <c r="E13">
-        <v>13.3645691880004</v>
+        <v>13.0311272967432</v>
       </c>
       <c r="F13">
-        <v>3.48152845963459</v>
+        <v>3.3347098457165</v>
       </c>
       <c r="G13">
-        <v>7.65345083408958</v>
+        <v>7.35847802650751</v>
       </c>
       <c r="H13">
-        <v>2.53330510268688</v>
+        <v>2.35620773704577</v>
       </c>
       <c r="I13">
-        <v>2.66807281246232</v>
+        <v>2.5591875559653</v>
       </c>
       <c r="J13">
-        <v>5.89709788645794</v>
+        <v>5.71680780205268</v>
       </c>
       <c r="K13">
-        <v>4.91277043309126</v>
+        <v>4.57743401502298</v>
       </c>
       <c r="L13">
-        <v>18.03695376275</v>
+        <v>17.1325288324322</v>
       </c>
       <c r="M13">
-        <v>2.19627067716417</v>
+        <v>2.1548237962853</v>
       </c>
       <c r="N13">
-        <v>4.83228439609835</v>
+        <v>4.62336212205786</v>
       </c>
       <c r="O13">
-        <v>634.553738583899</v>
+        <v>614.270428090314</v>
       </c>
       <c r="P13">
-        <v>47.1692248657431</v>
+        <v>46.0262345074046</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2332.23219333686</v>
+        <v>2424.49927140263</v>
       </c>
       <c r="C14">
-        <v>120.169525380024</v>
+        <v>119.200766056285</v>
       </c>
       <c r="D14">
-        <v>8.86108998554394</v>
+        <v>8.890024925962241</v>
       </c>
       <c r="E14">
-        <v>89.9538512619941</v>
+        <v>90.55444741956291</v>
       </c>
       <c r="F14">
-        <v>21.3675100461236</v>
+        <v>21.1198065244576</v>
       </c>
       <c r="G14">
-        <v>85.2404794671691</v>
+        <v>82.82670291345561</v>
       </c>
       <c r="H14">
-        <v>43.0012704462097</v>
+        <v>42.4115787133865</v>
       </c>
       <c r="I14">
-        <v>21.8280664393933</v>
+        <v>21.4492251731969</v>
       </c>
       <c r="J14">
-        <v>126.866030125923</v>
+        <v>126.086352942142</v>
       </c>
       <c r="K14">
-        <v>68.0503375089878</v>
+        <v>67.3744738574223</v>
       </c>
       <c r="L14">
-        <v>101.319634775216</v>
+        <v>100.20614129556</v>
       </c>
       <c r="M14">
-        <v>89.5188228086285</v>
+        <v>89.1166599103575</v>
       </c>
       <c r="N14">
-        <v>63.7403032676956</v>
+        <v>63.5358267047067</v>
       </c>
       <c r="O14">
-        <v>5110.68171970145</v>
+        <v>5046.08384631747</v>
       </c>
       <c r="P14">
-        <v>50.6021300379157</v>
+        <v>54.600135605104</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1198.99265801454</v>
+        <v>1235.37018054031</v>
       </c>
       <c r="C15">
-        <v>63.9010859408975</v>
+        <v>63.7005334707207</v>
       </c>
       <c r="D15">
-        <v>4.73540990700392</v>
+        <v>4.72199561314726</v>
       </c>
       <c r="E15">
-        <v>72.0401929665331</v>
+        <v>71.1294162202623</v>
       </c>
       <c r="F15">
-        <v>20.1526335574944</v>
+        <v>20.0952259738624</v>
       </c>
       <c r="G15">
-        <v>55.1545718828256</v>
+        <v>54.4977691956008</v>
       </c>
       <c r="H15">
-        <v>38.3406344512002</v>
+        <v>37.7137150577058</v>
       </c>
       <c r="I15">
-        <v>23.8396916868383</v>
+        <v>23.6869234534496</v>
       </c>
       <c r="J15">
-        <v>149.322767895099</v>
+        <v>146.925968738779</v>
       </c>
       <c r="K15">
-        <v>34.2216475326658</v>
+        <v>33.8056200964996</v>
       </c>
       <c r="L15">
-        <v>42.1513125483923</v>
+        <v>41.8137760591985</v>
       </c>
       <c r="M15">
-        <v>162.223267045836</v>
+        <v>163.119780543539</v>
       </c>
       <c r="N15">
-        <v>89.607415827503</v>
+        <v>87.3998483404731</v>
       </c>
       <c r="O15">
-        <v>2269.05568490829</v>
+        <v>2238.20197727012</v>
       </c>
       <c r="P15">
-        <v>45.3190192481188</v>
+        <v>45.0003887708804</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>439.730901645056</v>
+        <v>455.865907926469</v>
       </c>
       <c r="C16">
-        <v>66.7226788993201</v>
+        <v>64.5739831311531</v>
       </c>
       <c r="D16">
-        <v>5.48881060002891</v>
+        <v>5.1624858266626</v>
       </c>
       <c r="E16">
-        <v>28.1032877190176</v>
+        <v>27.6820592924388</v>
       </c>
       <c r="F16">
-        <v>3.28460476945795</v>
+        <v>3.09823454527373</v>
       </c>
       <c r="G16">
-        <v>16.9534927314728</v>
+        <v>16.6971434656511</v>
       </c>
       <c r="H16">
-        <v>18.3014116692534</v>
+        <v>18.3755690637088</v>
       </c>
       <c r="I16">
-        <v>5.38608803655318</v>
+        <v>5.36547280745207</v>
       </c>
       <c r="J16">
-        <v>45.2559125509545</v>
+        <v>44.3048559517441</v>
       </c>
       <c r="K16">
-        <v>44.8861538711039</v>
+        <v>43.6142832234496</v>
       </c>
       <c r="L16">
-        <v>18.2698769970368</v>
+        <v>18.695692940741</v>
       </c>
       <c r="M16">
-        <v>24.2704884834889</v>
+        <v>24.6617640933283</v>
       </c>
       <c r="N16">
-        <v>30.7311998414869</v>
+        <v>29.4883707389384</v>
       </c>
       <c r="O16">
-        <v>1336.13963847294</v>
+        <v>1294.06627843691</v>
       </c>
       <c r="P16">
-        <v>91.3720856095799</v>
+        <v>87.7546383058549</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>479.050675177554</v>
+        <v>492.385747039927</v>
       </c>
       <c r="C17">
-        <v>23.7036592142761</v>
+        <v>23.5969604082037</v>
       </c>
       <c r="D17">
-        <v>3.32486739998424</v>
+        <v>3.2377474351703</v>
       </c>
       <c r="E17">
-        <v>23.9894124211351</v>
+        <v>23.3270618234224</v>
       </c>
       <c r="F17">
-        <v>13.3018600210647</v>
+        <v>13.9790296634224</v>
       </c>
       <c r="G17">
-        <v>9.8039079640478</v>
+        <v>9.91210525899165</v>
       </c>
       <c r="H17">
-        <v>13.3799438788561</v>
+        <v>13.4631653338752</v>
       </c>
       <c r="I17">
-        <v>7.05927877967964</v>
+        <v>6.67539558717082</v>
       </c>
       <c r="J17">
-        <v>23.0797857815674</v>
+        <v>22.7471373429527</v>
       </c>
       <c r="K17">
-        <v>8.93582796165513</v>
+        <v>8.72611462640498</v>
       </c>
       <c r="L17">
-        <v>13.1040171059636</v>
+        <v>12.5540165728092</v>
       </c>
       <c r="M17">
-        <v>66.1197906917444</v>
+        <v>64.15680709681931</v>
       </c>
       <c r="N17">
-        <v>11.4691479578699</v>
+        <v>11.222436908745</v>
       </c>
       <c r="O17">
-        <v>1172.48978490404</v>
+        <v>1132.13564721863</v>
       </c>
       <c r="P17">
-        <v>46.8583917236092</v>
+        <v>47.9449808984105</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1109.86255330986</v>
+        <v>1131.90205074093</v>
       </c>
       <c r="C18">
-        <v>31.672328477887</v>
+        <v>30.7132915482929</v>
       </c>
       <c r="D18">
-        <v>4.35351634772166</v>
+        <v>4.37774623261144</v>
       </c>
       <c r="E18">
-        <v>33.1925067415683</v>
+        <v>32.9798640062265</v>
       </c>
       <c r="F18">
-        <v>41.412971957547</v>
+        <v>39.7421862500431</v>
       </c>
       <c r="G18">
-        <v>13.7999410011132</v>
+        <v>13.1484938177114</v>
       </c>
       <c r="H18">
-        <v>11.3145280875762</v>
+        <v>11.2679761626129</v>
       </c>
       <c r="I18">
-        <v>4.20576056362238</v>
+        <v>4.0671024009915</v>
       </c>
       <c r="J18">
-        <v>22.3014692073048</v>
+        <v>21.9880031518968</v>
       </c>
       <c r="K18">
-        <v>8.150322164100111</v>
+        <v>7.98163684266404</v>
       </c>
       <c r="L18">
-        <v>28.7578944576231</v>
+        <v>28.2339890175503</v>
       </c>
       <c r="M18">
-        <v>67.0028778850665</v>
+        <v>66.9783894933327</v>
       </c>
       <c r="N18">
-        <v>27.6865992754746</v>
+        <v>27.2925364030235</v>
       </c>
       <c r="O18">
-        <v>1641.80463179875</v>
+        <v>1588.40803189605</v>
       </c>
       <c r="P18">
-        <v>62.8051328244296</v>
+        <v>62.1907564222368</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1031.03772068118</v>
+        <v>1053.27569576256</v>
       </c>
       <c r="C19">
-        <v>36.4770367958153</v>
+        <v>36.1953298274804</v>
       </c>
       <c r="D19">
-        <v>3.89543205987488</v>
+        <v>3.8892001761516</v>
       </c>
       <c r="E19">
-        <v>35.38018329889</v>
+        <v>35.8099951032053</v>
       </c>
       <c r="F19">
-        <v>75.8793179691403</v>
+        <v>73.85865744726119</v>
       </c>
       <c r="G19">
-        <v>46.9453461405301</v>
+        <v>46.2117138074868</v>
       </c>
       <c r="H19">
-        <v>13.2193777154086</v>
+        <v>13.1004755757519</v>
       </c>
       <c r="I19">
-        <v>5.57019543483199</v>
+        <v>5.52150073628649</v>
       </c>
       <c r="J19">
-        <v>20.5341440799257</v>
+        <v>19.9879091417527</v>
       </c>
       <c r="K19">
-        <v>8.22572988845485</v>
+        <v>8.00371665371158</v>
       </c>
       <c r="L19">
-        <v>3.36119405745499</v>
+        <v>3.35280054594191</v>
       </c>
       <c r="M19">
-        <v>23.6648476533781</v>
+        <v>23.5722208000622</v>
       </c>
       <c r="N19">
-        <v>13.6635126977707</v>
+        <v>13.4340573674714</v>
       </c>
       <c r="O19">
-        <v>1661.50081708807</v>
+        <v>1627.26773688765</v>
       </c>
       <c r="P19">
-        <v>39.8903242096743</v>
+        <v>40.1865558323653</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>274.43578278258</v>
+        <v>282.018650833325</v>
       </c>
       <c r="C20">
-        <v>9.78885119899592</v>
+        <v>9.473017821670901</v>
       </c>
       <c r="D20">
-        <v>6.59602424740431</v>
+        <v>6.59265105026816</v>
       </c>
       <c r="E20">
-        <v>31.6472435179512</v>
+        <v>31.3430684501497</v>
       </c>
       <c r="F20">
-        <v>0.883129654859244</v>
+        <v>0.874751177669109</v>
       </c>
       <c r="G20">
-        <v>3.94048739321382</v>
+        <v>3.79622736490963</v>
       </c>
       <c r="H20">
-        <v>1.01136387273902</v>
+        <v>0.985514684517111</v>
       </c>
       <c r="I20">
-        <v>2.4700091152337</v>
+        <v>2.41379038638566</v>
       </c>
       <c r="J20">
-        <v>5.01904350745668</v>
+        <v>4.91529625399378</v>
       </c>
       <c r="K20">
-        <v>0.863420255243769</v>
+        <v>0.824082769595171</v>
       </c>
       <c r="L20">
-        <v>7.53321756795486</v>
+        <v>7.46820072303981</v>
       </c>
       <c r="M20">
-        <v>19.0845088604578</v>
+        <v>18.1359374487843</v>
       </c>
       <c r="N20">
-        <v>5.93205476928064</v>
+        <v>5.79901739584643</v>
       </c>
       <c r="O20">
-        <v>613.982199771472</v>
+        <v>591.110629523795</v>
       </c>
       <c r="P20">
-        <v>21.62797337898</v>
+        <v>21.467385443121</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>979.098938522057</v>
+        <v>1011.38620899551</v>
       </c>
       <c r="C21">
-        <v>15.4424772690512</v>
+        <v>15.4605692296841</v>
       </c>
       <c r="D21">
-        <v>1.18419756334793</v>
+        <v>1.16965427204788</v>
       </c>
       <c r="E21">
-        <v>21.9059487033551</v>
+        <v>21.6379263341651</v>
       </c>
       <c r="F21">
-        <v>2.14404517175926</v>
+        <v>2.11084708632811</v>
       </c>
       <c r="G21">
-        <v>12.8593888303006</v>
+        <v>12.6503595257604</v>
       </c>
       <c r="H21">
-        <v>3.9658385900521</v>
+        <v>3.87322526592337</v>
       </c>
       <c r="I21">
-        <v>15.324548436291</v>
+        <v>15.3228300060667</v>
       </c>
       <c r="J21">
-        <v>13.4091998780884</v>
+        <v>13.2694358207574</v>
       </c>
       <c r="K21">
-        <v>0.72284780807761</v>
+        <v>0.707703482558225</v>
       </c>
       <c r="L21">
-        <v>28.0669250655871</v>
+        <v>27.7599835569859</v>
       </c>
       <c r="M21">
-        <v>17.7229513042661</v>
+        <v>17.3201750550913</v>
       </c>
       <c r="N21">
-        <v>16.6478350834464</v>
+        <v>16.6076810935679</v>
       </c>
       <c r="O21">
-        <v>2422.08262431284</v>
+        <v>2398.89704586989</v>
       </c>
       <c r="P21">
-        <v>18.9148664115272</v>
+        <v>18.9037964977112</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1123.9597549398</v>
+        <v>1166.64423283479</v>
       </c>
       <c r="C22">
-        <v>26.0014726277017</v>
+        <v>25.9742899113943</v>
       </c>
       <c r="D22">
-        <v>8.537324068152991</v>
+        <v>8.5237284445555</v>
       </c>
       <c r="E22">
-        <v>37.8033405754144</v>
+        <v>38.2583814528786</v>
       </c>
       <c r="F22">
-        <v>2.67199805598848</v>
+        <v>2.70542155038322</v>
       </c>
       <c r="G22">
-        <v>30.7416232365395</v>
+        <v>30.1375243516155</v>
       </c>
       <c r="H22">
-        <v>14.9798659170498</v>
+        <v>14.5821107382886</v>
       </c>
       <c r="I22">
-        <v>11.2750920103463</v>
+        <v>11.1812163769244</v>
       </c>
       <c r="J22">
-        <v>40.3555065877991</v>
+        <v>39.4148901117577</v>
       </c>
       <c r="K22">
-        <v>3.06105350730527</v>
+        <v>3.09357581469697</v>
       </c>
       <c r="L22">
-        <v>93.0530986038646</v>
+        <v>91.1543885788231</v>
       </c>
       <c r="M22">
-        <v>18.0294917168874</v>
+        <v>17.4024051111971</v>
       </c>
       <c r="N22">
-        <v>56.6102331035713</v>
+        <v>55.6560160754276</v>
       </c>
       <c r="O22">
-        <v>2757.52454142244</v>
+        <v>2731.25234857602</v>
       </c>
       <c r="P22">
-        <v>13.678537266097</v>
+        <v>13.6192454787305</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2241.10489389201</v>
+        <v>2320.26096687038</v>
       </c>
       <c r="C23">
-        <v>31.7212059857915</v>
+        <v>31.3645295994292</v>
       </c>
       <c r="D23">
-        <v>6.63774914416509</v>
+        <v>6.49081881678447</v>
       </c>
       <c r="E23">
-        <v>54.4664566203412</v>
+        <v>54.2094782228247</v>
       </c>
       <c r="F23">
-        <v>5.63618433582682</v>
+        <v>5.50410382246948</v>
       </c>
       <c r="G23">
-        <v>51.1716162054909</v>
+        <v>49.6461129244013</v>
       </c>
       <c r="H23">
-        <v>52.7768289617923</v>
+        <v>51.5534516662775</v>
       </c>
       <c r="I23">
-        <v>23.9785721244407</v>
+        <v>23.4411765272031</v>
       </c>
       <c r="J23">
-        <v>109.897644879883</v>
+        <v>107.296483412971</v>
       </c>
       <c r="K23">
-        <v>64.7384947212206</v>
+        <v>62.2818174411705</v>
       </c>
       <c r="L23">
-        <v>32.8856750069695</v>
+        <v>31.8199526452725</v>
       </c>
       <c r="M23">
-        <v>538.778355027563</v>
+        <v>522.8241093019821</v>
       </c>
       <c r="N23">
-        <v>93.6684780812962</v>
+        <v>91.41326607466981</v>
       </c>
       <c r="O23">
-        <v>3497.17638042724</v>
+        <v>3434.01224814245</v>
       </c>
       <c r="P23">
-        <v>54.4034758154925</v>
+        <v>56.4669100742317</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>739.572873336599</v>
+        <v>771.1888394991941</v>
       </c>
       <c r="C24">
-        <v>42.2614610260366</v>
+        <v>43.3105155268671</v>
       </c>
       <c r="D24">
-        <v>7.40619994752858</v>
+        <v>7.29641172520097</v>
       </c>
       <c r="E24">
-        <v>53.7141180097094</v>
+        <v>53.8272235385755</v>
       </c>
       <c r="F24">
-        <v>11.4731440955621</v>
+        <v>11.576130244248</v>
       </c>
       <c r="G24">
-        <v>24.4147871857996</v>
+        <v>24.1971300284157</v>
       </c>
       <c r="H24">
-        <v>19.6591282398833</v>
+        <v>19.6680617294205</v>
       </c>
       <c r="I24">
-        <v>17.5721776542842</v>
+        <v>17.5875150772368</v>
       </c>
       <c r="J24">
-        <v>53.2223218737194</v>
+        <v>53.2989214098588</v>
       </c>
       <c r="K24">
-        <v>19.0737292542665</v>
+        <v>18.8300422021166</v>
       </c>
       <c r="L24">
-        <v>57.7196716217689</v>
+        <v>57.7717632109817</v>
       </c>
       <c r="M24">
-        <v>20.9756474423008</v>
+        <v>21.1641576297633</v>
       </c>
       <c r="N24">
-        <v>71.9773938887251</v>
+        <v>71.2494424577154</v>
       </c>
       <c r="O24">
-        <v>2123.00531851862</v>
+        <v>2098.02239659845</v>
       </c>
       <c r="P24">
-        <v>80.0859388543513</v>
+        <v>82.1818867671124</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>789.9245635274421</v>
+        <v>809.546678815007</v>
       </c>
       <c r="C25">
-        <v>43.8946838484697</v>
+        <v>41.1268349787582</v>
       </c>
       <c r="D25">
-        <v>12.3075898052491</v>
+        <v>12.1033592348626</v>
       </c>
       <c r="E25">
-        <v>47.8991315979759</v>
+        <v>45.3880728422276</v>
       </c>
       <c r="F25">
-        <v>18.8686820519315</v>
+        <v>17.5963052032672</v>
       </c>
       <c r="G25">
-        <v>13.9805827832213</v>
+        <v>13.3832658365322</v>
       </c>
       <c r="H25">
-        <v>8.5786126660132</v>
+        <v>8.27783466749907</v>
       </c>
       <c r="I25">
-        <v>3.80773821034988</v>
+        <v>3.67453276184441</v>
       </c>
       <c r="J25">
-        <v>9.1962524072325</v>
+        <v>9.002689834082419</v>
       </c>
       <c r="K25">
-        <v>7.95755276034708</v>
+        <v>7.64714217937422</v>
       </c>
       <c r="L25">
-        <v>8.2152104660421</v>
+        <v>8.04563189342081</v>
       </c>
       <c r="M25">
-        <v>35.3456827976406</v>
+        <v>34.4747566360464</v>
       </c>
       <c r="N25">
-        <v>43.0546997869842</v>
+        <v>43.3360874628394</v>
       </c>
       <c r="O25">
-        <v>1017.26301362456</v>
+        <v>975.966269024535</v>
       </c>
       <c r="P25">
-        <v>50.1892027663786</v>
+        <v>48.9853263680086</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1038.1629054848</v>
+        <v>1096.53928683667</v>
       </c>
       <c r="C26">
-        <v>56.5187977411128</v>
+        <v>56.1067149054278</v>
       </c>
       <c r="D26">
-        <v>2.42589474506579</v>
+        <v>2.4177126831328</v>
       </c>
       <c r="E26">
-        <v>47.8313435498234</v>
+        <v>48.9808542343413</v>
       </c>
       <c r="F26">
-        <v>6.76461860765761</v>
+        <v>6.97275208196763</v>
       </c>
       <c r="G26">
-        <v>40.9188077629219</v>
+        <v>39.7701987267651</v>
       </c>
       <c r="H26">
-        <v>13.0821193795053</v>
+        <v>13.0629179275046</v>
       </c>
       <c r="I26">
-        <v>13.6374233733574</v>
+        <v>13.2359841516693</v>
       </c>
       <c r="J26">
-        <v>36.0284560033508</v>
+        <v>35.4605749749857</v>
       </c>
       <c r="K26">
-        <v>9.16957787167402</v>
+        <v>9.039337233889411</v>
       </c>
       <c r="L26">
-        <v>28.1683163186586</v>
+        <v>28.590675265099</v>
       </c>
       <c r="M26">
-        <v>57.9096625949962</v>
+        <v>58.5119896043898</v>
       </c>
       <c r="N26">
-        <v>29.662677034893</v>
+        <v>29.5158642272321</v>
       </c>
       <c r="O26">
-        <v>2418.49852313912</v>
+        <v>2368.31484471525</v>
       </c>
       <c r="P26">
-        <v>53.9531333609422</v>
+        <v>56.4589859939283</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>215.315504147599</v>
+        <v>215.992760472422</v>
       </c>
       <c r="C27">
-        <v>2.19281630873138</v>
+        <v>2.0948064081121</v>
       </c>
       <c r="D27">
-        <v>1.78632598826011</v>
+        <v>1.71480127602222</v>
       </c>
       <c r="E27">
-        <v>13.2696178004794</v>
+        <v>12.5245578142176</v>
       </c>
       <c r="F27">
-        <v>8.61301841802719</v>
+        <v>8.164594418527321</v>
       </c>
       <c r="G27">
-        <v>0.792139405479503</v>
+        <v>0.76272395019208</v>
       </c>
       <c r="H27">
-        <v>0.190718666103993</v>
+        <v>0.176972375190926</v>
       </c>
       <c r="I27">
-        <v>3.38112867032612</v>
+        <v>3.076471101633</v>
       </c>
       <c r="J27">
-        <v>4.64296520596383</v>
+        <v>4.40202084653254</v>
       </c>
       <c r="K27">
-        <v>0.863553633407118</v>
+        <v>0.81211968332298</v>
       </c>
       <c r="L27">
-        <v>3.13236635102001</v>
+        <v>2.99607056325544</v>
       </c>
       <c r="M27">
-        <v>0.676425058876045</v>
+        <v>0.6433170768418161</v>
       </c>
       <c r="N27">
-        <v>4.37579292451783</v>
+        <v>4.10408373934985</v>
       </c>
       <c r="O27">
-        <v>471.428439344598</v>
+        <v>445.651528888761</v>
       </c>
       <c r="P27">
-        <v>52.2434529895002</v>
+        <v>50.8801315141266</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>245.826623591745</v>
+        <v>253.704696068156</v>
       </c>
       <c r="C28">
-        <v>40.2396735032125</v>
+        <v>39.2875387974756</v>
       </c>
       <c r="D28">
-        <v>2.00106134773355</v>
+        <v>1.80354183737761</v>
       </c>
       <c r="E28">
-        <v>8.022106966261051</v>
+        <v>7.86682638554975</v>
       </c>
       <c r="F28">
-        <v>0.468567306190948</v>
+        <v>0.449042387650612</v>
       </c>
       <c r="G28">
-        <v>5.52085777558143</v>
+        <v>5.22985296520444</v>
       </c>
       <c r="H28">
-        <v>6.56568799997554</v>
+        <v>6.39028225518725</v>
       </c>
       <c r="I28">
-        <v>3.83948754391255</v>
+        <v>3.67916110852523</v>
       </c>
       <c r="J28">
-        <v>18.6068833583947</v>
+        <v>18.1000813175348</v>
       </c>
       <c r="K28">
-        <v>13.0060719915749</v>
+        <v>12.597734137612</v>
       </c>
       <c r="L28">
-        <v>10.9304594736118</v>
+        <v>10.2639389550984</v>
       </c>
       <c r="M28">
-        <v>11.1600329028662</v>
+        <v>11.2642935627593</v>
       </c>
       <c r="N28">
-        <v>12.0729403663389</v>
+        <v>11.5504624934963</v>
       </c>
       <c r="O28">
-        <v>832.564236770737</v>
+        <v>798.831126261994</v>
       </c>
       <c r="P28">
-        <v>74.78175139787611</v>
+        <v>73.09793141546621</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>441.86606937037</v>
+        <v>453.356553364985</v>
       </c>
       <c r="C29">
-        <v>3.20404258229696</v>
+        <v>3.14962865902793</v>
       </c>
       <c r="D29">
-        <v>1.04524115080268</v>
+        <v>1.06034592781381</v>
       </c>
       <c r="E29">
-        <v>5.44105551377373</v>
+        <v>5.33385114350937</v>
       </c>
       <c r="F29">
-        <v>25.3134547512026</v>
+        <v>24.9502035881157</v>
       </c>
       <c r="G29">
-        <v>4.00634840757599</v>
+        <v>3.90160178656641</v>
       </c>
       <c r="H29">
-        <v>0.790106522507495</v>
+        <v>0.772222842966515</v>
       </c>
       <c r="I29">
-        <v>2.45123901859315</v>
+        <v>2.37912963285164</v>
       </c>
       <c r="J29">
-        <v>2.98163624340924</v>
+        <v>2.9307448922545</v>
       </c>
       <c r="K29">
-        <v>1.61077737883986</v>
+        <v>1.58043900586604</v>
       </c>
       <c r="L29">
-        <v>3.69741039762549</v>
+        <v>3.60901402842606</v>
       </c>
       <c r="M29">
-        <v>4.33754442228972</v>
+        <v>4.22538860463724</v>
       </c>
       <c r="N29">
-        <v>12.6445400419535</v>
+        <v>12.2897190918511</v>
       </c>
       <c r="O29">
-        <v>1165.05187839503</v>
+        <v>1131.78819356787</v>
       </c>
       <c r="P29">
-        <v>4.4309471907407</v>
+        <v>4.52144303900538</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>212.373225143874</v>
+        <v>214.529507190348</v>
       </c>
       <c r="C30">
-        <v>4.72302279912832</v>
+        <v>4.54704734022013</v>
       </c>
       <c r="D30">
-        <v>4.68313715729602</v>
+        <v>4.52007226959841</v>
       </c>
       <c r="E30">
-        <v>12.2821933774556</v>
+        <v>11.9131641564449</v>
       </c>
       <c r="F30">
-        <v>0.142709294950262</v>
+        <v>0.136786618336436</v>
       </c>
       <c r="G30">
-        <v>5.03869951189287</v>
+        <v>4.8334728319015</v>
       </c>
       <c r="H30">
-        <v>4.41656572302707</v>
+        <v>4.2326578842825</v>
       </c>
       <c r="I30">
-        <v>3.12805072940217</v>
+        <v>2.99174616190471</v>
       </c>
       <c r="J30">
-        <v>20.3239299377665</v>
+        <v>19.5264628502506</v>
       </c>
       <c r="K30">
-        <v>4.27272299922869</v>
+        <v>4.07113833143656</v>
       </c>
       <c r="L30">
-        <v>45.7654924662429</v>
+        <v>43.9800271976356</v>
       </c>
       <c r="M30">
-        <v>9.968104912736481</v>
+        <v>9.523441059791679</v>
       </c>
       <c r="N30">
-        <v>16.9220230423146</v>
+        <v>16.2831410467101</v>
       </c>
       <c r="O30">
-        <v>618.05893121298</v>
+        <v>594.999763071619</v>
       </c>
       <c r="P30">
-        <v>6.14655449838349</v>
+        <v>6.09245387129638</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1481.94977929125</v>
+        <v>1534.46376289613</v>
       </c>
       <c r="C31">
-        <v>57.0055530933942</v>
+        <v>56.5512425247741</v>
       </c>
       <c r="D31">
-        <v>8.999736125466979</v>
+        <v>9.007353839115799</v>
       </c>
       <c r="E31">
-        <v>31.9208587702941</v>
+        <v>32.2349836618848</v>
       </c>
       <c r="F31">
-        <v>1.21155232431409</v>
+        <v>1.23223504202748</v>
       </c>
       <c r="G31">
-        <v>111.100681881216</v>
+        <v>110.615954809095</v>
       </c>
       <c r="H31">
-        <v>10.1064797939799</v>
+        <v>10.0924638519668</v>
       </c>
       <c r="I31">
-        <v>9.338528951863751</v>
+        <v>9.345758897245121</v>
       </c>
       <c r="J31">
-        <v>27.3136552358474</v>
+        <v>27.336305786152</v>
       </c>
       <c r="K31">
-        <v>4.71153736254409</v>
+        <v>4.64636442802117</v>
       </c>
       <c r="L31">
-        <v>57.35251794066</v>
+        <v>56.5812863113632</v>
       </c>
       <c r="M31">
-        <v>20.0150732693147</v>
+        <v>19.9478327156282</v>
       </c>
       <c r="N31">
-        <v>77.68264881915201</v>
+        <v>77.12998671267179</v>
       </c>
       <c r="O31">
-        <v>3788.00262047741</v>
+        <v>3753.05852261175</v>
       </c>
       <c r="P31">
-        <v>17.823814868707</v>
+        <v>18.2049030692638</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>445.618398511945</v>
+        <v>457.878179829731</v>
       </c>
       <c r="C32">
-        <v>3.20066175133517</v>
+        <v>3.12229402294661</v>
       </c>
       <c r="D32">
-        <v>0.694184045316132</v>
+        <v>0.676728190008741</v>
       </c>
       <c r="E32">
-        <v>2.90087588962754</v>
+        <v>3.34413977925869</v>
       </c>
       <c r="F32">
-        <v>24.1096924255553</v>
+        <v>22.7879676487349</v>
       </c>
       <c r="G32">
-        <v>1.94726116454676</v>
+        <v>1.92440644061119</v>
       </c>
       <c r="H32">
-        <v>0.40176932530074</v>
+        <v>0.406020199942053</v>
       </c>
       <c r="I32">
-        <v>1.99772591143481</v>
+        <v>1.95027123970931</v>
       </c>
       <c r="J32">
-        <v>5.52944769912035</v>
+        <v>5.30286847132646</v>
       </c>
       <c r="K32">
-        <v>2.73798587508501</v>
+        <v>2.60254675948758</v>
       </c>
       <c r="L32">
-        <v>6.61327850835246</v>
+        <v>6.2042505896631</v>
       </c>
       <c r="M32">
-        <v>9.43929840296158</v>
+        <v>9.19142474712859</v>
       </c>
       <c r="N32">
-        <v>15.9567727292178</v>
+        <v>15.7377746459043</v>
       </c>
       <c r="O32">
-        <v>806.898475616654</v>
+        <v>786.631075028599</v>
       </c>
       <c r="P32">
-        <v>20.102538585789</v>
+        <v>19.8562875735562</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4020.45220493425</v>
+        <v>4164.54466667988</v>
       </c>
       <c r="C33">
-        <v>83.3653862722401</v>
+        <v>82.95580682512821</v>
       </c>
       <c r="D33">
-        <v>14.2826763670329</v>
+        <v>14.0832374241879</v>
       </c>
       <c r="E33">
-        <v>66.1861029545811</v>
+        <v>67.0850674112267</v>
       </c>
       <c r="F33">
-        <v>10.8006377718884</v>
+        <v>10.7623553950818</v>
       </c>
       <c r="G33">
-        <v>69.33153470384281</v>
+        <v>68.7116305679988</v>
       </c>
       <c r="H33">
-        <v>44.9666305903821</v>
+        <v>44.2950860309418</v>
       </c>
       <c r="I33">
-        <v>19.3310537328398</v>
+        <v>19.2061451753561</v>
       </c>
       <c r="J33">
-        <v>88.32622175008829</v>
+        <v>87.8742399262873</v>
       </c>
       <c r="K33">
-        <v>58.7792885051822</v>
+        <v>58.236894739642</v>
       </c>
       <c r="L33">
-        <v>103.319040039664</v>
+        <v>101.741552274516</v>
       </c>
       <c r="M33">
-        <v>54.2538272604597</v>
+        <v>53.5561185425576</v>
       </c>
       <c r="N33">
-        <v>139.18804853113</v>
+        <v>138.204856152775</v>
       </c>
       <c r="O33">
-        <v>7779.69441615502</v>
+        <v>7690.44981733919</v>
       </c>
       <c r="P33">
-        <v>59.4885595603457</v>
+        <v>61.5104433853552</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1802.5801913989</v>
+        <v>1864.05213720055</v>
       </c>
       <c r="C34">
-        <v>63.907249965361</v>
+        <v>62.5608186295528</v>
       </c>
       <c r="D34">
-        <v>84.5867881704374</v>
+        <v>84.0586469918146</v>
       </c>
       <c r="E34">
-        <v>62.1515556963591</v>
+        <v>62.1327710305595</v>
       </c>
       <c r="F34">
-        <v>2.52453874779854</v>
+        <v>2.46399994712077</v>
       </c>
       <c r="G34">
-        <v>46.4675835212199</v>
+        <v>45.2626509176957</v>
       </c>
       <c r="H34">
-        <v>45.0141714425686</v>
+        <v>44.0028913403355</v>
       </c>
       <c r="I34">
-        <v>13.9361193391965</v>
+        <v>13.9069756547672</v>
       </c>
       <c r="J34">
-        <v>44.1354299172045</v>
+        <v>43.6319656983643</v>
       </c>
       <c r="K34">
-        <v>7.86728312975565</v>
+        <v>7.73363339979767</v>
       </c>
       <c r="L34">
-        <v>114.077713840312</v>
+        <v>111.831823507101</v>
       </c>
       <c r="M34">
-        <v>33.5128426932839</v>
+        <v>33.708753731235</v>
       </c>
       <c r="N34">
-        <v>121.205263906634</v>
+        <v>120.100703577556</v>
       </c>
       <c r="O34">
-        <v>3334.15515380932</v>
+        <v>3287.02608467589</v>
       </c>
       <c r="P34">
-        <v>73.4403528577722</v>
+        <v>73.13096570261651</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>100.185257874447</v>
+        <v>103.440398820326</v>
       </c>
       <c r="C35">
-        <v>7.88456616174916</v>
+        <v>7.57265392995448</v>
       </c>
       <c r="D35">
-        <v>0.398192471538465</v>
+        <v>0.376101281193546</v>
       </c>
       <c r="E35">
-        <v>3.00385673224198</v>
+        <v>2.79848354959396</v>
       </c>
       <c r="F35">
-        <v>4.76032281697</v>
+        <v>4.54582306175231</v>
       </c>
       <c r="G35">
-        <v>0.351475181604624</v>
+        <v>0.325596892699522</v>
       </c>
       <c r="H35">
-        <v>1.16703879326931</v>
+        <v>1.08598877088693</v>
       </c>
       <c r="I35">
-        <v>1.10954930956113</v>
+        <v>1.04840251088</v>
       </c>
       <c r="J35">
-        <v>2.98385024463963</v>
+        <v>2.78392994530826</v>
       </c>
       <c r="K35">
-        <v>4.86097749672059</v>
+        <v>4.58655125444588</v>
       </c>
       <c r="L35">
-        <v>3.57002768554286</v>
+        <v>3.34547628858573</v>
       </c>
       <c r="M35">
-        <v>3.42078223528235</v>
+        <v>3.20801931978514</v>
       </c>
       <c r="N35">
-        <v>4.65788663232832</v>
+        <v>4.37731612911527</v>
       </c>
       <c r="O35">
-        <v>338.474393993261</v>
+        <v>320.626060913901</v>
       </c>
       <c r="P35">
-        <v>53.3179587137809</v>
+        <v>50.8901484476901</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2403.08970829148</v>
+        <v>2487.96237767449</v>
       </c>
       <c r="C36">
-        <v>79.3955577406787</v>
+        <v>79.2442691089056</v>
       </c>
       <c r="D36">
-        <v>7.71547078798729</v>
+        <v>7.69832112140884</v>
       </c>
       <c r="E36">
-        <v>141.140882633409</v>
+        <v>142.196194507724</v>
       </c>
       <c r="F36">
-        <v>27.7827848261121</v>
+        <v>26.3764299147313</v>
       </c>
       <c r="G36">
-        <v>93.21080770422741</v>
+        <v>91.3323679180531</v>
       </c>
       <c r="H36">
-        <v>72.9806995811752</v>
+        <v>72.33406810691071</v>
       </c>
       <c r="I36">
-        <v>37.2039609355979</v>
+        <v>36.7758123627947</v>
       </c>
       <c r="J36">
-        <v>213.076002691883</v>
+        <v>212.984651809579</v>
       </c>
       <c r="K36">
-        <v>56.997309671559</v>
+        <v>56.3160774827859</v>
       </c>
       <c r="L36">
-        <v>58.7245934139685</v>
+        <v>58.0789989731075</v>
       </c>
       <c r="M36">
-        <v>173.834159826939</v>
+        <v>173.550072428944</v>
       </c>
       <c r="N36">
-        <v>109.189590127823</v>
+        <v>107.8072957789</v>
       </c>
       <c r="O36">
-        <v>4349.41806871129</v>
+        <v>4271.3977425474</v>
       </c>
       <c r="P36">
-        <v>59.043366497471</v>
+        <v>59.9619737147489</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>759.077471160398</v>
+        <v>788.8832821547441</v>
       </c>
       <c r="C37">
-        <v>18.424280699074</v>
+        <v>18.3045455846299</v>
       </c>
       <c r="D37">
-        <v>3.02305790215385</v>
+        <v>2.98707810056698</v>
       </c>
       <c r="E37">
-        <v>17.7085275585757</v>
+        <v>17.5924332199373</v>
       </c>
       <c r="F37">
-        <v>38.5457796106392</v>
+        <v>38.2692491115896</v>
       </c>
       <c r="G37">
-        <v>6.08293012386462</v>
+        <v>6.03830481486955</v>
       </c>
       <c r="H37">
-        <v>24.1507369384061</v>
+        <v>23.6940555037948</v>
       </c>
       <c r="I37">
-        <v>7.00789562231106</v>
+        <v>6.90353901207524</v>
       </c>
       <c r="J37">
-        <v>29.3940981017282</v>
+        <v>29.5120323064484</v>
       </c>
       <c r="K37">
-        <v>5.48536603126224</v>
+        <v>5.42346694795548</v>
       </c>
       <c r="L37">
-        <v>18.4345832984423</v>
+        <v>18.1108385008502</v>
       </c>
       <c r="M37">
-        <v>34.6204273798667</v>
+        <v>34.7333517717564</v>
       </c>
       <c r="N37">
-        <v>18.1001434513333</v>
+        <v>17.9945593439777</v>
       </c>
       <c r="O37">
-        <v>1332.88219093923</v>
+        <v>1323.88045183302</v>
       </c>
       <c r="P37">
-        <v>56.0408512118476</v>
+        <v>56.1894769811699</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>753.713074106403</v>
+        <v>780.197288372327</v>
       </c>
       <c r="C38">
-        <v>23.7055023841999</v>
+        <v>23.4732352988278</v>
       </c>
       <c r="D38">
-        <v>2.81183091329588</v>
+        <v>2.7642022382761</v>
       </c>
       <c r="E38">
-        <v>42.6564797726612</v>
+        <v>44.0306707896819</v>
       </c>
       <c r="F38">
-        <v>1.86094774547556</v>
+        <v>1.8044558326809</v>
       </c>
       <c r="G38">
-        <v>9.325967343504381</v>
+        <v>9.08791822994262</v>
       </c>
       <c r="H38">
-        <v>1.88964258280705</v>
+        <v>1.82516648138853</v>
       </c>
       <c r="I38">
-        <v>2.91427782747647</v>
+        <v>2.86266005381405</v>
       </c>
       <c r="J38">
-        <v>37.7557113961401</v>
+        <v>36.6380771340492</v>
       </c>
       <c r="K38">
-        <v>2.87520204751419</v>
+        <v>2.89298669459271</v>
       </c>
       <c r="L38">
-        <v>80.5139896276247</v>
+        <v>78.4033205705354</v>
       </c>
       <c r="M38">
-        <v>21.9412373400688</v>
+        <v>21.4524615529888</v>
       </c>
       <c r="N38">
-        <v>38.7183907695121</v>
+        <v>38.3593668546253</v>
       </c>
       <c r="O38">
-        <v>1464.90848075839</v>
+        <v>1448.39144153534</v>
       </c>
       <c r="P38">
-        <v>64.920317955819</v>
+        <v>65.6701199090725</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2495.90189759629</v>
+        <v>2599.95847858431</v>
       </c>
       <c r="C39">
-        <v>97.73806589278681</v>
+        <v>95.44685873621511</v>
       </c>
       <c r="D39">
-        <v>30.0463376369586</v>
+        <v>29.5211575257478</v>
       </c>
       <c r="E39">
-        <v>121.973552977615</v>
+        <v>124.018651850507</v>
       </c>
       <c r="F39">
-        <v>28.1646393318107</v>
+        <v>28.1663763609933</v>
       </c>
       <c r="G39">
-        <v>112.779657010365</v>
+        <v>109.935948931432</v>
       </c>
       <c r="H39">
-        <v>49.9535329368471</v>
+        <v>50.4829815821126</v>
       </c>
       <c r="I39">
-        <v>26.6825057226573</v>
+        <v>26.6013001253395</v>
       </c>
       <c r="J39">
-        <v>196.007549304402</v>
+        <v>196.473507835567</v>
       </c>
       <c r="K39">
-        <v>43.0021163419483</v>
+        <v>42.1492274537503</v>
       </c>
       <c r="L39">
-        <v>113.830899286144</v>
+        <v>112.352559274901</v>
       </c>
       <c r="M39">
-        <v>78.11037381886381</v>
+        <v>77.97921555518541</v>
       </c>
       <c r="N39">
-        <v>129.480166389449</v>
+        <v>128.626293452213</v>
       </c>
       <c r="O39">
-        <v>5048.3333299773</v>
+        <v>4957.33763347673</v>
       </c>
       <c r="P39">
-        <v>60.828243877768</v>
+        <v>62.1966993324308</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>226.449668395488</v>
+        <v>227.974873502673</v>
       </c>
       <c r="C40">
-        <v>3.53063424227516</v>
+        <v>3.37559685397379</v>
       </c>
       <c r="D40">
-        <v>7.95236293883432</v>
+        <v>7.59599902283052</v>
       </c>
       <c r="E40">
-        <v>4.44192884571789</v>
+        <v>4.22557680819918</v>
       </c>
       <c r="F40">
-        <v>0.275181058490263</v>
+        <v>0.259928063523705</v>
       </c>
       <c r="G40">
-        <v>5.49029754430481</v>
+        <v>5.22051707105325</v>
       </c>
       <c r="H40">
-        <v>4.14108968868822</v>
+        <v>3.88057653992707</v>
       </c>
       <c r="I40">
-        <v>1.92227702225812</v>
+        <v>1.85427536718543</v>
       </c>
       <c r="J40">
-        <v>12.5919378856134</v>
+        <v>12.0105630680758</v>
       </c>
       <c r="K40">
-        <v>1.15253614653665</v>
+        <v>1.1089587779377</v>
       </c>
       <c r="L40">
-        <v>12.5121494779453</v>
+        <v>11.9090693626521</v>
       </c>
       <c r="M40">
-        <v>4.68302974150551</v>
+        <v>4.42548819046096</v>
       </c>
       <c r="N40">
-        <v>26.5409464603664</v>
+        <v>25.3678799364163</v>
       </c>
       <c r="O40">
-        <v>530.368610642277</v>
+        <v>502.891097379014</v>
       </c>
       <c r="P40">
-        <v>4.46653817680619</v>
+        <v>4.38268298188248</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>981.825413623222</v>
+        <v>1017.53974181673</v>
       </c>
       <c r="C41">
-        <v>14.3965903500848</v>
+        <v>14.651681393091</v>
       </c>
       <c r="D41">
-        <v>59.4882337234361</v>
+        <v>59.1400615965322</v>
       </c>
       <c r="E41">
-        <v>34.1081530368946</v>
+        <v>34.1994304848412</v>
       </c>
       <c r="F41">
-        <v>1.0439088151623</v>
+        <v>1.03545184517442</v>
       </c>
       <c r="G41">
-        <v>34.0895040367572</v>
+        <v>33.5773903381565</v>
       </c>
       <c r="H41">
-        <v>37.1281933662504</v>
+        <v>36.3885782450581</v>
       </c>
       <c r="I41">
-        <v>11.7972356916494</v>
+        <v>11.5535185235706</v>
       </c>
       <c r="J41">
-        <v>39.1303701060878</v>
+        <v>38.5445973034442</v>
       </c>
       <c r="K41">
-        <v>8.50998293364167</v>
+        <v>8.36296154842343</v>
       </c>
       <c r="L41">
-        <v>26.1352040856234</v>
+        <v>25.4809761017349</v>
       </c>
       <c r="M41">
-        <v>33.752534123745</v>
+        <v>33.3298326996837</v>
       </c>
       <c r="N41">
-        <v>17.5344780783093</v>
+        <v>17.1865357095098</v>
       </c>
       <c r="O41">
-        <v>1582.57287565061</v>
+        <v>1565.16030222875</v>
       </c>
       <c r="P41">
-        <v>28.863287316346</v>
+        <v>28.8047955020496</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>132.514426490261</v>
+        <v>131.654294976049</v>
       </c>
       <c r="C42">
-        <v>9.01960665937604</v>
+        <v>8.57454603677175</v>
       </c>
       <c r="D42">
-        <v>1.5261933695118</v>
+        <v>1.41974312623027</v>
       </c>
       <c r="E42">
-        <v>9.152410031184481</v>
+        <v>8.66617450791828</v>
       </c>
       <c r="F42">
-        <v>2.85902854304946</v>
+        <v>2.64422187047333</v>
       </c>
       <c r="G42">
-        <v>2.28285067078683</v>
+        <v>2.1061719160404</v>
       </c>
       <c r="H42">
-        <v>1.23434333256458</v>
+        <v>1.1494407049454</v>
       </c>
       <c r="I42">
-        <v>2.49198414742231</v>
+        <v>2.30923955563606</v>
       </c>
       <c r="J42">
-        <v>8.13808818675151</v>
+        <v>7.51314550435129</v>
       </c>
       <c r="K42">
-        <v>5.10971696924472</v>
+        <v>4.77235228793358</v>
       </c>
       <c r="L42">
-        <v>6.67225813012083</v>
+        <v>6.14058231732253</v>
       </c>
       <c r="M42">
-        <v>4.96685988045856</v>
+        <v>4.60320819832799</v>
       </c>
       <c r="N42">
-        <v>13.6751053446914</v>
+        <v>12.9617585252059</v>
       </c>
       <c r="O42">
-        <v>436.135879499628</v>
+        <v>399.234832357073</v>
       </c>
       <c r="P42">
-        <v>60.607964133354</v>
+        <v>58.0376521501711</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1430.87470391924</v>
+        <v>1489.9990559729</v>
       </c>
       <c r="C43">
-        <v>37.5994619463214</v>
+        <v>38.2003804225963</v>
       </c>
       <c r="D43">
-        <v>24.5635929937792</v>
+        <v>24.5825349718949</v>
       </c>
       <c r="E43">
-        <v>70.5642709037662</v>
+        <v>71.0229267085717</v>
       </c>
       <c r="F43">
-        <v>6.78997731628879</v>
+        <v>6.48959124060184</v>
       </c>
       <c r="G43">
-        <v>33.1399673230168</v>
+        <v>32.4180132581753</v>
       </c>
       <c r="H43">
-        <v>45.969411603554</v>
+        <v>46.1247228820224</v>
       </c>
       <c r="I43">
-        <v>10.6899653194502</v>
+        <v>9.94799972299732</v>
       </c>
       <c r="J43">
-        <v>56.9607595203409</v>
+        <v>57.449789057217</v>
       </c>
       <c r="K43">
-        <v>6.78663604596358</v>
+        <v>6.82152855483573</v>
       </c>
       <c r="L43">
-        <v>33.2178609406526</v>
+        <v>33.2868339272471</v>
       </c>
       <c r="M43">
-        <v>79.9540038045313</v>
+        <v>81.73046740829579</v>
       </c>
       <c r="N43">
-        <v>76.88249215853639</v>
+        <v>76.8942979922851</v>
       </c>
       <c r="O43">
-        <v>2215.05827111569</v>
+        <v>2170.5208877608</v>
       </c>
       <c r="P43">
-        <v>35.3723393428728</v>
+        <v>34.3266233823061</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4134.73949244256</v>
+        <v>4307.31151038306</v>
       </c>
       <c r="C44">
-        <v>150.591670557198</v>
+        <v>146.746938077118</v>
       </c>
       <c r="D44">
-        <v>18.0414813921477</v>
+        <v>17.8531792722282</v>
       </c>
       <c r="E44">
-        <v>90.97417977759871</v>
+        <v>91.7231717044001</v>
       </c>
       <c r="F44">
-        <v>255.748118194751</v>
+        <v>251.508359723394</v>
       </c>
       <c r="G44">
-        <v>128.381174259428</v>
+        <v>126.226870979133</v>
       </c>
       <c r="H44">
-        <v>31.1062743677465</v>
+        <v>31.0485150052795</v>
       </c>
       <c r="I44">
-        <v>39.3893066282188</v>
+        <v>39.207712997438</v>
       </c>
       <c r="J44">
-        <v>118.700385025717</v>
+        <v>118.533646913775</v>
       </c>
       <c r="K44">
-        <v>27.2693896743792</v>
+        <v>26.9945143755014</v>
       </c>
       <c r="L44">
-        <v>180.934268056542</v>
+        <v>178.949073150988</v>
       </c>
       <c r="M44">
-        <v>80.6272917877329</v>
+        <v>81.0494912750894</v>
       </c>
       <c r="N44">
-        <v>81.28827585829301</v>
+        <v>81.65182481563011</v>
       </c>
       <c r="O44">
-        <v>8532.622054030049</v>
+        <v>8484.95370250393</v>
       </c>
       <c r="P44">
-        <v>190.534055877698</v>
+        <v>187.928011470104</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>380.739883118363</v>
+        <v>391.152753096199</v>
       </c>
       <c r="C45">
-        <v>17.0193808544267</v>
+        <v>17.2093255228648</v>
       </c>
       <c r="D45">
-        <v>1.65465473448964</v>
+        <v>1.63866710935326</v>
       </c>
       <c r="E45">
-        <v>17.425009065923</v>
+        <v>17.7141043532328</v>
       </c>
       <c r="F45">
-        <v>27.2868656949033</v>
+        <v>26.7686649460846</v>
       </c>
       <c r="G45">
-        <v>8.496883128178411</v>
+        <v>8.361188582642759</v>
       </c>
       <c r="H45">
-        <v>0.901029071745417</v>
+        <v>0.883468509192866</v>
       </c>
       <c r="I45">
-        <v>2.89641852499916</v>
+        <v>2.85644974409246</v>
       </c>
       <c r="J45">
-        <v>24.4933873420776</v>
+        <v>23.856185388897</v>
       </c>
       <c r="K45">
-        <v>2.13583782993837</v>
+        <v>2.11739216152842</v>
       </c>
       <c r="L45">
-        <v>15.4111135475611</v>
+        <v>15.2360515340569</v>
       </c>
       <c r="M45">
-        <v>12.4223521191634</v>
+        <v>12.4392165411</v>
       </c>
       <c r="N45">
-        <v>33.2800124224826</v>
+        <v>33.1243535371569</v>
       </c>
       <c r="O45">
-        <v>933.363688355719</v>
+        <v>920.640688544812</v>
       </c>
       <c r="P45">
-        <v>17.8825965096878</v>
+        <v>18.2677564184679</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>116.858594706342</v>
+        <v>116.092503647482</v>
       </c>
       <c r="C46">
-        <v>6.36065033923044</v>
+        <v>6.02293747485899</v>
       </c>
       <c r="D46">
-        <v>0.833550805840733</v>
+        <v>0.7561668390629031</v>
       </c>
       <c r="E46">
-        <v>6.8873056873885</v>
+        <v>6.53183698232635</v>
       </c>
       <c r="F46">
-        <v>0.896072970325781</v>
+        <v>0.832684286889258</v>
       </c>
       <c r="G46">
-        <v>1.58364634410972</v>
+        <v>1.45489196563324</v>
       </c>
       <c r="H46">
-        <v>1.10735107436386</v>
+        <v>1.01228156514757</v>
       </c>
       <c r="I46">
-        <v>1.84513950889078</v>
+        <v>1.68624395258799</v>
       </c>
       <c r="J46">
-        <v>5.59557227095896</v>
+        <v>5.30138138756026</v>
       </c>
       <c r="K46">
-        <v>1.50240788092031</v>
+        <v>1.39898286417263</v>
       </c>
       <c r="L46">
-        <v>15.6611767735415</v>
+        <v>14.463505949781</v>
       </c>
       <c r="M46">
-        <v>3.66881663195117</v>
+        <v>3.50057627450468</v>
       </c>
       <c r="N46">
-        <v>12.374515041655</v>
+        <v>11.565031726526</v>
       </c>
       <c r="O46">
-        <v>365.446820358983</v>
+        <v>341.628719383475</v>
       </c>
       <c r="P46">
-        <v>9.285492108470329</v>
+        <v>9.019115093358749</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1402.14219077111</v>
+        <v>1454.92788824903</v>
       </c>
       <c r="C47">
-        <v>46.6716736860712</v>
+        <v>45.4989190692253</v>
       </c>
       <c r="D47">
-        <v>9.224974785856119</v>
+        <v>9.340861577760659</v>
       </c>
       <c r="E47">
-        <v>41.8510516317542</v>
+        <v>42.292506083392</v>
       </c>
       <c r="F47">
-        <v>9.47588151864022</v>
+        <v>9.49436084970316</v>
       </c>
       <c r="G47">
-        <v>23.692144363516</v>
+        <v>23.4832381523202</v>
       </c>
       <c r="H47">
-        <v>15.4276308088008</v>
+        <v>15.3830569773598</v>
       </c>
       <c r="I47">
-        <v>7.93819238494535</v>
+        <v>7.90208576666868</v>
       </c>
       <c r="J47">
-        <v>30.9734144837594</v>
+        <v>30.4852413617032</v>
       </c>
       <c r="K47">
-        <v>4.34662681768477</v>
+        <v>4.32928045689399</v>
       </c>
       <c r="L47">
-        <v>24.1499550667211</v>
+        <v>23.8081540043141</v>
       </c>
       <c r="M47">
-        <v>63.3203614008773</v>
+        <v>62.55892034115</v>
       </c>
       <c r="N47">
-        <v>25.0394581261239</v>
+        <v>25.1938923633415</v>
       </c>
       <c r="O47">
-        <v>3092.65381729136</v>
+        <v>3052.1783195223</v>
       </c>
       <c r="P47">
-        <v>41.272429016777</v>
+        <v>41.9688931341933</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1159.25821451334</v>
+        <v>1198.66202406356</v>
       </c>
       <c r="C48">
-        <v>35.0708544207193</v>
+        <v>35.4413178032862</v>
       </c>
       <c r="D48">
-        <v>7.21706053595252</v>
+        <v>7.07845662909017</v>
       </c>
       <c r="E48">
-        <v>64.75061425585911</v>
+        <v>64.01922591259501</v>
       </c>
       <c r="F48">
-        <v>11.4858011876883</v>
+        <v>11.3419542099116</v>
       </c>
       <c r="G48">
-        <v>7.64463782191747</v>
+        <v>7.59291097297919</v>
       </c>
       <c r="H48">
-        <v>8.489916383284591</v>
+        <v>8.452044607909309</v>
       </c>
       <c r="I48">
-        <v>8.556350995822539</v>
+        <v>8.412323881185881</v>
       </c>
       <c r="J48">
-        <v>34.1904678069849</v>
+        <v>34.2102695318534</v>
       </c>
       <c r="K48">
-        <v>6.08100608028811</v>
+        <v>6.13184449916314</v>
       </c>
       <c r="L48">
-        <v>51.5520178840842</v>
+        <v>50.9359407744126</v>
       </c>
       <c r="M48">
-        <v>152.888255980811</v>
+        <v>148.135712169276</v>
       </c>
       <c r="N48">
-        <v>45.3584242774748</v>
+        <v>45.4385983250164</v>
       </c>
       <c r="O48">
-        <v>2514.2013089116</v>
+        <v>2493.56692863177</v>
       </c>
       <c r="P48">
-        <v>84.2143817613087</v>
+        <v>84.9813754171244</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>684.662149480189</v>
+        <v>695.052065300771</v>
       </c>
       <c r="C49">
-        <v>5.24928480068978</v>
+        <v>5.09380021955819</v>
       </c>
       <c r="D49">
-        <v>0.612676109328959</v>
+        <v>0.553533057293181</v>
       </c>
       <c r="E49">
-        <v>23.820975750718</v>
+        <v>23.0541335123187</v>
       </c>
       <c r="F49">
-        <v>32.3300721722538</v>
+        <v>30.9345657100328</v>
       </c>
       <c r="G49">
-        <v>13.506828931397</v>
+        <v>13.0144036799903</v>
       </c>
       <c r="H49">
-        <v>6.68206366671973</v>
+        <v>6.55029154306233</v>
       </c>
       <c r="I49">
-        <v>3.01391861038108</v>
+        <v>2.85388041493207</v>
       </c>
       <c r="J49">
-        <v>22.9630924871582</v>
+        <v>21.8137204069861</v>
       </c>
       <c r="K49">
-        <v>2.7277249120743</v>
+        <v>2.59735433148152</v>
       </c>
       <c r="L49">
-        <v>1.99067935804498</v>
+        <v>1.90544520752839</v>
       </c>
       <c r="M49">
-        <v>4.23245411475297</v>
+        <v>4.0954647383261</v>
       </c>
       <c r="N49">
-        <v>8.39806992843822</v>
+        <v>8.24075521943403</v>
       </c>
       <c r="O49">
-        <v>680.945564213471</v>
+        <v>655.563329662872</v>
       </c>
       <c r="P49">
-        <v>9.250987633720429</v>
+        <v>9.17180553932713</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>886.2077276826281</v>
+        <v>924.307634558132</v>
       </c>
       <c r="C50">
-        <v>69.267206010911</v>
+        <v>69.6660917764402</v>
       </c>
       <c r="D50">
-        <v>6.75548542197826</v>
+        <v>6.53642886646014</v>
       </c>
       <c r="E50">
-        <v>124.966387404481</v>
+        <v>124.899711151383</v>
       </c>
       <c r="F50">
-        <v>1.69449175421477</v>
+        <v>1.65540641455386</v>
       </c>
       <c r="G50">
-        <v>29.799761090156</v>
+        <v>28.4744414485679</v>
       </c>
       <c r="H50">
-        <v>47.6474303266139</v>
+        <v>46.7430958135024</v>
       </c>
       <c r="I50">
-        <v>11.6623862586423</v>
+        <v>11.4328325682063</v>
       </c>
       <c r="J50">
-        <v>79.81489150649929</v>
+        <v>79.1994051010424</v>
       </c>
       <c r="K50">
-        <v>47.971610377241</v>
+        <v>46.9105266439814</v>
       </c>
       <c r="L50">
-        <v>66.8866928612767</v>
+        <v>65.9352874153212</v>
       </c>
       <c r="M50">
-        <v>58.0140886229842</v>
+        <v>57.3949642373517</v>
       </c>
       <c r="N50">
-        <v>51.8144927728543</v>
+        <v>51.0178093257853</v>
       </c>
       <c r="O50">
-        <v>2226.15385002437</v>
+        <v>2186.43796163372</v>
       </c>
       <c r="P50">
-        <v>85.26520180554</v>
+        <v>89.414237267427</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>119.902749668441</v>
+        <v>113.976116426942</v>
       </c>
       <c r="C51">
-        <v>2.31917384871571</v>
+        <v>2.06215974138936</v>
       </c>
       <c r="D51">
-        <v>0.0679193972406746</v>
+        <v>0.0615094639378128</v>
       </c>
       <c r="E51">
-        <v>2.57025297152022</v>
+        <v>2.38860104220151</v>
       </c>
       <c r="F51">
-        <v>43.3187749598719</v>
+        <v>39.6420534184754</v>
       </c>
       <c r="G51">
-        <v>2.71283336327541</v>
+        <v>2.57343858682556</v>
       </c>
       <c r="H51">
-        <v>0.151745370484423</v>
+        <v>0.136835994107572</v>
       </c>
       <c r="I51">
-        <v>1.65017277016375</v>
+        <v>1.51212142867537</v>
       </c>
       <c r="J51">
-        <v>1.74020627401023</v>
+        <v>1.56652510227451</v>
       </c>
       <c r="K51">
-        <v>1.60696401184001</v>
+        <v>1.43349700234971</v>
       </c>
       <c r="L51">
-        <v>1.2336853674847</v>
+        <v>1.13244870185749</v>
       </c>
       <c r="M51">
-        <v>0.472281993780648</v>
+        <v>0.442759216916236</v>
       </c>
       <c r="N51">
-        <v>1.04008985444366</v>
+        <v>0.976662333022769</v>
       </c>
       <c r="O51">
-        <v>336.394973737155</v>
+        <v>304.053506702618</v>
       </c>
       <c r="P51">
-        <v>34.9716015755495</v>
+        <v>31.941446545702</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1299.32498164625</v>
+        <v>1299.32570830484</v>
       </c>
       <c r="C2">
-        <v>23.1082986958734</v>
+        <v>23.108309791097</v>
       </c>
       <c r="D2">
-        <v>26.1039768001382</v>
+        <v>26.1039327079355</v>
       </c>
       <c r="E2">
-        <v>52.7447576927244</v>
+        <v>52.7448005381917</v>
       </c>
       <c r="F2">
-        <v>22.878075361328</v>
+        <v>22.8777078123299</v>
       </c>
       <c r="G2">
-        <v>19.6143409124101</v>
+        <v>19.6143231656324</v>
       </c>
       <c r="H2">
-        <v>14.3937568233739</v>
+        <v>14.3938235199481</v>
       </c>
       <c r="I2">
-        <v>11.31242970215</v>
+        <v>11.3124417469403</v>
       </c>
       <c r="J2">
-        <v>77.35024961408639</v>
+        <v>77.3502458393007</v>
       </c>
       <c r="K2">
-        <v>15.1462076897386</v>
+        <v>15.1460310678682</v>
       </c>
       <c r="L2">
-        <v>51.6390026306001</v>
+        <v>51.6387694613976</v>
       </c>
       <c r="M2">
-        <v>53.226696626576</v>
+        <v>53.2266635979035</v>
       </c>
       <c r="N2">
-        <v>24.500262911154</v>
+        <v>24.5002727145669</v>
       </c>
       <c r="O2">
-        <v>1494.04314421443</v>
+        <v>1494.04400609031</v>
       </c>
       <c r="P2">
-        <v>21.5410472647621</v>
+        <v>21.5410644937935</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>149.268984791324</v>
+        <v>149.254590515906</v>
       </c>
       <c r="C3">
-        <v>2.00187524236048</v>
+        <v>2.00160354277368</v>
       </c>
       <c r="D3">
-        <v>0.321539154805366</v>
+        <v>0.322972415354098</v>
       </c>
       <c r="E3">
-        <v>1.26310805017775</v>
+        <v>1.2629661470519</v>
       </c>
       <c r="F3">
-        <v>11.2897157861605</v>
+        <v>11.2882199230549</v>
       </c>
       <c r="G3">
-        <v>0.480436161418506</v>
+        <v>0.480334038258285</v>
       </c>
       <c r="H3">
-        <v>0.00763459223961553</v>
+        <v>0.00934456981688442</v>
       </c>
       <c r="I3">
-        <v>0.935792583863107</v>
+        <v>0.936941860852188</v>
       </c>
       <c r="J3">
-        <v>0.174394366485538</v>
+        <v>0.175745983537791</v>
       </c>
       <c r="K3">
-        <v>0.134256259207029</v>
+        <v>0.136289229501824</v>
       </c>
       <c r="L3">
-        <v>0.143403184123646</v>
+        <v>0.144545233323289</v>
       </c>
       <c r="M3">
-        <v>0.611126002286706</v>
+        <v>0.611084928519568</v>
       </c>
       <c r="N3">
-        <v>1.66679480014784</v>
+        <v>1.66667320260242</v>
       </c>
       <c r="O3">
-        <v>337.991758983327</v>
+        <v>337.96652304885</v>
       </c>
       <c r="P3">
-        <v>13.2474053802592</v>
+        <v>13.2456102631948</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1317.92872739965</v>
+        <v>1317.93138597617</v>
       </c>
       <c r="C4">
-        <v>13.2413551361201</v>
+        <v>13.2413849919072</v>
       </c>
       <c r="D4">
-        <v>4.64178253772414</v>
+        <v>4.64142915434264</v>
       </c>
       <c r="E4">
-        <v>13.1311113270959</v>
+        <v>13.1311451259639</v>
       </c>
       <c r="F4">
-        <v>11.0717220790726</v>
+        <v>11.0713384196449</v>
       </c>
       <c r="G4">
-        <v>8.63018201798004</v>
+        <v>8.63009725732668</v>
       </c>
       <c r="H4">
-        <v>7.54446311803117</v>
+        <v>7.53979808317989</v>
       </c>
       <c r="I4">
-        <v>6.1403014469335</v>
+        <v>6.14033930868478</v>
       </c>
       <c r="J4">
-        <v>34.9548414357149</v>
+        <v>34.9546820232913</v>
       </c>
       <c r="K4">
-        <v>3.84853032235475</v>
+        <v>3.84847695824122</v>
       </c>
       <c r="L4">
-        <v>61.4802457134637</v>
+        <v>61.4797395317644</v>
       </c>
       <c r="M4">
-        <v>38.4322758358802</v>
+        <v>38.4322905278761</v>
       </c>
       <c r="N4">
-        <v>30.700116097731</v>
+        <v>30.7000702941768</v>
       </c>
       <c r="O4">
-        <v>2296.30211244376</v>
+        <v>2296.30403101379</v>
       </c>
       <c r="P4">
-        <v>12.6372056859172</v>
+        <v>12.63727855429</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>684.424408657741</v>
+        <v>684.424779392948</v>
       </c>
       <c r="C5">
-        <v>46.0954387712154</v>
+        <v>46.0954553327477</v>
       </c>
       <c r="D5">
-        <v>10.1228158252188</v>
+        <v>10.1228139623685</v>
       </c>
       <c r="E5">
-        <v>26.2362126373188</v>
+        <v>26.236204750419</v>
       </c>
       <c r="F5">
-        <v>6.51158146312787</v>
+        <v>6.51145148213585</v>
       </c>
       <c r="G5">
-        <v>6.39776632187629</v>
+        <v>6.39777070482601</v>
       </c>
       <c r="H5">
-        <v>8.491724758564571</v>
+        <v>8.49186076085266</v>
       </c>
       <c r="I5">
-        <v>5.79798575489173</v>
+        <v>5.79799343685387</v>
       </c>
       <c r="J5">
-        <v>29.028335904573</v>
+        <v>29.0283853388224</v>
       </c>
       <c r="K5">
-        <v>4.34689723559867</v>
+        <v>4.34692235637483</v>
       </c>
       <c r="L5">
-        <v>11.090092917415</v>
+        <v>11.09006094483</v>
       </c>
       <c r="M5">
-        <v>18.1316074915374</v>
+        <v>18.1316302944829</v>
       </c>
       <c r="N5">
-        <v>26.9561415338371</v>
+        <v>26.9561353422825</v>
       </c>
       <c r="O5">
-        <v>1005.31330760505</v>
+        <v>1005.31387383953</v>
       </c>
       <c r="P5">
-        <v>53.19217663648</v>
+        <v>53.1921921047019</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7116.58250537916</v>
+        <v>7116.58975297197</v>
       </c>
       <c r="C6">
-        <v>199.083792173471</v>
+        <v>199.084039711696</v>
       </c>
       <c r="D6">
-        <v>35.8876632805067</v>
+        <v>35.8872091255167</v>
       </c>
       <c r="E6">
-        <v>167.866275931467</v>
+        <v>167.866031635482</v>
       </c>
       <c r="F6">
-        <v>47.0176642973901</v>
+        <v>47.0154526221541</v>
       </c>
       <c r="G6">
-        <v>100.491920542576</v>
+        <v>100.491584303674</v>
       </c>
       <c r="H6">
-        <v>46.0410244442708</v>
+        <v>46.0400796709924</v>
       </c>
       <c r="I6">
-        <v>35.9696292518034</v>
+        <v>35.9696181451388</v>
       </c>
       <c r="J6">
-        <v>163.137013444916</v>
+        <v>163.136253568133</v>
       </c>
       <c r="K6">
-        <v>41.8350658130933</v>
+        <v>41.8337373861155</v>
       </c>
       <c r="L6">
-        <v>409.961959155077</v>
+        <v>409.960700221849</v>
       </c>
       <c r="M6">
-        <v>234.707952282968</v>
+        <v>234.707642307851</v>
       </c>
       <c r="N6">
-        <v>294.930921595599</v>
+        <v>294.929963377304</v>
       </c>
       <c r="O6">
-        <v>13225.5082588616</v>
+        <v>13225.5172478474</v>
       </c>
       <c r="P6">
-        <v>274.674996936919</v>
+        <v>274.675516021527</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>752.408585352792</v>
+        <v>752.410842383431</v>
       </c>
       <c r="C7">
-        <v>42.0530784230654</v>
+        <v>42.0531600440134</v>
       </c>
       <c r="D7">
-        <v>4.21919414248525</v>
+        <v>4.2191245569578</v>
       </c>
       <c r="E7">
-        <v>18.8628145552914</v>
+        <v>18.8628199401066</v>
       </c>
       <c r="F7">
-        <v>18.180147287984</v>
+        <v>18.1798621163843</v>
       </c>
       <c r="G7">
-        <v>10.0670154065133</v>
+        <v>10.0666491611929</v>
       </c>
       <c r="H7">
-        <v>2.58508190388437</v>
+        <v>2.58502575815047</v>
       </c>
       <c r="I7">
-        <v>8.59318655369133</v>
+        <v>8.59325478544894</v>
       </c>
       <c r="J7">
-        <v>17.9207388061916</v>
+        <v>17.9206570978097</v>
       </c>
       <c r="K7">
-        <v>5.96742544462945</v>
+        <v>5.96737584161282</v>
       </c>
       <c r="L7">
-        <v>48.946396748693</v>
+        <v>48.9464274329966</v>
       </c>
       <c r="M7">
-        <v>17.3770458356014</v>
+        <v>17.3770693347533</v>
       </c>
       <c r="N7">
-        <v>19.2314800158155</v>
+        <v>19.2313317751761</v>
       </c>
       <c r="O7">
-        <v>1960.4526466852</v>
+        <v>1960.45581591689</v>
       </c>
       <c r="P7">
-        <v>31.6189725821889</v>
+        <v>31.6191618897084</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>615.618041220385</v>
+        <v>615.616643191622</v>
       </c>
       <c r="C8">
-        <v>13.2623187681804</v>
+        <v>13.2622924646086</v>
       </c>
       <c r="D8">
-        <v>2.37215711756793</v>
+        <v>2.37215150145327</v>
       </c>
       <c r="E8">
-        <v>22.2951107203474</v>
+        <v>22.2950426602472</v>
       </c>
       <c r="F8">
-        <v>2.5405187966705</v>
+        <v>2.54068320155151</v>
       </c>
       <c r="G8">
-        <v>20.6718619978675</v>
+        <v>20.6717654197344</v>
       </c>
       <c r="H8">
-        <v>7.38464941347383</v>
+        <v>7.38458555406936</v>
       </c>
       <c r="I8">
-        <v>7.60136470168748</v>
+        <v>7.60237791661634</v>
       </c>
       <c r="J8">
-        <v>41.5197708156274</v>
+        <v>41.5197276929449</v>
       </c>
       <c r="K8">
-        <v>8.750534363598129</v>
+        <v>8.75049748873586</v>
       </c>
       <c r="L8">
-        <v>39.0438750043007</v>
+        <v>39.0437269742888</v>
       </c>
       <c r="M8">
-        <v>50.8044367068639</v>
+        <v>50.8042114047787</v>
       </c>
       <c r="N8">
-        <v>31.6925022125624</v>
+        <v>31.6926896077641</v>
       </c>
       <c r="O8">
-        <v>1441.56590165988</v>
+        <v>1441.56456527389</v>
       </c>
       <c r="P8">
-        <v>9.10096259084982</v>
+        <v>9.100947772879261</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>204.917321331995</v>
+        <v>204.917401307406</v>
       </c>
       <c r="C9">
-        <v>9.25436799815081</v>
+        <v>9.254374861714091</v>
       </c>
       <c r="D9">
-        <v>1.9738927581261</v>
+        <v>1.97389890819502</v>
       </c>
       <c r="E9">
-        <v>5.08548222355281</v>
+        <v>5.08548973028481</v>
       </c>
       <c r="F9">
-        <v>0.66964518030001</v>
+        <v>0.6696041249413091</v>
       </c>
       <c r="G9">
-        <v>23.3080950428444</v>
+        <v>23.3081214803649</v>
       </c>
       <c r="H9">
-        <v>2.40066448685087</v>
+        <v>2.40067123984821</v>
       </c>
       <c r="I9">
-        <v>1.73851829124545</v>
+        <v>1.73848721821753</v>
       </c>
       <c r="J9">
-        <v>4.02968457943662</v>
+        <v>4.02969032463085</v>
       </c>
       <c r="K9">
-        <v>0.462983906827142</v>
+        <v>0.462982920368964</v>
       </c>
       <c r="L9">
-        <v>2.65095079786045</v>
+        <v>2.65095326555673</v>
       </c>
       <c r="M9">
-        <v>6.63607068885802</v>
+        <v>6.63606235213544</v>
       </c>
       <c r="N9">
-        <v>3.01917419034499</v>
+        <v>3.01917639029608</v>
       </c>
       <c r="O9">
-        <v>432.909948425746</v>
+        <v>432.910279815839</v>
       </c>
       <c r="P9">
-        <v>6.43699492922761</v>
+        <v>6.43700008074702</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3945.37108057988</v>
+        <v>3945.37389956259</v>
       </c>
       <c r="C10">
-        <v>63.1532678614498</v>
+        <v>63.1533209744779</v>
       </c>
       <c r="D10">
-        <v>9.586796834046339</v>
+        <v>9.58675371484853</v>
       </c>
       <c r="E10">
-        <v>59.3542222831237</v>
+        <v>59.3542763503495</v>
       </c>
       <c r="F10">
-        <v>8.180595983006031</v>
+        <v>8.178546126910961</v>
       </c>
       <c r="G10">
-        <v>37.9966064916397</v>
+        <v>37.9964017560743</v>
       </c>
       <c r="H10">
-        <v>14.841903086021</v>
+        <v>14.841796303714</v>
       </c>
       <c r="I10">
-        <v>22.4393400612578</v>
+        <v>22.4393044116964</v>
       </c>
       <c r="J10">
-        <v>60.5678899780409</v>
+        <v>60.5678150710543</v>
       </c>
       <c r="K10">
-        <v>5.82363839142693</v>
+        <v>5.82362967125087</v>
       </c>
       <c r="L10">
-        <v>65.4840954793299</v>
+        <v>65.4840978593266</v>
       </c>
       <c r="M10">
-        <v>74.3513409920961</v>
+        <v>74.3513656935405</v>
       </c>
       <c r="N10">
-        <v>100.823958859444</v>
+        <v>100.823916920231</v>
       </c>
       <c r="O10">
-        <v>7830.27297524044</v>
+        <v>7830.27602539276</v>
       </c>
       <c r="P10">
-        <v>64.25169086510771</v>
+        <v>64.2517909762262</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1899.61429002397</v>
+        <v>1899.61574504624</v>
       </c>
       <c r="C11">
-        <v>67.458374988628</v>
+        <v>67.45841297169321</v>
       </c>
       <c r="D11">
-        <v>132.672484871879</v>
+        <v>132.672396897762</v>
       </c>
       <c r="E11">
-        <v>88.8615296386852</v>
+        <v>88.8616121006477</v>
       </c>
       <c r="F11">
-        <v>14.1098017487801</v>
+        <v>14.1094241225132</v>
       </c>
       <c r="G11">
-        <v>20.6143148828971</v>
+        <v>20.6143217570675</v>
       </c>
       <c r="H11">
-        <v>26.9948659389283</v>
+        <v>26.9948940974751</v>
       </c>
       <c r="I11">
-        <v>11.3335985159396</v>
+        <v>11.3335590549718</v>
       </c>
       <c r="J11">
-        <v>38.3152871897641</v>
+        <v>38.3152821941159</v>
       </c>
       <c r="K11">
-        <v>6.45823006932345</v>
+        <v>6.45822229825875</v>
       </c>
       <c r="L11">
-        <v>42.2757473062798</v>
+        <v>42.2757430843511</v>
       </c>
       <c r="M11">
-        <v>56.0168657434048</v>
+        <v>56.0168843240372</v>
       </c>
       <c r="N11">
-        <v>66.08870160059971</v>
+        <v>66.0887427137225</v>
       </c>
       <c r="O11">
-        <v>3329.69258146964</v>
+        <v>3329.69479811123</v>
       </c>
       <c r="P11">
-        <v>50.2389732323744</v>
+        <v>50.2390163345991</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>264.924375259762</v>
+        <v>264.908741936989</v>
       </c>
       <c r="C12">
-        <v>5.82051508323862</v>
+        <v>5.82016493319669</v>
       </c>
       <c r="D12">
-        <v>0.562539594039051</v>
+        <v>0.562493980405824</v>
       </c>
       <c r="E12">
-        <v>3.66033227965459</v>
+        <v>3.66304254431914</v>
       </c>
       <c r="F12">
-        <v>0.812602667108308</v>
+        <v>0.813060949202821</v>
       </c>
       <c r="G12">
-        <v>0.282812313180795</v>
+        <v>0.282787077123563</v>
       </c>
       <c r="H12">
-        <v>0.104455178343213</v>
+        <v>0.108175783820481</v>
       </c>
       <c r="I12">
-        <v>0.787964398700247</v>
+        <v>0.787928903602487</v>
       </c>
       <c r="J12">
-        <v>1.51828970255366</v>
+        <v>1.51816627576006</v>
       </c>
       <c r="K12">
-        <v>0.22942028888929</v>
+        <v>0.232977147491329</v>
       </c>
       <c r="L12">
-        <v>0.0135758197033269</v>
+        <v>0.0140961090595915</v>
       </c>
       <c r="M12">
-        <v>2.62610452962747</v>
+        <v>2.62591315767</v>
       </c>
       <c r="N12">
-        <v>4.57750333814392</v>
+        <v>4.57947129421213</v>
       </c>
       <c r="O12">
-        <v>660.658185849261</v>
+        <v>660.640585631038</v>
       </c>
       <c r="P12">
-        <v>23.0538173844844</v>
+        <v>23.0521132732652</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>258.407879821623</v>
+        <v>258.396579800699</v>
       </c>
       <c r="C13">
-        <v>20.4898933523214</v>
+        <v>20.4903141071349</v>
       </c>
       <c r="D13">
-        <v>0.539222256839379</v>
+        <v>0.544417140061684</v>
       </c>
       <c r="E13">
-        <v>13.0311272967432</v>
+        <v>13.0309177699385</v>
       </c>
       <c r="F13">
-        <v>3.3347098457165</v>
+        <v>3.33437402507855</v>
       </c>
       <c r="G13">
-        <v>7.35847802650751</v>
+        <v>7.35843175469355</v>
       </c>
       <c r="H13">
-        <v>2.35620773704577</v>
+        <v>2.36111180422547</v>
       </c>
       <c r="I13">
-        <v>2.5591875559653</v>
+        <v>2.56312731940881</v>
       </c>
       <c r="J13">
-        <v>5.71680780205268</v>
+        <v>5.71733622104</v>
       </c>
       <c r="K13">
-        <v>4.57743401502298</v>
+        <v>4.58947692624117</v>
       </c>
       <c r="L13">
-        <v>17.1325288324322</v>
+        <v>17.1318867424592</v>
       </c>
       <c r="M13">
-        <v>2.1548237962853</v>
+        <v>2.15472273758373</v>
       </c>
       <c r="N13">
-        <v>4.62336212205786</v>
+        <v>4.62340437033681</v>
       </c>
       <c r="O13">
-        <v>614.270428090314</v>
+        <v>614.253742827484</v>
       </c>
       <c r="P13">
-        <v>46.0262345074046</v>
+        <v>46.0250104411324</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2424.49927140263</v>
+        <v>2424.50041841847</v>
       </c>
       <c r="C14">
-        <v>119.200766056285</v>
+        <v>119.200791809733</v>
       </c>
       <c r="D14">
-        <v>8.890024925962241</v>
+        <v>8.889965218493551</v>
       </c>
       <c r="E14">
-        <v>90.55444741956291</v>
+        <v>90.55443827828449</v>
       </c>
       <c r="F14">
-        <v>21.1198065244576</v>
+        <v>21.1190883569644</v>
       </c>
       <c r="G14">
-        <v>82.82670291345561</v>
+        <v>82.82660084112619</v>
       </c>
       <c r="H14">
-        <v>42.4115787133865</v>
+        <v>42.4115553490375</v>
       </c>
       <c r="I14">
-        <v>21.4492251731969</v>
+        <v>21.4492335007408</v>
       </c>
       <c r="J14">
-        <v>126.086352942142</v>
+        <v>126.086264231409</v>
       </c>
       <c r="K14">
-        <v>67.3744738574223</v>
+        <v>67.3743631466407</v>
       </c>
       <c r="L14">
-        <v>100.20614129556</v>
+        <v>100.206076513461</v>
       </c>
       <c r="M14">
-        <v>89.1166599103575</v>
+        <v>89.11659215817841</v>
       </c>
       <c r="N14">
-        <v>63.5358267047067</v>
+        <v>63.5357184468635</v>
       </c>
       <c r="O14">
-        <v>5046.08384631747</v>
+        <v>5046.08541918577</v>
       </c>
       <c r="P14">
-        <v>54.600135605104</v>
+        <v>54.6001971890877</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1235.37018054031</v>
+        <v>1235.37048318978</v>
       </c>
       <c r="C15">
-        <v>63.7005334707207</v>
+        <v>63.7005436402146</v>
       </c>
       <c r="D15">
-        <v>4.72199561314726</v>
+        <v>4.72198966168338</v>
       </c>
       <c r="E15">
-        <v>71.1294162202623</v>
+        <v>71.1293762859768</v>
       </c>
       <c r="F15">
-        <v>20.0952259738624</v>
+        <v>20.0946251207673</v>
       </c>
       <c r="G15">
-        <v>54.4977691956008</v>
+        <v>54.4977559331424</v>
       </c>
       <c r="H15">
-        <v>37.7137150577058</v>
+        <v>37.7137479833158</v>
       </c>
       <c r="I15">
-        <v>23.6869234534496</v>
+        <v>23.6869141886522</v>
       </c>
       <c r="J15">
-        <v>146.925968738779</v>
+        <v>146.925951645887</v>
       </c>
       <c r="K15">
-        <v>33.8056200964996</v>
+        <v>33.8055665743174</v>
       </c>
       <c r="L15">
-        <v>41.8137760591985</v>
+        <v>41.8137730132279</v>
       </c>
       <c r="M15">
-        <v>163.119780543539</v>
+        <v>163.119764684001</v>
       </c>
       <c r="N15">
-        <v>87.3998483404731</v>
+        <v>87.39978553811321</v>
       </c>
       <c r="O15">
-        <v>2238.20197727012</v>
+        <v>2238.20265212844</v>
       </c>
       <c r="P15">
-        <v>45.0003887708804</v>
+        <v>45.00041310569</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>455.865907926469</v>
+        <v>455.866316251983</v>
       </c>
       <c r="C16">
-        <v>64.5739831311531</v>
+        <v>64.5739974423995</v>
       </c>
       <c r="D16">
-        <v>5.1624858266626</v>
+        <v>5.16242292989814</v>
       </c>
       <c r="E16">
-        <v>27.6820592924388</v>
+        <v>27.6821227621383</v>
       </c>
       <c r="F16">
-        <v>3.09823454527373</v>
+        <v>3.09800578522445</v>
       </c>
       <c r="G16">
-        <v>16.6971434656511</v>
+        <v>16.697142512271</v>
       </c>
       <c r="H16">
-        <v>18.3755690637088</v>
+        <v>18.3756690447417</v>
       </c>
       <c r="I16">
-        <v>5.36547280745207</v>
+        <v>5.36547047105107</v>
       </c>
       <c r="J16">
-        <v>44.3048559517441</v>
+        <v>44.3048762342923</v>
       </c>
       <c r="K16">
-        <v>43.6142832234496</v>
+        <v>43.6143063049964</v>
       </c>
       <c r="L16">
-        <v>18.695692940741</v>
+        <v>18.6956827551761</v>
       </c>
       <c r="M16">
-        <v>24.6617640933283</v>
+        <v>24.6617835693734</v>
       </c>
       <c r="N16">
-        <v>29.4883707389384</v>
+        <v>29.4883811925163</v>
       </c>
       <c r="O16">
-        <v>1294.06627843691</v>
+        <v>1294.06719917891</v>
       </c>
       <c r="P16">
-        <v>87.7546383058549</v>
+        <v>87.7547174564704</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>492.385747039927</v>
+        <v>492.386559681764</v>
       </c>
       <c r="C17">
-        <v>23.5969604082037</v>
+        <v>23.5969915312615</v>
       </c>
       <c r="D17">
-        <v>3.2377474351703</v>
+        <v>3.23743197553418</v>
       </c>
       <c r="E17">
-        <v>23.3270618234224</v>
+        <v>23.3271339477621</v>
       </c>
       <c r="F17">
-        <v>13.9790296634224</v>
+        <v>13.9787488748153</v>
       </c>
       <c r="G17">
-        <v>9.91210525899165</v>
+        <v>9.912092652719361</v>
       </c>
       <c r="H17">
-        <v>13.4631653338752</v>
+        <v>13.4632569803729</v>
       </c>
       <c r="I17">
-        <v>6.67539558717082</v>
+        <v>6.67543397960438</v>
       </c>
       <c r="J17">
-        <v>22.7471373429527</v>
+        <v>22.7471737282792</v>
       </c>
       <c r="K17">
-        <v>8.72611462640498</v>
+        <v>8.72610608063944</v>
       </c>
       <c r="L17">
-        <v>12.5540165728092</v>
+        <v>12.554013267609</v>
       </c>
       <c r="M17">
-        <v>64.15680709681931</v>
+        <v>64.1568030349633</v>
       </c>
       <c r="N17">
-        <v>11.222436908745</v>
+        <v>11.2223586996873</v>
       </c>
       <c r="O17">
-        <v>1132.13564721863</v>
+        <v>1132.13707371428</v>
       </c>
       <c r="P17">
-        <v>47.9449808984105</v>
+        <v>47.945053683311</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1131.90205074093</v>
+        <v>1131.90278000778</v>
       </c>
       <c r="C18">
-        <v>30.7132915482929</v>
+        <v>30.7133031150413</v>
       </c>
       <c r="D18">
-        <v>4.37774623261144</v>
+        <v>4.37775024160844</v>
       </c>
       <c r="E18">
-        <v>32.9798640062265</v>
+        <v>32.9799526085835</v>
       </c>
       <c r="F18">
-        <v>39.7421862500431</v>
+        <v>39.7418387908975</v>
       </c>
       <c r="G18">
-        <v>13.1484938177114</v>
+        <v>13.1484957175511</v>
       </c>
       <c r="H18">
-        <v>11.2679761626129</v>
+        <v>11.26802291702</v>
       </c>
       <c r="I18">
-        <v>4.0671024009915</v>
+        <v>4.067081631496</v>
       </c>
       <c r="J18">
-        <v>21.9880031518968</v>
+        <v>21.9880157456598</v>
       </c>
       <c r="K18">
-        <v>7.98163684266404</v>
+        <v>7.98164444245832</v>
       </c>
       <c r="L18">
-        <v>28.2339890175503</v>
+        <v>28.234031620352</v>
       </c>
       <c r="M18">
-        <v>66.9783894933327</v>
+        <v>66.97850545611649</v>
       </c>
       <c r="N18">
-        <v>27.2925364030235</v>
+        <v>27.2925869513427</v>
       </c>
       <c r="O18">
-        <v>1588.40803189605</v>
+        <v>1588.40907493115</v>
       </c>
       <c r="P18">
-        <v>62.1907564222368</v>
+        <v>62.1908100780093</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1053.27569576256</v>
+        <v>1053.27640106676</v>
       </c>
       <c r="C19">
-        <v>36.1953298274804</v>
+        <v>36.1953943323646</v>
       </c>
       <c r="D19">
-        <v>3.8892001761516</v>
+        <v>3.88911444582844</v>
       </c>
       <c r="E19">
-        <v>35.8099951032053</v>
+        <v>35.8104779305929</v>
       </c>
       <c r="F19">
-        <v>73.85865744726119</v>
+        <v>73.8583646408832</v>
       </c>
       <c r="G19">
-        <v>46.2117138074868</v>
+        <v>46.2116554958683</v>
       </c>
       <c r="H19">
-        <v>13.1004755757519</v>
+        <v>13.1004222504128</v>
       </c>
       <c r="I19">
-        <v>5.52150073628649</v>
+        <v>5.5215091344427</v>
       </c>
       <c r="J19">
-        <v>19.9879091417527</v>
+        <v>19.9878318239202</v>
       </c>
       <c r="K19">
-        <v>8.00371665371158</v>
+        <v>8.003555963911319</v>
       </c>
       <c r="L19">
-        <v>3.35280054594191</v>
+        <v>3.35279958987697</v>
       </c>
       <c r="M19">
-        <v>23.5722208000622</v>
+        <v>23.5722185448707</v>
       </c>
       <c r="N19">
-        <v>13.4340573674714</v>
+        <v>13.4340711764344</v>
       </c>
       <c r="O19">
-        <v>1627.26773688765</v>
+        <v>1627.2687333475</v>
       </c>
       <c r="P19">
-        <v>40.1865558323653</v>
+        <v>40.1867402113685</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>282.018650833325</v>
+        <v>282.018136446534</v>
       </c>
       <c r="C20">
-        <v>9.473017821670901</v>
+        <v>9.472997937584079</v>
       </c>
       <c r="D20">
-        <v>6.59265105026816</v>
+        <v>6.59259514429722</v>
       </c>
       <c r="E20">
-        <v>31.3430684501497</v>
+        <v>31.3430063088122</v>
       </c>
       <c r="F20">
-        <v>0.874751177669109</v>
+        <v>0.875636729991664</v>
       </c>
       <c r="G20">
-        <v>3.79622736490963</v>
+        <v>3.79672054487221</v>
       </c>
       <c r="H20">
-        <v>0.985514684517111</v>
+        <v>0.985626072227517</v>
       </c>
       <c r="I20">
-        <v>2.41379038638566</v>
+        <v>2.41379015289961</v>
       </c>
       <c r="J20">
-        <v>4.91529625399378</v>
+        <v>4.91526289629188</v>
       </c>
       <c r="K20">
-        <v>0.824082769595171</v>
+        <v>0.824068476833228</v>
       </c>
       <c r="L20">
-        <v>7.46820072303981</v>
+        <v>7.46813566861151</v>
       </c>
       <c r="M20">
-        <v>18.1359374487843</v>
+        <v>18.1358760513124</v>
       </c>
       <c r="N20">
-        <v>5.79901739584643</v>
+        <v>5.79900645303949</v>
       </c>
       <c r="O20">
-        <v>591.110629523795</v>
+        <v>591.110031692282</v>
       </c>
       <c r="P20">
-        <v>21.467385443121</v>
+        <v>21.4673261250075</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1011.38620899551</v>
+        <v>1011.38625624808</v>
       </c>
       <c r="C21">
-        <v>15.4605692296841</v>
+        <v>15.4605723693145</v>
       </c>
       <c r="D21">
-        <v>1.16965427204788</v>
+        <v>1.16964854136041</v>
       </c>
       <c r="E21">
-        <v>21.6379263341651</v>
+        <v>21.6381085676815</v>
       </c>
       <c r="F21">
-        <v>2.11084708632811</v>
+        <v>2.1133709614212</v>
       </c>
       <c r="G21">
-        <v>12.6503595257604</v>
+        <v>12.6503226257448</v>
       </c>
       <c r="H21">
-        <v>3.87322526592337</v>
+        <v>3.87315493160619</v>
       </c>
       <c r="I21">
-        <v>15.3228300060667</v>
+        <v>15.3227996463369</v>
       </c>
       <c r="J21">
-        <v>13.2694358207574</v>
+        <v>13.2693989067089</v>
       </c>
       <c r="K21">
-        <v>0.707703482558225</v>
+        <v>0.707685244017025</v>
       </c>
       <c r="L21">
-        <v>27.7599835569859</v>
+        <v>27.7599439423686</v>
       </c>
       <c r="M21">
-        <v>17.3201750550913</v>
+        <v>17.3201427132761</v>
       </c>
       <c r="N21">
-        <v>16.6076810935679</v>
+        <v>16.6076550920658</v>
       </c>
       <c r="O21">
-        <v>2398.89704586989</v>
+        <v>2398.89607188465</v>
       </c>
       <c r="P21">
-        <v>18.9037964977112</v>
+        <v>18.9038055876207</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1166.64423283479</v>
+        <v>1166.64528733863</v>
       </c>
       <c r="C22">
-        <v>25.9742899113943</v>
+        <v>25.9743228030188</v>
       </c>
       <c r="D22">
-        <v>8.5237284445555</v>
+        <v>8.523725787860061</v>
       </c>
       <c r="E22">
-        <v>38.2583814528786</v>
+        <v>38.2584040403248</v>
       </c>
       <c r="F22">
-        <v>2.70542155038322</v>
+        <v>2.70455676814936</v>
       </c>
       <c r="G22">
-        <v>30.1375243516155</v>
+        <v>30.1375061935356</v>
       </c>
       <c r="H22">
-        <v>14.5821107382886</v>
+        <v>14.5820329669882</v>
       </c>
       <c r="I22">
-        <v>11.1812163769244</v>
+        <v>11.1811799563697</v>
       </c>
       <c r="J22">
-        <v>39.4148901117577</v>
+        <v>39.4148181064722</v>
       </c>
       <c r="K22">
-        <v>3.09357581469697</v>
+        <v>3.09357432948062</v>
       </c>
       <c r="L22">
-        <v>91.1543885788231</v>
+        <v>91.1542116505539</v>
       </c>
       <c r="M22">
-        <v>17.4024051111971</v>
+        <v>17.4023696683527</v>
       </c>
       <c r="N22">
-        <v>55.6560160754276</v>
+        <v>55.6559982028609</v>
       </c>
       <c r="O22">
-        <v>2731.25234857602</v>
+        <v>2731.25382187707</v>
       </c>
       <c r="P22">
-        <v>13.6192454787305</v>
+        <v>13.619267627645</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2320.26096687038</v>
+        <v>2320.26118790916</v>
       </c>
       <c r="C23">
-        <v>31.3645295994292</v>
+        <v>31.3645411184609</v>
       </c>
       <c r="D23">
-        <v>6.49081881678447</v>
+        <v>6.4908140651408</v>
       </c>
       <c r="E23">
-        <v>54.2094782228247</v>
+        <v>54.2095233081194</v>
       </c>
       <c r="F23">
-        <v>5.50410382246948</v>
+        <v>5.50446310056117</v>
       </c>
       <c r="G23">
-        <v>49.6461129244013</v>
+        <v>49.6463716822264</v>
       </c>
       <c r="H23">
-        <v>51.5534516662775</v>
+        <v>51.5534658092264</v>
       </c>
       <c r="I23">
-        <v>23.4411765272031</v>
+        <v>23.4411795967461</v>
       </c>
       <c r="J23">
-        <v>107.296483412971</v>
+        <v>107.296460949766</v>
       </c>
       <c r="K23">
-        <v>62.2818174411705</v>
+        <v>62.2817377515858</v>
       </c>
       <c r="L23">
-        <v>31.8199526452725</v>
+        <v>31.8199459183134</v>
       </c>
       <c r="M23">
-        <v>522.8241093019821</v>
+        <v>522.824032701905</v>
       </c>
       <c r="N23">
-        <v>91.41326607466981</v>
+        <v>91.4132851783818</v>
       </c>
       <c r="O23">
-        <v>3434.01224814245</v>
+        <v>3434.01298065973</v>
       </c>
       <c r="P23">
-        <v>56.4669100742317</v>
+        <v>56.4669521842259</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>771.1888394991941</v>
+        <v>771.189724702961</v>
       </c>
       <c r="C24">
-        <v>43.3105155268671</v>
+        <v>43.3105009405358</v>
       </c>
       <c r="D24">
-        <v>7.29641172520097</v>
+        <v>7.29633870845217</v>
       </c>
       <c r="E24">
-        <v>53.8272235385755</v>
+        <v>53.8272091921999</v>
       </c>
       <c r="F24">
-        <v>11.576130244248</v>
+        <v>11.575747823321</v>
       </c>
       <c r="G24">
-        <v>24.1971300284157</v>
+        <v>24.1968548245255</v>
       </c>
       <c r="H24">
-        <v>19.6680617294205</v>
+        <v>19.6680865750594</v>
       </c>
       <c r="I24">
-        <v>17.5875150772368</v>
+        <v>17.5873750687843</v>
       </c>
       <c r="J24">
-        <v>53.2989214098588</v>
+        <v>53.2987997853454</v>
       </c>
       <c r="K24">
-        <v>18.8300422021166</v>
+        <v>18.8299319558338</v>
       </c>
       <c r="L24">
-        <v>57.7717632109817</v>
+        <v>57.7716515702449</v>
       </c>
       <c r="M24">
-        <v>21.1641576297633</v>
+        <v>21.1641413119412</v>
       </c>
       <c r="N24">
-        <v>71.2494424577154</v>
+        <v>71.2493750443372</v>
       </c>
       <c r="O24">
-        <v>2098.02239659845</v>
+        <v>2098.02395850012</v>
       </c>
       <c r="P24">
-        <v>82.1818867671124</v>
+        <v>82.1820307949952</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>809.546678815007</v>
+        <v>809.54707243908</v>
       </c>
       <c r="C25">
-        <v>41.1268349787582</v>
+        <v>41.126849180048</v>
       </c>
       <c r="D25">
-        <v>12.1033592348626</v>
+        <v>12.1032640537835</v>
       </c>
       <c r="E25">
-        <v>45.3880728422276</v>
+        <v>45.3880388269892</v>
       </c>
       <c r="F25">
-        <v>17.5963052032672</v>
+        <v>17.5961880043944</v>
       </c>
       <c r="G25">
-        <v>13.3832658365322</v>
+        <v>13.3832338519477</v>
       </c>
       <c r="H25">
-        <v>8.27783466749907</v>
+        <v>8.27787886871725</v>
       </c>
       <c r="I25">
-        <v>3.67453276184441</v>
+        <v>3.67453629486649</v>
       </c>
       <c r="J25">
-        <v>9.002689834082419</v>
+        <v>9.00268469190855</v>
       </c>
       <c r="K25">
-        <v>7.64714217937422</v>
+        <v>7.64711683090598</v>
       </c>
       <c r="L25">
-        <v>8.04563189342081</v>
+        <v>8.045620155850029</v>
       </c>
       <c r="M25">
-        <v>34.4747566360464</v>
+        <v>34.4747520896536</v>
       </c>
       <c r="N25">
-        <v>43.3360874628394</v>
+        <v>43.3360750514624</v>
       </c>
       <c r="O25">
-        <v>975.966269024535</v>
+        <v>975.966806812395</v>
       </c>
       <c r="P25">
-        <v>48.9853263680086</v>
+        <v>48.985354688326</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1096.53928683667</v>
+        <v>1096.53992081349</v>
       </c>
       <c r="C26">
-        <v>56.1067149054278</v>
+        <v>56.1067386771829</v>
       </c>
       <c r="D26">
-        <v>2.4177126831328</v>
+        <v>2.41769266287745</v>
       </c>
       <c r="E26">
-        <v>48.9808542343413</v>
+        <v>48.9808090677775</v>
       </c>
       <c r="F26">
-        <v>6.97275208196763</v>
+        <v>6.97245489483213</v>
       </c>
       <c r="G26">
-        <v>39.7701987267651</v>
+        <v>39.7701339265903</v>
       </c>
       <c r="H26">
-        <v>13.0629179275046</v>
+        <v>13.0629472696362</v>
       </c>
       <c r="I26">
-        <v>13.2359841516693</v>
+        <v>13.2359053727967</v>
       </c>
       <c r="J26">
-        <v>35.4605749749857</v>
+        <v>35.4605221632658</v>
       </c>
       <c r="K26">
-        <v>9.039337233889411</v>
+        <v>9.039250105710179</v>
       </c>
       <c r="L26">
-        <v>28.590675265099</v>
+        <v>28.5905987514515</v>
       </c>
       <c r="M26">
-        <v>58.5119896043898</v>
+        <v>58.5119088215906</v>
       </c>
       <c r="N26">
-        <v>29.5158642272321</v>
+        <v>29.5158526714458</v>
       </c>
       <c r="O26">
-        <v>2368.31484471525</v>
+        <v>2368.31601641333</v>
       </c>
       <c r="P26">
-        <v>56.4589859939283</v>
+        <v>56.4590669088309</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>215.992760472422</v>
+        <v>215.996807997368</v>
       </c>
       <c r="C27">
-        <v>2.0948064081121</v>
+        <v>2.09477459263485</v>
       </c>
       <c r="D27">
-        <v>1.71480127602222</v>
+        <v>1.71432539592243</v>
       </c>
       <c r="E27">
-        <v>12.5245578142176</v>
+        <v>12.5241475722006</v>
       </c>
       <c r="F27">
-        <v>8.164594418527321</v>
+        <v>8.16420362838829</v>
       </c>
       <c r="G27">
-        <v>0.76272395019208</v>
+        <v>0.762692956687533</v>
       </c>
       <c r="H27">
-        <v>0.176972375190926</v>
+        <v>0.179634284260036</v>
       </c>
       <c r="I27">
-        <v>3.076471101633</v>
+        <v>3.07643305379429</v>
       </c>
       <c r="J27">
-        <v>4.40202084653254</v>
+        <v>4.40184855505258</v>
       </c>
       <c r="K27">
-        <v>0.81211968332298</v>
+        <v>0.812103001620495</v>
       </c>
       <c r="L27">
-        <v>2.99607056325544</v>
+        <v>2.99595940371558</v>
       </c>
       <c r="M27">
-        <v>0.6433170768418161</v>
+        <v>0.643261734517695</v>
       </c>
       <c r="N27">
-        <v>4.10408373934985</v>
+        <v>4.10401130968545</v>
       </c>
       <c r="O27">
-        <v>445.651528888761</v>
+        <v>445.647226310227</v>
       </c>
       <c r="P27">
-        <v>50.8801315141266</v>
+        <v>50.8791057295806</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>253.704696068156</v>
+        <v>253.704520162913</v>
       </c>
       <c r="C28">
-        <v>39.2875387974756</v>
+        <v>39.2874858887611</v>
       </c>
       <c r="D28">
-        <v>1.80354183737761</v>
+        <v>1.80337893024024</v>
       </c>
       <c r="E28">
-        <v>7.86682638554975</v>
+        <v>7.86681194758042</v>
       </c>
       <c r="F28">
-        <v>0.449042387650612</v>
+        <v>0.450924986927209</v>
       </c>
       <c r="G28">
-        <v>5.22985296520444</v>
+        <v>5.22982363589541</v>
       </c>
       <c r="H28">
-        <v>6.39028225518725</v>
+        <v>6.39029427665394</v>
       </c>
       <c r="I28">
-        <v>3.67916110852523</v>
+        <v>3.67916652612821</v>
       </c>
       <c r="J28">
-        <v>18.1000813175348</v>
+        <v>18.1000422840507</v>
       </c>
       <c r="K28">
-        <v>12.597734137612</v>
+        <v>12.5976492232159</v>
       </c>
       <c r="L28">
-        <v>10.2639389550984</v>
+        <v>10.2639071501399</v>
       </c>
       <c r="M28">
-        <v>11.2642935627593</v>
+        <v>11.2642765705697</v>
       </c>
       <c r="N28">
-        <v>11.5504624934963</v>
+        <v>11.550434087171</v>
       </c>
       <c r="O28">
-        <v>798.831126261994</v>
+        <v>798.83009607613</v>
       </c>
       <c r="P28">
-        <v>73.09793141546621</v>
+        <v>73.09789584437471</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>453.356553364985</v>
+        <v>453.357481988383</v>
       </c>
       <c r="C29">
-        <v>3.14962865902793</v>
+        <v>3.14964330685611</v>
       </c>
       <c r="D29">
-        <v>1.06034592781381</v>
+        <v>1.06019647554318</v>
       </c>
       <c r="E29">
-        <v>5.33385114350937</v>
+        <v>5.33387708845054</v>
       </c>
       <c r="F29">
-        <v>24.9502035881157</v>
+        <v>24.9497528437991</v>
       </c>
       <c r="G29">
-        <v>3.90160178656641</v>
+        <v>3.9015157966632</v>
       </c>
       <c r="H29">
-        <v>0.772222842966515</v>
+        <v>0.772111799717397</v>
       </c>
       <c r="I29">
-        <v>2.37912963285164</v>
+        <v>2.37914131623852</v>
       </c>
       <c r="J29">
-        <v>2.9307448922545</v>
+        <v>2.93073754734503</v>
       </c>
       <c r="K29">
-        <v>1.58043900586604</v>
+        <v>1.58024309087385</v>
       </c>
       <c r="L29">
-        <v>3.60901402842606</v>
+        <v>3.60898394173688</v>
       </c>
       <c r="M29">
-        <v>4.22538860463724</v>
+        <v>4.22539191972707</v>
       </c>
       <c r="N29">
-        <v>12.2897190918511</v>
+        <v>12.2897388041154</v>
       </c>
       <c r="O29">
-        <v>1131.78819356787</v>
+        <v>1131.79020393817</v>
       </c>
       <c r="P29">
-        <v>4.52144303900538</v>
+        <v>4.52147769412784</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>214.529507190348</v>
+        <v>214.529759082286</v>
       </c>
       <c r="C30">
-        <v>4.54704734022013</v>
+        <v>4.5470481834221</v>
       </c>
       <c r="D30">
-        <v>4.52007226959841</v>
+        <v>4.52003962471241</v>
       </c>
       <c r="E30">
-        <v>11.9131641564449</v>
+        <v>11.9131774951972</v>
       </c>
       <c r="F30">
-        <v>0.136786618336436</v>
+        <v>0.136783619206243</v>
       </c>
       <c r="G30">
-        <v>4.8334728319015</v>
+        <v>4.83347720179009</v>
       </c>
       <c r="H30">
-        <v>4.2326578842825</v>
+        <v>4.23266186385161</v>
       </c>
       <c r="I30">
-        <v>2.99174616190471</v>
+        <v>2.99174848254817</v>
       </c>
       <c r="J30">
-        <v>19.5264628502506</v>
+        <v>19.5264680205649</v>
       </c>
       <c r="K30">
-        <v>4.07113833143656</v>
+        <v>4.07113252850819</v>
       </c>
       <c r="L30">
-        <v>43.9800271976356</v>
+        <v>43.980096224916</v>
       </c>
       <c r="M30">
-        <v>9.523441059791679</v>
+        <v>9.52345074457614</v>
       </c>
       <c r="N30">
-        <v>16.2831410467101</v>
+        <v>16.2831517787605</v>
       </c>
       <c r="O30">
-        <v>594.999763071619</v>
+        <v>595.000218284132</v>
       </c>
       <c r="P30">
-        <v>6.09245387129638</v>
+        <v>6.09246690917488</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1534.46376289613</v>
+        <v>1534.46331496211</v>
       </c>
       <c r="C31">
-        <v>56.5512425247741</v>
+        <v>56.5512075291842</v>
       </c>
       <c r="D31">
-        <v>9.007353839115799</v>
+        <v>9.00733100573339</v>
       </c>
       <c r="E31">
-        <v>32.2349836618848</v>
+        <v>32.2349483927928</v>
       </c>
       <c r="F31">
-        <v>1.23223504202748</v>
+        <v>1.23550290662473</v>
       </c>
       <c r="G31">
-        <v>110.615954809095</v>
+        <v>110.615354654749</v>
       </c>
       <c r="H31">
-        <v>10.0924638519668</v>
+        <v>10.0924524663478</v>
       </c>
       <c r="I31">
-        <v>9.345758897245121</v>
+        <v>9.3457478560328</v>
       </c>
       <c r="J31">
-        <v>27.336305786152</v>
+        <v>27.3362767935805</v>
       </c>
       <c r="K31">
-        <v>4.64636442802117</v>
+        <v>4.64633870040859</v>
       </c>
       <c r="L31">
-        <v>56.5812863113632</v>
+        <v>56.5812019040657</v>
       </c>
       <c r="M31">
-        <v>19.9478327156282</v>
+        <v>19.9478179058899</v>
       </c>
       <c r="N31">
-        <v>77.12998671267179</v>
+        <v>77.1298925855523</v>
       </c>
       <c r="O31">
-        <v>3753.05852261175</v>
+        <v>3753.05575135189</v>
       </c>
       <c r="P31">
-        <v>18.2049030692638</v>
+        <v>18.2049296485916</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>457.878179829731</v>
+        <v>457.871516244268</v>
       </c>
       <c r="C32">
-        <v>3.12229402294661</v>
+        <v>3.12221925512205</v>
       </c>
       <c r="D32">
-        <v>0.676728190008741</v>
+        <v>0.676646888873406</v>
       </c>
       <c r="E32">
-        <v>3.34413977925869</v>
+        <v>3.34401763296588</v>
       </c>
       <c r="F32">
-        <v>22.7879676487349</v>
+        <v>22.7883535053903</v>
       </c>
       <c r="G32">
-        <v>1.92440644061119</v>
+        <v>1.92659210807315</v>
       </c>
       <c r="H32">
-        <v>0.406020199942053</v>
+        <v>0.416159242762985</v>
       </c>
       <c r="I32">
-        <v>1.95027123970931</v>
+        <v>1.95023470056425</v>
       </c>
       <c r="J32">
-        <v>5.30286847132646</v>
+        <v>5.30262565778967</v>
       </c>
       <c r="K32">
-        <v>2.60254675948758</v>
+        <v>2.6023868078465</v>
       </c>
       <c r="L32">
-        <v>6.2042505896631</v>
+        <v>6.20399413263189</v>
       </c>
       <c r="M32">
-        <v>9.19142474712859</v>
+        <v>9.191174857445599</v>
       </c>
       <c r="N32">
-        <v>15.7377746459043</v>
+        <v>15.7374357618325</v>
       </c>
       <c r="O32">
-        <v>786.631075028599</v>
+        <v>786.617091676115</v>
       </c>
       <c r="P32">
-        <v>19.8562875735562</v>
+        <v>19.8558191909648</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4164.54466667988</v>
+        <v>4164.54661236651</v>
       </c>
       <c r="C33">
-        <v>82.95580682512821</v>
+        <v>82.9558575594526</v>
       </c>
       <c r="D33">
-        <v>14.0832374241879</v>
+        <v>14.0832242583255</v>
       </c>
       <c r="E33">
-        <v>67.0850674112267</v>
+        <v>67.0850815249255</v>
       </c>
       <c r="F33">
-        <v>10.7623553950818</v>
+        <v>10.7615355487113</v>
       </c>
       <c r="G33">
-        <v>68.7116305679988</v>
+        <v>68.7115738126321</v>
       </c>
       <c r="H33">
-        <v>44.2950860309418</v>
+        <v>44.2949216485627</v>
       </c>
       <c r="I33">
-        <v>19.2061451753561</v>
+        <v>19.2058759746726</v>
       </c>
       <c r="J33">
-        <v>87.8742399262873</v>
+        <v>87.87394397938451</v>
       </c>
       <c r="K33">
-        <v>58.236894739642</v>
+        <v>58.2366696444046</v>
       </c>
       <c r="L33">
-        <v>101.741552274516</v>
+        <v>101.741503141893</v>
       </c>
       <c r="M33">
-        <v>53.5561185425576</v>
+        <v>53.5561123931394</v>
       </c>
       <c r="N33">
-        <v>138.204856152775</v>
+        <v>138.20481416281</v>
       </c>
       <c r="O33">
-        <v>7690.44981733919</v>
+        <v>7690.45300914763</v>
       </c>
       <c r="P33">
-        <v>61.5104433853552</v>
+        <v>61.5104228300967</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1864.05213720055</v>
+        <v>1864.05032886389</v>
       </c>
       <c r="C34">
-        <v>62.5608186295528</v>
+        <v>62.5607383590094</v>
       </c>
       <c r="D34">
-        <v>84.0586469918146</v>
+        <v>84.05846703999801</v>
       </c>
       <c r="E34">
-        <v>62.1327710305595</v>
+        <v>62.1326957495268</v>
       </c>
       <c r="F34">
-        <v>2.46399994712077</v>
+        <v>2.47549808727039</v>
       </c>
       <c r="G34">
-        <v>45.2626509176957</v>
+        <v>45.2625921176606</v>
       </c>
       <c r="H34">
-        <v>44.0028913403355</v>
+        <v>44.0029970541726</v>
       </c>
       <c r="I34">
-        <v>13.9069756547672</v>
+        <v>13.9069535990675</v>
       </c>
       <c r="J34">
-        <v>43.6319656983643</v>
+        <v>43.6313283575183</v>
       </c>
       <c r="K34">
-        <v>7.73363339979767</v>
+        <v>7.73346415699568</v>
       </c>
       <c r="L34">
-        <v>111.831823507101</v>
+        <v>111.831443885092</v>
       </c>
       <c r="M34">
-        <v>33.708753731235</v>
+        <v>33.708602530449</v>
       </c>
       <c r="N34">
-        <v>120.100703577556</v>
+        <v>120.100344810734</v>
       </c>
       <c r="O34">
-        <v>3287.02608467589</v>
+        <v>3287.02175504612</v>
       </c>
       <c r="P34">
-        <v>73.13096570261651</v>
+        <v>73.1309057244022</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>103.440398820326</v>
+        <v>103.440161128097</v>
       </c>
       <c r="C35">
-        <v>7.57265392995448</v>
+        <v>7.5726112477504</v>
       </c>
       <c r="D35">
-        <v>0.376101281193546</v>
+        <v>0.37606968871738</v>
       </c>
       <c r="E35">
-        <v>2.79848354959396</v>
+        <v>2.7984629805676</v>
       </c>
       <c r="F35">
-        <v>4.54582306175231</v>
+        <v>4.5457398611188</v>
       </c>
       <c r="G35">
-        <v>0.325596892699522</v>
+        <v>0.326389855589828</v>
       </c>
       <c r="H35">
-        <v>1.08598877088693</v>
+        <v>1.08593543910567</v>
       </c>
       <c r="I35">
-        <v>1.04840251088</v>
+        <v>1.04839475939784</v>
       </c>
       <c r="J35">
-        <v>2.78392994530826</v>
+        <v>2.78389862800045</v>
       </c>
       <c r="K35">
-        <v>4.58655125444588</v>
+        <v>4.58645808282193</v>
       </c>
       <c r="L35">
-        <v>3.34547628858573</v>
+        <v>3.34544371889949</v>
       </c>
       <c r="M35">
-        <v>3.20801931978514</v>
+        <v>3.20796221481595</v>
       </c>
       <c r="N35">
-        <v>4.37731612911527</v>
+        <v>4.37727952177928</v>
       </c>
       <c r="O35">
-        <v>320.626060913901</v>
+        <v>320.625640794217</v>
       </c>
       <c r="P35">
-        <v>50.8901484476901</v>
+        <v>50.8899795297388</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2487.96237767449</v>
+        <v>2487.96337248469</v>
       </c>
       <c r="C36">
-        <v>79.2442691089056</v>
+        <v>79.2443029331958</v>
       </c>
       <c r="D36">
-        <v>7.69832112140884</v>
+        <v>7.69827897974705</v>
       </c>
       <c r="E36">
-        <v>142.196194507724</v>
+        <v>142.196178061197</v>
       </c>
       <c r="F36">
-        <v>26.3764299147313</v>
+        <v>26.3753312028422</v>
       </c>
       <c r="G36">
-        <v>91.3323679180531</v>
+        <v>91.3323093506723</v>
       </c>
       <c r="H36">
-        <v>72.33406810691071</v>
+        <v>72.3339636705588</v>
       </c>
       <c r="I36">
-        <v>36.7758123627947</v>
+        <v>36.775816720198</v>
       </c>
       <c r="J36">
-        <v>212.984651809579</v>
+        <v>212.984468667415</v>
       </c>
       <c r="K36">
-        <v>56.3160774827859</v>
+        <v>56.3158821885977</v>
       </c>
       <c r="L36">
-        <v>58.0789989731075</v>
+        <v>58.0789710360596</v>
       </c>
       <c r="M36">
-        <v>173.550072428944</v>
+        <v>173.549960647203</v>
       </c>
       <c r="N36">
-        <v>107.8072957789</v>
+        <v>107.807277191544</v>
       </c>
       <c r="O36">
-        <v>4271.3977425474</v>
+        <v>4271.39916694494</v>
       </c>
       <c r="P36">
-        <v>59.9619737147489</v>
+        <v>59.9620261711443</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>788.8832821547441</v>
+        <v>788.882437732858</v>
       </c>
       <c r="C37">
-        <v>18.3045455846299</v>
+        <v>18.3045164727352</v>
       </c>
       <c r="D37">
-        <v>2.98707810056698</v>
+        <v>2.98850008051154</v>
       </c>
       <c r="E37">
-        <v>17.5924332199373</v>
+        <v>17.5959207271092</v>
       </c>
       <c r="F37">
-        <v>38.2692491115896</v>
+        <v>38.2690364904175</v>
       </c>
       <c r="G37">
-        <v>6.03830481486955</v>
+        <v>6.03818277575768</v>
       </c>
       <c r="H37">
-        <v>23.6940555037948</v>
+        <v>23.6944809466994</v>
       </c>
       <c r="I37">
-        <v>6.90353901207524</v>
+        <v>6.90353118115555</v>
       </c>
       <c r="J37">
-        <v>29.5120323064484</v>
+        <v>29.5119596182512</v>
       </c>
       <c r="K37">
-        <v>5.42346694795548</v>
+        <v>5.42344921349144</v>
       </c>
       <c r="L37">
-        <v>18.1108385008502</v>
+        <v>18.1108059116566</v>
       </c>
       <c r="M37">
-        <v>34.7333517717564</v>
+        <v>34.733366887173</v>
       </c>
       <c r="N37">
-        <v>17.9945593439777</v>
+        <v>17.9946128167418</v>
       </c>
       <c r="O37">
-        <v>1323.88045183302</v>
+        <v>1323.87917830209</v>
       </c>
       <c r="P37">
-        <v>56.1894769811699</v>
+        <v>56.1894244650736</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>780.197288372327</v>
+        <v>780.1966572825</v>
       </c>
       <c r="C38">
-        <v>23.4732352988278</v>
+        <v>23.4732058594719</v>
       </c>
       <c r="D38">
-        <v>2.7642022382761</v>
+        <v>2.7641569786601</v>
       </c>
       <c r="E38">
-        <v>44.0306707896819</v>
+        <v>44.0306333118735</v>
       </c>
       <c r="F38">
-        <v>1.8044558326809</v>
+        <v>1.81121460013577</v>
       </c>
       <c r="G38">
-        <v>9.08791822994262</v>
+        <v>9.08767432721649</v>
       </c>
       <c r="H38">
-        <v>1.82516648138853</v>
+        <v>1.82507018687703</v>
       </c>
       <c r="I38">
-        <v>2.86266005381405</v>
+        <v>2.86273160780201</v>
       </c>
       <c r="J38">
-        <v>36.6380771340492</v>
+        <v>36.6377785276761</v>
       </c>
       <c r="K38">
-        <v>2.89298669459271</v>
+        <v>2.89296345073369</v>
       </c>
       <c r="L38">
-        <v>78.4033205705354</v>
+        <v>78.4029884052064</v>
       </c>
       <c r="M38">
-        <v>21.4524615529888</v>
+        <v>21.4522593695878</v>
       </c>
       <c r="N38">
-        <v>38.3593668546253</v>
+        <v>38.3590008438285</v>
       </c>
       <c r="O38">
-        <v>1448.39144153534</v>
+        <v>1448.39094337584</v>
       </c>
       <c r="P38">
-        <v>65.6701199090725</v>
+        <v>65.6701630536454</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2599.95847858431</v>
+        <v>2599.9596537928</v>
       </c>
       <c r="C39">
-        <v>95.44685873621511</v>
+        <v>95.4469101355385</v>
       </c>
       <c r="D39">
-        <v>29.5211575257478</v>
+        <v>29.5210595008971</v>
       </c>
       <c r="E39">
-        <v>124.018651850507</v>
+        <v>124.018670420837</v>
       </c>
       <c r="F39">
-        <v>28.1663763609933</v>
+        <v>28.1654156805578</v>
       </c>
       <c r="G39">
-        <v>109.935948931432</v>
+        <v>109.935868002377</v>
       </c>
       <c r="H39">
-        <v>50.4829815821126</v>
+        <v>50.482873329182</v>
       </c>
       <c r="I39">
-        <v>26.6013001253395</v>
+        <v>26.6012971791794</v>
       </c>
       <c r="J39">
-        <v>196.473507835567</v>
+        <v>196.473317806616</v>
       </c>
       <c r="K39">
-        <v>42.1492274537503</v>
+        <v>42.149079636773</v>
       </c>
       <c r="L39">
-        <v>112.352559274901</v>
+        <v>112.352472484178</v>
       </c>
       <c r="M39">
-        <v>77.97921555518541</v>
+        <v>77.9791824745095</v>
       </c>
       <c r="N39">
-        <v>128.626293452213</v>
+        <v>128.626198346056</v>
       </c>
       <c r="O39">
-        <v>4957.33763347673</v>
+        <v>4957.33978186356</v>
       </c>
       <c r="P39">
-        <v>62.1966993324308</v>
+        <v>62.1967543191305</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>227.974873502673</v>
+        <v>227.974919295447</v>
       </c>
       <c r="C40">
-        <v>3.37559685397379</v>
+        <v>3.37559751932735</v>
       </c>
       <c r="D40">
-        <v>7.59599902283052</v>
+        <v>7.59596891264124</v>
       </c>
       <c r="E40">
-        <v>4.22557680819918</v>
+        <v>4.2255790960106</v>
       </c>
       <c r="F40">
-        <v>0.259928063523705</v>
+        <v>0.260621498319465</v>
       </c>
       <c r="G40">
-        <v>5.22051707105325</v>
+        <v>5.22053461855992</v>
       </c>
       <c r="H40">
-        <v>3.88057653992707</v>
+        <v>3.88060261277755</v>
       </c>
       <c r="I40">
-        <v>1.85427536718543</v>
+        <v>1.85427652760624</v>
       </c>
       <c r="J40">
-        <v>12.0105630680758</v>
+        <v>12.0105513440731</v>
       </c>
       <c r="K40">
-        <v>1.1089587779377</v>
+        <v>1.1089553509864</v>
       </c>
       <c r="L40">
-        <v>11.9090693626521</v>
+        <v>11.9090565898004</v>
       </c>
       <c r="M40">
-        <v>4.42548819046096</v>
+        <v>4.42548578837098</v>
       </c>
       <c r="N40">
-        <v>25.3678799364163</v>
+        <v>25.3679060761484</v>
       </c>
       <c r="O40">
-        <v>502.891097379014</v>
+        <v>502.890890579664</v>
       </c>
       <c r="P40">
-        <v>4.38268298188248</v>
+        <v>4.3826865069165</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1017.53974181673</v>
+        <v>1017.53986528606</v>
       </c>
       <c r="C41">
-        <v>14.651681393091</v>
+        <v>14.6516577091342</v>
       </c>
       <c r="D41">
-        <v>59.1400615965322</v>
+        <v>59.139793809296</v>
       </c>
       <c r="E41">
-        <v>34.1994304848412</v>
+        <v>34.199329483476</v>
       </c>
       <c r="F41">
-        <v>1.03545184517442</v>
+        <v>1.03547862499987</v>
       </c>
       <c r="G41">
-        <v>33.5773903381565</v>
+        <v>33.5774951177946</v>
       </c>
       <c r="H41">
-        <v>36.3885782450581</v>
+        <v>36.3889942791653</v>
       </c>
       <c r="I41">
-        <v>11.5535185235706</v>
+        <v>11.5536694618022</v>
       </c>
       <c r="J41">
-        <v>38.5445973034442</v>
+        <v>38.547504002242</v>
       </c>
       <c r="K41">
-        <v>8.36296154842343</v>
+        <v>8.363022734039941</v>
       </c>
       <c r="L41">
-        <v>25.4809761017349</v>
+        <v>25.4809793270833</v>
       </c>
       <c r="M41">
-        <v>33.3298326996837</v>
+        <v>33.3300119854962</v>
       </c>
       <c r="N41">
-        <v>17.1865357095098</v>
+        <v>17.1865306826568</v>
       </c>
       <c r="O41">
-        <v>1565.16030222875</v>
+        <v>1565.16012805301</v>
       </c>
       <c r="P41">
-        <v>28.8047955020496</v>
+        <v>28.8047569437644</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>131.654294976049</v>
+        <v>131.654512947643</v>
       </c>
       <c r="C42">
-        <v>8.57454603677175</v>
+        <v>8.574557917227571</v>
       </c>
       <c r="D42">
-        <v>1.41974312623027</v>
+        <v>1.41960146580009</v>
       </c>
       <c r="E42">
-        <v>8.66617450791828</v>
+        <v>8.66625830219196</v>
       </c>
       <c r="F42">
-        <v>2.64422187047333</v>
+        <v>2.64417284110475</v>
       </c>
       <c r="G42">
-        <v>2.1061719160404</v>
+        <v>2.10621422894073</v>
       </c>
       <c r="H42">
-        <v>1.1494407049454</v>
+        <v>1.14952421632142</v>
       </c>
       <c r="I42">
-        <v>2.30923955563606</v>
+        <v>2.30924117185686</v>
       </c>
       <c r="J42">
-        <v>7.51314550435129</v>
+        <v>7.51318761851411</v>
       </c>
       <c r="K42">
-        <v>4.77235228793358</v>
+        <v>4.77236151290011</v>
       </c>
       <c r="L42">
-        <v>6.14058231732253</v>
+        <v>6.14058688022181</v>
       </c>
       <c r="M42">
-        <v>4.60320819832799</v>
+        <v>4.603219351513</v>
       </c>
       <c r="N42">
-        <v>12.9617585252059</v>
+        <v>12.9618289897194</v>
       </c>
       <c r="O42">
-        <v>399.234832357073</v>
+        <v>399.235432881738</v>
       </c>
       <c r="P42">
-        <v>58.0376521501711</v>
+        <v>58.0377347692902</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1489.9990559729</v>
+        <v>1489.99982659972</v>
       </c>
       <c r="C43">
-        <v>38.2003804225963</v>
+        <v>38.2004042273422</v>
       </c>
       <c r="D43">
-        <v>24.5825349718949</v>
+        <v>24.5823415512783</v>
       </c>
       <c r="E43">
-        <v>71.0229267085717</v>
+        <v>71.0229655368517</v>
       </c>
       <c r="F43">
-        <v>6.48959124060184</v>
+        <v>6.48914659087621</v>
       </c>
       <c r="G43">
-        <v>32.4180132581753</v>
+        <v>32.4176805177334</v>
       </c>
       <c r="H43">
-        <v>46.1247228820224</v>
+        <v>46.1244427927379</v>
       </c>
       <c r="I43">
-        <v>9.94799972299732</v>
+        <v>9.94797441858921</v>
       </c>
       <c r="J43">
-        <v>57.449789057217</v>
+        <v>57.4497228971521</v>
       </c>
       <c r="K43">
-        <v>6.82152855483573</v>
+        <v>6.82147091472058</v>
       </c>
       <c r="L43">
-        <v>33.2868339272471</v>
+        <v>33.2867769359271</v>
       </c>
       <c r="M43">
-        <v>81.73046740829579</v>
+        <v>81.7303797737452</v>
       </c>
       <c r="N43">
-        <v>76.8942979922851</v>
+        <v>76.8942178573901</v>
       </c>
       <c r="O43">
-        <v>2170.5208877608</v>
+        <v>2170.52194438867</v>
       </c>
       <c r="P43">
-        <v>34.3266233823061</v>
+        <v>34.3266660357013</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4307.31151038306</v>
+        <v>4307.31548576568</v>
       </c>
       <c r="C44">
-        <v>146.746938077118</v>
+        <v>146.747044647847</v>
       </c>
       <c r="D44">
-        <v>17.8531792722282</v>
+        <v>17.8528654318285</v>
       </c>
       <c r="E44">
-        <v>91.7231717044001</v>
+        <v>91.7229751515581</v>
       </c>
       <c r="F44">
-        <v>251.508359723394</v>
+        <v>251.506856506867</v>
       </c>
       <c r="G44">
-        <v>126.226870979133</v>
+        <v>126.22599398426</v>
       </c>
       <c r="H44">
-        <v>31.0485150052795</v>
+        <v>31.0482619284984</v>
       </c>
       <c r="I44">
-        <v>39.207712997438</v>
+        <v>39.2076682511016</v>
       </c>
       <c r="J44">
-        <v>118.533646913775</v>
+        <v>118.533387483167</v>
       </c>
       <c r="K44">
-        <v>26.9945143755014</v>
+        <v>26.9943049881869</v>
       </c>
       <c r="L44">
-        <v>178.949073150988</v>
+        <v>178.948795483711</v>
       </c>
       <c r="M44">
-        <v>81.0494912750894</v>
+        <v>81.0493103805382</v>
       </c>
       <c r="N44">
-        <v>81.65182481563011</v>
+        <v>81.6516421233875</v>
       </c>
       <c r="O44">
-        <v>8484.95370250393</v>
+        <v>8484.95882270139</v>
       </c>
       <c r="P44">
-        <v>187.928011470104</v>
+        <v>187.928310833579</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>391.152753096199</v>
+        <v>391.15147284219</v>
       </c>
       <c r="C45">
-        <v>17.2093255228648</v>
+        <v>17.2092999799423</v>
       </c>
       <c r="D45">
-        <v>1.63866710935326</v>
+        <v>1.63807004481655</v>
       </c>
       <c r="E45">
-        <v>17.7141043532328</v>
+        <v>17.7133321719838</v>
       </c>
       <c r="F45">
-        <v>26.7686649460846</v>
+        <v>26.7684849615872</v>
       </c>
       <c r="G45">
-        <v>8.361188582642759</v>
+        <v>8.361150458184101</v>
       </c>
       <c r="H45">
-        <v>0.883468509192866</v>
+        <v>0.8834496883699861</v>
       </c>
       <c r="I45">
-        <v>2.85644974409246</v>
+        <v>2.8564960798448</v>
       </c>
       <c r="J45">
-        <v>23.856185388897</v>
+        <v>23.855896277758</v>
       </c>
       <c r="K45">
-        <v>2.11739216152842</v>
+        <v>2.12209222544741</v>
       </c>
       <c r="L45">
-        <v>15.2360515340569</v>
+        <v>15.2359106615288</v>
       </c>
       <c r="M45">
-        <v>12.4392165411</v>
+        <v>12.4399333302282</v>
       </c>
       <c r="N45">
-        <v>33.1243535371569</v>
+        <v>33.1240896997005</v>
       </c>
       <c r="O45">
-        <v>920.640688544812</v>
+        <v>920.639476428003</v>
       </c>
       <c r="P45">
-        <v>18.2677564184679</v>
+        <v>18.2677988873642</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>116.092503647482</v>
+        <v>116.092609467966</v>
       </c>
       <c r="C46">
-        <v>6.02293747485899</v>
+        <v>6.02293986093567</v>
       </c>
       <c r="D46">
-        <v>0.7561668390629031</v>
+        <v>0.75618354470436</v>
       </c>
       <c r="E46">
-        <v>6.53183698232635</v>
+        <v>6.53184070043878</v>
       </c>
       <c r="F46">
-        <v>0.832684286889258</v>
+        <v>0.832655579878998</v>
       </c>
       <c r="G46">
-        <v>1.45489196563324</v>
+        <v>1.45488994948446</v>
       </c>
       <c r="H46">
-        <v>1.01228156514757</v>
+        <v>1.01230658477525</v>
       </c>
       <c r="I46">
-        <v>1.68624395258799</v>
+        <v>1.68624982721418</v>
       </c>
       <c r="J46">
-        <v>5.30138138756026</v>
+        <v>5.30138883381516</v>
       </c>
       <c r="K46">
-        <v>1.39898286417263</v>
+        <v>1.3989810980938</v>
       </c>
       <c r="L46">
-        <v>14.463505949781</v>
+        <v>14.4635399408212</v>
       </c>
       <c r="M46">
-        <v>3.50057627450468</v>
+        <v>3.50058134866655</v>
       </c>
       <c r="N46">
-        <v>11.565031726526</v>
+        <v>11.5650568749238</v>
       </c>
       <c r="O46">
-        <v>341.628719383475</v>
+        <v>341.628906137985</v>
       </c>
       <c r="P46">
-        <v>9.019115093358749</v>
+        <v>9.019110503762541</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1454.92788824903</v>
+        <v>1454.92842806936</v>
       </c>
       <c r="C47">
-        <v>45.4989190692253</v>
+        <v>45.4989537400878</v>
       </c>
       <c r="D47">
-        <v>9.340861577760659</v>
+        <v>9.34079772556202</v>
       </c>
       <c r="E47">
-        <v>42.292506083392</v>
+        <v>42.2926014076788</v>
       </c>
       <c r="F47">
-        <v>9.49436084970316</v>
+        <v>9.49219885800086</v>
       </c>
       <c r="G47">
-        <v>23.4832381523202</v>
+        <v>23.4830506525928</v>
       </c>
       <c r="H47">
-        <v>15.3830569773598</v>
+        <v>15.3830339023984</v>
       </c>
       <c r="I47">
-        <v>7.90208576666868</v>
+        <v>7.90211427212434</v>
       </c>
       <c r="J47">
-        <v>30.4852413617032</v>
+        <v>30.4851975497327</v>
       </c>
       <c r="K47">
-        <v>4.32928045689399</v>
+        <v>4.32917549477205</v>
       </c>
       <c r="L47">
-        <v>23.8081540043141</v>
+        <v>23.8081502751914</v>
       </c>
       <c r="M47">
-        <v>62.55892034115</v>
+        <v>62.5589288685654</v>
       </c>
       <c r="N47">
-        <v>25.1938923633415</v>
+        <v>25.1939276997191</v>
       </c>
       <c r="O47">
-        <v>3052.1783195223</v>
+        <v>3052.18139520232</v>
       </c>
       <c r="P47">
-        <v>41.9688931341933</v>
+        <v>41.96899173858</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1198.66202406356</v>
+        <v>1198.66415655619</v>
       </c>
       <c r="C48">
-        <v>35.4413178032862</v>
+        <v>35.4411345573389</v>
       </c>
       <c r="D48">
-        <v>7.07845662909017</v>
+        <v>7.0782572448</v>
       </c>
       <c r="E48">
-        <v>64.01922591259501</v>
+        <v>64.0194147279262</v>
       </c>
       <c r="F48">
-        <v>11.3419542099116</v>
+        <v>11.3409323550314</v>
       </c>
       <c r="G48">
-        <v>7.59291097297919</v>
+        <v>7.59441811092922</v>
       </c>
       <c r="H48">
-        <v>8.452044607909309</v>
+        <v>8.452294636857021</v>
       </c>
       <c r="I48">
-        <v>8.412323881185881</v>
+        <v>8.4125726689535</v>
       </c>
       <c r="J48">
-        <v>34.2102695318534</v>
+        <v>34.2099644226807</v>
       </c>
       <c r="K48">
-        <v>6.13184449916314</v>
+        <v>6.13256275466349</v>
       </c>
       <c r="L48">
-        <v>50.9359407744126</v>
+        <v>50.9354350942071</v>
       </c>
       <c r="M48">
-        <v>148.135712169276</v>
+        <v>148.135913405651</v>
       </c>
       <c r="N48">
-        <v>45.4385983250164</v>
+        <v>45.4386210148089</v>
       </c>
       <c r="O48">
-        <v>2493.56692863177</v>
+        <v>2493.57140278034</v>
       </c>
       <c r="P48">
-        <v>84.9813754171244</v>
+        <v>84.9815840499647</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>695.052065300771</v>
+        <v>695.052107209724</v>
       </c>
       <c r="C49">
-        <v>5.09380021955819</v>
+        <v>5.09380171801335</v>
       </c>
       <c r="D49">
-        <v>0.553533057293181</v>
+        <v>0.553519929266166</v>
       </c>
       <c r="E49">
-        <v>23.0541335123187</v>
+        <v>23.0541276113131</v>
       </c>
       <c r="F49">
-        <v>30.9345657100328</v>
+        <v>30.9341969269174</v>
       </c>
       <c r="G49">
-        <v>13.0144036799903</v>
+        <v>13.0143780283841</v>
       </c>
       <c r="H49">
-        <v>6.55029154306233</v>
+        <v>6.55024751869452</v>
       </c>
       <c r="I49">
-        <v>2.85388041493207</v>
+        <v>2.85387973031964</v>
       </c>
       <c r="J49">
-        <v>21.8137204069861</v>
+        <v>21.8136935830088</v>
       </c>
       <c r="K49">
-        <v>2.59735433148152</v>
+        <v>2.59735373831066</v>
       </c>
       <c r="L49">
-        <v>1.90544520752839</v>
+        <v>1.90543968896445</v>
       </c>
       <c r="M49">
-        <v>4.0954647383261</v>
+        <v>4.09546500051307</v>
       </c>
       <c r="N49">
-        <v>8.24075521943403</v>
+        <v>8.24074476694283</v>
       </c>
       <c r="O49">
-        <v>655.563329662872</v>
+        <v>655.563319581615</v>
       </c>
       <c r="P49">
-        <v>9.17180553932713</v>
+        <v>9.17180866014361</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>924.307634558132</v>
+        <v>924.307527877175</v>
       </c>
       <c r="C50">
-        <v>69.6660917764402</v>
+        <v>69.6660790085726</v>
       </c>
       <c r="D50">
-        <v>6.53642886646014</v>
+        <v>6.53632039905142</v>
       </c>
       <c r="E50">
-        <v>124.899711151383</v>
+        <v>124.899596432276</v>
       </c>
       <c r="F50">
-        <v>1.65540641455386</v>
+        <v>1.65802739037743</v>
       </c>
       <c r="G50">
-        <v>28.4744414485679</v>
+        <v>28.474308882842</v>
       </c>
       <c r="H50">
-        <v>46.7430958135024</v>
+        <v>46.7428970230111</v>
       </c>
       <c r="I50">
-        <v>11.4328325682063</v>
+        <v>11.4328390167184</v>
       </c>
       <c r="J50">
-        <v>79.1994051010424</v>
+        <v>79.1988791137025</v>
       </c>
       <c r="K50">
-        <v>46.9105266439814</v>
+        <v>46.9103975083402</v>
       </c>
       <c r="L50">
-        <v>65.9352874153212</v>
+        <v>65.93520780724241</v>
       </c>
       <c r="M50">
-        <v>57.3949642373517</v>
+        <v>57.3948795401961</v>
       </c>
       <c r="N50">
-        <v>51.0178093257853</v>
+        <v>51.0177569139981</v>
       </c>
       <c r="O50">
-        <v>2186.43796163372</v>
+        <v>2186.43753128417</v>
       </c>
       <c r="P50">
-        <v>89.414237267427</v>
+        <v>89.4142611498083</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>113.976116426942</v>
+        <v>113.974951913005</v>
       </c>
       <c r="C51">
-        <v>2.06215974138936</v>
+        <v>2.06215818167505</v>
       </c>
       <c r="D51">
-        <v>0.0615094639378128</v>
+        <v>0.0618776594527648</v>
       </c>
       <c r="E51">
-        <v>2.38860104220151</v>
+        <v>2.3885924544486</v>
       </c>
       <c r="F51">
-        <v>39.6420534184754</v>
+        <v>39.6417166571613</v>
       </c>
       <c r="G51">
-        <v>2.57343858682556</v>
+        <v>2.57340154954421</v>
       </c>
       <c r="H51">
-        <v>0.136835994107572</v>
+        <v>0.139105645547896</v>
       </c>
       <c r="I51">
-        <v>1.51212142867537</v>
+        <v>1.51211607332726</v>
       </c>
       <c r="J51">
-        <v>1.56652510227451</v>
+        <v>1.56649580934457</v>
       </c>
       <c r="K51">
-        <v>1.43349700234971</v>
+        <v>1.4332845781787</v>
       </c>
       <c r="L51">
-        <v>1.13244870185749</v>
+        <v>1.13276521694317</v>
       </c>
       <c r="M51">
-        <v>0.442759216916236</v>
+        <v>0.442957934926316</v>
       </c>
       <c r="N51">
-        <v>0.976662333022769</v>
+        <v>0.976707063410906</v>
       </c>
       <c r="O51">
-        <v>304.053506702618</v>
+        <v>304.051334955329</v>
       </c>
       <c r="P51">
-        <v>31.941446545702</v>
+        <v>31.9410418966465</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1299.32570830484</v>
+        <v>1313.29512918696</v>
       </c>
       <c r="C2">
-        <v>23.108309791097</v>
+        <v>21.7797439523091</v>
       </c>
       <c r="D2">
-        <v>26.1039327079355</v>
+        <v>25.7356906627729</v>
       </c>
       <c r="E2">
-        <v>52.7448005381917</v>
+        <v>52.6396057214368</v>
       </c>
       <c r="F2">
-        <v>22.8777078123299</v>
+        <v>22.3753524914781</v>
       </c>
       <c r="G2">
-        <v>19.6143231656324</v>
+        <v>19.8538042151897</v>
       </c>
       <c r="H2">
-        <v>14.3938235199481</v>
+        <v>14.2419638786869</v>
       </c>
       <c r="I2">
-        <v>11.3124417469403</v>
+        <v>12.6815104061343</v>
       </c>
       <c r="J2">
-        <v>77.3502458393007</v>
+        <v>77.0488326224866</v>
       </c>
       <c r="K2">
-        <v>15.1460310678682</v>
+        <v>14.8172833909587</v>
       </c>
       <c r="L2">
-        <v>51.6387694613976</v>
+        <v>51.8294258071351</v>
       </c>
       <c r="M2">
-        <v>53.2266635979035</v>
+        <v>51.5445713135982</v>
       </c>
       <c r="N2">
-        <v>24.5002727145669</v>
+        <v>25.8196289087685</v>
       </c>
       <c r="O2">
-        <v>1494.04400609031</v>
+        <v>1496.33946424632</v>
       </c>
       <c r="P2">
-        <v>21.5410644937935</v>
+        <v>19.9866623818503</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>149.254590515906</v>
+        <v>139.372109316361</v>
       </c>
       <c r="C3">
-        <v>2.00160354277368</v>
+        <v>2.12583626458716</v>
       </c>
       <c r="D3">
-        <v>0.322972415354098</v>
+        <v>0.388130636082876</v>
       </c>
       <c r="E3">
-        <v>1.2629661470519</v>
+        <v>1.27012894607816</v>
       </c>
       <c r="F3">
-        <v>11.2882199230549</v>
+        <v>10.7330809978814</v>
       </c>
       <c r="G3">
-        <v>0.480334038258285</v>
+        <v>0.37928369328143</v>
       </c>
       <c r="H3">
-        <v>0.00934456981688442</v>
+        <v>0.176839002791507</v>
       </c>
       <c r="I3">
-        <v>0.936941860852188</v>
+        <v>0.7566024070998471</v>
       </c>
       <c r="J3">
-        <v>0.175745983537791</v>
+        <v>0.279781834036923</v>
       </c>
       <c r="K3">
-        <v>0.136289229501824</v>
+        <v>0.153915242489387</v>
       </c>
       <c r="L3">
-        <v>0.144545233323289</v>
+        <v>0.239082916202747</v>
       </c>
       <c r="M3">
-        <v>0.611084928519568</v>
+        <v>0.461573612104436</v>
       </c>
       <c r="N3">
-        <v>1.66667320260242</v>
+        <v>1.18396623295497</v>
       </c>
       <c r="O3">
-        <v>337.96652304885</v>
+        <v>313.945222459223</v>
       </c>
       <c r="P3">
-        <v>13.2456102631948</v>
+        <v>12.3254088955197</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1317.93138597617</v>
+        <v>1355.84368128492</v>
       </c>
       <c r="C4">
-        <v>13.2413849919072</v>
+        <v>11.7391896928416</v>
       </c>
       <c r="D4">
-        <v>4.64142915434264</v>
+        <v>2.77144365126512</v>
       </c>
       <c r="E4">
-        <v>13.1311451259639</v>
+        <v>19.8714985218206</v>
       </c>
       <c r="F4">
-        <v>11.0713384196449</v>
+        <v>10.7410875923264</v>
       </c>
       <c r="G4">
-        <v>8.63009725732668</v>
+        <v>7.35644444675299</v>
       </c>
       <c r="H4">
-        <v>7.53979808317989</v>
+        <v>6.69441171798426</v>
       </c>
       <c r="I4">
-        <v>6.14033930868478</v>
+        <v>7.27577873763386</v>
       </c>
       <c r="J4">
-        <v>34.9546820232913</v>
+        <v>31.3571141260849</v>
       </c>
       <c r="K4">
-        <v>3.84847695824122</v>
+        <v>3.49368770053484</v>
       </c>
       <c r="L4">
-        <v>61.4797395317644</v>
+        <v>63.0476873024608</v>
       </c>
       <c r="M4">
-        <v>38.4322905278761</v>
+        <v>42.6917942097715</v>
       </c>
       <c r="N4">
-        <v>30.7000702941768</v>
+        <v>32.379846701465</v>
       </c>
       <c r="O4">
-        <v>2296.30403101379</v>
+        <v>2288.00277951704</v>
       </c>
       <c r="P4">
-        <v>12.63727855429</v>
+        <v>11.8150416224916</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>684.424779392948</v>
+        <v>688.820657077059</v>
       </c>
       <c r="C5">
-        <v>46.0954553327477</v>
+        <v>48.5937440067729</v>
       </c>
       <c r="D5">
-        <v>10.1228139623685</v>
+        <v>10.0686211908214</v>
       </c>
       <c r="E5">
-        <v>26.236204750419</v>
+        <v>27.7043647867085</v>
       </c>
       <c r="F5">
-        <v>6.51145148213585</v>
+        <v>6.95913962552785</v>
       </c>
       <c r="G5">
-        <v>6.39777070482601</v>
+        <v>5.57966772993745</v>
       </c>
       <c r="H5">
-        <v>8.49186076085266</v>
+        <v>9.631046717978681</v>
       </c>
       <c r="I5">
-        <v>5.79799343685387</v>
+        <v>5.75574983106299</v>
       </c>
       <c r="J5">
-        <v>29.0283853388224</v>
+        <v>28.6795451767424</v>
       </c>
       <c r="K5">
-        <v>4.34692235637483</v>
+        <v>4.88271056026643</v>
       </c>
       <c r="L5">
-        <v>11.09006094483</v>
+        <v>12.3061238605184</v>
       </c>
       <c r="M5">
-        <v>18.1316302944829</v>
+        <v>18.4036702086354</v>
       </c>
       <c r="N5">
-        <v>26.9561353422825</v>
+        <v>26.3438740593961</v>
       </c>
       <c r="O5">
-        <v>1005.31387383953</v>
+        <v>997.055476931732</v>
       </c>
       <c r="P5">
-        <v>53.1921921047019</v>
+        <v>53.5673624191329</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7116.58975297197</v>
+        <v>7170.28749314755</v>
       </c>
       <c r="C6">
-        <v>199.084039711696</v>
+        <v>202.768064565403</v>
       </c>
       <c r="D6">
-        <v>35.8872091255167</v>
+        <v>38.6282468230028</v>
       </c>
       <c r="E6">
-        <v>167.866031635482</v>
+        <v>162.69783732835</v>
       </c>
       <c r="F6">
-        <v>47.0154526221541</v>
+        <v>45.1599053748821</v>
       </c>
       <c r="G6">
-        <v>100.491584303674</v>
+        <v>113.65797323413</v>
       </c>
       <c r="H6">
-        <v>46.0400796709924</v>
+        <v>51.8009878693904</v>
       </c>
       <c r="I6">
-        <v>35.9696181451388</v>
+        <v>39.8639085831682</v>
       </c>
       <c r="J6">
-        <v>163.136253568133</v>
+        <v>168.936460071595</v>
       </c>
       <c r="K6">
-        <v>41.8337373861155</v>
+        <v>36.6816955619216</v>
       </c>
       <c r="L6">
-        <v>409.960700221849</v>
+        <v>430.991229883565</v>
       </c>
       <c r="M6">
-        <v>234.707642307851</v>
+        <v>249.000441743084</v>
       </c>
       <c r="N6">
-        <v>294.929963377304</v>
+        <v>290.984362715454</v>
       </c>
       <c r="O6">
-        <v>13225.5172478474</v>
+        <v>13159.9697346569</v>
       </c>
       <c r="P6">
-        <v>274.675516021527</v>
+        <v>276.165472181062</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>752.410842383431</v>
+        <v>754.039486330418</v>
       </c>
       <c r="C7">
-        <v>42.0531600440134</v>
+        <v>41.062870908462</v>
       </c>
       <c r="D7">
-        <v>4.2191245569578</v>
+        <v>4.37451655391395</v>
       </c>
       <c r="E7">
-        <v>18.8628199401066</v>
+        <v>19.2867672568664</v>
       </c>
       <c r="F7">
-        <v>18.1798621163843</v>
+        <v>19.5782280885191</v>
       </c>
       <c r="G7">
-        <v>10.0666491611929</v>
+        <v>9.97439449596135</v>
       </c>
       <c r="H7">
-        <v>2.58502575815047</v>
+        <v>2.08779145529473</v>
       </c>
       <c r="I7">
-        <v>8.59325478544894</v>
+        <v>9.61086802073862</v>
       </c>
       <c r="J7">
-        <v>17.9206570978097</v>
+        <v>18.3445828112574</v>
       </c>
       <c r="K7">
-        <v>5.96737584161282</v>
+        <v>5.61163040872094</v>
       </c>
       <c r="L7">
-        <v>48.9464274329966</v>
+        <v>50.0677752729929</v>
       </c>
       <c r="M7">
-        <v>17.3770693347533</v>
+        <v>18.6952608642319</v>
       </c>
       <c r="N7">
-        <v>19.2313317751761</v>
+        <v>24.5257462087546</v>
       </c>
       <c r="O7">
-        <v>1960.45581591689</v>
+        <v>1978.12177994282</v>
       </c>
       <c r="P7">
-        <v>31.6191618897084</v>
+        <v>30.8729518017176</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>615.616643191622</v>
+        <v>617.692832040538</v>
       </c>
       <c r="C8">
-        <v>13.2622924646086</v>
+        <v>12.6238019119548</v>
       </c>
       <c r="D8">
-        <v>2.37215150145327</v>
+        <v>2.77388654387842</v>
       </c>
       <c r="E8">
-        <v>22.2950426602472</v>
+        <v>21.5384118764127</v>
       </c>
       <c r="F8">
-        <v>2.54068320155151</v>
+        <v>2.56484469073682</v>
       </c>
       <c r="G8">
-        <v>20.6717654197344</v>
+        <v>23.0750442789843</v>
       </c>
       <c r="H8">
-        <v>7.38458555406936</v>
+        <v>8.29836094274979</v>
       </c>
       <c r="I8">
-        <v>7.60237791661634</v>
+        <v>7.61491731010042</v>
       </c>
       <c r="J8">
-        <v>41.5197276929449</v>
+        <v>40.76013972504</v>
       </c>
       <c r="K8">
-        <v>8.75049748873586</v>
+        <v>9.243484192044271</v>
       </c>
       <c r="L8">
-        <v>39.0437269742888</v>
+        <v>39.9484777105767</v>
       </c>
       <c r="M8">
-        <v>50.8042114047787</v>
+        <v>51.8365700789633</v>
       </c>
       <c r="N8">
-        <v>31.6926896077641</v>
+        <v>29.8994663190416</v>
       </c>
       <c r="O8">
-        <v>1441.56456527389</v>
+        <v>1435.84036011587</v>
       </c>
       <c r="P8">
-        <v>9.100947772879261</v>
+        <v>8.290221755723049</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>204.917401307406</v>
+        <v>198.305233745106</v>
       </c>
       <c r="C9">
-        <v>9.254374861714091</v>
+        <v>8.860324639499471</v>
       </c>
       <c r="D9">
-        <v>1.97389890819502</v>
+        <v>2.06037014367055</v>
       </c>
       <c r="E9">
-        <v>5.08548973028481</v>
+        <v>4.36457063694823</v>
       </c>
       <c r="F9">
-        <v>0.6696041249413091</v>
+        <v>0.886188736528707</v>
       </c>
       <c r="G9">
-        <v>23.3081214803649</v>
+        <v>21.6078295886022</v>
       </c>
       <c r="H9">
-        <v>2.40067123984821</v>
+        <v>2.48619576541379</v>
       </c>
       <c r="I9">
-        <v>1.73848721821753</v>
+        <v>1.5997349120536</v>
       </c>
       <c r="J9">
-        <v>4.02969032463085</v>
+        <v>4.33520905789285</v>
       </c>
       <c r="K9">
-        <v>0.462982920368964</v>
+        <v>0.555597983093303</v>
       </c>
       <c r="L9">
-        <v>2.65095326555673</v>
+        <v>2.80438234055825</v>
       </c>
       <c r="M9">
-        <v>6.63606235213544</v>
+        <v>6.53360062865145</v>
       </c>
       <c r="N9">
-        <v>3.01917639029608</v>
+        <v>2.93925666655022</v>
       </c>
       <c r="O9">
-        <v>432.910279815839</v>
+        <v>415.863274953878</v>
       </c>
       <c r="P9">
-        <v>6.43700008074702</v>
+        <v>6.22443630804999</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3945.37389956259</v>
+        <v>3968.6673603081</v>
       </c>
       <c r="C10">
-        <v>63.1533209744779</v>
+        <v>62.8342982314876</v>
       </c>
       <c r="D10">
-        <v>9.58675371484853</v>
+        <v>11.5582547193074</v>
       </c>
       <c r="E10">
-        <v>59.3542763503495</v>
+        <v>62.633397497161</v>
       </c>
       <c r="F10">
-        <v>8.178546126910961</v>
+        <v>10.3876341158113</v>
       </c>
       <c r="G10">
-        <v>37.9964017560743</v>
+        <v>41.213374388863</v>
       </c>
       <c r="H10">
-        <v>14.841796303714</v>
+        <v>13.9812043932464</v>
       </c>
       <c r="I10">
-        <v>22.4393044116964</v>
+        <v>23.919504031774</v>
       </c>
       <c r="J10">
-        <v>60.5678150710543</v>
+        <v>57.7333709685096</v>
       </c>
       <c r="K10">
-        <v>5.82362967125087</v>
+        <v>7.05263590577191</v>
       </c>
       <c r="L10">
-        <v>65.4840978593266</v>
+        <v>64.6555050084884</v>
       </c>
       <c r="M10">
-        <v>74.3513656935405</v>
+        <v>80.4662005588291</v>
       </c>
       <c r="N10">
-        <v>100.823916920231</v>
+        <v>94.83548901360381</v>
       </c>
       <c r="O10">
-        <v>7830.27602539276</v>
+        <v>7795.2790424304</v>
       </c>
       <c r="P10">
-        <v>64.2517909762262</v>
+        <v>64.759451143609</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1899.61574504624</v>
+        <v>1927.88594439256</v>
       </c>
       <c r="C11">
-        <v>67.45841297169321</v>
+        <v>67.58028478747551</v>
       </c>
       <c r="D11">
-        <v>132.672396897762</v>
+        <v>124.87575356914</v>
       </c>
       <c r="E11">
-        <v>88.8616121006477</v>
+        <v>83.25112426747261</v>
       </c>
       <c r="F11">
-        <v>14.1094241225132</v>
+        <v>12.2339230754928</v>
       </c>
       <c r="G11">
-        <v>20.6143217570675</v>
+        <v>26.6425264059598</v>
       </c>
       <c r="H11">
-        <v>26.9948940974751</v>
+        <v>23.4605430350139</v>
       </c>
       <c r="I11">
-        <v>11.3335590549718</v>
+        <v>11.20745698143</v>
       </c>
       <c r="J11">
-        <v>38.3152821941159</v>
+        <v>41.6654822735816</v>
       </c>
       <c r="K11">
-        <v>6.45822229825875</v>
+        <v>6.97642661398879</v>
       </c>
       <c r="L11">
-        <v>42.2757430843511</v>
+        <v>45.7791815372168</v>
       </c>
       <c r="M11">
-        <v>56.0168843240372</v>
+        <v>51.9355549163926</v>
       </c>
       <c r="N11">
-        <v>66.0887427137225</v>
+        <v>60.5448071076479</v>
       </c>
       <c r="O11">
-        <v>3329.69479811123</v>
+        <v>3355.17702478516</v>
       </c>
       <c r="P11">
-        <v>50.2390163345991</v>
+        <v>53.4828108076063</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>264.908741936989</v>
+        <v>261.101963646984</v>
       </c>
       <c r="C12">
-        <v>5.82016493319669</v>
+        <v>7.17551804094854</v>
       </c>
       <c r="D12">
-        <v>0.562493980405824</v>
+        <v>0.51212477582276</v>
       </c>
       <c r="E12">
-        <v>3.66304254431914</v>
+        <v>3.58890963170707</v>
       </c>
       <c r="F12">
-        <v>0.813060949202821</v>
+        <v>0.945733083587572</v>
       </c>
       <c r="G12">
-        <v>0.282787077123563</v>
+        <v>0.558893409470838</v>
       </c>
       <c r="H12">
-        <v>0.108175783820481</v>
+        <v>0.151611294365038</v>
       </c>
       <c r="I12">
-        <v>0.787928903602487</v>
+        <v>0.824361267750828</v>
       </c>
       <c r="J12">
-        <v>1.51816627576006</v>
+        <v>1.77272910774106</v>
       </c>
       <c r="K12">
-        <v>0.232977147491329</v>
+        <v>0.254040610249675</v>
       </c>
       <c r="L12">
-        <v>0.0140961090595915</v>
+        <v>0.0567718971960333</v>
       </c>
       <c r="M12">
-        <v>2.62591315767</v>
+        <v>2.5746483483473</v>
       </c>
       <c r="N12">
-        <v>4.57947129421213</v>
+        <v>4.5938129271743</v>
       </c>
       <c r="O12">
-        <v>660.640585631038</v>
+        <v>634.519605843663</v>
       </c>
       <c r="P12">
-        <v>23.0521132732652</v>
+        <v>20.0197845986162</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>258.396579800699</v>
+        <v>258.492973461048</v>
       </c>
       <c r="C13">
-        <v>20.4903141071349</v>
+        <v>21.9996548040038</v>
       </c>
       <c r="D13">
-        <v>0.544417140061684</v>
+        <v>0.76005655667613</v>
       </c>
       <c r="E13">
-        <v>13.0309177699385</v>
+        <v>11.9218385847605</v>
       </c>
       <c r="F13">
-        <v>3.33437402507855</v>
+        <v>3.0440869257393</v>
       </c>
       <c r="G13">
-        <v>7.35843175469355</v>
+        <v>6.87290923771547</v>
       </c>
       <c r="H13">
-        <v>2.36111180422547</v>
+        <v>2.56582225204886</v>
       </c>
       <c r="I13">
-        <v>2.56312731940881</v>
+        <v>2.30514966863997</v>
       </c>
       <c r="J13">
-        <v>5.71733622104</v>
+        <v>5.73198566469427</v>
       </c>
       <c r="K13">
-        <v>4.58947692624117</v>
+        <v>4.57051264284555</v>
       </c>
       <c r="L13">
-        <v>17.1318867424592</v>
+        <v>17.3249263931758</v>
       </c>
       <c r="M13">
-        <v>2.15472273758373</v>
+        <v>2.11794857957784</v>
       </c>
       <c r="N13">
-        <v>4.62340437033681</v>
+        <v>3.54067191024248</v>
       </c>
       <c r="O13">
-        <v>614.253742827484</v>
+        <v>603.924687297571</v>
       </c>
       <c r="P13">
-        <v>46.0250104411324</v>
+        <v>48.0771331503344</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2424.50041841847</v>
+        <v>2426.08287637205</v>
       </c>
       <c r="C14">
-        <v>119.200791809733</v>
+        <v>114.930525104504</v>
       </c>
       <c r="D14">
-        <v>8.889965218493551</v>
+        <v>8.96958405768026</v>
       </c>
       <c r="E14">
-        <v>90.55443827828449</v>
+        <v>90.4032290938565</v>
       </c>
       <c r="F14">
-        <v>21.1190883569644</v>
+        <v>19.5100430265695</v>
       </c>
       <c r="G14">
-        <v>82.82660084112619</v>
+        <v>80.98070309648161</v>
       </c>
       <c r="H14">
-        <v>42.4115553490375</v>
+        <v>42.8207029187841</v>
       </c>
       <c r="I14">
-        <v>21.4492335007408</v>
+        <v>22.0972247677771</v>
       </c>
       <c r="J14">
-        <v>126.086264231409</v>
+        <v>136.859286136415</v>
       </c>
       <c r="K14">
-        <v>67.3743631466407</v>
+        <v>82.5506928147711</v>
       </c>
       <c r="L14">
-        <v>100.206076513461</v>
+        <v>97.386171356577</v>
       </c>
       <c r="M14">
-        <v>89.11659215817841</v>
+        <v>80.84955877228511</v>
       </c>
       <c r="N14">
-        <v>63.5357184468635</v>
+        <v>71.2664331338399</v>
       </c>
       <c r="O14">
-        <v>5046.08541918577</v>
+        <v>5047.03737217153</v>
       </c>
       <c r="P14">
-        <v>54.6001971890877</v>
+        <v>54.9747609777668</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1235.37048318978</v>
+        <v>1239.58299048588</v>
       </c>
       <c r="C15">
-        <v>63.7005436402146</v>
+        <v>54.8976145244891</v>
       </c>
       <c r="D15">
-        <v>4.72198966168338</v>
+        <v>7.05238865611836</v>
       </c>
       <c r="E15">
-        <v>71.1293762859768</v>
+        <v>75.3308274758857</v>
       </c>
       <c r="F15">
-        <v>20.0946251207673</v>
+        <v>21.5370014047246</v>
       </c>
       <c r="G15">
-        <v>54.4977559331424</v>
+        <v>57.1338664246792</v>
       </c>
       <c r="H15">
-        <v>37.7137479833158</v>
+        <v>35.7988853013786</v>
       </c>
       <c r="I15">
-        <v>23.6869141886522</v>
+        <v>24.4106185381593</v>
       </c>
       <c r="J15">
-        <v>146.925951645887</v>
+        <v>150.663789065692</v>
       </c>
       <c r="K15">
-        <v>33.8055665743174</v>
+        <v>29.3889562308137</v>
       </c>
       <c r="L15">
-        <v>41.8137730132279</v>
+        <v>39.7699619402406</v>
       </c>
       <c r="M15">
-        <v>163.119764684001</v>
+        <v>162.650186557624</v>
       </c>
       <c r="N15">
-        <v>87.39978553811321</v>
+        <v>86.5840140932858</v>
       </c>
       <c r="O15">
-        <v>2238.20265212844</v>
+        <v>2234.53276692988</v>
       </c>
       <c r="P15">
-        <v>45.00041310569</v>
+        <v>47.718110490917</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>455.866316251983</v>
+        <v>459.404922395469</v>
       </c>
       <c r="C16">
-        <v>64.5739974423995</v>
+        <v>68.384290343666</v>
       </c>
       <c r="D16">
-        <v>5.16242292989814</v>
+        <v>4.83364180790673</v>
       </c>
       <c r="E16">
-        <v>27.6821227621383</v>
+        <v>28.7968400274687</v>
       </c>
       <c r="F16">
-        <v>3.09800578522445</v>
+        <v>2.44235198297524</v>
       </c>
       <c r="G16">
-        <v>16.697142512271</v>
+        <v>17.4563056639642</v>
       </c>
       <c r="H16">
-        <v>18.3756690447417</v>
+        <v>15.6269252380838</v>
       </c>
       <c r="I16">
-        <v>5.36547047105107</v>
+        <v>5.66815582657115</v>
       </c>
       <c r="J16">
-        <v>44.3048762342923</v>
+        <v>47.7083094560239</v>
       </c>
       <c r="K16">
-        <v>43.6143063049964</v>
+        <v>40.1101309391298</v>
       </c>
       <c r="L16">
-        <v>18.6956827551761</v>
+        <v>20.6451251331627</v>
       </c>
       <c r="M16">
-        <v>24.6617835693734</v>
+        <v>24.9363170194405</v>
       </c>
       <c r="N16">
-        <v>29.4883811925163</v>
+        <v>30.4928217165658</v>
       </c>
       <c r="O16">
-        <v>1294.06719917891</v>
+        <v>1263.33666623163</v>
       </c>
       <c r="P16">
-        <v>87.7547174564704</v>
+        <v>88.4499498281965</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>492.386559681764</v>
+        <v>481.657401353418</v>
       </c>
       <c r="C17">
-        <v>23.5969915312615</v>
+        <v>22.9605338265003</v>
       </c>
       <c r="D17">
-        <v>3.23743197553418</v>
+        <v>3.10829176675291</v>
       </c>
       <c r="E17">
-        <v>23.3271339477621</v>
+        <v>24.098477549784</v>
       </c>
       <c r="F17">
-        <v>13.9787488748153</v>
+        <v>13.1998267069466</v>
       </c>
       <c r="G17">
-        <v>9.912092652719361</v>
+        <v>11.5977349476627</v>
       </c>
       <c r="H17">
-        <v>13.4632569803729</v>
+        <v>11.6594757465313</v>
       </c>
       <c r="I17">
-        <v>6.67543397960438</v>
+        <v>6.85465934837241</v>
       </c>
       <c r="J17">
-        <v>22.7471737282792</v>
+        <v>20.7921081475947</v>
       </c>
       <c r="K17">
-        <v>8.72610608063944</v>
+        <v>9.468009323316631</v>
       </c>
       <c r="L17">
-        <v>12.554013267609</v>
+        <v>11.1132306179319</v>
       </c>
       <c r="M17">
-        <v>64.1568030349633</v>
+        <v>63.0424672037908</v>
       </c>
       <c r="N17">
-        <v>11.2223586996873</v>
+        <v>11.8908578301575</v>
       </c>
       <c r="O17">
-        <v>1132.13707371428</v>
+        <v>1125.0495981221</v>
       </c>
       <c r="P17">
-        <v>47.945053683311</v>
+        <v>50.0068776818054</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1131.90278000778</v>
+        <v>1132.59031634945</v>
       </c>
       <c r="C18">
-        <v>30.7133031150413</v>
+        <v>31.2295827053138</v>
       </c>
       <c r="D18">
-        <v>4.37775024160844</v>
+        <v>3.81801031291235</v>
       </c>
       <c r="E18">
-        <v>32.9799526085835</v>
+        <v>31.5299349392453</v>
       </c>
       <c r="F18">
-        <v>39.7418387908975</v>
+        <v>36.5248337713452</v>
       </c>
       <c r="G18">
-        <v>13.1484957175511</v>
+        <v>13.9887780733484</v>
       </c>
       <c r="H18">
-        <v>11.26802291702</v>
+        <v>12.1767183342855</v>
       </c>
       <c r="I18">
-        <v>4.067081631496</v>
+        <v>5.1053314804613</v>
       </c>
       <c r="J18">
-        <v>21.9880157456598</v>
+        <v>28.3856428031985</v>
       </c>
       <c r="K18">
-        <v>7.98164444245832</v>
+        <v>6.65132759269558</v>
       </c>
       <c r="L18">
-        <v>28.234031620352</v>
+        <v>28.7398240071209</v>
       </c>
       <c r="M18">
-        <v>66.97850545611649</v>
+        <v>62.1646954906266</v>
       </c>
       <c r="N18">
-        <v>27.2925869513427</v>
+        <v>23.7146787075993</v>
       </c>
       <c r="O18">
-        <v>1588.40907493115</v>
+        <v>1572.60095549168</v>
       </c>
       <c r="P18">
-        <v>62.1908100780093</v>
+        <v>58.8320162246902</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1053.27640106676</v>
+        <v>1053.66408828755</v>
       </c>
       <c r="C19">
-        <v>36.1953943323646</v>
+        <v>33.6969119546806</v>
       </c>
       <c r="D19">
-        <v>3.88911444582844</v>
+        <v>4.6189117977571</v>
       </c>
       <c r="E19">
-        <v>35.8104779305929</v>
+        <v>37.8461701312104</v>
       </c>
       <c r="F19">
-        <v>73.8583646408832</v>
+        <v>81.6980590152649</v>
       </c>
       <c r="G19">
-        <v>46.2116554958683</v>
+        <v>47.3636252683219</v>
       </c>
       <c r="H19">
-        <v>13.1004222504128</v>
+        <v>9.828328385774579</v>
       </c>
       <c r="I19">
-        <v>5.5215091344427</v>
+        <v>5.13201456673566</v>
       </c>
       <c r="J19">
-        <v>19.9878318239202</v>
+        <v>19.2433033357052</v>
       </c>
       <c r="K19">
-        <v>8.003555963911319</v>
+        <v>5.15722759098249</v>
       </c>
       <c r="L19">
-        <v>3.35279958987697</v>
+        <v>3.63133236502564</v>
       </c>
       <c r="M19">
-        <v>23.5722185448707</v>
+        <v>27.1802536578116</v>
       </c>
       <c r="N19">
-        <v>13.4340711764344</v>
+        <v>12.5966364473114</v>
       </c>
       <c r="O19">
-        <v>1627.2687333475</v>
+        <v>1589.05515259968</v>
       </c>
       <c r="P19">
-        <v>40.1867402113685</v>
+        <v>38.3297246078878</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>282.018136446534</v>
+        <v>278.640162692022</v>
       </c>
       <c r="C20">
-        <v>9.472997937584079</v>
+        <v>10.0052592254155</v>
       </c>
       <c r="D20">
-        <v>6.59259514429722</v>
+        <v>6.65808759656785</v>
       </c>
       <c r="E20">
-        <v>31.3430063088122</v>
+        <v>31.0268830387268</v>
       </c>
       <c r="F20">
-        <v>0.875636729991664</v>
+        <v>0.959176606708976</v>
       </c>
       <c r="G20">
-        <v>3.79672054487221</v>
+        <v>3.50380889511618</v>
       </c>
       <c r="H20">
-        <v>0.985626072227517</v>
+        <v>1.22058251510809</v>
       </c>
       <c r="I20">
-        <v>2.41379015289961</v>
+        <v>2.20356279898508</v>
       </c>
       <c r="J20">
-        <v>4.91526289629188</v>
+        <v>5.21288142457627</v>
       </c>
       <c r="K20">
-        <v>0.824068476833228</v>
+        <v>0.868834189182172</v>
       </c>
       <c r="L20">
-        <v>7.46813566861151</v>
+        <v>7.08971628803185</v>
       </c>
       <c r="M20">
-        <v>18.1358760513124</v>
+        <v>18.137566585014</v>
       </c>
       <c r="N20">
-        <v>5.79900645303949</v>
+        <v>6.99521931874157</v>
       </c>
       <c r="O20">
-        <v>591.110031692282</v>
+        <v>578.207434487695</v>
       </c>
       <c r="P20">
-        <v>21.4673261250075</v>
+        <v>21.5312377703562</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1011.38625624808</v>
+        <v>1010.82602962892</v>
       </c>
       <c r="C21">
-        <v>15.4605723693145</v>
+        <v>19.0489995315058</v>
       </c>
       <c r="D21">
-        <v>1.16964854136041</v>
+        <v>1.24899461939862</v>
       </c>
       <c r="E21">
-        <v>21.6381085676815</v>
+        <v>20.4244936818359</v>
       </c>
       <c r="F21">
-        <v>2.1133709614212</v>
+        <v>2.54757117896738</v>
       </c>
       <c r="G21">
-        <v>12.6503226257448</v>
+        <v>14.1347689691939</v>
       </c>
       <c r="H21">
-        <v>3.87315493160619</v>
+        <v>5.43863899352741</v>
       </c>
       <c r="I21">
-        <v>15.3227996463369</v>
+        <v>14.2504584128206</v>
       </c>
       <c r="J21">
-        <v>13.2693989067089</v>
+        <v>14.5792697656951</v>
       </c>
       <c r="K21">
-        <v>0.707685244017025</v>
+        <v>2.93520334031833</v>
       </c>
       <c r="L21">
-        <v>27.7599439423686</v>
+        <v>25.5846779797927</v>
       </c>
       <c r="M21">
-        <v>17.3201427132761</v>
+        <v>20.1590932583278</v>
       </c>
       <c r="N21">
-        <v>16.6076550920658</v>
+        <v>16.8352483592742</v>
       </c>
       <c r="O21">
-        <v>2398.89607188465</v>
+        <v>2373.01274298522</v>
       </c>
       <c r="P21">
-        <v>18.9038055876207</v>
+        <v>21.157258021598</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1166.64528733863</v>
+        <v>1175.86752463325</v>
       </c>
       <c r="C22">
-        <v>25.9743228030188</v>
+        <v>23.6132282344785</v>
       </c>
       <c r="D22">
-        <v>8.523725787860061</v>
+        <v>10.1307981264849</v>
       </c>
       <c r="E22">
-        <v>38.2584040403248</v>
+        <v>41.7775020441409</v>
       </c>
       <c r="F22">
-        <v>2.70455676814936</v>
+        <v>3.64276148792361</v>
       </c>
       <c r="G22">
-        <v>30.1375061935356</v>
+        <v>28.3075686524867</v>
       </c>
       <c r="H22">
-        <v>14.5820329669882</v>
+        <v>14.9134237941343</v>
       </c>
       <c r="I22">
-        <v>11.1811799563697</v>
+        <v>10.4059456215727</v>
       </c>
       <c r="J22">
-        <v>39.4148181064722</v>
+        <v>37.8144599944723</v>
       </c>
       <c r="K22">
-        <v>3.09357432948062</v>
+        <v>4.20717108962133</v>
       </c>
       <c r="L22">
-        <v>91.1542116505539</v>
+        <v>99.0625863650983</v>
       </c>
       <c r="M22">
-        <v>17.4023696683527</v>
+        <v>18.83508994996</v>
       </c>
       <c r="N22">
-        <v>55.6559982028609</v>
+        <v>62.6330168781122</v>
       </c>
       <c r="O22">
-        <v>2731.25382187707</v>
+        <v>2730.08777071697</v>
       </c>
       <c r="P22">
-        <v>13.619267627645</v>
+        <v>12.0287163505035</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2320.26118790916</v>
+        <v>2321.85307271554</v>
       </c>
       <c r="C23">
-        <v>31.3645411184609</v>
+        <v>33.5015783221462</v>
       </c>
       <c r="D23">
-        <v>6.4908140651408</v>
+        <v>5.84498718246869</v>
       </c>
       <c r="E23">
-        <v>54.2095233081194</v>
+        <v>54.5785612892005</v>
       </c>
       <c r="F23">
-        <v>5.50446310056117</v>
+        <v>6.53777660978761</v>
       </c>
       <c r="G23">
-        <v>49.6463716822264</v>
+        <v>53.8287104725593</v>
       </c>
       <c r="H23">
-        <v>51.5534658092264</v>
+        <v>53.5376283694188</v>
       </c>
       <c r="I23">
-        <v>23.4411795967461</v>
+        <v>19.71879725075</v>
       </c>
       <c r="J23">
-        <v>107.296460949766</v>
+        <v>106.600841680573</v>
       </c>
       <c r="K23">
-        <v>62.2817377515858</v>
+        <v>59.0401272048334</v>
       </c>
       <c r="L23">
-        <v>31.8199459183134</v>
+        <v>33.3176842773852</v>
       </c>
       <c r="M23">
-        <v>522.824032701905</v>
+        <v>513.060618608527</v>
       </c>
       <c r="N23">
-        <v>91.4132851783818</v>
+        <v>93.3884866408101</v>
       </c>
       <c r="O23">
-        <v>3434.01298065973</v>
+        <v>3416.40353156706</v>
       </c>
       <c r="P23">
-        <v>56.4669521842259</v>
+        <v>55.3869059484108</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>771.189724702961</v>
+        <v>776.074652910891</v>
       </c>
       <c r="C24">
-        <v>43.3105009405358</v>
+        <v>46.9875427427588</v>
       </c>
       <c r="D24">
-        <v>7.29633870845217</v>
+        <v>7.20504429665015</v>
       </c>
       <c r="E24">
-        <v>53.8272091921999</v>
+        <v>58.1447688775581</v>
       </c>
       <c r="F24">
-        <v>11.575747823321</v>
+        <v>10.8068506060244</v>
       </c>
       <c r="G24">
-        <v>24.1968548245255</v>
+        <v>25.8538729924119</v>
       </c>
       <c r="H24">
-        <v>19.6680865750594</v>
+        <v>16.9785178120302</v>
       </c>
       <c r="I24">
-        <v>17.5873750687843</v>
+        <v>16.4375134664801</v>
       </c>
       <c r="J24">
-        <v>53.2987997853454</v>
+        <v>51.6814224723419</v>
       </c>
       <c r="K24">
-        <v>18.8299319558338</v>
+        <v>19.5622080193476</v>
       </c>
       <c r="L24">
-        <v>57.7716515702449</v>
+        <v>62.0042069723553</v>
       </c>
       <c r="M24">
-        <v>21.1641413119412</v>
+        <v>21.6258748805758</v>
       </c>
       <c r="N24">
-        <v>71.2493750443372</v>
+        <v>69.2446317380297</v>
       </c>
       <c r="O24">
-        <v>2098.02395850012</v>
+        <v>2086.13210398783</v>
       </c>
       <c r="P24">
-        <v>82.1820307949952</v>
+        <v>83.6957504394008</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>809.54707243908</v>
+        <v>797.121866826884</v>
       </c>
       <c r="C25">
-        <v>41.126849180048</v>
+        <v>38.8755130781027</v>
       </c>
       <c r="D25">
-        <v>12.1032640537835</v>
+        <v>11.0211262536709</v>
       </c>
       <c r="E25">
-        <v>45.3880388269892</v>
+        <v>42.3335267560027</v>
       </c>
       <c r="F25">
-        <v>17.5961880043944</v>
+        <v>16.8221623095371</v>
       </c>
       <c r="G25">
-        <v>13.3832338519477</v>
+        <v>11.1077240447073</v>
       </c>
       <c r="H25">
-        <v>8.27787886871725</v>
+        <v>8.604141201489689</v>
       </c>
       <c r="I25">
-        <v>3.67453629486649</v>
+        <v>3.04162156067912</v>
       </c>
       <c r="J25">
-        <v>9.00268469190855</v>
+        <v>10.8744169638274</v>
       </c>
       <c r="K25">
-        <v>7.64711683090598</v>
+        <v>6.573622077867</v>
       </c>
       <c r="L25">
-        <v>8.045620155850029</v>
+        <v>9.10794529908245</v>
       </c>
       <c r="M25">
-        <v>34.4747520896536</v>
+        <v>37.4523636042674</v>
       </c>
       <c r="N25">
-        <v>43.3360750514624</v>
+        <v>40.8362277296951</v>
       </c>
       <c r="O25">
-        <v>975.966806812395</v>
+        <v>961.666231092081</v>
       </c>
       <c r="P25">
-        <v>48.985354688326</v>
+        <v>48.3232247594904</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1096.53992081349</v>
+        <v>1116.26070263583</v>
       </c>
       <c r="C26">
-        <v>56.1067386771829</v>
+        <v>55.6801067539977</v>
       </c>
       <c r="D26">
-        <v>2.41769266287745</v>
+        <v>4.56173549235594</v>
       </c>
       <c r="E26">
-        <v>48.9808090677775</v>
+        <v>51.0236592769455</v>
       </c>
       <c r="F26">
-        <v>6.97245489483213</v>
+        <v>8.129221963421431</v>
       </c>
       <c r="G26">
-        <v>39.7701339265903</v>
+        <v>36.847112121203</v>
       </c>
       <c r="H26">
-        <v>13.0629472696362</v>
+        <v>11.0439173590359</v>
       </c>
       <c r="I26">
-        <v>13.2359053727967</v>
+        <v>16.2024230148212</v>
       </c>
       <c r="J26">
-        <v>35.4605221632658</v>
+        <v>37.3067943105829</v>
       </c>
       <c r="K26">
-        <v>9.039250105710179</v>
+        <v>9.165007160182149</v>
       </c>
       <c r="L26">
-        <v>28.5905987514515</v>
+        <v>30.4177438845763</v>
       </c>
       <c r="M26">
-        <v>58.5119088215906</v>
+        <v>59.5897684193614</v>
       </c>
       <c r="N26">
-        <v>29.5158526714458</v>
+        <v>28.7911223347843</v>
       </c>
       <c r="O26">
-        <v>2368.31601641333</v>
+        <v>2354.66565282656</v>
       </c>
       <c r="P26">
-        <v>56.4590669088309</v>
+        <v>59.7215857311898</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>215.996807997368</v>
+        <v>207.544802671269</v>
       </c>
       <c r="C27">
-        <v>2.09477459263485</v>
+        <v>1.99848118909971</v>
       </c>
       <c r="D27">
-        <v>1.71432539592243</v>
+        <v>1.95329789454519</v>
       </c>
       <c r="E27">
-        <v>12.5241475722006</v>
+        <v>11.0672466699133</v>
       </c>
       <c r="F27">
-        <v>8.16420362838829</v>
+        <v>7.23409319093441</v>
       </c>
       <c r="G27">
-        <v>0.762692956687533</v>
+        <v>0.719577353806842</v>
       </c>
       <c r="H27">
-        <v>0.179634284260036</v>
+        <v>0.266500339403196</v>
       </c>
       <c r="I27">
-        <v>3.07643305379429</v>
+        <v>2.38698097553021</v>
       </c>
       <c r="J27">
-        <v>4.40184855505258</v>
+        <v>3.42598968358586</v>
       </c>
       <c r="K27">
-        <v>0.812103001620495</v>
+        <v>0.931553772167787</v>
       </c>
       <c r="L27">
-        <v>2.99595940371558</v>
+        <v>2.50054915610217</v>
       </c>
       <c r="M27">
-        <v>0.643261734517695</v>
+        <v>0.614234787228961</v>
       </c>
       <c r="N27">
-        <v>4.10401130968545</v>
+        <v>3.89297912590445</v>
       </c>
       <c r="O27">
-        <v>445.647226310227</v>
+        <v>434.593674951634</v>
       </c>
       <c r="P27">
-        <v>50.8791057295806</v>
+        <v>50.5273769650934</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>253.704520162913</v>
+        <v>248.114410823242</v>
       </c>
       <c r="C28">
-        <v>39.2874858887611</v>
+        <v>37.4574840004716</v>
       </c>
       <c r="D28">
-        <v>1.80337893024024</v>
+        <v>2.12851882229871</v>
       </c>
       <c r="E28">
-        <v>7.86681194758042</v>
+        <v>7.33938475200764</v>
       </c>
       <c r="F28">
-        <v>0.450924986927209</v>
+        <v>0.424430424687728</v>
       </c>
       <c r="G28">
-        <v>5.22982363589541</v>
+        <v>5.0221529185411</v>
       </c>
       <c r="H28">
-        <v>6.39029427665394</v>
+        <v>6.41545221868288</v>
       </c>
       <c r="I28">
-        <v>3.67916652612821</v>
+        <v>3.77357070443966</v>
       </c>
       <c r="J28">
-        <v>18.1000422840507</v>
+        <v>18.9829079872394</v>
       </c>
       <c r="K28">
-        <v>12.5976492232159</v>
+        <v>10.9241026498946</v>
       </c>
       <c r="L28">
-        <v>10.2639071501399</v>
+        <v>10.2904334061074</v>
       </c>
       <c r="M28">
-        <v>11.2642765705697</v>
+        <v>11.2189640095678</v>
       </c>
       <c r="N28">
-        <v>11.550434087171</v>
+        <v>10.9685280825759</v>
       </c>
       <c r="O28">
-        <v>798.83009607613</v>
+        <v>788.892522539193</v>
       </c>
       <c r="P28">
-        <v>73.09789584437471</v>
+        <v>73.86779287513041</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>453.357481988383</v>
+        <v>455.672918495925</v>
       </c>
       <c r="C29">
-        <v>3.14964330685611</v>
+        <v>3.87873577302219</v>
       </c>
       <c r="D29">
-        <v>1.06019647554318</v>
+        <v>1.92804192100609</v>
       </c>
       <c r="E29">
-        <v>5.33387708845054</v>
+        <v>6.45289749586804</v>
       </c>
       <c r="F29">
-        <v>24.9497528437991</v>
+        <v>25.2552765215209</v>
       </c>
       <c r="G29">
-        <v>3.9015157966632</v>
+        <v>4.82794553506587</v>
       </c>
       <c r="H29">
-        <v>0.772111799717397</v>
+        <v>1.11416159910442</v>
       </c>
       <c r="I29">
-        <v>2.37914131623852</v>
+        <v>1.86316620365373</v>
       </c>
       <c r="J29">
-        <v>2.93073754734503</v>
+        <v>4.53572723165328</v>
       </c>
       <c r="K29">
-        <v>1.58024309087385</v>
+        <v>1.61293663115554</v>
       </c>
       <c r="L29">
-        <v>3.60898394173688</v>
+        <v>3.96843140933308</v>
       </c>
       <c r="M29">
-        <v>4.22539191972707</v>
+        <v>4.10039904484721</v>
       </c>
       <c r="N29">
-        <v>12.2897388041154</v>
+        <v>11.386883102599</v>
       </c>
       <c r="O29">
-        <v>1131.79020393817</v>
+        <v>1119.26115339215</v>
       </c>
       <c r="P29">
-        <v>4.52147769412784</v>
+        <v>5.14510409830617</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>214.529759082286</v>
+        <v>209.796810206013</v>
       </c>
       <c r="C30">
-        <v>4.5470481834221</v>
+        <v>4.57653217252305</v>
       </c>
       <c r="D30">
-        <v>4.52003962471241</v>
+        <v>4.9397952996572</v>
       </c>
       <c r="E30">
-        <v>11.9131774951972</v>
+        <v>11.5874303903839</v>
       </c>
       <c r="F30">
-        <v>0.136783619206243</v>
+        <v>0.19262348684744</v>
       </c>
       <c r="G30">
-        <v>4.83347720179009</v>
+        <v>4.72348256300839</v>
       </c>
       <c r="H30">
-        <v>4.23266186385161</v>
+        <v>3.76993474896476</v>
       </c>
       <c r="I30">
-        <v>2.99174848254817</v>
+        <v>2.3396560689873</v>
       </c>
       <c r="J30">
-        <v>19.5264680205649</v>
+        <v>18.4368789698136</v>
       </c>
       <c r="K30">
-        <v>4.07113252850819</v>
+        <v>3.7444333140046</v>
       </c>
       <c r="L30">
-        <v>43.980096224916</v>
+        <v>42.948868854942</v>
       </c>
       <c r="M30">
-        <v>9.52345074457614</v>
+        <v>9.001886554300651</v>
       </c>
       <c r="N30">
-        <v>16.2831517787605</v>
+        <v>15.7313765590301</v>
       </c>
       <c r="O30">
-        <v>595.000218284132</v>
+        <v>585.308414525354</v>
       </c>
       <c r="P30">
-        <v>6.09246690917488</v>
+        <v>6.41517653503209</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1534.46331496211</v>
+        <v>1560.28864191676</v>
       </c>
       <c r="C31">
-        <v>56.5512075291842</v>
+        <v>59.5069219217768</v>
       </c>
       <c r="D31">
-        <v>9.00733100573339</v>
+        <v>9.188735381238869</v>
       </c>
       <c r="E31">
-        <v>32.2349483927928</v>
+        <v>34.7283554682682</v>
       </c>
       <c r="F31">
-        <v>1.23550290662473</v>
+        <v>2.94797742389949</v>
       </c>
       <c r="G31">
-        <v>110.615354654749</v>
+        <v>108.177644844568</v>
       </c>
       <c r="H31">
-        <v>10.0924524663478</v>
+        <v>10.4702565330683</v>
       </c>
       <c r="I31">
-        <v>9.3457478560328</v>
+        <v>13.2297471473897</v>
       </c>
       <c r="J31">
-        <v>27.3362767935805</v>
+        <v>25.5760755499094</v>
       </c>
       <c r="K31">
-        <v>4.64633870040859</v>
+        <v>6.72293995585191</v>
       </c>
       <c r="L31">
-        <v>56.5812019040657</v>
+        <v>63.8127211683988</v>
       </c>
       <c r="M31">
-        <v>19.9478179058899</v>
+        <v>19.6556707030577</v>
       </c>
       <c r="N31">
-        <v>77.1298925855523</v>
+        <v>70.8231054233693</v>
       </c>
       <c r="O31">
-        <v>3753.05575135189</v>
+        <v>3708.92513890173</v>
       </c>
       <c r="P31">
-        <v>18.2049296485916</v>
+        <v>18.9245726773268</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>457.871516244268</v>
+        <v>456.356771513202</v>
       </c>
       <c r="C32">
-        <v>3.12221925512205</v>
+        <v>2.98966660376556</v>
       </c>
       <c r="D32">
-        <v>0.676646888873406</v>
+        <v>0.472633936732839</v>
       </c>
       <c r="E32">
-        <v>3.34401763296588</v>
+        <v>2.97780940013118</v>
       </c>
       <c r="F32">
-        <v>22.7883535053903</v>
+        <v>22.8381121792802</v>
       </c>
       <c r="G32">
-        <v>1.92659210807315</v>
+        <v>2.93513065807826</v>
       </c>
       <c r="H32">
-        <v>0.416159242762985</v>
+        <v>0.894526044246247</v>
       </c>
       <c r="I32">
-        <v>1.95023470056425</v>
+        <v>1.31018138876047</v>
       </c>
       <c r="J32">
-        <v>5.30262565778967</v>
+        <v>4.97863652292809</v>
       </c>
       <c r="K32">
-        <v>2.6023868078465</v>
+        <v>2.23843791270859</v>
       </c>
       <c r="L32">
-        <v>6.20399413263189</v>
+        <v>7.81215680489623</v>
       </c>
       <c r="M32">
-        <v>9.191174857445599</v>
+        <v>7.8154217215088</v>
       </c>
       <c r="N32">
-        <v>15.7374357618325</v>
+        <v>15.1887852343598</v>
       </c>
       <c r="O32">
-        <v>786.617091676115</v>
+        <v>774.647044063898</v>
       </c>
       <c r="P32">
-        <v>19.8558191909648</v>
+        <v>20.1821551806493</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4164.54661236651</v>
+        <v>4144.28684859499</v>
       </c>
       <c r="C33">
-        <v>82.9558575594526</v>
+        <v>82.70538128420721</v>
       </c>
       <c r="D33">
-        <v>14.0832242583255</v>
+        <v>17.3376040690584</v>
       </c>
       <c r="E33">
-        <v>67.0850815249255</v>
+        <v>75.1237146870905</v>
       </c>
       <c r="F33">
-        <v>10.7615355487113</v>
+        <v>10.3070441537309</v>
       </c>
       <c r="G33">
-        <v>68.7115738126321</v>
+        <v>73.6500559501435</v>
       </c>
       <c r="H33">
-        <v>44.2949216485627</v>
+        <v>38.0159083042723</v>
       </c>
       <c r="I33">
-        <v>19.2058759746726</v>
+        <v>21.1988215619367</v>
       </c>
       <c r="J33">
-        <v>87.87394397938451</v>
+        <v>89.8310334048377</v>
       </c>
       <c r="K33">
-        <v>58.2366696444046</v>
+        <v>57.5038576861706</v>
       </c>
       <c r="L33">
-        <v>101.741503141893</v>
+        <v>100.227321523696</v>
       </c>
       <c r="M33">
-        <v>53.5561123931394</v>
+        <v>60.4789035157787</v>
       </c>
       <c r="N33">
-        <v>138.20481416281</v>
+        <v>136.21874563348</v>
       </c>
       <c r="O33">
-        <v>7690.45300914763</v>
+        <v>7710.29035029521</v>
       </c>
       <c r="P33">
-        <v>61.5104228300967</v>
+        <v>59.4140205097408</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1864.05032886389</v>
+        <v>1881.08524196551</v>
       </c>
       <c r="C34">
-        <v>62.5607383590094</v>
+        <v>65.1483904756232</v>
       </c>
       <c r="D34">
-        <v>84.05846703999801</v>
+        <v>84.7317421070798</v>
       </c>
       <c r="E34">
-        <v>62.1326957495268</v>
+        <v>54.6727711272855</v>
       </c>
       <c r="F34">
-        <v>2.47549808727039</v>
+        <v>2.1111720194598</v>
       </c>
       <c r="G34">
-        <v>45.2625921176606</v>
+        <v>48.0351053214567</v>
       </c>
       <c r="H34">
-        <v>44.0029970541726</v>
+        <v>43.325975331157</v>
       </c>
       <c r="I34">
-        <v>13.9069535990675</v>
+        <v>18.113449648578</v>
       </c>
       <c r="J34">
-        <v>43.6313283575183</v>
+        <v>50.6706621396323</v>
       </c>
       <c r="K34">
-        <v>7.73346415699568</v>
+        <v>11.3642912577994</v>
       </c>
       <c r="L34">
-        <v>111.831443885092</v>
+        <v>109.092220026298</v>
       </c>
       <c r="M34">
-        <v>33.708602530449</v>
+        <v>33.8840787989044</v>
       </c>
       <c r="N34">
-        <v>120.100344810734</v>
+        <v>121.661173102278</v>
       </c>
       <c r="O34">
-        <v>3287.02175504612</v>
+        <v>3300.95751398895</v>
       </c>
       <c r="P34">
-        <v>73.1309057244022</v>
+        <v>70.5627092068649</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>103.440161128097</v>
+        <v>99.9647855456431</v>
       </c>
       <c r="C35">
-        <v>7.5726112477504</v>
+        <v>7.31170807570216</v>
       </c>
       <c r="D35">
-        <v>0.37606968871738</v>
+        <v>0.430033915931884</v>
       </c>
       <c r="E35">
-        <v>2.7984629805676</v>
+        <v>3.11603332045654</v>
       </c>
       <c r="F35">
-        <v>4.5457398611188</v>
+        <v>4.52823528053595</v>
       </c>
       <c r="G35">
-        <v>0.326389855589828</v>
+        <v>1.23583165109547</v>
       </c>
       <c r="H35">
-        <v>1.08593543910567</v>
+        <v>0.7850313180152571</v>
       </c>
       <c r="I35">
-        <v>1.04839475939784</v>
+        <v>1.57069534364623</v>
       </c>
       <c r="J35">
-        <v>2.78389862800045</v>
+        <v>2.54139115736093</v>
       </c>
       <c r="K35">
-        <v>4.58645808282193</v>
+        <v>4.59506730051613</v>
       </c>
       <c r="L35">
-        <v>3.34544371889949</v>
+        <v>2.95482009057935</v>
       </c>
       <c r="M35">
-        <v>3.20796221481595</v>
+        <v>3.32863221249331</v>
       </c>
       <c r="N35">
-        <v>4.37727952177928</v>
+        <v>3.84800651245612</v>
       </c>
       <c r="O35">
-        <v>320.625640794217</v>
+        <v>308.81021759514</v>
       </c>
       <c r="P35">
-        <v>50.8899795297388</v>
+        <v>49.6769371192319</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2487.96337248469</v>
+        <v>2485.19147966372</v>
       </c>
       <c r="C36">
-        <v>79.2443029331958</v>
+        <v>74.30290068754</v>
       </c>
       <c r="D36">
-        <v>7.69827897974705</v>
+        <v>9.27740217747728</v>
       </c>
       <c r="E36">
-        <v>142.196178061197</v>
+        <v>143.403577236901</v>
       </c>
       <c r="F36">
-        <v>26.3753312028422</v>
+        <v>24.8808382274649</v>
       </c>
       <c r="G36">
-        <v>91.3323093506723</v>
+        <v>92.1238075018604</v>
       </c>
       <c r="H36">
-        <v>72.3339636705588</v>
+        <v>73.1449483299286</v>
       </c>
       <c r="I36">
-        <v>36.775816720198</v>
+        <v>35.5184897373857</v>
       </c>
       <c r="J36">
-        <v>212.984468667415</v>
+        <v>209.825601246963</v>
       </c>
       <c r="K36">
-        <v>56.3158821885977</v>
+        <v>53.8498925122673</v>
       </c>
       <c r="L36">
-        <v>58.0789710360596</v>
+        <v>63.5336159309394</v>
       </c>
       <c r="M36">
-        <v>173.549960647203</v>
+        <v>181.85636618388</v>
       </c>
       <c r="N36">
-        <v>107.807277191544</v>
+        <v>107.306874408165</v>
       </c>
       <c r="O36">
-        <v>4271.39916694494</v>
+        <v>4284.85035566982</v>
       </c>
       <c r="P36">
-        <v>59.9620261711443</v>
+        <v>57.8516751491923</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>788.882437732858</v>
+        <v>794.277957496455</v>
       </c>
       <c r="C37">
-        <v>18.3045164727352</v>
+        <v>17.0199813326903</v>
       </c>
       <c r="D37">
-        <v>2.98850008051154</v>
+        <v>2.5071287764847</v>
       </c>
       <c r="E37">
-        <v>17.5959207271092</v>
+        <v>20.0395045221896</v>
       </c>
       <c r="F37">
-        <v>38.2690364904175</v>
+        <v>39.2443941783646</v>
       </c>
       <c r="G37">
-        <v>6.03818277575768</v>
+        <v>7.20230129595267</v>
       </c>
       <c r="H37">
-        <v>23.6944809466994</v>
+        <v>22.2970753162237</v>
       </c>
       <c r="I37">
-        <v>6.90353118115555</v>
+        <v>7.38473540618631</v>
       </c>
       <c r="J37">
-        <v>29.5119596182512</v>
+        <v>31.3930850239644</v>
       </c>
       <c r="K37">
-        <v>5.42344921349144</v>
+        <v>6.18828258824635</v>
       </c>
       <c r="L37">
-        <v>18.1108059116566</v>
+        <v>20.4497035506489</v>
       </c>
       <c r="M37">
-        <v>34.733366887173</v>
+        <v>34.2201001289316</v>
       </c>
       <c r="N37">
-        <v>17.9946128167418</v>
+        <v>21.595413945702</v>
       </c>
       <c r="O37">
-        <v>1323.87917830209</v>
+        <v>1318.58968439848</v>
       </c>
       <c r="P37">
-        <v>56.1894244650736</v>
+        <v>55.873089541001</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>780.1966572825</v>
+        <v>794.071296556671</v>
       </c>
       <c r="C38">
-        <v>23.4732058594719</v>
+        <v>23.5094713339143</v>
       </c>
       <c r="D38">
-        <v>2.7641569786601</v>
+        <v>4.59943476196581</v>
       </c>
       <c r="E38">
-        <v>44.0306333118735</v>
+        <v>43.0917093783722</v>
       </c>
       <c r="F38">
-        <v>1.81121460013577</v>
+        <v>1.37200059555199</v>
       </c>
       <c r="G38">
-        <v>9.08767432721649</v>
+        <v>10.0030623950226</v>
       </c>
       <c r="H38">
-        <v>1.82507018687703</v>
+        <v>1.902793315872</v>
       </c>
       <c r="I38">
-        <v>2.86273160780201</v>
+        <v>3.35157242731604</v>
       </c>
       <c r="J38">
-        <v>36.6377785276761</v>
+        <v>36.1609578518483</v>
       </c>
       <c r="K38">
-        <v>2.89296345073369</v>
+        <v>3.20081863288778</v>
       </c>
       <c r="L38">
-        <v>78.4029884052064</v>
+        <v>80.6821720241269</v>
       </c>
       <c r="M38">
-        <v>21.4522593695878</v>
+        <v>23.8286666480634</v>
       </c>
       <c r="N38">
-        <v>38.3590008438285</v>
+        <v>40.9292670227559</v>
       </c>
       <c r="O38">
-        <v>1448.39094337584</v>
+        <v>1436.53734471962</v>
       </c>
       <c r="P38">
-        <v>65.6701630536454</v>
+        <v>65.47640300584691</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2599.9596537928</v>
+        <v>2638.67155426244</v>
       </c>
       <c r="C39">
-        <v>95.4469101355385</v>
+        <v>98.7272035088957</v>
       </c>
       <c r="D39">
-        <v>29.5210595008971</v>
+        <v>32.0962262686236</v>
       </c>
       <c r="E39">
-        <v>124.018670420837</v>
+        <v>119.454194942053</v>
       </c>
       <c r="F39">
-        <v>28.1654156805578</v>
+        <v>27.8654153953613</v>
       </c>
       <c r="G39">
-        <v>109.935868002377</v>
+        <v>113.540035341136</v>
       </c>
       <c r="H39">
-        <v>50.482873329182</v>
+        <v>50.0679078148207</v>
       </c>
       <c r="I39">
-        <v>26.6012971791794</v>
+        <v>26.9159589152899</v>
       </c>
       <c r="J39">
-        <v>196.473317806616</v>
+        <v>180.617251839127</v>
       </c>
       <c r="K39">
-        <v>42.149079636773</v>
+        <v>48.2551340416626</v>
       </c>
       <c r="L39">
-        <v>112.352472484178</v>
+        <v>111.562611000943</v>
       </c>
       <c r="M39">
-        <v>77.9791824745095</v>
+        <v>74.11187570924081</v>
       </c>
       <c r="N39">
-        <v>128.626198346056</v>
+        <v>122.077716534089</v>
       </c>
       <c r="O39">
-        <v>4957.33978186356</v>
+        <v>4943.55700131629</v>
       </c>
       <c r="P39">
-        <v>62.1967543191305</v>
+        <v>64.6716690463696</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>227.974919295447</v>
+        <v>226.022313946039</v>
       </c>
       <c r="C40">
-        <v>3.37559751932735</v>
+        <v>3.39824454285794</v>
       </c>
       <c r="D40">
-        <v>7.59596891264124</v>
+        <v>7.62590704830797</v>
       </c>
       <c r="E40">
-        <v>4.2255790960106</v>
+        <v>4.41907125105523</v>
       </c>
       <c r="F40">
-        <v>0.260621498319465</v>
+        <v>0.300173053152894</v>
       </c>
       <c r="G40">
-        <v>5.22053461855992</v>
+        <v>4.9523157450266</v>
       </c>
       <c r="H40">
-        <v>3.88060261277755</v>
+        <v>3.9756998137456</v>
       </c>
       <c r="I40">
-        <v>1.85427652760624</v>
+        <v>1.99513723993308</v>
       </c>
       <c r="J40">
-        <v>12.0105513440731</v>
+        <v>11.0222312369541</v>
       </c>
       <c r="K40">
-        <v>1.1089553509864</v>
+        <v>1.20139998159317</v>
       </c>
       <c r="L40">
-        <v>11.9090565898004</v>
+        <v>12.3338935073138</v>
       </c>
       <c r="M40">
-        <v>4.42548578837098</v>
+        <v>5.54580803352592</v>
       </c>
       <c r="N40">
-        <v>25.3679060761484</v>
+        <v>22.9131458590851</v>
       </c>
       <c r="O40">
-        <v>502.890890579664</v>
+        <v>483.347417902028</v>
       </c>
       <c r="P40">
-        <v>4.3826865069165</v>
+        <v>3.92524116360855</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1017.53986528606</v>
+        <v>1038.08436222081</v>
       </c>
       <c r="C41">
-        <v>14.6516577091342</v>
+        <v>17.018231629657</v>
       </c>
       <c r="D41">
-        <v>59.139793809296</v>
+        <v>59.6549292754137</v>
       </c>
       <c r="E41">
-        <v>34.199329483476</v>
+        <v>33.0323675882639</v>
       </c>
       <c r="F41">
-        <v>1.03547862499987</v>
+        <v>2.26175626190375</v>
       </c>
       <c r="G41">
-        <v>33.5774951177946</v>
+        <v>30.5797202234878</v>
       </c>
       <c r="H41">
-        <v>36.3889942791653</v>
+        <v>33.193623080119</v>
       </c>
       <c r="I41">
-        <v>11.5536694618022</v>
+        <v>13.5238253603527</v>
       </c>
       <c r="J41">
-        <v>38.547504002242</v>
+        <v>38.0649677605486</v>
       </c>
       <c r="K41">
-        <v>8.363022734039941</v>
+        <v>8.499873923102211</v>
       </c>
       <c r="L41">
-        <v>25.4809793270833</v>
+        <v>30.6428274148649</v>
       </c>
       <c r="M41">
-        <v>33.3300119854962</v>
+        <v>31.1809037188627</v>
       </c>
       <c r="N41">
-        <v>17.1865306826568</v>
+        <v>18.6043219663608</v>
       </c>
       <c r="O41">
-        <v>1565.16012805301</v>
+        <v>1557.66330900196</v>
       </c>
       <c r="P41">
-        <v>28.8047569437644</v>
+        <v>30.2909955528083</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>131.654512947643</v>
+        <v>124.35809640379</v>
       </c>
       <c r="C42">
-        <v>8.574557917227571</v>
+        <v>8.18161712481476</v>
       </c>
       <c r="D42">
-        <v>1.41960146580009</v>
+        <v>1.47394108362629</v>
       </c>
       <c r="E42">
-        <v>8.66625830219196</v>
+        <v>7.78155068604552</v>
       </c>
       <c r="F42">
-        <v>2.64417284110475</v>
+        <v>2.49523803185825</v>
       </c>
       <c r="G42">
-        <v>2.10621422894073</v>
+        <v>1.91243348705675</v>
       </c>
       <c r="H42">
-        <v>1.14952421632142</v>
+        <v>1.74305804624526</v>
       </c>
       <c r="I42">
-        <v>2.30924117185686</v>
+        <v>1.85609902209312</v>
       </c>
       <c r="J42">
-        <v>7.51318761851411</v>
+        <v>6.50689354428629</v>
       </c>
       <c r="K42">
-        <v>4.77236151290011</v>
+        <v>4.66978446184458</v>
       </c>
       <c r="L42">
-        <v>6.14058688022181</v>
+        <v>6.69504966607962</v>
       </c>
       <c r="M42">
-        <v>4.603219351513</v>
+        <v>4.20768886767829</v>
       </c>
       <c r="N42">
-        <v>12.9618289897194</v>
+        <v>12.7657040542303</v>
       </c>
       <c r="O42">
-        <v>399.235432881738</v>
+        <v>386.354521607954</v>
       </c>
       <c r="P42">
-        <v>58.0377347692902</v>
+        <v>56.4184505525861</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1489.99982659972</v>
+        <v>1487.98883399924</v>
       </c>
       <c r="C43">
-        <v>38.2004042273422</v>
+        <v>40.3076996613877</v>
       </c>
       <c r="D43">
-        <v>24.5823415512783</v>
+        <v>22.5881737543672</v>
       </c>
       <c r="E43">
-        <v>71.0229655368517</v>
+        <v>72.5546435134977</v>
       </c>
       <c r="F43">
-        <v>6.48914659087621</v>
+        <v>6.33008344272882</v>
       </c>
       <c r="G43">
-        <v>32.4176805177334</v>
+        <v>30.1646694511714</v>
       </c>
       <c r="H43">
-        <v>46.1244427927379</v>
+        <v>40.0170339944604</v>
       </c>
       <c r="I43">
-        <v>9.94797441858921</v>
+        <v>12.1618619424779</v>
       </c>
       <c r="J43">
-        <v>57.4497228971521</v>
+        <v>54.5010171414802</v>
       </c>
       <c r="K43">
-        <v>6.82147091472058</v>
+        <v>8.152885673215151</v>
       </c>
       <c r="L43">
-        <v>33.2867769359271</v>
+        <v>33.1338664482064</v>
       </c>
       <c r="M43">
-        <v>81.7303797737452</v>
+        <v>82.7535999155556</v>
       </c>
       <c r="N43">
-        <v>76.8942178573901</v>
+        <v>67.8715017499256</v>
       </c>
       <c r="O43">
-        <v>2170.52194438867</v>
+        <v>2203.82640085098</v>
       </c>
       <c r="P43">
-        <v>34.3266660357013</v>
+        <v>37.5781393313379</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4307.31548576568</v>
+        <v>4356.19594946723</v>
       </c>
       <c r="C44">
-        <v>146.747044647847</v>
+        <v>148.836255356279</v>
       </c>
       <c r="D44">
-        <v>17.8528654318285</v>
+        <v>19.7581465433396</v>
       </c>
       <c r="E44">
-        <v>91.7229751515581</v>
+        <v>90.0157711571721</v>
       </c>
       <c r="F44">
-        <v>251.506856506867</v>
+        <v>269.464182091555</v>
       </c>
       <c r="G44">
-        <v>126.22599398426</v>
+        <v>122.293201059332</v>
       </c>
       <c r="H44">
-        <v>31.0482619284984</v>
+        <v>29.4652920175139</v>
       </c>
       <c r="I44">
-        <v>39.2076682511016</v>
+        <v>38.2728706703174</v>
       </c>
       <c r="J44">
-        <v>118.533387483167</v>
+        <v>112.590239309257</v>
       </c>
       <c r="K44">
-        <v>26.9943049881869</v>
+        <v>32.2923274368752</v>
       </c>
       <c r="L44">
-        <v>178.948795483711</v>
+        <v>177.698081985419</v>
       </c>
       <c r="M44">
-        <v>81.0493103805382</v>
+        <v>90.1369209340226</v>
       </c>
       <c r="N44">
-        <v>81.6516421233875</v>
+        <v>90.1260422349857</v>
       </c>
       <c r="O44">
-        <v>8484.95882270139</v>
+        <v>8538.258673766281</v>
       </c>
       <c r="P44">
-        <v>187.928310833579</v>
+        <v>196.394444119456</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>391.15147284219</v>
+        <v>401.836992263588</v>
       </c>
       <c r="C45">
-        <v>17.2092999799423</v>
+        <v>18.2596279565848</v>
       </c>
       <c r="D45">
-        <v>1.63807004481655</v>
+        <v>1.89356229766047</v>
       </c>
       <c r="E45">
-        <v>17.7133321719838</v>
+        <v>17.5931462026308</v>
       </c>
       <c r="F45">
-        <v>26.7684849615872</v>
+        <v>25.4506854271248</v>
       </c>
       <c r="G45">
-        <v>8.361150458184101</v>
+        <v>8.21447701317922</v>
       </c>
       <c r="H45">
-        <v>0.8834496883699861</v>
+        <v>2.64360772568254</v>
       </c>
       <c r="I45">
-        <v>2.8564960798448</v>
+        <v>2.97959464977337</v>
       </c>
       <c r="J45">
-        <v>23.855896277758</v>
+        <v>21.9666982822934</v>
       </c>
       <c r="K45">
-        <v>2.12209222544741</v>
+        <v>2.73576605253753</v>
       </c>
       <c r="L45">
-        <v>15.2359106615288</v>
+        <v>14.357246353084</v>
       </c>
       <c r="M45">
-        <v>12.4399333302282</v>
+        <v>12.4358944042306</v>
       </c>
       <c r="N45">
-        <v>33.1240896997005</v>
+        <v>31.6521179203906</v>
       </c>
       <c r="O45">
-        <v>920.639476428003</v>
+        <v>912.546219954056</v>
       </c>
       <c r="P45">
-        <v>18.2677988873642</v>
+        <v>19.4615626881775</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>116.092609467966</v>
+        <v>113.269671287586</v>
       </c>
       <c r="C46">
-        <v>6.02293986093567</v>
+        <v>5.22470295206033</v>
       </c>
       <c r="D46">
-        <v>0.75618354470436</v>
+        <v>0.720527935904751</v>
       </c>
       <c r="E46">
-        <v>6.53184070043878</v>
+        <v>5.46053007320802</v>
       </c>
       <c r="F46">
-        <v>0.832655579878998</v>
+        <v>0.832176639969783</v>
       </c>
       <c r="G46">
-        <v>1.45488994948446</v>
+        <v>1.9347486128412</v>
       </c>
       <c r="H46">
-        <v>1.01230658477525</v>
+        <v>0.935281681440743</v>
       </c>
       <c r="I46">
-        <v>1.68624982721418</v>
+        <v>2.04074292231699</v>
       </c>
       <c r="J46">
-        <v>5.30138883381516</v>
+        <v>5.3949896665809</v>
       </c>
       <c r="K46">
-        <v>1.3989810980938</v>
+        <v>1.22330400552452</v>
       </c>
       <c r="L46">
-        <v>14.4635399408212</v>
+        <v>14.033289525047</v>
       </c>
       <c r="M46">
-        <v>3.50058134866655</v>
+        <v>3.37771830069264</v>
       </c>
       <c r="N46">
-        <v>11.5650568749238</v>
+        <v>9.880619685350331</v>
       </c>
       <c r="O46">
-        <v>341.628906137985</v>
+        <v>327.612881447044</v>
       </c>
       <c r="P46">
-        <v>9.019110503762541</v>
+        <v>9.19750692466258</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1454.92842806936</v>
+        <v>1453.51204781153</v>
       </c>
       <c r="C47">
-        <v>45.4989537400878</v>
+        <v>46.2870278304931</v>
       </c>
       <c r="D47">
-        <v>9.34079772556202</v>
+        <v>10.2564693478711</v>
       </c>
       <c r="E47">
-        <v>42.2926014076788</v>
+        <v>42.9093156162197</v>
       </c>
       <c r="F47">
-        <v>9.49219885800086</v>
+        <v>10.6681263945538</v>
       </c>
       <c r="G47">
-        <v>23.4830506525928</v>
+        <v>25.1903141086633</v>
       </c>
       <c r="H47">
-        <v>15.3830339023984</v>
+        <v>14.1679312517933</v>
       </c>
       <c r="I47">
-        <v>7.90211427212434</v>
+        <v>8.723422251284109</v>
       </c>
       <c r="J47">
-        <v>30.4851975497327</v>
+        <v>31.1137968526345</v>
       </c>
       <c r="K47">
-        <v>4.32917549477205</v>
+        <v>4.48634652834345</v>
       </c>
       <c r="L47">
-        <v>23.8081502751914</v>
+        <v>22.2190401079924</v>
       </c>
       <c r="M47">
-        <v>62.5589288685654</v>
+        <v>67.75535319849981</v>
       </c>
       <c r="N47">
-        <v>25.1939276997191</v>
+        <v>29.2791403201843</v>
       </c>
       <c r="O47">
-        <v>3052.18139520232</v>
+        <v>3044.0163083431</v>
       </c>
       <c r="P47">
-        <v>41.96899173858</v>
+        <v>43.4176890026292</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1198.66415655619</v>
+        <v>1230.05105127167</v>
       </c>
       <c r="C48">
-        <v>35.4411345573389</v>
+        <v>34.1063783404767</v>
       </c>
       <c r="D48">
-        <v>7.0782572448</v>
+        <v>5.48972436208921</v>
       </c>
       <c r="E48">
-        <v>64.0194147279262</v>
+        <v>68.49528803777361</v>
       </c>
       <c r="F48">
-        <v>11.3409323550314</v>
+        <v>11.3118186836299</v>
       </c>
       <c r="G48">
-        <v>7.59441811092922</v>
+        <v>7.80262552575183</v>
       </c>
       <c r="H48">
-        <v>8.452294636857021</v>
+        <v>8.03265675900103</v>
       </c>
       <c r="I48">
-        <v>8.4125726689535</v>
+        <v>8.656126240602511</v>
       </c>
       <c r="J48">
-        <v>34.2099644226807</v>
+        <v>37.257864698037</v>
       </c>
       <c r="K48">
-        <v>6.13256275466349</v>
+        <v>8.1712386912525</v>
       </c>
       <c r="L48">
-        <v>50.9354350942071</v>
+        <v>54.0057364340404</v>
       </c>
       <c r="M48">
-        <v>148.135913405651</v>
+        <v>149.299755482116</v>
       </c>
       <c r="N48">
-        <v>45.4386210148089</v>
+        <v>43.1302012148985</v>
       </c>
       <c r="O48">
-        <v>2493.57140278034</v>
+        <v>2471.66484284903</v>
       </c>
       <c r="P48">
-        <v>84.9815840499647</v>
+        <v>90.6492095762376</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>695.052107209724</v>
+        <v>682.941291959763</v>
       </c>
       <c r="C49">
-        <v>5.09380171801335</v>
+        <v>5.00932802600394</v>
       </c>
       <c r="D49">
-        <v>0.553519929266166</v>
+        <v>0.656544861921307</v>
       </c>
       <c r="E49">
-        <v>23.0541276113131</v>
+        <v>23.0093006669073</v>
       </c>
       <c r="F49">
-        <v>30.9341969269174</v>
+        <v>31.0573102521811</v>
       </c>
       <c r="G49">
-        <v>13.0143780283841</v>
+        <v>12.9963728084216</v>
       </c>
       <c r="H49">
-        <v>6.55024751869452</v>
+        <v>5.65176545380741</v>
       </c>
       <c r="I49">
-        <v>2.85387973031964</v>
+        <v>2.67055328772368</v>
       </c>
       <c r="J49">
-        <v>21.8136935830088</v>
+        <v>20.5819087597213</v>
       </c>
       <c r="K49">
-        <v>2.59735373831066</v>
+        <v>2.07606312596283</v>
       </c>
       <c r="L49">
-        <v>1.90543968896445</v>
+        <v>1.69425045785183</v>
       </c>
       <c r="M49">
-        <v>4.09546500051307</v>
+        <v>3.73280613199979</v>
       </c>
       <c r="N49">
-        <v>8.24074476694283</v>
+        <v>6.9558194377091</v>
       </c>
       <c r="O49">
-        <v>655.563319581615</v>
+        <v>647.046848576016</v>
       </c>
       <c r="P49">
-        <v>9.17180866014361</v>
+        <v>8.803636443384059</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>924.307527877175</v>
+        <v>917.602110706766</v>
       </c>
       <c r="C50">
-        <v>69.6660790085726</v>
+        <v>68.5663986745174</v>
       </c>
       <c r="D50">
-        <v>6.53632039905142</v>
+        <v>6.8380943859092</v>
       </c>
       <c r="E50">
-        <v>124.899596432276</v>
+        <v>131.487534224379</v>
       </c>
       <c r="F50">
-        <v>1.65802739037743</v>
+        <v>4.17701073936709</v>
       </c>
       <c r="G50">
-        <v>28.474308882842</v>
+        <v>34.4572303059976</v>
       </c>
       <c r="H50">
-        <v>46.7428970230111</v>
+        <v>40.7611720723718</v>
       </c>
       <c r="I50">
-        <v>11.4328390167184</v>
+        <v>12.9403327417869</v>
       </c>
       <c r="J50">
-        <v>79.1988791137025</v>
+        <v>81.8297780532443</v>
       </c>
       <c r="K50">
-        <v>46.9103975083402</v>
+        <v>42.5438683004834</v>
       </c>
       <c r="L50">
-        <v>65.93520780724241</v>
+        <v>63.4048412489058</v>
       </c>
       <c r="M50">
-        <v>57.3948795401961</v>
+        <v>50.6040626495231</v>
       </c>
       <c r="N50">
-        <v>51.0177569139981</v>
+        <v>59.2887996113288</v>
       </c>
       <c r="O50">
-        <v>2186.43753128417</v>
+        <v>2180.70535651307</v>
       </c>
       <c r="P50">
-        <v>89.4142611498083</v>
+        <v>87.3516707163021</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>113.974951913005</v>
+        <v>110.517019028928</v>
       </c>
       <c r="C51">
-        <v>2.06215818167505</v>
+        <v>2.51096165067406</v>
       </c>
       <c r="D51">
-        <v>0.0618776594527648</v>
+        <v>0.0439868164684861</v>
       </c>
       <c r="E51">
-        <v>2.3885924544486</v>
+        <v>2.01942088201529</v>
       </c>
       <c r="F51">
-        <v>39.6417166571613</v>
+        <v>36.3469567728627</v>
       </c>
       <c r="G51">
-        <v>2.57340154954421</v>
+        <v>2.46261307331423</v>
       </c>
       <c r="H51">
-        <v>0.139105645547896</v>
+        <v>0.17795823646134</v>
       </c>
       <c r="I51">
-        <v>1.51211607332726</v>
+        <v>1.53447829798856</v>
       </c>
       <c r="J51">
-        <v>1.56649580934457</v>
+        <v>1.33035611702533</v>
       </c>
       <c r="K51">
-        <v>1.4332845781787</v>
+        <v>1.05035430087157</v>
       </c>
       <c r="L51">
-        <v>1.13276521694317</v>
+        <v>0.678906074468777</v>
       </c>
       <c r="M51">
-        <v>0.442957934926316</v>
+        <v>0.646247139692006</v>
       </c>
       <c r="N51">
-        <v>0.976707063410906</v>
+        <v>0.762249320183379</v>
       </c>
       <c r="O51">
-        <v>304.051334955329</v>
+        <v>282.87890147134</v>
       </c>
       <c r="P51">
-        <v>31.9410418966465</v>
+        <v>28.7401059608379</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1313.29512918696</v>
+        <v>1273.0805934937</v>
       </c>
       <c r="C2">
-        <v>21.7797439523091</v>
+        <v>21.1479110373449</v>
       </c>
       <c r="D2">
-        <v>25.7356906627729</v>
+        <v>30.5018927568458</v>
       </c>
       <c r="E2">
-        <v>52.6396057214368</v>
+        <v>53.8921246525295</v>
       </c>
       <c r="F2">
-        <v>22.3753524914781</v>
+        <v>22.8346992017134</v>
       </c>
       <c r="G2">
-        <v>19.8538042151897</v>
+        <v>17.5843158226248</v>
       </c>
       <c r="H2">
-        <v>14.2419638786869</v>
+        <v>14.9862542983905</v>
       </c>
       <c r="I2">
-        <v>12.6815104061343</v>
+        <v>10.552801824432</v>
       </c>
       <c r="J2">
-        <v>77.0488326224866</v>
+        <v>80.37463288462671</v>
       </c>
       <c r="K2">
-        <v>14.8172833909587</v>
+        <v>11.7107093953294</v>
       </c>
       <c r="L2">
-        <v>51.8294258071351</v>
+        <v>56.9032780513366</v>
       </c>
       <c r="M2">
-        <v>51.5445713135982</v>
+        <v>56.6360300533834</v>
       </c>
       <c r="N2">
-        <v>25.8196289087685</v>
+        <v>23.8305594060405</v>
       </c>
       <c r="O2">
-        <v>1496.33946424632</v>
+        <v>1513.63420494018</v>
       </c>
       <c r="P2">
-        <v>19.9866623818503</v>
+        <v>23.7577362414742</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>139.372109316361</v>
+        <v>94.82075569544671</v>
       </c>
       <c r="C3">
-        <v>2.12583626458716</v>
+        <v>1.18202834807489</v>
       </c>
       <c r="D3">
-        <v>0.388130636082876</v>
+        <v>0.359039249560934</v>
       </c>
       <c r="E3">
-        <v>1.27012894607816</v>
+        <v>0.928584509611829</v>
       </c>
       <c r="F3">
-        <v>10.7330809978814</v>
+        <v>7.66471663680543</v>
       </c>
       <c r="G3">
-        <v>0.37928369328143</v>
+        <v>0.294882354873915</v>
       </c>
       <c r="H3">
-        <v>0.176839002791507</v>
+        <v>0.00696076469602807</v>
       </c>
       <c r="I3">
-        <v>0.7566024070998471</v>
+        <v>0.515206185153252</v>
       </c>
       <c r="J3">
-        <v>0.279781834036923</v>
+        <v>0.285520515296434</v>
       </c>
       <c r="K3">
-        <v>0.153915242489387</v>
+        <v>0.107136933833657</v>
       </c>
       <c r="L3">
-        <v>0.239082916202747</v>
+        <v>0.101507668571687</v>
       </c>
       <c r="M3">
-        <v>0.461573612104436</v>
+        <v>0.473964909106813</v>
       </c>
       <c r="N3">
-        <v>1.18396623295497</v>
+        <v>1.21272740749883</v>
       </c>
       <c r="O3">
-        <v>313.945222459223</v>
+        <v>224.415167223734</v>
       </c>
       <c r="P3">
-        <v>12.3254088955197</v>
+        <v>9.35976808502166</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1355.84368128492</v>
+        <v>1362.65470207238</v>
       </c>
       <c r="C4">
-        <v>11.7391896928416</v>
+        <v>15.4499013773333</v>
       </c>
       <c r="D4">
-        <v>2.77144365126512</v>
+        <v>5.03791268916294</v>
       </c>
       <c r="E4">
-        <v>19.8714985218206</v>
+        <v>13.349283502225</v>
       </c>
       <c r="F4">
-        <v>10.7410875923264</v>
+        <v>9.984705999731521</v>
       </c>
       <c r="G4">
-        <v>7.35644444675299</v>
+        <v>10.8392993919294</v>
       </c>
       <c r="H4">
-        <v>6.69441171798426</v>
+        <v>10.5789814532118</v>
       </c>
       <c r="I4">
-        <v>7.27577873763386</v>
+        <v>6.600733044328</v>
       </c>
       <c r="J4">
-        <v>31.3571141260849</v>
+        <v>37.7387838497868</v>
       </c>
       <c r="K4">
-        <v>3.49368770053484</v>
+        <v>3.03491923255796</v>
       </c>
       <c r="L4">
-        <v>63.0476873024608</v>
+        <v>67.4046654939129</v>
       </c>
       <c r="M4">
-        <v>42.6917942097715</v>
+        <v>35.7657073392194</v>
       </c>
       <c r="N4">
-        <v>32.379846701465</v>
+        <v>29.0478324028783</v>
       </c>
       <c r="O4">
-        <v>2288.00277951704</v>
+        <v>2344.63112865137</v>
       </c>
       <c r="P4">
-        <v>11.8150416224916</v>
+        <v>12.8500882965426</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>688.820657077059</v>
+        <v>678.730533106544</v>
       </c>
       <c r="C5">
-        <v>48.5937440067729</v>
+        <v>50.6570488716651</v>
       </c>
       <c r="D5">
-        <v>10.0686211908214</v>
+        <v>11.1384363450547</v>
       </c>
       <c r="E5">
-        <v>27.7043647867085</v>
+        <v>28.3723178941563</v>
       </c>
       <c r="F5">
-        <v>6.95913962552785</v>
+        <v>7.00642243668061</v>
       </c>
       <c r="G5">
-        <v>5.57966772993745</v>
+        <v>6.31398317138481</v>
       </c>
       <c r="H5">
-        <v>9.631046717978681</v>
+        <v>9.70887659552506</v>
       </c>
       <c r="I5">
-        <v>5.75574983106299</v>
+        <v>5.90656097552078</v>
       </c>
       <c r="J5">
-        <v>28.6795451767424</v>
+        <v>31.8869776153354</v>
       </c>
       <c r="K5">
-        <v>4.88271056026643</v>
+        <v>4.26738089286568</v>
       </c>
       <c r="L5">
-        <v>12.3061238605184</v>
+        <v>11.7675716700051</v>
       </c>
       <c r="M5">
-        <v>18.4036702086354</v>
+        <v>21.5726426687287</v>
       </c>
       <c r="N5">
-        <v>26.3438740593961</v>
+        <v>29.6367744607585</v>
       </c>
       <c r="O5">
-        <v>997.055476931732</v>
+        <v>1048.74898868983</v>
       </c>
       <c r="P5">
-        <v>53.5673624191329</v>
+        <v>52.8067528902897</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7170.28749314755</v>
+        <v>7173.07481839217</v>
       </c>
       <c r="C6">
-        <v>202.768064565403</v>
+        <v>205.78142437455</v>
       </c>
       <c r="D6">
-        <v>38.6282468230028</v>
+        <v>35.7622329876942</v>
       </c>
       <c r="E6">
-        <v>162.69783732835</v>
+        <v>158.845598589542</v>
       </c>
       <c r="F6">
-        <v>45.1599053748821</v>
+        <v>49.8744128330016</v>
       </c>
       <c r="G6">
-        <v>113.65797323413</v>
+        <v>112.061440969947</v>
       </c>
       <c r="H6">
-        <v>51.8009878693904</v>
+        <v>41.4300352462911</v>
       </c>
       <c r="I6">
-        <v>39.8639085831682</v>
+        <v>38.4972121708794</v>
       </c>
       <c r="J6">
-        <v>168.936460071595</v>
+        <v>165.706174760475</v>
       </c>
       <c r="K6">
-        <v>36.6816955619216</v>
+        <v>46.0267182568351</v>
       </c>
       <c r="L6">
-        <v>430.991229883565</v>
+        <v>456.063102379832</v>
       </c>
       <c r="M6">
-        <v>249.000441743084</v>
+        <v>231.215294527841</v>
       </c>
       <c r="N6">
-        <v>290.984362715454</v>
+        <v>318.949243194285</v>
       </c>
       <c r="O6">
-        <v>13159.9697346569</v>
+        <v>13508.7297962963</v>
       </c>
       <c r="P6">
-        <v>276.165472181062</v>
+        <v>287.600004556076</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>754.039486330418</v>
+        <v>769.073457411376</v>
       </c>
       <c r="C7">
-        <v>41.062870908462</v>
+        <v>46.0962171892469</v>
       </c>
       <c r="D7">
-        <v>4.37451655391395</v>
+        <v>4.23563534216664</v>
       </c>
       <c r="E7">
-        <v>19.2867672568664</v>
+        <v>20.8777861173711</v>
       </c>
       <c r="F7">
-        <v>19.5782280885191</v>
+        <v>17.8798582651745</v>
       </c>
       <c r="G7">
-        <v>9.97439449596135</v>
+        <v>9.29504499309537</v>
       </c>
       <c r="H7">
-        <v>2.08779145529473</v>
+        <v>3.05377380131679</v>
       </c>
       <c r="I7">
-        <v>9.61086802073862</v>
+        <v>8.57739788360966</v>
       </c>
       <c r="J7">
-        <v>18.3445828112574</v>
+        <v>22.2162029634419</v>
       </c>
       <c r="K7">
-        <v>5.61163040872094</v>
+        <v>6.37672694294483</v>
       </c>
       <c r="L7">
-        <v>50.0677752729929</v>
+        <v>53.2162062263723</v>
       </c>
       <c r="M7">
-        <v>18.6952608642319</v>
+        <v>19.8070005825459</v>
       </c>
       <c r="N7">
-        <v>24.5257462087546</v>
+        <v>20.7646611408402</v>
       </c>
       <c r="O7">
-        <v>1978.12177994282</v>
+        <v>2036.86724883599</v>
       </c>
       <c r="P7">
-        <v>30.8729518017176</v>
+        <v>33.1827922462427</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>617.692832040538</v>
+        <v>610.282755960193</v>
       </c>
       <c r="C8">
-        <v>12.6238019119548</v>
+        <v>13.5519522087363</v>
       </c>
       <c r="D8">
-        <v>2.77388654387842</v>
+        <v>2.82204865025145</v>
       </c>
       <c r="E8">
-        <v>21.5384118764127</v>
+        <v>22.5372429790446</v>
       </c>
       <c r="F8">
-        <v>2.56484469073682</v>
+        <v>3.34416734320353</v>
       </c>
       <c r="G8">
-        <v>23.0750442789843</v>
+        <v>21.6016408796445</v>
       </c>
       <c r="H8">
-        <v>8.29836094274979</v>
+        <v>7.44035440560904</v>
       </c>
       <c r="I8">
-        <v>7.61491731010042</v>
+        <v>8.01262631539211</v>
       </c>
       <c r="J8">
-        <v>40.76013972504</v>
+        <v>42.8564883979962</v>
       </c>
       <c r="K8">
-        <v>9.243484192044271</v>
+        <v>9.06885041984304</v>
       </c>
       <c r="L8">
-        <v>39.9484777105767</v>
+        <v>42.8794343256265</v>
       </c>
       <c r="M8">
-        <v>51.8365700789633</v>
+        <v>52.9790529054885</v>
       </c>
       <c r="N8">
-        <v>29.8994663190416</v>
+        <v>30.8562016736248</v>
       </c>
       <c r="O8">
-        <v>1435.84036011587</v>
+        <v>1468.01235221802</v>
       </c>
       <c r="P8">
-        <v>8.290221755723049</v>
+        <v>8.974778559630829</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>198.305233745106</v>
+        <v>163.330417267338</v>
       </c>
       <c r="C9">
-        <v>8.860324639499471</v>
+        <v>7.26668568904553</v>
       </c>
       <c r="D9">
-        <v>2.06037014367055</v>
+        <v>1.35112525772864</v>
       </c>
       <c r="E9">
-        <v>4.36457063694823</v>
+        <v>4.19832122425949</v>
       </c>
       <c r="F9">
-        <v>0.886188736528707</v>
+        <v>0.450109089170924</v>
       </c>
       <c r="G9">
-        <v>21.6078295886022</v>
+        <v>20.7334333190228</v>
       </c>
       <c r="H9">
-        <v>2.48619576541379</v>
+        <v>2.05773969208126</v>
       </c>
       <c r="I9">
-        <v>1.5997349120536</v>
+        <v>1.54406067786829</v>
       </c>
       <c r="J9">
-        <v>4.33520905789285</v>
+        <v>3.35532769846977</v>
       </c>
       <c r="K9">
-        <v>0.555597983093303</v>
+        <v>0.352362454655957</v>
       </c>
       <c r="L9">
-        <v>2.80438234055825</v>
+        <v>2.07550472211161</v>
       </c>
       <c r="M9">
-        <v>6.53360062865145</v>
+        <v>6.28778772860348</v>
       </c>
       <c r="N9">
-        <v>2.93925666655022</v>
+        <v>2.42122910593254</v>
       </c>
       <c r="O9">
-        <v>415.863274953878</v>
+        <v>355.130725668609</v>
       </c>
       <c r="P9">
-        <v>6.22443630804999</v>
+        <v>5.57941131227714</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3968.6673603081</v>
+        <v>3954.22370277834</v>
       </c>
       <c r="C10">
-        <v>62.8342982314876</v>
+        <v>66.9383997279687</v>
       </c>
       <c r="D10">
-        <v>11.5582547193074</v>
+        <v>9.65752831460928</v>
       </c>
       <c r="E10">
-        <v>62.633397497161</v>
+        <v>60.3974625870264</v>
       </c>
       <c r="F10">
-        <v>10.3876341158113</v>
+        <v>9.32377621639667</v>
       </c>
       <c r="G10">
-        <v>41.213374388863</v>
+        <v>40.544486602486</v>
       </c>
       <c r="H10">
-        <v>13.9812043932464</v>
+        <v>15.8201751075689</v>
       </c>
       <c r="I10">
-        <v>23.919504031774</v>
+        <v>26.1953727159586</v>
       </c>
       <c r="J10">
-        <v>57.7333709685096</v>
+        <v>63.6063451915238</v>
       </c>
       <c r="K10">
-        <v>7.05263590577191</v>
+        <v>6.29761748009361</v>
       </c>
       <c r="L10">
-        <v>64.6555050084884</v>
+        <v>63.7705526777097</v>
       </c>
       <c r="M10">
-        <v>80.4662005588291</v>
+        <v>73.2835140619123</v>
       </c>
       <c r="N10">
-        <v>94.83548901360381</v>
+        <v>97.45763153595991</v>
       </c>
       <c r="O10">
-        <v>7795.2790424304</v>
+        <v>7893.2560900211</v>
       </c>
       <c r="P10">
-        <v>64.759451143609</v>
+        <v>66.9038889932875</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1927.88594439256</v>
+        <v>1889.50456554029</v>
       </c>
       <c r="C11">
-        <v>67.58028478747551</v>
+        <v>68.1834252502082</v>
       </c>
       <c r="D11">
-        <v>124.87575356914</v>
+        <v>140.898226804733</v>
       </c>
       <c r="E11">
-        <v>83.25112426747261</v>
+        <v>86.3639651157483</v>
       </c>
       <c r="F11">
-        <v>12.2339230754928</v>
+        <v>13.0946830240929</v>
       </c>
       <c r="G11">
-        <v>26.6425264059598</v>
+        <v>24.1322710201387</v>
       </c>
       <c r="H11">
-        <v>23.4605430350139</v>
+        <v>26.0402856778514</v>
       </c>
       <c r="I11">
-        <v>11.20745698143</v>
+        <v>10.8408018218182</v>
       </c>
       <c r="J11">
-        <v>41.6654822735816</v>
+        <v>38.1209075703063</v>
       </c>
       <c r="K11">
-        <v>6.97642661398879</v>
+        <v>6.73653763551092</v>
       </c>
       <c r="L11">
-        <v>45.7791815372168</v>
+        <v>47.8669330977461</v>
       </c>
       <c r="M11">
-        <v>51.9355549163926</v>
+        <v>66.4562141569819</v>
       </c>
       <c r="N11">
-        <v>60.5448071076479</v>
+        <v>64.13672295891389</v>
       </c>
       <c r="O11">
-        <v>3355.17702478516</v>
+        <v>3410.70875550046</v>
       </c>
       <c r="P11">
-        <v>53.4828108076063</v>
+        <v>51.588788382726</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>261.101963646984</v>
+        <v>220.416986941736</v>
       </c>
       <c r="C12">
-        <v>7.17551804094854</v>
+        <v>5.19018359150528</v>
       </c>
       <c r="D12">
-        <v>0.51212477582276</v>
+        <v>0.449005037138618</v>
       </c>
       <c r="E12">
-        <v>3.58890963170707</v>
+        <v>3.39617051940014</v>
       </c>
       <c r="F12">
-        <v>0.945733083587572</v>
+        <v>0.956193245469473</v>
       </c>
       <c r="G12">
-        <v>0.558893409470838</v>
+        <v>0.301798930645626</v>
       </c>
       <c r="H12">
-        <v>0.151611294365038</v>
+        <v>0.0509741672654306</v>
       </c>
       <c r="I12">
-        <v>0.824361267750828</v>
+        <v>0.556882853068164</v>
       </c>
       <c r="J12">
-        <v>1.77272910774106</v>
+        <v>1.18685644253461</v>
       </c>
       <c r="K12">
-        <v>0.254040610249675</v>
+        <v>0.383035907651582</v>
       </c>
       <c r="L12">
-        <v>0.0567718971960333</v>
+        <v>0.0261921535841833</v>
       </c>
       <c r="M12">
-        <v>2.5746483483473</v>
+        <v>1.63083933051776</v>
       </c>
       <c r="N12">
-        <v>4.5938129271743</v>
+        <v>3.94056223063436</v>
       </c>
       <c r="O12">
-        <v>634.519605843663</v>
+        <v>552.397150879266</v>
       </c>
       <c r="P12">
-        <v>20.0197845986162</v>
+        <v>19.2330776605653</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>258.492973461048</v>
+        <v>224.746537957</v>
       </c>
       <c r="C13">
-        <v>21.9996548040038</v>
+        <v>19.4199364305259</v>
       </c>
       <c r="D13">
-        <v>0.76005655667613</v>
+        <v>1.14953849890119</v>
       </c>
       <c r="E13">
-        <v>11.9218385847605</v>
+        <v>12.6278961047896</v>
       </c>
       <c r="F13">
-        <v>3.0440869257393</v>
+        <v>2.80305082272529</v>
       </c>
       <c r="G13">
-        <v>6.87290923771547</v>
+        <v>7.11146016941013</v>
       </c>
       <c r="H13">
-        <v>2.56582225204886</v>
+        <v>1.8649898085458</v>
       </c>
       <c r="I13">
-        <v>2.30514966863997</v>
+        <v>2.33890016708371</v>
       </c>
       <c r="J13">
-        <v>5.73198566469427</v>
+        <v>5.11720894216784</v>
       </c>
       <c r="K13">
-        <v>4.57051264284555</v>
+        <v>3.96065711264384</v>
       </c>
       <c r="L13">
-        <v>17.3249263931758</v>
+        <v>17.422222205195</v>
       </c>
       <c r="M13">
-        <v>2.11794857957784</v>
+        <v>2.16550644593326</v>
       </c>
       <c r="N13">
-        <v>3.54067191024248</v>
+        <v>4.11781398976621</v>
       </c>
       <c r="O13">
-        <v>603.924687297571</v>
+        <v>575.4124078135581</v>
       </c>
       <c r="P13">
-        <v>48.0771331503344</v>
+        <v>42.9367915284181</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2426.08287637205</v>
+        <v>2396.7875823374</v>
       </c>
       <c r="C14">
-        <v>114.930525104504</v>
+        <v>127.424458451024</v>
       </c>
       <c r="D14">
-        <v>8.96958405768026</v>
+        <v>9.603655644544441</v>
       </c>
       <c r="E14">
-        <v>90.4032290938565</v>
+        <v>96.7701010662025</v>
       </c>
       <c r="F14">
-        <v>19.5100430265695</v>
+        <v>19.7883338274506</v>
       </c>
       <c r="G14">
-        <v>80.98070309648161</v>
+        <v>85.9584302822861</v>
       </c>
       <c r="H14">
-        <v>42.8207029187841</v>
+        <v>43.2944832825745</v>
       </c>
       <c r="I14">
-        <v>22.0972247677771</v>
+        <v>23.2293911617957</v>
       </c>
       <c r="J14">
-        <v>136.859286136415</v>
+        <v>122.781105228986</v>
       </c>
       <c r="K14">
-        <v>82.5506928147711</v>
+        <v>73.74617954642351</v>
       </c>
       <c r="L14">
-        <v>97.386171356577</v>
+        <v>109.737163254943</v>
       </c>
       <c r="M14">
-        <v>80.84955877228511</v>
+        <v>101.260086438937</v>
       </c>
       <c r="N14">
-        <v>71.2664331338399</v>
+        <v>66.1717405866228</v>
       </c>
       <c r="O14">
-        <v>5047.03737217153</v>
+        <v>5087.45262510497</v>
       </c>
       <c r="P14">
-        <v>54.9747609777668</v>
+        <v>62.1675873911176</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1239.58299048588</v>
+        <v>1189.37310450245</v>
       </c>
       <c r="C15">
-        <v>54.8976145244891</v>
+        <v>69.9889465933711</v>
       </c>
       <c r="D15">
-        <v>7.05238865611836</v>
+        <v>5.89749896186925</v>
       </c>
       <c r="E15">
-        <v>75.3308274758857</v>
+        <v>67.286751916198</v>
       </c>
       <c r="F15">
-        <v>21.5370014047246</v>
+        <v>23.0455161351042</v>
       </c>
       <c r="G15">
-        <v>57.1338664246792</v>
+        <v>52.5705986352653</v>
       </c>
       <c r="H15">
-        <v>35.7988853013786</v>
+        <v>37.830187829993</v>
       </c>
       <c r="I15">
-        <v>24.4106185381593</v>
+        <v>28.0827795154275</v>
       </c>
       <c r="J15">
-        <v>150.663789065692</v>
+        <v>155.44655004298</v>
       </c>
       <c r="K15">
-        <v>29.3889562308137</v>
+        <v>29.8389836273295</v>
       </c>
       <c r="L15">
-        <v>39.7699619402406</v>
+        <v>42.5554646067886</v>
       </c>
       <c r="M15">
-        <v>162.650186557624</v>
+        <v>163.441101957526</v>
       </c>
       <c r="N15">
-        <v>86.5840140932858</v>
+        <v>92.20926225355571</v>
       </c>
       <c r="O15">
-        <v>2234.53276692988</v>
+        <v>2265.09546199561</v>
       </c>
       <c r="P15">
-        <v>47.718110490917</v>
+        <v>48.3502906182679</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>459.404922395469</v>
+        <v>439.771370530553</v>
       </c>
       <c r="C16">
-        <v>68.384290343666</v>
+        <v>62.188610098232</v>
       </c>
       <c r="D16">
-        <v>4.83364180790673</v>
+        <v>5.57826337250505</v>
       </c>
       <c r="E16">
-        <v>28.7968400274687</v>
+        <v>25.3567846086745</v>
       </c>
       <c r="F16">
-        <v>2.44235198297524</v>
+        <v>3.00243781843251</v>
       </c>
       <c r="G16">
-        <v>17.4563056639642</v>
+        <v>16.7510930712619</v>
       </c>
       <c r="H16">
-        <v>15.6269252380838</v>
+        <v>17.7135645690588</v>
       </c>
       <c r="I16">
-        <v>5.66815582657115</v>
+        <v>4.99160597762426</v>
       </c>
       <c r="J16">
-        <v>47.7083094560239</v>
+        <v>43.7214484279633</v>
       </c>
       <c r="K16">
-        <v>40.1101309391298</v>
+        <v>43.8614517171189</v>
       </c>
       <c r="L16">
-        <v>20.6451251331627</v>
+        <v>18.3136203177686</v>
       </c>
       <c r="M16">
-        <v>24.9363170194405</v>
+        <v>22.4501595613512</v>
       </c>
       <c r="N16">
-        <v>30.4928217165658</v>
+        <v>28.8070479529676</v>
       </c>
       <c r="O16">
-        <v>1263.33666623163</v>
+        <v>1230.33573860412</v>
       </c>
       <c r="P16">
-        <v>88.4499498281965</v>
+        <v>82.8966652208734</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>481.657401353418</v>
+        <v>460.847209863336</v>
       </c>
       <c r="C17">
-        <v>22.9605338265003</v>
+        <v>23.1515266394744</v>
       </c>
       <c r="D17">
-        <v>3.10829176675291</v>
+        <v>2.52035942453458</v>
       </c>
       <c r="E17">
-        <v>24.098477549784</v>
+        <v>22.1143675246394</v>
       </c>
       <c r="F17">
-        <v>13.1998267069466</v>
+        <v>12.3772261334732</v>
       </c>
       <c r="G17">
-        <v>11.5977349476627</v>
+        <v>9.28476974421152</v>
       </c>
       <c r="H17">
-        <v>11.6594757465313</v>
+        <v>12.6512216245437</v>
       </c>
       <c r="I17">
-        <v>6.85465934837241</v>
+        <v>5.99336260282594</v>
       </c>
       <c r="J17">
-        <v>20.7921081475947</v>
+        <v>23.3633225844681</v>
       </c>
       <c r="K17">
-        <v>9.468009323316631</v>
+        <v>8.73668842591454</v>
       </c>
       <c r="L17">
-        <v>11.1132306179319</v>
+        <v>11.0809603770104</v>
       </c>
       <c r="M17">
-        <v>63.0424672037908</v>
+        <v>62.9815201425988</v>
       </c>
       <c r="N17">
-        <v>11.8908578301575</v>
+        <v>11.0703885639038</v>
       </c>
       <c r="O17">
-        <v>1125.0495981221</v>
+        <v>1090.34287651345</v>
       </c>
       <c r="P17">
-        <v>50.0068776818054</v>
+        <v>47.4106874961691</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1132.59031634945</v>
+        <v>1076.98784587838</v>
       </c>
       <c r="C18">
-        <v>31.2295827053138</v>
+        <v>30.6018426853722</v>
       </c>
       <c r="D18">
-        <v>3.81801031291235</v>
+        <v>4.14850157751001</v>
       </c>
       <c r="E18">
-        <v>31.5299349392453</v>
+        <v>31.4040416537687</v>
       </c>
       <c r="F18">
-        <v>36.5248337713452</v>
+        <v>38.7209690108552</v>
       </c>
       <c r="G18">
-        <v>13.9887780733484</v>
+        <v>13.5186091930083</v>
       </c>
       <c r="H18">
-        <v>12.1767183342855</v>
+        <v>11.0438967137383</v>
       </c>
       <c r="I18">
-        <v>5.1053314804613</v>
+        <v>3.40970965304724</v>
       </c>
       <c r="J18">
-        <v>28.3856428031985</v>
+        <v>21.3628517184901</v>
       </c>
       <c r="K18">
-        <v>6.65132759269558</v>
+        <v>7.894389951917</v>
       </c>
       <c r="L18">
-        <v>28.7398240071209</v>
+        <v>28.6938862510725</v>
       </c>
       <c r="M18">
-        <v>62.1646954906266</v>
+        <v>66.5462881850616</v>
       </c>
       <c r="N18">
-        <v>23.7146787075993</v>
+        <v>24.4251636897046</v>
       </c>
       <c r="O18">
-        <v>1572.60095549168</v>
+        <v>1515.75917715761</v>
       </c>
       <c r="P18">
-        <v>58.8320162246902</v>
+        <v>61.4153415711711</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1053.66408828755</v>
+        <v>988.820842705445</v>
       </c>
       <c r="C19">
-        <v>33.6969119546806</v>
+        <v>35.4584306898694</v>
       </c>
       <c r="D19">
-        <v>4.6189117977571</v>
+        <v>8.145774239116831</v>
       </c>
       <c r="E19">
-        <v>37.8461701312104</v>
+        <v>34.7537660298791</v>
       </c>
       <c r="F19">
-        <v>81.6980590152649</v>
+        <v>73.7761139105211</v>
       </c>
       <c r="G19">
-        <v>47.3636252683219</v>
+        <v>44.4845474184291</v>
       </c>
       <c r="H19">
-        <v>9.828328385774579</v>
+        <v>14.0559043269534</v>
       </c>
       <c r="I19">
-        <v>5.13201456673566</v>
+        <v>4.96376002971519</v>
       </c>
       <c r="J19">
-        <v>19.2433033357052</v>
+        <v>17.8673502757161</v>
       </c>
       <c r="K19">
-        <v>5.15722759098249</v>
+        <v>9.537883135626361</v>
       </c>
       <c r="L19">
-        <v>3.63133236502564</v>
+        <v>4.35237027473798</v>
       </c>
       <c r="M19">
-        <v>27.1802536578116</v>
+        <v>24.1058829877996</v>
       </c>
       <c r="N19">
-        <v>12.5966364473114</v>
+        <v>13.1212098839886</v>
       </c>
       <c r="O19">
-        <v>1589.05515259968</v>
+        <v>1589.30648176696</v>
       </c>
       <c r="P19">
-        <v>38.3297246078878</v>
+        <v>38.8950706593119</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>278.640162692022</v>
+        <v>265.791011203282</v>
       </c>
       <c r="C20">
-        <v>10.0052592254155</v>
+        <v>8.981896426896221</v>
       </c>
       <c r="D20">
-        <v>6.65808759656785</v>
+        <v>5.85696842073289</v>
       </c>
       <c r="E20">
-        <v>31.0268830387268</v>
+        <v>32.358459594695</v>
       </c>
       <c r="F20">
-        <v>0.959176606708976</v>
+        <v>1.18326680632631</v>
       </c>
       <c r="G20">
-        <v>3.50380889511618</v>
+        <v>3.76198931168291</v>
       </c>
       <c r="H20">
-        <v>1.22058251510809</v>
+        <v>1.04081154700496</v>
       </c>
       <c r="I20">
-        <v>2.20356279898508</v>
+        <v>2.21625419856866</v>
       </c>
       <c r="J20">
-        <v>5.21288142457627</v>
+        <v>4.58088508844095</v>
       </c>
       <c r="K20">
-        <v>0.868834189182172</v>
+        <v>0.803723885057459</v>
       </c>
       <c r="L20">
-        <v>7.08971628803185</v>
+        <v>7.88077448712629</v>
       </c>
       <c r="M20">
-        <v>18.137566585014</v>
+        <v>18.5143910395571</v>
       </c>
       <c r="N20">
-        <v>6.99521931874157</v>
+        <v>5.17851647322257</v>
       </c>
       <c r="O20">
-        <v>578.207434487695</v>
+        <v>570.686681902013</v>
       </c>
       <c r="P20">
-        <v>21.5312377703562</v>
+        <v>23.9207927405666</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1010.82602962892</v>
+        <v>1000.06013137839</v>
       </c>
       <c r="C21">
-        <v>19.0489995315058</v>
+        <v>14.3676555131813</v>
       </c>
       <c r="D21">
-        <v>1.24899461939862</v>
+        <v>1.27744004994776</v>
       </c>
       <c r="E21">
-        <v>20.4244936818359</v>
+        <v>20.3517579518304</v>
       </c>
       <c r="F21">
-        <v>2.54757117896738</v>
+        <v>2.55443047401631</v>
       </c>
       <c r="G21">
-        <v>14.1347689691939</v>
+        <v>11.1554992440046</v>
       </c>
       <c r="H21">
-        <v>5.43863899352741</v>
+        <v>4.48772128657174</v>
       </c>
       <c r="I21">
-        <v>14.2504584128206</v>
+        <v>17.7120713967094</v>
       </c>
       <c r="J21">
-        <v>14.5792697656951</v>
+        <v>11.019534718512</v>
       </c>
       <c r="K21">
-        <v>2.93520334031833</v>
+        <v>0.835523631476193</v>
       </c>
       <c r="L21">
-        <v>25.5846779797927</v>
+        <v>26.2632068529498</v>
       </c>
       <c r="M21">
-        <v>20.1590932583278</v>
+        <v>15.1433388176583</v>
       </c>
       <c r="N21">
-        <v>16.8352483592742</v>
+        <v>16.1262312294508</v>
       </c>
       <c r="O21">
-        <v>2373.01274298522</v>
+        <v>2410.80709927336</v>
       </c>
       <c r="P21">
-        <v>21.157258021598</v>
+        <v>15.7882770737042</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1175.86752463325</v>
+        <v>1161.1476914966</v>
       </c>
       <c r="C22">
-        <v>23.6132282344785</v>
+        <v>24.3460301228151</v>
       </c>
       <c r="D22">
-        <v>10.1307981264849</v>
+        <v>9.26577057272829</v>
       </c>
       <c r="E22">
-        <v>41.7775020441409</v>
+        <v>41.523408931108</v>
       </c>
       <c r="F22">
-        <v>3.64276148792361</v>
+        <v>2.55514897740242</v>
       </c>
       <c r="G22">
-        <v>28.3075686524867</v>
+        <v>28.9949029496485</v>
       </c>
       <c r="H22">
-        <v>14.9134237941343</v>
+        <v>13.1160096989817</v>
       </c>
       <c r="I22">
-        <v>10.4059456215727</v>
+        <v>11.2624637384951</v>
       </c>
       <c r="J22">
-        <v>37.8144599944723</v>
+        <v>41.8554391593536</v>
       </c>
       <c r="K22">
-        <v>4.20717108962133</v>
+        <v>2.5505078955094</v>
       </c>
       <c r="L22">
-        <v>99.0625863650983</v>
+        <v>87.8001140684821</v>
       </c>
       <c r="M22">
-        <v>18.83508994996</v>
+        <v>17.1601994485489</v>
       </c>
       <c r="N22">
-        <v>62.6330168781122</v>
+        <v>59.7765100290707</v>
       </c>
       <c r="O22">
-        <v>2730.08777071697</v>
+        <v>2795.24871887801</v>
       </c>
       <c r="P22">
-        <v>12.0287163505035</v>
+        <v>14.8426885638615</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2321.85307271554</v>
+        <v>2282.23327625509</v>
       </c>
       <c r="C23">
-        <v>33.5015783221462</v>
+        <v>32.5560115616042</v>
       </c>
       <c r="D23">
-        <v>5.84498718246869</v>
+        <v>8.57362501830716</v>
       </c>
       <c r="E23">
-        <v>54.5785612892005</v>
+        <v>57.4229338103921</v>
       </c>
       <c r="F23">
-        <v>6.53777660978761</v>
+        <v>6.28686745560046</v>
       </c>
       <c r="G23">
-        <v>53.8287104725593</v>
+        <v>50.7148116824112</v>
       </c>
       <c r="H23">
-        <v>53.5376283694188</v>
+        <v>55.2164510385277</v>
       </c>
       <c r="I23">
-        <v>19.71879725075</v>
+        <v>24.3137528995487</v>
       </c>
       <c r="J23">
-        <v>106.600841680573</v>
+        <v>113.596638080941</v>
       </c>
       <c r="K23">
-        <v>59.0401272048334</v>
+        <v>63.2727396992771</v>
       </c>
       <c r="L23">
-        <v>33.3176842773852</v>
+        <v>31.0023029609621</v>
       </c>
       <c r="M23">
-        <v>513.060618608527</v>
+        <v>545.771983056373</v>
       </c>
       <c r="N23">
-        <v>93.3884866408101</v>
+        <v>93.042070576068</v>
       </c>
       <c r="O23">
-        <v>3416.40353156706</v>
+        <v>3445.31428431092</v>
       </c>
       <c r="P23">
-        <v>55.3869059484108</v>
+        <v>66.943732688371</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>776.074652910891</v>
+        <v>772.323157739397</v>
       </c>
       <c r="C24">
-        <v>46.9875427427588</v>
+        <v>43.3306713601173</v>
       </c>
       <c r="D24">
-        <v>7.20504429665015</v>
+        <v>8.16049715863975</v>
       </c>
       <c r="E24">
-        <v>58.1447688775581</v>
+        <v>57.6908464891621</v>
       </c>
       <c r="F24">
-        <v>10.8068506060244</v>
+        <v>12.1680775848171</v>
       </c>
       <c r="G24">
-        <v>25.8538729924119</v>
+        <v>24.9105126940645</v>
       </c>
       <c r="H24">
-        <v>16.9785178120302</v>
+        <v>19.1042404118148</v>
       </c>
       <c r="I24">
-        <v>16.4375134664801</v>
+        <v>17.273582624731</v>
       </c>
       <c r="J24">
-        <v>51.6814224723419</v>
+        <v>56.5753656634133</v>
       </c>
       <c r="K24">
-        <v>19.5622080193476</v>
+        <v>18.8142369694666</v>
       </c>
       <c r="L24">
-        <v>62.0042069723553</v>
+        <v>57.9273500133677</v>
       </c>
       <c r="M24">
-        <v>21.6258748805758</v>
+        <v>22.7164431842624</v>
       </c>
       <c r="N24">
-        <v>69.2446317380297</v>
+        <v>71.54638962065199</v>
       </c>
       <c r="O24">
-        <v>2086.13210398783</v>
+        <v>2173.56264892273</v>
       </c>
       <c r="P24">
-        <v>83.6957504394008</v>
+        <v>84.2235921677011</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>797.121866826884</v>
+        <v>731.149954994641</v>
       </c>
       <c r="C25">
-        <v>38.8755130781027</v>
+        <v>40.4316662462336</v>
       </c>
       <c r="D25">
-        <v>11.0211262536709</v>
+        <v>11.0380784642013</v>
       </c>
       <c r="E25">
-        <v>42.3335267560027</v>
+        <v>43.3843760499818</v>
       </c>
       <c r="F25">
-        <v>16.8221623095371</v>
+        <v>14.9768833587614</v>
       </c>
       <c r="G25">
-        <v>11.1077240447073</v>
+        <v>10.2261867972356</v>
       </c>
       <c r="H25">
-        <v>8.604141201489689</v>
+        <v>8.33029071895205</v>
       </c>
       <c r="I25">
-        <v>3.04162156067912</v>
+        <v>2.81896770929012</v>
       </c>
       <c r="J25">
-        <v>10.8744169638274</v>
+        <v>9.485306877774001</v>
       </c>
       <c r="K25">
-        <v>6.573622077867</v>
+        <v>5.82149352682135</v>
       </c>
       <c r="L25">
-        <v>9.10794529908245</v>
+        <v>7.75359525536566</v>
       </c>
       <c r="M25">
-        <v>37.4523636042674</v>
+        <v>35.7104481237593</v>
       </c>
       <c r="N25">
-        <v>40.8362277296951</v>
+        <v>41.3736172312943</v>
       </c>
       <c r="O25">
-        <v>961.666231092081</v>
+        <v>910.390565539385</v>
       </c>
       <c r="P25">
-        <v>48.3232247594904</v>
+        <v>44.8410082712274</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1116.26070263583</v>
+        <v>1080.95240784043</v>
       </c>
       <c r="C26">
-        <v>55.6801067539977</v>
+        <v>60.02391228228</v>
       </c>
       <c r="D26">
-        <v>4.56173549235594</v>
+        <v>3.30109691616429</v>
       </c>
       <c r="E26">
-        <v>51.0236592769455</v>
+        <v>49.0026978222188</v>
       </c>
       <c r="F26">
-        <v>8.129221963421431</v>
+        <v>5.92008650946785</v>
       </c>
       <c r="G26">
-        <v>36.847112121203</v>
+        <v>42.7246004236731</v>
       </c>
       <c r="H26">
-        <v>11.0439173590359</v>
+        <v>12.3479704025607</v>
       </c>
       <c r="I26">
-        <v>16.2024230148212</v>
+        <v>13.4981521077505</v>
       </c>
       <c r="J26">
-        <v>37.3067943105829</v>
+        <v>37.5426760482444</v>
       </c>
       <c r="K26">
-        <v>9.165007160182149</v>
+        <v>8.971351196896841</v>
       </c>
       <c r="L26">
-        <v>30.4177438845763</v>
+        <v>26.2926706297022</v>
       </c>
       <c r="M26">
-        <v>59.5897684193614</v>
+        <v>58.9660074764364</v>
       </c>
       <c r="N26">
-        <v>28.7911223347843</v>
+        <v>32.2683093467026</v>
       </c>
       <c r="O26">
-        <v>2354.66565282656</v>
+        <v>2412.93338443587</v>
       </c>
       <c r="P26">
-        <v>59.7215857311898</v>
+        <v>62.4215384280089</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>207.544802671269</v>
+        <v>179.503817248869</v>
       </c>
       <c r="C27">
-        <v>1.99848118909971</v>
+        <v>1.94077234069223</v>
       </c>
       <c r="D27">
-        <v>1.95329789454519</v>
+        <v>1.51816646881289</v>
       </c>
       <c r="E27">
-        <v>11.0672466699133</v>
+        <v>10.54448898108</v>
       </c>
       <c r="F27">
-        <v>7.23409319093441</v>
+        <v>7.24947930017896</v>
       </c>
       <c r="G27">
-        <v>0.719577353806842</v>
+        <v>0.633371260735893</v>
       </c>
       <c r="H27">
-        <v>0.266500339403196</v>
+        <v>0.273704587778314</v>
       </c>
       <c r="I27">
-        <v>2.38698097553021</v>
+        <v>3.26413212860674</v>
       </c>
       <c r="J27">
-        <v>3.42598968358586</v>
+        <v>3.48782991589748</v>
       </c>
       <c r="K27">
-        <v>0.931553772167787</v>
+        <v>0.6940066951132931</v>
       </c>
       <c r="L27">
-        <v>2.50054915610217</v>
+        <v>2.25516001492671</v>
       </c>
       <c r="M27">
-        <v>0.614234787228961</v>
+        <v>0.616844260812302</v>
       </c>
       <c r="N27">
-        <v>3.89297912590445</v>
+        <v>3.5903079023812</v>
       </c>
       <c r="O27">
-        <v>434.593674951634</v>
+        <v>390.07051496682</v>
       </c>
       <c r="P27">
-        <v>50.5273769650934</v>
+        <v>47.7419181983986</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>248.114410823242</v>
+        <v>234.084071789358</v>
       </c>
       <c r="C28">
-        <v>37.4574840004716</v>
+        <v>36.9720801799081</v>
       </c>
       <c r="D28">
-        <v>2.12851882229871</v>
+        <v>1.70136788488283</v>
       </c>
       <c r="E28">
-        <v>7.33938475200764</v>
+        <v>8.06715013456707</v>
       </c>
       <c r="F28">
-        <v>0.424430424687728</v>
+        <v>0.885590236371628</v>
       </c>
       <c r="G28">
-        <v>5.0221529185411</v>
+        <v>4.66144470008555</v>
       </c>
       <c r="H28">
-        <v>6.41545221868288</v>
+        <v>6.72137815651226</v>
       </c>
       <c r="I28">
-        <v>3.77357070443966</v>
+        <v>3.19681556310364</v>
       </c>
       <c r="J28">
-        <v>18.9829079872394</v>
+        <v>14.7093379345003</v>
       </c>
       <c r="K28">
-        <v>10.9241026498946</v>
+        <v>11.6789519658435</v>
       </c>
       <c r="L28">
-        <v>10.2904334061074</v>
+        <v>8.780174252706869</v>
       </c>
       <c r="M28">
-        <v>11.2189640095678</v>
+        <v>9.701437813316071</v>
       </c>
       <c r="N28">
-        <v>10.9685280825759</v>
+        <v>10.5556147947755</v>
       </c>
       <c r="O28">
-        <v>788.892522539193</v>
+        <v>760.9117104865391</v>
       </c>
       <c r="P28">
-        <v>73.86779287513041</v>
+        <v>66.5086869193965</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>455.672918495925</v>
+        <v>432.409069538971</v>
       </c>
       <c r="C29">
-        <v>3.87873577302219</v>
+        <v>2.27420980053384</v>
       </c>
       <c r="D29">
-        <v>1.92804192100609</v>
+        <v>0.597893041016053</v>
       </c>
       <c r="E29">
-        <v>6.45289749586804</v>
+        <v>4.57262699734849</v>
       </c>
       <c r="F29">
-        <v>25.2552765215209</v>
+        <v>25.8063399431802</v>
       </c>
       <c r="G29">
-        <v>4.82794553506587</v>
+        <v>3.07473679259547</v>
       </c>
       <c r="H29">
-        <v>1.11416159910442</v>
+        <v>0.499835058962406</v>
       </c>
       <c r="I29">
-        <v>1.86316620365373</v>
+        <v>2.75750097302298</v>
       </c>
       <c r="J29">
-        <v>4.53572723165328</v>
+        <v>3.20692200969593</v>
       </c>
       <c r="K29">
-        <v>1.61293663115554</v>
+        <v>1.02071683733436</v>
       </c>
       <c r="L29">
-        <v>3.96843140933308</v>
+        <v>3.47995429709748</v>
       </c>
       <c r="M29">
-        <v>4.10039904484721</v>
+        <v>4.5967643869637</v>
       </c>
       <c r="N29">
-        <v>11.386883102599</v>
+        <v>12.097013197354</v>
       </c>
       <c r="O29">
-        <v>1119.26115339215</v>
+        <v>1096.75549317133</v>
       </c>
       <c r="P29">
-        <v>5.14510409830617</v>
+        <v>4.74902593279579</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>209.796810206013</v>
+        <v>187.601648088599</v>
       </c>
       <c r="C30">
-        <v>4.57653217252305</v>
+        <v>4.26727616790929</v>
       </c>
       <c r="D30">
-        <v>4.9397952996572</v>
+        <v>4.53443166440648</v>
       </c>
       <c r="E30">
-        <v>11.5874303903839</v>
+        <v>11.1650913678316</v>
       </c>
       <c r="F30">
-        <v>0.19262348684744</v>
+        <v>0.181518702191314</v>
       </c>
       <c r="G30">
-        <v>4.72348256300839</v>
+        <v>3.85288512886899</v>
       </c>
       <c r="H30">
-        <v>3.76993474896476</v>
+        <v>3.59533370921836</v>
       </c>
       <c r="I30">
-        <v>2.3396560689873</v>
+        <v>2.42933796763369</v>
       </c>
       <c r="J30">
-        <v>18.4368789698136</v>
+        <v>18.507719188431</v>
       </c>
       <c r="K30">
-        <v>3.7444333140046</v>
+        <v>3.36197148003176</v>
       </c>
       <c r="L30">
-        <v>42.948868854942</v>
+        <v>41.8998221212069</v>
       </c>
       <c r="M30">
-        <v>9.001886554300651</v>
+        <v>8.309237651799959</v>
       </c>
       <c r="N30">
-        <v>15.7313765590301</v>
+        <v>15.2314745709819</v>
       </c>
       <c r="O30">
-        <v>585.308414525354</v>
+        <v>538.493002307546</v>
       </c>
       <c r="P30">
-        <v>6.41517653503209</v>
+        <v>5.80486402179915</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1560.28864191676</v>
+        <v>1519.89707132955</v>
       </c>
       <c r="C31">
-        <v>59.5069219217768</v>
+        <v>60.2687731329228</v>
       </c>
       <c r="D31">
-        <v>9.188735381238869</v>
+        <v>8.936405864327391</v>
       </c>
       <c r="E31">
-        <v>34.7283554682682</v>
+        <v>31.6084482226504</v>
       </c>
       <c r="F31">
-        <v>2.94797742389949</v>
+        <v>3.68821296935893</v>
       </c>
       <c r="G31">
-        <v>108.177644844568</v>
+        <v>112.402954315458</v>
       </c>
       <c r="H31">
-        <v>10.4702565330683</v>
+        <v>9.408771336133279</v>
       </c>
       <c r="I31">
-        <v>13.2297471473897</v>
+        <v>9.36019699181132</v>
       </c>
       <c r="J31">
-        <v>25.5760755499094</v>
+        <v>25.5554508996362</v>
       </c>
       <c r="K31">
-        <v>6.72293995585191</v>
+        <v>5.03212117410714</v>
       </c>
       <c r="L31">
-        <v>63.8127211683988</v>
+        <v>58.5028596213049</v>
       </c>
       <c r="M31">
-        <v>19.6556707030577</v>
+        <v>21.3094689392264</v>
       </c>
       <c r="N31">
-        <v>70.8231054233693</v>
+        <v>81.6931741884121</v>
       </c>
       <c r="O31">
-        <v>3708.92513890173</v>
+        <v>3775.49098539897</v>
       </c>
       <c r="P31">
-        <v>18.9245726773268</v>
+        <v>17.9532223468851</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>456.356771513202</v>
+        <v>430.720577419736</v>
       </c>
       <c r="C32">
-        <v>2.98966660376556</v>
+        <v>2.75783126961999</v>
       </c>
       <c r="D32">
-        <v>0.472633936732839</v>
+        <v>0.329216872217961</v>
       </c>
       <c r="E32">
-        <v>2.97780940013118</v>
+        <v>3.41199070456208</v>
       </c>
       <c r="F32">
-        <v>22.8381121792802</v>
+        <v>22.1803970216485</v>
       </c>
       <c r="G32">
-        <v>2.93513065807826</v>
+        <v>1.99485333749995</v>
       </c>
       <c r="H32">
-        <v>0.894526044246247</v>
+        <v>0.8462661028820651</v>
       </c>
       <c r="I32">
-        <v>1.31018138876047</v>
+        <v>2.61745675354931</v>
       </c>
       <c r="J32">
-        <v>4.97863652292809</v>
+        <v>4.96915692172589</v>
       </c>
       <c r="K32">
-        <v>2.23843791270859</v>
+        <v>2.58033947504219</v>
       </c>
       <c r="L32">
-        <v>7.81215680489623</v>
+        <v>6.30035364989887</v>
       </c>
       <c r="M32">
-        <v>7.8154217215088</v>
+        <v>10.7266040726356</v>
       </c>
       <c r="N32">
-        <v>15.1887852343598</v>
+        <v>15.4173438276636</v>
       </c>
       <c r="O32">
-        <v>774.647044063898</v>
+        <v>759.525197999571</v>
       </c>
       <c r="P32">
-        <v>20.1821551806493</v>
+        <v>18.9926517861204</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4144.28684859499</v>
+        <v>4048.44372552734</v>
       </c>
       <c r="C33">
-        <v>82.70538128420721</v>
+        <v>74.5236064112047</v>
       </c>
       <c r="D33">
-        <v>17.3376040690584</v>
+        <v>16.1019259675535</v>
       </c>
       <c r="E33">
-        <v>75.1237146870905</v>
+        <v>70.5935761516686</v>
       </c>
       <c r="F33">
-        <v>10.3070441537309</v>
+        <v>12.0744362037282</v>
       </c>
       <c r="G33">
-        <v>73.6500559501435</v>
+        <v>77.42392690918921</v>
       </c>
       <c r="H33">
-        <v>38.0159083042723</v>
+        <v>42.9102552485522</v>
       </c>
       <c r="I33">
-        <v>21.1988215619367</v>
+        <v>18.4928320947827</v>
       </c>
       <c r="J33">
-        <v>89.8310334048377</v>
+        <v>91.7476296366695</v>
       </c>
       <c r="K33">
-        <v>57.5038576861706</v>
+        <v>61.7014365413245</v>
       </c>
       <c r="L33">
-        <v>100.227321523696</v>
+        <v>103.232885090827</v>
       </c>
       <c r="M33">
-        <v>60.4789035157787</v>
+        <v>52.222513362048</v>
       </c>
       <c r="N33">
-        <v>136.21874563348</v>
+        <v>137.449679595788</v>
       </c>
       <c r="O33">
-        <v>7710.29035029521</v>
+        <v>7837.26663914413</v>
       </c>
       <c r="P33">
-        <v>59.4140205097408</v>
+        <v>58.4886292287086</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1881.08524196551</v>
+        <v>1858.23157854304</v>
       </c>
       <c r="C34">
-        <v>65.1483904756232</v>
+        <v>63.6036809945894</v>
       </c>
       <c r="D34">
-        <v>84.7317421070798</v>
+        <v>88.91513624665259</v>
       </c>
       <c r="E34">
-        <v>54.6727711272855</v>
+        <v>67.14655537643139</v>
       </c>
       <c r="F34">
-        <v>2.1111720194598</v>
+        <v>4.04450877735498</v>
       </c>
       <c r="G34">
-        <v>48.0351053214567</v>
+        <v>49.6093282964386</v>
       </c>
       <c r="H34">
-        <v>43.325975331157</v>
+        <v>46.7677552919453</v>
       </c>
       <c r="I34">
-        <v>18.113449648578</v>
+        <v>15.4065149447322</v>
       </c>
       <c r="J34">
-        <v>50.6706621396323</v>
+        <v>44.0164711448559</v>
       </c>
       <c r="K34">
-        <v>11.3642912577994</v>
+        <v>8.281815427258151</v>
       </c>
       <c r="L34">
-        <v>109.092220026298</v>
+        <v>117.054158687506</v>
       </c>
       <c r="M34">
-        <v>33.8840787989044</v>
+        <v>34.6776779761353</v>
       </c>
       <c r="N34">
-        <v>121.661173102278</v>
+        <v>125.159952060916</v>
       </c>
       <c r="O34">
-        <v>3300.95751398895</v>
+        <v>3321.89972747704</v>
       </c>
       <c r="P34">
-        <v>70.5627092068649</v>
+        <v>87.51482554198491</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>99.9647855456431</v>
+        <v>85.842023428166</v>
       </c>
       <c r="C35">
-        <v>7.31170807570216</v>
+        <v>6.40012253409318</v>
       </c>
       <c r="D35">
-        <v>0.430033915931884</v>
+        <v>0.350600380434862</v>
       </c>
       <c r="E35">
-        <v>3.11603332045654</v>
+        <v>2.45540487930005</v>
       </c>
       <c r="F35">
-        <v>4.52823528053595</v>
+        <v>3.95508722373886</v>
       </c>
       <c r="G35">
-        <v>1.23583165109547</v>
+        <v>0.930243834810271</v>
       </c>
       <c r="H35">
-        <v>0.7850313180152571</v>
+        <v>1.13532995386486</v>
       </c>
       <c r="I35">
-        <v>1.57069534364623</v>
+        <v>0.827773085863226</v>
       </c>
       <c r="J35">
-        <v>2.54139115736093</v>
+        <v>2.44135809352255</v>
       </c>
       <c r="K35">
-        <v>4.59506730051613</v>
+        <v>3.99636985507446</v>
       </c>
       <c r="L35">
-        <v>2.95482009057935</v>
+        <v>2.75828919123332</v>
       </c>
       <c r="M35">
-        <v>3.32863221249331</v>
+        <v>2.5803250559954</v>
       </c>
       <c r="N35">
-        <v>3.84800651245612</v>
+        <v>3.91110083191278</v>
       </c>
       <c r="O35">
-        <v>308.81021759514</v>
+        <v>276.322283499011</v>
       </c>
       <c r="P35">
-        <v>49.6769371192319</v>
+        <v>45.7182347472447</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2485.19147966372</v>
+        <v>2459.41321920793</v>
       </c>
       <c r="C36">
-        <v>74.30290068754</v>
+        <v>80.1526903704731</v>
       </c>
       <c r="D36">
-        <v>9.27740217747728</v>
+        <v>8.98479453998157</v>
       </c>
       <c r="E36">
-        <v>143.403577236901</v>
+        <v>140.622288240881</v>
       </c>
       <c r="F36">
-        <v>24.8808382274649</v>
+        <v>38.7048290652021</v>
       </c>
       <c r="G36">
-        <v>92.1238075018604</v>
+        <v>95.1024213658346</v>
       </c>
       <c r="H36">
-        <v>73.1449483299286</v>
+        <v>81.28784943983609</v>
       </c>
       <c r="I36">
-        <v>35.5184897373857</v>
+        <v>37.3390585235961</v>
       </c>
       <c r="J36">
-        <v>209.825601246963</v>
+        <v>224.805039001938</v>
       </c>
       <c r="K36">
-        <v>53.8498925122673</v>
+        <v>57.0875171905036</v>
       </c>
       <c r="L36">
-        <v>63.5336159309394</v>
+        <v>61.621565897829</v>
       </c>
       <c r="M36">
-        <v>181.85636618388</v>
+        <v>178.86110626262</v>
       </c>
       <c r="N36">
-        <v>107.306874408165</v>
+        <v>116.6599206289</v>
       </c>
       <c r="O36">
-        <v>4284.85035566982</v>
+        <v>4280.83372664205</v>
       </c>
       <c r="P36">
-        <v>57.8516751491923</v>
+        <v>62.2766107770661</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>794.277957496455</v>
+        <v>776.191112930594</v>
       </c>
       <c r="C37">
-        <v>17.0199813326903</v>
+        <v>19.9902537872823</v>
       </c>
       <c r="D37">
-        <v>2.5071287764847</v>
+        <v>5.27029283323175</v>
       </c>
       <c r="E37">
-        <v>20.0395045221896</v>
+        <v>20.0797010681707</v>
       </c>
       <c r="F37">
-        <v>39.2443941783646</v>
+        <v>38.1991099615301</v>
       </c>
       <c r="G37">
-        <v>7.20230129595267</v>
+        <v>6.94447628127568</v>
       </c>
       <c r="H37">
-        <v>22.2970753162237</v>
+        <v>28.0916522040043</v>
       </c>
       <c r="I37">
-        <v>7.38473540618631</v>
+        <v>8.13808404712359</v>
       </c>
       <c r="J37">
-        <v>31.3930850239644</v>
+        <v>31.593573089355</v>
       </c>
       <c r="K37">
-        <v>6.18828258824635</v>
+        <v>7.33646749647246</v>
       </c>
       <c r="L37">
-        <v>20.4497035506489</v>
+        <v>16.2072627651248</v>
       </c>
       <c r="M37">
-        <v>34.2201001289316</v>
+        <v>38.1672352752296</v>
       </c>
       <c r="N37">
-        <v>21.595413945702</v>
+        <v>19.2428826062508</v>
       </c>
       <c r="O37">
-        <v>1318.58968439848</v>
+        <v>1364.45742083443</v>
       </c>
       <c r="P37">
-        <v>55.873089541001</v>
+        <v>57.7578686027793</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>794.071296556671</v>
+        <v>782.672541905338</v>
       </c>
       <c r="C38">
-        <v>23.5094713339143</v>
+        <v>25.1101701083392</v>
       </c>
       <c r="D38">
-        <v>4.59943476196581</v>
+        <v>3.60658580656698</v>
       </c>
       <c r="E38">
-        <v>43.0917093783722</v>
+        <v>43.3541345947658</v>
       </c>
       <c r="F38">
-        <v>1.37200059555199</v>
+        <v>2.4723047379014</v>
       </c>
       <c r="G38">
-        <v>10.0030623950226</v>
+        <v>10.3312695469873</v>
       </c>
       <c r="H38">
-        <v>1.902793315872</v>
+        <v>1.91066474182756</v>
       </c>
       <c r="I38">
-        <v>3.35157242731604</v>
+        <v>3.15058614377026</v>
       </c>
       <c r="J38">
-        <v>36.1609578518483</v>
+        <v>39.7180997060477</v>
       </c>
       <c r="K38">
-        <v>3.20081863288778</v>
+        <v>6.30059463374198</v>
       </c>
       <c r="L38">
-        <v>80.6821720241269</v>
+        <v>82.9037133410209</v>
       </c>
       <c r="M38">
-        <v>23.8286666480634</v>
+        <v>23.7328810709856</v>
       </c>
       <c r="N38">
-        <v>40.9292670227559</v>
+        <v>33.6750664344511</v>
       </c>
       <c r="O38">
-        <v>1436.53734471962</v>
+        <v>1483.89034829391</v>
       </c>
       <c r="P38">
-        <v>65.47640300584691</v>
+        <v>69.19579567543489</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2638.67155426244</v>
+        <v>2615.17588109485</v>
       </c>
       <c r="C39">
-        <v>98.7272035088957</v>
+        <v>93.4543307071702</v>
       </c>
       <c r="D39">
-        <v>32.0962262686236</v>
+        <v>30.0254081258717</v>
       </c>
       <c r="E39">
-        <v>119.454194942053</v>
+        <v>128.254030865719</v>
       </c>
       <c r="F39">
-        <v>27.8654153953613</v>
+        <v>33.6733005315583</v>
       </c>
       <c r="G39">
-        <v>113.540035341136</v>
+        <v>101.556196140548</v>
       </c>
       <c r="H39">
-        <v>50.0679078148207</v>
+        <v>50.7178269347579</v>
       </c>
       <c r="I39">
-        <v>26.9159589152899</v>
+        <v>32.0210391860773</v>
       </c>
       <c r="J39">
-        <v>180.617251839127</v>
+        <v>206.855216894727</v>
       </c>
       <c r="K39">
-        <v>48.2551340416626</v>
+        <v>46.9728532103988</v>
       </c>
       <c r="L39">
-        <v>111.562611000943</v>
+        <v>115.347721435597</v>
       </c>
       <c r="M39">
-        <v>74.11187570924081</v>
+        <v>78.00411937502901</v>
       </c>
       <c r="N39">
-        <v>122.077716534089</v>
+        <v>126.520023258656</v>
       </c>
       <c r="O39">
-        <v>4943.55700131629</v>
+        <v>5018.55108641233</v>
       </c>
       <c r="P39">
-        <v>64.6716690463696</v>
+        <v>64.7571258904096</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>226.022313946039</v>
+        <v>195.308140238617</v>
       </c>
       <c r="C40">
-        <v>3.39824454285794</v>
+        <v>3.72046572304279</v>
       </c>
       <c r="D40">
-        <v>7.62590704830797</v>
+        <v>6.59376521001251</v>
       </c>
       <c r="E40">
-        <v>4.41907125105523</v>
+        <v>3.78511205195611</v>
       </c>
       <c r="F40">
-        <v>0.300173053152894</v>
+        <v>0.390887939483354</v>
       </c>
       <c r="G40">
-        <v>4.9523157450266</v>
+        <v>4.63933108692667</v>
       </c>
       <c r="H40">
-        <v>3.9756998137456</v>
+        <v>3.1385768335836</v>
       </c>
       <c r="I40">
-        <v>1.99513723993308</v>
+        <v>1.47041349543806</v>
       </c>
       <c r="J40">
-        <v>11.0222312369541</v>
+        <v>10.128445542644</v>
       </c>
       <c r="K40">
-        <v>1.20139998159317</v>
+        <v>0.923773957824492</v>
       </c>
       <c r="L40">
-        <v>12.3338935073138</v>
+        <v>9.908183885162</v>
       </c>
       <c r="M40">
-        <v>5.54580803352592</v>
+        <v>3.51962706155263</v>
       </c>
       <c r="N40">
-        <v>22.9131458590851</v>
+        <v>22.4168753800557</v>
       </c>
       <c r="O40">
-        <v>483.347417902028</v>
+        <v>444.410598142558</v>
       </c>
       <c r="P40">
-        <v>3.92524116360855</v>
+        <v>3.28366058236675</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1038.08436222081</v>
+        <v>992.671811450414</v>
       </c>
       <c r="C41">
-        <v>17.018231629657</v>
+        <v>16.1704647413343</v>
       </c>
       <c r="D41">
-        <v>59.6549292754137</v>
+        <v>55.0426805372018</v>
       </c>
       <c r="E41">
-        <v>33.0323675882639</v>
+        <v>37.9699482589235</v>
       </c>
       <c r="F41">
-        <v>2.26175626190375</v>
+        <v>3.05560634307471</v>
       </c>
       <c r="G41">
-        <v>30.5797202234878</v>
+        <v>31.4409873693285</v>
       </c>
       <c r="H41">
-        <v>33.193623080119</v>
+        <v>38.7593668305736</v>
       </c>
       <c r="I41">
-        <v>13.5238253603527</v>
+        <v>14.8860394252455</v>
       </c>
       <c r="J41">
-        <v>38.0649677605486</v>
+        <v>37.5008150585768</v>
       </c>
       <c r="K41">
-        <v>8.499873923102211</v>
+        <v>9.31233306821529</v>
       </c>
       <c r="L41">
-        <v>30.6428274148649</v>
+        <v>23.447659257404</v>
       </c>
       <c r="M41">
-        <v>31.1809037188627</v>
+        <v>34.7270293817885</v>
       </c>
       <c r="N41">
-        <v>18.6043219663608</v>
+        <v>14.6919181914158</v>
       </c>
       <c r="O41">
-        <v>1557.66330900196</v>
+        <v>1592.94640272532</v>
       </c>
       <c r="P41">
-        <v>30.2909955528083</v>
+        <v>33.9786152665278</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>124.35809640379</v>
+        <v>98.02002317215541</v>
       </c>
       <c r="C42">
-        <v>8.18161712481476</v>
+        <v>6.72005043282395</v>
       </c>
       <c r="D42">
-        <v>1.47394108362629</v>
+        <v>1.11729535037853</v>
       </c>
       <c r="E42">
-        <v>7.78155068604552</v>
+        <v>7.05572187198382</v>
       </c>
       <c r="F42">
-        <v>2.49523803185825</v>
+        <v>1.74564406832302</v>
       </c>
       <c r="G42">
-        <v>1.91243348705675</v>
+        <v>1.64957719865273</v>
       </c>
       <c r="H42">
-        <v>1.74305804624526</v>
+        <v>0.7747209070276691</v>
       </c>
       <c r="I42">
-        <v>1.85609902209312</v>
+        <v>1.63304324760832</v>
       </c>
       <c r="J42">
-        <v>6.50689354428629</v>
+        <v>6.01557393236493</v>
       </c>
       <c r="K42">
-        <v>4.66978446184458</v>
+        <v>3.32513530579375</v>
       </c>
       <c r="L42">
-        <v>6.69504966607962</v>
+        <v>4.35493057949427</v>
       </c>
       <c r="M42">
-        <v>4.20768886767829</v>
+        <v>3.18835206937872</v>
       </c>
       <c r="N42">
-        <v>12.7657040542303</v>
+        <v>9.987710962807039</v>
       </c>
       <c r="O42">
-        <v>386.354521607954</v>
+        <v>316.349660436889</v>
       </c>
       <c r="P42">
-        <v>56.4184505525861</v>
+        <v>44.8951831403219</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1487.98883399924</v>
+        <v>1510.61239717062</v>
       </c>
       <c r="C43">
-        <v>40.3076996613877</v>
+        <v>42.2121594992877</v>
       </c>
       <c r="D43">
-        <v>22.5881737543672</v>
+        <v>25.7283946419468</v>
       </c>
       <c r="E43">
-        <v>72.5546435134977</v>
+        <v>77.313368273423</v>
       </c>
       <c r="F43">
-        <v>6.33008344272882</v>
+        <v>4.81921211049909</v>
       </c>
       <c r="G43">
-        <v>30.1646694511714</v>
+        <v>33.6102394787534</v>
       </c>
       <c r="H43">
-        <v>40.0170339944604</v>
+        <v>44.7905708968767</v>
       </c>
       <c r="I43">
-        <v>12.1618619424779</v>
+        <v>12.2662436441484</v>
       </c>
       <c r="J43">
-        <v>54.5010171414802</v>
+        <v>59.2569772178498</v>
       </c>
       <c r="K43">
-        <v>8.152885673215151</v>
+        <v>5.52911308164373</v>
       </c>
       <c r="L43">
-        <v>33.1338664482064</v>
+        <v>33.2000369755604</v>
       </c>
       <c r="M43">
-        <v>82.7535999155556</v>
+        <v>80.849730016511</v>
       </c>
       <c r="N43">
-        <v>67.8715017499256</v>
+        <v>75.6362848326599</v>
       </c>
       <c r="O43">
-        <v>2203.82640085098</v>
+        <v>2216.84012741449</v>
       </c>
       <c r="P43">
-        <v>37.5781393313379</v>
+        <v>29.7627588982193</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4356.19594946723</v>
+        <v>4349.92195385266</v>
       </c>
       <c r="C44">
-        <v>148.836255356279</v>
+        <v>146.435903195052</v>
       </c>
       <c r="D44">
-        <v>19.7581465433396</v>
+        <v>20.4054941499339</v>
       </c>
       <c r="E44">
-        <v>90.0157711571721</v>
+        <v>96.83337129960729</v>
       </c>
       <c r="F44">
-        <v>269.464182091555</v>
+        <v>265.014670098132</v>
       </c>
       <c r="G44">
-        <v>122.293201059332</v>
+        <v>120.932755980924</v>
       </c>
       <c r="H44">
-        <v>29.4652920175139</v>
+        <v>30.8953346574889</v>
       </c>
       <c r="I44">
-        <v>38.2728706703174</v>
+        <v>38.4219659716694</v>
       </c>
       <c r="J44">
-        <v>112.590239309257</v>
+        <v>124.669870570331</v>
       </c>
       <c r="K44">
-        <v>32.2923274368752</v>
+        <v>25.9060430725036</v>
       </c>
       <c r="L44">
-        <v>177.698081985419</v>
+        <v>188.062711046128</v>
       </c>
       <c r="M44">
-        <v>90.1369209340226</v>
+        <v>84.0715625990599</v>
       </c>
       <c r="N44">
-        <v>90.1260422349857</v>
+        <v>82.0883302946323</v>
       </c>
       <c r="O44">
-        <v>8538.258673766281</v>
+        <v>8830.64556723334</v>
       </c>
       <c r="P44">
-        <v>196.394444119456</v>
+        <v>214.413392259657</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>401.836992263588</v>
+        <v>367.588711626479</v>
       </c>
       <c r="C45">
-        <v>18.2596279565848</v>
+        <v>17.1513575230083</v>
       </c>
       <c r="D45">
-        <v>1.89356229766047</v>
+        <v>1.89293307721839</v>
       </c>
       <c r="E45">
-        <v>17.5931462026308</v>
+        <v>16.4268118227936</v>
       </c>
       <c r="F45">
-        <v>25.4506854271248</v>
+        <v>24.9136784569091</v>
       </c>
       <c r="G45">
-        <v>8.21447701317922</v>
+        <v>8.03207865888092</v>
       </c>
       <c r="H45">
-        <v>2.64360772568254</v>
+        <v>0.741657048294825</v>
       </c>
       <c r="I45">
-        <v>2.97959464977337</v>
+        <v>2.74251126035534</v>
       </c>
       <c r="J45">
-        <v>21.9666982822934</v>
+        <v>26.6149371147131</v>
       </c>
       <c r="K45">
-        <v>2.73576605253753</v>
+        <v>4.58565909135474</v>
       </c>
       <c r="L45">
-        <v>14.357246353084</v>
+        <v>15.5326550730563</v>
       </c>
       <c r="M45">
-        <v>12.4358944042306</v>
+        <v>12.8422189162776</v>
       </c>
       <c r="N45">
-        <v>31.6521179203906</v>
+        <v>31.1970892453678</v>
       </c>
       <c r="O45">
-        <v>912.546219954056</v>
+        <v>898.214501453336</v>
       </c>
       <c r="P45">
-        <v>19.4615626881775</v>
+        <v>19.2903081736266</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>113.269671287586</v>
+        <v>93.66408827771259</v>
       </c>
       <c r="C46">
-        <v>5.22470295206033</v>
+        <v>4.90514090038651</v>
       </c>
       <c r="D46">
-        <v>0.720527935904751</v>
+        <v>0.501862518584533</v>
       </c>
       <c r="E46">
-        <v>5.46053007320802</v>
+        <v>5.08830509739165</v>
       </c>
       <c r="F46">
-        <v>0.832176639969783</v>
+        <v>0.769095930869932</v>
       </c>
       <c r="G46">
-        <v>1.9347486128412</v>
+        <v>1.23047234335622</v>
       </c>
       <c r="H46">
-        <v>0.935281681440743</v>
+        <v>0.830874263564192</v>
       </c>
       <c r="I46">
-        <v>2.04074292231699</v>
+        <v>1.4225355165048</v>
       </c>
       <c r="J46">
-        <v>5.3949896665809</v>
+        <v>4.24320796974853</v>
       </c>
       <c r="K46">
-        <v>1.22330400552452</v>
+        <v>1.20047335492951</v>
       </c>
       <c r="L46">
-        <v>14.033289525047</v>
+        <v>11.831559383476</v>
       </c>
       <c r="M46">
-        <v>3.37771830069264</v>
+        <v>2.85488516144215</v>
       </c>
       <c r="N46">
-        <v>9.880619685350331</v>
+        <v>9.39862838620679</v>
       </c>
       <c r="O46">
-        <v>327.612881447044</v>
+        <v>277.526606763845</v>
       </c>
       <c r="P46">
-        <v>9.19750692466258</v>
+        <v>7.35307961623133</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1453.51204781153</v>
+        <v>1453.87366668411</v>
       </c>
       <c r="C47">
-        <v>46.2870278304931</v>
+        <v>44.9123639050675</v>
       </c>
       <c r="D47">
-        <v>10.2564693478711</v>
+        <v>10.4013195308588</v>
       </c>
       <c r="E47">
-        <v>42.9093156162197</v>
+        <v>48.5851969430888</v>
       </c>
       <c r="F47">
-        <v>10.6681263945538</v>
+        <v>12.5801516797311</v>
       </c>
       <c r="G47">
-        <v>25.1903141086633</v>
+        <v>25.3294171275659</v>
       </c>
       <c r="H47">
-        <v>14.1679312517933</v>
+        <v>12.6435074765931</v>
       </c>
       <c r="I47">
-        <v>8.723422251284109</v>
+        <v>6.61125727639471</v>
       </c>
       <c r="J47">
-        <v>31.1137968526345</v>
+        <v>34.504459564973</v>
       </c>
       <c r="K47">
-        <v>4.48634652834345</v>
+        <v>3.09210532615025</v>
       </c>
       <c r="L47">
-        <v>22.2190401079924</v>
+        <v>22.5511929964322</v>
       </c>
       <c r="M47">
-        <v>67.75535319849981</v>
+        <v>67.4745833871319</v>
       </c>
       <c r="N47">
-        <v>29.2791403201843</v>
+        <v>27.1209798832376</v>
       </c>
       <c r="O47">
-        <v>3044.0163083431</v>
+        <v>3093.41081001242</v>
       </c>
       <c r="P47">
-        <v>43.4176890026292</v>
+        <v>42.4204352997024</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1230.05105127167</v>
+        <v>1189.8916840693</v>
       </c>
       <c r="C48">
-        <v>34.1063783404767</v>
+        <v>36.5676941160265</v>
       </c>
       <c r="D48">
-        <v>5.48972436208921</v>
+        <v>7.59297264233851</v>
       </c>
       <c r="E48">
-        <v>68.49528803777361</v>
+        <v>64.18000505587671</v>
       </c>
       <c r="F48">
-        <v>11.3118186836299</v>
+        <v>10.2982068526253</v>
       </c>
       <c r="G48">
-        <v>7.80262552575183</v>
+        <v>6.65172971809987</v>
       </c>
       <c r="H48">
-        <v>8.03265675900103</v>
+        <v>9.262497557812351</v>
       </c>
       <c r="I48">
-        <v>8.656126240602511</v>
+        <v>9.1569168973522</v>
       </c>
       <c r="J48">
-        <v>37.257864698037</v>
+        <v>36.1459756135646</v>
       </c>
       <c r="K48">
-        <v>8.1712386912525</v>
+        <v>20.3897478447022</v>
       </c>
       <c r="L48">
-        <v>54.0057364340404</v>
+        <v>49.4652589293473</v>
       </c>
       <c r="M48">
-        <v>149.299755482116</v>
+        <v>152.172882291912</v>
       </c>
       <c r="N48">
-        <v>43.1302012148985</v>
+        <v>50.6423514957783</v>
       </c>
       <c r="O48">
-        <v>2471.66484284903</v>
+        <v>2537.47204113234</v>
       </c>
       <c r="P48">
-        <v>90.6492095762376</v>
+        <v>96.3205549882064</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>682.941291959763</v>
+        <v>615.9187068184961</v>
       </c>
       <c r="C49">
-        <v>5.00932802600394</v>
+        <v>4.28643170091823</v>
       </c>
       <c r="D49">
-        <v>0.656544861921307</v>
+        <v>1.29082620105967</v>
       </c>
       <c r="E49">
-        <v>23.0093006669073</v>
+        <v>21.7901654524508</v>
       </c>
       <c r="F49">
-        <v>31.0573102521811</v>
+        <v>30.7644849347212</v>
       </c>
       <c r="G49">
-        <v>12.9963728084216</v>
+        <v>10.5697794713867</v>
       </c>
       <c r="H49">
-        <v>5.65176545380741</v>
+        <v>8.134025514687711</v>
       </c>
       <c r="I49">
-        <v>2.67055328772368</v>
+        <v>3.07474162325336</v>
       </c>
       <c r="J49">
-        <v>20.5819087597213</v>
+        <v>20.9750015012979</v>
       </c>
       <c r="K49">
-        <v>2.07606312596283</v>
+        <v>2.01904560895112</v>
       </c>
       <c r="L49">
-        <v>1.69425045785183</v>
+        <v>1.23047410663878</v>
       </c>
       <c r="M49">
-        <v>3.73280613199979</v>
+        <v>3.2639086423672</v>
       </c>
       <c r="N49">
-        <v>6.9558194377091</v>
+        <v>8.08772246142015</v>
       </c>
       <c r="O49">
-        <v>647.046848576016</v>
+        <v>601.938637560649</v>
       </c>
       <c r="P49">
-        <v>8.803636443384059</v>
+        <v>7.30269477236367</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>917.602110706766</v>
+        <v>913.250381853529</v>
       </c>
       <c r="C50">
-        <v>68.5663986745174</v>
+        <v>73.4843084018901</v>
       </c>
       <c r="D50">
-        <v>6.8380943859092</v>
+        <v>6.29949268564478</v>
       </c>
       <c r="E50">
-        <v>131.487534224379</v>
+        <v>133.113108916053</v>
       </c>
       <c r="F50">
-        <v>4.17701073936709</v>
+        <v>4.13907236005276</v>
       </c>
       <c r="G50">
-        <v>34.4572303059976</v>
+        <v>27.8959005912907</v>
       </c>
       <c r="H50">
-        <v>40.7611720723718</v>
+        <v>50.349458770403</v>
       </c>
       <c r="I50">
-        <v>12.9403327417869</v>
+        <v>13.3415766548285</v>
       </c>
       <c r="J50">
-        <v>81.8297780532443</v>
+        <v>78.97827175160219</v>
       </c>
       <c r="K50">
-        <v>42.5438683004834</v>
+        <v>49.2589505213032</v>
       </c>
       <c r="L50">
-        <v>63.4048412489058</v>
+        <v>63.8569897168201</v>
       </c>
       <c r="M50">
-        <v>50.6040626495231</v>
+        <v>59.5436991011834</v>
       </c>
       <c r="N50">
-        <v>59.2887996113288</v>
+        <v>52.3786169746335</v>
       </c>
       <c r="O50">
-        <v>2180.70535651307</v>
+        <v>2217.45776137311</v>
       </c>
       <c r="P50">
-        <v>87.3516707163021</v>
+        <v>87.8962728767732</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>110.517019028928</v>
+        <v>75.12521847148121</v>
       </c>
       <c r="C51">
-        <v>2.51096165067406</v>
+        <v>1.08763829818285</v>
       </c>
       <c r="D51">
-        <v>0.0439868164684861</v>
+        <v>0.0354405117091356</v>
       </c>
       <c r="E51">
-        <v>2.01942088201529</v>
+        <v>1.51263639568426</v>
       </c>
       <c r="F51">
-        <v>36.3469567728627</v>
+        <v>29.0575256039912</v>
       </c>
       <c r="G51">
-        <v>2.46261307331423</v>
+        <v>1.89556498711622</v>
       </c>
       <c r="H51">
-        <v>0.17795823646134</v>
+        <v>0.100202458817991</v>
       </c>
       <c r="I51">
-        <v>1.53447829798856</v>
+        <v>1.01120075503555</v>
       </c>
       <c r="J51">
-        <v>1.33035611702533</v>
+        <v>1.1157598571985</v>
       </c>
       <c r="K51">
-        <v>1.05035430087157</v>
+        <v>1.05694519773914</v>
       </c>
       <c r="L51">
-        <v>0.678906074468777</v>
+        <v>0.753218217923332</v>
       </c>
       <c r="M51">
-        <v>0.646247139692006</v>
+        <v>0.342614335605094</v>
       </c>
       <c r="N51">
-        <v>0.762249320183379</v>
+        <v>0.487486928343924</v>
       </c>
       <c r="O51">
-        <v>282.87890147134</v>
+        <v>212.138601171738</v>
       </c>
       <c r="P51">
-        <v>28.7401059608379</v>
+        <v>23.8801971129046</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1273.0805934937</v>
+        <v>1413.86423737743</v>
       </c>
       <c r="C2">
-        <v>21.1479110373449</v>
+        <v>24.5403846784754</v>
       </c>
       <c r="D2">
-        <v>30.5018927568458</v>
+        <v>16.8679470122977</v>
       </c>
       <c r="E2">
-        <v>53.8921246525295</v>
+        <v>54.2326972964541</v>
       </c>
       <c r="F2">
-        <v>22.8346992017134</v>
+        <v>31.8056138903408</v>
       </c>
       <c r="G2">
-        <v>17.5843158226248</v>
+        <v>15.6142237999009</v>
       </c>
       <c r="H2">
-        <v>14.9862542983905</v>
+        <v>15.9166447645255</v>
       </c>
       <c r="I2">
-        <v>10.552801824432</v>
+        <v>8.13470894376869</v>
       </c>
       <c r="J2">
-        <v>80.37463288462671</v>
+        <v>71.8067185990475</v>
       </c>
       <c r="K2">
-        <v>11.7107093953294</v>
+        <v>9.762354510443711</v>
       </c>
       <c r="L2">
-        <v>56.9032780513366</v>
+        <v>66.0840089675352</v>
       </c>
       <c r="M2">
-        <v>56.6360300533834</v>
+        <v>41.8118432001669</v>
       </c>
       <c r="N2">
-        <v>23.8305594060405</v>
+        <v>18.2260164186039</v>
       </c>
       <c r="O2">
-        <v>1513.63420494018</v>
+        <v>1384.17335549258</v>
       </c>
       <c r="P2">
-        <v>23.7577362414742</v>
+        <v>25.1697377770953</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>94.82075569544671</v>
+        <v>114.169975801887</v>
       </c>
       <c r="C3">
-        <v>1.18202834807489</v>
+        <v>2.27428036625813</v>
       </c>
       <c r="D3">
-        <v>0.359039249560934</v>
+        <v>0.436230098303173</v>
       </c>
       <c r="E3">
-        <v>0.928584509611829</v>
+        <v>0.454797795866829</v>
       </c>
       <c r="F3">
-        <v>7.66471663680543</v>
+        <v>6.97870409222502</v>
       </c>
       <c r="G3">
-        <v>0.294882354873915</v>
+        <v>0.238283184811181</v>
       </c>
       <c r="H3">
-        <v>0.00696076469602807</v>
+        <v>0.00611254718495098</v>
       </c>
       <c r="I3">
-        <v>0.515206185153252</v>
+        <v>0.438411463616204</v>
       </c>
       <c r="J3">
-        <v>0.285520515296434</v>
+        <v>0.467753499031006</v>
       </c>
       <c r="K3">
-        <v>0.107136933833657</v>
+        <v>0.182833867288748</v>
       </c>
       <c r="L3">
-        <v>0.101507668571687</v>
+        <v>0.0606909612839723</v>
       </c>
       <c r="M3">
-        <v>0.473964909106813</v>
+        <v>0.252516199135275</v>
       </c>
       <c r="N3">
-        <v>1.21272740749883</v>
+        <v>1.1303233888057</v>
       </c>
       <c r="O3">
-        <v>224.415167223734</v>
+        <v>207.091094720413</v>
       </c>
       <c r="P3">
-        <v>9.35976808502166</v>
+        <v>7.71430019732922</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1362.65470207238</v>
+        <v>1637.37172226049</v>
       </c>
       <c r="C4">
-        <v>15.4499013773333</v>
+        <v>8.9721475754674</v>
       </c>
       <c r="D4">
-        <v>5.03791268916294</v>
+        <v>7.62529322079305</v>
       </c>
       <c r="E4">
-        <v>13.349283502225</v>
+        <v>9.840443338557259</v>
       </c>
       <c r="F4">
-        <v>9.984705999731521</v>
+        <v>2.58109585955085</v>
       </c>
       <c r="G4">
-        <v>10.8392993919294</v>
+        <v>14.2999205211703</v>
       </c>
       <c r="H4">
-        <v>10.5789814532118</v>
+        <v>14.9314965194235</v>
       </c>
       <c r="I4">
-        <v>6.600733044328</v>
+        <v>5.54211943717498</v>
       </c>
       <c r="J4">
-        <v>37.7387838497868</v>
+        <v>29.6548292718919</v>
       </c>
       <c r="K4">
-        <v>3.03491923255796</v>
+        <v>4.11842579059604</v>
       </c>
       <c r="L4">
-        <v>67.4046654939129</v>
+        <v>55.8019758460278</v>
       </c>
       <c r="M4">
-        <v>35.7657073392194</v>
+        <v>32.508442318219</v>
       </c>
       <c r="N4">
-        <v>29.0478324028783</v>
+        <v>9.64965130525496</v>
       </c>
       <c r="O4">
-        <v>2344.63112865137</v>
+        <v>2118.56878480519</v>
       </c>
       <c r="P4">
-        <v>12.8500882965426</v>
+        <v>24.9758169029466</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>678.730533106544</v>
+        <v>838.83014848431</v>
       </c>
       <c r="C5">
-        <v>50.6570488716651</v>
+        <v>33.7539512071998</v>
       </c>
       <c r="D5">
-        <v>11.1384363450547</v>
+        <v>10.0010447122854</v>
       </c>
       <c r="E5">
-        <v>28.3723178941563</v>
+        <v>26.2976892379831</v>
       </c>
       <c r="F5">
-        <v>7.00642243668061</v>
+        <v>6.21987754019293</v>
       </c>
       <c r="G5">
-        <v>6.31398317138481</v>
+        <v>5.25014031285172</v>
       </c>
       <c r="H5">
-        <v>9.70887659552506</v>
+        <v>7.78919414764102</v>
       </c>
       <c r="I5">
-        <v>5.90656097552078</v>
+        <v>5.89046497143444</v>
       </c>
       <c r="J5">
-        <v>31.8869776153354</v>
+        <v>32.0812356559544</v>
       </c>
       <c r="K5">
-        <v>4.26738089286568</v>
+        <v>2.41862619863126</v>
       </c>
       <c r="L5">
-        <v>11.7675716700051</v>
+        <v>7.78194480328186</v>
       </c>
       <c r="M5">
-        <v>21.5726426687287</v>
+        <v>15.5467192332805</v>
       </c>
       <c r="N5">
-        <v>29.6367744607585</v>
+        <v>13.3953458816412</v>
       </c>
       <c r="O5">
-        <v>1048.74898868983</v>
+        <v>933.151810716592</v>
       </c>
       <c r="P5">
-        <v>52.8067528902897</v>
+        <v>39.5293642368663</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7173.07481839217</v>
+        <v>8894.31275975604</v>
       </c>
       <c r="C6">
-        <v>205.78142437455</v>
+        <v>145.441390222797</v>
       </c>
       <c r="D6">
-        <v>35.7622329876942</v>
+        <v>30.8932278671723</v>
       </c>
       <c r="E6">
-        <v>158.845598589542</v>
+        <v>139.98200635437</v>
       </c>
       <c r="F6">
-        <v>49.8744128330016</v>
+        <v>42.4969440760249</v>
       </c>
       <c r="G6">
-        <v>112.061440969947</v>
+        <v>77.7984902213675</v>
       </c>
       <c r="H6">
-        <v>41.4300352462911</v>
+        <v>23.4918741076293</v>
       </c>
       <c r="I6">
-        <v>38.4972121708794</v>
+        <v>33.974930476674</v>
       </c>
       <c r="J6">
-        <v>165.706174760475</v>
+        <v>136.604598942867</v>
       </c>
       <c r="K6">
-        <v>46.0267182568351</v>
+        <v>27.9676429935616</v>
       </c>
       <c r="L6">
-        <v>456.063102379832</v>
+        <v>369.01269290297</v>
       </c>
       <c r="M6">
-        <v>231.215294527841</v>
+        <v>204.745205925813</v>
       </c>
       <c r="N6">
-        <v>318.949243194285</v>
+        <v>270.608991087501</v>
       </c>
       <c r="O6">
-        <v>13508.7297962963</v>
+        <v>12245.7822565784</v>
       </c>
       <c r="P6">
-        <v>287.600004556076</v>
+        <v>233.670425438692</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>769.073457411376</v>
+        <v>968.567556000777</v>
       </c>
       <c r="C7">
-        <v>46.0962171892469</v>
+        <v>35.4204314503745</v>
       </c>
       <c r="D7">
-        <v>4.23563534216664</v>
+        <v>5.50467780293049</v>
       </c>
       <c r="E7">
-        <v>20.8777861173711</v>
+        <v>13.3168737582615</v>
       </c>
       <c r="F7">
-        <v>17.8798582651745</v>
+        <v>15.6986772093139</v>
       </c>
       <c r="G7">
-        <v>9.29504499309537</v>
+        <v>5.86606487311708</v>
       </c>
       <c r="H7">
-        <v>3.05377380131679</v>
+        <v>1.75194134074036</v>
       </c>
       <c r="I7">
-        <v>8.57739788360966</v>
+        <v>6.45562768370537</v>
       </c>
       <c r="J7">
-        <v>22.2162029634419</v>
+        <v>19.6282712569088</v>
       </c>
       <c r="K7">
-        <v>6.37672694294483</v>
+        <v>8.60791069962467</v>
       </c>
       <c r="L7">
-        <v>53.2162062263723</v>
+        <v>50.8500878071519</v>
       </c>
       <c r="M7">
-        <v>19.8070005825459</v>
+        <v>16.6593836474046</v>
       </c>
       <c r="N7">
-        <v>20.7646611408402</v>
+        <v>16.5751894909165</v>
       </c>
       <c r="O7">
-        <v>2036.86724883599</v>
+        <v>1876.46973519865</v>
       </c>
       <c r="P7">
-        <v>33.1827922462427</v>
+        <v>28.2992909781085</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>610.282755960193</v>
+        <v>828.08320859522</v>
       </c>
       <c r="C8">
-        <v>13.5519522087363</v>
+        <v>10.314141921579</v>
       </c>
       <c r="D8">
-        <v>2.82204865025145</v>
+        <v>1.91583428485703</v>
       </c>
       <c r="E8">
-        <v>22.5372429790446</v>
+        <v>16.4393090274028</v>
       </c>
       <c r="F8">
-        <v>3.34416734320353</v>
+        <v>2.36862941910543</v>
       </c>
       <c r="G8">
-        <v>21.6016408796445</v>
+        <v>15.3052656475403</v>
       </c>
       <c r="H8">
-        <v>7.44035440560904</v>
+        <v>6.03868656289607</v>
       </c>
       <c r="I8">
-        <v>8.01262631539211</v>
+        <v>8.00051457110785</v>
       </c>
       <c r="J8">
-        <v>42.8564883979962</v>
+        <v>36.2882195833677</v>
       </c>
       <c r="K8">
-        <v>9.06885041984304</v>
+        <v>6.32158134244465</v>
       </c>
       <c r="L8">
-        <v>42.8794343256265</v>
+        <v>32.2138867065591</v>
       </c>
       <c r="M8">
-        <v>52.9790529054885</v>
+        <v>48.9028286741272</v>
       </c>
       <c r="N8">
-        <v>30.8562016736248</v>
+        <v>25.4494472196732</v>
       </c>
       <c r="O8">
-        <v>1468.01235221802</v>
+        <v>1298.43561874109</v>
       </c>
       <c r="P8">
-        <v>8.974778559630829</v>
+        <v>9.211228411747531</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>163.330417267338</v>
+        <v>216.164175837956</v>
       </c>
       <c r="C9">
-        <v>7.26668568904553</v>
+        <v>5.70136742130239</v>
       </c>
       <c r="D9">
-        <v>1.35112525772864</v>
+        <v>2.0824656199026</v>
       </c>
       <c r="E9">
-        <v>4.19832122425949</v>
+        <v>2.56349559976796</v>
       </c>
       <c r="F9">
-        <v>0.450109089170924</v>
+        <v>0.675268099356562</v>
       </c>
       <c r="G9">
-        <v>20.7334333190228</v>
+        <v>17.7515837476973</v>
       </c>
       <c r="H9">
-        <v>2.05773969208126</v>
+        <v>1.79317296044836</v>
       </c>
       <c r="I9">
-        <v>1.54406067786829</v>
+        <v>1.40942593884802</v>
       </c>
       <c r="J9">
-        <v>3.35532769846977</v>
+        <v>2.45690749540576</v>
       </c>
       <c r="K9">
-        <v>0.352362454655957</v>
+        <v>0.678810780015351</v>
       </c>
       <c r="L9">
-        <v>2.07550472211161</v>
+        <v>2.43221830493953</v>
       </c>
       <c r="M9">
-        <v>6.28778772860348</v>
+        <v>3.58610626031079</v>
       </c>
       <c r="N9">
-        <v>2.42122910593254</v>
+        <v>2.34343290053795</v>
       </c>
       <c r="O9">
-        <v>355.130725668609</v>
+        <v>308.623939284779</v>
       </c>
       <c r="P9">
-        <v>5.57941131227714</v>
+        <v>4.42606916116802</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3954.22370277834</v>
+        <v>5322.53384425867</v>
       </c>
       <c r="C10">
-        <v>66.9383997279687</v>
+        <v>43.9645341087257</v>
       </c>
       <c r="D10">
-        <v>9.65752831460928</v>
+        <v>8.26615337289971</v>
       </c>
       <c r="E10">
-        <v>60.3974625870264</v>
+        <v>46.666698226883</v>
       </c>
       <c r="F10">
-        <v>9.32377621639667</v>
+        <v>6.37729119575378</v>
       </c>
       <c r="G10">
-        <v>40.544486602486</v>
+        <v>27.1558475773356</v>
       </c>
       <c r="H10">
-        <v>15.8201751075689</v>
+        <v>19.8560960496115</v>
       </c>
       <c r="I10">
-        <v>26.1953727159586</v>
+        <v>15.2768279112082</v>
       </c>
       <c r="J10">
-        <v>63.6063451915238</v>
+        <v>45.5346767762905</v>
       </c>
       <c r="K10">
-        <v>6.29761748009361</v>
+        <v>4.06792368118525</v>
       </c>
       <c r="L10">
-        <v>63.7705526777097</v>
+        <v>53.6539496018306</v>
       </c>
       <c r="M10">
-        <v>73.2835140619123</v>
+        <v>75.49368120506951</v>
       </c>
       <c r="N10">
-        <v>97.45763153595991</v>
+        <v>70.65714842227641</v>
       </c>
       <c r="O10">
-        <v>7893.2560900211</v>
+        <v>6782.03482555053</v>
       </c>
       <c r="P10">
-        <v>66.9038889932875</v>
+        <v>71.10962700235631</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1889.50456554029</v>
+        <v>2230.35696646003</v>
       </c>
       <c r="C11">
-        <v>68.1834252502082</v>
+        <v>61.0716289629325</v>
       </c>
       <c r="D11">
-        <v>140.898226804733</v>
+        <v>106.182049657914</v>
       </c>
       <c r="E11">
-        <v>86.3639651157483</v>
+        <v>78.5590045625235</v>
       </c>
       <c r="F11">
-        <v>13.0946830240929</v>
+        <v>16.041380049888</v>
       </c>
       <c r="G11">
-        <v>24.1322710201387</v>
+        <v>17.5944599197086</v>
       </c>
       <c r="H11">
-        <v>26.0402856778514</v>
+        <v>15.1984005739578</v>
       </c>
       <c r="I11">
-        <v>10.8408018218182</v>
+        <v>10.269440987183</v>
       </c>
       <c r="J11">
-        <v>38.1209075703063</v>
+        <v>38.5947419727208</v>
       </c>
       <c r="K11">
-        <v>6.73653763551092</v>
+        <v>2.23055848359524</v>
       </c>
       <c r="L11">
-        <v>47.8669330977461</v>
+        <v>40.9490352765454</v>
       </c>
       <c r="M11">
-        <v>66.4562141569819</v>
+        <v>58.4390762391482</v>
       </c>
       <c r="N11">
-        <v>64.13672295891389</v>
+        <v>68.9621635479435</v>
       </c>
       <c r="O11">
-        <v>3410.70875550046</v>
+        <v>3080.28527977682</v>
       </c>
       <c r="P11">
-        <v>51.588788382726</v>
+        <v>47.4140400769844</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>220.416986941736</v>
+        <v>305.223989899624</v>
       </c>
       <c r="C12">
-        <v>5.19018359150528</v>
+        <v>5.96863045494452</v>
       </c>
       <c r="D12">
-        <v>0.449005037138618</v>
+        <v>0.316606093050536</v>
       </c>
       <c r="E12">
-        <v>3.39617051940014</v>
+        <v>2.07496055783317</v>
       </c>
       <c r="F12">
-        <v>0.956193245469473</v>
+        <v>0.878767342105636</v>
       </c>
       <c r="G12">
-        <v>0.301798930645626</v>
+        <v>0.379898713745631</v>
       </c>
       <c r="H12">
-        <v>0.0509741672654306</v>
+        <v>0.07946293244866991</v>
       </c>
       <c r="I12">
-        <v>0.556882853068164</v>
+        <v>0.491119097748558</v>
       </c>
       <c r="J12">
-        <v>1.18685644253461</v>
+        <v>0.9961973092405591</v>
       </c>
       <c r="K12">
-        <v>0.383035907651582</v>
+        <v>0.447628790830202</v>
       </c>
       <c r="L12">
-        <v>0.0261921535841833</v>
+        <v>0.103256843919772</v>
       </c>
       <c r="M12">
-        <v>1.63083933051776</v>
+        <v>1.59020230425518</v>
       </c>
       <c r="N12">
-        <v>3.94056223063436</v>
+        <v>1.70814339394073</v>
       </c>
       <c r="O12">
-        <v>552.397150879266</v>
+        <v>484.822004404287</v>
       </c>
       <c r="P12">
-        <v>19.2330776605653</v>
+        <v>12.2082037337163</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>224.746537957</v>
+        <v>310.933888996016</v>
       </c>
       <c r="C13">
-        <v>19.4199364305259</v>
+        <v>13.2463119550377</v>
       </c>
       <c r="D13">
-        <v>1.14953849890119</v>
+        <v>1.39109581326366</v>
       </c>
       <c r="E13">
-        <v>12.6278961047896</v>
+        <v>9.62825200084218</v>
       </c>
       <c r="F13">
-        <v>2.80305082272529</v>
+        <v>2.25429806550928</v>
       </c>
       <c r="G13">
-        <v>7.11146016941013</v>
+        <v>4.18620403230362</v>
       </c>
       <c r="H13">
-        <v>1.8649898085458</v>
+        <v>2.50514239326642</v>
       </c>
       <c r="I13">
-        <v>2.33890016708371</v>
+        <v>1.69943392239874</v>
       </c>
       <c r="J13">
-        <v>5.11720894216784</v>
+        <v>6.29674508142491</v>
       </c>
       <c r="K13">
-        <v>3.96065711264384</v>
+        <v>3.78978100833288</v>
       </c>
       <c r="L13">
-        <v>17.422222205195</v>
+        <v>11.0728658832901</v>
       </c>
       <c r="M13">
-        <v>2.16550644593326</v>
+        <v>1.20798430243707</v>
       </c>
       <c r="N13">
-        <v>4.11781398976621</v>
+        <v>3.32247119603727</v>
       </c>
       <c r="O13">
-        <v>575.4124078135581</v>
+        <v>528.649489781514</v>
       </c>
       <c r="P13">
-        <v>42.9367915284181</v>
+        <v>38.2029710334988</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2396.7875823374</v>
+        <v>3159.54968172572</v>
       </c>
       <c r="C14">
-        <v>127.424458451024</v>
+        <v>113.546671063635</v>
       </c>
       <c r="D14">
-        <v>9.603655644544441</v>
+        <v>3.50256197288706</v>
       </c>
       <c r="E14">
-        <v>96.7701010662025</v>
+        <v>66.1161324283311</v>
       </c>
       <c r="F14">
-        <v>19.7883338274506</v>
+        <v>17.1629200618927</v>
       </c>
       <c r="G14">
-        <v>85.9584302822861</v>
+        <v>64.7089298466056</v>
       </c>
       <c r="H14">
-        <v>43.2944832825745</v>
+        <v>36.9480623072832</v>
       </c>
       <c r="I14">
-        <v>23.2293911617957</v>
+        <v>22.6805589668811</v>
       </c>
       <c r="J14">
-        <v>122.781105228986</v>
+        <v>103.28848272779</v>
       </c>
       <c r="K14">
-        <v>73.74617954642351</v>
+        <v>49.5310816886412</v>
       </c>
       <c r="L14">
-        <v>109.737163254943</v>
+        <v>98.12728449318711</v>
       </c>
       <c r="M14">
-        <v>101.260086438937</v>
+        <v>80.98186894755681</v>
       </c>
       <c r="N14">
-        <v>66.1717405866228</v>
+        <v>44.6612523648348</v>
       </c>
       <c r="O14">
-        <v>5087.45262510497</v>
+        <v>4510.8057653895</v>
       </c>
       <c r="P14">
-        <v>62.1675873911176</v>
+        <v>54.2761860791287</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1189.37310450245</v>
+        <v>1547.79059066732</v>
       </c>
       <c r="C15">
-        <v>69.9889465933711</v>
+        <v>55.0699578815482</v>
       </c>
       <c r="D15">
-        <v>5.89749896186925</v>
+        <v>6.30068113559071</v>
       </c>
       <c r="E15">
-        <v>67.286751916198</v>
+        <v>39.0573459680214</v>
       </c>
       <c r="F15">
-        <v>23.0455161351042</v>
+        <v>9.40883666699003</v>
       </c>
       <c r="G15">
-        <v>52.5705986352653</v>
+        <v>47.6151700509217</v>
       </c>
       <c r="H15">
-        <v>37.830187829993</v>
+        <v>36.1979594805937</v>
       </c>
       <c r="I15">
-        <v>28.0827795154275</v>
+        <v>15.7298967187547</v>
       </c>
       <c r="J15">
-        <v>155.44655004298</v>
+        <v>139.379653148394</v>
       </c>
       <c r="K15">
-        <v>29.8389836273295</v>
+        <v>26.2887463217366</v>
       </c>
       <c r="L15">
-        <v>42.5554646067886</v>
+        <v>35.510158774814</v>
       </c>
       <c r="M15">
-        <v>163.441101957526</v>
+        <v>147.251547324333</v>
       </c>
       <c r="N15">
-        <v>92.20926225355571</v>
+        <v>74.8922108170686</v>
       </c>
       <c r="O15">
-        <v>2265.09546199561</v>
+        <v>2039.16928821781</v>
       </c>
       <c r="P15">
-        <v>48.3502906182679</v>
+        <v>41.1869965127528</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>439.771370530553</v>
+        <v>634.083614918096</v>
       </c>
       <c r="C16">
-        <v>62.188610098232</v>
+        <v>51.7204503452461</v>
       </c>
       <c r="D16">
-        <v>5.57826337250505</v>
+        <v>7.00697973915313</v>
       </c>
       <c r="E16">
-        <v>25.3567846086745</v>
+        <v>19.3382032316851</v>
       </c>
       <c r="F16">
-        <v>3.00243781843251</v>
+        <v>4.49951571654118</v>
       </c>
       <c r="G16">
-        <v>16.7510930712619</v>
+        <v>10.2791493525354</v>
       </c>
       <c r="H16">
-        <v>17.7135645690588</v>
+        <v>17.2591457881095</v>
       </c>
       <c r="I16">
-        <v>4.99160597762426</v>
+        <v>4.52853098910348</v>
       </c>
       <c r="J16">
-        <v>43.7214484279633</v>
+        <v>42.1069312367032</v>
       </c>
       <c r="K16">
-        <v>43.8614517171189</v>
+        <v>37.5323224097599</v>
       </c>
       <c r="L16">
-        <v>18.3136203177686</v>
+        <v>18.0890189091368</v>
       </c>
       <c r="M16">
-        <v>22.4501595613512</v>
+        <v>17.6311615818835</v>
       </c>
       <c r="N16">
-        <v>28.8070479529676</v>
+        <v>25.6706245030411</v>
       </c>
       <c r="O16">
-        <v>1230.33573860412</v>
+        <v>1081.25832898519</v>
       </c>
       <c r="P16">
-        <v>82.8966652208734</v>
+        <v>69.3203153121643</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>460.847209863336</v>
+        <v>625.764615749829</v>
       </c>
       <c r="C17">
-        <v>23.1515266394744</v>
+        <v>19.1392188614643</v>
       </c>
       <c r="D17">
-        <v>2.52035942453458</v>
+        <v>6.00289110485306</v>
       </c>
       <c r="E17">
-        <v>22.1143675246394</v>
+        <v>21.5458909445724</v>
       </c>
       <c r="F17">
-        <v>12.3772261334732</v>
+        <v>11.43046766568</v>
       </c>
       <c r="G17">
-        <v>9.28476974421152</v>
+        <v>7.85552606210872</v>
       </c>
       <c r="H17">
-        <v>12.6512216245437</v>
+        <v>7.50270134505994</v>
       </c>
       <c r="I17">
-        <v>5.99336260282594</v>
+        <v>5.071120584</v>
       </c>
       <c r="J17">
-        <v>23.3633225844681</v>
+        <v>19.3563857785819</v>
       </c>
       <c r="K17">
-        <v>8.73668842591454</v>
+        <v>9.075949631569831</v>
       </c>
       <c r="L17">
-        <v>11.0809603770104</v>
+        <v>8.937061716031261</v>
       </c>
       <c r="M17">
-        <v>62.9815201425988</v>
+        <v>56.0251264991854</v>
       </c>
       <c r="N17">
-        <v>11.0703885639038</v>
+        <v>7.54644226606128</v>
       </c>
       <c r="O17">
-        <v>1090.34287651345</v>
+        <v>980.961013588745</v>
       </c>
       <c r="P17">
-        <v>47.4106874961691</v>
+        <v>40.7687283933671</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1076.98784587838</v>
+        <v>1250.42416309603</v>
       </c>
       <c r="C18">
-        <v>30.6018426853722</v>
+        <v>20.4308955811961</v>
       </c>
       <c r="D18">
-        <v>4.14850157751001</v>
+        <v>8.5170280253428</v>
       </c>
       <c r="E18">
-        <v>31.4040416537687</v>
+        <v>25.9755657013059</v>
       </c>
       <c r="F18">
-        <v>38.7209690108552</v>
+        <v>34.3868273512715</v>
       </c>
       <c r="G18">
-        <v>13.5186091930083</v>
+        <v>14.6485179870501</v>
       </c>
       <c r="H18">
-        <v>11.0438967137383</v>
+        <v>9.272389076304719</v>
       </c>
       <c r="I18">
-        <v>3.40970965304724</v>
+        <v>3.69673920759737</v>
       </c>
       <c r="J18">
-        <v>21.3628517184901</v>
+        <v>13.4036490871861</v>
       </c>
       <c r="K18">
-        <v>7.894389951917</v>
+        <v>8.57340852718283</v>
       </c>
       <c r="L18">
-        <v>28.6938862510725</v>
+        <v>25.7070256228863</v>
       </c>
       <c r="M18">
-        <v>66.5462881850616</v>
+        <v>73.09470730667439</v>
       </c>
       <c r="N18">
-        <v>24.4251636897046</v>
+        <v>20.7952786185517</v>
       </c>
       <c r="O18">
-        <v>1515.75917715761</v>
+        <v>1343.75536331712</v>
       </c>
       <c r="P18">
-        <v>61.4153415711711</v>
+        <v>54.6978533318817</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>988.820842705445</v>
+        <v>1192.74535139689</v>
       </c>
       <c r="C19">
-        <v>35.4584306898694</v>
+        <v>29.9022508010522</v>
       </c>
       <c r="D19">
-        <v>8.145774239116831</v>
+        <v>14.3435418563067</v>
       </c>
       <c r="E19">
-        <v>34.7537660298791</v>
+        <v>30.8138314013668</v>
       </c>
       <c r="F19">
-        <v>73.7761139105211</v>
+        <v>58.3563085997817</v>
       </c>
       <c r="G19">
-        <v>44.4845474184291</v>
+        <v>39.0375582228784</v>
       </c>
       <c r="H19">
-        <v>14.0559043269534</v>
+        <v>10.1451487943317</v>
       </c>
       <c r="I19">
-        <v>4.96376002971519</v>
+        <v>4.41051392808996</v>
       </c>
       <c r="J19">
-        <v>17.8673502757161</v>
+        <v>20.5198463130281</v>
       </c>
       <c r="K19">
-        <v>9.537883135626361</v>
+        <v>9.123245679400091</v>
       </c>
       <c r="L19">
-        <v>4.35237027473798</v>
+        <v>2.18315570572621</v>
       </c>
       <c r="M19">
-        <v>24.1058829877996</v>
+        <v>14.8450416366444</v>
       </c>
       <c r="N19">
-        <v>13.1212098839886</v>
+        <v>8.512911643931989</v>
       </c>
       <c r="O19">
-        <v>1589.30648176696</v>
+        <v>1430.53507418536</v>
       </c>
       <c r="P19">
-        <v>38.8950706593119</v>
+        <v>28.7681344693929</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>265.791011203282</v>
+        <v>346.732590969268</v>
       </c>
       <c r="C20">
-        <v>8.981896426896221</v>
+        <v>7.37836011115961</v>
       </c>
       <c r="D20">
-        <v>5.85696842073289</v>
+        <v>3.79338274754818</v>
       </c>
       <c r="E20">
-        <v>32.358459594695</v>
+        <v>27.678143535437</v>
       </c>
       <c r="F20">
-        <v>1.18326680632631</v>
+        <v>1.96878055440467</v>
       </c>
       <c r="G20">
-        <v>3.76198931168291</v>
+        <v>3.26022142203821</v>
       </c>
       <c r="H20">
-        <v>1.04081154700496</v>
+        <v>0.358226948098544</v>
       </c>
       <c r="I20">
-        <v>2.21625419856866</v>
+        <v>2.78789113994096</v>
       </c>
       <c r="J20">
-        <v>4.58088508844095</v>
+        <v>5.68527226178374</v>
       </c>
       <c r="K20">
-        <v>0.803723885057459</v>
+        <v>0.166518236600932</v>
       </c>
       <c r="L20">
-        <v>7.88077448712629</v>
+        <v>5.17445094722174</v>
       </c>
       <c r="M20">
-        <v>18.5143910395571</v>
+        <v>12.1104461448629</v>
       </c>
       <c r="N20">
-        <v>5.17851647322257</v>
+        <v>5.20476432868632</v>
       </c>
       <c r="O20">
-        <v>570.686681902013</v>
+        <v>506.114508932826</v>
       </c>
       <c r="P20">
-        <v>23.9207927405666</v>
+        <v>16.8264191450033</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1000.06013137839</v>
+        <v>1339.79820730604</v>
       </c>
       <c r="C21">
-        <v>14.3676555131813</v>
+        <v>10.6758988909276</v>
       </c>
       <c r="D21">
-        <v>1.27744004994776</v>
+        <v>2.24064486608292</v>
       </c>
       <c r="E21">
-        <v>20.3517579518304</v>
+        <v>14.0800281735012</v>
       </c>
       <c r="F21">
-        <v>2.55443047401631</v>
+        <v>5.32748734870843</v>
       </c>
       <c r="G21">
-        <v>11.1554992440046</v>
+        <v>10.0631865402699</v>
       </c>
       <c r="H21">
-        <v>4.48772128657174</v>
+        <v>2.69181733390605</v>
       </c>
       <c r="I21">
-        <v>17.7120713967094</v>
+        <v>19.4279852229993</v>
       </c>
       <c r="J21">
-        <v>11.019534718512</v>
+        <v>11.8157877392866</v>
       </c>
       <c r="K21">
-        <v>0.835523631476193</v>
+        <v>1.88211531424317</v>
       </c>
       <c r="L21">
-        <v>26.2632068529498</v>
+        <v>18.40705197311</v>
       </c>
       <c r="M21">
-        <v>15.1433388176583</v>
+        <v>9.3932626469932</v>
       </c>
       <c r="N21">
-        <v>16.1262312294508</v>
+        <v>6.88188258196551</v>
       </c>
       <c r="O21">
-        <v>2410.80709927336</v>
+        <v>2177.25890850483</v>
       </c>
       <c r="P21">
-        <v>15.7882770737042</v>
+        <v>14.311899757143</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1161.1476914966</v>
+        <v>1587.69956396357</v>
       </c>
       <c r="C22">
-        <v>24.3460301228151</v>
+        <v>23.8767778275152</v>
       </c>
       <c r="D22">
-        <v>9.26577057272829</v>
+        <v>5.77412652097941</v>
       </c>
       <c r="E22">
-        <v>41.523408931108</v>
+        <v>24.7605082449415</v>
       </c>
       <c r="F22">
-        <v>2.55514897740242</v>
+        <v>2.14238685740287</v>
       </c>
       <c r="G22">
-        <v>28.9949029496485</v>
+        <v>17.2603340298956</v>
       </c>
       <c r="H22">
-        <v>13.1160096989817</v>
+        <v>12.7595451907782</v>
       </c>
       <c r="I22">
-        <v>11.2624637384951</v>
+        <v>6.28216194138771</v>
       </c>
       <c r="J22">
-        <v>41.8554391593536</v>
+        <v>50.6751812199497</v>
       </c>
       <c r="K22">
-        <v>2.5505078955094</v>
+        <v>1.73985232928703</v>
       </c>
       <c r="L22">
-        <v>87.8001140684821</v>
+        <v>57.5844041061468</v>
       </c>
       <c r="M22">
-        <v>17.1601994485489</v>
+        <v>11.7943347975084</v>
       </c>
       <c r="N22">
-        <v>59.7765100290707</v>
+        <v>42.4886719720256</v>
       </c>
       <c r="O22">
-        <v>2795.24871887801</v>
+        <v>2465.68745884851</v>
       </c>
       <c r="P22">
-        <v>14.8426885638615</v>
+        <v>14.686020897376</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2282.23327625509</v>
+        <v>2728.87626837124</v>
       </c>
       <c r="C23">
-        <v>32.5560115616042</v>
+        <v>22.4029795074063</v>
       </c>
       <c r="D23">
-        <v>8.57362501830716</v>
+        <v>7.44758132885688</v>
       </c>
       <c r="E23">
-        <v>57.4229338103921</v>
+        <v>44.4626548090802</v>
       </c>
       <c r="F23">
-        <v>6.28686745560046</v>
+        <v>12.6837373812489</v>
       </c>
       <c r="G23">
-        <v>50.7148116824112</v>
+        <v>51.6157020755386</v>
       </c>
       <c r="H23">
-        <v>55.2164510385277</v>
+        <v>47.4141035132408</v>
       </c>
       <c r="I23">
-        <v>24.3137528995487</v>
+        <v>29.0313583410614</v>
       </c>
       <c r="J23">
-        <v>113.596638080941</v>
+        <v>91.28307598447751</v>
       </c>
       <c r="K23">
-        <v>63.2727396992771</v>
+        <v>71.9704041604431</v>
       </c>
       <c r="L23">
-        <v>31.0023029609621</v>
+        <v>33.8613632734482</v>
       </c>
       <c r="M23">
-        <v>545.771983056373</v>
+        <v>475.310415226311</v>
       </c>
       <c r="N23">
-        <v>93.042070576068</v>
+        <v>86.7995743327177</v>
       </c>
       <c r="O23">
-        <v>3445.31428431092</v>
+        <v>3109.79579145814</v>
       </c>
       <c r="P23">
-        <v>66.943732688371</v>
+        <v>61.6853019578814</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>772.323157739397</v>
+        <v>1024.78586092504</v>
       </c>
       <c r="C24">
-        <v>43.3306713601173</v>
+        <v>39.6536932799579</v>
       </c>
       <c r="D24">
-        <v>8.16049715863975</v>
+        <v>6.9194461404747</v>
       </c>
       <c r="E24">
-        <v>57.6908464891621</v>
+        <v>43.9544721931763</v>
       </c>
       <c r="F24">
-        <v>12.1680775848171</v>
+        <v>10.2342087354265</v>
       </c>
       <c r="G24">
-        <v>24.9105126940645</v>
+        <v>23.61958224617</v>
       </c>
       <c r="H24">
-        <v>19.1042404118148</v>
+        <v>17.6786656424718</v>
       </c>
       <c r="I24">
-        <v>17.273582624731</v>
+        <v>14.3461302597632</v>
       </c>
       <c r="J24">
-        <v>56.5753656634133</v>
+        <v>52.6045072493955</v>
       </c>
       <c r="K24">
-        <v>18.8142369694666</v>
+        <v>10.9653687435538</v>
       </c>
       <c r="L24">
-        <v>57.9273500133677</v>
+        <v>45.6534648871396</v>
       </c>
       <c r="M24">
-        <v>22.7164431842624</v>
+        <v>16.8220218685493</v>
       </c>
       <c r="N24">
-        <v>71.54638962065199</v>
+        <v>74.8830525418702</v>
       </c>
       <c r="O24">
-        <v>2173.56264892273</v>
+        <v>2001.50791912828</v>
       </c>
       <c r="P24">
-        <v>84.2235921677011</v>
+        <v>76.44665285232099</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>731.149954994641</v>
+        <v>887.117598768253</v>
       </c>
       <c r="C25">
-        <v>40.4316662462336</v>
+        <v>29.016728041006</v>
       </c>
       <c r="D25">
-        <v>11.0380784642013</v>
+        <v>10.2278904640008</v>
       </c>
       <c r="E25">
-        <v>43.3843760499818</v>
+        <v>36.3992742927976</v>
       </c>
       <c r="F25">
-        <v>14.9768833587614</v>
+        <v>17.5757880458905</v>
       </c>
       <c r="G25">
-        <v>10.2261867972356</v>
+        <v>7.22113029562489</v>
       </c>
       <c r="H25">
-        <v>8.33029071895205</v>
+        <v>4.11986341376752</v>
       </c>
       <c r="I25">
-        <v>2.81896770929012</v>
+        <v>2.60739091780623</v>
       </c>
       <c r="J25">
-        <v>9.485306877774001</v>
+        <v>5.35830347673919</v>
       </c>
       <c r="K25">
-        <v>5.82149352682135</v>
+        <v>4.71759509775514</v>
       </c>
       <c r="L25">
-        <v>7.75359525536566</v>
+        <v>4.91488720230284</v>
       </c>
       <c r="M25">
-        <v>35.7104481237593</v>
+        <v>20.6682874693157</v>
       </c>
       <c r="N25">
-        <v>41.3736172312943</v>
+        <v>47.2727233997831</v>
       </c>
       <c r="O25">
-        <v>910.390565539385</v>
+        <v>797.889931484362</v>
       </c>
       <c r="P25">
-        <v>44.8410082712274</v>
+        <v>34.9700778076972</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1080.95240784043</v>
+        <v>1414.78303479476</v>
       </c>
       <c r="C26">
-        <v>60.02391228228</v>
+        <v>39.9191307660592</v>
       </c>
       <c r="D26">
-        <v>3.30109691616429</v>
+        <v>4.01436010733555</v>
       </c>
       <c r="E26">
-        <v>49.0026978222188</v>
+        <v>42.5179045851911</v>
       </c>
       <c r="F26">
-        <v>5.92008650946785</v>
+        <v>4.18775591937131</v>
       </c>
       <c r="G26">
-        <v>42.7246004236731</v>
+        <v>40.6878949202719</v>
       </c>
       <c r="H26">
-        <v>12.3479704025607</v>
+        <v>11.4546684741157</v>
       </c>
       <c r="I26">
-        <v>13.4981521077505</v>
+        <v>8.72302258622644</v>
       </c>
       <c r="J26">
-        <v>37.5426760482444</v>
+        <v>32.9217058856903</v>
       </c>
       <c r="K26">
-        <v>8.971351196896841</v>
+        <v>7.97042479337101</v>
       </c>
       <c r="L26">
-        <v>26.2926706297022</v>
+        <v>26.3758330733483</v>
       </c>
       <c r="M26">
-        <v>58.9660074764364</v>
+        <v>48.8810859632841</v>
       </c>
       <c r="N26">
-        <v>32.2683093467026</v>
+        <v>31.2287057853236</v>
       </c>
       <c r="O26">
-        <v>2412.93338443587</v>
+        <v>2171.86872580305</v>
       </c>
       <c r="P26">
-        <v>62.4215384280089</v>
+        <v>55.6355734846053</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>179.503817248869</v>
+        <v>245.802170027432</v>
       </c>
       <c r="C27">
-        <v>1.94077234069223</v>
+        <v>1.83549476213263</v>
       </c>
       <c r="D27">
-        <v>1.51816646881289</v>
+        <v>1.23827647461745</v>
       </c>
       <c r="E27">
-        <v>10.54448898108</v>
+        <v>9.775410401009429</v>
       </c>
       <c r="F27">
-        <v>7.24947930017896</v>
+        <v>4.8473644818328</v>
       </c>
       <c r="G27">
-        <v>0.633371260735893</v>
+        <v>0.346867313387501</v>
       </c>
       <c r="H27">
-        <v>0.273704587778314</v>
+        <v>0.415103408214662</v>
       </c>
       <c r="I27">
-        <v>3.26413212860674</v>
+        <v>2.59835977557562</v>
       </c>
       <c r="J27">
-        <v>3.48782991589748</v>
+        <v>2.62029789239618</v>
       </c>
       <c r="K27">
-        <v>0.6940066951132931</v>
+        <v>1.21790264449298</v>
       </c>
       <c r="L27">
-        <v>2.25516001492671</v>
+        <v>2.19430439699506</v>
       </c>
       <c r="M27">
-        <v>0.616844260812302</v>
+        <v>0.377972032365773</v>
       </c>
       <c r="N27">
-        <v>3.5903079023812</v>
+        <v>3.35567273602724</v>
       </c>
       <c r="O27">
-        <v>390.07051496682</v>
+        <v>336.727952811336</v>
       </c>
       <c r="P27">
-        <v>47.7419181983986</v>
+        <v>33.7181970808016</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>234.084071789358</v>
+        <v>345.475183988573</v>
       </c>
       <c r="C28">
-        <v>36.9720801799081</v>
+        <v>36.3731396442688</v>
       </c>
       <c r="D28">
-        <v>1.70136788488283</v>
+        <v>3.52609378479639</v>
       </c>
       <c r="E28">
-        <v>8.06715013456707</v>
+        <v>8.35493059851437</v>
       </c>
       <c r="F28">
-        <v>0.885590236371628</v>
+        <v>1.5994949735069</v>
       </c>
       <c r="G28">
-        <v>4.66144470008555</v>
+        <v>4.56872017998343</v>
       </c>
       <c r="H28">
-        <v>6.72137815651226</v>
+        <v>4.84579964968831</v>
       </c>
       <c r="I28">
-        <v>3.19681556310364</v>
+        <v>2.36526556265497</v>
       </c>
       <c r="J28">
-        <v>14.7093379345003</v>
+        <v>14.9267368592801</v>
       </c>
       <c r="K28">
-        <v>11.6789519658435</v>
+        <v>11.3170231049624</v>
       </c>
       <c r="L28">
-        <v>8.780174252706869</v>
+        <v>7.69115740880098</v>
       </c>
       <c r="M28">
-        <v>9.701437813316071</v>
+        <v>8.828479509864451</v>
       </c>
       <c r="N28">
-        <v>10.5556147947755</v>
+        <v>9.455857938612381</v>
       </c>
       <c r="O28">
-        <v>760.9117104865391</v>
+        <v>677.150410319794</v>
       </c>
       <c r="P28">
-        <v>66.5086869193965</v>
+        <v>58.6401381830584</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>432.409069538971</v>
+        <v>548.029566157037</v>
       </c>
       <c r="C29">
-        <v>2.27420980053384</v>
+        <v>1.83911856583593</v>
       </c>
       <c r="D29">
-        <v>0.597893041016053</v>
+        <v>0.879310571877984</v>
       </c>
       <c r="E29">
-        <v>4.57262699734849</v>
+        <v>3.23919110498989</v>
       </c>
       <c r="F29">
-        <v>25.8063399431802</v>
+        <v>20.5194183010679</v>
       </c>
       <c r="G29">
-        <v>3.07473679259547</v>
+        <v>3.08801446117105</v>
       </c>
       <c r="H29">
-        <v>0.499835058962406</v>
+        <v>1.04710889570904</v>
       </c>
       <c r="I29">
-        <v>2.75750097302298</v>
+        <v>1.64596725502563</v>
       </c>
       <c r="J29">
-        <v>3.20692200969593</v>
+        <v>4.58276728612842</v>
       </c>
       <c r="K29">
-        <v>1.02071683733436</v>
+        <v>2.15972045325201</v>
       </c>
       <c r="L29">
-        <v>3.47995429709748</v>
+        <v>2.90503712420521</v>
       </c>
       <c r="M29">
-        <v>4.5967643869637</v>
+        <v>3.61091809473977</v>
       </c>
       <c r="N29">
-        <v>12.097013197354</v>
+        <v>10.692001069729</v>
       </c>
       <c r="O29">
-        <v>1096.75549317133</v>
+        <v>963.672429397699</v>
       </c>
       <c r="P29">
-        <v>4.74902593279579</v>
+        <v>2.9804487645968</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>187.601648088599</v>
+        <v>261.814353789597</v>
       </c>
       <c r="C30">
-        <v>4.26727616790929</v>
+        <v>2.44314005404259</v>
       </c>
       <c r="D30">
-        <v>4.53443166440648</v>
+        <v>2.51905046658897</v>
       </c>
       <c r="E30">
-        <v>11.1650913678316</v>
+        <v>9.04943363683525</v>
       </c>
       <c r="F30">
-        <v>0.181518702191314</v>
+        <v>0.170833917015799</v>
       </c>
       <c r="G30">
-        <v>3.85288512886899</v>
+        <v>3.87325494071883</v>
       </c>
       <c r="H30">
-        <v>3.59533370921836</v>
+        <v>3.67841482137353</v>
       </c>
       <c r="I30">
-        <v>2.42933796763369</v>
+        <v>2.0948706219473</v>
       </c>
       <c r="J30">
-        <v>18.507719188431</v>
+        <v>14.5349873630643</v>
       </c>
       <c r="K30">
-        <v>3.36197148003176</v>
+        <v>5.16478569213871</v>
       </c>
       <c r="L30">
-        <v>41.8998221212069</v>
+        <v>36.1118293045954</v>
       </c>
       <c r="M30">
-        <v>8.309237651799959</v>
+        <v>6.95944635018332</v>
       </c>
       <c r="N30">
-        <v>15.2314745709819</v>
+        <v>12.2620718408439</v>
       </c>
       <c r="O30">
-        <v>538.493002307546</v>
+        <v>492.597852673967</v>
       </c>
       <c r="P30">
-        <v>5.80486402179915</v>
+        <v>4.05514050348538</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1519.89707132955</v>
+        <v>2147.73980376308</v>
       </c>
       <c r="C31">
-        <v>60.2687731329228</v>
+        <v>45.6466480561878</v>
       </c>
       <c r="D31">
-        <v>8.936405864327391</v>
+        <v>5.60412838059698</v>
       </c>
       <c r="E31">
-        <v>31.6084482226504</v>
+        <v>20.0873701399322</v>
       </c>
       <c r="F31">
-        <v>3.68821296935893</v>
+        <v>7.38503251156907</v>
       </c>
       <c r="G31">
-        <v>112.402954315458</v>
+        <v>88.31855991992801</v>
       </c>
       <c r="H31">
-        <v>9.408771336133279</v>
+        <v>11.9379053504035</v>
       </c>
       <c r="I31">
-        <v>9.36019699181132</v>
+        <v>5.68693336610978</v>
       </c>
       <c r="J31">
-        <v>25.5554508996362</v>
+        <v>29.5389820416035</v>
       </c>
       <c r="K31">
-        <v>5.03212117410714</v>
+        <v>4.52125389364394</v>
       </c>
       <c r="L31">
-        <v>58.5028596213049</v>
+        <v>30.3718292161438</v>
       </c>
       <c r="M31">
-        <v>21.3094689392264</v>
+        <v>15.3780216719416</v>
       </c>
       <c r="N31">
-        <v>81.6931741884121</v>
+        <v>72.4369732104679</v>
       </c>
       <c r="O31">
-        <v>3775.49098539897</v>
+        <v>3244.57110518272</v>
       </c>
       <c r="P31">
-        <v>17.9532223468851</v>
+        <v>18.3167904887783</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>430.720577419736</v>
+        <v>507.613949722696</v>
       </c>
       <c r="C32">
-        <v>2.75783126961999</v>
+        <v>3.44931998869332</v>
       </c>
       <c r="D32">
-        <v>0.329216872217961</v>
+        <v>0.609283984489709</v>
       </c>
       <c r="E32">
-        <v>3.41199070456208</v>
+        <v>3.86513442793946</v>
       </c>
       <c r="F32">
-        <v>22.1803970216485</v>
+        <v>19.1426227797236</v>
       </c>
       <c r="G32">
-        <v>1.99485333749995</v>
+        <v>1.16255812462259</v>
       </c>
       <c r="H32">
-        <v>0.8462661028820651</v>
+        <v>0.942398285968151</v>
       </c>
       <c r="I32">
-        <v>2.61745675354931</v>
+        <v>1.59195434125789</v>
       </c>
       <c r="J32">
-        <v>4.96915692172589</v>
+        <v>3.01482345690238</v>
       </c>
       <c r="K32">
-        <v>2.58033947504219</v>
+        <v>3.17341206396668</v>
       </c>
       <c r="L32">
-        <v>6.30035364989887</v>
+        <v>4.72489981842395</v>
       </c>
       <c r="M32">
-        <v>10.7266040726356</v>
+        <v>9.722669044277</v>
       </c>
       <c r="N32">
-        <v>15.4173438276636</v>
+        <v>14.3617780650324</v>
       </c>
       <c r="O32">
-        <v>759.525197999571</v>
+        <v>678.875399853716</v>
       </c>
       <c r="P32">
-        <v>18.9926517861204</v>
+        <v>19.9229790568208</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4048.44372552734</v>
+        <v>5348.09049379795</v>
       </c>
       <c r="C33">
-        <v>74.5236064112047</v>
+        <v>71.4716259243752</v>
       </c>
       <c r="D33">
-        <v>16.1019259675535</v>
+        <v>12.4584686422629</v>
       </c>
       <c r="E33">
-        <v>70.5935761516686</v>
+        <v>49.2714413286614</v>
       </c>
       <c r="F33">
-        <v>12.0744362037282</v>
+        <v>15.9317543336717</v>
       </c>
       <c r="G33">
-        <v>77.42392690918921</v>
+        <v>56.4180590556494</v>
       </c>
       <c r="H33">
-        <v>42.9102552485522</v>
+        <v>33.345746079949</v>
       </c>
       <c r="I33">
-        <v>18.4928320947827</v>
+        <v>9.004990444143729</v>
       </c>
       <c r="J33">
-        <v>91.7476296366695</v>
+        <v>71.3069211830409</v>
       </c>
       <c r="K33">
-        <v>61.7014365413245</v>
+        <v>39.8488205044658</v>
       </c>
       <c r="L33">
-        <v>103.232885090827</v>
+        <v>79.8688054721318</v>
       </c>
       <c r="M33">
-        <v>52.222513362048</v>
+        <v>40.6360910254013</v>
       </c>
       <c r="N33">
-        <v>137.449679595788</v>
+        <v>115.670887728817</v>
       </c>
       <c r="O33">
-        <v>7837.26663914413</v>
+        <v>6712.21054144151</v>
       </c>
       <c r="P33">
-        <v>58.4886292287086</v>
+        <v>54.5297950076248</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1858.23157854304</v>
+        <v>2323.92450481218</v>
       </c>
       <c r="C34">
-        <v>63.6036809945894</v>
+        <v>50.665631126394</v>
       </c>
       <c r="D34">
-        <v>88.91513624665259</v>
+        <v>61.7437358951165</v>
       </c>
       <c r="E34">
-        <v>67.14655537643139</v>
+        <v>68.63562412100031</v>
       </c>
       <c r="F34">
-        <v>4.04450877735498</v>
+        <v>4.70749282985343</v>
       </c>
       <c r="G34">
-        <v>49.6093282964386</v>
+        <v>45.9983690866858</v>
       </c>
       <c r="H34">
-        <v>46.7677552919453</v>
+        <v>32.6856596114261</v>
       </c>
       <c r="I34">
-        <v>15.4065149447322</v>
+        <v>10.2417820935881</v>
       </c>
       <c r="J34">
-        <v>44.0164711448559</v>
+        <v>36.3873798998994</v>
       </c>
       <c r="K34">
-        <v>8.281815427258151</v>
+        <v>1.44301973741193</v>
       </c>
       <c r="L34">
-        <v>117.054158687506</v>
+        <v>80.34252676718469</v>
       </c>
       <c r="M34">
-        <v>34.6776779761353</v>
+        <v>34.0739253093361</v>
       </c>
       <c r="N34">
-        <v>125.159952060916</v>
+        <v>99.6969565328655</v>
       </c>
       <c r="O34">
-        <v>3321.89972747704</v>
+        <v>2953.36580285925</v>
       </c>
       <c r="P34">
-        <v>87.51482554198491</v>
+        <v>80.8087103272315</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>85.842023428166</v>
+        <v>136.048478384962</v>
       </c>
       <c r="C35">
-        <v>6.40012253409318</v>
+        <v>5.70402003801345</v>
       </c>
       <c r="D35">
-        <v>0.350600380434862</v>
+        <v>0.621036119985741</v>
       </c>
       <c r="E35">
-        <v>2.45540487930005</v>
+        <v>1.56993022184772</v>
       </c>
       <c r="F35">
-        <v>3.95508722373886</v>
+        <v>3.7703460340843</v>
       </c>
       <c r="G35">
-        <v>0.930243834810271</v>
+        <v>1.04385663938259</v>
       </c>
       <c r="H35">
-        <v>1.13532995386486</v>
+        <v>1.30798254624971</v>
       </c>
       <c r="I35">
-        <v>0.827773085863226</v>
+        <v>0.64978542180807</v>
       </c>
       <c r="J35">
-        <v>2.44135809352255</v>
+        <v>2.23871099793647</v>
       </c>
       <c r="K35">
-        <v>3.99636985507446</v>
+        <v>2.75389454093697</v>
       </c>
       <c r="L35">
-        <v>2.75828919123332</v>
+        <v>2.29135550739676</v>
       </c>
       <c r="M35">
-        <v>2.5803250559954</v>
+        <v>2.17395945571425</v>
       </c>
       <c r="N35">
-        <v>3.91110083191278</v>
+        <v>2.48848685766997</v>
       </c>
       <c r="O35">
-        <v>276.322283499011</v>
+        <v>245.597086064806</v>
       </c>
       <c r="P35">
-        <v>45.7182347472447</v>
+        <v>40.8910018249733</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2459.41321920793</v>
+        <v>3039.67370265843</v>
       </c>
       <c r="C36">
-        <v>80.1526903704731</v>
+        <v>71.6663651195358</v>
       </c>
       <c r="D36">
-        <v>8.98479453998157</v>
+        <v>8.118708351942271</v>
       </c>
       <c r="E36">
-        <v>140.622288240881</v>
+        <v>119.116325076723</v>
       </c>
       <c r="F36">
-        <v>38.7048290652021</v>
+        <v>27.6853102785011</v>
       </c>
       <c r="G36">
-        <v>95.1024213658346</v>
+        <v>87.8479557603934</v>
       </c>
       <c r="H36">
-        <v>81.28784943983609</v>
+        <v>57.1455107727623</v>
       </c>
       <c r="I36">
-        <v>37.3390585235961</v>
+        <v>39.4554287263043</v>
       </c>
       <c r="J36">
-        <v>224.805039001938</v>
+        <v>189.229369479814</v>
       </c>
       <c r="K36">
-        <v>57.0875171905036</v>
+        <v>54.5982074724274</v>
       </c>
       <c r="L36">
-        <v>61.621565897829</v>
+        <v>50.8853893676486</v>
       </c>
       <c r="M36">
-        <v>178.86110626262</v>
+        <v>171.244456681324</v>
       </c>
       <c r="N36">
-        <v>116.6599206289</v>
+        <v>100.497807834106</v>
       </c>
       <c r="O36">
-        <v>4280.83372664205</v>
+        <v>3850.06687135918</v>
       </c>
       <c r="P36">
-        <v>62.2766107770661</v>
+        <v>49.9865690994005</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>776.191112930594</v>
+        <v>989.599584897624</v>
       </c>
       <c r="C37">
-        <v>19.9902537872823</v>
+        <v>11.9879551318209</v>
       </c>
       <c r="D37">
-        <v>5.27029283323175</v>
+        <v>5.10546923328781</v>
       </c>
       <c r="E37">
-        <v>20.0797010681707</v>
+        <v>13.0314708281869</v>
       </c>
       <c r="F37">
-        <v>38.1991099615301</v>
+        <v>32.9789403168922</v>
       </c>
       <c r="G37">
-        <v>6.94447628127568</v>
+        <v>8.755643591998281</v>
       </c>
       <c r="H37">
-        <v>28.0916522040043</v>
+        <v>22.271183322988</v>
       </c>
       <c r="I37">
-        <v>8.13808404712359</v>
+        <v>11.6713274814168</v>
       </c>
       <c r="J37">
-        <v>31.593573089355</v>
+        <v>24.9274650131937</v>
       </c>
       <c r="K37">
-        <v>7.33646749647246</v>
+        <v>8.961809197202349</v>
       </c>
       <c r="L37">
-        <v>16.2072627651248</v>
+        <v>9.01962784954152</v>
       </c>
       <c r="M37">
-        <v>38.1672352752296</v>
+        <v>25.8653744621745</v>
       </c>
       <c r="N37">
-        <v>19.2428826062508</v>
+        <v>22.8670657659766</v>
       </c>
       <c r="O37">
-        <v>1364.45742083443</v>
+        <v>1184.84909514868</v>
       </c>
       <c r="P37">
-        <v>57.7578686027793</v>
+        <v>53.6508429213341</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>782.672541905338</v>
+        <v>1010.44564482388</v>
       </c>
       <c r="C38">
-        <v>25.1101701083392</v>
+        <v>23.6680675371631</v>
       </c>
       <c r="D38">
-        <v>3.60658580656698</v>
+        <v>6.8550382332534</v>
       </c>
       <c r="E38">
-        <v>43.3541345947658</v>
+        <v>38.7697074556598</v>
       </c>
       <c r="F38">
-        <v>2.4723047379014</v>
+        <v>3.60864571992292</v>
       </c>
       <c r="G38">
-        <v>10.3312695469873</v>
+        <v>8.46301150015173</v>
       </c>
       <c r="H38">
-        <v>1.91066474182756</v>
+        <v>3.13653494654238</v>
       </c>
       <c r="I38">
-        <v>3.15058614377026</v>
+        <v>1.3298806897563</v>
       </c>
       <c r="J38">
-        <v>39.7180997060477</v>
+        <v>23.607869831438</v>
       </c>
       <c r="K38">
-        <v>6.30059463374198</v>
+        <v>9.71174917365018</v>
       </c>
       <c r="L38">
-        <v>82.9037133410209</v>
+        <v>78.7253882691589</v>
       </c>
       <c r="M38">
-        <v>23.7328810709856</v>
+        <v>16.3410711876531</v>
       </c>
       <c r="N38">
-        <v>33.6750664344511</v>
+        <v>23.0545896542526</v>
       </c>
       <c r="O38">
-        <v>1483.89034829391</v>
+        <v>1289.07234647697</v>
       </c>
       <c r="P38">
-        <v>69.19579567543489</v>
+        <v>58.309398219846</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2615.17588109485</v>
+        <v>3456.53799671387</v>
       </c>
       <c r="C39">
-        <v>93.4543307071702</v>
+        <v>74.65620040329959</v>
       </c>
       <c r="D39">
-        <v>30.0254081258717</v>
+        <v>21.3374272115398</v>
       </c>
       <c r="E39">
-        <v>128.254030865719</v>
+        <v>108.109419395966</v>
       </c>
       <c r="F39">
-        <v>33.6733005315583</v>
+        <v>29.1845283071873</v>
       </c>
       <c r="G39">
-        <v>101.556196140548</v>
+        <v>90.9635020061633</v>
       </c>
       <c r="H39">
-        <v>50.7178269347579</v>
+        <v>30.4288117889866</v>
       </c>
       <c r="I39">
-        <v>32.0210391860773</v>
+        <v>24.7190462768377</v>
       </c>
       <c r="J39">
-        <v>206.855216894727</v>
+        <v>171.865308730707</v>
       </c>
       <c r="K39">
-        <v>46.9728532103988</v>
+        <v>31.8097411470764</v>
       </c>
       <c r="L39">
-        <v>115.347721435597</v>
+        <v>90.9099192433544</v>
       </c>
       <c r="M39">
-        <v>78.00411937502901</v>
+        <v>58.1758996323573</v>
       </c>
       <c r="N39">
-        <v>126.520023258656</v>
+        <v>109.55408340754</v>
       </c>
       <c r="O39">
-        <v>5018.55108641233</v>
+        <v>4394.5457620354</v>
       </c>
       <c r="P39">
-        <v>64.7571258904096</v>
+        <v>58.4828053602383</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>195.308140238617</v>
+        <v>260.108805881905</v>
       </c>
       <c r="C40">
-        <v>3.72046572304279</v>
+        <v>3.17616495031462</v>
       </c>
       <c r="D40">
-        <v>6.59376521001251</v>
+        <v>5.49089762991726</v>
       </c>
       <c r="E40">
-        <v>3.78511205195611</v>
+        <v>2.61860458594355</v>
       </c>
       <c r="F40">
-        <v>0.390887939483354</v>
+        <v>0.409268061693976</v>
       </c>
       <c r="G40">
-        <v>4.63933108692667</v>
+        <v>3.67754997515424</v>
       </c>
       <c r="H40">
-        <v>3.1385768335836</v>
+        <v>2.06526138774421</v>
       </c>
       <c r="I40">
-        <v>1.47041349543806</v>
+        <v>0.880580703438326</v>
       </c>
       <c r="J40">
-        <v>10.128445542644</v>
+        <v>9.24196957806144</v>
       </c>
       <c r="K40">
-        <v>0.923773957824492</v>
+        <v>1.32501145366943</v>
       </c>
       <c r="L40">
-        <v>9.908183885162</v>
+        <v>7.35976911912574</v>
       </c>
       <c r="M40">
-        <v>3.51962706155263</v>
+        <v>3.9216576616748</v>
       </c>
       <c r="N40">
-        <v>22.4168753800557</v>
+        <v>17.8783264738258</v>
       </c>
       <c r="O40">
-        <v>444.410598142558</v>
+        <v>402.884921420413</v>
       </c>
       <c r="P40">
-        <v>3.28366058236675</v>
+        <v>2.9599977181691</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>992.671811450414</v>
+        <v>1184.57087184113</v>
       </c>
       <c r="C41">
-        <v>16.1704647413343</v>
+        <v>11.6997954021863</v>
       </c>
       <c r="D41">
-        <v>55.0426805372018</v>
+        <v>52.6764954701519</v>
       </c>
       <c r="E41">
-        <v>37.9699482589235</v>
+        <v>35.6169091744034</v>
       </c>
       <c r="F41">
-        <v>3.05560634307471</v>
+        <v>3.75968823598982</v>
       </c>
       <c r="G41">
-        <v>31.4409873693285</v>
+        <v>32.9985523777848</v>
       </c>
       <c r="H41">
-        <v>38.7593668305736</v>
+        <v>33.8661509484769</v>
       </c>
       <c r="I41">
-        <v>14.8860394252455</v>
+        <v>8.082094556758699</v>
       </c>
       <c r="J41">
-        <v>37.5008150585768</v>
+        <v>32.5607940316064</v>
       </c>
       <c r="K41">
-        <v>9.31233306821529</v>
+        <v>10.6535363344605</v>
       </c>
       <c r="L41">
-        <v>23.447659257404</v>
+        <v>19.6200168376596</v>
       </c>
       <c r="M41">
-        <v>34.7270293817885</v>
+        <v>27.6387381452279</v>
       </c>
       <c r="N41">
-        <v>14.6919181914158</v>
+        <v>22.1348558181571</v>
       </c>
       <c r="O41">
-        <v>1592.94640272532</v>
+        <v>1431.19511923766</v>
       </c>
       <c r="P41">
-        <v>33.9786152665278</v>
+        <v>15.236960381493</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>98.02002317215541</v>
+        <v>146.930838799596</v>
       </c>
       <c r="C42">
-        <v>6.72005043282395</v>
+        <v>6.38815562887072</v>
       </c>
       <c r="D42">
-        <v>1.11729535037853</v>
+        <v>1.76858742834693</v>
       </c>
       <c r="E42">
-        <v>7.05572187198382</v>
+        <v>4.70660439769286</v>
       </c>
       <c r="F42">
-        <v>1.74564406832302</v>
+        <v>1.93773366369799</v>
       </c>
       <c r="G42">
-        <v>1.64957719865273</v>
+        <v>1.46503880612329</v>
       </c>
       <c r="H42">
-        <v>0.7747209070276691</v>
+        <v>0.741905368469549</v>
       </c>
       <c r="I42">
-        <v>1.63304324760832</v>
+        <v>2.05288698092875</v>
       </c>
       <c r="J42">
-        <v>6.01557393236493</v>
+        <v>3.90146927370355</v>
       </c>
       <c r="K42">
-        <v>3.32513530579375</v>
+        <v>1.83108628014744</v>
       </c>
       <c r="L42">
-        <v>4.35493057949427</v>
+        <v>4.61824234587139</v>
       </c>
       <c r="M42">
-        <v>3.18835206937872</v>
+        <v>2.32480837297387</v>
       </c>
       <c r="N42">
-        <v>9.987710962807039</v>
+        <v>8.56701461490287</v>
       </c>
       <c r="O42">
-        <v>316.349660436889</v>
+        <v>272.513704256022</v>
       </c>
       <c r="P42">
-        <v>44.8951831403219</v>
+        <v>39.1181772121949</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1510.61239717062</v>
+        <v>1812.3972296591</v>
       </c>
       <c r="C43">
-        <v>42.2121594992877</v>
+        <v>25.6333887316773</v>
       </c>
       <c r="D43">
-        <v>25.7283946419468</v>
+        <v>23.1842387419051</v>
       </c>
       <c r="E43">
-        <v>77.313368273423</v>
+        <v>50.3857673300369</v>
       </c>
       <c r="F43">
-        <v>4.81921211049909</v>
+        <v>5.7630790766053</v>
       </c>
       <c r="G43">
-        <v>33.6102394787534</v>
+        <v>35.075344239672</v>
       </c>
       <c r="H43">
-        <v>44.7905708968767</v>
+        <v>53.5826292587429</v>
       </c>
       <c r="I43">
-        <v>12.2662436441484</v>
+        <v>5.7268358084044</v>
       </c>
       <c r="J43">
-        <v>59.2569772178498</v>
+        <v>42.9200134323991</v>
       </c>
       <c r="K43">
-        <v>5.52911308164373</v>
+        <v>4.0425702521476</v>
       </c>
       <c r="L43">
-        <v>33.2000369755604</v>
+        <v>35.373572707722</v>
       </c>
       <c r="M43">
-        <v>80.849730016511</v>
+        <v>67.9730661847392</v>
       </c>
       <c r="N43">
-        <v>75.6362848326599</v>
+        <v>64.71844332870771</v>
       </c>
       <c r="O43">
-        <v>2216.84012741449</v>
+        <v>1957.571918388</v>
       </c>
       <c r="P43">
-        <v>29.7627588982193</v>
+        <v>26.9586220572104</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4349.92195385266</v>
+        <v>5364.23166855243</v>
       </c>
       <c r="C44">
-        <v>146.435903195052</v>
+        <v>119.214782675586</v>
       </c>
       <c r="D44">
-        <v>20.4054941499339</v>
+        <v>23.7157031853714</v>
       </c>
       <c r="E44">
-        <v>96.83337129960729</v>
+        <v>78.1693821329514</v>
       </c>
       <c r="F44">
-        <v>265.014670098132</v>
+        <v>194.943441598563</v>
       </c>
       <c r="G44">
-        <v>120.932755980924</v>
+        <v>110.61149514642</v>
       </c>
       <c r="H44">
-        <v>30.8953346574889</v>
+        <v>33.5956157534684</v>
       </c>
       <c r="I44">
-        <v>38.4219659716694</v>
+        <v>40.5336639936205</v>
       </c>
       <c r="J44">
-        <v>124.669870570331</v>
+        <v>90.455020347023</v>
       </c>
       <c r="K44">
-        <v>25.9060430725036</v>
+        <v>25.4531815247826</v>
       </c>
       <c r="L44">
-        <v>188.062711046128</v>
+        <v>162.025072515118</v>
       </c>
       <c r="M44">
-        <v>84.0715625990599</v>
+        <v>65.77145431550601</v>
       </c>
       <c r="N44">
-        <v>82.0883302946323</v>
+        <v>78.52100920724639</v>
       </c>
       <c r="O44">
-        <v>8830.64556723334</v>
+        <v>7959.11100198395</v>
       </c>
       <c r="P44">
-        <v>214.413392259657</v>
+        <v>182.220363350494</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>367.588711626479</v>
+        <v>451.293928537855</v>
       </c>
       <c r="C45">
-        <v>17.1513575230083</v>
+        <v>12.4207069850414</v>
       </c>
       <c r="D45">
-        <v>1.89293307721839</v>
+        <v>1.44532423581374</v>
       </c>
       <c r="E45">
-        <v>16.4268118227936</v>
+        <v>10.3544536629152</v>
       </c>
       <c r="F45">
-        <v>24.9136784569091</v>
+        <v>23.4682033180687</v>
       </c>
       <c r="G45">
-        <v>8.03207865888092</v>
+        <v>5.78167985963723</v>
       </c>
       <c r="H45">
-        <v>0.741657048294825</v>
+        <v>0.8888146336884321</v>
       </c>
       <c r="I45">
-        <v>2.74251126035534</v>
+        <v>5.41915826645803</v>
       </c>
       <c r="J45">
-        <v>26.6149371147131</v>
+        <v>24.6735553755176</v>
       </c>
       <c r="K45">
-        <v>4.58565909135474</v>
+        <v>3.99078255819135</v>
       </c>
       <c r="L45">
-        <v>15.5326550730563</v>
+        <v>12.5271762774876</v>
       </c>
       <c r="M45">
-        <v>12.8422189162776</v>
+        <v>11.8889546682342</v>
       </c>
       <c r="N45">
-        <v>31.1970892453678</v>
+        <v>26.6581867535462</v>
       </c>
       <c r="O45">
-        <v>898.214501453336</v>
+        <v>873.03374676032</v>
       </c>
       <c r="P45">
-        <v>19.2903081736266</v>
+        <v>16.449961483998</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>93.66408827771259</v>
+        <v>132.427124399415</v>
       </c>
       <c r="C46">
-        <v>4.90514090038651</v>
+        <v>4.23421755161835</v>
       </c>
       <c r="D46">
-        <v>0.501862518584533</v>
+        <v>0.889262572888471</v>
       </c>
       <c r="E46">
-        <v>5.08830509739165</v>
+        <v>4.06293049974316</v>
       </c>
       <c r="F46">
-        <v>0.769095930869932</v>
+        <v>0.610918923627825</v>
       </c>
       <c r="G46">
-        <v>1.23047234335622</v>
+        <v>0.392068422311862</v>
       </c>
       <c r="H46">
-        <v>0.830874263564192</v>
+        <v>0.58552500278517</v>
       </c>
       <c r="I46">
-        <v>1.4225355165048</v>
+        <v>0.386065628708581</v>
       </c>
       <c r="J46">
-        <v>4.24320796974853</v>
+        <v>3.62966450170588</v>
       </c>
       <c r="K46">
-        <v>1.20047335492951</v>
+        <v>1.67541770767542</v>
       </c>
       <c r="L46">
-        <v>11.831559383476</v>
+        <v>11.2990494072412</v>
       </c>
       <c r="M46">
-        <v>2.85488516144215</v>
+        <v>2.05534103651031</v>
       </c>
       <c r="N46">
-        <v>9.39862838620679</v>
+        <v>7.46096027033218</v>
       </c>
       <c r="O46">
-        <v>277.526606763845</v>
+        <v>246.613348784168</v>
       </c>
       <c r="P46">
-        <v>7.35307961623133</v>
+        <v>7.26387086212055</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1453.87366668411</v>
+        <v>1796.90533656218</v>
       </c>
       <c r="C47">
-        <v>44.9123639050675</v>
+        <v>37.7023578194881</v>
       </c>
       <c r="D47">
-        <v>10.4013195308588</v>
+        <v>5.40332372776542</v>
       </c>
       <c r="E47">
-        <v>48.5851969430888</v>
+        <v>40.4696681194506</v>
       </c>
       <c r="F47">
-        <v>12.5801516797311</v>
+        <v>7.69307651146786</v>
       </c>
       <c r="G47">
-        <v>25.3294171275659</v>
+        <v>23.6950283630742</v>
       </c>
       <c r="H47">
-        <v>12.6435074765931</v>
+        <v>10.5995717135948</v>
       </c>
       <c r="I47">
-        <v>6.61125727639471</v>
+        <v>7.72655706294656</v>
       </c>
       <c r="J47">
-        <v>34.504459564973</v>
+        <v>28.6764421262673</v>
       </c>
       <c r="K47">
-        <v>3.09210532615025</v>
+        <v>3.56254053029136</v>
       </c>
       <c r="L47">
-        <v>22.5511929964322</v>
+        <v>17.8380352954827</v>
       </c>
       <c r="M47">
-        <v>67.4745833871319</v>
+        <v>48.6425316175851</v>
       </c>
       <c r="N47">
-        <v>27.1209798832376</v>
+        <v>18.348248011076</v>
       </c>
       <c r="O47">
-        <v>3093.41081001242</v>
+        <v>2831.38178255889</v>
       </c>
       <c r="P47">
-        <v>42.4204352997024</v>
+        <v>33.4049736120733</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1189.8916840693</v>
+        <v>1525.2244885526</v>
       </c>
       <c r="C48">
-        <v>36.5676941160265</v>
+        <v>42.5330578469572</v>
       </c>
       <c r="D48">
-        <v>7.59297264233851</v>
+        <v>7.31050185092246</v>
       </c>
       <c r="E48">
-        <v>64.18000505587671</v>
+        <v>48.458776042914</v>
       </c>
       <c r="F48">
-        <v>10.2982068526253</v>
+        <v>7.28010733776527</v>
       </c>
       <c r="G48">
-        <v>6.65172971809987</v>
+        <v>8.051466513998349</v>
       </c>
       <c r="H48">
-        <v>9.262497557812351</v>
+        <v>11.6660965171606</v>
       </c>
       <c r="I48">
-        <v>9.1569168973522</v>
+        <v>6.86717429684607</v>
       </c>
       <c r="J48">
-        <v>36.1459756135646</v>
+        <v>30.4385601337998</v>
       </c>
       <c r="K48">
-        <v>20.3897478447022</v>
+        <v>21.1426038532296</v>
       </c>
       <c r="L48">
-        <v>49.4652589293473</v>
+        <v>37.5246385008998</v>
       </c>
       <c r="M48">
-        <v>152.172882291912</v>
+        <v>121.454031297657</v>
       </c>
       <c r="N48">
-        <v>50.6423514957783</v>
+        <v>40.3169945492914</v>
       </c>
       <c r="O48">
-        <v>2537.47204113234</v>
+        <v>2269.47606774352</v>
       </c>
       <c r="P48">
-        <v>96.3205549882064</v>
+        <v>70.6985216992574</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>615.9187068184961</v>
+        <v>697.8469581270661</v>
       </c>
       <c r="C49">
-        <v>4.28643170091823</v>
+        <v>3.87624665164869</v>
       </c>
       <c r="D49">
-        <v>1.29082620105967</v>
+        <v>1.5260153449573</v>
       </c>
       <c r="E49">
-        <v>21.7901654524508</v>
+        <v>19.801896474306</v>
       </c>
       <c r="F49">
-        <v>30.7644849347212</v>
+        <v>27.274444596809</v>
       </c>
       <c r="G49">
-        <v>10.5697794713867</v>
+        <v>9.70319331076181</v>
       </c>
       <c r="H49">
-        <v>8.134025514687711</v>
+        <v>6.19867901864189</v>
       </c>
       <c r="I49">
-        <v>3.07474162325336</v>
+        <v>4.80510440744573</v>
       </c>
       <c r="J49">
-        <v>20.9750015012979</v>
+        <v>17.7218821196847</v>
       </c>
       <c r="K49">
-        <v>2.01904560895112</v>
+        <v>2.16252161878162</v>
       </c>
       <c r="L49">
-        <v>1.23047410663878</v>
+        <v>2.19448630210929</v>
       </c>
       <c r="M49">
-        <v>3.2639086423672</v>
+        <v>2.3092033861617</v>
       </c>
       <c r="N49">
-        <v>8.08772246142015</v>
+        <v>6.58653626792365</v>
       </c>
       <c r="O49">
-        <v>601.938637560649</v>
+        <v>520.190353081173</v>
       </c>
       <c r="P49">
-        <v>7.30269477236367</v>
+        <v>5.3117513623251</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>913.250381853529</v>
+        <v>1236.26853109802</v>
       </c>
       <c r="C50">
-        <v>73.4843084018901</v>
+        <v>66.52432782425851</v>
       </c>
       <c r="D50">
-        <v>6.29949268564478</v>
+        <v>3.23384232214267</v>
       </c>
       <c r="E50">
-        <v>133.113108916053</v>
+        <v>104.611828494263</v>
       </c>
       <c r="F50">
-        <v>4.13907236005276</v>
+        <v>4.37268900841699</v>
       </c>
       <c r="G50">
-        <v>27.8959005912907</v>
+        <v>22.7553344968032</v>
       </c>
       <c r="H50">
-        <v>50.349458770403</v>
+        <v>39.0574696332856</v>
       </c>
       <c r="I50">
-        <v>13.3415766548285</v>
+        <v>6.63734480957106</v>
       </c>
       <c r="J50">
-        <v>78.97827175160219</v>
+        <v>65.6375866012111</v>
       </c>
       <c r="K50">
-        <v>49.2589505213032</v>
+        <v>48.8910070017505</v>
       </c>
       <c r="L50">
-        <v>63.8569897168201</v>
+        <v>56.869356097025</v>
       </c>
       <c r="M50">
-        <v>59.5436991011834</v>
+        <v>46.4827186065573</v>
       </c>
       <c r="N50">
-        <v>52.3786169746335</v>
+        <v>44.7612581287095</v>
       </c>
       <c r="O50">
-        <v>2217.45776137311</v>
+        <v>2006.97624492525</v>
       </c>
       <c r="P50">
-        <v>87.8962728767732</v>
+        <v>82.22666391599969</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>75.12521847148121</v>
+        <v>105.499176806969</v>
       </c>
       <c r="C51">
-        <v>1.08763829818285</v>
+        <v>0.200142048440919</v>
       </c>
       <c r="D51">
-        <v>0.0354405117091356</v>
+        <v>0.230790869606009</v>
       </c>
       <c r="E51">
-        <v>1.51263639568426</v>
+        <v>1.16520286710535</v>
       </c>
       <c r="F51">
-        <v>29.0575256039912</v>
+        <v>25.3732862016818</v>
       </c>
       <c r="G51">
-        <v>1.89556498711622</v>
+        <v>1.50839326303979</v>
       </c>
       <c r="H51">
-        <v>0.100202458817991</v>
+        <v>0.0102192234536297</v>
       </c>
       <c r="I51">
-        <v>1.01120075503555</v>
+        <v>0.670037036583208</v>
       </c>
       <c r="J51">
-        <v>1.1157598571985</v>
+        <v>0.9264920243853489</v>
       </c>
       <c r="K51">
-        <v>1.05694519773914</v>
+        <v>1.02197122877666</v>
       </c>
       <c r="L51">
-        <v>0.753218217923332</v>
+        <v>0.70927525387746</v>
       </c>
       <c r="M51">
-        <v>0.342614335605094</v>
+        <v>0.78310041075699</v>
       </c>
       <c r="N51">
-        <v>0.487486928343924</v>
+        <v>0.194502889639181</v>
       </c>
       <c r="O51">
-        <v>212.138601171738</v>
+        <v>187.295949384143</v>
       </c>
       <c r="P51">
-        <v>23.8801971129046</v>
+        <v>22.4185109283364</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1413.86423737743</v>
+        <v>1485.18786951803</v>
       </c>
       <c r="C2">
-        <v>24.5403846784754</v>
+        <v>34.6594171592421</v>
       </c>
       <c r="D2">
-        <v>16.8679470122977</v>
+        <v>57.3585587501701</v>
       </c>
       <c r="E2">
-        <v>54.2326972964541</v>
+        <v>49.776626321225</v>
       </c>
       <c r="F2">
-        <v>31.8056138903408</v>
+        <v>14.3459822816445</v>
       </c>
       <c r="G2">
-        <v>15.6142237999009</v>
+        <v>14.2646648556722</v>
       </c>
       <c r="H2">
-        <v>15.9166447645255</v>
+        <v>15.3379005016967</v>
       </c>
       <c r="I2">
-        <v>8.13470894376869</v>
+        <v>14.5729744244081</v>
       </c>
       <c r="J2">
-        <v>71.8067185990475</v>
+        <v>53.8640314120675</v>
       </c>
       <c r="K2">
-        <v>9.762354510443711</v>
+        <v>19.1304877157173</v>
       </c>
       <c r="L2">
-        <v>66.0840089675352</v>
+        <v>29.9791418066356</v>
       </c>
       <c r="M2">
-        <v>41.8118432001669</v>
+        <v>45.6425263908342</v>
       </c>
       <c r="N2">
-        <v>18.2260164186039</v>
+        <v>34.9827240096745</v>
       </c>
       <c r="O2">
-        <v>1384.17335549258</v>
+        <v>1309.93129825263</v>
       </c>
       <c r="P2">
-        <v>25.1697377770953</v>
+        <v>30.3739551534792</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>114.169975801887</v>
+        <v>125.885381955403</v>
       </c>
       <c r="C3">
-        <v>2.27428036625813</v>
+        <v>5.18609235290472</v>
       </c>
       <c r="D3">
-        <v>0.436230098303173</v>
+        <v>0.424118875207953</v>
       </c>
       <c r="E3">
-        <v>0.454797795866829</v>
+        <v>1.74987387279173</v>
       </c>
       <c r="F3">
-        <v>6.97870409222502</v>
+        <v>6.59066038908503</v>
       </c>
       <c r="G3">
-        <v>0.238283184811181</v>
+        <v>0.244667363683344</v>
       </c>
       <c r="H3">
-        <v>0.00611254718495098</v>
+        <v>0.07140362811816919</v>
       </c>
       <c r="I3">
-        <v>0.438411463616204</v>
+        <v>0.320810210011817</v>
       </c>
       <c r="J3">
-        <v>0.467753499031006</v>
+        <v>0.583291290930578</v>
       </c>
       <c r="K3">
-        <v>0.182833867288748</v>
+        <v>0.06620001541763169</v>
       </c>
       <c r="L3">
-        <v>0.0606909612839723</v>
+        <v>0.349974774558347</v>
       </c>
       <c r="M3">
-        <v>0.252516199135275</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="N3">
-        <v>1.1303233888057</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="O3">
-        <v>207.091094720413</v>
+        <v>185.739173290604</v>
       </c>
       <c r="P3">
-        <v>7.71430019732922</v>
+        <v>5.50692892347081</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1637.37172226049</v>
+        <v>1782.68828903111</v>
       </c>
       <c r="C4">
-        <v>8.9721475754674</v>
+        <v>13.4030496639299</v>
       </c>
       <c r="D4">
-        <v>7.62529322079305</v>
+        <v>4.14340150055778</v>
       </c>
       <c r="E4">
-        <v>9.840443338557259</v>
+        <v>19.5873818183215</v>
       </c>
       <c r="F4">
-        <v>2.58109585955085</v>
+        <v>20.0304476782957</v>
       </c>
       <c r="G4">
-        <v>14.2999205211703</v>
+        <v>9.05920771670967</v>
       </c>
       <c r="H4">
-        <v>14.9314965194235</v>
+        <v>6.98360831564852</v>
       </c>
       <c r="I4">
-        <v>5.54211943717498</v>
+        <v>9.80823374865154</v>
       </c>
       <c r="J4">
-        <v>29.6548292718919</v>
+        <v>23.3963957482639</v>
       </c>
       <c r="K4">
-        <v>4.11842579059604</v>
+        <v>10.5521721684732</v>
       </c>
       <c r="L4">
-        <v>55.8019758460278</v>
+        <v>61.7886677572635</v>
       </c>
       <c r="M4">
-        <v>32.508442318219</v>
+        <v>49.3872170587588</v>
       </c>
       <c r="N4">
-        <v>9.64965130525496</v>
+        <v>25.4121222511241</v>
       </c>
       <c r="O4">
-        <v>2118.56878480519</v>
+        <v>1907.55719730048</v>
       </c>
       <c r="P4">
-        <v>24.9758169029466</v>
+        <v>20.6713650740682</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>838.83014848431</v>
+        <v>899.798254600108</v>
       </c>
       <c r="C5">
-        <v>33.7539512071998</v>
+        <v>58.4306390275529</v>
       </c>
       <c r="D5">
-        <v>10.0010447122854</v>
+        <v>11.1128509140914</v>
       </c>
       <c r="E5">
-        <v>26.2976892379831</v>
+        <v>45.1509980355601</v>
       </c>
       <c r="F5">
-        <v>6.21987754019293</v>
+        <v>5.74282809205453</v>
       </c>
       <c r="G5">
-        <v>5.25014031285172</v>
+        <v>9.04801018669321</v>
       </c>
       <c r="H5">
-        <v>7.78919414764102</v>
+        <v>14.2925869283414</v>
       </c>
       <c r="I5">
-        <v>5.89046497143444</v>
+        <v>6.67994143536038</v>
       </c>
       <c r="J5">
-        <v>32.0812356559544</v>
+        <v>27.1236533233283</v>
       </c>
       <c r="K5">
-        <v>2.41862619863126</v>
+        <v>19.1462191380062</v>
       </c>
       <c r="L5">
-        <v>7.78194480328186</v>
+        <v>16.7821023863147</v>
       </c>
       <c r="M5">
-        <v>15.5467192332805</v>
+        <v>26.1089948093725</v>
       </c>
       <c r="N5">
-        <v>13.3953458816412</v>
+        <v>16.0761889435762</v>
       </c>
       <c r="O5">
-        <v>933.151810716592</v>
+        <v>772.099244396785</v>
       </c>
       <c r="P5">
-        <v>39.5293642368663</v>
+        <v>40.3817322437544</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8894.31275975604</v>
+        <v>9772.835296783611</v>
       </c>
       <c r="C6">
-        <v>145.441390222797</v>
+        <v>175.794694485417</v>
       </c>
       <c r="D6">
-        <v>30.8932278671723</v>
+        <v>156.968370369996</v>
       </c>
       <c r="E6">
-        <v>139.98200635437</v>
+        <v>182.488586370184</v>
       </c>
       <c r="F6">
-        <v>42.4969440760249</v>
+        <v>44.0724013053861</v>
       </c>
       <c r="G6">
-        <v>77.7984902213675</v>
+        <v>89.63354643050219</v>
       </c>
       <c r="H6">
-        <v>23.4918741076293</v>
+        <v>48.7092514095969</v>
       </c>
       <c r="I6">
-        <v>33.974930476674</v>
+        <v>48.7947300995756</v>
       </c>
       <c r="J6">
-        <v>136.604598942867</v>
+        <v>144.169133647486</v>
       </c>
       <c r="K6">
-        <v>27.9676429935616</v>
+        <v>91.9609794898232</v>
       </c>
       <c r="L6">
-        <v>369.01269290297</v>
+        <v>457.755814417654</v>
       </c>
       <c r="M6">
-        <v>204.745205925813</v>
+        <v>238.422319475922</v>
       </c>
       <c r="N6">
-        <v>270.608991087501</v>
+        <v>225.87366387304</v>
       </c>
       <c r="O6">
-        <v>12245.7822565784</v>
+        <v>10909.5507166133</v>
       </c>
       <c r="P6">
-        <v>233.670425438692</v>
+        <v>261.618357867352</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>968.567556000777</v>
+        <v>1110.10865730265</v>
       </c>
       <c r="C7">
-        <v>35.4204314503745</v>
+        <v>20.3080367495132</v>
       </c>
       <c r="D7">
-        <v>5.50467780293049</v>
+        <v>4.98578420198625</v>
       </c>
       <c r="E7">
-        <v>13.3168737582615</v>
+        <v>20.8150377207007</v>
       </c>
       <c r="F7">
-        <v>15.6986772093139</v>
+        <v>24.3030703410498</v>
       </c>
       <c r="G7">
-        <v>5.86606487311708</v>
+        <v>9.75665788430152</v>
       </c>
       <c r="H7">
-        <v>1.75194134074036</v>
+        <v>6.59014767067625</v>
       </c>
       <c r="I7">
-        <v>6.45562768370537</v>
+        <v>10.7423561821948</v>
       </c>
       <c r="J7">
-        <v>19.6282712569088</v>
+        <v>18.2396054241373</v>
       </c>
       <c r="K7">
-        <v>8.60791069962467</v>
+        <v>11.5939204351135</v>
       </c>
       <c r="L7">
-        <v>50.8500878071519</v>
+        <v>52.8214977837214</v>
       </c>
       <c r="M7">
-        <v>16.6593836474046</v>
+        <v>15.7339665650652</v>
       </c>
       <c r="N7">
-        <v>16.5751894909165</v>
+        <v>21.7175502782609</v>
       </c>
       <c r="O7">
-        <v>1876.46973519865</v>
+        <v>1709.89316225292</v>
       </c>
       <c r="P7">
-        <v>28.2992909781085</v>
+        <v>45.9822611628942</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>828.08320859522</v>
+        <v>912.020487910346</v>
       </c>
       <c r="C8">
-        <v>10.314141921579</v>
+        <v>13.369428560143</v>
       </c>
       <c r="D8">
-        <v>1.91583428485703</v>
+        <v>8.02061532585963</v>
       </c>
       <c r="E8">
-        <v>16.4393090274028</v>
+        <v>18.5155039751162</v>
       </c>
       <c r="F8">
-        <v>2.36862941910543</v>
+        <v>1.65300834284282</v>
       </c>
       <c r="G8">
-        <v>15.3052656475403</v>
+        <v>22.8688363369218</v>
       </c>
       <c r="H8">
-        <v>6.03868656289607</v>
+        <v>7.41440699937644</v>
       </c>
       <c r="I8">
-        <v>8.00051457110785</v>
+        <v>3.38411344313678</v>
       </c>
       <c r="J8">
-        <v>36.2882195833677</v>
+        <v>38.9985624500549</v>
       </c>
       <c r="K8">
-        <v>6.32158134244465</v>
+        <v>23.6555233360126</v>
       </c>
       <c r="L8">
-        <v>32.2138867065591</v>
+        <v>35.9366811738084</v>
       </c>
       <c r="M8">
-        <v>48.9028286741272</v>
+        <v>50.533874230031</v>
       </c>
       <c r="N8">
-        <v>25.4494472196732</v>
+        <v>23.9038694196066</v>
       </c>
       <c r="O8">
-        <v>1298.43561874109</v>
+        <v>1173.96508121427</v>
       </c>
       <c r="P8">
-        <v>9.211228411747531</v>
+        <v>6.7149337611848</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>216.164175837956</v>
+        <v>251.01246987968</v>
       </c>
       <c r="C9">
-        <v>5.70136742130239</v>
+        <v>8.382735530366171</v>
       </c>
       <c r="D9">
-        <v>2.0824656199026</v>
+        <v>1.89397375812455</v>
       </c>
       <c r="E9">
-        <v>2.56349559976796</v>
+        <v>4.57259592603627</v>
       </c>
       <c r="F9">
-        <v>0.675268099356562</v>
+        <v>1.77396395297452</v>
       </c>
       <c r="G9">
-        <v>17.7515837476973</v>
+        <v>13.955406822588</v>
       </c>
       <c r="H9">
-        <v>1.79317296044836</v>
+        <v>3.19217334563933</v>
       </c>
       <c r="I9">
-        <v>1.40942593884802</v>
+        <v>0.912049527325523</v>
       </c>
       <c r="J9">
-        <v>2.45690749540576</v>
+        <v>3.48695367574757</v>
       </c>
       <c r="K9">
-        <v>0.678810780015351</v>
+        <v>1.94966169178166</v>
       </c>
       <c r="L9">
-        <v>2.43221830493953</v>
+        <v>2.10172489701908</v>
       </c>
       <c r="M9">
-        <v>3.58610626031079</v>
+        <v>5.59773793612948</v>
       </c>
       <c r="N9">
-        <v>2.34343290053795</v>
+        <v>4.21578310755174</v>
       </c>
       <c r="O9">
-        <v>308.623939284779</v>
+        <v>270.933235187459</v>
       </c>
       <c r="P9">
-        <v>4.42606916116802</v>
+        <v>2.59825136543079</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5322.53384425867</v>
+        <v>5714.40131846438</v>
       </c>
       <c r="C10">
-        <v>43.9645341087257</v>
+        <v>53.3086531074927</v>
       </c>
       <c r="D10">
-        <v>8.26615337289971</v>
+        <v>20.6763327601026</v>
       </c>
       <c r="E10">
-        <v>46.666698226883</v>
+        <v>71.4494867422501</v>
       </c>
       <c r="F10">
-        <v>6.37729119575378</v>
+        <v>13.2074208487767</v>
       </c>
       <c r="G10">
-        <v>27.1558475773356</v>
+        <v>31.0559848683748</v>
       </c>
       <c r="H10">
-        <v>19.8560960496115</v>
+        <v>19.8926658939604</v>
       </c>
       <c r="I10">
-        <v>15.2768279112082</v>
+        <v>24.2395448741442</v>
       </c>
       <c r="J10">
-        <v>45.5346767762905</v>
+        <v>43.979255081378</v>
       </c>
       <c r="K10">
-        <v>4.06792368118525</v>
+        <v>36.084268557254</v>
       </c>
       <c r="L10">
-        <v>53.6539496018306</v>
+        <v>74.5281122087634</v>
       </c>
       <c r="M10">
-        <v>75.49368120506951</v>
+        <v>72.4045693191629</v>
       </c>
       <c r="N10">
-        <v>70.65714842227641</v>
+        <v>75.9014296340311</v>
       </c>
       <c r="O10">
-        <v>6782.03482555053</v>
+        <v>6051.1411694064</v>
       </c>
       <c r="P10">
-        <v>71.10962700235631</v>
+        <v>93.6939170854121</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2230.35696646003</v>
+        <v>2473.61813222461</v>
       </c>
       <c r="C11">
-        <v>61.0716289629325</v>
+        <v>74.861882831866</v>
       </c>
       <c r="D11">
-        <v>106.182049657914</v>
+        <v>101.049500935921</v>
       </c>
       <c r="E11">
-        <v>78.5590045625235</v>
+        <v>75.5281172347315</v>
       </c>
       <c r="F11">
-        <v>16.041380049888</v>
+        <v>12.2585757868648</v>
       </c>
       <c r="G11">
-        <v>17.5944599197086</v>
+        <v>29.0054676056919</v>
       </c>
       <c r="H11">
-        <v>15.1984005739578</v>
+        <v>32.5723345015548</v>
       </c>
       <c r="I11">
-        <v>10.269440987183</v>
+        <v>18.5805897948114</v>
       </c>
       <c r="J11">
-        <v>38.5947419727208</v>
+        <v>33.1143899659248</v>
       </c>
       <c r="K11">
-        <v>2.23055848359524</v>
+        <v>35.4137190969999</v>
       </c>
       <c r="L11">
-        <v>40.9490352765454</v>
+        <v>49.0208925176149</v>
       </c>
       <c r="M11">
-        <v>58.4390762391482</v>
+        <v>70.89592533897159</v>
       </c>
       <c r="N11">
-        <v>68.9621635479435</v>
+        <v>51.220533605533</v>
       </c>
       <c r="O11">
-        <v>3080.28527977682</v>
+        <v>2797.51629736867</v>
       </c>
       <c r="P11">
-        <v>47.4140400769844</v>
+        <v>58.7774810520541</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>305.223989899624</v>
+        <v>345.353543517093</v>
       </c>
       <c r="C12">
-        <v>5.96863045494452</v>
+        <v>4.51813849867207</v>
       </c>
       <c r="D12">
-        <v>0.316606093050536</v>
+        <v>2.07463949970693</v>
       </c>
       <c r="E12">
-        <v>2.07496055783317</v>
+        <v>2.92341890635848</v>
       </c>
       <c r="F12">
-        <v>0.878767342105636</v>
+        <v>0.719208359898402</v>
       </c>
       <c r="G12">
-        <v>0.379898713745631</v>
+        <v>0.442589759937478</v>
       </c>
       <c r="H12">
-        <v>0.07946293244866991</v>
+        <v>0.100694206535946</v>
       </c>
       <c r="I12">
-        <v>0.491119097748558</v>
+        <v>0.995826959859322</v>
       </c>
       <c r="J12">
-        <v>0.9961973092405591</v>
+        <v>0.6085609199140321</v>
       </c>
       <c r="K12">
-        <v>0.447628790830202</v>
+        <v>0.457380805759328</v>
       </c>
       <c r="L12">
-        <v>0.103256843919772</v>
+        <v>0.224064079723353</v>
       </c>
       <c r="M12">
-        <v>1.59020230425518</v>
+        <v>3.2375946863961</v>
       </c>
       <c r="N12">
-        <v>1.70814339394073</v>
+        <v>2.08112420776207</v>
       </c>
       <c r="O12">
-        <v>484.822004404287</v>
+        <v>436.569860639394</v>
       </c>
       <c r="P12">
-        <v>12.2082037337163</v>
+        <v>12.5352602328671</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>310.933888996016</v>
+        <v>398.941488358939</v>
       </c>
       <c r="C13">
-        <v>13.2463119550377</v>
+        <v>18.806222897721</v>
       </c>
       <c r="D13">
-        <v>1.39109581326366</v>
+        <v>0.946328971992544</v>
       </c>
       <c r="E13">
-        <v>9.62825200084218</v>
+        <v>16.6055553047127</v>
       </c>
       <c r="F13">
-        <v>2.25429806550928</v>
+        <v>1.79556341149092</v>
       </c>
       <c r="G13">
-        <v>4.18620403230362</v>
+        <v>5.07303553956053</v>
       </c>
       <c r="H13">
-        <v>2.50514239326642</v>
+        <v>1.84369858510617</v>
       </c>
       <c r="I13">
-        <v>1.69943392239874</v>
+        <v>1.70187561702108</v>
       </c>
       <c r="J13">
-        <v>6.29674508142491</v>
+        <v>5.31881075245975</v>
       </c>
       <c r="K13">
-        <v>3.78978100833288</v>
+        <v>2.55281342553161</v>
       </c>
       <c r="L13">
-        <v>11.0728658832901</v>
+        <v>21.5555840123293</v>
       </c>
       <c r="M13">
-        <v>1.20798430243707</v>
+        <v>2.36376060995375</v>
       </c>
       <c r="N13">
-        <v>3.32247119603727</v>
+        <v>5.62316492424817</v>
       </c>
       <c r="O13">
-        <v>528.649489781514</v>
+        <v>426.738682822107</v>
       </c>
       <c r="P13">
-        <v>38.2029710334988</v>
+        <v>34.092738199892</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3159.54968172572</v>
+        <v>3460.69282438112</v>
       </c>
       <c r="C14">
-        <v>113.546671063635</v>
+        <v>109.523188773472</v>
       </c>
       <c r="D14">
-        <v>3.50256197288706</v>
+        <v>17.8574139128877</v>
       </c>
       <c r="E14">
-        <v>66.1161324283311</v>
+        <v>122.070242667717</v>
       </c>
       <c r="F14">
-        <v>17.1629200618927</v>
+        <v>28.5800875809288</v>
       </c>
       <c r="G14">
-        <v>64.7089298466056</v>
+        <v>69.71374703012469</v>
       </c>
       <c r="H14">
-        <v>36.9480623072832</v>
+        <v>53.8949744488769</v>
       </c>
       <c r="I14">
-        <v>22.6805589668811</v>
+        <v>16.9630467731591</v>
       </c>
       <c r="J14">
-        <v>103.28848272779</v>
+        <v>154.237787754409</v>
       </c>
       <c r="K14">
-        <v>49.5310816886412</v>
+        <v>129.646654115208</v>
       </c>
       <c r="L14">
-        <v>98.12728449318711</v>
+        <v>101.295897486116</v>
       </c>
       <c r="M14">
-        <v>80.98186894755681</v>
+        <v>76.6426710004087</v>
       </c>
       <c r="N14">
-        <v>44.6612523648348</v>
+        <v>69.3419792692592</v>
       </c>
       <c r="O14">
-        <v>4510.8057653895</v>
+        <v>3948.17950839933</v>
       </c>
       <c r="P14">
-        <v>54.2761860791287</v>
+        <v>62.5047092067647</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1547.79059066732</v>
+        <v>1723.1693752224</v>
       </c>
       <c r="C15">
-        <v>55.0699578815482</v>
+        <v>35.6480011187105</v>
       </c>
       <c r="D15">
-        <v>6.30068113559071</v>
+        <v>11.7711575342164</v>
       </c>
       <c r="E15">
-        <v>39.0573459680214</v>
+        <v>65.2620557000627</v>
       </c>
       <c r="F15">
-        <v>9.40883666699003</v>
+        <v>9.56488880808852</v>
       </c>
       <c r="G15">
-        <v>47.6151700509217</v>
+        <v>39.9361150504823</v>
       </c>
       <c r="H15">
-        <v>36.1979594805937</v>
+        <v>54.834972297365</v>
       </c>
       <c r="I15">
-        <v>15.7298967187547</v>
+        <v>15.3055118594833</v>
       </c>
       <c r="J15">
-        <v>139.379653148394</v>
+        <v>130.931642730178</v>
       </c>
       <c r="K15">
-        <v>26.2887463217366</v>
+        <v>48.4280355062839</v>
       </c>
       <c r="L15">
-        <v>35.510158774814</v>
+        <v>53.3276777423133</v>
       </c>
       <c r="M15">
-        <v>147.251547324333</v>
+        <v>198.891259691971</v>
       </c>
       <c r="N15">
-        <v>74.8922108170686</v>
+        <v>76.49690744086649</v>
       </c>
       <c r="O15">
-        <v>2039.16928821781</v>
+        <v>1772.24697575461</v>
       </c>
       <c r="P15">
-        <v>41.1869965127528</v>
+        <v>36.8741111597617</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>634.083614918096</v>
+        <v>785.186241121823</v>
       </c>
       <c r="C16">
-        <v>51.7204503452461</v>
+        <v>52.3209961706763</v>
       </c>
       <c r="D16">
-        <v>7.00697973915313</v>
+        <v>5.42158198843117</v>
       </c>
       <c r="E16">
-        <v>19.3382032316851</v>
+        <v>27.3416510671662</v>
       </c>
       <c r="F16">
-        <v>4.49951571654118</v>
+        <v>3.33510680241323</v>
       </c>
       <c r="G16">
-        <v>10.2791493525354</v>
+        <v>10.3731462945769</v>
       </c>
       <c r="H16">
-        <v>17.2591457881095</v>
+        <v>16.2138734524566</v>
       </c>
       <c r="I16">
-        <v>4.52853098910348</v>
+        <v>8.78738860861947</v>
       </c>
       <c r="J16">
-        <v>42.1069312367032</v>
+        <v>42.7622447853902</v>
       </c>
       <c r="K16">
-        <v>37.5323224097599</v>
+        <v>45.4465806455165</v>
       </c>
       <c r="L16">
-        <v>18.0890189091368</v>
+        <v>30.6826825691402</v>
       </c>
       <c r="M16">
-        <v>17.6311615818835</v>
+        <v>28.9753513213335</v>
       </c>
       <c r="N16">
-        <v>25.6706245030411</v>
+        <v>15.6051709144205</v>
       </c>
       <c r="O16">
-        <v>1081.25832898519</v>
+        <v>923.8583638580921</v>
       </c>
       <c r="P16">
-        <v>69.3203153121643</v>
+        <v>62.9665180524803</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>625.764615749829</v>
+        <v>704.366160554857</v>
       </c>
       <c r="C17">
-        <v>19.1392188614643</v>
+        <v>34.3535004295852</v>
       </c>
       <c r="D17">
-        <v>6.00289110485306</v>
+        <v>4.95967760448892</v>
       </c>
       <c r="E17">
-        <v>21.5458909445724</v>
+        <v>21.1566322947299</v>
       </c>
       <c r="F17">
-        <v>11.43046766568</v>
+        <v>16.4654744128281</v>
       </c>
       <c r="G17">
-        <v>7.85552606210872</v>
+        <v>8.60248060601379</v>
       </c>
       <c r="H17">
-        <v>7.50270134505994</v>
+        <v>11.5009640087218</v>
       </c>
       <c r="I17">
-        <v>5.071120584</v>
+        <v>8.278835727279141</v>
       </c>
       <c r="J17">
-        <v>19.3563857785819</v>
+        <v>17.6746088784669</v>
       </c>
       <c r="K17">
-        <v>9.075949631569831</v>
+        <v>17.101717442423</v>
       </c>
       <c r="L17">
-        <v>8.937061716031261</v>
+        <v>10.0077659960211</v>
       </c>
       <c r="M17">
-        <v>56.0251264991854</v>
+        <v>61.4090850772063</v>
       </c>
       <c r="N17">
-        <v>7.54644226606128</v>
+        <v>13.838708236799</v>
       </c>
       <c r="O17">
-        <v>980.961013588745</v>
+        <v>848.943059477833</v>
       </c>
       <c r="P17">
-        <v>40.7687283933671</v>
+        <v>53.985180232301</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1250.42416309603</v>
+        <v>1379.66106878173</v>
       </c>
       <c r="C18">
-        <v>20.4308955811961</v>
+        <v>34.9825404977775</v>
       </c>
       <c r="D18">
-        <v>8.5170280253428</v>
+        <v>21.1032208862493</v>
       </c>
       <c r="E18">
-        <v>25.9755657013059</v>
+        <v>46.9797839176125</v>
       </c>
       <c r="F18">
-        <v>34.3868273512715</v>
+        <v>25.5246614579492</v>
       </c>
       <c r="G18">
-        <v>14.6485179870501</v>
+        <v>16.1513306603785</v>
       </c>
       <c r="H18">
-        <v>9.272389076304719</v>
+        <v>17.1665011609798</v>
       </c>
       <c r="I18">
-        <v>3.69673920759737</v>
+        <v>10.7050440344467</v>
       </c>
       <c r="J18">
-        <v>13.4036490871861</v>
+        <v>48.2015429380323</v>
       </c>
       <c r="K18">
-        <v>8.57340852718283</v>
+        <v>33.5572132607107</v>
       </c>
       <c r="L18">
-        <v>25.7070256228863</v>
+        <v>25.453668665224</v>
       </c>
       <c r="M18">
-        <v>73.09470730667439</v>
+        <v>79.0483969213488</v>
       </c>
       <c r="N18">
-        <v>20.7952786185517</v>
+        <v>17.1465729117809</v>
       </c>
       <c r="O18">
-        <v>1343.75536331712</v>
+        <v>1128.24083563115</v>
       </c>
       <c r="P18">
-        <v>54.6978533318817</v>
+        <v>32.2726879271105</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1192.74535139689</v>
+        <v>1303.89636020917</v>
       </c>
       <c r="C19">
-        <v>29.9022508010522</v>
+        <v>14.1529329108568</v>
       </c>
       <c r="D19">
-        <v>14.3435418563067</v>
+        <v>9.29981657605312</v>
       </c>
       <c r="E19">
-        <v>30.8138314013668</v>
+        <v>25.7784111970596</v>
       </c>
       <c r="F19">
-        <v>58.3563085997817</v>
+        <v>73.1230914900214</v>
       </c>
       <c r="G19">
-        <v>39.0375582228784</v>
+        <v>35.7721309855774</v>
       </c>
       <c r="H19">
-        <v>10.1451487943317</v>
+        <v>4.46626414998887</v>
       </c>
       <c r="I19">
-        <v>4.41051392808996</v>
+        <v>7.14466385587859</v>
       </c>
       <c r="J19">
-        <v>20.5198463130281</v>
+        <v>26.6454710847724</v>
       </c>
       <c r="K19">
-        <v>9.123245679400091</v>
+        <v>11.6470062478473</v>
       </c>
       <c r="L19">
-        <v>2.18315570572621</v>
+        <v>5.30647105694234</v>
       </c>
       <c r="M19">
-        <v>14.8450416366444</v>
+        <v>21.6583849785113</v>
       </c>
       <c r="N19">
-        <v>8.512911643931989</v>
+        <v>10.6363774818116</v>
       </c>
       <c r="O19">
-        <v>1430.53507418536</v>
+        <v>1308.55794447821</v>
       </c>
       <c r="P19">
-        <v>28.7681344693929</v>
+        <v>24.1706347041975</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>346.732590969268</v>
+        <v>384.769365050825</v>
       </c>
       <c r="C20">
-        <v>7.37836011115961</v>
+        <v>7.46903978423249</v>
       </c>
       <c r="D20">
-        <v>3.79338274754818</v>
+        <v>8.19500302218589</v>
       </c>
       <c r="E20">
-        <v>27.678143535437</v>
+        <v>32.6945028287059</v>
       </c>
       <c r="F20">
-        <v>1.96878055440467</v>
+        <v>0.494803072349817</v>
       </c>
       <c r="G20">
-        <v>3.26022142203821</v>
+        <v>1.61462055187835</v>
       </c>
       <c r="H20">
-        <v>0.358226948098544</v>
+        <v>1.82295868760459</v>
       </c>
       <c r="I20">
-        <v>2.78789113994096</v>
+        <v>1.66670508580991</v>
       </c>
       <c r="J20">
-        <v>5.68527226178374</v>
+        <v>5.92448183472112</v>
       </c>
       <c r="K20">
-        <v>0.166518236600932</v>
+        <v>4.06615130334625</v>
       </c>
       <c r="L20">
-        <v>5.17445094722174</v>
+        <v>6.78821135293701</v>
       </c>
       <c r="M20">
-        <v>12.1104461448629</v>
+        <v>15.0172761734849</v>
       </c>
       <c r="N20">
-        <v>5.20476432868632</v>
+        <v>6.10833861271831</v>
       </c>
       <c r="O20">
-        <v>506.114508932826</v>
+        <v>440.716828718501</v>
       </c>
       <c r="P20">
-        <v>16.8264191450033</v>
+        <v>18.298778861211</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1339.79820730604</v>
+        <v>1450.08109162924</v>
       </c>
       <c r="C21">
-        <v>10.6758988909276</v>
+        <v>18.9538452535246</v>
       </c>
       <c r="D21">
-        <v>2.24064486608292</v>
+        <v>9.033716024694369</v>
       </c>
       <c r="E21">
-        <v>14.0800281735012</v>
+        <v>35.0644508946209</v>
       </c>
       <c r="F21">
-        <v>5.32748734870843</v>
+        <v>4.09721896062682</v>
       </c>
       <c r="G21">
-        <v>10.0631865402699</v>
+        <v>20.9076635707244</v>
       </c>
       <c r="H21">
-        <v>2.69181733390605</v>
+        <v>7.87704772007832</v>
       </c>
       <c r="I21">
-        <v>19.4279852229993</v>
+        <v>6.83831615259546</v>
       </c>
       <c r="J21">
-        <v>11.8157877392866</v>
+        <v>22.5996927382868</v>
       </c>
       <c r="K21">
-        <v>1.88211531424317</v>
+        <v>10.264108926757</v>
       </c>
       <c r="L21">
-        <v>18.40705197311</v>
+        <v>30.9374603152831</v>
       </c>
       <c r="M21">
-        <v>9.3932626469932</v>
+        <v>21.7521658205848</v>
       </c>
       <c r="N21">
-        <v>6.88188258196551</v>
+        <v>18.5084764311605</v>
       </c>
       <c r="O21">
-        <v>2177.25890850483</v>
+        <v>1924.78172442227</v>
       </c>
       <c r="P21">
-        <v>14.311899757143</v>
+        <v>16.3976224252503</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1587.69956396357</v>
+        <v>1681.18460715945</v>
       </c>
       <c r="C22">
-        <v>23.8767778275152</v>
+        <v>28.1632731312804</v>
       </c>
       <c r="D22">
-        <v>5.77412652097941</v>
+        <v>24.1253124295117</v>
       </c>
       <c r="E22">
-        <v>24.7605082449415</v>
+        <v>49.4102001924278</v>
       </c>
       <c r="F22">
-        <v>2.14238685740287</v>
+        <v>3.06994642756253</v>
       </c>
       <c r="G22">
-        <v>17.2603340298956</v>
+        <v>29.080796650525</v>
       </c>
       <c r="H22">
-        <v>12.7595451907782</v>
+        <v>19.5773447942077</v>
       </c>
       <c r="I22">
-        <v>6.28216194138771</v>
+        <v>9.667494719684081</v>
       </c>
       <c r="J22">
-        <v>50.6751812199497</v>
+        <v>43.8457028334206</v>
       </c>
       <c r="K22">
-        <v>1.73985232928703</v>
+        <v>24.2069734372534</v>
       </c>
       <c r="L22">
-        <v>57.5844041061468</v>
+        <v>114.967881086</v>
       </c>
       <c r="M22">
-        <v>11.7943347975084</v>
+        <v>16.5854539080115</v>
       </c>
       <c r="N22">
-        <v>42.4886719720256</v>
+        <v>40.2154210451047</v>
       </c>
       <c r="O22">
-        <v>2465.68745884851</v>
+        <v>2249.53882737851</v>
       </c>
       <c r="P22">
-        <v>14.686020897376</v>
+        <v>10.6637775739212</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2728.87626837124</v>
+        <v>2969.43409513985</v>
       </c>
       <c r="C23">
-        <v>22.4029795074063</v>
+        <v>37.2888405131589</v>
       </c>
       <c r="D23">
-        <v>7.44758132885688</v>
+        <v>9.323749033258011</v>
       </c>
       <c r="E23">
-        <v>44.4626548090802</v>
+        <v>63.606627331235</v>
       </c>
       <c r="F23">
-        <v>12.6837373812489</v>
+        <v>14.573150013935</v>
       </c>
       <c r="G23">
-        <v>51.6157020755386</v>
+        <v>40.8579128984688</v>
       </c>
       <c r="H23">
-        <v>47.4141035132408</v>
+        <v>60.7816860735083</v>
       </c>
       <c r="I23">
-        <v>29.0313583410614</v>
+        <v>12.4174751313037</v>
       </c>
       <c r="J23">
-        <v>91.28307598447751</v>
+        <v>128.038955965935</v>
       </c>
       <c r="K23">
-        <v>71.9704041604431</v>
+        <v>91.1825075923167</v>
       </c>
       <c r="L23">
-        <v>33.8613632734482</v>
+        <v>36.4126988521829</v>
       </c>
       <c r="M23">
-        <v>475.310415226311</v>
+        <v>432.672906493545</v>
       </c>
       <c r="N23">
-        <v>86.7995743327177</v>
+        <v>70.52327670406289</v>
       </c>
       <c r="O23">
-        <v>3109.79579145814</v>
+        <v>2839.70057474146</v>
       </c>
       <c r="P23">
-        <v>61.6853019578814</v>
+        <v>39.3468124289003</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1024.78586092504</v>
+        <v>1211.39275767717</v>
       </c>
       <c r="C24">
-        <v>39.6536932799579</v>
+        <v>62.8222103759805</v>
       </c>
       <c r="D24">
-        <v>6.9194461404747</v>
+        <v>4.65195819286904</v>
       </c>
       <c r="E24">
-        <v>43.9544721931763</v>
+        <v>75.14564790703599</v>
       </c>
       <c r="F24">
-        <v>10.2342087354265</v>
+        <v>8.55585702681017</v>
       </c>
       <c r="G24">
-        <v>23.61958224617</v>
+        <v>15.6171631069279</v>
       </c>
       <c r="H24">
-        <v>17.6786656424718</v>
+        <v>18.7939963960654</v>
       </c>
       <c r="I24">
-        <v>14.3461302597632</v>
+        <v>12.8121824564799</v>
       </c>
       <c r="J24">
-        <v>52.6045072493955</v>
+        <v>62.1320631235454</v>
       </c>
       <c r="K24">
-        <v>10.9653687435538</v>
+        <v>50.6312895497221</v>
       </c>
       <c r="L24">
-        <v>45.6534648871396</v>
+        <v>67.1060835790373</v>
       </c>
       <c r="M24">
-        <v>16.8220218685493</v>
+        <v>25.5996879931949</v>
       </c>
       <c r="N24">
-        <v>74.8830525418702</v>
+        <v>52.0000088743392</v>
       </c>
       <c r="O24">
-        <v>2001.50791912828</v>
+        <v>1709.78148383547</v>
       </c>
       <c r="P24">
-        <v>76.44665285232099</v>
+        <v>81.34697113156631</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>887.117598768253</v>
+        <v>926.2139491892961</v>
       </c>
       <c r="C25">
-        <v>29.016728041006</v>
+        <v>26.7787366702656</v>
       </c>
       <c r="D25">
-        <v>10.2278904640008</v>
+        <v>18.3091587522339</v>
       </c>
       <c r="E25">
-        <v>36.3992742927976</v>
+        <v>31.9118080140959</v>
       </c>
       <c r="F25">
-        <v>17.5757880458905</v>
+        <v>6.15213241730104</v>
       </c>
       <c r="G25">
-        <v>7.22113029562489</v>
+        <v>9.89353717701222</v>
       </c>
       <c r="H25">
-        <v>4.11986341376752</v>
+        <v>9.76228868660478</v>
       </c>
       <c r="I25">
-        <v>2.60739091780623</v>
+        <v>5.97238834420366</v>
       </c>
       <c r="J25">
-        <v>5.35830347673919</v>
+        <v>15.2858707939512</v>
       </c>
       <c r="K25">
-        <v>4.71759509775514</v>
+        <v>14.967929727889</v>
       </c>
       <c r="L25">
-        <v>4.91488720230284</v>
+        <v>18.098471806068</v>
       </c>
       <c r="M25">
-        <v>20.6682874693157</v>
+        <v>23.0573771986275</v>
       </c>
       <c r="N25">
-        <v>47.2727233997831</v>
+        <v>47.2373294462059</v>
       </c>
       <c r="O25">
-        <v>797.889931484362</v>
+        <v>731.84483608545</v>
       </c>
       <c r="P25">
-        <v>34.9700778076972</v>
+        <v>25.4124921918124</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1414.78303479476</v>
+        <v>1655.82998150226</v>
       </c>
       <c r="C26">
-        <v>39.9191307660592</v>
+        <v>52.9132480232081</v>
       </c>
       <c r="D26">
-        <v>4.01436010733555</v>
+        <v>21.1377009568722</v>
       </c>
       <c r="E26">
-        <v>42.5179045851911</v>
+        <v>57.7463698944846</v>
       </c>
       <c r="F26">
-        <v>4.18775591937131</v>
+        <v>12.0570604165359</v>
       </c>
       <c r="G26">
-        <v>40.6878949202719</v>
+        <v>21.3403113698407</v>
       </c>
       <c r="H26">
-        <v>11.4546684741157</v>
+        <v>19.7844180866689</v>
       </c>
       <c r="I26">
-        <v>8.72302258622644</v>
+        <v>14.5494623280894</v>
       </c>
       <c r="J26">
-        <v>32.9217058856903</v>
+        <v>62.3431063794276</v>
       </c>
       <c r="K26">
-        <v>7.97042479337101</v>
+        <v>35.9017550860545</v>
       </c>
       <c r="L26">
-        <v>26.3758330733483</v>
+        <v>37.9908707778385</v>
       </c>
       <c r="M26">
-        <v>48.8810859632841</v>
+        <v>65.3199739078829</v>
       </c>
       <c r="N26">
-        <v>31.2287057853236</v>
+        <v>40.8283265377967</v>
       </c>
       <c r="O26">
-        <v>2171.86872580305</v>
+        <v>1794.19093104097</v>
       </c>
       <c r="P26">
-        <v>55.6355734846053</v>
+        <v>58.5280809143763</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>245.802170027432</v>
+        <v>266.340520213427</v>
       </c>
       <c r="C27">
-        <v>1.83549476213263</v>
+        <v>3.01444849709317</v>
       </c>
       <c r="D27">
-        <v>1.23827647461745</v>
+        <v>1.107301677398</v>
       </c>
       <c r="E27">
-        <v>9.775410401009429</v>
+        <v>7.89386590033609</v>
       </c>
       <c r="F27">
-        <v>4.8473644818328</v>
+        <v>5.73251985452557</v>
       </c>
       <c r="G27">
-        <v>0.346867313387501</v>
+        <v>0.810220739559513</v>
       </c>
       <c r="H27">
-        <v>0.415103408214662</v>
+        <v>0.324088295823806</v>
       </c>
       <c r="I27">
-        <v>2.59835977557562</v>
+        <v>1.35507761708486</v>
       </c>
       <c r="J27">
-        <v>2.62029789239618</v>
+        <v>2.74439796888487</v>
       </c>
       <c r="K27">
-        <v>1.21790264449298</v>
+        <v>1.107301677398</v>
       </c>
       <c r="L27">
-        <v>2.19430439699506</v>
+        <v>1.22639141396086</v>
       </c>
       <c r="M27">
-        <v>0.377972032365773</v>
+        <v>0.891242813515466</v>
       </c>
       <c r="N27">
-        <v>3.35567273602724</v>
+        <v>3.94307060842408</v>
       </c>
       <c r="O27">
-        <v>336.727952811336</v>
+        <v>316.095531833556</v>
       </c>
       <c r="P27">
-        <v>33.7181970808016</v>
+        <v>30.896952291442</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>345.475183988573</v>
+        <v>427.921269244177</v>
       </c>
       <c r="C28">
-        <v>36.3731396442688</v>
+        <v>32.3665192710788</v>
       </c>
       <c r="D28">
-        <v>3.52609378479639</v>
+        <v>1.98584174192318</v>
       </c>
       <c r="E28">
-        <v>8.35493059851437</v>
+        <v>9.28789421151788</v>
       </c>
       <c r="F28">
-        <v>1.5994949735069</v>
+        <v>1.55289119596549</v>
       </c>
       <c r="G28">
-        <v>4.56872017998343</v>
+        <v>4.67990765558797</v>
       </c>
       <c r="H28">
-        <v>4.84579964968831</v>
+        <v>6.20090432857805</v>
       </c>
       <c r="I28">
-        <v>2.36526556265497</v>
+        <v>3.77059457374088</v>
       </c>
       <c r="J28">
-        <v>14.9267368592801</v>
+        <v>11.9826826158028</v>
       </c>
       <c r="K28">
-        <v>11.3170231049624</v>
+        <v>14.1415632253547</v>
       </c>
       <c r="L28">
-        <v>7.69115740880098</v>
+        <v>9.813186837138559</v>
       </c>
       <c r="M28">
-        <v>8.828479509864451</v>
+        <v>11.1430776785032</v>
       </c>
       <c r="N28">
-        <v>9.455857938612381</v>
+        <v>10.0946257398198</v>
       </c>
       <c r="O28">
-        <v>677.150410319794</v>
+        <v>583.451186976916</v>
       </c>
       <c r="P28">
-        <v>58.6401381830584</v>
+        <v>69.5143226923221</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>548.029566157037</v>
+        <v>606.290325983485</v>
       </c>
       <c r="C29">
-        <v>1.83911856583593</v>
+        <v>4.6492792776289</v>
       </c>
       <c r="D29">
-        <v>0.879310571877984</v>
+        <v>1.58079138934806</v>
       </c>
       <c r="E29">
-        <v>3.23919110498989</v>
+        <v>7.1001647148684</v>
       </c>
       <c r="F29">
-        <v>20.5194183010679</v>
+        <v>17.4739566864621</v>
       </c>
       <c r="G29">
-        <v>3.08801446117105</v>
+        <v>2.31037111224568</v>
       </c>
       <c r="H29">
-        <v>1.04710889570904</v>
+        <v>2.89365203473882</v>
       </c>
       <c r="I29">
-        <v>1.64596725502563</v>
+        <v>2.86120730156892</v>
       </c>
       <c r="J29">
-        <v>4.58276728612842</v>
+        <v>7.72403376658974</v>
       </c>
       <c r="K29">
-        <v>2.15972045325201</v>
+        <v>2.22728047683361</v>
       </c>
       <c r="L29">
-        <v>2.90503712420521</v>
+        <v>6.14524242995109</v>
       </c>
       <c r="M29">
-        <v>3.61091809473977</v>
+        <v>3.02079733147949</v>
       </c>
       <c r="N29">
-        <v>10.692001069729</v>
+        <v>10.5036076010745</v>
       </c>
       <c r="O29">
-        <v>963.672429397699</v>
+        <v>877.687879762169</v>
       </c>
       <c r="P29">
-        <v>2.9804487645968</v>
+        <v>5.32659943672961</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>261.814353789597</v>
+        <v>317.65226754379</v>
       </c>
       <c r="C30">
-        <v>2.44314005404259</v>
+        <v>3.48150429512318</v>
       </c>
       <c r="D30">
-        <v>2.51905046658897</v>
+        <v>4.90206769258575</v>
       </c>
       <c r="E30">
-        <v>9.04943363683525</v>
+        <v>12.4317300886908</v>
       </c>
       <c r="F30">
-        <v>0.170833917015799</v>
+        <v>0.837226152521261</v>
       </c>
       <c r="G30">
-        <v>3.87325494071883</v>
+        <v>2.86341052715984</v>
       </c>
       <c r="H30">
-        <v>3.67841482137353</v>
+        <v>4.35824351448668</v>
       </c>
       <c r="I30">
-        <v>2.0948706219473</v>
+        <v>2.74130952183063</v>
       </c>
       <c r="J30">
-        <v>14.5349873630643</v>
+        <v>19.3247036711766</v>
       </c>
       <c r="K30">
-        <v>5.16478569213871</v>
+        <v>9.220650122983139</v>
       </c>
       <c r="L30">
-        <v>36.1118293045954</v>
+        <v>23.2989612071101</v>
       </c>
       <c r="M30">
-        <v>6.95944635018332</v>
+        <v>6.30210152015375</v>
       </c>
       <c r="N30">
-        <v>12.2620718408439</v>
+        <v>11.7594451007255</v>
       </c>
       <c r="O30">
-        <v>492.597852673967</v>
+        <v>440.916510505514</v>
       </c>
       <c r="P30">
-        <v>4.05514050348538</v>
+        <v>3.8651214144378</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2147.73980376308</v>
+        <v>2498.32659818435</v>
       </c>
       <c r="C31">
-        <v>45.6466480561878</v>
+        <v>39.5295048356334</v>
       </c>
       <c r="D31">
-        <v>5.60412838059698</v>
+        <v>25.7370069923305</v>
       </c>
       <c r="E31">
-        <v>20.0873701399322</v>
+        <v>57.2654628999514</v>
       </c>
       <c r="F31">
-        <v>7.38503251156907</v>
+        <v>9.56080210884697</v>
       </c>
       <c r="G31">
-        <v>88.31855991992801</v>
+        <v>103.851331701189</v>
       </c>
       <c r="H31">
-        <v>11.9379053504035</v>
+        <v>22.1686523322217</v>
       </c>
       <c r="I31">
-        <v>5.68693336610978</v>
+        <v>16.2446863045078</v>
       </c>
       <c r="J31">
-        <v>29.5389820416035</v>
+        <v>32.8909299961125</v>
       </c>
       <c r="K31">
-        <v>4.52125389364394</v>
+        <v>20.247173775569</v>
       </c>
       <c r="L31">
-        <v>30.3718292161438</v>
+        <v>59.5079298800966</v>
       </c>
       <c r="M31">
-        <v>15.3780216719416</v>
+        <v>19.1436318087112</v>
       </c>
       <c r="N31">
-        <v>72.4369732104679</v>
+        <v>45.6808368809603</v>
       </c>
       <c r="O31">
-        <v>3244.57110518272</v>
+        <v>2745.2586856605</v>
       </c>
       <c r="P31">
-        <v>18.3167904887783</v>
+        <v>13.9957460446814</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>507.613949722696</v>
+        <v>596.135963187163</v>
       </c>
       <c r="C32">
-        <v>3.44931998869332</v>
+        <v>6.06971545256243</v>
       </c>
       <c r="D32">
-        <v>0.609283984489709</v>
+        <v>1.40076442796494</v>
       </c>
       <c r="E32">
-        <v>3.86513442793946</v>
+        <v>5.16814563722837</v>
       </c>
       <c r="F32">
-        <v>19.1426227797236</v>
+        <v>20.6643054257226</v>
       </c>
       <c r="G32">
-        <v>1.16255812462259</v>
+        <v>1.88674392338135</v>
       </c>
       <c r="H32">
-        <v>0.942398285968151</v>
+        <v>0.320826389464871</v>
       </c>
       <c r="I32">
-        <v>1.59195434125789</v>
+        <v>3.35607895550181</v>
       </c>
       <c r="J32">
-        <v>3.01482345690238</v>
+        <v>4.28805437132124</v>
       </c>
       <c r="K32">
-        <v>3.17341206396668</v>
+        <v>2.02967906909206</v>
       </c>
       <c r="L32">
-        <v>4.72489981842395</v>
+        <v>12.8187133601195</v>
       </c>
       <c r="M32">
-        <v>9.722669044277</v>
+        <v>5.02905627751131</v>
       </c>
       <c r="N32">
-        <v>14.3617780650324</v>
+        <v>8.79413426250237</v>
       </c>
       <c r="O32">
-        <v>678.875399853716</v>
+        <v>587.989127829968</v>
       </c>
       <c r="P32">
-        <v>19.9229790568208</v>
+        <v>16.5640720817022</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5348.09049379795</v>
+        <v>5684.8438823393</v>
       </c>
       <c r="C33">
-        <v>71.4716259243752</v>
+        <v>70.84001454093701</v>
       </c>
       <c r="D33">
-        <v>12.4584686422629</v>
+        <v>85.6726944205369</v>
       </c>
       <c r="E33">
-        <v>49.2714413286614</v>
+        <v>92.1531836503473</v>
       </c>
       <c r="F33">
-        <v>15.9317543336717</v>
+        <v>8.391866045906991</v>
       </c>
       <c r="G33">
-        <v>56.4180590556494</v>
+        <v>64.7949094151182</v>
       </c>
       <c r="H33">
-        <v>33.345746079949</v>
+        <v>25.6574263614101</v>
       </c>
       <c r="I33">
-        <v>9.004990444143729</v>
+        <v>26.3977627882616</v>
       </c>
       <c r="J33">
-        <v>71.3069211830409</v>
+        <v>83.56482113468481</v>
       </c>
       <c r="K33">
-        <v>39.8488205044658</v>
+        <v>88.7656719272466</v>
       </c>
       <c r="L33">
-        <v>79.8688054721318</v>
+        <v>96.90109046506851</v>
       </c>
       <c r="M33">
-        <v>40.6360910254013</v>
+        <v>66.0513261395061</v>
       </c>
       <c r="N33">
-        <v>115.670887728817</v>
+        <v>83.3821458317956</v>
       </c>
       <c r="O33">
-        <v>6712.21054144151</v>
+        <v>6182.90901407402</v>
       </c>
       <c r="P33">
-        <v>54.5297950076248</v>
+        <v>66.0234252085377</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2323.92450481218</v>
+        <v>2463.66603940662</v>
       </c>
       <c r="C34">
-        <v>50.665631126394</v>
+        <v>53.3075809326151</v>
       </c>
       <c r="D34">
-        <v>61.7437358951165</v>
+        <v>139.007580009391</v>
       </c>
       <c r="E34">
-        <v>68.63562412100031</v>
+        <v>80.8360318255602</v>
       </c>
       <c r="F34">
-        <v>4.70749282985343</v>
+        <v>6.67895516984937</v>
       </c>
       <c r="G34">
-        <v>45.9983690866858</v>
+        <v>50.2981951311636</v>
       </c>
       <c r="H34">
-        <v>32.6856596114261</v>
+        <v>33.7197910723812</v>
       </c>
       <c r="I34">
-        <v>10.2417820935881</v>
+        <v>18.9167100302844</v>
       </c>
       <c r="J34">
-        <v>36.3873798998994</v>
+        <v>53.7915680094607</v>
       </c>
       <c r="K34">
-        <v>1.44301973741193</v>
+        <v>31.986958363202</v>
       </c>
       <c r="L34">
-        <v>80.34252676718469</v>
+        <v>73.526881035112</v>
       </c>
       <c r="M34">
-        <v>34.0739253093361</v>
+        <v>49.0361757919964</v>
       </c>
       <c r="N34">
-        <v>99.6969565328655</v>
+        <v>116.02478459292</v>
       </c>
       <c r="O34">
-        <v>2953.36580285925</v>
+        <v>2698.16827592123</v>
       </c>
       <c r="P34">
-        <v>80.8087103272315</v>
+        <v>42.1626711636609</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>136.048478384962</v>
+        <v>170.078539811773</v>
       </c>
       <c r="C35">
-        <v>5.70402003801345</v>
+        <v>5.95534563127513</v>
       </c>
       <c r="D35">
-        <v>0.621036119985741</v>
+        <v>0.344662513262311</v>
       </c>
       <c r="E35">
-        <v>1.56993022184772</v>
+        <v>2.0571852100803</v>
       </c>
       <c r="F35">
-        <v>3.7703460340843</v>
+        <v>6.41093261949467</v>
       </c>
       <c r="G35">
-        <v>1.04385663938259</v>
+        <v>0.473185405460516</v>
       </c>
       <c r="H35">
-        <v>1.30798254624971</v>
+        <v>0.373384389367503</v>
       </c>
       <c r="I35">
-        <v>0.64978542180807</v>
+        <v>0.940012088861142</v>
       </c>
       <c r="J35">
-        <v>2.23871099793647</v>
+        <v>2.37662273122558</v>
       </c>
       <c r="K35">
-        <v>2.75389454093697</v>
+        <v>5.92912972935733</v>
       </c>
       <c r="L35">
-        <v>2.29135550739676</v>
+        <v>1.8955986283795</v>
       </c>
       <c r="M35">
-        <v>2.17395945571425</v>
+        <v>2.3264719645206</v>
       </c>
       <c r="N35">
-        <v>2.48848685766997</v>
+        <v>2.25177722092416</v>
       </c>
       <c r="O35">
-        <v>245.597086064806</v>
+        <v>215.207024212645</v>
       </c>
       <c r="P35">
-        <v>40.8910018249733</v>
+        <v>32.7651931752145</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3039.67370265843</v>
+        <v>3307.42667759504</v>
       </c>
       <c r="C36">
-        <v>71.6663651195358</v>
+        <v>73.593129804249</v>
       </c>
       <c r="D36">
-        <v>8.118708351942271</v>
+        <v>23.302223345857</v>
       </c>
       <c r="E36">
-        <v>119.116325076723</v>
+        <v>104.746433543881</v>
       </c>
       <c r="F36">
-        <v>27.6853102785011</v>
+        <v>18.4324677781104</v>
       </c>
       <c r="G36">
-        <v>87.8479557603934</v>
+        <v>68.63082689121779</v>
       </c>
       <c r="H36">
-        <v>57.1455107727623</v>
+        <v>96.46405479265729</v>
       </c>
       <c r="I36">
-        <v>39.4554287263043</v>
+        <v>41.5007148189971</v>
       </c>
       <c r="J36">
-        <v>189.229369479814</v>
+        <v>223.278016333052</v>
       </c>
       <c r="K36">
-        <v>54.5982074724274</v>
+        <v>130.614736508131</v>
       </c>
       <c r="L36">
-        <v>50.8853893676486</v>
+        <v>78.86127128086289</v>
       </c>
       <c r="M36">
-        <v>171.244456681324</v>
+        <v>210.730304254819</v>
       </c>
       <c r="N36">
-        <v>100.497807834106</v>
+        <v>85.2960585985262</v>
       </c>
       <c r="O36">
-        <v>3850.06687135918</v>
+        <v>3439.55668753702</v>
       </c>
       <c r="P36">
-        <v>49.9865690994005</v>
+        <v>42.819772714469</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>989.599584897624</v>
+        <v>1075.53040363146</v>
       </c>
       <c r="C37">
-        <v>11.9879551318209</v>
+        <v>24.1233856551317</v>
       </c>
       <c r="D37">
-        <v>5.10546923328781</v>
+        <v>8.25304535995118</v>
       </c>
       <c r="E37">
-        <v>13.0314708281869</v>
+        <v>16.1932032240479</v>
       </c>
       <c r="F37">
-        <v>32.9789403168922</v>
+        <v>42.2560696742305</v>
       </c>
       <c r="G37">
-        <v>8.755643591998281</v>
+        <v>7.08053010914616</v>
       </c>
       <c r="H37">
-        <v>22.271183322988</v>
+        <v>14.0277575868268</v>
       </c>
       <c r="I37">
-        <v>11.6713274814168</v>
+        <v>10.0862854908322</v>
       </c>
       <c r="J37">
-        <v>24.9274650131937</v>
+        <v>31.8199742128232</v>
       </c>
       <c r="K37">
-        <v>8.961809197202349</v>
+        <v>27.8779081356558</v>
       </c>
       <c r="L37">
-        <v>9.01962784954152</v>
+        <v>18.9499493037571</v>
       </c>
       <c r="M37">
-        <v>25.8653744621745</v>
+        <v>28.4958770037826</v>
       </c>
       <c r="N37">
-        <v>22.8670657659766</v>
+        <v>13.907291273793</v>
       </c>
       <c r="O37">
-        <v>1184.84909514868</v>
+        <v>1084.89825129722</v>
       </c>
       <c r="P37">
-        <v>53.6508429213341</v>
+        <v>31.9782790930812</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1010.44564482388</v>
+        <v>1070.88388685785</v>
       </c>
       <c r="C38">
-        <v>23.6680675371631</v>
+        <v>19.072005549164</v>
       </c>
       <c r="D38">
-        <v>6.8550382332534</v>
+        <v>8.89855111005369</v>
       </c>
       <c r="E38">
-        <v>38.7697074556598</v>
+        <v>72.94240110431331</v>
       </c>
       <c r="F38">
-        <v>3.60864571992292</v>
+        <v>2.68417554463012</v>
       </c>
       <c r="G38">
-        <v>8.46301150015173</v>
+        <v>5.63084005130695</v>
       </c>
       <c r="H38">
-        <v>3.13653494654238</v>
+        <v>5.13104843452247</v>
       </c>
       <c r="I38">
-        <v>1.3298806897563</v>
+        <v>5.52311329415062</v>
       </c>
       <c r="J38">
-        <v>23.607869831438</v>
+        <v>29.5147929763477</v>
       </c>
       <c r="K38">
-        <v>9.71174917365018</v>
+        <v>13.7085948715668</v>
       </c>
       <c r="L38">
-        <v>78.7253882691589</v>
+        <v>66.1796125533882</v>
       </c>
       <c r="M38">
-        <v>16.3410711876531</v>
+        <v>17.9339050239229</v>
       </c>
       <c r="N38">
-        <v>23.0545896542526</v>
+        <v>26.4291990940824</v>
       </c>
       <c r="O38">
-        <v>1289.07234647697</v>
+        <v>1181.99989342144</v>
       </c>
       <c r="P38">
-        <v>58.309398219846</v>
+        <v>57.9779404159987</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3456.53799671387</v>
+        <v>3945.00683623325</v>
       </c>
       <c r="C39">
-        <v>74.65620040329959</v>
+        <v>85.6084257244993</v>
       </c>
       <c r="D39">
-        <v>21.3374272115398</v>
+        <v>47.6318085526605</v>
       </c>
       <c r="E39">
-        <v>108.109419395966</v>
+        <v>127.076118148512</v>
       </c>
       <c r="F39">
-        <v>29.1845283071873</v>
+        <v>35.6262905338876</v>
       </c>
       <c r="G39">
-        <v>90.9635020061633</v>
+        <v>88.62704722436141</v>
       </c>
       <c r="H39">
-        <v>30.4288117889866</v>
+        <v>50.3051547039</v>
       </c>
       <c r="I39">
-        <v>24.7190462768377</v>
+        <v>45.9007468688153</v>
       </c>
       <c r="J39">
-        <v>171.865308730707</v>
+        <v>210.19227371988</v>
       </c>
       <c r="K39">
-        <v>31.8097411470764</v>
+        <v>64.8492527447025</v>
       </c>
       <c r="L39">
-        <v>90.9099192433544</v>
+        <v>84.10795243290551</v>
       </c>
       <c r="M39">
-        <v>58.1758996323573</v>
+        <v>60.9529352941043</v>
       </c>
       <c r="N39">
-        <v>109.55408340754</v>
+        <v>87.0635417010422</v>
       </c>
       <c r="O39">
-        <v>4394.5457620354</v>
+        <v>3798.87882257219</v>
       </c>
       <c r="P39">
-        <v>58.4828053602383</v>
+        <v>60.1527065983968</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>260.108805881905</v>
+        <v>313.861743092929</v>
       </c>
       <c r="C40">
-        <v>3.17616495031462</v>
+        <v>2.79345872376755</v>
       </c>
       <c r="D40">
-        <v>5.49089762991726</v>
+        <v>6.3423220105801</v>
       </c>
       <c r="E40">
-        <v>2.61860458594355</v>
+        <v>6.03391148157625</v>
       </c>
       <c r="F40">
-        <v>0.409268061693976</v>
+        <v>0.465064147959824</v>
       </c>
       <c r="G40">
-        <v>3.67754997515424</v>
+        <v>3.54522153521479</v>
       </c>
       <c r="H40">
-        <v>2.06526138774421</v>
+        <v>3.68992605454916</v>
       </c>
       <c r="I40">
-        <v>0.880580703438326</v>
+        <v>0.7327401700081651</v>
       </c>
       <c r="J40">
-        <v>9.24196957806144</v>
+        <v>10.2562860616335</v>
       </c>
       <c r="K40">
-        <v>1.32501145366943</v>
+        <v>3.47883448704542</v>
       </c>
       <c r="L40">
-        <v>7.35976911912574</v>
+        <v>8.376287923690921</v>
       </c>
       <c r="M40">
-        <v>3.9216576616748</v>
+        <v>4.39503333184489</v>
       </c>
       <c r="N40">
-        <v>17.8783264738258</v>
+        <v>17.2559250526069</v>
       </c>
       <c r="O40">
-        <v>402.884921420413</v>
+        <v>336.51834395049</v>
       </c>
       <c r="P40">
-        <v>2.9599977181691</v>
+        <v>1.96652740987475</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1184.57087184113</v>
+        <v>1307.54749563029</v>
       </c>
       <c r="C41">
-        <v>11.6997954021863</v>
+        <v>20.1523484649704</v>
       </c>
       <c r="D41">
-        <v>52.6764954701519</v>
+        <v>73.4118174908759</v>
       </c>
       <c r="E41">
-        <v>35.6169091744034</v>
+        <v>41.3453257954479</v>
       </c>
       <c r="F41">
-        <v>3.75968823598982</v>
+        <v>3.27234483048891</v>
       </c>
       <c r="G41">
-        <v>32.9985523777848</v>
+        <v>23.1039354448543</v>
       </c>
       <c r="H41">
-        <v>33.8661509484769</v>
+        <v>29.1731222381205</v>
       </c>
       <c r="I41">
-        <v>8.082094556758699</v>
+        <v>11.8926284305886</v>
       </c>
       <c r="J41">
-        <v>32.5607940316064</v>
+        <v>34.3289394535961</v>
       </c>
       <c r="K41">
-        <v>10.6535363344605</v>
+        <v>23.5925784857274</v>
       </c>
       <c r="L41">
-        <v>19.6200168376596</v>
+        <v>25.6600895401579</v>
       </c>
       <c r="M41">
-        <v>27.6387381452279</v>
+        <v>36.8463199580965</v>
       </c>
       <c r="N41">
-        <v>22.1348558181571</v>
+        <v>21.9728493222263</v>
       </c>
       <c r="O41">
-        <v>1431.19511923766</v>
+        <v>1269.34576646554</v>
       </c>
       <c r="P41">
-        <v>15.236960381493</v>
+        <v>19.0967883479259</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>146.930838799596</v>
+        <v>192.446990640518</v>
       </c>
       <c r="C42">
-        <v>6.38815562887072</v>
+        <v>6.19820148085517</v>
       </c>
       <c r="D42">
-        <v>1.76858742834693</v>
+        <v>0.967983933028659</v>
       </c>
       <c r="E42">
-        <v>4.70660439769286</v>
+        <v>4.89069671921187</v>
       </c>
       <c r="F42">
-        <v>1.93773366369799</v>
+        <v>1.39570169468084</v>
       </c>
       <c r="G42">
-        <v>1.46503880612329</v>
+        <v>0.90982247463769</v>
       </c>
       <c r="H42">
-        <v>0.741905368469549</v>
+        <v>1.44814046707764</v>
       </c>
       <c r="I42">
-        <v>2.05288698092875</v>
+        <v>1.25824389369339</v>
       </c>
       <c r="J42">
-        <v>3.90146927370355</v>
+        <v>3.39137029070725</v>
       </c>
       <c r="K42">
-        <v>1.83108628014744</v>
+        <v>6.64799592950869</v>
       </c>
       <c r="L42">
-        <v>4.61824234587139</v>
+        <v>5.89363103069443</v>
       </c>
       <c r="M42">
-        <v>2.32480837297387</v>
+        <v>2.36730525007579</v>
       </c>
       <c r="N42">
-        <v>8.56701461490287</v>
+        <v>6.74756428879395</v>
       </c>
       <c r="O42">
-        <v>272.513704256022</v>
+        <v>237.478293258389</v>
       </c>
       <c r="P42">
-        <v>39.1181772121949</v>
+        <v>35.6054726243683</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1812.3972296591</v>
+        <v>1771.71699632093</v>
       </c>
       <c r="C43">
-        <v>25.6333887316773</v>
+        <v>41.1907132087646</v>
       </c>
       <c r="D43">
-        <v>23.1842387419051</v>
+        <v>41.0810164122255</v>
       </c>
       <c r="E43">
-        <v>50.3857673300369</v>
+        <v>64.0283750813752</v>
       </c>
       <c r="F43">
-        <v>5.7630790766053</v>
+        <v>7.16475931394262</v>
       </c>
       <c r="G43">
-        <v>35.075344239672</v>
+        <v>26.8877507914895</v>
       </c>
       <c r="H43">
-        <v>53.5826292587429</v>
+        <v>35.7036259268206</v>
       </c>
       <c r="I43">
-        <v>5.7268358084044</v>
+        <v>14.1890286661309</v>
       </c>
       <c r="J43">
-        <v>42.9200134323991</v>
+        <v>62.7658452609393</v>
       </c>
       <c r="K43">
-        <v>4.0425702521476</v>
+        <v>47.9853884290991</v>
       </c>
       <c r="L43">
-        <v>35.373572707722</v>
+        <v>44.5840306540154</v>
       </c>
       <c r="M43">
-        <v>67.9730661847392</v>
+        <v>105.688551667424</v>
       </c>
       <c r="N43">
-        <v>64.71844332870771</v>
+        <v>62.6188496390669</v>
       </c>
       <c r="O43">
-        <v>1957.571918388</v>
+        <v>1858.73332070044</v>
       </c>
       <c r="P43">
-        <v>26.9586220572104</v>
+        <v>23.8573119319897</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5364.23166855243</v>
+        <v>6127.86578943912</v>
       </c>
       <c r="C44">
-        <v>119.214782675586</v>
+        <v>101.209114074614</v>
       </c>
       <c r="D44">
-        <v>23.7157031853714</v>
+        <v>32.6944785049017</v>
       </c>
       <c r="E44">
-        <v>78.1693821329514</v>
+        <v>92.04890328339749</v>
       </c>
       <c r="F44">
-        <v>194.943441598563</v>
+        <v>236.047410760779</v>
       </c>
       <c r="G44">
-        <v>110.61149514642</v>
+        <v>98.4058310821801</v>
       </c>
       <c r="H44">
-        <v>33.5956157534684</v>
+        <v>51.1971828353657</v>
       </c>
       <c r="I44">
-        <v>40.5336639936205</v>
+        <v>38.9542766932769</v>
       </c>
       <c r="J44">
-        <v>90.455020347023</v>
+        <v>152.174357039942</v>
       </c>
       <c r="K44">
-        <v>25.4531815247826</v>
+        <v>104.095682798252</v>
       </c>
       <c r="L44">
-        <v>162.025072515118</v>
+        <v>184.656172071943</v>
       </c>
       <c r="M44">
-        <v>65.77145431550601</v>
+        <v>109.044932162807</v>
       </c>
       <c r="N44">
-        <v>78.52100920724639</v>
+        <v>95.58427174037671</v>
       </c>
       <c r="O44">
-        <v>7959.11100198395</v>
+        <v>7089.90691004668</v>
       </c>
       <c r="P44">
-        <v>182.220363350494</v>
+        <v>106.779956237092</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>451.293928537855</v>
+        <v>561.1837055817661</v>
       </c>
       <c r="C45">
-        <v>12.4207069850414</v>
+        <v>13.2500207734908</v>
       </c>
       <c r="D45">
-        <v>1.44532423581374</v>
+        <v>3.13188918275531</v>
       </c>
       <c r="E45">
-        <v>10.3544536629152</v>
+        <v>14.9206357654441</v>
       </c>
       <c r="F45">
-        <v>23.4682033180687</v>
+        <v>12.2216270585792</v>
       </c>
       <c r="G45">
-        <v>5.78167985963723</v>
+        <v>9.1467674163681</v>
       </c>
       <c r="H45">
-        <v>0.8888146336884321</v>
+        <v>2.78801925233129</v>
       </c>
       <c r="I45">
-        <v>5.41915826645803</v>
+        <v>5.03932405045587</v>
       </c>
       <c r="J45">
-        <v>24.6735553755176</v>
+        <v>17.6492953318982</v>
       </c>
       <c r="K45">
-        <v>3.99078255819135</v>
+        <v>6.06151545286957</v>
       </c>
       <c r="L45">
-        <v>12.5271762774876</v>
+        <v>14.3127462822506</v>
       </c>
       <c r="M45">
-        <v>11.8889546682342</v>
+        <v>21.3677430328639</v>
       </c>
       <c r="N45">
-        <v>26.6581867535462</v>
+        <v>30.3914520271867</v>
       </c>
       <c r="O45">
-        <v>873.03374676032</v>
+        <v>788.873659454921</v>
       </c>
       <c r="P45">
-        <v>16.449961483998</v>
+        <v>7.35182085399781</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>132.427124399415</v>
+        <v>156.579190660611</v>
       </c>
       <c r="C46">
-        <v>4.23421755161835</v>
+        <v>4.00054818146238</v>
       </c>
       <c r="D46">
-        <v>0.889262572888471</v>
+        <v>1.9519589157184</v>
       </c>
       <c r="E46">
-        <v>4.06293049974316</v>
+        <v>8.981581945381709</v>
       </c>
       <c r="F46">
-        <v>0.610918923627825</v>
+        <v>0.853074612654747</v>
       </c>
       <c r="G46">
-        <v>0.392068422311862</v>
+        <v>1.59426954071626</v>
       </c>
       <c r="H46">
-        <v>0.58552500278517</v>
+        <v>1.97832700352385</v>
       </c>
       <c r="I46">
-        <v>0.386065628708581</v>
+        <v>2.20740226897569</v>
       </c>
       <c r="J46">
-        <v>3.62966450170588</v>
+        <v>4.06284019186469</v>
       </c>
       <c r="K46">
-        <v>1.67541770767542</v>
+        <v>2.90615119104169</v>
       </c>
       <c r="L46">
-        <v>11.2990494072412</v>
+        <v>10.1178001853207</v>
       </c>
       <c r="M46">
-        <v>2.05534103651031</v>
+        <v>3.0957170330883</v>
       </c>
       <c r="N46">
-        <v>7.46096027033218</v>
+        <v>5.90130977996067</v>
       </c>
       <c r="O46">
-        <v>246.613348784168</v>
+        <v>212.575961739824</v>
       </c>
       <c r="P46">
-        <v>7.26387086212055</v>
+        <v>8.779985570068901</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1796.90533656218</v>
+        <v>1941.60503229327</v>
       </c>
       <c r="C47">
-        <v>37.7023578194881</v>
+        <v>42.0658247473537</v>
       </c>
       <c r="D47">
-        <v>5.40332372776542</v>
+        <v>34.8918748043657</v>
       </c>
       <c r="E47">
-        <v>40.4696681194506</v>
+        <v>63.31363728985</v>
       </c>
       <c r="F47">
-        <v>7.69307651146786</v>
+        <v>17.6973227360146</v>
       </c>
       <c r="G47">
-        <v>23.6950283630742</v>
+        <v>25.8398409341898</v>
       </c>
       <c r="H47">
-        <v>10.5995717135948</v>
+        <v>20.6878826824745</v>
       </c>
       <c r="I47">
-        <v>7.72655706294656</v>
+        <v>13.738579072002</v>
       </c>
       <c r="J47">
-        <v>28.6764421262673</v>
+        <v>32.5571543452363</v>
       </c>
       <c r="K47">
-        <v>3.56254053029136</v>
+        <v>25.1447082544203</v>
       </c>
       <c r="L47">
-        <v>17.8380352954827</v>
+        <v>30.4932284375657</v>
       </c>
       <c r="M47">
-        <v>48.6425316175851</v>
+        <v>67.15264538778141</v>
       </c>
       <c r="N47">
-        <v>18.348248011076</v>
+        <v>45.1792993006004</v>
       </c>
       <c r="O47">
-        <v>2831.38178255889</v>
+        <v>2543.38753324254</v>
       </c>
       <c r="P47">
-        <v>33.4049736120733</v>
+        <v>31.6244058653149</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1525.2244885526</v>
+        <v>1782.66519808318</v>
       </c>
       <c r="C48">
-        <v>42.5330578469572</v>
+        <v>37.6799931729275</v>
       </c>
       <c r="D48">
-        <v>7.31050185092246</v>
+        <v>8.027423161558421</v>
       </c>
       <c r="E48">
-        <v>48.458776042914</v>
+        <v>46.3342326755365</v>
       </c>
       <c r="F48">
-        <v>7.28010733776527</v>
+        <v>6.73922904233683</v>
       </c>
       <c r="G48">
-        <v>8.051466513998349</v>
+        <v>9.03261540663482</v>
       </c>
       <c r="H48">
-        <v>11.6660965171606</v>
+        <v>9.114979680859451</v>
       </c>
       <c r="I48">
-        <v>6.86717429684607</v>
+        <v>8.866745917464151</v>
       </c>
       <c r="J48">
-        <v>30.4385601337998</v>
+        <v>25.6846483915984</v>
       </c>
       <c r="K48">
-        <v>21.1426038532296</v>
+        <v>12.8646758870934</v>
       </c>
       <c r="L48">
-        <v>37.5246385008998</v>
+        <v>35.6336042648118</v>
       </c>
       <c r="M48">
-        <v>121.454031297657</v>
+        <v>128.17842928667</v>
       </c>
       <c r="N48">
-        <v>40.3169945492914</v>
+        <v>31.9198284431724</v>
       </c>
       <c r="O48">
-        <v>2269.47606774352</v>
+        <v>2043.23850332599</v>
       </c>
       <c r="P48">
-        <v>70.6985216992574</v>
+        <v>64.09583358359249</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>697.8469581270661</v>
+        <v>708.144819310524</v>
       </c>
       <c r="C49">
-        <v>3.87624665164869</v>
+        <v>4.7656291512683</v>
       </c>
       <c r="D49">
-        <v>1.5260153449573</v>
+        <v>2.36588034091456</v>
       </c>
       <c r="E49">
-        <v>19.801896474306</v>
+        <v>13.8539177259414</v>
       </c>
       <c r="F49">
-        <v>27.274444596809</v>
+        <v>22.5349362967154</v>
       </c>
       <c r="G49">
-        <v>9.70319331076181</v>
+        <v>17.0594181790219</v>
       </c>
       <c r="H49">
-        <v>6.19867901864189</v>
+        <v>5.21059598779734</v>
       </c>
       <c r="I49">
-        <v>4.80510440744573</v>
+        <v>3.93214983393282</v>
       </c>
       <c r="J49">
-        <v>17.7218821196847</v>
+        <v>17.5218937361731</v>
       </c>
       <c r="K49">
-        <v>2.16252161878162</v>
+        <v>5.35061317279322</v>
       </c>
       <c r="L49">
-        <v>2.19448630210929</v>
+        <v>3.02856569567673</v>
       </c>
       <c r="M49">
-        <v>2.3092033861617</v>
+        <v>6.46301656992907</v>
       </c>
       <c r="N49">
-        <v>6.58653626792365</v>
+        <v>5.26881860853985</v>
       </c>
       <c r="O49">
-        <v>520.190353081173</v>
+        <v>500.955893036684</v>
       </c>
       <c r="P49">
-        <v>5.3117513623251</v>
+        <v>7.8736868001706</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1236.26853109802</v>
+        <v>1451.3327095202</v>
       </c>
       <c r="C50">
-        <v>66.52432782425851</v>
+        <v>74.4577174529373</v>
       </c>
       <c r="D50">
-        <v>3.23384232214267</v>
+        <v>15.0092013961436</v>
       </c>
       <c r="E50">
-        <v>104.611828494263</v>
+        <v>133.254564985635</v>
       </c>
       <c r="F50">
-        <v>4.37268900841699</v>
+        <v>3.612932380564</v>
       </c>
       <c r="G50">
-        <v>22.7553344968032</v>
+        <v>14.9201479782397</v>
       </c>
       <c r="H50">
-        <v>39.0574696332856</v>
+        <v>35.6830238458238</v>
       </c>
       <c r="I50">
-        <v>6.63734480957106</v>
+        <v>10.6393212705054</v>
       </c>
       <c r="J50">
-        <v>65.6375866012111</v>
+        <v>93.8688072408788</v>
       </c>
       <c r="K50">
-        <v>48.8910070017505</v>
+        <v>84.40083641893369</v>
       </c>
       <c r="L50">
-        <v>56.869356097025</v>
+        <v>50.1041441911164</v>
       </c>
       <c r="M50">
-        <v>46.4827186065573</v>
+        <v>52.5563149673265</v>
       </c>
       <c r="N50">
-        <v>44.7612581287095</v>
+        <v>58.1865072860376</v>
       </c>
       <c r="O50">
-        <v>2006.97624492525</v>
+        <v>1647.90902559963</v>
       </c>
       <c r="P50">
-        <v>82.22666391599969</v>
+        <v>98.51797946036921</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>105.499176806969</v>
+        <v>122.86299603115</v>
       </c>
       <c r="C51">
-        <v>0.200142048440919</v>
+        <v>1.34071621957479</v>
       </c>
       <c r="D51">
-        <v>0.230790869606009</v>
+        <v>0.553643447799919</v>
       </c>
       <c r="E51">
-        <v>1.16520286710535</v>
+        <v>1.77694081526969</v>
       </c>
       <c r="F51">
-        <v>25.3732862016818</v>
+        <v>25.7573262689985</v>
       </c>
       <c r="G51">
-        <v>1.50839326303979</v>
+        <v>2.85893717547917</v>
       </c>
       <c r="H51">
-        <v>0.0102192234536297</v>
+        <v>0.13540489407708</v>
       </c>
       <c r="I51">
-        <v>0.670037036583208</v>
+        <v>0.719549217416861</v>
       </c>
       <c r="J51">
-        <v>0.9264920243853489</v>
+        <v>1.5797388458805</v>
       </c>
       <c r="K51">
-        <v>1.02197122877666</v>
+        <v>0.636572090762435</v>
       </c>
       <c r="L51">
-        <v>0.70927525387746</v>
+        <v>0.387550413459943</v>
       </c>
       <c r="M51">
-        <v>0.78310041075699</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="N51">
-        <v>0.194502889639181</v>
+        <v>0.968876033649859</v>
       </c>
       <c r="O51">
-        <v>187.295949384143</v>
+        <v>174.122876375699</v>
       </c>
       <c r="P51">
-        <v>22.4185109283364</v>
+        <v>11.0577847354228</v>
       </c>
     </row>
     <row r="52">
@@ -3046,49 +3046,49 @@
         </is>
       </c>
       <c r="B52">
-        <v>3046.58591313892</v>
+        <v>4750.38819561398</v>
       </c>
       <c r="C52">
-        <v>153.672327821487</v>
+        <v>157.406841245996</v>
       </c>
       <c r="D52">
-        <v>46.5478236990175</v>
+        <v>47.679019373281</v>
       </c>
       <c r="E52">
-        <v>151.896208695354</v>
+        <v>155.587559236772</v>
       </c>
       <c r="F52">
-        <v>132.797442858238</v>
+        <v>136.024659105464</v>
       </c>
       <c r="G52">
-        <v>36.9000520051644</v>
+        <v>37.7967895084737</v>
       </c>
       <c r="H52">
-        <v>29.7369817217424</v>
+        <v>30.4596437586787</v>
       </c>
       <c r="I52">
-        <v>35.6225257134293</v>
+        <v>36.4882170345515</v>
       </c>
       <c r="J52">
-        <v>157.041766313101</v>
+        <v>160.858163141463</v>
       </c>
       <c r="K52">
-        <v>53.2020106231475</v>
+        <v>54.4949149846524</v>
       </c>
       <c r="L52">
-        <v>53.843571285976</v>
+        <v>55.1520667232584</v>
       </c>
       <c r="M52">
-        <v>94.88462131850061</v>
+        <v>97.1904879446964</v>
       </c>
       <c r="N52">
-        <v>101.659340101533</v>
+        <v>104.129844555509</v>
       </c>
       <c r="O52">
-        <v>7223.03105936466</v>
+        <v>7398.56368022908</v>
       </c>
       <c r="P52">
-        <v>308.022241455644</v>
+        <v>315.507734856249</v>
       </c>
     </row>
     <row r="53">
@@ -3098,49 +3098,49 @@
         </is>
       </c>
       <c r="B53">
-        <v>1500.18205342649</v>
+        <v>2579.31267019732</v>
       </c>
       <c r="C53">
-        <v>76.4014362681877</v>
+        <v>76.38838061906451</v>
       </c>
       <c r="D53">
-        <v>28.1533941548818</v>
+        <v>28.1485832396207</v>
       </c>
       <c r="E53">
-        <v>87.1448343303539</v>
+        <v>87.12994282522661</v>
       </c>
       <c r="F53">
-        <v>7.65921021216053</v>
+        <v>7.65790138910725</v>
       </c>
       <c r="G53">
-        <v>26.7382511121796</v>
+        <v>26.7336820197418</v>
       </c>
       <c r="H53">
-        <v>26.9557443218569</v>
+        <v>26.9511380636907</v>
       </c>
       <c r="I53">
-        <v>34.6245357326817</v>
+        <v>34.6186190142054</v>
       </c>
       <c r="J53">
-        <v>103.776837091537</v>
+        <v>103.759103472401</v>
       </c>
       <c r="K53">
-        <v>81.5187544747364</v>
+        <v>81.5048243667781</v>
       </c>
       <c r="L53">
-        <v>71.5495172646375</v>
+        <v>71.5372907223371</v>
       </c>
       <c r="M53">
-        <v>43.2274940132658</v>
+        <v>43.2201072019455</v>
       </c>
       <c r="N53">
-        <v>46.0549057390709</v>
+        <v>46.0470357732809</v>
       </c>
       <c r="O53">
-        <v>2731.14750658613</v>
+        <v>2730.68080196261</v>
       </c>
       <c r="P53">
-        <v>271.567578698318</v>
+        <v>271.521172620188</v>
       </c>
     </row>
     <row r="54">
@@ -3150,49 +3150,49 @@
         </is>
       </c>
       <c r="B54">
-        <v>1978.12010287337</v>
+        <v>3325.80728874304</v>
       </c>
       <c r="C54">
-        <v>91.89629453711549</v>
+        <v>93.3046655087275</v>
       </c>
       <c r="D54">
-        <v>38.6525964406047</v>
+        <v>39.244972826166</v>
       </c>
       <c r="E54">
-        <v>57.8956699940176</v>
+        <v>58.7829590997679</v>
       </c>
       <c r="F54">
-        <v>8.52335381591317</v>
+        <v>8.653979802037799</v>
       </c>
       <c r="G54">
-        <v>67.2158760802625</v>
+        <v>68.24600345568869</v>
       </c>
       <c r="H54">
-        <v>23.8845227918878</v>
+        <v>24.2505687651268</v>
       </c>
       <c r="I54">
-        <v>29.0664540624603</v>
+        <v>29.5119165302939</v>
       </c>
       <c r="J54">
-        <v>98.2184994046093</v>
+        <v>99.72376231138379</v>
       </c>
       <c r="K54">
-        <v>39.3891825728441</v>
+        <v>39.992847623873</v>
       </c>
       <c r="L54">
-        <v>41.7242562725797</v>
+        <v>42.3637078592012</v>
       </c>
       <c r="M54">
-        <v>53.5105909937768</v>
+        <v>54.3306758884838</v>
       </c>
       <c r="N54">
-        <v>26.2559474955521</v>
+        <v>26.6583371073548</v>
       </c>
       <c r="O54">
-        <v>3038.28291413088</v>
+        <v>3084.84659203934</v>
       </c>
       <c r="P54">
-        <v>79.2528414074943</v>
+        <v>80.4674431693859</v>
       </c>
     </row>
     <row r="55">
@@ -3202,49 +3202,49 @@
         </is>
       </c>
       <c r="B55">
-        <v>1893.52214829409</v>
+        <v>2801.43893165552</v>
       </c>
       <c r="C55">
-        <v>115.860754316874</v>
+        <v>121.528358057471</v>
       </c>
       <c r="D55">
-        <v>188.129454710694</v>
+        <v>197.332253428185</v>
       </c>
       <c r="E55">
-        <v>49.0965495304453</v>
+        <v>51.4982237592195</v>
       </c>
       <c r="F55">
-        <v>33.5596667676462</v>
+        <v>35.201317506302</v>
       </c>
       <c r="G55">
-        <v>22.9058043017267</v>
+        <v>24.0262960757299</v>
       </c>
       <c r="H55">
-        <v>21.3077249318388</v>
+        <v>22.3500428611441</v>
       </c>
       <c r="I55">
-        <v>27.0785671008785</v>
+        <v>28.4031794693706</v>
       </c>
       <c r="J55">
-        <v>58.0635504392608</v>
+        <v>60.9038667966177</v>
       </c>
       <c r="K55">
-        <v>63.8343926083005</v>
+        <v>66.9570034048442</v>
       </c>
       <c r="L55">
-        <v>30.8074189639503</v>
+        <v>32.3144369700708</v>
       </c>
       <c r="M55">
-        <v>12.1631596485913</v>
+        <v>12.7581494665698</v>
       </c>
       <c r="N55">
-        <v>34.8026173886701</v>
+        <v>36.5050700065354</v>
       </c>
       <c r="O55">
-        <v>1617.34510451378</v>
+        <v>1696.46137833943</v>
       </c>
       <c r="P55">
-        <v>655.74523477734</v>
+        <v>687.8225690517101</v>
       </c>
     </row>
     <row r="56">
@@ -3254,49 +3254,49 @@
         </is>
       </c>
       <c r="B56">
-        <v>30382.2437062893</v>
+        <v>39689.4386715149</v>
       </c>
       <c r="C56">
-        <v>1908.36430063199</v>
+        <v>1963.73963367414</v>
       </c>
       <c r="D56">
-        <v>2949.55401286481</v>
+        <v>3035.14172572137</v>
       </c>
       <c r="E56">
-        <v>896.742165836519</v>
+        <v>922.7630865117241</v>
       </c>
       <c r="F56">
-        <v>307.47358266661</v>
+        <v>316.395596160674</v>
       </c>
       <c r="G56">
-        <v>410.751127542375</v>
+        <v>422.669963205757</v>
       </c>
       <c r="H56">
-        <v>322.089171065438</v>
+        <v>331.435287585808</v>
       </c>
       <c r="I56">
-        <v>480.841390117818</v>
+        <v>494.794046908457</v>
       </c>
       <c r="J56">
-        <v>808.905070524085</v>
+        <v>832.377207193652</v>
       </c>
       <c r="K56">
-        <v>443.767661033154</v>
+        <v>456.644543091212</v>
       </c>
       <c r="L56">
-        <v>390.003872938214</v>
+        <v>401.320681969137</v>
       </c>
       <c r="M56">
-        <v>446.50303997208</v>
+        <v>459.459294988273</v>
       </c>
       <c r="N56">
-        <v>756.013715401282</v>
+        <v>777.95109458036</v>
       </c>
       <c r="O56">
-        <v>48985.9067992962</v>
+        <v>50407.3392283584</v>
       </c>
       <c r="P56">
-        <v>15631.4180901094</v>
+        <v>16084.9976201679</v>
       </c>
     </row>
     <row r="57">
@@ -3306,49 +3306,49 @@
         </is>
       </c>
       <c r="B57">
-        <v>4164.9111467659</v>
+        <v>6809.29041494549</v>
       </c>
       <c r="C57">
-        <v>231.108767781611</v>
+        <v>235.74724948582</v>
       </c>
       <c r="D57">
-        <v>97.8447271491181</v>
+        <v>99.80852532558259</v>
       </c>
       <c r="E57">
-        <v>339.259343729981</v>
+        <v>346.068467736737</v>
       </c>
       <c r="F57">
-        <v>210.839547470659</v>
+        <v>215.071214632636</v>
       </c>
       <c r="G57">
-        <v>91.2520482617682</v>
+        <v>93.0835277006347</v>
       </c>
       <c r="H57">
-        <v>110.06574224432</v>
+        <v>112.274823001234</v>
       </c>
       <c r="I57">
-        <v>53.4534220651924</v>
+        <v>54.5262620212733</v>
       </c>
       <c r="J57">
-        <v>253.586062628368</v>
+        <v>258.675676160709</v>
       </c>
       <c r="K57">
-        <v>129.807728597266</v>
+        <v>132.413042017189</v>
       </c>
       <c r="L57">
-        <v>108.299282821694</v>
+        <v>110.472909754022</v>
       </c>
       <c r="M57">
-        <v>191.624795147821</v>
+        <v>195.470811527458</v>
       </c>
       <c r="N57">
-        <v>145.471536995843</v>
+        <v>148.391231775558</v>
       </c>
       <c r="O57">
-        <v>10976.3957095875</v>
+        <v>11196.6980856756</v>
       </c>
       <c r="P57">
-        <v>359.686283750112</v>
+        <v>366.905387821518</v>
       </c>
     </row>
     <row r="58">
@@ -3358,49 +3358,49 @@
         </is>
       </c>
       <c r="B58">
-        <v>151187.289604056</v>
+        <v>246278.979531348</v>
       </c>
       <c r="C58">
-        <v>13287.0973094635</v>
+        <v>12533.1830402358</v>
       </c>
       <c r="D58">
-        <v>25242.4167113547</v>
+        <v>23810.1536891724</v>
       </c>
       <c r="E58">
-        <v>17822.9566989447</v>
+        <v>16811.6762768774</v>
       </c>
       <c r="F58">
-        <v>9871.95530566747</v>
+        <v>9311.817316400209</v>
       </c>
       <c r="G58">
-        <v>6856.20812502556</v>
+        <v>6467.18462215932</v>
       </c>
       <c r="H58">
-        <v>10259.0695467621</v>
+        <v>9676.96656819847</v>
       </c>
       <c r="I58">
-        <v>8282.079307703911</v>
+        <v>7812.15140520359</v>
       </c>
       <c r="J58">
-        <v>8425.324849870111</v>
+        <v>7947.26914821794</v>
       </c>
       <c r="K58">
-        <v>9398.12115641767</v>
+        <v>8864.8686725431</v>
       </c>
       <c r="L58">
-        <v>11940.9284859545</v>
+        <v>11263.3962783009</v>
       </c>
       <c r="M58">
-        <v>4853.79756966942</v>
+        <v>4578.39149996973</v>
       </c>
       <c r="N58">
-        <v>7529.57396998231</v>
+        <v>7102.34346771659</v>
       </c>
       <c r="O58">
-        <v>263638.123227725</v>
+        <v>248679.209449601</v>
       </c>
       <c r="P58">
-        <v>307796.185377669</v>
+        <v>290331.728637006</v>
       </c>
     </row>
     <row r="59">
@@ -3410,49 +3410,49 @@
         </is>
       </c>
       <c r="B59">
-        <v>127.415670372384</v>
+        <v>170.474871899527</v>
       </c>
       <c r="C59">
-        <v>9.82200714711138</v>
+        <v>10.2095907100987</v>
       </c>
       <c r="D59">
-        <v>2.26661703394878</v>
+        <v>2.35605939463816</v>
       </c>
       <c r="E59">
-        <v>5.37272185824896</v>
+        <v>5.58473337988305</v>
       </c>
       <c r="F59">
-        <v>0.50369267421084</v>
+        <v>0.5235687543640361</v>
       </c>
       <c r="G59">
-        <v>1.59502680166766</v>
+        <v>1.65796772215278</v>
       </c>
       <c r="H59">
-        <v>1.09133412745682</v>
+        <v>1.13439896778874</v>
       </c>
       <c r="I59">
-        <v>2.9382072662299</v>
+        <v>3.05415106712354</v>
       </c>
       <c r="J59">
-        <v>3.94559261465158</v>
+        <v>4.10128857585162</v>
       </c>
       <c r="K59">
-        <v>0.8394877903514</v>
+        <v>0.872614590606727</v>
       </c>
       <c r="L59">
-        <v>0.5876414532459801</v>
+        <v>0.610830213424709</v>
       </c>
       <c r="M59">
-        <v>0.33579511614056</v>
+        <v>0.349045836242691</v>
       </c>
       <c r="N59">
-        <v>2.35056581298392</v>
+        <v>2.44332085369884</v>
       </c>
       <c r="O59">
-        <v>237.071351995235</v>
+        <v>246.42636038734</v>
       </c>
       <c r="P59">
-        <v>13.179958308517</v>
+        <v>13.7000490725256</v>
       </c>
     </row>
     <row r="60">
@@ -3462,49 +3462,49 @@
         </is>
       </c>
       <c r="B60">
-        <v>1821.13520242502</v>
+        <v>3099.4127540967</v>
       </c>
       <c r="C60">
-        <v>135.998309394594</v>
+        <v>134.166298479459</v>
       </c>
       <c r="D60">
-        <v>91.1050701113263</v>
+        <v>89.8778086577757</v>
       </c>
       <c r="E60">
-        <v>142.128450218724</v>
+        <v>140.213861182206</v>
       </c>
       <c r="F60">
-        <v>49.2283879382554</v>
+        <v>48.5652404003276</v>
       </c>
       <c r="G60">
-        <v>40.7977463395108</v>
+        <v>40.2481665915008</v>
       </c>
       <c r="H60">
-        <v>80.6271671737222</v>
+        <v>79.54105183172879</v>
       </c>
       <c r="I60">
-        <v>77.00613432224161</v>
+        <v>75.9687973197549</v>
       </c>
       <c r="J60">
-        <v>229.255429576816</v>
+        <v>226.167167294673</v>
       </c>
       <c r="K60">
-        <v>158.622002588048</v>
+        <v>156.485231613354</v>
       </c>
       <c r="L60">
-        <v>197.093050969936</v>
+        <v>194.438042813721</v>
       </c>
       <c r="M60">
-        <v>128.684444004867</v>
+        <v>126.950956970547</v>
       </c>
       <c r="N60">
-        <v>76.2638808036504</v>
+        <v>75.23654257654481</v>
       </c>
       <c r="O60">
-        <v>2990.48800230425</v>
+        <v>2950.20362901911</v>
       </c>
       <c r="P60">
-        <v>184.011924254057</v>
+        <v>181.533129809853</v>
       </c>
     </row>
     <row r="61">
@@ -3514,49 +3514,49 @@
         </is>
       </c>
       <c r="B61">
-        <v>14603.4787971994</v>
+        <v>25514.0950679847</v>
       </c>
       <c r="C61">
-        <v>934.5464108739581</v>
+        <v>947.101440896946</v>
       </c>
       <c r="D61">
-        <v>193.285718240456</v>
+        <v>195.882387562908</v>
       </c>
       <c r="E61">
-        <v>756.205464662403</v>
+        <v>766.36459876416</v>
       </c>
       <c r="F61">
-        <v>105.609722337569</v>
+        <v>107.028521039527</v>
       </c>
       <c r="G61">
-        <v>450.335797137558</v>
+        <v>456.385768961002</v>
       </c>
       <c r="H61">
-        <v>391.553027157213</v>
+        <v>396.81329026919</v>
       </c>
       <c r="I61">
-        <v>246.090579409241</v>
+        <v>249.396648082671</v>
       </c>
       <c r="J61">
-        <v>1092.96099438031</v>
+        <v>1107.64422245624</v>
       </c>
       <c r="K61">
-        <v>1059.08617778147</v>
+        <v>1073.31431948129</v>
       </c>
       <c r="L61">
-        <v>1039.15981507627</v>
+        <v>1053.1202589078</v>
       </c>
       <c r="M61">
-        <v>971.4101818785811</v>
+        <v>984.4604529579131</v>
       </c>
       <c r="N61">
-        <v>270.998532790743</v>
+        <v>274.639223799541</v>
       </c>
       <c r="O61">
-        <v>27644.8392990615</v>
+        <v>28016.2299366392</v>
       </c>
       <c r="P61">
-        <v>833.91827921269</v>
+        <v>845.121435000793</v>
       </c>
     </row>
     <row r="62">
@@ -3566,49 +3566,49 @@
         </is>
       </c>
       <c r="B62">
-        <v>634.863630347425</v>
+        <v>1299.56403079444</v>
       </c>
       <c r="C62">
-        <v>64.8927410670204</v>
+        <v>65.3762107592413</v>
       </c>
       <c r="D62">
-        <v>8.562903750302111</v>
+        <v>8.626699860199841</v>
       </c>
       <c r="E62">
-        <v>51.6801563227865</v>
+        <v>52.0651884367098</v>
       </c>
       <c r="F62">
-        <v>3.48532014403231</v>
+        <v>3.5112867872904</v>
       </c>
       <c r="G62">
-        <v>26.966597283671</v>
+        <v>27.1675062339574</v>
       </c>
       <c r="H62">
-        <v>19.1052209454333</v>
+        <v>19.2475603679699</v>
       </c>
       <c r="I62">
-        <v>15.0348094743265</v>
+        <v>15.1468231539713</v>
       </c>
       <c r="J62">
-        <v>47.5689922219332</v>
+        <v>47.9233949740846</v>
       </c>
       <c r="K62">
-        <v>57.6552680841871</v>
+        <v>58.0848165091302</v>
       </c>
       <c r="L62">
-        <v>43.5868781152772</v>
+        <v>43.9116129654433</v>
       </c>
       <c r="M62">
-        <v>11.9987385582137</v>
+        <v>12.088132631301</v>
       </c>
       <c r="N62">
-        <v>23.8344665974415</v>
+        <v>24.0120402680962</v>
       </c>
       <c r="O62">
-        <v>2080.23059931829</v>
+        <v>2095.72891902346</v>
       </c>
       <c r="P62">
-        <v>78.66130811708121</v>
+        <v>79.2473576166052</v>
       </c>
     </row>
     <row r="63">
@@ -3618,49 +3618,49 @@
         </is>
       </c>
       <c r="B63">
-        <v>7530.15116433989</v>
+        <v>12092.4489789911</v>
       </c>
       <c r="C63">
-        <v>373.86561067695</v>
+        <v>407.756916771107</v>
       </c>
       <c r="D63">
-        <v>217.594171410721</v>
+        <v>237.319309152682</v>
       </c>
       <c r="E63">
-        <v>302.633774795202</v>
+        <v>330.067840949195</v>
       </c>
       <c r="F63">
-        <v>43.1289679055965</v>
+        <v>47.0386536618418</v>
       </c>
       <c r="G63">
-        <v>138.565007998018</v>
+        <v>151.126069956878</v>
       </c>
       <c r="H63">
-        <v>102.989701138034</v>
+        <v>112.325824563494</v>
       </c>
       <c r="I63">
-        <v>185.511417507311</v>
+        <v>202.328220270521</v>
       </c>
       <c r="J63">
-        <v>403.755366212279</v>
+        <v>440.356209704361</v>
       </c>
       <c r="K63">
-        <v>183.724529948134</v>
+        <v>200.379349497338</v>
       </c>
       <c r="L63">
-        <v>149.12388902952</v>
+        <v>162.64212452569</v>
       </c>
       <c r="M63">
-        <v>247.646371269611</v>
+        <v>270.095772156225</v>
       </c>
       <c r="N63">
-        <v>205.329624981823</v>
+        <v>223.942968845831</v>
       </c>
       <c r="O63">
-        <v>11759.9943599162</v>
+        <v>12826.0500685325</v>
       </c>
       <c r="P63">
-        <v>766.737207210604</v>
+        <v>836.242731766077</v>
       </c>
     </row>
     <row r="64">
@@ -3670,49 +3670,49 @@
         </is>
       </c>
       <c r="B64">
-        <v>212.527333279725</v>
+        <v>349.902593925915</v>
       </c>
       <c r="C64">
-        <v>14.09216279852</v>
+        <v>14.4695465783559</v>
       </c>
       <c r="D64">
-        <v>22.0190043726875</v>
+        <v>22.6086665286812</v>
       </c>
       <c r="E64">
-        <v>25.9824251597713</v>
+        <v>26.6782265038438</v>
       </c>
       <c r="F64">
-        <v>5.17886982845611</v>
+        <v>5.31755836754581</v>
       </c>
       <c r="G64">
-        <v>2.3956676757484</v>
+        <v>2.45982291832051</v>
       </c>
       <c r="H64">
-        <v>4.13957282206525</v>
+        <v>4.25042930739206</v>
       </c>
       <c r="I64">
-        <v>4.75610494450051</v>
+        <v>4.88347197019513</v>
       </c>
       <c r="J64">
-        <v>14.7086949209553</v>
+        <v>15.102589241159</v>
       </c>
       <c r="K64">
-        <v>3.3468886646485</v>
+        <v>3.43651731235954</v>
       </c>
       <c r="L64">
-        <v>9.864513958964009</v>
+        <v>10.1286826048492</v>
       </c>
       <c r="M64">
-        <v>5.72494113689876</v>
+        <v>5.8782532974571</v>
       </c>
       <c r="N64">
-        <v>12.5067944836865</v>
+        <v>12.8417225882909</v>
       </c>
       <c r="O64">
-        <v>370.711957618567</v>
+        <v>380.639509676876</v>
       </c>
       <c r="P64">
-        <v>28.2724016145308</v>
+        <v>29.0295278228266</v>
       </c>
     </row>
     <row r="65">
@@ -3722,10 +3722,10 @@
         </is>
       </c>
       <c r="B65">
-        <v>708.7869691965</v>
+        <v>1347.8908277851</v>
       </c>
       <c r="C65">
-        <v>36.4272852938554</v>
+        <v>36.4272852938553</v>
       </c>
       <c r="D65">
         <v>14.0249754748952</v>
@@ -3749,13 +3749,13 @@
         <v>61.2769062695086</v>
       </c>
       <c r="K65">
-        <v>62.2181797913137</v>
+        <v>62.2181797913136</v>
       </c>
       <c r="L65">
         <v>60.4297600998841</v>
       </c>
       <c r="M65">
-        <v>20.708017479711</v>
+        <v>20.7080174797111</v>
       </c>
       <c r="N65">
         <v>16.5664139837688</v>
@@ -3774,49 +3774,49 @@
         </is>
       </c>
       <c r="B66">
-        <v>10276.9178731681</v>
+        <v>17410.2839357637</v>
       </c>
       <c r="C66">
-        <v>535.4731588578831</v>
+        <v>539.436760902089</v>
       </c>
       <c r="D66">
-        <v>152.446514723008</v>
+        <v>153.574932286788</v>
       </c>
       <c r="E66">
-        <v>333.643907222723</v>
+        <v>336.113557943453</v>
       </c>
       <c r="F66">
-        <v>54.1586302305423</v>
+        <v>54.5595154176747</v>
       </c>
       <c r="G66">
-        <v>132.578798518506</v>
+        <v>133.560154144149</v>
       </c>
       <c r="H66">
-        <v>196.002661786724</v>
+        <v>197.453484368728</v>
       </c>
       <c r="I66">
-        <v>121.11665455437</v>
+        <v>122.013166754165</v>
       </c>
       <c r="J66">
-        <v>516.08303198522</v>
+        <v>519.903107234033</v>
       </c>
       <c r="K66">
-        <v>290.660867357214</v>
+        <v>292.812355231013</v>
       </c>
       <c r="L66">
-        <v>337.082550411964</v>
+        <v>339.577654160448</v>
       </c>
       <c r="M66">
-        <v>310.33754782898</v>
+        <v>312.634683583819</v>
       </c>
       <c r="N66">
-        <v>164.290730152615</v>
+        <v>165.506819256438</v>
       </c>
       <c r="O66">
-        <v>17837.292919122</v>
+        <v>17969.3255513983</v>
       </c>
       <c r="P66">
-        <v>836.832027248291</v>
+        <v>843.026304363754</v>
       </c>
     </row>
     <row r="67">
@@ -3826,49 +3826,49 @@
         </is>
       </c>
       <c r="B67">
-        <v>8445.97005953695</v>
+        <v>16905.7552507466</v>
       </c>
       <c r="C67">
-        <v>418.253823878384</v>
+        <v>422.678720156523</v>
       </c>
       <c r="D67">
-        <v>94.2743175446135</v>
+        <v>95.2716881674546</v>
       </c>
       <c r="E67">
-        <v>445.367750355006</v>
+        <v>450.079497118431</v>
       </c>
       <c r="F67">
-        <v>128.558999472402</v>
+        <v>129.91908324405</v>
       </c>
       <c r="G67">
-        <v>296.726818718577</v>
+        <v>299.866025871776</v>
       </c>
       <c r="H67">
-        <v>173.368166529644</v>
+        <v>175.20230673597</v>
       </c>
       <c r="I67">
-        <v>113.340097984163</v>
+        <v>114.539174117128</v>
       </c>
       <c r="J67">
-        <v>360.168411272886</v>
+        <v>363.978795713048</v>
       </c>
       <c r="K67">
-        <v>263.424145461722</v>
+        <v>266.21102857977</v>
       </c>
       <c r="L67">
-        <v>325.755648907469</v>
+        <v>329.201965177975</v>
       </c>
       <c r="M67">
-        <v>383.924318196109</v>
+        <v>387.98602711468</v>
       </c>
       <c r="N67">
-        <v>123.358652188933</v>
+        <v>124.663719135807</v>
       </c>
       <c r="O67">
-        <v>23813.0882529368</v>
+        <v>24065.0176784812</v>
       </c>
       <c r="P67">
-        <v>459.218967822334</v>
+        <v>464.077252876911</v>
       </c>
     </row>
     <row r="68">
@@ -3878,49 +3878,49 @@
         </is>
       </c>
       <c r="B68">
-        <v>2185.40217312109</v>
+        <v>3342.47032823037</v>
       </c>
       <c r="C68">
-        <v>111.892885626533</v>
+        <v>112.710538952645</v>
       </c>
       <c r="D68">
-        <v>68.81899122791729</v>
+        <v>69.3218835857475</v>
       </c>
       <c r="E68">
-        <v>59.1331130816116</v>
+        <v>59.5652262255687</v>
       </c>
       <c r="F68">
-        <v>16.4990727853424</v>
+        <v>16.6196391794</v>
       </c>
       <c r="G68">
-        <v>28.6059660734906</v>
+        <v>28.8150031644161</v>
       </c>
       <c r="H68">
-        <v>15.3312783194011</v>
+        <v>15.4433110964736</v>
       </c>
       <c r="I68">
-        <v>25.8032593552314</v>
+        <v>25.9918157653927</v>
       </c>
       <c r="J68">
-        <v>49.633536776176</v>
+        <v>49.9962321004093</v>
       </c>
       <c r="K68">
-        <v>23.3677035819063</v>
+        <v>23.5384622539197</v>
       </c>
       <c r="L68">
-        <v>22.4407383248945</v>
+        <v>22.6047232308964</v>
       </c>
       <c r="M68">
-        <v>19.1336534520848</v>
+        <v>19.2734719516986</v>
       </c>
       <c r="N68">
-        <v>35.2137742928365</v>
+        <v>35.4710977099087</v>
       </c>
       <c r="O68">
-        <v>2874.68011772937</v>
+        <v>2895.68674157866</v>
       </c>
       <c r="P68">
-        <v>507.309909373205</v>
+        <v>511.017058692357</v>
       </c>
     </row>
     <row r="69">
@@ -3930,49 +3930,49 @@
         </is>
       </c>
       <c r="B69">
-        <v>2589.28750905016</v>
+        <v>3897.66911779366</v>
       </c>
       <c r="C69">
-        <v>151.78418347918</v>
+        <v>156.648464206619</v>
       </c>
       <c r="D69">
-        <v>99.58731182431779</v>
+        <v>102.778821179908</v>
       </c>
       <c r="E69">
-        <v>87.3753629087991</v>
+        <v>90.1755116733674</v>
       </c>
       <c r="F69">
-        <v>21.5396329911882</v>
+        <v>22.2299211307921</v>
       </c>
       <c r="G69">
-        <v>47.0017443799897</v>
+        <v>48.5080256940434</v>
       </c>
       <c r="H69">
-        <v>44.6573911850385</v>
+        <v>46.0885421936603</v>
       </c>
       <c r="I69">
-        <v>32.469799185831</v>
+        <v>33.5103701780326</v>
       </c>
       <c r="J69">
-        <v>111.999190427891</v>
+        <v>115.588467591027</v>
       </c>
       <c r="K69">
-        <v>65.77889711288471</v>
+        <v>67.8869363971114</v>
       </c>
       <c r="L69">
-        <v>175.241923629874</v>
+        <v>180.857962746815</v>
       </c>
       <c r="M69">
-        <v>72.4587814112263</v>
+        <v>74.7808932800211</v>
       </c>
       <c r="N69">
-        <v>46.1360589794298</v>
+        <v>47.6145973711747</v>
       </c>
       <c r="O69">
-        <v>2564.58335787937</v>
+        <v>2646.77145624176</v>
       </c>
       <c r="P69">
-        <v>341.579364604985</v>
+        <v>352.526077773993</v>
       </c>
     </row>
     <row r="70">
@@ -3982,49 +3982,49 @@
         </is>
       </c>
       <c r="B70">
-        <v>37353.5818570992</v>
+        <v>45277.4501881608</v>
       </c>
       <c r="C70">
-        <v>1731.02389758622</v>
+        <v>1648.90079489393</v>
       </c>
       <c r="D70">
-        <v>2651.0337897875</v>
+        <v>2525.26364850694</v>
       </c>
       <c r="E70">
-        <v>2781.46967843521</v>
+        <v>2649.51140775152</v>
       </c>
       <c r="F70">
-        <v>925.501989566544</v>
+        <v>881.594395317225</v>
       </c>
       <c r="G70">
-        <v>286.822729060468</v>
+        <v>273.215307195316</v>
       </c>
       <c r="H70">
-        <v>1030.91879967011</v>
+        <v>982.0100292188361</v>
       </c>
       <c r="I70">
-        <v>871.009167152079</v>
+        <v>829.686817195098</v>
       </c>
       <c r="J70">
-        <v>454.261632986127</v>
+        <v>432.710587511304</v>
       </c>
       <c r="K70">
-        <v>81.2060942015421</v>
+        <v>77.3535209224256</v>
       </c>
       <c r="L70">
-        <v>279.868287819595</v>
+        <v>266.590798021232</v>
       </c>
       <c r="M70">
-        <v>465.288189556993</v>
+        <v>443.214023032903</v>
       </c>
       <c r="N70">
-        <v>566.76992019061</v>
+        <v>539.8812652023011</v>
       </c>
       <c r="O70">
-        <v>33883.002810065</v>
+        <v>32275.527995203</v>
       </c>
       <c r="P70">
-        <v>38677.662013922</v>
+        <v>36842.7193456572</v>
       </c>
     </row>
     <row r="71">
@@ -4034,49 +4034,49 @@
         </is>
       </c>
       <c r="B71">
-        <v>251786.7635742</v>
+        <v>290863.425482307</v>
       </c>
       <c r="C71">
-        <v>8418.78471317314</v>
+        <v>8388.059355154281</v>
       </c>
       <c r="D71">
-        <v>15015.113191172</v>
+        <v>14960.3137463341</v>
       </c>
       <c r="E71">
-        <v>6119.95264707288</v>
+        <v>6097.61715061512</v>
       </c>
       <c r="F71">
-        <v>2317.28125169635</v>
+        <v>2308.82405763396</v>
       </c>
       <c r="G71">
-        <v>1829.49230250906</v>
+        <v>1822.81535234316</v>
       </c>
       <c r="H71">
-        <v>635.332833498911</v>
+        <v>633.014110614854</v>
       </c>
       <c r="I71">
-        <v>4093.94842609743</v>
+        <v>4079.00707346898</v>
       </c>
       <c r="J71">
-        <v>3352.25572548567</v>
+        <v>3340.02126875047</v>
       </c>
       <c r="K71">
-        <v>1256.42150619252</v>
+        <v>1251.83604618664</v>
       </c>
       <c r="L71">
-        <v>1000.35399156995</v>
+        <v>996.70308047248</v>
       </c>
       <c r="M71">
-        <v>1139.81094652411</v>
+        <v>1135.65107065141</v>
       </c>
       <c r="N71">
-        <v>4476.27188694123</v>
+        <v>4459.93519928359</v>
       </c>
       <c r="O71">
-        <v>104838.000122861</v>
+        <v>104455.381348596</v>
       </c>
       <c r="P71">
-        <v>237732.958604254</v>
+        <v>236865.323842841</v>
       </c>
     </row>
     <row r="72">
@@ -4086,49 +4086,49 @@
         </is>
       </c>
       <c r="B72">
-        <v>639.229943901315</v>
+        <v>876.421246922156</v>
       </c>
       <c r="C72">
-        <v>43.1131004974786</v>
+        <v>45.4090657358386</v>
       </c>
       <c r="D72">
-        <v>5.61042190452474</v>
+        <v>5.90920193928647</v>
       </c>
       <c r="E72">
-        <v>27.5456073533407</v>
+        <v>29.0125340234949</v>
       </c>
       <c r="F72">
-        <v>16.2997123628464</v>
+        <v>17.167744876132</v>
       </c>
       <c r="G72">
-        <v>23.8759494798103</v>
+        <v>25.1474504715261</v>
       </c>
       <c r="H72">
-        <v>9.2767693063605</v>
+        <v>9.770798722151071</v>
       </c>
       <c r="I72">
-        <v>11.4178168748817</v>
+        <v>12.0258666402709</v>
       </c>
       <c r="J72">
-        <v>18.5791947683546</v>
+        <v>19.5686199048594</v>
       </c>
       <c r="K72">
-        <v>11.6131347048667</v>
+        <v>12.2315860174167</v>
       </c>
       <c r="L72">
-        <v>53.6437109581915</v>
+        <v>56.5004782561928</v>
       </c>
       <c r="M72">
-        <v>8.33990581677177</v>
+        <v>8.7840430656719</v>
       </c>
       <c r="N72">
-        <v>3.45966556465447</v>
+        <v>3.64390821436283</v>
       </c>
       <c r="O72">
-        <v>1276.24808201771</v>
+        <v>1344.21399488468</v>
       </c>
       <c r="P72">
-        <v>96.20892839020389</v>
+        <v>101.332483705292</v>
       </c>
     </row>
     <row r="73">
@@ -4138,49 +4138,49 @@
         </is>
       </c>
       <c r="B73">
-        <v>14045.5930401205</v>
+        <v>22838.2011555882</v>
       </c>
       <c r="C73">
-        <v>446.122207333519</v>
+        <v>457.060223947773</v>
       </c>
       <c r="D73">
-        <v>683.469810989576</v>
+        <v>700.227112072228</v>
       </c>
       <c r="E73">
-        <v>407.598865509343</v>
+        <v>417.59236749065</v>
       </c>
       <c r="F73">
-        <v>60.980076631633</v>
+        <v>62.4751851027445</v>
       </c>
       <c r="G73">
-        <v>192.434134041141</v>
+        <v>197.152230833212</v>
       </c>
       <c r="H73">
-        <v>183.031517434767</v>
+        <v>187.519081034435</v>
       </c>
       <c r="I73">
-        <v>232.326788963332</v>
+        <v>238.02297318336</v>
       </c>
       <c r="J73">
-        <v>829.256012158315</v>
+        <v>849.587696816363</v>
       </c>
       <c r="K73">
-        <v>597.385660894321</v>
+        <v>612.0323522640121</v>
       </c>
       <c r="L73">
-        <v>443.840018836826</v>
+        <v>454.72208079273</v>
       </c>
       <c r="M73">
-        <v>258.343737825631</v>
+        <v>264.677805150849</v>
       </c>
       <c r="N73">
-        <v>297.779955048483</v>
+        <v>305.080918869989</v>
       </c>
       <c r="O73">
-        <v>15742.6275377272</v>
+        <v>16128.6050092117</v>
       </c>
       <c r="P73">
-        <v>948.203676605947</v>
+        <v>971.451718057196</v>
       </c>
     </row>
     <row r="74">
@@ -4190,49 +4190,49 @@
         </is>
       </c>
       <c r="B74">
-        <v>23414.50526073</v>
+        <v>38852.2496599477</v>
       </c>
       <c r="C74">
-        <v>1495.57276774371</v>
+        <v>1446.34953810474</v>
       </c>
       <c r="D74">
-        <v>649.075488986392</v>
+        <v>627.712709095979</v>
       </c>
       <c r="E74">
-        <v>1235.15295232776</v>
+        <v>1194.50082310813</v>
       </c>
       <c r="F74">
-        <v>78.54786961347089</v>
+        <v>75.9626528276177</v>
       </c>
       <c r="G74">
-        <v>451.818630129293</v>
+        <v>436.948091787269</v>
       </c>
       <c r="H74">
-        <v>716.976160119685</v>
+        <v>693.378590722589</v>
       </c>
       <c r="I74">
-        <v>374.94373674876</v>
+        <v>362.603353148755</v>
       </c>
       <c r="J74">
-        <v>1863.00145912814</v>
+        <v>1801.68518577906</v>
       </c>
       <c r="K74">
-        <v>1164.48549872483</v>
+        <v>1126.15922109311</v>
       </c>
       <c r="L74">
-        <v>1796.20121193287</v>
+        <v>1737.08351024715</v>
       </c>
       <c r="M74">
-        <v>1320.61156116035</v>
+        <v>1277.1467645681</v>
       </c>
       <c r="N74">
-        <v>268.250912736933</v>
+        <v>259.422070327323</v>
       </c>
       <c r="O74">
-        <v>46833.8233670406</v>
+        <v>45292.3991767989</v>
       </c>
       <c r="P74">
-        <v>3361.93202128855</v>
+        <v>3251.28200446311</v>
       </c>
     </row>
     <row r="75">
@@ -4242,49 +4242,49 @@
         </is>
       </c>
       <c r="B75">
-        <v>10603.1768212441</v>
+        <v>11947.3119217382</v>
       </c>
       <c r="C75">
-        <v>233.926723585459</v>
+        <v>237.331378304783</v>
       </c>
       <c r="D75">
-        <v>338.157436349902</v>
+        <v>343.079102818344</v>
       </c>
       <c r="E75">
-        <v>242.639199853489</v>
+        <v>246.170659125059</v>
       </c>
       <c r="F75">
-        <v>75.5657151905322</v>
+        <v>76.66552612662009</v>
       </c>
       <c r="G75">
-        <v>188.44557670908</v>
+        <v>191.188282254836</v>
       </c>
       <c r="H75">
-        <v>263.89218181249</v>
+        <v>267.732964722751</v>
       </c>
       <c r="I75">
-        <v>122.885679405781</v>
+        <v>124.674202332591</v>
       </c>
       <c r="J75">
-        <v>473.509434829932</v>
+        <v>480.401063572592</v>
       </c>
       <c r="K75">
-        <v>418.305689593503</v>
+        <v>424.393862925585</v>
       </c>
       <c r="L75">
-        <v>826.134065220545</v>
+        <v>838.157921241935</v>
       </c>
       <c r="M75">
-        <v>516.310661927615</v>
+        <v>523.8252353154931</v>
       </c>
       <c r="N75">
-        <v>118.769805909951</v>
+        <v>120.49842491511</v>
       </c>
       <c r="O75">
-        <v>13798.7606314891</v>
+        <v>13999.5928185293</v>
       </c>
       <c r="P75">
-        <v>1628.6971981226</v>
+        <v>1652.40185023308</v>
       </c>
     </row>
     <row r="76">
@@ -4294,49 +4294,49 @@
         </is>
       </c>
       <c r="B76">
-        <v>537.31984196599</v>
+        <v>958.18560983198</v>
       </c>
       <c r="C76">
-        <v>48.1295839976808</v>
+        <v>44.2228600833009</v>
       </c>
       <c r="D76">
-        <v>55.4982606174808</v>
+        <v>50.9934142433412</v>
       </c>
       <c r="E76">
-        <v>42.1600231917669</v>
+        <v>38.7378541814961</v>
       </c>
       <c r="F76">
-        <v>7.64849978257722</v>
+        <v>7.02766381168738</v>
       </c>
       <c r="G76">
-        <v>4.94354254239745</v>
+        <v>4.54227051243207</v>
       </c>
       <c r="H76">
-        <v>9.887085084794901</v>
+        <v>9.084541024864141</v>
       </c>
       <c r="I76">
-        <v>11.5660240614582</v>
+        <v>10.6271989347467</v>
       </c>
       <c r="J76">
-        <v>14.2709813016379</v>
+        <v>13.112592234002</v>
       </c>
       <c r="K76">
-        <v>8.67451804609364</v>
+        <v>7.97039920106005</v>
       </c>
       <c r="L76">
-        <v>13.6180605884911</v>
+        <v>12.5126697134921</v>
       </c>
       <c r="M76">
-        <v>7.64849978257718</v>
+        <v>7.02766381168735</v>
       </c>
       <c r="N76">
-        <v>24.1580663864328</v>
+        <v>22.1971332588662</v>
       </c>
       <c r="O76">
-        <v>867.3585302217711</v>
+        <v>796.954216888789</v>
       </c>
       <c r="P76">
-        <v>171.43832439484</v>
+        <v>157.522513242456</v>
       </c>
     </row>
     <row r="77">
@@ -4346,49 +4346,49 @@
         </is>
       </c>
       <c r="B77">
-        <v>22033.3490679268</v>
+        <v>22930.4393534588</v>
       </c>
       <c r="C77">
-        <v>1277.81727426682</v>
+        <v>1307.4644990408</v>
       </c>
       <c r="D77">
-        <v>1048.34092008021</v>
+        <v>1072.66395868932</v>
       </c>
       <c r="E77">
-        <v>393.665624644118</v>
+        <v>402.799241394065</v>
       </c>
       <c r="F77">
-        <v>269.91062725415</v>
+        <v>276.172947537528</v>
       </c>
       <c r="G77">
-        <v>274.730120995781</v>
+        <v>281.104260564382</v>
       </c>
       <c r="H77">
-        <v>306.670307334587</v>
+        <v>313.785505818872</v>
       </c>
       <c r="I77">
-        <v>265.695058574338</v>
+        <v>271.8595715149</v>
       </c>
       <c r="J77">
-        <v>383.588756761721</v>
+        <v>392.488575477205</v>
       </c>
       <c r="K77">
-        <v>267.557901613977</v>
+        <v>273.765635230473</v>
       </c>
       <c r="L77">
-        <v>904.610385830082</v>
+        <v>925.598666378233</v>
       </c>
       <c r="M77">
-        <v>835.0244099700821</v>
+        <v>854.398194370008</v>
       </c>
       <c r="N77">
-        <v>403.709346748865</v>
+        <v>413.075992502883</v>
       </c>
       <c r="O77">
-        <v>23100.8482268845</v>
+        <v>23636.821604021</v>
       </c>
       <c r="P77">
-        <v>5765.57241495465</v>
+        <v>5899.34210548801</v>
       </c>
     </row>
     <row r="78">
@@ -4398,49 +4398,49 @@
         </is>
       </c>
       <c r="B78">
-        <v>2622.26180700955</v>
+        <v>4459.92342547271</v>
       </c>
       <c r="C78">
-        <v>133.741978540411</v>
+        <v>134.316618827506</v>
       </c>
       <c r="D78">
-        <v>21.2277219036577</v>
+        <v>21.3189296481685</v>
       </c>
       <c r="E78">
-        <v>124.904810779537</v>
+        <v>125.441480994149</v>
       </c>
       <c r="F78">
-        <v>13.5316117133049</v>
+        <v>13.589752091701</v>
       </c>
       <c r="G78">
-        <v>65.4627525390469</v>
+        <v>65.7440220052503</v>
       </c>
       <c r="H78">
-        <v>32.6788085285316</v>
+        <v>32.8192173973078</v>
       </c>
       <c r="I78">
-        <v>29.4196085870349</v>
+        <v>29.5460138676294</v>
       </c>
       <c r="J78">
-        <v>116.339644907833</v>
+        <v>116.839513742434</v>
       </c>
       <c r="K78">
-        <v>86.5245725812257</v>
+        <v>86.8963369724171</v>
       </c>
       <c r="L78">
-        <v>82.0027823102175</v>
+        <v>82.3551182251155</v>
       </c>
       <c r="M78">
-        <v>47.3890950949022</v>
+        <v>47.5927086761254</v>
       </c>
       <c r="N78">
-        <v>146.718011926903</v>
+        <v>147.348405475852</v>
       </c>
       <c r="O78">
-        <v>6444.96226655489</v>
+        <v>6472.65390838332</v>
       </c>
       <c r="P78">
-        <v>252.320334032504</v>
+        <v>253.404462073457</v>
       </c>
     </row>
     <row r="79">
@@ -4450,49 +4450,49 @@
         </is>
       </c>
       <c r="B79">
-        <v>7420.72605826104</v>
+        <v>11600.1439822096</v>
       </c>
       <c r="C79">
-        <v>552.361342654836</v>
+        <v>531.947154240623</v>
       </c>
       <c r="D79">
-        <v>386.695527471543</v>
+        <v>372.404021627205</v>
       </c>
       <c r="E79">
-        <v>382.649704221565</v>
+        <v>368.507724044101</v>
       </c>
       <c r="F79">
-        <v>265.214360939321</v>
+        <v>255.412559987161</v>
       </c>
       <c r="G79">
-        <v>127.762839472977</v>
+        <v>123.040976308548</v>
       </c>
       <c r="H79">
-        <v>160.874708703056</v>
+        <v>154.929096001847</v>
       </c>
       <c r="I79">
-        <v>167.795195841176</v>
+        <v>161.593815551893</v>
       </c>
       <c r="J79">
-        <v>434.925999372591</v>
+        <v>418.851990183682</v>
       </c>
       <c r="K79">
-        <v>197.074179887066</v>
+        <v>189.790705955935</v>
       </c>
       <c r="L79">
-        <v>195.583613426548</v>
+        <v>188.355227899002</v>
       </c>
       <c r="M79">
-        <v>273.306007439276</v>
+        <v>263.205155153369</v>
       </c>
       <c r="N79">
-        <v>275.861264228735</v>
+        <v>265.66597467954</v>
       </c>
       <c r="O79">
-        <v>8396.041464999549</v>
+        <v>8085.74029226316</v>
       </c>
       <c r="P79">
-        <v>2438.35379134176</v>
+        <v>2348.23703284864</v>
       </c>
     </row>
     <row r="80">
@@ -4502,49 +4502,49 @@
         </is>
       </c>
       <c r="B80">
-        <v>1886.54090141022</v>
+        <v>2903.43039612068</v>
       </c>
       <c r="C80">
-        <v>109.7388199335</v>
+        <v>112.28416811916</v>
       </c>
       <c r="D80">
-        <v>245.514090993577</v>
+        <v>251.208692470459</v>
       </c>
       <c r="E80">
-        <v>101.63859069412</v>
+        <v>103.996057291384</v>
       </c>
       <c r="F80">
-        <v>22.4684930092315</v>
+        <v>22.9896407484749</v>
       </c>
       <c r="G80">
-        <v>21.3113174036059</v>
+        <v>21.8056249159354</v>
       </c>
       <c r="H80">
-        <v>25.9400198261085</v>
+        <v>26.5416882460933</v>
       </c>
       <c r="I80">
-        <v>59.8838375911278</v>
+        <v>61.272819333918</v>
       </c>
       <c r="J80">
-        <v>94.1169492575535</v>
+        <v>96.29995437987751</v>
       </c>
       <c r="K80">
-        <v>43.490516511431</v>
+        <v>44.4992617062754</v>
       </c>
       <c r="L80">
-        <v>43.7798104128374</v>
+        <v>44.7952656644102</v>
       </c>
       <c r="M80">
-        <v>37.2224819809587</v>
+        <v>38.0858426133532</v>
       </c>
       <c r="N80">
-        <v>64.9946965159745</v>
+        <v>66.5022225943007</v>
       </c>
       <c r="O80">
-        <v>3233.7272299209</v>
+        <v>3308.73224403157</v>
       </c>
       <c r="P80">
-        <v>565.473145949072</v>
+        <v>578.589070167625</v>
       </c>
     </row>
     <row r="81">
@@ -4554,49 +4554,49 @@
         </is>
       </c>
       <c r="B81">
-        <v>4714.01807932376</v>
+        <v>7209.420283496</v>
       </c>
       <c r="C81">
-        <v>251.232845578722</v>
+        <v>212.470536561917</v>
       </c>
       <c r="D81">
-        <v>650.640608433804</v>
+        <v>550.25432229794</v>
       </c>
       <c r="E81">
-        <v>216.375016888217</v>
+        <v>182.990865827804</v>
       </c>
       <c r="F81">
-        <v>191.076860280058</v>
+        <v>161.59592084686</v>
       </c>
       <c r="G81">
-        <v>57.8243579615063</v>
+        <v>48.9027313850167</v>
       </c>
       <c r="H81">
-        <v>30.5443181167634</v>
+        <v>25.831684723537</v>
       </c>
       <c r="I81">
-        <v>81.4903754336551</v>
+        <v>68.9173573349328</v>
       </c>
       <c r="J81">
-        <v>235.028035585477</v>
+        <v>198.765940468132</v>
       </c>
       <c r="K81">
-        <v>172.540422949656</v>
+        <v>145.919440423034</v>
       </c>
       <c r="L81">
-        <v>178.36949129255</v>
+        <v>150.849151248136</v>
       </c>
       <c r="M81">
-        <v>171.724353381651</v>
+        <v>145.229280907519</v>
       </c>
       <c r="N81">
-        <v>166.478191873046</v>
+        <v>140.792541164927</v>
       </c>
       <c r="O81">
-        <v>4453.87453943828</v>
+        <v>3766.69344724431</v>
       </c>
       <c r="P81">
-        <v>3324.90058278661</v>
+        <v>2811.90705463846</v>
       </c>
     </row>
     <row r="82">
@@ -4606,49 +4606,49 @@
         </is>
       </c>
       <c r="B82">
-        <v>41825.922563658</v>
+        <v>69646.04109847</v>
       </c>
       <c r="C82">
-        <v>3400.25775574747</v>
+        <v>3419.73422739452</v>
       </c>
       <c r="D82">
-        <v>1277.81874343092</v>
+        <v>1285.13801223765</v>
       </c>
       <c r="E82">
-        <v>1570.42221656179</v>
+        <v>1579.4175004408</v>
       </c>
       <c r="F82">
-        <v>1648.46683623873</v>
+        <v>1657.90915499908</v>
       </c>
       <c r="G82">
-        <v>688.925547800747</v>
+        <v>692.871671848545</v>
       </c>
       <c r="H82">
-        <v>850.124622670406</v>
+        <v>854.994085310969</v>
       </c>
       <c r="I82">
-        <v>632.7559014116609</v>
+        <v>636.380289107716</v>
       </c>
       <c r="J82">
-        <v>2320.31720504608</v>
+        <v>2333.60784225729</v>
       </c>
       <c r="K82">
-        <v>912.299667608587</v>
+        <v>917.525265162113</v>
       </c>
       <c r="L82">
-        <v>1661.63007474038</v>
+        <v>1671.14779173811</v>
       </c>
       <c r="M82">
-        <v>1006.50309015918</v>
+        <v>1012.26827924374</v>
       </c>
       <c r="N82">
-        <v>848.6913474466151</v>
+        <v>853.552600373015</v>
       </c>
       <c r="O82">
-        <v>68814.8868667034</v>
+        <v>69209.05439435291</v>
       </c>
       <c r="P82">
-        <v>12383.5801191993</v>
+        <v>12454.5125203306</v>
       </c>
     </row>
     <row r="83">
@@ -4658,49 +4658,49 @@
         </is>
       </c>
       <c r="B83">
-        <v>26577.6659160076</v>
+        <v>41098.1081671785</v>
       </c>
       <c r="C83">
-        <v>1733.68703220342</v>
+        <v>1733.40365868296</v>
       </c>
       <c r="D83">
-        <v>796.557610514517</v>
+        <v>796.427412081843</v>
       </c>
       <c r="E83">
-        <v>978.727859622806</v>
+        <v>978.567885213354</v>
       </c>
       <c r="F83">
-        <v>1136.89770824508</v>
+        <v>1136.71188075718</v>
       </c>
       <c r="G83">
-        <v>562.051034831184</v>
+        <v>561.959166819566</v>
       </c>
       <c r="H83">
-        <v>272.228304326142</v>
+        <v>272.183808236864</v>
       </c>
       <c r="I83">
-        <v>659.620897566186</v>
+        <v>659.513081626839</v>
       </c>
       <c r="J83">
-        <v>1186.18873633304</v>
+        <v>1185.99485215908</v>
       </c>
       <c r="K83">
-        <v>1688.49465289284</v>
+        <v>1688.21866612869</v>
       </c>
       <c r="L83">
-        <v>858.028404420662</v>
+        <v>857.888158502514</v>
       </c>
       <c r="M83">
-        <v>1137.48177308036</v>
+        <v>1137.29585012627</v>
       </c>
       <c r="N83">
-        <v>454.435397754316</v>
+        <v>454.361119666004</v>
       </c>
       <c r="O83">
-        <v>36646.3729110046</v>
+        <v>36640.383011149</v>
       </c>
       <c r="P83">
-        <v>16615.5714379623</v>
+        <v>16612.8556000485</v>
       </c>
     </row>
     <row r="84">
@@ -4710,49 +4710,49 @@
         </is>
       </c>
       <c r="B84">
-        <v>798.646653351741</v>
+        <v>1268.49626335188</v>
       </c>
       <c r="C84">
-        <v>44.8078767508154</v>
+        <v>44.3204258981948</v>
       </c>
       <c r="D84">
-        <v>67.5935598057735</v>
+        <v>66.85823064607639</v>
       </c>
       <c r="E84">
-        <v>56.9542118290778</v>
+        <v>56.3346248026536</v>
       </c>
       <c r="F84">
-        <v>11.1010591227853</v>
+        <v>10.9802941786107</v>
       </c>
       <c r="G84">
-        <v>12.6223259505197</v>
+        <v>12.4850116211474</v>
       </c>
       <c r="H84">
-        <v>22.2839886755989</v>
+        <v>22.0415681444919</v>
       </c>
       <c r="I84">
-        <v>24.1908081098617</v>
+        <v>23.9276438875463</v>
       </c>
       <c r="J84">
-        <v>74.73818279835589</v>
+        <v>73.9251295235718</v>
       </c>
       <c r="K84">
-        <v>48.6624508343552</v>
+        <v>48.1330672779388</v>
       </c>
       <c r="L84">
-        <v>75.8996005266637</v>
+        <v>75.0739125522919</v>
       </c>
       <c r="M84">
-        <v>35.3537460460404</v>
+        <v>34.9691437193265</v>
       </c>
       <c r="N84">
-        <v>26.6297853393082</v>
+        <v>26.3400882478585</v>
       </c>
       <c r="O84">
-        <v>1271.57534389264</v>
+        <v>1257.7422741179</v>
       </c>
       <c r="P84">
-        <v>80.7080603182072</v>
+        <v>79.8300626162798</v>
       </c>
     </row>
     <row r="85">
@@ -4762,49 +4762,49 @@
         </is>
       </c>
       <c r="B85">
-        <v>409.325353972837</v>
+        <v>602.481724365502</v>
       </c>
       <c r="C85">
-        <v>18.7099289795609</v>
+        <v>19.3327236968506</v>
       </c>
       <c r="D85">
-        <v>25.895562798457</v>
+        <v>26.7575446760868</v>
       </c>
       <c r="E85">
-        <v>26.0309937273827</v>
+        <v>26.8974836748819</v>
       </c>
       <c r="F85">
-        <v>3.91483073685756</v>
+        <v>4.0451431450266</v>
       </c>
       <c r="G85">
-        <v>13.3306904284931</v>
+        <v>13.7744272051403</v>
       </c>
       <c r="H85">
-        <v>13.712625134528</v>
+        <v>14.1690753168503</v>
       </c>
       <c r="I85">
-        <v>9.686721549486791</v>
+        <v>10.0091620577039</v>
       </c>
       <c r="J85">
-        <v>42.15701750183</v>
+        <v>43.5602920853685</v>
       </c>
       <c r="K85">
-        <v>25.8780249803228</v>
+        <v>26.7394230791206</v>
       </c>
       <c r="L85">
-        <v>27.4632488750135</v>
+        <v>28.3774140937941</v>
       </c>
       <c r="M85">
-        <v>11.1803590605875</v>
+        <v>11.5525180659981</v>
       </c>
       <c r="N85">
-        <v>15.6885526443207</v>
+        <v>16.2107752417168</v>
       </c>
       <c r="O85">
-        <v>528.711628970153</v>
+        <v>546.3107769867991</v>
       </c>
       <c r="P85">
-        <v>86.8268146130069</v>
+        <v>89.717006313849</v>
       </c>
     </row>
     <row r="86">
@@ -4814,49 +4814,49 @@
         </is>
       </c>
       <c r="B86">
-        <v>1064.84117216285</v>
+        <v>2353.51298444352</v>
       </c>
       <c r="C86">
-        <v>57.8931027793369</v>
+        <v>58.7470673565055</v>
       </c>
       <c r="D86">
-        <v>10.5700974923747</v>
+        <v>10.7260139729633</v>
       </c>
       <c r="E86">
-        <v>117.434752873998</v>
+        <v>119.166999277602</v>
       </c>
       <c r="F86">
-        <v>11.1519377213128</v>
+        <v>11.3164367604659</v>
       </c>
       <c r="G86">
-        <v>36.7529077945874</v>
+        <v>37.2950394105788</v>
       </c>
       <c r="H86">
-        <v>22.8857156715636</v>
+        <v>23.2232963084343</v>
       </c>
       <c r="I86">
-        <v>17.0673133821831</v>
+        <v>17.3190684334086</v>
       </c>
       <c r="J86">
-        <v>108.901096182907</v>
+        <v>110.507465060897</v>
       </c>
       <c r="K86">
-        <v>98.13705194755261</v>
+        <v>99.5846434920997</v>
       </c>
       <c r="L86">
-        <v>75.833176504927</v>
+        <v>76.95176997116801</v>
       </c>
       <c r="M86">
-        <v>95.61574428882101</v>
+        <v>97.0261447462553</v>
       </c>
       <c r="N86">
-        <v>44.3168307707822</v>
+        <v>44.9705356481122</v>
       </c>
       <c r="O86">
-        <v>3208.17004899297</v>
+        <v>3255.49284649124</v>
       </c>
       <c r="P86">
-        <v>93.8702236020068</v>
+        <v>95.2548763837476</v>
       </c>
     </row>
     <row r="87">
@@ -4866,49 +4866,49 @@
         </is>
       </c>
       <c r="B87">
-        <v>17449.7489302017</v>
+        <v>21631.0147278478</v>
       </c>
       <c r="C87">
-        <v>520.590171195065</v>
+        <v>480.692503946403</v>
       </c>
       <c r="D87">
-        <v>1313.14141857897</v>
+        <v>1212.50317708349</v>
       </c>
       <c r="E87">
-        <v>272.239059723961</v>
+        <v>251.374848261764</v>
       </c>
       <c r="F87">
-        <v>133.917510755017</v>
+        <v>123.654166230844</v>
       </c>
       <c r="G87">
-        <v>134.197716316088</v>
+        <v>123.912897033353</v>
       </c>
       <c r="H87">
-        <v>195.830859100584</v>
+        <v>180.822518786592</v>
       </c>
       <c r="I87">
-        <v>261.753334421446</v>
+        <v>241.692741625387</v>
       </c>
       <c r="J87">
-        <v>449.901598280391</v>
+        <v>415.421453905736</v>
       </c>
       <c r="K87">
-        <v>290.309542487596</v>
+        <v>268.060421843054</v>
       </c>
       <c r="L87">
-        <v>170.532804423752</v>
+        <v>157.463289357301</v>
       </c>
       <c r="M87">
-        <v>266.252319344637</v>
+        <v>245.846927485219</v>
       </c>
       <c r="N87">
-        <v>283.046252019607</v>
+        <v>261.353784885363</v>
       </c>
       <c r="O87">
-        <v>9065.01935141837</v>
+        <v>8370.28259744678</v>
       </c>
       <c r="P87">
-        <v>5856.83793091877</v>
+        <v>5407.97396108868</v>
       </c>
     </row>
     <row r="88">

--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1485.18786951803</v>
+        <v>1466.70451053723</v>
       </c>
       <c r="C2">
-        <v>34.6594171592421</v>
+        <v>23.0643366283959</v>
       </c>
       <c r="D2">
-        <v>57.3585587501701</v>
+        <v>19.0186522409454</v>
       </c>
       <c r="E2">
-        <v>49.776626321225</v>
+        <v>42.1134398251911</v>
       </c>
       <c r="F2">
-        <v>14.3459822816445</v>
+        <v>25.0261524566338</v>
       </c>
       <c r="G2">
-        <v>14.2646648556722</v>
+        <v>16.7216973556521</v>
       </c>
       <c r="H2">
-        <v>15.3379005016967</v>
+        <v>8.08792261593484</v>
       </c>
       <c r="I2">
-        <v>14.5729744244081</v>
+        <v>14.7234702658182</v>
       </c>
       <c r="J2">
-        <v>53.8640314120675</v>
+        <v>73.5824948061137</v>
       </c>
       <c r="K2">
-        <v>19.1304877157173</v>
+        <v>9.45693633428375</v>
       </c>
       <c r="L2">
-        <v>29.9791418066356</v>
+        <v>50.9144179691135</v>
       </c>
       <c r="M2">
-        <v>45.6425263908342</v>
+        <v>36.7194403650245</v>
       </c>
       <c r="N2">
-        <v>34.9827240096745</v>
+        <v>27.4668993012997</v>
       </c>
       <c r="O2">
-        <v>1309.93129825263</v>
+        <v>1370.07193646492</v>
       </c>
       <c r="P2">
-        <v>30.3739551534792</v>
+        <v>20.2615613802259</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>125.885381955403</v>
+        <v>121.608215356798</v>
       </c>
       <c r="C3">
-        <v>5.18609235290472</v>
+        <v>1.10884204787767</v>
       </c>
       <c r="D3">
-        <v>0.424118875207953</v>
+        <v>0.220608513637493</v>
       </c>
       <c r="E3">
-        <v>1.74987387279173</v>
+        <v>0.733157681110835</v>
       </c>
       <c r="F3">
-        <v>6.59066038908503</v>
+        <v>7.17686942837522</v>
       </c>
       <c r="G3">
-        <v>0.244667363683344</v>
+        <v>0.243637959216343</v>
       </c>
       <c r="H3">
-        <v>0.07140362811816919</v>
+        <v>0.00804572272957914</v>
       </c>
       <c r="I3">
-        <v>0.320810210011817</v>
+        <v>0.384372918462392</v>
       </c>
       <c r="J3">
-        <v>0.583291290930578</v>
+        <v>0.01939582079011</v>
       </c>
       <c r="K3">
-        <v>0.06620001541763169</v>
+        <v>0.164113988812025</v>
       </c>
       <c r="L3">
-        <v>0.349974774558347</v>
+        <v>0.206131963593612</v>
       </c>
       <c r="M3">
-        <v>0.641620420023636</v>
+        <v>0.254924255165679</v>
       </c>
       <c r="N3">
-        <v>0.641620420023636</v>
+        <v>0.5047677026740181</v>
       </c>
       <c r="O3">
-        <v>185.739173290604</v>
+        <v>201.157198767674</v>
       </c>
       <c r="P3">
-        <v>5.50692892347081</v>
+        <v>7.0210208645747</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1782.68828903111</v>
+        <v>1669.55064274742</v>
       </c>
       <c r="C4">
-        <v>13.4030496639299</v>
+        <v>13.0633465553369</v>
       </c>
       <c r="D4">
-        <v>4.14340150055778</v>
+        <v>2.25164401282588</v>
       </c>
       <c r="E4">
-        <v>19.5873818183215</v>
+        <v>12.7505499300546</v>
       </c>
       <c r="F4">
-        <v>20.0304476782957</v>
+        <v>13.995760005198</v>
       </c>
       <c r="G4">
-        <v>9.05920771670967</v>
+        <v>4.18198359469146</v>
       </c>
       <c r="H4">
-        <v>6.98360831564852</v>
+        <v>4.989466814017</v>
       </c>
       <c r="I4">
-        <v>9.80823374865154</v>
+        <v>6.78491607625058</v>
       </c>
       <c r="J4">
-        <v>23.3963957482639</v>
+        <v>28.7537626895907</v>
       </c>
       <c r="K4">
-        <v>10.5521721684732</v>
+        <v>4.29754609604301</v>
       </c>
       <c r="L4">
-        <v>61.7886677572635</v>
+        <v>51.0205794750711</v>
       </c>
       <c r="M4">
-        <v>49.3872170587588</v>
+        <v>38.9060809842972</v>
       </c>
       <c r="N4">
-        <v>25.4121222511241</v>
+        <v>31.5646320675716</v>
       </c>
       <c r="O4">
-        <v>1907.55719730048</v>
+        <v>2066.39265296732</v>
       </c>
       <c r="P4">
-        <v>20.6713650740682</v>
+        <v>31.7754827207457</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>899.798254600108</v>
+        <v>882.437695599625</v>
       </c>
       <c r="C5">
-        <v>58.4306390275529</v>
+        <v>33.8510501424888</v>
       </c>
       <c r="D5">
-        <v>11.1128509140914</v>
+        <v>10.7299018047593</v>
       </c>
       <c r="E5">
-        <v>45.1509980355601</v>
+        <v>21.9085509164695</v>
       </c>
       <c r="F5">
-        <v>5.74282809205453</v>
+        <v>7.51066571557358</v>
       </c>
       <c r="G5">
-        <v>9.04801018669321</v>
+        <v>4.10768868997899</v>
       </c>
       <c r="H5">
-        <v>14.2925869283414</v>
+        <v>9.629588713521169</v>
       </c>
       <c r="I5">
-        <v>6.67994143536038</v>
+        <v>8.166978573285631</v>
       </c>
       <c r="J5">
-        <v>27.1236533233283</v>
+        <v>27.7921173144936</v>
       </c>
       <c r="K5">
-        <v>19.1462191380062</v>
+        <v>3.48693772125497</v>
       </c>
       <c r="L5">
-        <v>16.7821023863147</v>
+        <v>8.724316575949411</v>
       </c>
       <c r="M5">
-        <v>26.1089948093725</v>
+        <v>10.8787815114433</v>
       </c>
       <c r="N5">
-        <v>16.0761889435762</v>
+        <v>20.9815506738901</v>
       </c>
       <c r="O5">
-        <v>772.099244396785</v>
+        <v>885.814873504453</v>
       </c>
       <c r="P5">
-        <v>40.3817322437544</v>
+        <v>38.9919201074771</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9772.835296783611</v>
+        <v>9309.871748226969</v>
       </c>
       <c r="C6">
-        <v>175.794694485417</v>
+        <v>172.283215629931</v>
       </c>
       <c r="D6">
-        <v>156.968370369996</v>
+        <v>22.0755458267706</v>
       </c>
       <c r="E6">
-        <v>182.488586370184</v>
+        <v>139.819626748717</v>
       </c>
       <c r="F6">
-        <v>44.0724013053861</v>
+        <v>38.6649631749357</v>
       </c>
       <c r="G6">
-        <v>89.63354643050219</v>
+        <v>75.3352718711711</v>
       </c>
       <c r="H6">
-        <v>48.7092514095969</v>
+        <v>27.4520339561652</v>
       </c>
       <c r="I6">
-        <v>48.7947300995756</v>
+        <v>30.5292937970457</v>
       </c>
       <c r="J6">
-        <v>144.169133647486</v>
+        <v>109.909805644751</v>
       </c>
       <c r="K6">
-        <v>91.9609794898232</v>
+        <v>39.5617387560616</v>
       </c>
       <c r="L6">
-        <v>457.755814417654</v>
+        <v>338.220740140392</v>
       </c>
       <c r="M6">
-        <v>238.422319475922</v>
+        <v>201.413037704222</v>
       </c>
       <c r="N6">
-        <v>225.87366387304</v>
+        <v>204.144675245693</v>
       </c>
       <c r="O6">
-        <v>10909.5507166133</v>
+        <v>11901.0337853301</v>
       </c>
       <c r="P6">
-        <v>261.618357867352</v>
+        <v>252.107152036591</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1110.10865730265</v>
+        <v>1021.45385348425</v>
       </c>
       <c r="C7">
-        <v>20.3080367495132</v>
+        <v>40.3816356066456</v>
       </c>
       <c r="D7">
-        <v>4.98578420198625</v>
+        <v>3.32804066714251</v>
       </c>
       <c r="E7">
-        <v>20.8150377207007</v>
+        <v>15.8752358706154</v>
       </c>
       <c r="F7">
-        <v>24.3030703410498</v>
+        <v>23.4970712106622</v>
       </c>
       <c r="G7">
-        <v>9.75665788430152</v>
+        <v>12.8959782242335</v>
       </c>
       <c r="H7">
-        <v>6.59014767067625</v>
+        <v>3.99629605005451</v>
       </c>
       <c r="I7">
-        <v>10.7423561821948</v>
+        <v>7.76366234669657</v>
       </c>
       <c r="J7">
-        <v>18.2396054241373</v>
+        <v>16.2210726175825</v>
       </c>
       <c r="K7">
-        <v>11.5939204351135</v>
+        <v>5.3576429072998</v>
       </c>
       <c r="L7">
-        <v>52.8214977837214</v>
+        <v>38.5904371710131</v>
       </c>
       <c r="M7">
-        <v>15.7339665650652</v>
+        <v>10.3319009563699</v>
       </c>
       <c r="N7">
-        <v>21.7175502782609</v>
+        <v>16.2818848903621</v>
       </c>
       <c r="O7">
-        <v>1709.89316225292</v>
+        <v>1820.84987174433</v>
       </c>
       <c r="P7">
-        <v>45.9822611628942</v>
+        <v>34.0537722562738</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>912.020487910346</v>
+        <v>826.360009206275</v>
       </c>
       <c r="C8">
-        <v>13.369428560143</v>
+        <v>8.97343041970217</v>
       </c>
       <c r="D8">
-        <v>8.02061532585963</v>
+        <v>1.38832241171013</v>
       </c>
       <c r="E8">
-        <v>18.5155039751162</v>
+        <v>19.1454800484484</v>
       </c>
       <c r="F8">
-        <v>1.65300834284282</v>
+        <v>1.3842781575889</v>
       </c>
       <c r="G8">
-        <v>22.8688363369218</v>
+        <v>15.6509269332362</v>
       </c>
       <c r="H8">
-        <v>7.41440699937644</v>
+        <v>6.16136193273507</v>
       </c>
       <c r="I8">
-        <v>3.38411344313678</v>
+        <v>7.26013104811274</v>
       </c>
       <c r="J8">
-        <v>38.9985624500549</v>
+        <v>32.2621389145019</v>
       </c>
       <c r="K8">
-        <v>23.6555233360126</v>
+        <v>9.445747164114289</v>
       </c>
       <c r="L8">
-        <v>35.9366811738084</v>
+        <v>27.5791147907168</v>
       </c>
       <c r="M8">
-        <v>50.533874230031</v>
+        <v>37.4044247814979</v>
       </c>
       <c r="N8">
-        <v>23.9038694196066</v>
+        <v>26.0038473867928</v>
       </c>
       <c r="O8">
-        <v>1173.96508121427</v>
+        <v>1313.77204032001</v>
       </c>
       <c r="P8">
-        <v>6.7149337611848</v>
+        <v>7.15478194418106</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>251.01246987968</v>
+        <v>225.844303067931</v>
       </c>
       <c r="C9">
-        <v>8.382735530366171</v>
+        <v>7.07979080437552</v>
       </c>
       <c r="D9">
-        <v>1.89397375812455</v>
+        <v>1.25772336817032</v>
       </c>
       <c r="E9">
-        <v>4.57259592603627</v>
+        <v>2.91543407174926</v>
       </c>
       <c r="F9">
-        <v>1.77396395297452</v>
+        <v>0.393105096610279</v>
       </c>
       <c r="G9">
-        <v>13.955406822588</v>
+        <v>15.2374539811874</v>
       </c>
       <c r="H9">
-        <v>3.19217334563933</v>
+        <v>1.7903457702902</v>
       </c>
       <c r="I9">
-        <v>0.912049527325523</v>
+        <v>0.81496420554747</v>
       </c>
       <c r="J9">
-        <v>3.48695367574757</v>
+        <v>3.34308999205606</v>
       </c>
       <c r="K9">
-        <v>1.94966169178166</v>
+        <v>0.12296144301683</v>
       </c>
       <c r="L9">
-        <v>2.10172489701908</v>
+        <v>2.09105532755387</v>
       </c>
       <c r="M9">
-        <v>5.59773793612948</v>
+        <v>3.31137815899703</v>
       </c>
       <c r="N9">
-        <v>4.21578310755174</v>
+        <v>1.86632773554689</v>
       </c>
       <c r="O9">
-        <v>270.933235187459</v>
+        <v>305.932090402441</v>
       </c>
       <c r="P9">
-        <v>2.59825136543079</v>
+        <v>3.69438905978409</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5714.40131846438</v>
+        <v>5522.06327781897</v>
       </c>
       <c r="C10">
-        <v>53.3086531074927</v>
+        <v>58.5268752100804</v>
       </c>
       <c r="D10">
-        <v>20.6763327601026</v>
+        <v>6.33127883915844</v>
       </c>
       <c r="E10">
-        <v>71.4494867422501</v>
+        <v>38.4046987053345</v>
       </c>
       <c r="F10">
-        <v>13.2074208487767</v>
+        <v>5.74310956451585</v>
       </c>
       <c r="G10">
-        <v>31.0559848683748</v>
+        <v>22.5062305372852</v>
       </c>
       <c r="H10">
-        <v>19.8926658939604</v>
+        <v>11.4548013340685</v>
       </c>
       <c r="I10">
-        <v>24.2395448741442</v>
+        <v>17.1496190349111</v>
       </c>
       <c r="J10">
-        <v>43.979255081378</v>
+        <v>44.7453720911358</v>
       </c>
       <c r="K10">
-        <v>36.084268557254</v>
+        <v>5.12329219503783</v>
       </c>
       <c r="L10">
-        <v>74.5281122087634</v>
+        <v>53.7133056329565</v>
       </c>
       <c r="M10">
-        <v>72.4045693191629</v>
+        <v>63.3478595946271</v>
       </c>
       <c r="N10">
-        <v>75.9014296340311</v>
+        <v>76.7622170739804</v>
       </c>
       <c r="O10">
-        <v>6051.1411694064</v>
+        <v>6553.0625950772</v>
       </c>
       <c r="P10">
-        <v>93.6939170854121</v>
+        <v>51.7816826186383</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2473.61813222461</v>
+        <v>2360.04611155279</v>
       </c>
       <c r="C11">
-        <v>74.861882831866</v>
+        <v>69.1518258772166</v>
       </c>
       <c r="D11">
-        <v>101.049500935921</v>
+        <v>89.10153152713281</v>
       </c>
       <c r="E11">
-        <v>75.5281172347315</v>
+        <v>66.6685353985485</v>
       </c>
       <c r="F11">
-        <v>12.2585757868648</v>
+        <v>11.215226983196</v>
       </c>
       <c r="G11">
-        <v>29.0054676056919</v>
+        <v>15.0436377488299</v>
       </c>
       <c r="H11">
-        <v>32.5723345015548</v>
+        <v>21.5475341694101</v>
       </c>
       <c r="I11">
-        <v>18.5805897948114</v>
+        <v>12.16777567439</v>
       </c>
       <c r="J11">
-        <v>33.1143899659248</v>
+        <v>37.0607535617555</v>
       </c>
       <c r="K11">
-        <v>35.4137190969999</v>
+        <v>5.37716172920967</v>
       </c>
       <c r="L11">
-        <v>49.0208925176149</v>
+        <v>28.1412822078055</v>
       </c>
       <c r="M11">
-        <v>70.89592533897159</v>
+        <v>37.1630198750267</v>
       </c>
       <c r="N11">
-        <v>51.220533605533</v>
+        <v>64.5839115128978</v>
       </c>
       <c r="O11">
-        <v>2797.51629736867</v>
+        <v>3030.18283855587</v>
       </c>
       <c r="P11">
-        <v>58.7774810520541</v>
+        <v>43.4009836853432</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>345.353543517093</v>
+        <v>330.024911851976</v>
       </c>
       <c r="C12">
-        <v>4.51813849867207</v>
+        <v>3.99671370946895</v>
       </c>
       <c r="D12">
-        <v>2.07463949970693</v>
+        <v>0.391787701831977</v>
       </c>
       <c r="E12">
-        <v>2.92341890635848</v>
+        <v>1.43015300717941</v>
       </c>
       <c r="F12">
-        <v>0.719208359898402</v>
+        <v>0.381467154937884</v>
       </c>
       <c r="G12">
-        <v>0.442589759937478</v>
+        <v>0.0873436250537542</v>
       </c>
       <c r="H12">
-        <v>0.100694206535946</v>
+        <v>0.212857403677014</v>
       </c>
       <c r="I12">
-        <v>0.995826959859322</v>
+        <v>0.436323869959728</v>
       </c>
       <c r="J12">
-        <v>0.6085609199140321</v>
+        <v>0.924870478747637</v>
       </c>
       <c r="K12">
-        <v>0.457380805759328</v>
+        <v>0.206605701014912</v>
       </c>
       <c r="L12">
-        <v>0.224064079723353</v>
+        <v>0.0727616023322835</v>
       </c>
       <c r="M12">
-        <v>3.2375946863961</v>
+        <v>2.81616153018498</v>
       </c>
       <c r="N12">
-        <v>2.08112420776207</v>
+        <v>3.64968120317264</v>
       </c>
       <c r="O12">
-        <v>436.569860639394</v>
+        <v>458.15720580278</v>
       </c>
       <c r="P12">
-        <v>12.5352602328671</v>
+        <v>14.8072065007594</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>398.941488358939</v>
+        <v>348.059031679085</v>
       </c>
       <c r="C13">
-        <v>18.806222897721</v>
+        <v>16.8228629269757</v>
       </c>
       <c r="D13">
-        <v>0.946328971992544</v>
+        <v>0.44222156342688</v>
       </c>
       <c r="E13">
-        <v>16.6055553047127</v>
+        <v>8.58454652614536</v>
       </c>
       <c r="F13">
-        <v>1.79556341149092</v>
+        <v>3.60820202714778</v>
       </c>
       <c r="G13">
-        <v>5.07303553956053</v>
+        <v>7.62859255948369</v>
       </c>
       <c r="H13">
-        <v>1.84369858510617</v>
+        <v>0.692290160323048</v>
       </c>
       <c r="I13">
-        <v>1.70187561702108</v>
+        <v>2.1428104165536</v>
       </c>
       <c r="J13">
-        <v>5.31881075245975</v>
+        <v>4.27873635966928</v>
       </c>
       <c r="K13">
-        <v>2.55281342553161</v>
+        <v>2.76301435461867</v>
       </c>
       <c r="L13">
-        <v>21.5555840123293</v>
+        <v>16.4015465120801</v>
       </c>
       <c r="M13">
-        <v>2.36376060995375</v>
+        <v>1.85735463946302</v>
       </c>
       <c r="N13">
-        <v>5.62316492424817</v>
+        <v>4.21416550641732</v>
       </c>
       <c r="O13">
-        <v>426.738682822107</v>
+        <v>489.753109176693</v>
       </c>
       <c r="P13">
-        <v>34.092738199892</v>
+        <v>34.4265740979277</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3460.69282438112</v>
+        <v>3369.65152524743</v>
       </c>
       <c r="C14">
-        <v>109.523188773472</v>
+        <v>114.980440589398</v>
       </c>
       <c r="D14">
-        <v>17.8574139128877</v>
+        <v>10.2132703616148</v>
       </c>
       <c r="E14">
-        <v>122.070242667717</v>
+        <v>68.28630221378811</v>
       </c>
       <c r="F14">
-        <v>28.5800875809288</v>
+        <v>17.5904856944312</v>
       </c>
       <c r="G14">
-        <v>69.71374703012469</v>
+        <v>59.5333072395962</v>
       </c>
       <c r="H14">
-        <v>53.8949744488769</v>
+        <v>40.7337108321417</v>
       </c>
       <c r="I14">
-        <v>16.9630467731591</v>
+        <v>22.815839142689</v>
       </c>
       <c r="J14">
-        <v>154.237787754409</v>
+        <v>97.6325371468663</v>
       </c>
       <c r="K14">
-        <v>129.646654115208</v>
+        <v>57.4124640752549</v>
       </c>
       <c r="L14">
-        <v>101.295897486116</v>
+        <v>63.4264025368921</v>
       </c>
       <c r="M14">
-        <v>76.6426710004087</v>
+        <v>69.32706918675331</v>
       </c>
       <c r="N14">
-        <v>69.3419792692592</v>
+        <v>51.5429334590993</v>
       </c>
       <c r="O14">
-        <v>3948.17950839933</v>
+        <v>4313.16760982453</v>
       </c>
       <c r="P14">
-        <v>62.5047092067647</v>
+        <v>59.6063775674829</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1723.1693752224</v>
+        <v>1640.66403275525</v>
       </c>
       <c r="C15">
-        <v>35.6480011187105</v>
+        <v>48.4941648481005</v>
       </c>
       <c r="D15">
-        <v>11.7711575342164</v>
+        <v>3.20943475838823</v>
       </c>
       <c r="E15">
-        <v>65.2620557000627</v>
+        <v>52.5872680717547</v>
       </c>
       <c r="F15">
-        <v>9.56488880808852</v>
+        <v>17.1811008442466</v>
       </c>
       <c r="G15">
-        <v>39.9361150504823</v>
+        <v>47.422870555332</v>
       </c>
       <c r="H15">
-        <v>54.834972297365</v>
+        <v>34.738762010792</v>
       </c>
       <c r="I15">
-        <v>15.3055118594833</v>
+        <v>12.7692370659051</v>
       </c>
       <c r="J15">
-        <v>130.931642730178</v>
+        <v>107.803481088394</v>
       </c>
       <c r="K15">
-        <v>48.4280355062839</v>
+        <v>30.4898181706222</v>
       </c>
       <c r="L15">
-        <v>53.3276777423133</v>
+        <v>32.758899364338</v>
       </c>
       <c r="M15">
-        <v>198.891259691971</v>
+        <v>132.568244327852</v>
       </c>
       <c r="N15">
-        <v>76.49690744086649</v>
+        <v>80.938498540729</v>
       </c>
       <c r="O15">
-        <v>1772.24697575461</v>
+        <v>1986.25574077966</v>
       </c>
       <c r="P15">
-        <v>36.8741111597617</v>
+        <v>36.1993684715599</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>785.186241121823</v>
+        <v>654.955538821798</v>
       </c>
       <c r="C16">
-        <v>52.3209961706763</v>
+        <v>55.8233920007566</v>
       </c>
       <c r="D16">
-        <v>5.42158198843117</v>
+        <v>4.5416817360766</v>
       </c>
       <c r="E16">
-        <v>27.3416510671662</v>
+        <v>22.1469382879603</v>
       </c>
       <c r="F16">
-        <v>3.33510680241323</v>
+        <v>1.60326991025542</v>
       </c>
       <c r="G16">
-        <v>10.3731462945769</v>
+        <v>11.693709251805</v>
       </c>
       <c r="H16">
-        <v>16.2138734524566</v>
+        <v>14.0535376406685</v>
       </c>
       <c r="I16">
-        <v>8.78738860861947</v>
+        <v>4.82881340890752</v>
       </c>
       <c r="J16">
-        <v>42.7622447853902</v>
+        <v>32.8457432967376</v>
       </c>
       <c r="K16">
-        <v>45.4465806455165</v>
+        <v>41.2014172987106</v>
       </c>
       <c r="L16">
-        <v>30.6826825691402</v>
+        <v>13.0149095771813</v>
       </c>
       <c r="M16">
-        <v>28.9753513213335</v>
+        <v>20.4720951640804</v>
       </c>
       <c r="N16">
-        <v>15.6051709144205</v>
+        <v>26.70988509202</v>
       </c>
       <c r="O16">
-        <v>923.8583638580921</v>
+        <v>1070.8206876111</v>
       </c>
       <c r="P16">
-        <v>62.9665180524803</v>
+        <v>71.5101512621566</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>704.366160554857</v>
+        <v>629.138215811283</v>
       </c>
       <c r="C17">
-        <v>34.3535004295852</v>
+        <v>23.5087803409299</v>
       </c>
       <c r="D17">
-        <v>4.95967760448892</v>
+        <v>2.71890103885357</v>
       </c>
       <c r="E17">
-        <v>21.1566322947299</v>
+        <v>19.2283075539913</v>
       </c>
       <c r="F17">
-        <v>16.4654744128281</v>
+        <v>12.502279602944</v>
       </c>
       <c r="G17">
-        <v>8.60248060601379</v>
+        <v>9.058599787964109</v>
       </c>
       <c r="H17">
-        <v>11.5009640087218</v>
+        <v>10.9942266546894</v>
       </c>
       <c r="I17">
-        <v>8.278835727279141</v>
+        <v>4.8863091517254</v>
       </c>
       <c r="J17">
-        <v>17.6746088784669</v>
+        <v>17.0112140459086</v>
       </c>
       <c r="K17">
-        <v>17.101717442423</v>
+        <v>7.41974184226604</v>
       </c>
       <c r="L17">
-        <v>10.0077659960211</v>
+        <v>9.12559909654178</v>
       </c>
       <c r="M17">
-        <v>61.4090850772063</v>
+        <v>57.6918440473024</v>
       </c>
       <c r="N17">
-        <v>13.838708236799</v>
+        <v>7.31342605755136</v>
       </c>
       <c r="O17">
-        <v>848.943059477833</v>
+        <v>974.262705198812</v>
       </c>
       <c r="P17">
-        <v>53.985180232301</v>
+        <v>43.3344116815521</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1379.66106878173</v>
+        <v>1271.54791391638</v>
       </c>
       <c r="C18">
-        <v>34.9825404977775</v>
+        <v>19.9099471098979</v>
       </c>
       <c r="D18">
-        <v>21.1032208862493</v>
+        <v>4.99146904795816</v>
       </c>
       <c r="E18">
-        <v>46.9797839176125</v>
+        <v>28.8169953192216</v>
       </c>
       <c r="F18">
-        <v>25.5246614579492</v>
+        <v>37.1504408649064</v>
       </c>
       <c r="G18">
-        <v>16.1513306603785</v>
+        <v>13.194836293441</v>
       </c>
       <c r="H18">
-        <v>17.1665011609798</v>
+        <v>8.01103981937346</v>
       </c>
       <c r="I18">
-        <v>10.7050440344467</v>
+        <v>5.7405516371912</v>
       </c>
       <c r="J18">
-        <v>48.2015429380323</v>
+        <v>13.1947643133641</v>
       </c>
       <c r="K18">
-        <v>33.5572132607107</v>
+        <v>9.06962778119394</v>
       </c>
       <c r="L18">
-        <v>25.453668665224</v>
+        <v>18.6044392700983</v>
       </c>
       <c r="M18">
-        <v>79.0483969213488</v>
+        <v>58.9044725202147</v>
       </c>
       <c r="N18">
-        <v>17.1465729117809</v>
+        <v>21.3816838935357</v>
       </c>
       <c r="O18">
-        <v>1128.24083563115</v>
+        <v>1354.80481541272</v>
       </c>
       <c r="P18">
-        <v>32.2726879271105</v>
+        <v>50.282161807481</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1303.89636020917</v>
+        <v>1298.57025999496</v>
       </c>
       <c r="C19">
-        <v>14.1529329108568</v>
+        <v>31.1516728749304</v>
       </c>
       <c r="D19">
-        <v>9.29981657605312</v>
+        <v>0.394862357545121</v>
       </c>
       <c r="E19">
-        <v>25.7784111970596</v>
+        <v>28.3413053820341</v>
       </c>
       <c r="F19">
-        <v>73.1230914900214</v>
+        <v>61.1728734361122</v>
       </c>
       <c r="G19">
-        <v>35.7721309855774</v>
+        <v>31.6801703776037</v>
       </c>
       <c r="H19">
-        <v>4.46626414998887</v>
+        <v>8.8472350814904</v>
       </c>
       <c r="I19">
-        <v>7.14466385587859</v>
+        <v>6.47253545698397</v>
       </c>
       <c r="J19">
-        <v>26.6454710847724</v>
+        <v>25.5770174643211</v>
       </c>
       <c r="K19">
-        <v>11.6470062478473</v>
+        <v>5.4315024322432</v>
       </c>
       <c r="L19">
-        <v>5.30647105694234</v>
+        <v>2.48147444987395</v>
       </c>
       <c r="M19">
-        <v>21.6583849785113</v>
+        <v>12.9006753903374</v>
       </c>
       <c r="N19">
-        <v>10.6363774818116</v>
+        <v>10.0494531948377</v>
       </c>
       <c r="O19">
-        <v>1308.55794447821</v>
+        <v>1343.7248354648</v>
       </c>
       <c r="P19">
-        <v>24.1706347041975</v>
+        <v>32.0164837962953</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>384.769365050825</v>
+        <v>367.86124857032</v>
       </c>
       <c r="C20">
-        <v>7.46903978423249</v>
+        <v>6.62922467332725</v>
       </c>
       <c r="D20">
-        <v>8.19500302218589</v>
+        <v>4.85100234978617</v>
       </c>
       <c r="E20">
-        <v>32.6945028287059</v>
+        <v>24.8812806521445</v>
       </c>
       <c r="F20">
-        <v>0.494803072349817</v>
+        <v>0.714761944555217</v>
       </c>
       <c r="G20">
-        <v>1.61462055187835</v>
+        <v>2.71924691979087</v>
       </c>
       <c r="H20">
-        <v>1.82295868760459</v>
+        <v>0.743095095178671</v>
       </c>
       <c r="I20">
-        <v>1.66670508580991</v>
+        <v>1.78002055505555</v>
       </c>
       <c r="J20">
-        <v>5.92448183472112</v>
+        <v>4.8353373697068</v>
       </c>
       <c r="K20">
-        <v>4.06615130334625</v>
+        <v>0.470242729084957</v>
       </c>
       <c r="L20">
-        <v>6.78821135293701</v>
+        <v>5.28349676953583</v>
       </c>
       <c r="M20">
-        <v>15.0172761734849</v>
+        <v>13.365094869201</v>
       </c>
       <c r="N20">
-        <v>6.10833861271831</v>
+        <v>4.31453593982839</v>
       </c>
       <c r="O20">
-        <v>440.716828718501</v>
+        <v>488.143094699013</v>
       </c>
       <c r="P20">
-        <v>18.298778861211</v>
+        <v>14.8640575255253</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1450.08109162924</v>
+        <v>1440.30901498773</v>
       </c>
       <c r="C21">
-        <v>18.9538452535246</v>
+        <v>11.7963929711844</v>
       </c>
       <c r="D21">
-        <v>9.033716024694369</v>
+        <v>0.8264082764828941</v>
       </c>
       <c r="E21">
-        <v>35.0644508946209</v>
+        <v>18.6649900327941</v>
       </c>
       <c r="F21">
-        <v>4.09721896062682</v>
+        <v>1.29494337564568</v>
       </c>
       <c r="G21">
-        <v>20.9076635707244</v>
+        <v>14.3622489046929</v>
       </c>
       <c r="H21">
-        <v>7.87704772007832</v>
+        <v>2.95855909330736</v>
       </c>
       <c r="I21">
-        <v>6.83831615259546</v>
+        <v>8.910822110541099</v>
       </c>
       <c r="J21">
-        <v>22.5996927382868</v>
+        <v>17.9856106974592</v>
       </c>
       <c r="K21">
-        <v>10.264108926757</v>
+        <v>1.06888886718926</v>
       </c>
       <c r="L21">
-        <v>30.9374603152831</v>
+        <v>20.2250925106198</v>
       </c>
       <c r="M21">
-        <v>21.7521658205848</v>
+        <v>12.778149811996</v>
       </c>
       <c r="N21">
-        <v>18.5084764311605</v>
+        <v>12.2109623583954</v>
       </c>
       <c r="O21">
-        <v>1924.78172442227</v>
+        <v>2033.76846612204</v>
       </c>
       <c r="P21">
-        <v>16.3976224252503</v>
+        <v>14.8435508208166</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1681.18460715945</v>
+        <v>1656.88250922713</v>
       </c>
       <c r="C22">
-        <v>28.1632731312804</v>
+        <v>20.5372327928206</v>
       </c>
       <c r="D22">
-        <v>24.1253124295117</v>
+        <v>5.58428804958814</v>
       </c>
       <c r="E22">
-        <v>49.4102001924278</v>
+        <v>25.1804243119783</v>
       </c>
       <c r="F22">
-        <v>3.06994642756253</v>
+        <v>2.10031825203263</v>
       </c>
       <c r="G22">
-        <v>29.080796650525</v>
+        <v>23.4542382285964</v>
       </c>
       <c r="H22">
-        <v>19.5773447942077</v>
+        <v>11.7268667211338</v>
       </c>
       <c r="I22">
-        <v>9.667494719684081</v>
+        <v>3.86668304210798</v>
       </c>
       <c r="J22">
-        <v>43.8457028334206</v>
+        <v>31.6886241113704</v>
       </c>
       <c r="K22">
-        <v>24.2069734372534</v>
+        <v>3.34795859378639</v>
       </c>
       <c r="L22">
-        <v>114.967881086</v>
+        <v>63.2604020257101</v>
       </c>
       <c r="M22">
-        <v>16.5854539080115</v>
+        <v>13.6664490006019</v>
       </c>
       <c r="N22">
-        <v>40.2154210451047</v>
+        <v>40.7597915218972</v>
       </c>
       <c r="O22">
-        <v>2249.53882737851</v>
+        <v>2413.95085499982</v>
       </c>
       <c r="P22">
-        <v>10.6637775739212</v>
+        <v>11.7751595396655</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2969.43409513985</v>
+        <v>2872.79319284586</v>
       </c>
       <c r="C23">
-        <v>37.2888405131589</v>
+        <v>27.9651905496313</v>
       </c>
       <c r="D23">
-        <v>9.323749033258011</v>
+        <v>5.36596444570746</v>
       </c>
       <c r="E23">
-        <v>63.606627331235</v>
+        <v>37.7773453583929</v>
       </c>
       <c r="F23">
-        <v>14.573150013935</v>
+        <v>5.37318074005758</v>
       </c>
       <c r="G23">
-        <v>40.8579128984688</v>
+        <v>42.3517293166627</v>
       </c>
       <c r="H23">
-        <v>60.7816860735083</v>
+        <v>43.5770026800997</v>
       </c>
       <c r="I23">
-        <v>12.4174751313037</v>
+        <v>19.1026266117425</v>
       </c>
       <c r="J23">
-        <v>128.038955965935</v>
+        <v>83.7545903586019</v>
       </c>
       <c r="K23">
-        <v>91.1825075923167</v>
+        <v>63.192835282394</v>
       </c>
       <c r="L23">
-        <v>36.4126988521829</v>
+        <v>31.5839875107978</v>
       </c>
       <c r="M23">
-        <v>432.672906493545</v>
+        <v>429.105447898628</v>
       </c>
       <c r="N23">
-        <v>70.52327670406289</v>
+        <v>72.9329960998431</v>
       </c>
       <c r="O23">
-        <v>2839.70057474146</v>
+        <v>3077.28837763336</v>
       </c>
       <c r="P23">
-        <v>39.3468124289003</v>
+        <v>45.0553574627894</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1211.39275767717</v>
+        <v>1115.73684665153</v>
       </c>
       <c r="C24">
-        <v>62.8222103759805</v>
+        <v>38.4415749657668</v>
       </c>
       <c r="D24">
-        <v>4.65195819286904</v>
+        <v>5.8565826969443</v>
       </c>
       <c r="E24">
-        <v>75.14564790703599</v>
+        <v>45.24463233837</v>
       </c>
       <c r="F24">
-        <v>8.55585702681017</v>
+        <v>7.9366917339753</v>
       </c>
       <c r="G24">
-        <v>15.6171631069279</v>
+        <v>20.0880824350171</v>
       </c>
       <c r="H24">
-        <v>18.7939963960654</v>
+        <v>17.2819101030897</v>
       </c>
       <c r="I24">
-        <v>12.8121824564799</v>
+        <v>12.1451329176058</v>
       </c>
       <c r="J24">
-        <v>62.1320631235454</v>
+        <v>39.0062385351417</v>
       </c>
       <c r="K24">
-        <v>50.6312895497221</v>
+        <v>14.7625601429573</v>
       </c>
       <c r="L24">
-        <v>67.1060835790373</v>
+        <v>55.794896287934</v>
       </c>
       <c r="M24">
-        <v>25.5996879931949</v>
+        <v>13.9831072208485</v>
       </c>
       <c r="N24">
-        <v>52.0000088743392</v>
+        <v>62.1758439406544</v>
       </c>
       <c r="O24">
-        <v>1709.78148383547</v>
+        <v>1930.67217396062</v>
       </c>
       <c r="P24">
-        <v>81.34697113156631</v>
+        <v>69.6263547082585</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>926.2139491892961</v>
+        <v>925.742209409502</v>
       </c>
       <c r="C25">
-        <v>26.7787366702656</v>
+        <v>27.3351565860791</v>
       </c>
       <c r="D25">
-        <v>18.3091587522339</v>
+        <v>11.6936306456213</v>
       </c>
       <c r="E25">
-        <v>31.9118080140959</v>
+        <v>40.4681996564027</v>
       </c>
       <c r="F25">
-        <v>6.15213241730104</v>
+        <v>18.9263156757479</v>
       </c>
       <c r="G25">
-        <v>9.89353717701222</v>
+        <v>11.5551484575103</v>
       </c>
       <c r="H25">
-        <v>9.76228868660478</v>
+        <v>4.48966896502668</v>
       </c>
       <c r="I25">
-        <v>5.97238834420366</v>
+        <v>3.9676319784728</v>
       </c>
       <c r="J25">
-        <v>15.2858707939512</v>
+        <v>6.36555904923166</v>
       </c>
       <c r="K25">
-        <v>14.967929727889</v>
+        <v>4.45631422592269</v>
       </c>
       <c r="L25">
-        <v>18.098471806068</v>
+        <v>7.55701009493566</v>
       </c>
       <c r="M25">
-        <v>23.0573771986275</v>
+        <v>34.2313322433749</v>
       </c>
       <c r="N25">
-        <v>47.2373294462059</v>
+        <v>42.4679373103265</v>
       </c>
       <c r="O25">
-        <v>731.84483608545</v>
+        <v>733.109152698542</v>
       </c>
       <c r="P25">
-        <v>25.4124921918124</v>
+        <v>42.3068793558448</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1655.82998150226</v>
+        <v>1518.0890727784</v>
       </c>
       <c r="C26">
-        <v>52.9132480232081</v>
+        <v>40.5938228810745</v>
       </c>
       <c r="D26">
-        <v>21.1377009568722</v>
+        <v>2.4486364545138</v>
       </c>
       <c r="E26">
-        <v>57.7463698944846</v>
+        <v>44.6149090428038</v>
       </c>
       <c r="F26">
-        <v>12.0570604165359</v>
+        <v>9.173218535182279</v>
       </c>
       <c r="G26">
-        <v>21.3403113698407</v>
+        <v>24.642430081535</v>
       </c>
       <c r="H26">
-        <v>19.7844180866689</v>
+        <v>13.6796291356061</v>
       </c>
       <c r="I26">
-        <v>14.5494623280894</v>
+        <v>14.9695079393809</v>
       </c>
       <c r="J26">
-        <v>62.3431063794276</v>
+        <v>29.7692088047761</v>
       </c>
       <c r="K26">
-        <v>35.9017550860545</v>
+        <v>14.7690480909762</v>
       </c>
       <c r="L26">
-        <v>37.9908707778385</v>
+        <v>26.5891908286881</v>
       </c>
       <c r="M26">
-        <v>65.3199739078829</v>
+        <v>50.7200732494608</v>
       </c>
       <c r="N26">
-        <v>40.8283265377967</v>
+        <v>31.1921857815177</v>
       </c>
       <c r="O26">
-        <v>1794.19093104097</v>
+        <v>2075.74063597569</v>
       </c>
       <c r="P26">
-        <v>58.5280809143763</v>
+        <v>40.7132843722406</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>266.340520213427</v>
+        <v>249.590116853666</v>
       </c>
       <c r="C27">
-        <v>3.01444849709317</v>
+        <v>3.20177368134874</v>
       </c>
       <c r="D27">
-        <v>1.107301677398</v>
+        <v>0.757406846594886</v>
       </c>
       <c r="E27">
-        <v>7.89386590033609</v>
+        <v>7.90336903642349</v>
       </c>
       <c r="F27">
-        <v>5.73251985452557</v>
+        <v>5.45105155835655</v>
       </c>
       <c r="G27">
-        <v>0.810220739559513</v>
+        <v>0.536365107355822</v>
       </c>
       <c r="H27">
-        <v>0.324088295823806</v>
+        <v>0.130437497988672</v>
       </c>
       <c r="I27">
-        <v>1.35507761708486</v>
+        <v>1.8557340596924</v>
       </c>
       <c r="J27">
-        <v>2.74439796888487</v>
+        <v>2.7466878907537</v>
       </c>
       <c r="K27">
-        <v>1.107301677398</v>
+        <v>0.400424308495138</v>
       </c>
       <c r="L27">
-        <v>1.22639141396086</v>
+        <v>1.48959526138842</v>
       </c>
       <c r="M27">
-        <v>0.891242813515466</v>
+        <v>0.301833758520313</v>
       </c>
       <c r="N27">
-        <v>3.94307060842408</v>
+        <v>2.95947365751058</v>
       </c>
       <c r="O27">
-        <v>316.095531833556</v>
+        <v>336.238765042905</v>
       </c>
       <c r="P27">
-        <v>30.896952291442</v>
+        <v>35.4767604366645</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>427.921269244177</v>
+        <v>385.58072481711</v>
       </c>
       <c r="C28">
-        <v>32.3665192710788</v>
+        <v>28.7880114421864</v>
       </c>
       <c r="D28">
-        <v>1.98584174192318</v>
+        <v>1.08868746499092</v>
       </c>
       <c r="E28">
-        <v>9.28789421151788</v>
+        <v>4.56342858536202</v>
       </c>
       <c r="F28">
-        <v>1.55289119596549</v>
+        <v>0.413677995959402</v>
       </c>
       <c r="G28">
-        <v>4.67990765558797</v>
+        <v>3.90544825246612</v>
       </c>
       <c r="H28">
-        <v>6.20090432857805</v>
+        <v>5.54066107703138</v>
       </c>
       <c r="I28">
-        <v>3.77059457374088</v>
+        <v>4.40528411271024</v>
       </c>
       <c r="J28">
-        <v>11.9826826158028</v>
+        <v>16.9090780653138</v>
       </c>
       <c r="K28">
-        <v>14.1415632253547</v>
+        <v>10.0647550865871</v>
       </c>
       <c r="L28">
-        <v>9.813186837138559</v>
+        <v>10.6021314748274</v>
       </c>
       <c r="M28">
-        <v>11.1430776785032</v>
+        <v>8.41392580199124</v>
       </c>
       <c r="N28">
-        <v>10.0946257398198</v>
+        <v>8.3559564873593</v>
       </c>
       <c r="O28">
-        <v>583.451186976916</v>
+        <v>640.402698278599</v>
       </c>
       <c r="P28">
-        <v>69.5143226923221</v>
+        <v>64.3648456214888</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>606.290325983485</v>
+        <v>581.5247066733321</v>
       </c>
       <c r="C29">
-        <v>4.6492792776289</v>
+        <v>2.70960530313353</v>
       </c>
       <c r="D29">
-        <v>1.58079138934806</v>
+        <v>1.46720201317602</v>
       </c>
       <c r="E29">
-        <v>7.1001647148684</v>
+        <v>3.69431953263101</v>
       </c>
       <c r="F29">
-        <v>17.4739566864621</v>
+        <v>22.094309057574</v>
       </c>
       <c r="G29">
-        <v>2.31037111224568</v>
+        <v>3.12766556564583</v>
       </c>
       <c r="H29">
-        <v>2.89365203473882</v>
+        <v>0.774028885842314</v>
       </c>
       <c r="I29">
-        <v>2.86120730156892</v>
+        <v>1.38770651676851</v>
       </c>
       <c r="J29">
-        <v>7.72403376658974</v>
+        <v>1.72294670506504</v>
       </c>
       <c r="K29">
-        <v>2.22728047683361</v>
+        <v>1.91915741510534</v>
       </c>
       <c r="L29">
-        <v>6.14524242995109</v>
+        <v>1.61419274840975</v>
       </c>
       <c r="M29">
-        <v>3.02079733147949</v>
+        <v>3.15186482828704</v>
       </c>
       <c r="N29">
-        <v>10.5036076010745</v>
+        <v>9.541686330215439</v>
       </c>
       <c r="O29">
-        <v>877.687879762169</v>
+        <v>929.426507386718</v>
       </c>
       <c r="P29">
-        <v>5.32659943672961</v>
+        <v>2.36246066408802</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>317.65226754379</v>
+        <v>280.809952104763</v>
       </c>
       <c r="C30">
-        <v>3.48150429512318</v>
+        <v>4.03295968042977</v>
       </c>
       <c r="D30">
-        <v>4.90206769258575</v>
+        <v>2.30788786020974</v>
       </c>
       <c r="E30">
-        <v>12.4317300886908</v>
+        <v>8.841399263818159</v>
       </c>
       <c r="F30">
-        <v>0.837226152521261</v>
+        <v>0.0227118534030903</v>
       </c>
       <c r="G30">
-        <v>2.86341052715984</v>
+        <v>4.74122295518628</v>
       </c>
       <c r="H30">
-        <v>4.35824351448668</v>
+        <v>3.20223661061419</v>
       </c>
       <c r="I30">
-        <v>2.74130952183063</v>
+        <v>2.2870886476671</v>
       </c>
       <c r="J30">
-        <v>19.3247036711766</v>
+        <v>14.6412481889859</v>
       </c>
       <c r="K30">
-        <v>9.220650122983139</v>
+        <v>4.08836240374591</v>
       </c>
       <c r="L30">
-        <v>23.2989612071101</v>
+        <v>33.5421930594952</v>
       </c>
       <c r="M30">
-        <v>6.30210152015375</v>
+        <v>6.90437289599937</v>
       </c>
       <c r="N30">
-        <v>11.7594451007255</v>
+        <v>12.6629919551264</v>
       </c>
       <c r="O30">
-        <v>440.916510505514</v>
+        <v>477.062659731632</v>
       </c>
       <c r="P30">
-        <v>3.8651214144378</v>
+        <v>3.37589238045185</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2498.32659818435</v>
+        <v>2310.70106524152</v>
       </c>
       <c r="C31">
-        <v>39.5295048356334</v>
+        <v>47.9403795642076</v>
       </c>
       <c r="D31">
-        <v>25.7370069923305</v>
+        <v>4.40745723684603</v>
       </c>
       <c r="E31">
-        <v>57.2654628999514</v>
+        <v>26.8322460964149</v>
       </c>
       <c r="F31">
-        <v>9.56080210884697</v>
+        <v>2.54149434935232</v>
       </c>
       <c r="G31">
-        <v>103.851331701189</v>
+        <v>93.49929739303511</v>
       </c>
       <c r="H31">
-        <v>22.1686523322217</v>
+        <v>4.11255817185048</v>
       </c>
       <c r="I31">
-        <v>16.2446863045078</v>
+        <v>9.662906415563739</v>
       </c>
       <c r="J31">
-        <v>32.8909299961125</v>
+        <v>23.3750265313563</v>
       </c>
       <c r="K31">
-        <v>20.247173775569</v>
+        <v>3.41149091620474</v>
       </c>
       <c r="L31">
-        <v>59.5079298800966</v>
+        <v>40.3919585449013</v>
       </c>
       <c r="M31">
-        <v>19.1436318087112</v>
+        <v>13.8351789404884</v>
       </c>
       <c r="N31">
-        <v>45.6808368809603</v>
+        <v>52.9955677902049</v>
       </c>
       <c r="O31">
-        <v>2745.2586856605</v>
+        <v>3071.45993927781</v>
       </c>
       <c r="P31">
-        <v>13.9957460446814</v>
+        <v>15.3448614544732</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>596.135963187163</v>
+        <v>573.214492336817</v>
       </c>
       <c r="C32">
-        <v>6.06971545256243</v>
+        <v>2.88621694555009</v>
       </c>
       <c r="D32">
-        <v>1.40076442796494</v>
+        <v>1.20409516063159</v>
       </c>
       <c r="E32">
-        <v>5.16814563722837</v>
+        <v>3.19148232911295</v>
       </c>
       <c r="F32">
-        <v>20.6643054257226</v>
+        <v>19.3839884520445</v>
       </c>
       <c r="G32">
-        <v>1.88674392338135</v>
+        <v>2.31763377644667</v>
       </c>
       <c r="H32">
-        <v>0.320826389464871</v>
+        <v>0.511394311851838</v>
       </c>
       <c r="I32">
-        <v>3.35607895550181</v>
+        <v>1.88018401480425</v>
       </c>
       <c r="J32">
-        <v>4.28805437132124</v>
+        <v>4.19904812658559</v>
       </c>
       <c r="K32">
-        <v>2.02967906909206</v>
+        <v>1.34440020222064</v>
       </c>
       <c r="L32">
-        <v>12.8187133601195</v>
+        <v>3.56694963739775</v>
       </c>
       <c r="M32">
-        <v>5.02905627751131</v>
+        <v>5.28689338653234</v>
       </c>
       <c r="N32">
-        <v>8.79413426250237</v>
+        <v>9.453328717696691</v>
       </c>
       <c r="O32">
-        <v>587.989127829968</v>
+        <v>634.795627006442</v>
       </c>
       <c r="P32">
-        <v>16.5640720817022</v>
+        <v>13.9089602959369</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5684.8438823393</v>
+        <v>5728.39707970023</v>
       </c>
       <c r="C33">
-        <v>70.84001454093701</v>
+        <v>61.9506733419559</v>
       </c>
       <c r="D33">
-        <v>85.6726944205369</v>
+        <v>6.19903267874426</v>
       </c>
       <c r="E33">
-        <v>92.1531836503473</v>
+        <v>44.816015749672</v>
       </c>
       <c r="F33">
-        <v>8.391866045906991</v>
+        <v>7.37946952735581</v>
       </c>
       <c r="G33">
-        <v>64.7949094151182</v>
+        <v>45.2091696725027</v>
       </c>
       <c r="H33">
-        <v>25.6574263614101</v>
+        <v>27.5876123620584</v>
       </c>
       <c r="I33">
-        <v>26.3977627882616</v>
+        <v>16.3961635537227</v>
       </c>
       <c r="J33">
-        <v>83.56482113468481</v>
+        <v>65.2063340356045</v>
       </c>
       <c r="K33">
-        <v>88.7656719272466</v>
+        <v>44.7369075132325</v>
       </c>
       <c r="L33">
-        <v>96.90109046506851</v>
+        <v>83.4909805967519</v>
       </c>
       <c r="M33">
-        <v>66.0513261395061</v>
+        <v>34.5006707129822</v>
       </c>
       <c r="N33">
-        <v>83.3821458317956</v>
+        <v>117.364936909313</v>
       </c>
       <c r="O33">
-        <v>6182.90901407402</v>
+        <v>6374.89148469761</v>
       </c>
       <c r="P33">
-        <v>66.0234252085377</v>
+        <v>65.29369932210391</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2463.66603940662</v>
+        <v>2404.67403983488</v>
       </c>
       <c r="C34">
-        <v>53.3075809326151</v>
+        <v>53.1812001459348</v>
       </c>
       <c r="D34">
-        <v>139.007580009391</v>
+        <v>49.7756393346837</v>
       </c>
       <c r="E34">
-        <v>80.8360318255602</v>
+        <v>47.6615232745759</v>
       </c>
       <c r="F34">
-        <v>6.67895516984937</v>
+        <v>1.90509774024266</v>
       </c>
       <c r="G34">
-        <v>50.2981951311636</v>
+        <v>38.2855841323754</v>
       </c>
       <c r="H34">
-        <v>33.7197910723812</v>
+        <v>30.2869127886947</v>
       </c>
       <c r="I34">
-        <v>18.9167100302844</v>
+        <v>9.13149835206162</v>
       </c>
       <c r="J34">
-        <v>53.7915680094607</v>
+        <v>33.6097593037721</v>
       </c>
       <c r="K34">
-        <v>31.986958363202</v>
+        <v>3.74442569082126</v>
       </c>
       <c r="L34">
-        <v>73.526881035112</v>
+        <v>85.143939889894</v>
       </c>
       <c r="M34">
-        <v>49.0361757919964</v>
+        <v>33.9423472475028</v>
       </c>
       <c r="N34">
-        <v>116.02478459292</v>
+        <v>101.853650142893</v>
       </c>
       <c r="O34">
-        <v>2698.16827592123</v>
+        <v>2940.11045100088</v>
       </c>
       <c r="P34">
-        <v>42.1626711636609</v>
+        <v>52.2490754211098</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>170.078539811773</v>
+        <v>146.937418440135</v>
       </c>
       <c r="C35">
-        <v>5.95534563127513</v>
+        <v>5.79790015059371</v>
       </c>
       <c r="D35">
-        <v>0.344662513262311</v>
+        <v>0.417570142729717</v>
       </c>
       <c r="E35">
-        <v>2.0571852100803</v>
+        <v>2.3348282637548</v>
       </c>
       <c r="F35">
-        <v>6.41093261949467</v>
+        <v>2.76301252278815</v>
       </c>
       <c r="G35">
-        <v>0.473185405460516</v>
+        <v>0.702303833276561</v>
       </c>
       <c r="H35">
-        <v>0.373384389367503</v>
+        <v>0.7502509033421551</v>
       </c>
       <c r="I35">
-        <v>0.940012088861142</v>
+        <v>0.692428646197074</v>
       </c>
       <c r="J35">
-        <v>2.37662273122558</v>
+        <v>2.19849322799203</v>
       </c>
       <c r="K35">
-        <v>5.92912972935733</v>
+        <v>2.76693355959211</v>
       </c>
       <c r="L35">
-        <v>1.8955986283795</v>
+        <v>3.0509401225568</v>
       </c>
       <c r="M35">
-        <v>2.3264719645206</v>
+        <v>2.84242106814703</v>
       </c>
       <c r="N35">
-        <v>2.25177722092416</v>
+        <v>3.61183580302553</v>
       </c>
       <c r="O35">
-        <v>215.207024212645</v>
+        <v>239.526318793378</v>
       </c>
       <c r="P35">
-        <v>32.7651931752145</v>
+        <v>35.3513529056017</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3307.42667759504</v>
+        <v>3205.38310897798</v>
       </c>
       <c r="C36">
-        <v>73.593129804249</v>
+        <v>70.15080646770279</v>
       </c>
       <c r="D36">
-        <v>23.302223345857</v>
+        <v>4.39738614622163</v>
       </c>
       <c r="E36">
-        <v>104.746433543881</v>
+        <v>108.629258379279</v>
       </c>
       <c r="F36">
-        <v>18.4324677781104</v>
+        <v>21.5717611832556</v>
       </c>
       <c r="G36">
-        <v>68.63082689121779</v>
+        <v>68.8221713571502</v>
       </c>
       <c r="H36">
-        <v>96.46405479265729</v>
+        <v>62.0695633270011</v>
       </c>
       <c r="I36">
-        <v>41.5007148189971</v>
+        <v>30.4593086455141</v>
       </c>
       <c r="J36">
-        <v>223.278016333052</v>
+        <v>176.485091818491</v>
       </c>
       <c r="K36">
-        <v>130.614736508131</v>
+        <v>47.0985929923987</v>
       </c>
       <c r="L36">
-        <v>78.86127128086289</v>
+        <v>46.0970859185517</v>
       </c>
       <c r="M36">
-        <v>210.730304254819</v>
+        <v>154.048885548487</v>
       </c>
       <c r="N36">
-        <v>85.2960585985262</v>
+        <v>98.42888061820401</v>
       </c>
       <c r="O36">
-        <v>3439.55668753702</v>
+        <v>3779.94376070063</v>
       </c>
       <c r="P36">
-        <v>42.819772714469</v>
+        <v>51.7794178993942</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1075.53040363146</v>
+        <v>1052.829757219</v>
       </c>
       <c r="C37">
-        <v>24.1233856551317</v>
+        <v>12.3538711923255</v>
       </c>
       <c r="D37">
-        <v>8.25304535995118</v>
+        <v>1.72758357582033</v>
       </c>
       <c r="E37">
-        <v>16.1932032240479</v>
+        <v>16.0543821951187</v>
       </c>
       <c r="F37">
-        <v>42.2560696742305</v>
+        <v>37.5257355668166</v>
       </c>
       <c r="G37">
-        <v>7.08053010914616</v>
+        <v>4.77391306644551</v>
       </c>
       <c r="H37">
-        <v>14.0277575868268</v>
+        <v>22.4182545900492</v>
       </c>
       <c r="I37">
-        <v>10.0862854908322</v>
+        <v>8.85083273514655</v>
       </c>
       <c r="J37">
-        <v>31.8199742128232</v>
+        <v>31.1055732659391</v>
       </c>
       <c r="K37">
-        <v>27.8779081356558</v>
+        <v>4.73324455080967</v>
       </c>
       <c r="L37">
-        <v>18.9499493037571</v>
+        <v>14.8684813771901</v>
       </c>
       <c r="M37">
-        <v>28.4958770037826</v>
+        <v>23.9733334293382</v>
       </c>
       <c r="N37">
-        <v>13.907291273793</v>
+        <v>18.1165046884223</v>
       </c>
       <c r="O37">
-        <v>1084.89825129722</v>
+        <v>1141.06701114949</v>
       </c>
       <c r="P37">
-        <v>31.9782790930812</v>
+        <v>41.3634635358545</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1070.88388685785</v>
+        <v>1056.9113567048</v>
       </c>
       <c r="C38">
-        <v>19.072005549164</v>
+        <v>24.0493530789583</v>
       </c>
       <c r="D38">
-        <v>8.89855111005369</v>
+        <v>4.30775095473845</v>
       </c>
       <c r="E38">
-        <v>72.94240110431331</v>
+        <v>39.8123428273497</v>
       </c>
       <c r="F38">
-        <v>2.68417554463012</v>
+        <v>0.88239237263325</v>
       </c>
       <c r="G38">
-        <v>5.63084005130695</v>
+        <v>8.94466291418286</v>
       </c>
       <c r="H38">
-        <v>5.13104843452247</v>
+        <v>1.01986308010693</v>
       </c>
       <c r="I38">
-        <v>5.52311329415062</v>
+        <v>2.02766892025179</v>
       </c>
       <c r="J38">
-        <v>29.5147929763477</v>
+        <v>24.5579631222845</v>
       </c>
       <c r="K38">
-        <v>13.7085948715668</v>
+        <v>2.22799768058992</v>
       </c>
       <c r="L38">
-        <v>66.1796125533882</v>
+        <v>81.5302097716437</v>
       </c>
       <c r="M38">
-        <v>17.9339050239229</v>
+        <v>17.4276937384573</v>
       </c>
       <c r="N38">
-        <v>26.4291990940824</v>
+        <v>42.6483132999649</v>
       </c>
       <c r="O38">
-        <v>1181.99989342144</v>
+        <v>1242.34684257086</v>
       </c>
       <c r="P38">
-        <v>57.9779404159987</v>
+        <v>41.3079567084894</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3945.00683623325</v>
+        <v>3529.08971774351</v>
       </c>
       <c r="C39">
-        <v>85.6084257244993</v>
+        <v>80.6378841548491</v>
       </c>
       <c r="D39">
-        <v>47.6318085526605</v>
+        <v>20.971809044777</v>
       </c>
       <c r="E39">
-        <v>127.076118148512</v>
+        <v>123.258834935669</v>
       </c>
       <c r="F39">
-        <v>35.6262905338876</v>
+        <v>26.3508726353467</v>
       </c>
       <c r="G39">
-        <v>88.62704722436141</v>
+        <v>104.376032714111</v>
       </c>
       <c r="H39">
-        <v>50.3051547039</v>
+        <v>42.9783809339776</v>
       </c>
       <c r="I39">
-        <v>45.9007468688153</v>
+        <v>18.451725037198</v>
       </c>
       <c r="J39">
-        <v>210.19227371988</v>
+        <v>142.826864815244</v>
       </c>
       <c r="K39">
-        <v>64.8492527447025</v>
+        <v>30.8064009289351</v>
       </c>
       <c r="L39">
-        <v>84.10795243290551</v>
+        <v>92.0781068677797</v>
       </c>
       <c r="M39">
-        <v>60.9529352941043</v>
+        <v>58.2127078931156</v>
       </c>
       <c r="N39">
-        <v>87.0635417010422</v>
+        <v>109.297023792762</v>
       </c>
       <c r="O39">
-        <v>3798.87882257219</v>
+        <v>4324.95904116083</v>
       </c>
       <c r="P39">
-        <v>60.1527065983968</v>
+        <v>66.7734296246323</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>313.861743092929</v>
+        <v>278.873657761393</v>
       </c>
       <c r="C40">
-        <v>2.79345872376755</v>
+        <v>2.93556611051861</v>
       </c>
       <c r="D40">
-        <v>6.3423220105801</v>
+        <v>5.36111868655191</v>
       </c>
       <c r="E40">
-        <v>6.03391148157625</v>
+        <v>3.82752187915893</v>
       </c>
       <c r="F40">
-        <v>0.465064147959824</v>
+        <v>0.322260024632957</v>
       </c>
       <c r="G40">
-        <v>3.54522153521479</v>
+        <v>3.72383200939293</v>
       </c>
       <c r="H40">
-        <v>3.68992605454916</v>
+        <v>3.57308836221013</v>
       </c>
       <c r="I40">
-        <v>0.7327401700081651</v>
+        <v>1.73498870629419</v>
       </c>
       <c r="J40">
-        <v>10.2562860616335</v>
+        <v>9.091879836528969</v>
       </c>
       <c r="K40">
-        <v>3.47883448704542</v>
+        <v>0.948099714013921</v>
       </c>
       <c r="L40">
-        <v>8.376287923690921</v>
+        <v>7.80989463847635</v>
       </c>
       <c r="M40">
-        <v>4.39503333184489</v>
+        <v>3.78282995364199</v>
       </c>
       <c r="N40">
-        <v>17.2559250526069</v>
+        <v>18.0959500603811</v>
       </c>
       <c r="O40">
-        <v>336.51834395049</v>
+        <v>378.356123081015</v>
       </c>
       <c r="P40">
-        <v>1.96652740987475</v>
+        <v>4.67315759755413</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1307.54749563029</v>
+        <v>1326.77603222335</v>
       </c>
       <c r="C41">
-        <v>20.1523484649704</v>
+        <v>11.493521187787</v>
       </c>
       <c r="D41">
-        <v>73.4118174908759</v>
+        <v>43.4732893377954</v>
       </c>
       <c r="E41">
-        <v>41.3453257954479</v>
+        <v>24.7076197257535</v>
       </c>
       <c r="F41">
-        <v>3.27234483048891</v>
+        <v>0.639515819543181</v>
       </c>
       <c r="G41">
-        <v>23.1039354448543</v>
+        <v>25.1636243481481</v>
       </c>
       <c r="H41">
-        <v>29.1731222381205</v>
+        <v>21.7680184561408</v>
       </c>
       <c r="I41">
-        <v>11.8926284305886</v>
+        <v>11.8435614171302</v>
       </c>
       <c r="J41">
-        <v>34.3289394535961</v>
+        <v>34.9695110669828</v>
       </c>
       <c r="K41">
-        <v>23.5925784857274</v>
+        <v>6.48471407601931</v>
       </c>
       <c r="L41">
-        <v>25.6600895401579</v>
+        <v>22.0829520026458</v>
       </c>
       <c r="M41">
-        <v>36.8463199580965</v>
+        <v>28.9085463170942</v>
       </c>
       <c r="N41">
-        <v>21.9728493222263</v>
+        <v>17.0575108999413</v>
       </c>
       <c r="O41">
-        <v>1269.34576646554</v>
+        <v>1345.15387582317</v>
       </c>
       <c r="P41">
-        <v>19.0967883479259</v>
+        <v>17.0655622714389</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>192.446990640518</v>
+        <v>156.670146857821</v>
       </c>
       <c r="C42">
-        <v>6.19820148085517</v>
+        <v>5.38393737442875</v>
       </c>
       <c r="D42">
-        <v>0.967983933028659</v>
+        <v>1.21085099545809</v>
       </c>
       <c r="E42">
-        <v>4.89069671921187</v>
+        <v>4.56404727110549</v>
       </c>
       <c r="F42">
-        <v>1.39570169468084</v>
+        <v>2.0317992382811</v>
       </c>
       <c r="G42">
-        <v>0.90982247463769</v>
+        <v>1.35943857206049</v>
       </c>
       <c r="H42">
-        <v>1.44814046707764</v>
+        <v>1.06975343992322</v>
       </c>
       <c r="I42">
-        <v>1.25824389369339</v>
+        <v>2.15084961001573</v>
       </c>
       <c r="J42">
-        <v>3.39137029070725</v>
+        <v>4.49478403441784</v>
       </c>
       <c r="K42">
-        <v>6.64799592950869</v>
+        <v>2.59443435965543</v>
       </c>
       <c r="L42">
-        <v>5.89363103069443</v>
+        <v>3.72278009619312</v>
       </c>
       <c r="M42">
-        <v>2.36730525007579</v>
+        <v>2.91034955717625</v>
       </c>
       <c r="N42">
-        <v>6.74756428879395</v>
+        <v>7.40390364783924</v>
       </c>
       <c r="O42">
-        <v>237.478293258389</v>
+        <v>264.918957539766</v>
       </c>
       <c r="P42">
-        <v>35.6054726243683</v>
+        <v>42.943376186057</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1771.71699632093</v>
+        <v>1841.98792091095</v>
       </c>
       <c r="C43">
-        <v>41.1907132087646</v>
+        <v>27.1655952710858</v>
       </c>
       <c r="D43">
-        <v>41.0810164122255</v>
+        <v>17.560362584102</v>
       </c>
       <c r="E43">
-        <v>64.0283750813752</v>
+        <v>57.0184086565104</v>
       </c>
       <c r="F43">
-        <v>7.16475931394262</v>
+        <v>9.689433539793139</v>
       </c>
       <c r="G43">
-        <v>26.8877507914895</v>
+        <v>37.3905884962838</v>
       </c>
       <c r="H43">
-        <v>35.7036259268206</v>
+        <v>42.1382864207451</v>
       </c>
       <c r="I43">
-        <v>14.1890286661309</v>
+        <v>6.60524827574289</v>
       </c>
       <c r="J43">
-        <v>62.7658452609393</v>
+        <v>49.0196267547315</v>
       </c>
       <c r="K43">
-        <v>47.9853884290991</v>
+        <v>8.428691792411479</v>
       </c>
       <c r="L43">
-        <v>44.5840306540154</v>
+        <v>29.6410967975528</v>
       </c>
       <c r="M43">
-        <v>105.688551667424</v>
+        <v>80.4628277569675</v>
       </c>
       <c r="N43">
-        <v>62.6188496390669</v>
+        <v>66.72957747131289</v>
       </c>
       <c r="O43">
-        <v>1858.73332070044</v>
+        <v>1903.12564676377</v>
       </c>
       <c r="P43">
-        <v>23.8573119319897</v>
+        <v>33.9425092502442</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>6127.86578943912</v>
+        <v>5663.45450583232</v>
       </c>
       <c r="C44">
-        <v>101.209114074614</v>
+        <v>123.530677902208</v>
       </c>
       <c r="D44">
-        <v>32.6944785049017</v>
+        <v>14.3248247892241</v>
       </c>
       <c r="E44">
-        <v>92.04890328339749</v>
+        <v>65.4348571461409</v>
       </c>
       <c r="F44">
-        <v>236.047410760779</v>
+        <v>217.601390938692</v>
       </c>
       <c r="G44">
-        <v>98.4058310821801</v>
+        <v>118.292756127845</v>
       </c>
       <c r="H44">
-        <v>51.1971828353657</v>
+        <v>31.7620508748961</v>
       </c>
       <c r="I44">
-        <v>38.9542766932769</v>
+        <v>44.1804205453517</v>
       </c>
       <c r="J44">
-        <v>152.174357039942</v>
+        <v>114.764143398646</v>
       </c>
       <c r="K44">
-        <v>104.095682798252</v>
+        <v>22.4563647595677</v>
       </c>
       <c r="L44">
-        <v>184.656172071943</v>
+        <v>150.019364313692</v>
       </c>
       <c r="M44">
-        <v>109.044932162807</v>
+        <v>66.60502569440941</v>
       </c>
       <c r="N44">
-        <v>95.58427174037671</v>
+        <v>82.00161138003929</v>
       </c>
       <c r="O44">
-        <v>7089.90691004668</v>
+        <v>7701.86208978382</v>
       </c>
       <c r="P44">
-        <v>106.779956237092</v>
+        <v>156.218938464116</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>561.1837055817661</v>
+        <v>497.865685417399</v>
       </c>
       <c r="C45">
-        <v>13.2500207734908</v>
+        <v>14.6692940626047</v>
       </c>
       <c r="D45">
-        <v>3.13188918275531</v>
+        <v>1.13299487524243</v>
       </c>
       <c r="E45">
-        <v>14.9206357654441</v>
+        <v>10.4497885494156</v>
       </c>
       <c r="F45">
-        <v>12.2216270585792</v>
+        <v>21.8498723760613</v>
       </c>
       <c r="G45">
-        <v>9.1467674163681</v>
+        <v>5.59239084159136</v>
       </c>
       <c r="H45">
-        <v>2.78801925233129</v>
+        <v>0.983720610293895</v>
       </c>
       <c r="I45">
-        <v>5.03932405045587</v>
+        <v>4.13211383119327</v>
       </c>
       <c r="J45">
-        <v>17.6492953318982</v>
+        <v>22.260552226792</v>
       </c>
       <c r="K45">
-        <v>6.06151545286957</v>
+        <v>2.71011463584394</v>
       </c>
       <c r="L45">
-        <v>14.3127462822506</v>
+        <v>16.1219473751262</v>
       </c>
       <c r="M45">
-        <v>21.3677430328639</v>
+        <v>13.4281248524604</v>
       </c>
       <c r="N45">
-        <v>30.3914520271867</v>
+        <v>27.2754401181425</v>
       </c>
       <c r="O45">
-        <v>788.873659454921</v>
+        <v>843.602958296554</v>
       </c>
       <c r="P45">
-        <v>7.35182085399781</v>
+        <v>11.8336949493111</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>156.579190660611</v>
+        <v>136.54809214728</v>
       </c>
       <c r="C46">
-        <v>4.00054818146238</v>
+        <v>3.80135692519182</v>
       </c>
       <c r="D46">
-        <v>1.9519589157184</v>
+        <v>0.611508897242813</v>
       </c>
       <c r="E46">
-        <v>8.981581945381709</v>
+        <v>4.54707543116663</v>
       </c>
       <c r="F46">
-        <v>0.853074612654747</v>
+        <v>0.409027786479558</v>
       </c>
       <c r="G46">
-        <v>1.59426954071626</v>
+        <v>0.916023082590999</v>
       </c>
       <c r="H46">
-        <v>1.97832700352385</v>
+        <v>0.649130485379508</v>
       </c>
       <c r="I46">
-        <v>2.20740226897569</v>
+        <v>1.70143682093662</v>
       </c>
       <c r="J46">
-        <v>4.06284019186469</v>
+        <v>3.15698844978102</v>
       </c>
       <c r="K46">
-        <v>2.90615119104169</v>
+        <v>0.830588064306111</v>
       </c>
       <c r="L46">
-        <v>10.1178001853207</v>
+        <v>9.685153899943311</v>
       </c>
       <c r="M46">
-        <v>3.0957170330883</v>
+        <v>2.4838908631982</v>
       </c>
       <c r="N46">
-        <v>5.90130977996067</v>
+        <v>6.41792163776692</v>
       </c>
       <c r="O46">
-        <v>212.575961739824</v>
+        <v>242.139573965588</v>
       </c>
       <c r="P46">
-        <v>8.779985570068901</v>
+        <v>8.04617230505696</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1941.60503229327</v>
+        <v>1924.80114026131</v>
       </c>
       <c r="C47">
-        <v>42.0658247473537</v>
+        <v>43.1954787014363</v>
       </c>
       <c r="D47">
-        <v>34.8918748043657</v>
+        <v>14.4857686936705</v>
       </c>
       <c r="E47">
-        <v>63.31363728985</v>
+        <v>36.2518780200537</v>
       </c>
       <c r="F47">
-        <v>17.6973227360146</v>
+        <v>2.0308100797213</v>
       </c>
       <c r="G47">
-        <v>25.8398409341898</v>
+        <v>19.8546033936237</v>
       </c>
       <c r="H47">
-        <v>20.6878826824745</v>
+        <v>10.4856071252755</v>
       </c>
       <c r="I47">
-        <v>13.738579072002</v>
+        <v>5.83324302906242</v>
       </c>
       <c r="J47">
-        <v>32.5571543452363</v>
+        <v>28.4712415607551</v>
       </c>
       <c r="K47">
-        <v>25.1447082544203</v>
+        <v>4.5517650892867</v>
       </c>
       <c r="L47">
-        <v>30.4932284375657</v>
+        <v>20.927871796495</v>
       </c>
       <c r="M47">
-        <v>67.15264538778141</v>
+        <v>51.2740993205126</v>
       </c>
       <c r="N47">
-        <v>45.1792993006004</v>
+        <v>22.7063311172854</v>
       </c>
       <c r="O47">
-        <v>2543.38753324254</v>
+        <v>2717.99267990003</v>
       </c>
       <c r="P47">
-        <v>31.6244058653149</v>
+        <v>20.8122099090927</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1782.66519808318</v>
+        <v>1617.46570803254</v>
       </c>
       <c r="C48">
-        <v>37.6799931729275</v>
+        <v>32.293909402072</v>
       </c>
       <c r="D48">
-        <v>8.027423161558421</v>
+        <v>7.1322324467333</v>
       </c>
       <c r="E48">
-        <v>46.3342326755365</v>
+        <v>53.8565436671764</v>
       </c>
       <c r="F48">
-        <v>6.73922904233683</v>
+        <v>11.1690354351314</v>
       </c>
       <c r="G48">
-        <v>9.03261540663482</v>
+        <v>5.46978834567769</v>
       </c>
       <c r="H48">
-        <v>9.114979680859451</v>
+        <v>9.071430386158561</v>
       </c>
       <c r="I48">
-        <v>8.866745917464151</v>
+        <v>7.73263665473758</v>
       </c>
       <c r="J48">
-        <v>25.6846483915984</v>
+        <v>28.7631885933231</v>
       </c>
       <c r="K48">
-        <v>12.8646758870934</v>
+        <v>5.25796286104459</v>
       </c>
       <c r="L48">
-        <v>35.6336042648118</v>
+        <v>35.6304608575546</v>
       </c>
       <c r="M48">
-        <v>128.17842928667</v>
+        <v>119.844242248104</v>
       </c>
       <c r="N48">
-        <v>31.9198284431724</v>
+        <v>34.8050206805491</v>
       </c>
       <c r="O48">
-        <v>2043.23850332599</v>
+        <v>2208.58047920774</v>
       </c>
       <c r="P48">
-        <v>64.09583358359249</v>
+        <v>72.1518548002624</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>708.144819310524</v>
+        <v>716.243594570447</v>
       </c>
       <c r="C49">
-        <v>4.7656291512683</v>
+        <v>3.52975135472826</v>
       </c>
       <c r="D49">
-        <v>2.36588034091456</v>
+        <v>0.599198573374169</v>
       </c>
       <c r="E49">
-        <v>13.8539177259414</v>
+        <v>18.5105923157906</v>
       </c>
       <c r="F49">
-        <v>22.5349362967154</v>
+        <v>24.0182840351959</v>
       </c>
       <c r="G49">
-        <v>17.0594181790219</v>
+        <v>11.6637943542914</v>
       </c>
       <c r="H49">
-        <v>5.21059598779734</v>
+        <v>3.47987818984452</v>
       </c>
       <c r="I49">
-        <v>3.93214983393282</v>
+        <v>2.6482950274406</v>
       </c>
       <c r="J49">
-        <v>17.5218937361731</v>
+        <v>16.0014297311448</v>
       </c>
       <c r="K49">
-        <v>5.35061317279322</v>
+        <v>2.52058880485665</v>
       </c>
       <c r="L49">
-        <v>3.02856569567673</v>
+        <v>0.908445849754841</v>
       </c>
       <c r="M49">
-        <v>6.46301656992907</v>
+        <v>3.33316993102945</v>
       </c>
       <c r="N49">
-        <v>5.26881860853985</v>
+        <v>7.72786045318536</v>
       </c>
       <c r="O49">
-        <v>500.955893036684</v>
+        <v>514.525491727813</v>
       </c>
       <c r="P49">
-        <v>7.8736868001706</v>
+        <v>7.16236011639703</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1451.3327095202</v>
+        <v>1274.372342023</v>
       </c>
       <c r="C50">
-        <v>74.4577174529373</v>
+        <v>57.2657567351823</v>
       </c>
       <c r="D50">
-        <v>15.0092013961436</v>
+        <v>7.39487089220992</v>
       </c>
       <c r="E50">
-        <v>133.254564985635</v>
+        <v>115.579194511888</v>
       </c>
       <c r="F50">
-        <v>3.612932380564</v>
+        <v>0.912070076470846</v>
       </c>
       <c r="G50">
-        <v>14.9201479782397</v>
+        <v>24.2852204988746</v>
       </c>
       <c r="H50">
-        <v>35.6830238458238</v>
+        <v>44.1429447369442</v>
       </c>
       <c r="I50">
-        <v>10.6393212705054</v>
+        <v>6.39805234442019</v>
       </c>
       <c r="J50">
-        <v>93.8688072408788</v>
+        <v>70.985365317746</v>
       </c>
       <c r="K50">
-        <v>84.40083641893369</v>
+        <v>38.4926734636747</v>
       </c>
       <c r="L50">
-        <v>50.1041441911164</v>
+        <v>66.5506605558662</v>
       </c>
       <c r="M50">
-        <v>52.5563149673265</v>
+        <v>54.580986094793</v>
       </c>
       <c r="N50">
-        <v>58.1865072860376</v>
+        <v>47.0117304844131</v>
       </c>
       <c r="O50">
-        <v>1647.90902559963</v>
+        <v>1934.05847588578</v>
       </c>
       <c r="P50">
-        <v>98.51797946036921</v>
+        <v>82.9977355368778</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>122.86299603115</v>
+        <v>116.471684181139</v>
       </c>
       <c r="C51">
-        <v>1.34071621957479</v>
+        <v>1.62926639665057</v>
       </c>
       <c r="D51">
-        <v>0.553643447799919</v>
+        <v>0.00927203766996324</v>
       </c>
       <c r="E51">
-        <v>1.77694081526969</v>
+        <v>1.48181026403812</v>
       </c>
       <c r="F51">
-        <v>25.7573262689985</v>
+        <v>25.774557420236</v>
       </c>
       <c r="G51">
-        <v>2.85893717547917</v>
+        <v>1.16980188422621</v>
       </c>
       <c r="H51">
-        <v>0.13540489407708</v>
+        <v>0.108147303907743</v>
       </c>
       <c r="I51">
-        <v>0.719549217416861</v>
+        <v>0.779722571868698</v>
       </c>
       <c r="J51">
-        <v>1.5797388458805</v>
+        <v>1.18345016875498</v>
       </c>
       <c r="K51">
-        <v>0.636572090762435</v>
+        <v>1.0926457348763</v>
       </c>
       <c r="L51">
-        <v>0.387550413459943</v>
+        <v>0.578938326025933</v>
       </c>
       <c r="M51">
-        <v>0.60900779257991</v>
+        <v>0.422265905027591</v>
       </c>
       <c r="N51">
-        <v>0.968876033649859</v>
+        <v>0.76721490375432</v>
       </c>
       <c r="O51">
-        <v>174.122876375699</v>
+        <v>172.983360431701</v>
       </c>
       <c r="P51">
-        <v>11.0577847354228</v>
+        <v>20.0332981245928</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1466.70451053723</v>
+        <v>1477.28347711059</v>
       </c>
       <c r="C2">
-        <v>23.0643366283959</v>
+        <v>21.4985839282556</v>
       </c>
       <c r="D2">
-        <v>19.0186522409454</v>
+        <v>18.094970504935</v>
       </c>
       <c r="E2">
-        <v>42.1134398251911</v>
+        <v>44.7989835919691</v>
       </c>
       <c r="F2">
-        <v>25.0261524566338</v>
+        <v>22.6634072470019</v>
       </c>
       <c r="G2">
-        <v>16.7216973556521</v>
+        <v>17.4224150748906</v>
       </c>
       <c r="H2">
-        <v>8.08792261593484</v>
+        <v>8.745073154332991</v>
       </c>
       <c r="I2">
-        <v>14.7234702658182</v>
+        <v>16.8282509785774</v>
       </c>
       <c r="J2">
-        <v>73.5824948061137</v>
+        <v>70.32170428227251</v>
       </c>
       <c r="K2">
-        <v>9.45693633428375</v>
+        <v>10.1283855310975</v>
       </c>
       <c r="L2">
-        <v>50.9144179691135</v>
+        <v>47.6997612499241</v>
       </c>
       <c r="M2">
-        <v>36.7194403650245</v>
+        <v>37.2340063410013</v>
       </c>
       <c r="N2">
-        <v>27.4668993012997</v>
+        <v>28.0488865079881</v>
       </c>
       <c r="O2">
-        <v>1370.07193646492</v>
+        <v>1370.22723906476</v>
       </c>
       <c r="P2">
-        <v>20.2615613802259</v>
+        <v>21.6834002911291</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>121.608215356798</v>
+        <v>119.633973140279</v>
       </c>
       <c r="C3">
-        <v>1.10884204787767</v>
+        <v>1.34139953112329</v>
       </c>
       <c r="D3">
-        <v>0.220608513637493</v>
+        <v>0.194015929251511</v>
       </c>
       <c r="E3">
-        <v>0.733157681110835</v>
+        <v>0.901154835620807</v>
       </c>
       <c r="F3">
-        <v>7.17686942837522</v>
+        <v>7.39812412244042</v>
       </c>
       <c r="G3">
-        <v>0.243637959216343</v>
+        <v>0.208748158009604</v>
       </c>
       <c r="H3">
-        <v>0.00804572272957914</v>
+        <v>0.133451821412964</v>
       </c>
       <c r="I3">
-        <v>0.384372918462392</v>
+        <v>0.404647931589855</v>
       </c>
       <c r="J3">
-        <v>0.01939582079011</v>
+        <v>0.157992050786542</v>
       </c>
       <c r="K3">
-        <v>0.164113988812025</v>
+        <v>0.148495551049898</v>
       </c>
       <c r="L3">
-        <v>0.206131963593612</v>
+        <v>0.237022578397069</v>
       </c>
       <c r="M3">
-        <v>0.254924255165679</v>
+        <v>0.201261399460633</v>
       </c>
       <c r="N3">
-        <v>0.5047677026740181</v>
+        <v>0.432306922598099</v>
       </c>
       <c r="O3">
-        <v>201.157198767674</v>
+        <v>197.818152075438</v>
       </c>
       <c r="P3">
-        <v>7.0210208645747</v>
+        <v>6.82647519840636</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1669.55064274742</v>
+        <v>1700.00798060281</v>
       </c>
       <c r="C4">
-        <v>13.0633465553369</v>
+        <v>11.7755946160103</v>
       </c>
       <c r="D4">
-        <v>2.25164401282588</v>
+        <v>3.13402046357602</v>
       </c>
       <c r="E4">
-        <v>12.7505499300546</v>
+        <v>16.6600625762865</v>
       </c>
       <c r="F4">
-        <v>13.995760005198</v>
+        <v>14.2773400083267</v>
       </c>
       <c r="G4">
-        <v>4.18198359469146</v>
+        <v>4.4432489198337</v>
       </c>
       <c r="H4">
-        <v>4.989466814017</v>
+        <v>4.99141501883534</v>
       </c>
       <c r="I4">
-        <v>6.78491607625058</v>
+        <v>8.124706511100671</v>
       </c>
       <c r="J4">
-        <v>28.7537626895907</v>
+        <v>24.1370093076706</v>
       </c>
       <c r="K4">
-        <v>4.29754609604301</v>
+        <v>3.6335837368905</v>
       </c>
       <c r="L4">
-        <v>51.0205794750711</v>
+        <v>54.6191818973633</v>
       </c>
       <c r="M4">
-        <v>38.9060809842972</v>
+        <v>41.3998295399542</v>
       </c>
       <c r="N4">
-        <v>31.5646320675716</v>
+        <v>28.5700449501683</v>
       </c>
       <c r="O4">
-        <v>2066.39265296732</v>
+        <v>2043.35209529526</v>
       </c>
       <c r="P4">
-        <v>31.7754827207457</v>
+        <v>26.5691774125742</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>882.437695599625</v>
+        <v>887.12724662014</v>
       </c>
       <c r="C5">
-        <v>33.8510501424888</v>
+        <v>36.4231082810825</v>
       </c>
       <c r="D5">
-        <v>10.7299018047593</v>
+        <v>10.1716183762176</v>
       </c>
       <c r="E5">
-        <v>21.9085509164695</v>
+        <v>22.6506008620411</v>
       </c>
       <c r="F5">
-        <v>7.51066571557358</v>
+        <v>6.71720039665477</v>
       </c>
       <c r="G5">
-        <v>4.10768868997899</v>
+        <v>3.84473262203533</v>
       </c>
       <c r="H5">
-        <v>9.629588713521169</v>
+        <v>9.980301068226471</v>
       </c>
       <c r="I5">
-        <v>8.166978573285631</v>
+        <v>6.47022442116917</v>
       </c>
       <c r="J5">
-        <v>27.7921173144936</v>
+        <v>27.091035690256</v>
       </c>
       <c r="K5">
-        <v>3.48693772125497</v>
+        <v>3.28982910134885</v>
       </c>
       <c r="L5">
-        <v>8.724316575949411</v>
+        <v>8.74113039707175</v>
       </c>
       <c r="M5">
-        <v>10.8787815114433</v>
+        <v>11.2074572009064</v>
       </c>
       <c r="N5">
-        <v>20.9815506738901</v>
+        <v>22.667190556163</v>
       </c>
       <c r="O5">
-        <v>885.814873504453</v>
+        <v>874.99497384652</v>
       </c>
       <c r="P5">
-        <v>38.9919201074771</v>
+        <v>37.0178633379344</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9309.871748226969</v>
+        <v>9382.876543118369</v>
       </c>
       <c r="C6">
-        <v>172.283215629931</v>
+        <v>174.984531376915</v>
       </c>
       <c r="D6">
-        <v>22.0755458267706</v>
+        <v>24.7646834962257</v>
       </c>
       <c r="E6">
-        <v>139.819626748717</v>
+        <v>134.551526225068</v>
       </c>
       <c r="F6">
-        <v>38.6649631749357</v>
+        <v>37.0275648073034</v>
       </c>
       <c r="G6">
-        <v>75.3352718711711</v>
+        <v>94.6571059386058</v>
       </c>
       <c r="H6">
-        <v>27.4520339561652</v>
+        <v>30.0685092820925</v>
       </c>
       <c r="I6">
-        <v>30.5292937970457</v>
+        <v>33.3210959411532</v>
       </c>
       <c r="J6">
-        <v>109.909805644751</v>
+        <v>117.443015661497</v>
       </c>
       <c r="K6">
-        <v>39.5617387560616</v>
+        <v>33.6389569170539</v>
       </c>
       <c r="L6">
-        <v>338.220740140392</v>
+        <v>349.489263687674</v>
       </c>
       <c r="M6">
-        <v>201.413037704222</v>
+        <v>206.223203478943</v>
       </c>
       <c r="N6">
-        <v>204.144675245693</v>
+        <v>209.048311050193</v>
       </c>
       <c r="O6">
-        <v>11901.0337853301</v>
+        <v>11768.1125748723</v>
       </c>
       <c r="P6">
-        <v>252.107152036591</v>
+        <v>243.085644558478</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1021.45385348425</v>
+        <v>1027.01688642197</v>
       </c>
       <c r="C7">
-        <v>40.3816356066456</v>
+        <v>39.3073480311228</v>
       </c>
       <c r="D7">
-        <v>3.32804066714251</v>
+        <v>3.74831749186303</v>
       </c>
       <c r="E7">
-        <v>15.8752358706154</v>
+        <v>16.8779889141183</v>
       </c>
       <c r="F7">
-        <v>23.4970712106622</v>
+        <v>24.638119173049</v>
       </c>
       <c r="G7">
-        <v>12.8959782242335</v>
+        <v>11.5196192748471</v>
       </c>
       <c r="H7">
-        <v>3.99629605005451</v>
+        <v>3.37760466188268</v>
       </c>
       <c r="I7">
-        <v>7.76366234669657</v>
+        <v>8.12193399248727</v>
       </c>
       <c r="J7">
-        <v>16.2210726175825</v>
+        <v>16.0360070737345</v>
       </c>
       <c r="K7">
-        <v>5.3576429072998</v>
+        <v>5.44297355142818</v>
       </c>
       <c r="L7">
-        <v>38.5904371710131</v>
+        <v>40.2962204562258</v>
       </c>
       <c r="M7">
-        <v>10.3319009563699</v>
+        <v>10.7807057822413</v>
       </c>
       <c r="N7">
-        <v>16.2818848903621</v>
+        <v>20.3049274807953</v>
       </c>
       <c r="O7">
-        <v>1820.84987174433</v>
+        <v>1820.62721008711</v>
       </c>
       <c r="P7">
-        <v>34.0537722562738</v>
+        <v>30.0914186841602</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>826.360009206275</v>
+        <v>831.177413984846</v>
       </c>
       <c r="C8">
-        <v>8.97343041970217</v>
+        <v>8.81931382525385</v>
       </c>
       <c r="D8">
-        <v>1.38832241171013</v>
+        <v>1.94632551751902</v>
       </c>
       <c r="E8">
-        <v>19.1454800484484</v>
+        <v>20.2363942568401</v>
       </c>
       <c r="F8">
-        <v>1.3842781575889</v>
+        <v>1.33244479973641</v>
       </c>
       <c r="G8">
-        <v>15.6509269332362</v>
+        <v>17.2844192530597</v>
       </c>
       <c r="H8">
-        <v>6.16136193273507</v>
+        <v>6.87326909346171</v>
       </c>
       <c r="I8">
-        <v>7.26013104811274</v>
+        <v>6.71024170549234</v>
       </c>
       <c r="J8">
-        <v>32.2621389145019</v>
+        <v>30.7441881124517</v>
       </c>
       <c r="K8">
-        <v>9.445747164114289</v>
+        <v>9.37357036361578</v>
       </c>
       <c r="L8">
-        <v>27.5791147907168</v>
+        <v>29.8727972183761</v>
       </c>
       <c r="M8">
-        <v>37.4044247814979</v>
+        <v>38.4398664966439</v>
       </c>
       <c r="N8">
-        <v>26.0038473867928</v>
+        <v>23.8250988062284</v>
       </c>
       <c r="O8">
-        <v>1313.77204032001</v>
+        <v>1303.07674924848</v>
       </c>
       <c r="P8">
-        <v>7.15478194418106</v>
+        <v>5.70105013527336</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>225.844303067931</v>
+        <v>227.43271321117</v>
       </c>
       <c r="C9">
-        <v>7.07979080437552</v>
+        <v>6.90573989692179</v>
       </c>
       <c r="D9">
-        <v>1.25772336817032</v>
+        <v>1.47492835629753</v>
       </c>
       <c r="E9">
-        <v>2.91543407174926</v>
+        <v>2.42460071248442</v>
       </c>
       <c r="F9">
-        <v>0.393105096610279</v>
+        <v>0.428773377424614</v>
       </c>
       <c r="G9">
-        <v>15.2374539811874</v>
+        <v>14.5140022523684</v>
       </c>
       <c r="H9">
-        <v>1.7903457702902</v>
+        <v>1.7830010802437</v>
       </c>
       <c r="I9">
-        <v>0.81496420554747</v>
+        <v>0.765274955751108</v>
       </c>
       <c r="J9">
-        <v>3.34308999205606</v>
+        <v>3.59886950604639</v>
       </c>
       <c r="K9">
-        <v>0.12296144301683</v>
+        <v>0.296610036111174</v>
       </c>
       <c r="L9">
-        <v>2.09105532755387</v>
+        <v>2.30682082064231</v>
       </c>
       <c r="M9">
-        <v>3.31137815899703</v>
+        <v>3.26953910482179</v>
       </c>
       <c r="N9">
-        <v>1.86632773554689</v>
+        <v>1.89741620236942</v>
       </c>
       <c r="O9">
-        <v>305.932090402441</v>
+        <v>305.661636648072</v>
       </c>
       <c r="P9">
-        <v>3.69438905978409</v>
+        <v>3.84704840011562</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5522.06327781897</v>
+        <v>5557.7303474469</v>
       </c>
       <c r="C10">
-        <v>58.5268752100804</v>
+        <v>55.3420055202772</v>
       </c>
       <c r="D10">
-        <v>6.33127883915844</v>
+        <v>7.96080234873811</v>
       </c>
       <c r="E10">
-        <v>38.4046987053345</v>
+        <v>39.7048655420094</v>
       </c>
       <c r="F10">
-        <v>5.74310956451585</v>
+        <v>5.99240240404577</v>
       </c>
       <c r="G10">
-        <v>22.5062305372852</v>
+        <v>23.0031138860263</v>
       </c>
       <c r="H10">
-        <v>11.4548013340685</v>
+        <v>10.354504184198</v>
       </c>
       <c r="I10">
-        <v>17.1496190349111</v>
+        <v>18.1851440643834</v>
       </c>
       <c r="J10">
-        <v>44.7453720911358</v>
+        <v>44.0540322524146</v>
       </c>
       <c r="K10">
-        <v>5.12329219503783</v>
+        <v>5.37593690610853</v>
       </c>
       <c r="L10">
-        <v>53.7133056329565</v>
+        <v>54.2176539829581</v>
       </c>
       <c r="M10">
-        <v>63.3478595946271</v>
+        <v>70.1313440203423</v>
       </c>
       <c r="N10">
-        <v>76.7622170739804</v>
+        <v>73.83239029954061</v>
       </c>
       <c r="O10">
-        <v>6553.0625950772</v>
+        <v>6445.82882130338</v>
       </c>
       <c r="P10">
-        <v>51.7816826186383</v>
+        <v>53.8270943358281</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2360.04611155279</v>
+        <v>2420.64793115914</v>
       </c>
       <c r="C11">
-        <v>69.1518258772166</v>
+        <v>71.05648143292299</v>
       </c>
       <c r="D11">
-        <v>89.10153152713281</v>
+        <v>86.6090894571869</v>
       </c>
       <c r="E11">
-        <v>66.6685353985485</v>
+        <v>64.2671678103942</v>
       </c>
       <c r="F11">
-        <v>11.215226983196</v>
+        <v>9.300725104340501</v>
       </c>
       <c r="G11">
-        <v>15.0436377488299</v>
+        <v>19.7250104313382</v>
       </c>
       <c r="H11">
-        <v>21.5475341694101</v>
+        <v>17.6228804940969</v>
       </c>
       <c r="I11">
-        <v>12.16777567439</v>
+        <v>12.1399438535577</v>
       </c>
       <c r="J11">
-        <v>37.0607535617555</v>
+        <v>37.7737500612488</v>
       </c>
       <c r="K11">
-        <v>5.37716172920967</v>
+        <v>6.55415919928133</v>
       </c>
       <c r="L11">
-        <v>28.1412822078055</v>
+        <v>30.6112466094679</v>
       </c>
       <c r="M11">
-        <v>37.1630198750267</v>
+        <v>34.0450799319811</v>
       </c>
       <c r="N11">
-        <v>64.5839115128978</v>
+        <v>59.8104150295766</v>
       </c>
       <c r="O11">
-        <v>3030.18283855587</v>
+        <v>3002.51545206855</v>
       </c>
       <c r="P11">
-        <v>43.4009836853432</v>
+        <v>43.3849782878715</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>330.024911851976</v>
+        <v>333.550588095287</v>
       </c>
       <c r="C12">
-        <v>3.99671370946895</v>
+        <v>5.20369063441371</v>
       </c>
       <c r="D12">
-        <v>0.391787701831977</v>
+        <v>0.360736919919832</v>
       </c>
       <c r="E12">
-        <v>1.43015300717941</v>
+        <v>1.52385055564787</v>
       </c>
       <c r="F12">
-        <v>0.381467154937884</v>
+        <v>0.444363022239141</v>
       </c>
       <c r="G12">
-        <v>0.0873436250537542</v>
+        <v>0.38750893984141</v>
       </c>
       <c r="H12">
-        <v>0.212857403677014</v>
+        <v>0.164753118782113</v>
       </c>
       <c r="I12">
-        <v>0.436323869959728</v>
+        <v>0.627420988070526</v>
       </c>
       <c r="J12">
-        <v>0.924870478747637</v>
+        <v>1.42661411465625</v>
       </c>
       <c r="K12">
-        <v>0.206605701014912</v>
+        <v>0.113880324633293</v>
       </c>
       <c r="L12">
-        <v>0.0727616023322835</v>
+        <v>0.179104622545059</v>
       </c>
       <c r="M12">
-        <v>2.81616153018498</v>
+        <v>2.45835747891743</v>
       </c>
       <c r="N12">
-        <v>3.64968120317264</v>
+        <v>3.61703689879167</v>
       </c>
       <c r="O12">
-        <v>458.15720580278</v>
+        <v>452.480399328518</v>
       </c>
       <c r="P12">
-        <v>14.8072065007594</v>
+        <v>13.2681414589019</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>348.059031679085</v>
+        <v>352.019864900711</v>
       </c>
       <c r="C13">
-        <v>16.8228629269757</v>
+        <v>18.2991232108075</v>
       </c>
       <c r="D13">
-        <v>0.44222156342688</v>
+        <v>0.244318998914858</v>
       </c>
       <c r="E13">
-        <v>8.58454652614536</v>
+        <v>8.27931462261027</v>
       </c>
       <c r="F13">
-        <v>3.60820202714778</v>
+        <v>3.16137373526442</v>
       </c>
       <c r="G13">
-        <v>7.62859255948369</v>
+        <v>7.03437212047202</v>
       </c>
       <c r="H13">
-        <v>0.692290160323048</v>
+        <v>1.02162103136089</v>
       </c>
       <c r="I13">
-        <v>2.1428104165536</v>
+        <v>2.0508841640384</v>
       </c>
       <c r="J13">
-        <v>4.27873635966928</v>
+        <v>3.66772519770796</v>
       </c>
       <c r="K13">
-        <v>2.76301435461867</v>
+        <v>2.70879534380978</v>
       </c>
       <c r="L13">
-        <v>16.4015465120801</v>
+        <v>16.8903070405718</v>
       </c>
       <c r="M13">
-        <v>1.85735463946302</v>
+        <v>1.59744027528644</v>
       </c>
       <c r="N13">
-        <v>4.21416550641732</v>
+        <v>3.24390282998082</v>
       </c>
       <c r="O13">
-        <v>489.753109176693</v>
+        <v>490.064210223102</v>
       </c>
       <c r="P13">
-        <v>34.4265740979277</v>
+        <v>36.038973207382</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3369.65152524743</v>
+        <v>3332.07335152989</v>
       </c>
       <c r="C14">
-        <v>114.980440589398</v>
+        <v>111.735624030295</v>
       </c>
       <c r="D14">
-        <v>10.2132703616148</v>
+        <v>9.73358278331671</v>
       </c>
       <c r="E14">
-        <v>68.28630221378811</v>
+        <v>70.3107894993059</v>
       </c>
       <c r="F14">
-        <v>17.5904856944312</v>
+        <v>16.944610705487</v>
       </c>
       <c r="G14">
-        <v>59.5333072395962</v>
+        <v>61.5572933798289</v>
       </c>
       <c r="H14">
-        <v>40.7337108321417</v>
+        <v>37.5704826845715</v>
       </c>
       <c r="I14">
-        <v>22.815839142689</v>
+        <v>23.9929059644023</v>
       </c>
       <c r="J14">
-        <v>97.6325371468663</v>
+        <v>106.604235483868</v>
       </c>
       <c r="K14">
-        <v>57.4124640752549</v>
+        <v>67.1599573842197</v>
       </c>
       <c r="L14">
-        <v>63.4264025368921</v>
+        <v>68.2589819038664</v>
       </c>
       <c r="M14">
-        <v>69.32706918675331</v>
+        <v>62.4230405428071</v>
       </c>
       <c r="N14">
-        <v>51.5429334590993</v>
+        <v>58.8577365700819</v>
       </c>
       <c r="O14">
-        <v>4313.16760982453</v>
+        <v>4319.95716448123</v>
       </c>
       <c r="P14">
-        <v>59.6063775674829</v>
+        <v>59.6316947475653</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1640.66403275525</v>
+        <v>1648.5083497155</v>
       </c>
       <c r="C15">
-        <v>48.4941648481005</v>
+        <v>43.6123042159445</v>
       </c>
       <c r="D15">
-        <v>3.20943475838823</v>
+        <v>6.19844553280159</v>
       </c>
       <c r="E15">
-        <v>52.5872680717547</v>
+        <v>56.1655798779758</v>
       </c>
       <c r="F15">
-        <v>17.1811008442466</v>
+        <v>15.4375370009255</v>
       </c>
       <c r="G15">
-        <v>47.422870555332</v>
+        <v>50.5717942109224</v>
       </c>
       <c r="H15">
-        <v>34.738762010792</v>
+        <v>32.0838455144302</v>
       </c>
       <c r="I15">
-        <v>12.7692370659051</v>
+        <v>14.413990521118</v>
       </c>
       <c r="J15">
-        <v>107.803481088394</v>
+        <v>108.529828612673</v>
       </c>
       <c r="K15">
-        <v>30.4898181706222</v>
+        <v>28.3134349835372</v>
       </c>
       <c r="L15">
-        <v>32.758899364338</v>
+        <v>32.3589202677276</v>
       </c>
       <c r="M15">
-        <v>132.568244327852</v>
+        <v>131.573846909012</v>
       </c>
       <c r="N15">
-        <v>80.938498540729</v>
+        <v>78.98943930685969</v>
       </c>
       <c r="O15">
-        <v>1986.25574077966</v>
+        <v>1976.8889792434</v>
       </c>
       <c r="P15">
-        <v>36.1993684715599</v>
+        <v>39.0991505761654</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>654.955538821798</v>
+        <v>666.748296093076</v>
       </c>
       <c r="C16">
-        <v>55.8233920007566</v>
+        <v>59.0492511475353</v>
       </c>
       <c r="D16">
-        <v>4.5416817360766</v>
+        <v>3.8292406881892</v>
       </c>
       <c r="E16">
-        <v>22.1469382879603</v>
+        <v>23.1729656059091</v>
       </c>
       <c r="F16">
-        <v>1.60326991025542</v>
+        <v>1.74038556248199</v>
       </c>
       <c r="G16">
-        <v>11.693709251805</v>
+        <v>12.1990329224804</v>
       </c>
       <c r="H16">
-        <v>14.0535376406685</v>
+        <v>12.0220003356914</v>
       </c>
       <c r="I16">
-        <v>4.82881340890752</v>
+        <v>4.44259108457366</v>
       </c>
       <c r="J16">
-        <v>32.8457432967376</v>
+        <v>36.1704579567079</v>
       </c>
       <c r="K16">
-        <v>41.2014172987106</v>
+        <v>37.4157746943195</v>
       </c>
       <c r="L16">
-        <v>13.0149095771813</v>
+        <v>14.3352206929684</v>
       </c>
       <c r="M16">
-        <v>20.4720951640804</v>
+        <v>19.2908476786888</v>
       </c>
       <c r="N16">
-        <v>26.70988509202</v>
+        <v>27.8477630381465</v>
       </c>
       <c r="O16">
-        <v>1070.8206876111</v>
+        <v>1062.84896277695</v>
       </c>
       <c r="P16">
-        <v>71.5101512621566</v>
+        <v>71.8565240417631</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>629.138215811283</v>
+        <v>627.5701200157411</v>
       </c>
       <c r="C17">
-        <v>23.5087803409299</v>
+        <v>21.26423044874</v>
       </c>
       <c r="D17">
-        <v>2.71890103885357</v>
+        <v>2.80252904626495</v>
       </c>
       <c r="E17">
-        <v>19.2283075539913</v>
+        <v>18.189999984113</v>
       </c>
       <c r="F17">
-        <v>12.502279602944</v>
+        <v>10.8673816128672</v>
       </c>
       <c r="G17">
-        <v>9.058599787964109</v>
+        <v>10.3136156594723</v>
       </c>
       <c r="H17">
-        <v>10.9942266546894</v>
+        <v>9.613982307369041</v>
       </c>
       <c r="I17">
-        <v>4.8863091517254</v>
+        <v>5.61269015338091</v>
       </c>
       <c r="J17">
-        <v>17.0112140459086</v>
+        <v>17.0369424096518</v>
       </c>
       <c r="K17">
-        <v>7.41974184226604</v>
+        <v>7.67743460614057</v>
       </c>
       <c r="L17">
-        <v>9.12559909654178</v>
+        <v>8.58690373261117</v>
       </c>
       <c r="M17">
-        <v>57.6918440473024</v>
+        <v>58.1658729126352</v>
       </c>
       <c r="N17">
-        <v>7.31342605755136</v>
+        <v>7.84551732830784</v>
       </c>
       <c r="O17">
-        <v>974.262705198812</v>
+        <v>980.390656037796</v>
       </c>
       <c r="P17">
-        <v>43.3344116815521</v>
+        <v>43.6076448121308</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1271.54791391638</v>
+        <v>1281.28472454632</v>
       </c>
       <c r="C18">
-        <v>19.9099471098979</v>
+        <v>20.7863126415594</v>
       </c>
       <c r="D18">
-        <v>4.99146904795816</v>
+        <v>3.97428644799701</v>
       </c>
       <c r="E18">
-        <v>28.8169953192216</v>
+        <v>29.4307819007555</v>
       </c>
       <c r="F18">
-        <v>37.1504408649064</v>
+        <v>34.7506901740237</v>
       </c>
       <c r="G18">
-        <v>13.194836293441</v>
+        <v>14.5967383657153</v>
       </c>
       <c r="H18">
-        <v>8.01103981937346</v>
+        <v>8.9440060625748</v>
       </c>
       <c r="I18">
-        <v>5.7405516371912</v>
+        <v>6.55370938804497</v>
       </c>
       <c r="J18">
-        <v>13.1947643133641</v>
+        <v>16.9737052520263</v>
       </c>
       <c r="K18">
-        <v>9.06962778119394</v>
+        <v>7.7199191291337</v>
       </c>
       <c r="L18">
-        <v>18.6044392700983</v>
+        <v>19.4675920203799</v>
       </c>
       <c r="M18">
-        <v>58.9044725202147</v>
+        <v>55.3881913569471</v>
       </c>
       <c r="N18">
-        <v>21.3816838935357</v>
+        <v>18.9440682761888</v>
       </c>
       <c r="O18">
-        <v>1354.80481541272</v>
+        <v>1353.05141429459</v>
       </c>
       <c r="P18">
-        <v>50.282161807481</v>
+        <v>47.8738904908366</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1298.57025999496</v>
+        <v>1300.04791641624</v>
       </c>
       <c r="C19">
-        <v>31.1516728749304</v>
+        <v>30.8706807258324</v>
       </c>
       <c r="D19">
-        <v>0.394862357545121</v>
+        <v>2.00074048226912</v>
       </c>
       <c r="E19">
-        <v>28.3413053820341</v>
+        <v>27.0071396064541</v>
       </c>
       <c r="F19">
-        <v>61.1728734361122</v>
+        <v>72.3617334507022</v>
       </c>
       <c r="G19">
-        <v>31.6801703776037</v>
+        <v>30.6901586446091</v>
       </c>
       <c r="H19">
-        <v>8.8472350814904</v>
+        <v>6.04397217056108</v>
       </c>
       <c r="I19">
-        <v>6.47253545698397</v>
+        <v>6.26313890394808</v>
       </c>
       <c r="J19">
-        <v>25.5770174643211</v>
+        <v>20.2563126788083</v>
       </c>
       <c r="K19">
-        <v>5.4315024322432</v>
+        <v>3.96078986304923</v>
       </c>
       <c r="L19">
-        <v>2.48147444987395</v>
+        <v>2.94566700583579</v>
       </c>
       <c r="M19">
-        <v>12.9006753903374</v>
+        <v>15.3688258175621</v>
       </c>
       <c r="N19">
-        <v>10.0494531948377</v>
+        <v>10.6126541685773</v>
       </c>
       <c r="O19">
-        <v>1343.7248354648</v>
+        <v>1330.77235849934</v>
       </c>
       <c r="P19">
-        <v>32.0164837962953</v>
+        <v>29.1805721975755</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>367.86124857032</v>
+        <v>367.872902092717</v>
       </c>
       <c r="C20">
-        <v>6.62922467332725</v>
+        <v>7.22101822821133</v>
       </c>
       <c r="D20">
-        <v>4.85100234978617</v>
+        <v>4.84098826889797</v>
       </c>
       <c r="E20">
-        <v>24.8812806521445</v>
+        <v>24.6015009809499</v>
       </c>
       <c r="F20">
-        <v>0.714761944555217</v>
+        <v>0.800743913028018</v>
       </c>
       <c r="G20">
-        <v>2.71924691979087</v>
+        <v>2.5968014455118</v>
       </c>
       <c r="H20">
-        <v>0.743095095178671</v>
+        <v>1.12510915271868</v>
       </c>
       <c r="I20">
-        <v>1.78002055505555</v>
+        <v>1.82740253034517</v>
       </c>
       <c r="J20">
-        <v>4.8353373697068</v>
+        <v>5.00013996820872</v>
       </c>
       <c r="K20">
-        <v>0.470242729084957</v>
+        <v>0.71876766192362</v>
       </c>
       <c r="L20">
-        <v>5.28349676953583</v>
+        <v>5.25640699847523</v>
       </c>
       <c r="M20">
-        <v>13.365094869201</v>
+        <v>13.2506994111043</v>
       </c>
       <c r="N20">
-        <v>4.31453593982839</v>
+        <v>5.07066161655337</v>
       </c>
       <c r="O20">
-        <v>488.143094699013</v>
+        <v>481.89266676776</v>
       </c>
       <c r="P20">
-        <v>14.8640575255253</v>
+        <v>14.6385974876554</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1440.30901498773</v>
+        <v>1448.7583993667</v>
       </c>
       <c r="C21">
-        <v>11.7963929711844</v>
+        <v>12.9846615085213</v>
       </c>
       <c r="D21">
-        <v>0.8264082764828941</v>
+        <v>0.6761943490849161</v>
       </c>
       <c r="E21">
-        <v>18.6649900327941</v>
+        <v>16.4269721392928</v>
       </c>
       <c r="F21">
-        <v>1.29494337564568</v>
+        <v>2.87321985218709</v>
       </c>
       <c r="G21">
-        <v>14.3622489046929</v>
+        <v>14.482787845467</v>
       </c>
       <c r="H21">
-        <v>2.95855909330736</v>
+        <v>4.04391063507733</v>
       </c>
       <c r="I21">
-        <v>8.910822110541099</v>
+        <v>8.535260935637259</v>
       </c>
       <c r="J21">
-        <v>17.9856106974592</v>
+        <v>17.5231633434254</v>
       </c>
       <c r="K21">
-        <v>1.06888886718926</v>
+        <v>2.82264267980666</v>
       </c>
       <c r="L21">
-        <v>20.2250925106198</v>
+        <v>18.1344875111932</v>
       </c>
       <c r="M21">
-        <v>12.778149811996</v>
+        <v>15.6995477625165</v>
       </c>
       <c r="N21">
-        <v>12.2109623583954</v>
+        <v>12.5064429096787</v>
       </c>
       <c r="O21">
-        <v>2033.76846612204</v>
+        <v>2000.65935511692</v>
       </c>
       <c r="P21">
-        <v>14.8435508208166</v>
+        <v>15.6436884333965</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1656.88250922713</v>
+        <v>1666.80474693562</v>
       </c>
       <c r="C22">
-        <v>20.5372327928206</v>
+        <v>21.4638256839344</v>
       </c>
       <c r="D22">
-        <v>5.58428804958814</v>
+        <v>6.5192117610022</v>
       </c>
       <c r="E22">
-        <v>25.1804243119783</v>
+        <v>27.6390466631617</v>
       </c>
       <c r="F22">
-        <v>2.10031825203263</v>
+        <v>2.45130233235769</v>
       </c>
       <c r="G22">
-        <v>23.4542382285964</v>
+        <v>21.0501563636121</v>
       </c>
       <c r="H22">
-        <v>11.7268667211338</v>
+        <v>12.3506821243413</v>
       </c>
       <c r="I22">
-        <v>3.86668304210798</v>
+        <v>6.62376864173642</v>
       </c>
       <c r="J22">
-        <v>31.6886241113704</v>
+        <v>29.6983821643528</v>
       </c>
       <c r="K22">
-        <v>3.34795859378639</v>
+        <v>3.66486001274153</v>
       </c>
       <c r="L22">
-        <v>63.2604020257101</v>
+        <v>71.5553526280722</v>
       </c>
       <c r="M22">
-        <v>13.6664490006019</v>
+        <v>16.2156586615834</v>
       </c>
       <c r="N22">
-        <v>40.7597915218972</v>
+        <v>44.4732775347086</v>
       </c>
       <c r="O22">
-        <v>2413.95085499982</v>
+        <v>2393.41196516598</v>
       </c>
       <c r="P22">
-        <v>11.7751595396655</v>
+        <v>10.9305336507395</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2872.79319284586</v>
+        <v>2880.76596133182</v>
       </c>
       <c r="C23">
-        <v>27.9651905496313</v>
+        <v>29.5120287819993</v>
       </c>
       <c r="D23">
-        <v>5.36596444570746</v>
+        <v>5.63350914587598</v>
       </c>
       <c r="E23">
-        <v>37.7773453583929</v>
+        <v>38.1622593141019</v>
       </c>
       <c r="F23">
-        <v>5.37318074005758</v>
+        <v>6.84629418654464</v>
       </c>
       <c r="G23">
-        <v>42.3517293166627</v>
+        <v>44.425283092739</v>
       </c>
       <c r="H23">
-        <v>43.5770026800997</v>
+        <v>42.240955420092</v>
       </c>
       <c r="I23">
-        <v>19.1026266117425</v>
+        <v>16.085380431933</v>
       </c>
       <c r="J23">
-        <v>83.7545903586019</v>
+        <v>88.7645332249087</v>
       </c>
       <c r="K23">
-        <v>63.192835282394</v>
+        <v>60.0905831870506</v>
       </c>
       <c r="L23">
-        <v>31.5839875107978</v>
+        <v>31.2890922716356</v>
       </c>
       <c r="M23">
-        <v>429.105447898628</v>
+        <v>420.541408472471</v>
       </c>
       <c r="N23">
-        <v>72.9329960998431</v>
+        <v>72.3693308337045</v>
       </c>
       <c r="O23">
-        <v>3077.28837763336</v>
+        <v>3058.0369840038</v>
       </c>
       <c r="P23">
-        <v>45.0553574627894</v>
+        <v>44.6101402245205</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1115.73684665153</v>
+        <v>1120.56696743308</v>
       </c>
       <c r="C24">
-        <v>38.4415749657668</v>
+        <v>39.3510425611888</v>
       </c>
       <c r="D24">
-        <v>5.8565826969443</v>
+        <v>6.57717534654075</v>
       </c>
       <c r="E24">
-        <v>45.24463233837</v>
+        <v>50.0331595420858</v>
       </c>
       <c r="F24">
-        <v>7.9366917339753</v>
+        <v>7.24985411487308</v>
       </c>
       <c r="G24">
-        <v>20.0880824350171</v>
+        <v>24.3940922553396</v>
       </c>
       <c r="H24">
-        <v>17.2819101030897</v>
+        <v>14.3995779061098</v>
       </c>
       <c r="I24">
-        <v>12.1451329176058</v>
+        <v>11.1640848227404</v>
       </c>
       <c r="J24">
-        <v>39.0062385351417</v>
+        <v>38.4803078495318</v>
       </c>
       <c r="K24">
-        <v>14.7625601429573</v>
+        <v>15.3658320776315</v>
       </c>
       <c r="L24">
-        <v>55.794896287934</v>
+        <v>60.3064385089139</v>
       </c>
       <c r="M24">
-        <v>13.9831072208485</v>
+        <v>14.8179409984288</v>
       </c>
       <c r="N24">
-        <v>62.1758439406544</v>
+        <v>59.636374942147</v>
       </c>
       <c r="O24">
-        <v>1930.67217396062</v>
+        <v>1908.98085880908</v>
       </c>
       <c r="P24">
-        <v>69.6263547082585</v>
+        <v>70.2208100984212</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>925.742209409502</v>
+        <v>926.485783811818</v>
       </c>
       <c r="C25">
-        <v>27.3351565860791</v>
+        <v>27.9547211486547</v>
       </c>
       <c r="D25">
-        <v>11.6936306456213</v>
+        <v>10.472693114446</v>
       </c>
       <c r="E25">
-        <v>40.4681996564027</v>
+        <v>38.6908374648078</v>
       </c>
       <c r="F25">
-        <v>18.9263156757479</v>
+        <v>15.8669007778594</v>
       </c>
       <c r="G25">
-        <v>11.5551484575103</v>
+        <v>8.93952277282667</v>
       </c>
       <c r="H25">
-        <v>4.48966896502668</v>
+        <v>5.81427726566856</v>
       </c>
       <c r="I25">
-        <v>3.9676319784728</v>
+        <v>3.17175962248567</v>
       </c>
       <c r="J25">
-        <v>6.36555904923166</v>
+        <v>7.92751478458859</v>
       </c>
       <c r="K25">
-        <v>4.45631422592269</v>
+        <v>4.8533462356949</v>
       </c>
       <c r="L25">
-        <v>7.55701009493566</v>
+        <v>7.70793183112457</v>
       </c>
       <c r="M25">
-        <v>34.2313322433749</v>
+        <v>33.742647666566</v>
       </c>
       <c r="N25">
-        <v>42.4679373103265</v>
+        <v>38.2485543914199</v>
       </c>
       <c r="O25">
-        <v>733.109152698542</v>
+        <v>745.292407612725</v>
       </c>
       <c r="P25">
-        <v>42.3068793558448</v>
+        <v>38.9263074212203</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1518.0890727784</v>
+        <v>1507.28826239744</v>
       </c>
       <c r="C26">
-        <v>40.5938228810745</v>
+        <v>41.4833527756358</v>
       </c>
       <c r="D26">
-        <v>2.4486364545138</v>
+        <v>3.70502376832758</v>
       </c>
       <c r="E26">
-        <v>44.6149090428038</v>
+        <v>43.418264698237</v>
       </c>
       <c r="F26">
-        <v>9.173218535182279</v>
+        <v>9.734829659124591</v>
       </c>
       <c r="G26">
-        <v>24.642430081535</v>
+        <v>24.1199390394623</v>
       </c>
       <c r="H26">
-        <v>13.6796291356061</v>
+        <v>11.3405805146643</v>
       </c>
       <c r="I26">
-        <v>14.9695079393809</v>
+        <v>16.9747588896668</v>
       </c>
       <c r="J26">
-        <v>29.7692088047761</v>
+        <v>30.3397994639542</v>
       </c>
       <c r="K26">
-        <v>14.7690480909762</v>
+        <v>14.1270689831131</v>
       </c>
       <c r="L26">
-        <v>26.5891908286881</v>
+        <v>27.6090771906938</v>
       </c>
       <c r="M26">
-        <v>50.7200732494608</v>
+        <v>48.5817546970194</v>
       </c>
       <c r="N26">
-        <v>31.1921857815177</v>
+        <v>28.311266047556</v>
       </c>
       <c r="O26">
-        <v>2075.74063597569</v>
+        <v>2087.55249700029</v>
       </c>
       <c r="P26">
-        <v>40.7132843722406</v>
+        <v>43.4449865352542</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>249.590116853666</v>
+        <v>250.559156923913</v>
       </c>
       <c r="C27">
-        <v>3.20177368134874</v>
+        <v>2.2349560979872</v>
       </c>
       <c r="D27">
-        <v>0.757406846594886</v>
+        <v>1.07825544748607</v>
       </c>
       <c r="E27">
-        <v>7.90336903642349</v>
+        <v>7.47299390654109</v>
       </c>
       <c r="F27">
-        <v>5.45105155835655</v>
+        <v>4.7955923764757</v>
       </c>
       <c r="G27">
-        <v>0.536365107355822</v>
+        <v>0.447138691608777</v>
       </c>
       <c r="H27">
-        <v>0.130437497988672</v>
+        <v>0.140852384459843</v>
       </c>
       <c r="I27">
-        <v>1.8557340596924</v>
+        <v>1.45630051852262</v>
       </c>
       <c r="J27">
-        <v>2.7466878907537</v>
+        <v>2.31398779275209</v>
       </c>
       <c r="K27">
-        <v>0.400424308495138</v>
+        <v>0.413384010306773</v>
       </c>
       <c r="L27">
-        <v>1.48959526138842</v>
+        <v>1.3214497138133</v>
       </c>
       <c r="M27">
-        <v>0.301833758520313</v>
+        <v>0.383816386416833</v>
       </c>
       <c r="N27">
-        <v>2.95947365751058</v>
+        <v>2.98297857990692</v>
       </c>
       <c r="O27">
-        <v>336.238765042905</v>
+        <v>334.263843155936</v>
       </c>
       <c r="P27">
-        <v>35.4767604366645</v>
+        <v>37.5162582492232</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>385.58072481711</v>
+        <v>384.410234842961</v>
       </c>
       <c r="C28">
-        <v>28.7880114421864</v>
+        <v>28.2108175445322</v>
       </c>
       <c r="D28">
-        <v>1.08868746499092</v>
+        <v>1.24853510133321</v>
       </c>
       <c r="E28">
-        <v>4.56342858536202</v>
+        <v>4.82358126138813</v>
       </c>
       <c r="F28">
-        <v>0.413677995959402</v>
+        <v>0.323780528501082</v>
       </c>
       <c r="G28">
-        <v>3.90544825246612</v>
+        <v>4.03710777956848</v>
       </c>
       <c r="H28">
-        <v>5.54066107703138</v>
+        <v>6.21506353039469</v>
       </c>
       <c r="I28">
-        <v>4.40528411271024</v>
+        <v>4.07160402761992</v>
       </c>
       <c r="J28">
-        <v>16.9090780653138</v>
+        <v>17.0034121449549</v>
       </c>
       <c r="K28">
-        <v>10.0647550865871</v>
+        <v>8.614071383854689</v>
       </c>
       <c r="L28">
-        <v>10.6021314748274</v>
+        <v>10.7233098599332</v>
       </c>
       <c r="M28">
-        <v>8.41392580199124</v>
+        <v>8.052070034621041</v>
       </c>
       <c r="N28">
-        <v>8.3559564873593</v>
+        <v>8.219124046798379</v>
       </c>
       <c r="O28">
-        <v>640.402698278599</v>
+        <v>642.066908480362</v>
       </c>
       <c r="P28">
-        <v>64.3648456214888</v>
+        <v>65.03163128211889</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>581.5247066733321</v>
+        <v>584.859538217025</v>
       </c>
       <c r="C29">
-        <v>2.70960530313353</v>
+        <v>3.44593674550055</v>
       </c>
       <c r="D29">
-        <v>1.46720201317602</v>
+        <v>1.71401091816584</v>
       </c>
       <c r="E29">
-        <v>3.69431953263101</v>
+        <v>4.25007677493583</v>
       </c>
       <c r="F29">
-        <v>22.094309057574</v>
+        <v>21.3121073479227</v>
       </c>
       <c r="G29">
-        <v>3.12766556564583</v>
+        <v>3.22714576500566</v>
       </c>
       <c r="H29">
-        <v>0.774028885842314</v>
+        <v>0.768999992495189</v>
       </c>
       <c r="I29">
-        <v>1.38770651676851</v>
+        <v>1.19749989194338</v>
       </c>
       <c r="J29">
-        <v>1.72294670506504</v>
+        <v>3.05038675426894</v>
       </c>
       <c r="K29">
-        <v>1.91915741510534</v>
+        <v>1.80871391965771</v>
       </c>
       <c r="L29">
-        <v>1.61419274840975</v>
+        <v>2.26197950624962</v>
       </c>
       <c r="M29">
-        <v>3.15186482828704</v>
+        <v>3.32852816610472</v>
       </c>
       <c r="N29">
-        <v>9.541686330215439</v>
+        <v>8.57732671982893</v>
       </c>
       <c r="O29">
-        <v>929.426507386718</v>
+        <v>928.819457268901</v>
       </c>
       <c r="P29">
-        <v>2.36246066408802</v>
+        <v>2.98087017656741</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>280.809952104763</v>
+        <v>278.32882521093</v>
       </c>
       <c r="C30">
-        <v>4.03295968042977</v>
+        <v>3.84618682221329</v>
       </c>
       <c r="D30">
-        <v>2.30788786020974</v>
+        <v>2.78433695151546</v>
       </c>
       <c r="E30">
-        <v>8.841399263818159</v>
+        <v>8.62768135244839</v>
       </c>
       <c r="F30">
-        <v>0.0227118534030903</v>
+        <v>0.200723392575638</v>
       </c>
       <c r="G30">
-        <v>4.74122295518628</v>
+        <v>4.79433410784878</v>
       </c>
       <c r="H30">
-        <v>3.20223661061419</v>
+        <v>2.89526838491727</v>
       </c>
       <c r="I30">
-        <v>2.2870886476671</v>
+        <v>1.63825152333282</v>
       </c>
       <c r="J30">
-        <v>14.6412481889859</v>
+        <v>14.5635481536795</v>
       </c>
       <c r="K30">
-        <v>4.08836240374591</v>
+        <v>3.49881037301867</v>
       </c>
       <c r="L30">
-        <v>33.5421930594952</v>
+        <v>33.7949493616622</v>
       </c>
       <c r="M30">
-        <v>6.90437289599937</v>
+        <v>6.72834209659716</v>
       </c>
       <c r="N30">
-        <v>12.6629919551264</v>
+        <v>12.5293594754873</v>
       </c>
       <c r="O30">
-        <v>477.062659731632</v>
+        <v>481.661688071336</v>
       </c>
       <c r="P30">
-        <v>3.37589238045185</v>
+        <v>4.05493328360685</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2310.70106524152</v>
+        <v>2316.4958064553</v>
       </c>
       <c r="C31">
-        <v>47.9403795642076</v>
+        <v>45.2010558080782</v>
       </c>
       <c r="D31">
-        <v>4.40745723684603</v>
+        <v>5.80333728171142</v>
       </c>
       <c r="E31">
-        <v>26.8322460964149</v>
+        <v>30.3012755250712</v>
       </c>
       <c r="F31">
-        <v>2.54149434935232</v>
+        <v>3.02918362491696</v>
       </c>
       <c r="G31">
-        <v>93.49929739303511</v>
+        <v>90.3956611492498</v>
       </c>
       <c r="H31">
-        <v>4.11255817185048</v>
+        <v>5.5021684054078</v>
       </c>
       <c r="I31">
-        <v>9.662906415563739</v>
+        <v>10.1488823484057</v>
       </c>
       <c r="J31">
-        <v>23.3750265313563</v>
+        <v>21.9160422690599</v>
       </c>
       <c r="K31">
-        <v>3.41149091620474</v>
+        <v>5.18305386988238</v>
       </c>
       <c r="L31">
-        <v>40.3919585449013</v>
+        <v>43.4546766576736</v>
       </c>
       <c r="M31">
-        <v>13.8351789404884</v>
+        <v>16.1540861288762</v>
       </c>
       <c r="N31">
-        <v>52.9955677902049</v>
+        <v>50.7581199024605</v>
       </c>
       <c r="O31">
-        <v>3071.45993927781</v>
+        <v>3036.73679168748</v>
       </c>
       <c r="P31">
-        <v>15.3448614544732</v>
+        <v>16.2537465216273</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>573.214492336817</v>
+        <v>569.547584358958</v>
       </c>
       <c r="C32">
-        <v>2.88621694555009</v>
+        <v>2.61758649469082</v>
       </c>
       <c r="D32">
-        <v>1.20409516063159</v>
+        <v>0.919272393017961</v>
       </c>
       <c r="E32">
-        <v>3.19148232911295</v>
+        <v>2.45377224798953</v>
       </c>
       <c r="F32">
-        <v>19.3839884520445</v>
+        <v>19.0375929238376</v>
       </c>
       <c r="G32">
-        <v>2.31763377644667</v>
+        <v>2.78353037528578</v>
       </c>
       <c r="H32">
-        <v>0.511394311851838</v>
+        <v>0.57072379083637</v>
       </c>
       <c r="I32">
-        <v>1.88018401480425</v>
+        <v>1.31063678851119</v>
       </c>
       <c r="J32">
-        <v>4.19904812658559</v>
+        <v>3.06110944852456</v>
       </c>
       <c r="K32">
-        <v>1.34440020222064</v>
+        <v>1.40729821227803</v>
       </c>
       <c r="L32">
-        <v>3.56694963739775</v>
+        <v>5.51955172556342</v>
       </c>
       <c r="M32">
-        <v>5.28689338653234</v>
+        <v>4.646310489137</v>
       </c>
       <c r="N32">
-        <v>9.453328717696691</v>
+        <v>10.3407156350041</v>
       </c>
       <c r="O32">
-        <v>634.795627006442</v>
+        <v>638.282776191696</v>
       </c>
       <c r="P32">
-        <v>13.9089602959369</v>
+        <v>15.742293732442</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5728.39707970023</v>
+        <v>5707.75977638453</v>
       </c>
       <c r="C33">
-        <v>61.9506733419559</v>
+        <v>61.7202198627606</v>
       </c>
       <c r="D33">
-        <v>6.19903267874426</v>
+        <v>8.874541761008659</v>
       </c>
       <c r="E33">
-        <v>44.816015749672</v>
+        <v>54.4465271369527</v>
       </c>
       <c r="F33">
-        <v>7.37946952735581</v>
+        <v>6.8629764747819</v>
       </c>
       <c r="G33">
-        <v>45.2091696725027</v>
+        <v>50.7805260651293</v>
       </c>
       <c r="H33">
-        <v>27.5876123620584</v>
+        <v>22.5203346005531</v>
       </c>
       <c r="I33">
-        <v>16.3961635537227</v>
+        <v>17.0226200605024</v>
       </c>
       <c r="J33">
-        <v>65.2063340356045</v>
+        <v>66.53698154981571</v>
       </c>
       <c r="K33">
-        <v>44.7369075132325</v>
+        <v>42.3202003170377</v>
       </c>
       <c r="L33">
-        <v>83.4909805967519</v>
+        <v>79.6165337165462</v>
       </c>
       <c r="M33">
-        <v>34.5006707129822</v>
+        <v>38.3896115115191</v>
       </c>
       <c r="N33">
-        <v>117.364936909313</v>
+        <v>108.93618217196</v>
       </c>
       <c r="O33">
-        <v>6374.89148469761</v>
+        <v>6390.24235160554</v>
       </c>
       <c r="P33">
-        <v>65.29369932210391</v>
+        <v>65.1096299923065</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2404.67403983488</v>
+        <v>2435.39158156498</v>
       </c>
       <c r="C34">
-        <v>53.1812001459348</v>
+        <v>54.0663193367359</v>
       </c>
       <c r="D34">
-        <v>49.7756393346837</v>
+        <v>54.5265366312135</v>
       </c>
       <c r="E34">
-        <v>47.6615232745759</v>
+        <v>41.8706266999377</v>
       </c>
       <c r="F34">
-        <v>1.90509774024266</v>
+        <v>1.89337247242294</v>
       </c>
       <c r="G34">
-        <v>38.2855841323754</v>
+        <v>39.9111039114185</v>
       </c>
       <c r="H34">
-        <v>30.2869127886947</v>
+        <v>28.6246533909338</v>
       </c>
       <c r="I34">
-        <v>9.13149835206162</v>
+        <v>11.0747142323705</v>
       </c>
       <c r="J34">
-        <v>33.6097593037721</v>
+        <v>39.3519497167876</v>
       </c>
       <c r="K34">
-        <v>3.74442569082126</v>
+        <v>8.315040698364919</v>
       </c>
       <c r="L34">
-        <v>85.143939889894</v>
+        <v>80.6074852834896</v>
       </c>
       <c r="M34">
-        <v>33.9423472475028</v>
+        <v>32.7386444794505</v>
       </c>
       <c r="N34">
-        <v>101.853650142893</v>
+        <v>103.590603366473</v>
       </c>
       <c r="O34">
-        <v>2940.11045100088</v>
+        <v>2927.03862112151</v>
       </c>
       <c r="P34">
-        <v>52.2490754211098</v>
+        <v>49.6812723185573</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>146.937418440135</v>
+        <v>146.920445767838</v>
       </c>
       <c r="C35">
-        <v>5.79790015059371</v>
+        <v>5.52676767940362</v>
       </c>
       <c r="D35">
-        <v>0.417570142729717</v>
+        <v>0.35342631500724</v>
       </c>
       <c r="E35">
-        <v>2.3348282637548</v>
+        <v>2.61761884808364</v>
       </c>
       <c r="F35">
-        <v>2.76301252278815</v>
+        <v>2.91182343465474</v>
       </c>
       <c r="G35">
-        <v>0.702303833276561</v>
+        <v>0.513394046904869</v>
       </c>
       <c r="H35">
-        <v>0.7502509033421551</v>
+        <v>0.605683305951629</v>
       </c>
       <c r="I35">
-        <v>0.692428646197074</v>
+        <v>0.985622739843026</v>
       </c>
       <c r="J35">
-        <v>2.19849322799203</v>
+        <v>2.28946033917033</v>
       </c>
       <c r="K35">
-        <v>2.76693355959211</v>
+        <v>3.15365657817757</v>
       </c>
       <c r="L35">
-        <v>3.0509401225568</v>
+        <v>2.59696292649357</v>
       </c>
       <c r="M35">
-        <v>2.84242106814703</v>
+        <v>2.91596173615731</v>
       </c>
       <c r="N35">
-        <v>3.61183580302553</v>
+        <v>3.35514203739309</v>
       </c>
       <c r="O35">
-        <v>239.526318793378</v>
+        <v>238.77937214212</v>
       </c>
       <c r="P35">
-        <v>35.3513529056017</v>
+        <v>35.2414031530791</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3205.38310897798</v>
+        <v>3193.7526394852</v>
       </c>
       <c r="C36">
-        <v>70.15080646770279</v>
+        <v>65.79922523063451</v>
       </c>
       <c r="D36">
-        <v>4.39738614622163</v>
+        <v>7.0146350455714</v>
       </c>
       <c r="E36">
-        <v>108.629258379279</v>
+        <v>110.00590858825</v>
       </c>
       <c r="F36">
-        <v>21.5717611832556</v>
+        <v>20.7208193189635</v>
       </c>
       <c r="G36">
-        <v>68.8221713571502</v>
+        <v>70.16187895793721</v>
       </c>
       <c r="H36">
-        <v>62.0695633270011</v>
+        <v>65.5663549589317</v>
       </c>
       <c r="I36">
-        <v>30.4593086455141</v>
+        <v>27.6507074265102</v>
       </c>
       <c r="J36">
-        <v>176.485091818491</v>
+        <v>172.868434990373</v>
       </c>
       <c r="K36">
-        <v>47.0985929923987</v>
+        <v>45.3179502133045</v>
       </c>
       <c r="L36">
-        <v>46.0970859185517</v>
+        <v>51.0148549951621</v>
       </c>
       <c r="M36">
-        <v>154.048885548487</v>
+        <v>157.261542384349</v>
       </c>
       <c r="N36">
-        <v>98.42888061820401</v>
+        <v>96.37873916731429</v>
       </c>
       <c r="O36">
-        <v>3779.94376070063</v>
+        <v>3794.41354911184</v>
       </c>
       <c r="P36">
-        <v>51.7794178993942</v>
+        <v>51.8933830568602</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1052.829757219</v>
+        <v>1061.818696241</v>
       </c>
       <c r="C37">
-        <v>12.3538711923255</v>
+        <v>13.0516417441759</v>
       </c>
       <c r="D37">
-        <v>1.72758357582033</v>
+        <v>2.32680878520111</v>
       </c>
       <c r="E37">
-        <v>16.0543821951187</v>
+        <v>17.6865001390965</v>
       </c>
       <c r="F37">
-        <v>37.5257355668166</v>
+        <v>35.9555534069925</v>
       </c>
       <c r="G37">
-        <v>4.77391306644551</v>
+        <v>5.9749307587981</v>
       </c>
       <c r="H37">
-        <v>22.4182545900492</v>
+        <v>21.5501027115318</v>
       </c>
       <c r="I37">
-        <v>8.85083273514655</v>
+        <v>8.964067020467899</v>
       </c>
       <c r="J37">
-        <v>31.1055732659391</v>
+        <v>32.5399396937253</v>
       </c>
       <c r="K37">
-        <v>4.73324455080967</v>
+        <v>5.43063679732</v>
       </c>
       <c r="L37">
-        <v>14.8684813771901</v>
+        <v>15.8086270589266</v>
       </c>
       <c r="M37">
-        <v>23.9733334293382</v>
+        <v>25.1851264456722</v>
       </c>
       <c r="N37">
-        <v>18.1165046884223</v>
+        <v>20.6330429973827</v>
       </c>
       <c r="O37">
-        <v>1141.06701114949</v>
+        <v>1129.42904332807</v>
       </c>
       <c r="P37">
-        <v>41.3634635358545</v>
+        <v>43.6621802029806</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1056.9113567048</v>
+        <v>1059.35733183383</v>
       </c>
       <c r="C38">
-        <v>24.0493530789583</v>
+        <v>22.3538772826426</v>
       </c>
       <c r="D38">
-        <v>4.30775095473845</v>
+        <v>4.65749272313409</v>
       </c>
       <c r="E38">
-        <v>39.8123428273497</v>
+        <v>40.3835639865774</v>
       </c>
       <c r="F38">
-        <v>0.88239237263325</v>
+        <v>0.718190127283231</v>
       </c>
       <c r="G38">
-        <v>8.94466291418286</v>
+        <v>8.19857587254552</v>
       </c>
       <c r="H38">
-        <v>1.01986308010693</v>
+        <v>1.01195645588377</v>
       </c>
       <c r="I38">
-        <v>2.02766892025179</v>
+        <v>2.67557677294653</v>
       </c>
       <c r="J38">
-        <v>24.5579631222845</v>
+        <v>24.1455102820268</v>
       </c>
       <c r="K38">
-        <v>2.22799768058992</v>
+        <v>2.80292890956058</v>
       </c>
       <c r="L38">
-        <v>81.5302097716437</v>
+        <v>80.20132732700699</v>
       </c>
       <c r="M38">
-        <v>17.4276937384573</v>
+        <v>17.8647780238742</v>
       </c>
       <c r="N38">
-        <v>42.6483132999649</v>
+        <v>44.6427606187748</v>
       </c>
       <c r="O38">
-        <v>1242.34684257086</v>
+        <v>1234.75609234744</v>
       </c>
       <c r="P38">
-        <v>41.3079567084894</v>
+        <v>41.236024547984</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3529.08971774351</v>
+        <v>3570.72127039111</v>
       </c>
       <c r="C39">
-        <v>80.6378841548491</v>
+        <v>80.6922597026167</v>
       </c>
       <c r="D39">
-        <v>20.971809044777</v>
+        <v>25.5217292390056</v>
       </c>
       <c r="E39">
-        <v>123.258834935669</v>
+        <v>116.736204187839</v>
       </c>
       <c r="F39">
-        <v>26.3508726353467</v>
+        <v>25.7212711731782</v>
       </c>
       <c r="G39">
-        <v>104.376032714111</v>
+        <v>104.165266043586</v>
       </c>
       <c r="H39">
-        <v>42.9783809339776</v>
+        <v>41.9634402410957</v>
       </c>
       <c r="I39">
-        <v>18.451725037198</v>
+        <v>20.0268173842305</v>
       </c>
       <c r="J39">
-        <v>142.826864815244</v>
+        <v>135.338086711674</v>
       </c>
       <c r="K39">
-        <v>30.8064009289351</v>
+        <v>34.6704163808156</v>
       </c>
       <c r="L39">
-        <v>92.0781068677797</v>
+        <v>90.1490686694987</v>
       </c>
       <c r="M39">
-        <v>58.2127078931156</v>
+        <v>53.7709233793944</v>
       </c>
       <c r="N39">
-        <v>109.297023792762</v>
+        <v>104.413554714605</v>
       </c>
       <c r="O39">
-        <v>4324.95904116083</v>
+        <v>4312.51679175814</v>
       </c>
       <c r="P39">
-        <v>66.7734296246323</v>
+        <v>68.5269019075737</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>278.873657761393</v>
+        <v>282.338104009804</v>
       </c>
       <c r="C40">
-        <v>2.93556611051861</v>
+        <v>2.73809047071466</v>
       </c>
       <c r="D40">
-        <v>5.36111868655191</v>
+        <v>5.42830234409792</v>
       </c>
       <c r="E40">
-        <v>3.82752187915893</v>
+        <v>4.04270303958731</v>
       </c>
       <c r="F40">
-        <v>0.322260024632957</v>
+        <v>0.241610944983521</v>
       </c>
       <c r="G40">
-        <v>3.72383200939293</v>
+        <v>3.91528956773943</v>
       </c>
       <c r="H40">
-        <v>3.57308836221013</v>
+        <v>3.58261997770727</v>
       </c>
       <c r="I40">
-        <v>1.73498870629419</v>
+        <v>1.99319054708145</v>
       </c>
       <c r="J40">
-        <v>9.091879836528969</v>
+        <v>8.63403231383899</v>
       </c>
       <c r="K40">
-        <v>0.948099714013921</v>
+        <v>1.12823162405911</v>
       </c>
       <c r="L40">
-        <v>7.80989463847635</v>
+        <v>8.307441627671251</v>
       </c>
       <c r="M40">
-        <v>3.78282995364199</v>
+        <v>4.3605738823285</v>
       </c>
       <c r="N40">
-        <v>18.0959500603811</v>
+        <v>15.9612144726875</v>
       </c>
       <c r="O40">
-        <v>378.356123081015</v>
+        <v>374.262469331275</v>
       </c>
       <c r="P40">
-        <v>4.67315759755413</v>
+        <v>3.91995692628621</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1326.77603222335</v>
+        <v>1334.176002436</v>
       </c>
       <c r="C41">
-        <v>11.493521187787</v>
+        <v>15.5798801544828</v>
       </c>
       <c r="D41">
-        <v>43.4732893377954</v>
+        <v>43.5918261298846</v>
       </c>
       <c r="E41">
-        <v>24.7076197257535</v>
+        <v>25.9584156223711</v>
       </c>
       <c r="F41">
-        <v>0.639515819543181</v>
+        <v>1.39586685536696</v>
       </c>
       <c r="G41">
-        <v>25.1636243481481</v>
+        <v>23.4341533057824</v>
       </c>
       <c r="H41">
-        <v>21.7680184561408</v>
+        <v>20.0548174026077</v>
       </c>
       <c r="I41">
-        <v>11.8435614171302</v>
+        <v>11.5411964852038</v>
       </c>
       <c r="J41">
-        <v>34.9695110669828</v>
+        <v>34.3140035419848</v>
       </c>
       <c r="K41">
-        <v>6.48471407601931</v>
+        <v>6.80779461122576</v>
       </c>
       <c r="L41">
-        <v>22.0829520026458</v>
+        <v>25.6037229216096</v>
       </c>
       <c r="M41">
-        <v>28.9085463170942</v>
+        <v>27.8950059183068</v>
       </c>
       <c r="N41">
-        <v>17.0575108999413</v>
+        <v>19.3008971551417</v>
       </c>
       <c r="O41">
-        <v>1345.15387582317</v>
+        <v>1338.70227073411</v>
       </c>
       <c r="P41">
-        <v>17.0655622714389</v>
+        <v>18.9743652013383</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>156.670146857821</v>
+        <v>158.505691003049</v>
       </c>
       <c r="C42">
-        <v>5.38393737442875</v>
+        <v>5.31949313838205</v>
       </c>
       <c r="D42">
-        <v>1.21085099545809</v>
+        <v>1.21506154804</v>
       </c>
       <c r="E42">
-        <v>4.56404727110549</v>
+        <v>4.48243908193664</v>
       </c>
       <c r="F42">
-        <v>2.0317992382811</v>
+        <v>1.8313390375848</v>
       </c>
       <c r="G42">
-        <v>1.35943857206049</v>
+        <v>1.25312036058392</v>
       </c>
       <c r="H42">
-        <v>1.06975343992322</v>
+        <v>1.45386124694521</v>
       </c>
       <c r="I42">
-        <v>2.15084961001573</v>
+        <v>1.93259384988964</v>
       </c>
       <c r="J42">
-        <v>4.49478403441784</v>
+        <v>4.39889097309581</v>
       </c>
       <c r="K42">
-        <v>2.59443435965543</v>
+        <v>2.89693009921376</v>
       </c>
       <c r="L42">
-        <v>3.72278009619312</v>
+        <v>4.31236735763905</v>
       </c>
       <c r="M42">
-        <v>2.91034955717625</v>
+        <v>2.8426739394388</v>
       </c>
       <c r="N42">
-        <v>7.40390364783924</v>
+        <v>7.2070863922739</v>
       </c>
       <c r="O42">
-        <v>264.918957539766</v>
+        <v>266.717737755135</v>
       </c>
       <c r="P42">
-        <v>42.943376186057</v>
+        <v>43.7343745475712</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1841.98792091095</v>
+        <v>1833.02490278666</v>
       </c>
       <c r="C43">
-        <v>27.1655952710858</v>
+        <v>30.114846515907</v>
       </c>
       <c r="D43">
-        <v>17.560362584102</v>
+        <v>15.9359310429492</v>
       </c>
       <c r="E43">
-        <v>57.0184086565104</v>
+        <v>59.9849420598579</v>
       </c>
       <c r="F43">
-        <v>9.689433539793139</v>
+        <v>10.3707456918296</v>
       </c>
       <c r="G43">
-        <v>37.3905884962838</v>
+        <v>34.3362397497365</v>
       </c>
       <c r="H43">
-        <v>42.1382864207451</v>
+        <v>38.1548345400871</v>
       </c>
       <c r="I43">
-        <v>6.60524827574289</v>
+        <v>7.18287163540513</v>
       </c>
       <c r="J43">
-        <v>49.0196267547315</v>
+        <v>50.3861388175577</v>
       </c>
       <c r="K43">
-        <v>8.428691792411479</v>
+        <v>7.62734951073861</v>
       </c>
       <c r="L43">
-        <v>29.6410967975528</v>
+        <v>31.6150502479106</v>
       </c>
       <c r="M43">
-        <v>80.4628277569675</v>
+        <v>81.7438632638471</v>
       </c>
       <c r="N43">
-        <v>66.72957747131289</v>
+        <v>52.4166828647372</v>
       </c>
       <c r="O43">
-        <v>1903.12564676377</v>
+        <v>1919.09050689802</v>
       </c>
       <c r="P43">
-        <v>33.9425092502442</v>
+        <v>37.1769267769481</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5663.45450583232</v>
+        <v>5733.22588162795</v>
       </c>
       <c r="C44">
-        <v>123.530677902208</v>
+        <v>126.798827201053</v>
       </c>
       <c r="D44">
-        <v>14.3248247892241</v>
+        <v>16.4798247733291</v>
       </c>
       <c r="E44">
-        <v>65.4348571461409</v>
+        <v>63.9091296214996</v>
       </c>
       <c r="F44">
-        <v>217.601390938692</v>
+        <v>230.210463200574</v>
       </c>
       <c r="G44">
-        <v>118.292756127845</v>
+        <v>108.899310716422</v>
       </c>
       <c r="H44">
-        <v>31.7620508748961</v>
+        <v>26.7067306960472</v>
       </c>
       <c r="I44">
-        <v>44.1804205453517</v>
+        <v>42.461833050783</v>
       </c>
       <c r="J44">
-        <v>114.764143398646</v>
+        <v>106.542897712431</v>
       </c>
       <c r="K44">
-        <v>22.4563647595677</v>
+        <v>25.0918270427699</v>
       </c>
       <c r="L44">
-        <v>150.019364313692</v>
+        <v>145.733044977606</v>
       </c>
       <c r="M44">
-        <v>66.60502569440941</v>
+        <v>74.1767944695611</v>
       </c>
       <c r="N44">
-        <v>82.00161138003929</v>
+        <v>89.9039751920802</v>
       </c>
       <c r="O44">
-        <v>7701.86208978382</v>
+        <v>7670.54234988743</v>
       </c>
       <c r="P44">
-        <v>156.218938464116</v>
+        <v>164.397796640908</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>497.865685417399</v>
+        <v>507.907528803557</v>
       </c>
       <c r="C45">
-        <v>14.6692940626047</v>
+        <v>16.5343823229008</v>
       </c>
       <c r="D45">
-        <v>1.13299487524243</v>
+        <v>1.46496856379397</v>
       </c>
       <c r="E45">
-        <v>10.4497885494156</v>
+        <v>10.3352231137266</v>
       </c>
       <c r="F45">
-        <v>21.8498723760613</v>
+        <v>21.5366944820009</v>
       </c>
       <c r="G45">
-        <v>5.59239084159136</v>
+        <v>6.42891335988277</v>
       </c>
       <c r="H45">
-        <v>0.983720610293895</v>
+        <v>2.04137132933764</v>
       </c>
       <c r="I45">
-        <v>4.13211383119327</v>
+        <v>3.39971963442172</v>
       </c>
       <c r="J45">
-        <v>22.260552226792</v>
+        <v>20.9860509309509</v>
       </c>
       <c r="K45">
-        <v>2.71011463584394</v>
+        <v>1.96705802191241</v>
       </c>
       <c r="L45">
-        <v>16.1219473751262</v>
+        <v>13.8233652559505</v>
       </c>
       <c r="M45">
-        <v>13.4281248524604</v>
+        <v>13.7501024627019</v>
       </c>
       <c r="N45">
-        <v>27.2754401181425</v>
+        <v>29.0586511337285</v>
       </c>
       <c r="O45">
-        <v>843.602958296554</v>
+        <v>846.548450279413</v>
       </c>
       <c r="P45">
-        <v>11.8336949493111</v>
+        <v>11.8680325917534</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>136.54809214728</v>
+        <v>137.000972988451</v>
       </c>
       <c r="C46">
-        <v>3.80135692519182</v>
+        <v>3.39675338323481</v>
       </c>
       <c r="D46">
-        <v>0.611508897242813</v>
+        <v>0.5915294173379651</v>
       </c>
       <c r="E46">
-        <v>4.54707543116663</v>
+        <v>3.96673367167587</v>
       </c>
       <c r="F46">
-        <v>0.409027786479558</v>
+        <v>0.523734908295612</v>
       </c>
       <c r="G46">
-        <v>0.916023082590999</v>
+        <v>1.26790636631448</v>
       </c>
       <c r="H46">
-        <v>0.649130485379508</v>
+        <v>0.628516411944833</v>
       </c>
       <c r="I46">
-        <v>1.70143682093662</v>
+        <v>1.99546037059549</v>
       </c>
       <c r="J46">
-        <v>3.15698844978102</v>
+        <v>3.70508991222767</v>
       </c>
       <c r="K46">
-        <v>0.830588064306111</v>
+        <v>0.888580029059287</v>
       </c>
       <c r="L46">
-        <v>9.685153899943311</v>
+        <v>9.821267449888049</v>
       </c>
       <c r="M46">
-        <v>2.4838908631982</v>
+        <v>2.46854912593146</v>
       </c>
       <c r="N46">
-        <v>6.41792163776692</v>
+        <v>6.03388606076157</v>
       </c>
       <c r="O46">
-        <v>242.139573965588</v>
+        <v>243.031126988018</v>
       </c>
       <c r="P46">
-        <v>8.04617230505696</v>
+        <v>8.396707360866181</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1924.80114026131</v>
+        <v>1920.87310338342</v>
       </c>
       <c r="C47">
-        <v>43.1954787014363</v>
+        <v>41.3501572066799</v>
       </c>
       <c r="D47">
-        <v>14.4857686936705</v>
+        <v>13.1370842260879</v>
       </c>
       <c r="E47">
-        <v>36.2518780200537</v>
+        <v>37.4595906685638</v>
       </c>
       <c r="F47">
-        <v>2.0308100797213</v>
+        <v>2.80161383575283</v>
       </c>
       <c r="G47">
-        <v>19.8546033936237</v>
+        <v>25.9411181817339</v>
       </c>
       <c r="H47">
-        <v>10.4856071252755</v>
+        <v>8.64378310227402</v>
       </c>
       <c r="I47">
-        <v>5.83324302906242</v>
+        <v>6.36335702996739</v>
       </c>
       <c r="J47">
-        <v>28.4712415607551</v>
+        <v>28.8707118590087</v>
       </c>
       <c r="K47">
-        <v>4.5517650892867</v>
+        <v>4.9661316017719</v>
       </c>
       <c r="L47">
-        <v>20.927871796495</v>
+        <v>20.6740320871327</v>
       </c>
       <c r="M47">
-        <v>51.2740993205126</v>
+        <v>54.4725810261194</v>
       </c>
       <c r="N47">
-        <v>22.7063311172854</v>
+        <v>25.4297827564651</v>
       </c>
       <c r="O47">
-        <v>2717.99267990003</v>
+        <v>2711.62976021264</v>
       </c>
       <c r="P47">
-        <v>20.8122099090927</v>
+        <v>24.4360740207602</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1617.46570803254</v>
+        <v>1640.68692343091</v>
       </c>
       <c r="C48">
-        <v>32.293909402072</v>
+        <v>31.2530478879643</v>
       </c>
       <c r="D48">
-        <v>7.1322324467333</v>
+        <v>4.70292654203458</v>
       </c>
       <c r="E48">
-        <v>53.8565436671764</v>
+        <v>55.4664390210585</v>
       </c>
       <c r="F48">
-        <v>11.1690354351314</v>
+        <v>10.7791295144765</v>
       </c>
       <c r="G48">
-        <v>5.46978834567769</v>
+        <v>5.58833958711235</v>
       </c>
       <c r="H48">
-        <v>9.071430386158561</v>
+        <v>8.31312565767634</v>
       </c>
       <c r="I48">
-        <v>7.73263665473758</v>
+        <v>8.027561324970391</v>
       </c>
       <c r="J48">
-        <v>28.7631885933231</v>
+        <v>32.7225414546902</v>
       </c>
       <c r="K48">
-        <v>5.25796286104459</v>
+        <v>7.3731841092984</v>
       </c>
       <c r="L48">
-        <v>35.6304608575546</v>
+        <v>41.4677642434329</v>
       </c>
       <c r="M48">
-        <v>119.844242248104</v>
+        <v>118.231935297771</v>
       </c>
       <c r="N48">
-        <v>34.8050206805491</v>
+        <v>33.7949257597382</v>
       </c>
       <c r="O48">
-        <v>2208.58047920774</v>
+        <v>2181.3798285827</v>
       </c>
       <c r="P48">
-        <v>72.1518548002624</v>
+        <v>77.96649832719039</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>716.243594570447</v>
+        <v>722.061821285538</v>
       </c>
       <c r="C49">
-        <v>3.52975135472826</v>
+        <v>3.32147911150974</v>
       </c>
       <c r="D49">
-        <v>0.599198573374169</v>
+        <v>0.487114937176426</v>
       </c>
       <c r="E49">
-        <v>18.5105923157906</v>
+        <v>17.9225719423229</v>
       </c>
       <c r="F49">
-        <v>24.0182840351959</v>
+        <v>24.5542896347108</v>
       </c>
       <c r="G49">
-        <v>11.6637943542914</v>
+        <v>11.7648113221832</v>
       </c>
       <c r="H49">
-        <v>3.47987818984452</v>
+        <v>3.11762205715428</v>
       </c>
       <c r="I49">
-        <v>2.6482950274406</v>
+        <v>2.25387516243065</v>
       </c>
       <c r="J49">
-        <v>16.0014297311448</v>
+        <v>15.4856621678505</v>
       </c>
       <c r="K49">
-        <v>2.52058880485665</v>
+        <v>2.33222391169362</v>
       </c>
       <c r="L49">
-        <v>0.908445849754841</v>
+        <v>1.26205499484037</v>
       </c>
       <c r="M49">
-        <v>3.33316993102945</v>
+        <v>2.87798275230619</v>
       </c>
       <c r="N49">
-        <v>7.72786045318536</v>
+        <v>6.3216770561217</v>
       </c>
       <c r="O49">
-        <v>514.525491727813</v>
+        <v>514.3983680724471</v>
       </c>
       <c r="P49">
-        <v>7.16236011639703</v>
+        <v>6.20804539686654</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1274.372342023</v>
+        <v>1273.51071633981</v>
       </c>
       <c r="C50">
-        <v>57.2657567351823</v>
+        <v>57.1149472229179</v>
       </c>
       <c r="D50">
-        <v>7.39487089220992</v>
+        <v>6.74147671883085</v>
       </c>
       <c r="E50">
-        <v>115.579194511888</v>
+        <v>117.769499292549</v>
       </c>
       <c r="F50">
-        <v>0.912070076470846</v>
+        <v>3.20410251757631</v>
       </c>
       <c r="G50">
-        <v>24.2852204988746</v>
+        <v>29.6870026967885</v>
       </c>
       <c r="H50">
-        <v>44.1429447369442</v>
+        <v>38.7302790528436</v>
       </c>
       <c r="I50">
-        <v>6.39805234442019</v>
+        <v>8.52211329416633</v>
       </c>
       <c r="J50">
-        <v>70.985365317746</v>
+        <v>72.8792397526291</v>
       </c>
       <c r="K50">
-        <v>38.4926734636747</v>
+        <v>38.0149130260354</v>
       </c>
       <c r="L50">
-        <v>66.5506605558662</v>
+        <v>62.9642645746846</v>
       </c>
       <c r="M50">
-        <v>54.580986094793</v>
+        <v>49.3100105979477</v>
       </c>
       <c r="N50">
-        <v>47.0117304844131</v>
+        <v>51.7360473392097</v>
       </c>
       <c r="O50">
-        <v>1934.05847588578</v>
+        <v>1926.25273114029</v>
       </c>
       <c r="P50">
-        <v>82.9977355368778</v>
+        <v>78.690789727994</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>116.471684181139</v>
+        <v>117.890315427244</v>
       </c>
       <c r="C51">
-        <v>1.62926639665057</v>
+        <v>1.87472382976906</v>
       </c>
       <c r="D51">
-        <v>0.00927203766996324</v>
+        <v>0.00741480736778722</v>
       </c>
       <c r="E51">
-        <v>1.48181026403812</v>
+        <v>1.61055107461012</v>
       </c>
       <c r="F51">
-        <v>25.774557420236</v>
+        <v>24.8969325443426</v>
       </c>
       <c r="G51">
-        <v>1.16980188422621</v>
+        <v>1.21624125105959</v>
       </c>
       <c r="H51">
-        <v>0.108147303907743</v>
+        <v>0.130810444735988</v>
       </c>
       <c r="I51">
-        <v>0.779722571868698</v>
+        <v>0.824662012897262</v>
       </c>
       <c r="J51">
-        <v>1.18345016875498</v>
+        <v>1.06638508644904</v>
       </c>
       <c r="K51">
-        <v>1.0926457348763</v>
+        <v>0.661720335605525</v>
       </c>
       <c r="L51">
-        <v>0.578938326025933</v>
+        <v>0.401821679698885</v>
       </c>
       <c r="M51">
-        <v>0.422265905027591</v>
+        <v>0.540689492258031</v>
       </c>
       <c r="N51">
-        <v>0.76721490375432</v>
+        <v>0.594893109909764</v>
       </c>
       <c r="O51">
-        <v>172.983360431701</v>
+        <v>173.753782367918</v>
       </c>
       <c r="P51">
-        <v>20.0332981245928</v>
+        <v>18.7704722761443</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1477.28347711059</v>
+        <v>1296.43575092063</v>
       </c>
       <c r="C2">
-        <v>21.4985839282556</v>
+        <v>18.6149746628699</v>
       </c>
       <c r="D2">
-        <v>18.094970504935</v>
+        <v>26.112863653657</v>
       </c>
       <c r="E2">
-        <v>44.7989835919691</v>
+        <v>45.4807808886581</v>
       </c>
       <c r="F2">
-        <v>22.6634072470019</v>
+        <v>25.6749589519048</v>
       </c>
       <c r="G2">
-        <v>17.4224150748906</v>
+        <v>17.9034349827798</v>
       </c>
       <c r="H2">
-        <v>8.745073154332991</v>
+        <v>10.5425259337494</v>
       </c>
       <c r="I2">
-        <v>16.8282509785774</v>
+        <v>16.73392765142</v>
       </c>
       <c r="J2">
-        <v>70.32170428227251</v>
+        <v>76.9637993861635</v>
       </c>
       <c r="K2">
-        <v>10.1283855310975</v>
+        <v>16.9502448672671</v>
       </c>
       <c r="L2">
-        <v>47.6997612499241</v>
+        <v>48.3543611178417</v>
       </c>
       <c r="M2">
-        <v>37.2340063410013</v>
+        <v>46.0886374316826</v>
       </c>
       <c r="N2">
-        <v>28.0488865079881</v>
+        <v>29.9595923731917</v>
       </c>
       <c r="O2">
-        <v>1370.22723906476</v>
+        <v>1523.42645684956</v>
       </c>
       <c r="P2">
-        <v>21.6834002911291</v>
+        <v>21.3617777413881</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>119.633973140279</v>
+        <v>94.9433798723299</v>
       </c>
       <c r="C3">
-        <v>1.34139953112329</v>
+        <v>1.72716379993939</v>
       </c>
       <c r="D3">
-        <v>0.194015929251511</v>
+        <v>0.2406112660759</v>
       </c>
       <c r="E3">
-        <v>0.901154835620807</v>
+        <v>0.850936499602051</v>
       </c>
       <c r="F3">
-        <v>7.39812412244042</v>
+        <v>8.234036937669361</v>
       </c>
       <c r="G3">
-        <v>0.208748158009604</v>
+        <v>0.239978551818817</v>
       </c>
       <c r="H3">
-        <v>0.133451821412964</v>
+        <v>0.18273248100755</v>
       </c>
       <c r="I3">
-        <v>0.404647931589855</v>
+        <v>0.580210684758276</v>
       </c>
       <c r="J3">
-        <v>0.157992050786542</v>
+        <v>0.136586904287069</v>
       </c>
       <c r="K3">
-        <v>0.148495551049898</v>
+        <v>0.175518192275622</v>
       </c>
       <c r="L3">
-        <v>0.237022578397069</v>
+        <v>0.234030896623341</v>
       </c>
       <c r="M3">
-        <v>0.201261399460633</v>
+        <v>0.205357666869785</v>
       </c>
       <c r="N3">
-        <v>0.432306922598099</v>
+        <v>0.540759886199517</v>
       </c>
       <c r="O3">
-        <v>197.818152075438</v>
+        <v>223.372636299081</v>
       </c>
       <c r="P3">
-        <v>6.82647519840636</v>
+        <v>7.29611880115077</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1700.00798060281</v>
+        <v>1339.23212737159</v>
       </c>
       <c r="C4">
-        <v>11.7755946160103</v>
+        <v>14.0059772942126</v>
       </c>
       <c r="D4">
-        <v>3.13402046357602</v>
+        <v>1.56649550588434</v>
       </c>
       <c r="E4">
-        <v>16.6600625762865</v>
+        <v>22.2164483514824</v>
       </c>
       <c r="F4">
-        <v>14.2773400083267</v>
+        <v>14.3529558616197</v>
       </c>
       <c r="G4">
-        <v>4.4432489198337</v>
+        <v>5.02601410494159</v>
       </c>
       <c r="H4">
-        <v>4.99141501883534</v>
+        <v>4.30718366701388</v>
       </c>
       <c r="I4">
-        <v>8.124706511100671</v>
+        <v>7.21660713957162</v>
       </c>
       <c r="J4">
-        <v>24.1370093076706</v>
+        <v>31.4845865485657</v>
       </c>
       <c r="K4">
-        <v>3.6335837368905</v>
+        <v>5.07008361601372</v>
       </c>
       <c r="L4">
-        <v>54.6191818973633</v>
+        <v>62.5265973205767</v>
       </c>
       <c r="M4">
-        <v>41.3998295399542</v>
+        <v>46.7500770057663</v>
       </c>
       <c r="N4">
-        <v>28.5700449501683</v>
+        <v>43.1295718711128</v>
       </c>
       <c r="O4">
-        <v>2043.35209529526</v>
+        <v>2365.24898929248</v>
       </c>
       <c r="P4">
-        <v>26.5691774125742</v>
+        <v>19.9541769355286</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>887.12724662014</v>
+        <v>731.032922866843</v>
       </c>
       <c r="C5">
-        <v>36.4231082810825</v>
+        <v>41.7758755728366</v>
       </c>
       <c r="D5">
-        <v>10.1716183762176</v>
+        <v>12.428911805017</v>
       </c>
       <c r="E5">
-        <v>22.6506008620411</v>
+        <v>24.7353994458416</v>
       </c>
       <c r="F5">
-        <v>6.71720039665477</v>
+        <v>6.93621137001393</v>
       </c>
       <c r="G5">
-        <v>3.84473262203533</v>
+        <v>5.30187789847957</v>
       </c>
       <c r="H5">
-        <v>9.980301068226471</v>
+        <v>11.656522757637</v>
       </c>
       <c r="I5">
-        <v>6.47022442116917</v>
+        <v>6.05422135326354</v>
       </c>
       <c r="J5">
-        <v>27.091035690256</v>
+        <v>29.4214914159588</v>
       </c>
       <c r="K5">
-        <v>3.28982910134885</v>
+        <v>3.8814548084979</v>
       </c>
       <c r="L5">
-        <v>8.74113039707175</v>
+        <v>11.2162423056276</v>
       </c>
       <c r="M5">
-        <v>11.2074572009064</v>
+        <v>15.334721520562</v>
       </c>
       <c r="N5">
-        <v>22.667190556163</v>
+        <v>26.9024938735364</v>
       </c>
       <c r="O5">
-        <v>874.99497384652</v>
+        <v>1015.51153215836</v>
       </c>
       <c r="P5">
-        <v>37.0178633379344</v>
+        <v>49.3179104097601</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9382.876543118369</v>
+        <v>7410.53493830722</v>
       </c>
       <c r="C6">
-        <v>174.984531376915</v>
+        <v>230.347811820002</v>
       </c>
       <c r="D6">
-        <v>24.7646834962257</v>
+        <v>35.0527582513444</v>
       </c>
       <c r="E6">
-        <v>134.551526225068</v>
+        <v>160.638024686656</v>
       </c>
       <c r="F6">
-        <v>37.0275648073034</v>
+        <v>48.1556284059043</v>
       </c>
       <c r="G6">
-        <v>94.6571059386058</v>
+        <v>121.840786712981</v>
       </c>
       <c r="H6">
-        <v>30.0685092820925</v>
+        <v>40.8567949442853</v>
       </c>
       <c r="I6">
-        <v>33.3210959411532</v>
+        <v>40.9755801726313</v>
       </c>
       <c r="J6">
-        <v>117.443015661497</v>
+        <v>145.286776464043</v>
       </c>
       <c r="K6">
-        <v>33.6389569170539</v>
+        <v>44.0693469950324</v>
       </c>
       <c r="L6">
-        <v>349.489263687674</v>
+        <v>438.014051602445</v>
       </c>
       <c r="M6">
-        <v>206.223203478943</v>
+        <v>241.072058944677</v>
       </c>
       <c r="N6">
-        <v>209.048311050193</v>
+        <v>265.920223701027</v>
       </c>
       <c r="O6">
-        <v>11768.1125748723</v>
+        <v>13273.4036575332</v>
       </c>
       <c r="P6">
-        <v>243.085644558478</v>
+        <v>307.452135589094</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1027.01688642197</v>
+        <v>791.848590268761</v>
       </c>
       <c r="C7">
-        <v>39.3073480311228</v>
+        <v>44.2117176460823</v>
       </c>
       <c r="D7">
-        <v>3.74831749186303</v>
+        <v>4.95989931774749</v>
       </c>
       <c r="E7">
-        <v>16.8779889141183</v>
+        <v>19.2982363784851</v>
       </c>
       <c r="F7">
-        <v>24.638119173049</v>
+        <v>24.8667613620995</v>
       </c>
       <c r="G7">
-        <v>11.5196192748471</v>
+        <v>14.50552760343</v>
       </c>
       <c r="H7">
-        <v>3.37760466188268</v>
+        <v>2.46100581882075</v>
       </c>
       <c r="I7">
-        <v>8.12193399248727</v>
+        <v>9.594259290227461</v>
       </c>
       <c r="J7">
-        <v>16.0360070737345</v>
+        <v>17.7949850507699</v>
       </c>
       <c r="K7">
-        <v>5.44297355142818</v>
+        <v>5.98701885998622</v>
       </c>
       <c r="L7">
-        <v>40.2962204562258</v>
+        <v>50.6397494740735</v>
       </c>
       <c r="M7">
-        <v>10.7807057822413</v>
+        <v>13.9469533524311</v>
       </c>
       <c r="N7">
-        <v>20.3049274807953</v>
+        <v>22.944078636785</v>
       </c>
       <c r="O7">
-        <v>1820.62721008711</v>
+        <v>2023.09065024492</v>
       </c>
       <c r="P7">
-        <v>30.0914186841602</v>
+        <v>32.4809222083541</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>831.177413984846</v>
+        <v>639.633976602024</v>
       </c>
       <c r="C8">
-        <v>8.81931382525385</v>
+        <v>10.7348693298221</v>
       </c>
       <c r="D8">
-        <v>1.94632551751902</v>
+        <v>2.37493734718517</v>
       </c>
       <c r="E8">
-        <v>20.2363942568401</v>
+        <v>24.63677869738</v>
       </c>
       <c r="F8">
-        <v>1.33244479973641</v>
+        <v>1.68592174422975</v>
       </c>
       <c r="G8">
-        <v>17.2844192530597</v>
+        <v>22.259462564182</v>
       </c>
       <c r="H8">
-        <v>6.87326909346171</v>
+        <v>8.07493333365132</v>
       </c>
       <c r="I8">
-        <v>6.71024170549234</v>
+        <v>8.229849820463791</v>
       </c>
       <c r="J8">
-        <v>30.7441881124517</v>
+        <v>39.7254730710804</v>
       </c>
       <c r="K8">
-        <v>9.37357036361578</v>
+        <v>10.9914851042653</v>
       </c>
       <c r="L8">
-        <v>29.8727972183761</v>
+        <v>38.3470094508364</v>
       </c>
       <c r="M8">
-        <v>38.4398664966439</v>
+        <v>46.491783187929</v>
       </c>
       <c r="N8">
-        <v>23.8250988062284</v>
+        <v>29.1159293311696</v>
       </c>
       <c r="O8">
-        <v>1303.07674924848</v>
+        <v>1449.62614006132</v>
       </c>
       <c r="P8">
-        <v>5.70105013527336</v>
+        <v>6.09384250328276</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>227.43271321117</v>
+        <v>168.585525006346</v>
       </c>
       <c r="C9">
-        <v>6.90573989692179</v>
+        <v>9.111263014747919</v>
       </c>
       <c r="D9">
-        <v>1.47492835629753</v>
+        <v>2.44752942204197</v>
       </c>
       <c r="E9">
-        <v>2.42460071248442</v>
+        <v>3.3482202554232</v>
       </c>
       <c r="F9">
-        <v>0.428773377424614</v>
+        <v>0.376838612241034</v>
       </c>
       <c r="G9">
-        <v>14.5140022523684</v>
+        <v>17.8004129850511</v>
       </c>
       <c r="H9">
-        <v>1.7830010802437</v>
+        <v>2.16822617957411</v>
       </c>
       <c r="I9">
-        <v>0.765274955751108</v>
+        <v>0.922406424551277</v>
       </c>
       <c r="J9">
-        <v>3.59886950604639</v>
+        <v>4.80909011873716</v>
       </c>
       <c r="K9">
-        <v>0.296610036111174</v>
+        <v>0.414854828895501</v>
       </c>
       <c r="L9">
-        <v>2.30682082064231</v>
+        <v>2.98191503164474</v>
       </c>
       <c r="M9">
-        <v>3.26953910482179</v>
+        <v>3.58179437322246</v>
       </c>
       <c r="N9">
-        <v>1.89741620236942</v>
+        <v>2.5428204493952</v>
       </c>
       <c r="O9">
-        <v>305.661636648072</v>
+        <v>352.169083363216</v>
       </c>
       <c r="P9">
-        <v>3.84704840011562</v>
+        <v>5.55430079665428</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5557.7303474469</v>
+        <v>4052.6607019194</v>
       </c>
       <c r="C10">
-        <v>55.3420055202772</v>
+        <v>73.0600301515493</v>
       </c>
       <c r="D10">
-        <v>7.96080234873811</v>
+        <v>9.9260374503338</v>
       </c>
       <c r="E10">
-        <v>39.7048655420094</v>
+        <v>55.6596018768356</v>
       </c>
       <c r="F10">
-        <v>5.99240240404577</v>
+        <v>8.494507298425651</v>
       </c>
       <c r="G10">
-        <v>23.0031138860263</v>
+        <v>35.6214991882548</v>
       </c>
       <c r="H10">
-        <v>10.354504184198</v>
+        <v>11.5990980045512</v>
       </c>
       <c r="I10">
-        <v>18.1851440643834</v>
+        <v>16.6299394917037</v>
       </c>
       <c r="J10">
-        <v>44.0540322524146</v>
+        <v>57.6891749213694</v>
       </c>
       <c r="K10">
-        <v>5.37593690610853</v>
+        <v>7.42671469883918</v>
       </c>
       <c r="L10">
-        <v>54.2176539829581</v>
+        <v>66.9646375977314</v>
       </c>
       <c r="M10">
-        <v>70.1313440203423</v>
+        <v>87.2269203428467</v>
       </c>
       <c r="N10">
-        <v>73.83239029954061</v>
+        <v>95.77676428534031</v>
       </c>
       <c r="O10">
-        <v>6445.82882130338</v>
+        <v>7767.62917161944</v>
       </c>
       <c r="P10">
-        <v>53.8270943358281</v>
+        <v>57.1005197376693</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2420.64793115914</v>
+        <v>2012.02670720368</v>
       </c>
       <c r="C11">
-        <v>71.05648143292299</v>
+        <v>83.9174698335661</v>
       </c>
       <c r="D11">
-        <v>86.6090894571869</v>
+        <v>94.91606031968681</v>
       </c>
       <c r="E11">
-        <v>64.2671678103942</v>
+        <v>76.70699257440469</v>
       </c>
       <c r="F11">
-        <v>9.300725104340501</v>
+        <v>10.9135157455176</v>
       </c>
       <c r="G11">
-        <v>19.7250104313382</v>
+        <v>18.8408825186082</v>
       </c>
       <c r="H11">
-        <v>17.6228804940969</v>
+        <v>21.7168826965887</v>
       </c>
       <c r="I11">
-        <v>12.1399438535577</v>
+        <v>14.2466298209053</v>
       </c>
       <c r="J11">
-        <v>37.7737500612488</v>
+        <v>38.2931607656088</v>
       </c>
       <c r="K11">
-        <v>6.55415919928133</v>
+        <v>8.34041055417436</v>
       </c>
       <c r="L11">
-        <v>30.6112466094679</v>
+        <v>40.0290227388468</v>
       </c>
       <c r="M11">
-        <v>34.0450799319811</v>
+        <v>39.0064122324357</v>
       </c>
       <c r="N11">
-        <v>59.8104150295766</v>
+        <v>61.8387938502731</v>
       </c>
       <c r="O11">
-        <v>3002.51545206855</v>
+        <v>3398.34708922307</v>
       </c>
       <c r="P11">
-        <v>43.3849782878715</v>
+        <v>43.6924170362324</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>333.550588095287</v>
+        <v>227.495349343797</v>
       </c>
       <c r="C12">
-        <v>5.20369063441371</v>
+        <v>6.61226922551865</v>
       </c>
       <c r="D12">
-        <v>0.360736919919832</v>
+        <v>0.365305767126984</v>
       </c>
       <c r="E12">
-        <v>1.52385055564787</v>
+        <v>2.23010181206943</v>
       </c>
       <c r="F12">
-        <v>0.444363022239141</v>
+        <v>0.697913675993772</v>
       </c>
       <c r="G12">
-        <v>0.38750893984141</v>
+        <v>0.506501100638097</v>
       </c>
       <c r="H12">
-        <v>0.164753118782113</v>
+        <v>0.233289394935543</v>
       </c>
       <c r="I12">
-        <v>0.627420988070526</v>
+        <v>0.622102623170656</v>
       </c>
       <c r="J12">
-        <v>1.42661411465625</v>
+        <v>1.63101477827324</v>
       </c>
       <c r="K12">
-        <v>0.113880324633293</v>
+        <v>0.00349134716717801</v>
       </c>
       <c r="L12">
-        <v>0.179104622545059</v>
+        <v>0.0349252258262238</v>
       </c>
       <c r="M12">
-        <v>2.45835747891743</v>
+        <v>3.05638912522911</v>
       </c>
       <c r="N12">
-        <v>3.61703689879167</v>
+        <v>5.00259646937652</v>
       </c>
       <c r="O12">
-        <v>452.480399328518</v>
+        <v>544.311615670216</v>
       </c>
       <c r="P12">
-        <v>13.2681414589019</v>
+        <v>16.8828435784915</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>352.019864900711</v>
+        <v>249.593286594428</v>
       </c>
       <c r="C13">
-        <v>18.2991232108075</v>
+        <v>20.2252551916171</v>
       </c>
       <c r="D13">
-        <v>0.244318998914858</v>
+        <v>0.333685976297951</v>
       </c>
       <c r="E13">
-        <v>8.27931462261027</v>
+        <v>10.0164872997228</v>
       </c>
       <c r="F13">
-        <v>3.16137373526442</v>
+        <v>2.59985977908601</v>
       </c>
       <c r="G13">
-        <v>7.03437212047202</v>
+        <v>7.42969738720583</v>
       </c>
       <c r="H13">
-        <v>1.02162103136089</v>
+        <v>1.30864171989961</v>
       </c>
       <c r="I13">
-        <v>2.0508841640384</v>
+        <v>2.49218455775391</v>
       </c>
       <c r="J13">
-        <v>3.66772519770796</v>
+        <v>5.02454798940891</v>
       </c>
       <c r="K13">
-        <v>2.70879534380978</v>
+        <v>3.58312739672327</v>
       </c>
       <c r="L13">
-        <v>16.8903070405718</v>
+        <v>19.7784540129745</v>
       </c>
       <c r="M13">
-        <v>1.59744027528644</v>
+        <v>1.71996775362407</v>
       </c>
       <c r="N13">
-        <v>3.24390282998082</v>
+        <v>3.35608497030261</v>
       </c>
       <c r="O13">
-        <v>490.064210223102</v>
+        <v>559.861261088349</v>
       </c>
       <c r="P13">
-        <v>36.038973207382</v>
+        <v>42.0840552217528</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3332.07335152989</v>
+        <v>2537.79494574262</v>
       </c>
       <c r="C14">
-        <v>111.735624030295</v>
+        <v>124.614311117128</v>
       </c>
       <c r="D14">
-        <v>9.73358278331671</v>
+        <v>10.2342182837618</v>
       </c>
       <c r="E14">
-        <v>70.3107894993059</v>
+        <v>86.6642099572917</v>
       </c>
       <c r="F14">
-        <v>16.944610705487</v>
+        <v>22.0614850795537</v>
       </c>
       <c r="G14">
-        <v>61.5572933798289</v>
+        <v>75.63829589898771</v>
       </c>
       <c r="H14">
-        <v>37.5704826845715</v>
+        <v>38.5462022159377</v>
       </c>
       <c r="I14">
-        <v>23.9929059644023</v>
+        <v>25.899645633355</v>
       </c>
       <c r="J14">
-        <v>106.604235483868</v>
+        <v>135.358440974712</v>
       </c>
       <c r="K14">
-        <v>67.1599573842197</v>
+        <v>85.31041727162351</v>
       </c>
       <c r="L14">
-        <v>68.2589819038664</v>
+        <v>88.68875333577979</v>
       </c>
       <c r="M14">
-        <v>62.4230405428071</v>
+        <v>69.6896665433938</v>
       </c>
       <c r="N14">
-        <v>58.8577365700819</v>
+        <v>71.8654313120264</v>
       </c>
       <c r="O14">
-        <v>4319.95716448123</v>
+        <v>4993.67021496015</v>
       </c>
       <c r="P14">
-        <v>59.6316947475653</v>
+        <v>62.3038844705331</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1648.5083497155</v>
+        <v>1256.25353695376</v>
       </c>
       <c r="C15">
-        <v>43.6123042159445</v>
+        <v>52.7812235103573</v>
       </c>
       <c r="D15">
-        <v>6.19844553280159</v>
+        <v>7.6140159109149</v>
       </c>
       <c r="E15">
-        <v>56.1655798779758</v>
+        <v>68.5758541856262</v>
       </c>
       <c r="F15">
-        <v>15.4375370009255</v>
+        <v>22.7270948382294</v>
       </c>
       <c r="G15">
-        <v>50.5717942109224</v>
+        <v>59.0321303838954</v>
       </c>
       <c r="H15">
-        <v>32.0838455144302</v>
+        <v>36.6453296158009</v>
       </c>
       <c r="I15">
-        <v>14.413990521118</v>
+        <v>17.780248387596</v>
       </c>
       <c r="J15">
-        <v>108.529828612673</v>
+        <v>130.830543786411</v>
       </c>
       <c r="K15">
-        <v>28.3134349835372</v>
+        <v>32.6216966855566</v>
       </c>
       <c r="L15">
-        <v>32.3589202677276</v>
+        <v>41.5284887201483</v>
       </c>
       <c r="M15">
-        <v>131.573846909012</v>
+        <v>154.803795907693</v>
       </c>
       <c r="N15">
-        <v>78.98943930685969</v>
+        <v>89.0581581509783</v>
       </c>
       <c r="O15">
-        <v>1976.8889792434</v>
+        <v>2242.15418099713</v>
       </c>
       <c r="P15">
-        <v>39.0991505761654</v>
+        <v>48.6493382636697</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>666.748296093076</v>
+        <v>448.584448671888</v>
       </c>
       <c r="C16">
-        <v>59.0492511475353</v>
+        <v>73.2760249859751</v>
       </c>
       <c r="D16">
-        <v>3.8292406881892</v>
+        <v>3.69117085991565</v>
       </c>
       <c r="E16">
-        <v>23.1729656059091</v>
+        <v>26.8885253281563</v>
       </c>
       <c r="F16">
-        <v>1.74038556248199</v>
+        <v>1.4858148156777</v>
       </c>
       <c r="G16">
-        <v>12.1990329224804</v>
+        <v>14.9608764253751</v>
       </c>
       <c r="H16">
-        <v>12.0220003356914</v>
+        <v>12.6213249921725</v>
       </c>
       <c r="I16">
-        <v>4.44259108457366</v>
+        <v>4.02175761149005</v>
       </c>
       <c r="J16">
-        <v>36.1704579567079</v>
+        <v>40.9203509580133</v>
       </c>
       <c r="K16">
-        <v>37.4157746943195</v>
+        <v>44.9014551934058</v>
       </c>
       <c r="L16">
-        <v>14.3352206929684</v>
+        <v>16.4434606898498</v>
       </c>
       <c r="M16">
-        <v>19.2908476786888</v>
+        <v>22.0260132058298</v>
       </c>
       <c r="N16">
-        <v>27.8477630381465</v>
+        <v>32.5911708782966</v>
       </c>
       <c r="O16">
-        <v>1062.84896277695</v>
+        <v>1219.31180455642</v>
       </c>
       <c r="P16">
-        <v>71.8565240417631</v>
+        <v>85.49293210415191</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>627.5701200157411</v>
+        <v>456.283713489985</v>
       </c>
       <c r="C17">
-        <v>21.26423044874</v>
+        <v>22.7462682606504</v>
       </c>
       <c r="D17">
-        <v>2.80252904626495</v>
+        <v>1.74784692044328</v>
       </c>
       <c r="E17">
-        <v>18.189999984113</v>
+        <v>22.5026720594495</v>
       </c>
       <c r="F17">
-        <v>10.8673816128672</v>
+        <v>13.4277727228066</v>
       </c>
       <c r="G17">
-        <v>10.3136156594723</v>
+        <v>12.2243905003465</v>
       </c>
       <c r="H17">
-        <v>9.613982307369041</v>
+        <v>12.6276027800953</v>
       </c>
       <c r="I17">
-        <v>5.61269015338091</v>
+        <v>4.94322241279876</v>
       </c>
       <c r="J17">
-        <v>17.0369424096518</v>
+        <v>20.0539716555176</v>
       </c>
       <c r="K17">
-        <v>7.67743460614057</v>
+        <v>8.986374788818781</v>
       </c>
       <c r="L17">
-        <v>8.58690373261117</v>
+        <v>11.0858369311326</v>
       </c>
       <c r="M17">
-        <v>58.1658729126352</v>
+        <v>71.7786809727569</v>
       </c>
       <c r="N17">
-        <v>7.84551732830784</v>
+        <v>9.463607012418621</v>
       </c>
       <c r="O17">
-        <v>980.390656037796</v>
+        <v>1095.85226097426</v>
       </c>
       <c r="P17">
-        <v>43.6076448121308</v>
+        <v>38.5470868114394</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1281.28472454632</v>
+        <v>1075.70532362529</v>
       </c>
       <c r="C18">
-        <v>20.7863126415594</v>
+        <v>27.2772394778559</v>
       </c>
       <c r="D18">
-        <v>3.97428644799701</v>
+        <v>5.46669290554189</v>
       </c>
       <c r="E18">
-        <v>29.4307819007555</v>
+        <v>37.0095277687413</v>
       </c>
       <c r="F18">
-        <v>34.7506901740237</v>
+        <v>40.4851366094214</v>
       </c>
       <c r="G18">
-        <v>14.5967383657153</v>
+        <v>14.2594061406181</v>
       </c>
       <c r="H18">
-        <v>8.9440060625748</v>
+        <v>9.9305325602064</v>
       </c>
       <c r="I18">
-        <v>6.55370938804497</v>
+        <v>6.84648942862384</v>
       </c>
       <c r="J18">
-        <v>16.9737052520263</v>
+        <v>21.2964970755228</v>
       </c>
       <c r="K18">
-        <v>7.7199191291337</v>
+        <v>8.647196724587079</v>
       </c>
       <c r="L18">
-        <v>19.4675920203799</v>
+        <v>25.2015475522777</v>
       </c>
       <c r="M18">
-        <v>55.3881913569471</v>
+        <v>59.3140037070279</v>
       </c>
       <c r="N18">
-        <v>18.9440682761888</v>
+        <v>23.0303448175889</v>
       </c>
       <c r="O18">
-        <v>1353.05141429459</v>
+        <v>1531.38150186154</v>
       </c>
       <c r="P18">
-        <v>47.8738904908366</v>
+        <v>56.3631828290293</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1300.04791641624</v>
+        <v>1069.04943313565</v>
       </c>
       <c r="C19">
-        <v>30.8706807258324</v>
+        <v>37.7722493501844</v>
       </c>
       <c r="D19">
-        <v>2.00074048226912</v>
+        <v>2.2594175942458</v>
       </c>
       <c r="E19">
-        <v>27.0071396064541</v>
+        <v>27.071803632816</v>
       </c>
       <c r="F19">
-        <v>72.3617334507022</v>
+        <v>90.3324941523195</v>
       </c>
       <c r="G19">
-        <v>30.6901586446091</v>
+        <v>38.3299423824255</v>
       </c>
       <c r="H19">
-        <v>6.04397217056108</v>
+        <v>7.01998863527397</v>
       </c>
       <c r="I19">
-        <v>6.26313890394808</v>
+        <v>9.027312397358839</v>
       </c>
       <c r="J19">
-        <v>20.2563126788083</v>
+        <v>17.05272776256</v>
       </c>
       <c r="K19">
-        <v>3.96078986304923</v>
+        <v>5.06055289971706</v>
       </c>
       <c r="L19">
-        <v>2.94566700583579</v>
+        <v>4.21543767621434</v>
       </c>
       <c r="M19">
-        <v>15.3688258175621</v>
+        <v>19.7791272438683</v>
       </c>
       <c r="N19">
-        <v>10.6126541685773</v>
+        <v>12.2111215131061</v>
       </c>
       <c r="O19">
-        <v>1330.77235849934</v>
+        <v>1514.25975596305</v>
       </c>
       <c r="P19">
-        <v>29.1805721975755</v>
+        <v>42.2596522154282</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>367.872902092717</v>
+        <v>278.000387982476</v>
       </c>
       <c r="C20">
-        <v>7.22101822821133</v>
+        <v>8.648900271501811</v>
       </c>
       <c r="D20">
-        <v>4.84098826889797</v>
+        <v>6.05293470651467</v>
       </c>
       <c r="E20">
-        <v>24.6015009809499</v>
+        <v>27.719012946832</v>
       </c>
       <c r="F20">
-        <v>0.800743913028018</v>
+        <v>0.960754525091386</v>
       </c>
       <c r="G20">
-        <v>2.5968014455118</v>
+        <v>3.2369846418319</v>
       </c>
       <c r="H20">
-        <v>1.12510915271868</v>
+        <v>1.40645571479363</v>
       </c>
       <c r="I20">
-        <v>1.82740253034517</v>
+        <v>2.42319459114455</v>
       </c>
       <c r="J20">
-        <v>5.00013996820872</v>
+        <v>4.97817571708121</v>
       </c>
       <c r="K20">
-        <v>0.71876766192362</v>
+        <v>0.872810926010226</v>
       </c>
       <c r="L20">
-        <v>5.25640699847523</v>
+        <v>6.89307171052837</v>
       </c>
       <c r="M20">
-        <v>13.2506994111043</v>
+        <v>19.235070257877</v>
       </c>
       <c r="N20">
-        <v>5.07066161655337</v>
+        <v>6.36821352594187</v>
       </c>
       <c r="O20">
-        <v>481.89266676776</v>
+        <v>562.724536503394</v>
       </c>
       <c r="P20">
-        <v>14.6385974876554</v>
+        <v>17.6892600628297</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1448.7583993667</v>
+        <v>1031.24107689134</v>
       </c>
       <c r="C21">
-        <v>12.9846615085213</v>
+        <v>17.5782522327797</v>
       </c>
       <c r="D21">
-        <v>0.6761943490849161</v>
+        <v>0.842077437687857</v>
       </c>
       <c r="E21">
-        <v>16.4269721392928</v>
+        <v>18.612712068156</v>
       </c>
       <c r="F21">
-        <v>2.87321985218709</v>
+        <v>2.93241552972403</v>
       </c>
       <c r="G21">
-        <v>14.482787845467</v>
+        <v>19.2808939262339</v>
       </c>
       <c r="H21">
-        <v>4.04391063507733</v>
+        <v>5.14266350534208</v>
       </c>
       <c r="I21">
-        <v>8.535260935637259</v>
+        <v>12.0758745607516</v>
       </c>
       <c r="J21">
-        <v>17.5231633434254</v>
+        <v>20.037630197968</v>
       </c>
       <c r="K21">
-        <v>2.82264267980666</v>
+        <v>3.64547726536691</v>
       </c>
       <c r="L21">
-        <v>18.1344875111932</v>
+        <v>24.6007548734998</v>
       </c>
       <c r="M21">
-        <v>15.6995477625165</v>
+        <v>20.4510959833791</v>
       </c>
       <c r="N21">
-        <v>12.5064429096787</v>
+        <v>15.2459341348125</v>
       </c>
       <c r="O21">
-        <v>2000.65935511692</v>
+        <v>2347.75282027175</v>
       </c>
       <c r="P21">
-        <v>15.6436884333965</v>
+        <v>17.1803143303641</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1666.80474693562</v>
+        <v>1204.20975718579</v>
       </c>
       <c r="C22">
-        <v>21.4638256839344</v>
+        <v>30.3587055777826</v>
       </c>
       <c r="D22">
-        <v>6.5192117610022</v>
+        <v>9.52943083220902</v>
       </c>
       <c r="E22">
-        <v>27.6390466631617</v>
+        <v>36.5017597356495</v>
       </c>
       <c r="F22">
-        <v>2.45130233235769</v>
+        <v>2.873338581596</v>
       </c>
       <c r="G22">
-        <v>21.0501563636121</v>
+        <v>26.4838372742352</v>
       </c>
       <c r="H22">
-        <v>12.3506821243413</v>
+        <v>16.8600179242603</v>
       </c>
       <c r="I22">
-        <v>6.62376864173642</v>
+        <v>6.90633274273575</v>
       </c>
       <c r="J22">
-        <v>29.6983821643528</v>
+        <v>31.6796605992604</v>
       </c>
       <c r="K22">
-        <v>3.66486001274153</v>
+        <v>4.98366565406928</v>
       </c>
       <c r="L22">
-        <v>71.5553526280722</v>
+        <v>95.11151193660371</v>
       </c>
       <c r="M22">
-        <v>16.2156586615834</v>
+        <v>21.4826862468673</v>
       </c>
       <c r="N22">
-        <v>44.4732775347086</v>
+        <v>57.470785108016</v>
       </c>
       <c r="O22">
-        <v>2393.41196516598</v>
+        <v>2760.70039860392</v>
       </c>
       <c r="P22">
-        <v>10.9305336507395</v>
+        <v>11.8948630765929</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2880.76596133182</v>
+        <v>2368.63835523081</v>
       </c>
       <c r="C23">
-        <v>29.5120287819993</v>
+        <v>34.477659902761</v>
       </c>
       <c r="D23">
-        <v>5.63350914587598</v>
+        <v>5.75689004305782</v>
       </c>
       <c r="E23">
-        <v>38.1622593141019</v>
+        <v>45.058266421726</v>
       </c>
       <c r="F23">
-        <v>6.84629418654464</v>
+        <v>10.7195109552515</v>
       </c>
       <c r="G23">
-        <v>44.425283092739</v>
+        <v>51.1154760182071</v>
       </c>
       <c r="H23">
-        <v>42.240955420092</v>
+        <v>51.2219026744186</v>
       </c>
       <c r="I23">
-        <v>16.085380431933</v>
+        <v>19.1920468331299</v>
       </c>
       <c r="J23">
-        <v>88.7645332249087</v>
+        <v>103.351093877246</v>
       </c>
       <c r="K23">
-        <v>60.0905831870506</v>
+        <v>73.2633992678486</v>
       </c>
       <c r="L23">
-        <v>31.2890922716356</v>
+        <v>34.9828148664625</v>
       </c>
       <c r="M23">
-        <v>420.541408472471</v>
+        <v>520.741971983074</v>
       </c>
       <c r="N23">
-        <v>72.3693308337045</v>
+        <v>88.33753182486269</v>
       </c>
       <c r="O23">
-        <v>3058.0369840038</v>
+        <v>3403.91260705063</v>
       </c>
       <c r="P23">
-        <v>44.6101402245205</v>
+        <v>48.6118353186786</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1120.56696743308</v>
+        <v>806.798152508214</v>
       </c>
       <c r="C24">
-        <v>39.3510425611888</v>
+        <v>45.0568240862312</v>
       </c>
       <c r="D24">
-        <v>6.57717534654075</v>
+        <v>6.78928515019903</v>
       </c>
       <c r="E24">
-        <v>50.0331595420858</v>
+        <v>58.7872504356266</v>
       </c>
       <c r="F24">
-        <v>7.24985411487308</v>
+        <v>9.641622256352189</v>
       </c>
       <c r="G24">
-        <v>24.3940922553396</v>
+        <v>29.5259124533396</v>
       </c>
       <c r="H24">
-        <v>14.3995779061098</v>
+        <v>18.4610533036027</v>
       </c>
       <c r="I24">
-        <v>11.1640848227404</v>
+        <v>14.0434624435357</v>
       </c>
       <c r="J24">
-        <v>38.4803078495318</v>
+        <v>48.6406973015644</v>
       </c>
       <c r="K24">
-        <v>15.3658320776315</v>
+        <v>18.5178700616358</v>
       </c>
       <c r="L24">
-        <v>60.3064385089139</v>
+        <v>70.2815681976481</v>
       </c>
       <c r="M24">
-        <v>14.8179409984288</v>
+        <v>18.5541764883691</v>
       </c>
       <c r="N24">
-        <v>59.636374942147</v>
+        <v>74.5823998617366</v>
       </c>
       <c r="O24">
-        <v>1908.98085880908</v>
+        <v>2139.39727107738</v>
       </c>
       <c r="P24">
-        <v>70.2208100984212</v>
+        <v>74.63802962596471</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>926.485783811818</v>
+        <v>774.058017821745</v>
       </c>
       <c r="C25">
-        <v>27.9547211486547</v>
+        <v>38.017493196197</v>
       </c>
       <c r="D25">
-        <v>10.472693114446</v>
+        <v>13.6140556442538</v>
       </c>
       <c r="E25">
-        <v>38.6908374648078</v>
+        <v>47.1419216773617</v>
       </c>
       <c r="F25">
-        <v>15.8669007778594</v>
+        <v>14.6977130613284</v>
       </c>
       <c r="G25">
-        <v>8.93952277282667</v>
+        <v>12.5176340875029</v>
       </c>
       <c r="H25">
-        <v>5.81427726566856</v>
+        <v>6.44882267280438</v>
       </c>
       <c r="I25">
-        <v>3.17175962248567</v>
+        <v>3.90670172692881</v>
       </c>
       <c r="J25">
-        <v>7.92751478458859</v>
+        <v>9.28315899211804</v>
       </c>
       <c r="K25">
-        <v>4.8533462356949</v>
+        <v>7.31607076827134</v>
       </c>
       <c r="L25">
-        <v>7.70793183112457</v>
+        <v>8.538687051110539</v>
       </c>
       <c r="M25">
-        <v>33.742647666566</v>
+        <v>38.4836904360337</v>
       </c>
       <c r="N25">
-        <v>38.2485543914199</v>
+        <v>34.8640010891305</v>
       </c>
       <c r="O25">
-        <v>745.292407612725</v>
+        <v>855.052777778492</v>
       </c>
       <c r="P25">
-        <v>38.9263074212203</v>
+        <v>49.5527484478903</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1507.28826239744</v>
+        <v>1127.50355604478</v>
       </c>
       <c r="C26">
-        <v>41.4833527756358</v>
+        <v>49.0621243789977</v>
       </c>
       <c r="D26">
-        <v>3.70502376832758</v>
+        <v>3.43323999937855</v>
       </c>
       <c r="E26">
-        <v>43.418264698237</v>
+        <v>45.7849737273413</v>
       </c>
       <c r="F26">
-        <v>9.734829659124591</v>
+        <v>11.0953848747426</v>
       </c>
       <c r="G26">
-        <v>24.1199390394623</v>
+        <v>31.402874887922</v>
       </c>
       <c r="H26">
-        <v>11.3405805146643</v>
+        <v>12.719557057948</v>
       </c>
       <c r="I26">
-        <v>16.9747588896668</v>
+        <v>19.7627772848879</v>
       </c>
       <c r="J26">
-        <v>30.3397994639542</v>
+        <v>36.6595602520702</v>
       </c>
       <c r="K26">
-        <v>14.1270689831131</v>
+        <v>11.9880942835894</v>
       </c>
       <c r="L26">
-        <v>27.6090771906938</v>
+        <v>30.4076822282204</v>
       </c>
       <c r="M26">
-        <v>48.5817546970194</v>
+        <v>54.9456281472507</v>
       </c>
       <c r="N26">
-        <v>28.311266047556</v>
+        <v>28.3504771675841</v>
       </c>
       <c r="O26">
-        <v>2087.55249700029</v>
+        <v>2404.83222819595</v>
       </c>
       <c r="P26">
-        <v>43.4449865352542</v>
+        <v>46.1007109137931</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>250.559156923913</v>
+        <v>183.109640250602</v>
       </c>
       <c r="C27">
-        <v>2.2349560979872</v>
+        <v>2.03287714344221</v>
       </c>
       <c r="D27">
-        <v>1.07825544748607</v>
+        <v>2.01276638667193</v>
       </c>
       <c r="E27">
-        <v>7.47299390654109</v>
+        <v>8.217748190173101</v>
       </c>
       <c r="F27">
-        <v>4.7955923764757</v>
+        <v>5.72707315162771</v>
       </c>
       <c r="G27">
-        <v>0.447138691608777</v>
+        <v>0.664927323763736</v>
       </c>
       <c r="H27">
-        <v>0.140852384459843</v>
+        <v>0.195898443984317</v>
       </c>
       <c r="I27">
-        <v>1.45630051852262</v>
+        <v>2.21726902277497</v>
       </c>
       <c r="J27">
-        <v>2.31398779275209</v>
+        <v>3.16802682869669</v>
       </c>
       <c r="K27">
-        <v>0.413384010306773</v>
+        <v>0.583892036332927</v>
       </c>
       <c r="L27">
-        <v>1.3214497138133</v>
+        <v>1.94017271673855</v>
       </c>
       <c r="M27">
-        <v>0.383816386416833</v>
+        <v>0.564078607787158</v>
       </c>
       <c r="N27">
-        <v>2.98297857990692</v>
+        <v>3.39934527400657</v>
       </c>
       <c r="O27">
-        <v>334.263843155936</v>
+        <v>394.391398816028</v>
       </c>
       <c r="P27">
-        <v>37.5162582492232</v>
+        <v>42.7196737705827</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>384.410234842961</v>
+        <v>246.00085054203</v>
       </c>
       <c r="C28">
-        <v>28.2108175445322</v>
+        <v>33.7827212314508</v>
       </c>
       <c r="D28">
-        <v>1.24853510133321</v>
+        <v>1.16057361674608</v>
       </c>
       <c r="E28">
-        <v>4.82358126138813</v>
+        <v>5.69129658558182</v>
       </c>
       <c r="F28">
-        <v>0.323780528501082</v>
+        <v>0.208647758433583</v>
       </c>
       <c r="G28">
-        <v>4.03710777956848</v>
+        <v>5.41859890476576</v>
       </c>
       <c r="H28">
-        <v>6.21506353039469</v>
+        <v>6.01940469321893</v>
       </c>
       <c r="I28">
-        <v>4.07160402761992</v>
+        <v>4.70320923998443</v>
       </c>
       <c r="J28">
-        <v>17.0034121449549</v>
+        <v>17.8916694339017</v>
       </c>
       <c r="K28">
-        <v>8.614071383854689</v>
+        <v>11.209808901155</v>
       </c>
       <c r="L28">
-        <v>10.7233098599332</v>
+        <v>11.9249060387936</v>
       </c>
       <c r="M28">
-        <v>8.052070034621041</v>
+        <v>10.4598191266274</v>
       </c>
       <c r="N28">
-        <v>8.219124046798379</v>
+        <v>11.2847475334722</v>
       </c>
       <c r="O28">
-        <v>642.066908480362</v>
+        <v>748.172540206999</v>
       </c>
       <c r="P28">
-        <v>65.03163128211889</v>
+        <v>60.8866876178879</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>584.859538217025</v>
+        <v>442.903594125315</v>
       </c>
       <c r="C29">
-        <v>3.44593674550055</v>
+        <v>3.80834425368812</v>
       </c>
       <c r="D29">
-        <v>1.71401091816584</v>
+        <v>2.50502411687563</v>
       </c>
       <c r="E29">
-        <v>4.25007677493583</v>
+        <v>5.50477749822816</v>
       </c>
       <c r="F29">
-        <v>21.3121073479227</v>
+        <v>21.2436037957507</v>
       </c>
       <c r="G29">
-        <v>3.22714576500566</v>
+        <v>4.43199655979952</v>
       </c>
       <c r="H29">
-        <v>0.768999992495189</v>
+        <v>0.923240337208698</v>
       </c>
       <c r="I29">
-        <v>1.19749989194338</v>
+        <v>1.39839454843702</v>
       </c>
       <c r="J29">
-        <v>3.05038675426894</v>
+        <v>2.97215874699874</v>
       </c>
       <c r="K29">
-        <v>1.80871391965771</v>
+        <v>1.38957343185513</v>
       </c>
       <c r="L29">
-        <v>2.26197950624962</v>
+        <v>2.87856878959143</v>
       </c>
       <c r="M29">
-        <v>3.32852816610472</v>
+        <v>3.95790375791673</v>
       </c>
       <c r="N29">
-        <v>8.57732671982893</v>
+        <v>10.420364488526</v>
       </c>
       <c r="O29">
-        <v>928.819457268901</v>
+        <v>1095.86927661029</v>
       </c>
       <c r="P29">
-        <v>2.98087017656741</v>
+        <v>4.03867052353269</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>278.32882521093</v>
+        <v>196.846191807809</v>
       </c>
       <c r="C30">
-        <v>3.84618682221329</v>
+        <v>4.82242011381104</v>
       </c>
       <c r="D30">
-        <v>2.78433695151546</v>
+        <v>3.58268954216406</v>
       </c>
       <c r="E30">
-        <v>8.62768135244839</v>
+        <v>9.48575912533172</v>
       </c>
       <c r="F30">
-        <v>0.200723392575638</v>
+        <v>0.163351339001193</v>
       </c>
       <c r="G30">
-        <v>4.79433410784878</v>
+        <v>5.58874743841338</v>
       </c>
       <c r="H30">
-        <v>2.89526838491727</v>
+        <v>3.20397409671194</v>
       </c>
       <c r="I30">
-        <v>1.63825152333282</v>
+        <v>1.93033196749747</v>
       </c>
       <c r="J30">
-        <v>14.5635481536795</v>
+        <v>18.409040332092</v>
       </c>
       <c r="K30">
-        <v>3.49881037301867</v>
+        <v>4.28911295132827</v>
       </c>
       <c r="L30">
-        <v>33.7949493616622</v>
+        <v>41.384798011568</v>
       </c>
       <c r="M30">
-        <v>6.72834209659716</v>
+        <v>8.69635670587922</v>
       </c>
       <c r="N30">
-        <v>12.5293594754873</v>
+        <v>16.1581429565922</v>
       </c>
       <c r="O30">
-        <v>481.661688071336</v>
+        <v>532.540035668874</v>
       </c>
       <c r="P30">
-        <v>4.05493328360685</v>
+        <v>4.76131659476511</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2316.4958064553</v>
+        <v>1663.08517498438</v>
       </c>
       <c r="C31">
-        <v>45.2010558080782</v>
+        <v>59.610218156229</v>
       </c>
       <c r="D31">
-        <v>5.80333728171142</v>
+        <v>5.9624019462451</v>
       </c>
       <c r="E31">
-        <v>30.3012755250712</v>
+        <v>33.8408576439932</v>
       </c>
       <c r="F31">
-        <v>3.02918362491696</v>
+        <v>1.63325306527218</v>
       </c>
       <c r="G31">
-        <v>90.3956611492498</v>
+        <v>113.95200361853</v>
       </c>
       <c r="H31">
-        <v>5.5021684054078</v>
+        <v>7.0931673427807</v>
       </c>
       <c r="I31">
-        <v>10.1488823484057</v>
+        <v>10.518975873569</v>
       </c>
       <c r="J31">
-        <v>21.9160422690599</v>
+        <v>29.3391540186815</v>
       </c>
       <c r="K31">
-        <v>5.18305386988238</v>
+        <v>6.8020350665651</v>
       </c>
       <c r="L31">
-        <v>43.4546766576736</v>
+        <v>60.2947391790354</v>
       </c>
       <c r="M31">
-        <v>16.1540861288762</v>
+        <v>20.2662357883186</v>
       </c>
       <c r="N31">
-        <v>50.7581199024605</v>
+        <v>60.2644339261743</v>
       </c>
       <c r="O31">
-        <v>3036.73679168748</v>
+        <v>3625.52402744416</v>
       </c>
       <c r="P31">
-        <v>16.2537465216273</v>
+        <v>22.7126265277491</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>569.547584358958</v>
+        <v>454.682291369457</v>
       </c>
       <c r="C32">
-        <v>2.61758649469082</v>
+        <v>3.04430027436582</v>
       </c>
       <c r="D32">
-        <v>0.919272393017961</v>
+        <v>1.59742813386141</v>
       </c>
       <c r="E32">
-        <v>2.45377224798953</v>
+        <v>3.6176048647822</v>
       </c>
       <c r="F32">
-        <v>19.0375929238376</v>
+        <v>24.7155160354394</v>
       </c>
       <c r="G32">
-        <v>2.78353037528578</v>
+        <v>3.55704101485441</v>
       </c>
       <c r="H32">
-        <v>0.57072379083637</v>
+        <v>0.104287494300304</v>
       </c>
       <c r="I32">
-        <v>1.31063678851119</v>
+        <v>1.21692754760068</v>
       </c>
       <c r="J32">
-        <v>3.06110944852456</v>
+        <v>4.50164384043085</v>
       </c>
       <c r="K32">
-        <v>1.40729821227803</v>
+        <v>2.08859929260314</v>
       </c>
       <c r="L32">
-        <v>5.51955172556342</v>
+        <v>7.32719495343342</v>
       </c>
       <c r="M32">
-        <v>4.646310489137</v>
+        <v>6.41709360231351</v>
       </c>
       <c r="N32">
-        <v>10.3407156350041</v>
+        <v>13.2141667863433</v>
       </c>
       <c r="O32">
-        <v>638.282776191696</v>
+        <v>741.789786463644</v>
       </c>
       <c r="P32">
-        <v>15.742293732442</v>
+        <v>15.0010099718228</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5707.75977638453</v>
+        <v>4355.97137129007</v>
       </c>
       <c r="C33">
-        <v>61.7202198627606</v>
+        <v>78.6424894088244</v>
       </c>
       <c r="D33">
-        <v>8.874541761008659</v>
+        <v>12.1113796874584</v>
       </c>
       <c r="E33">
-        <v>54.4465271369527</v>
+        <v>68.8238689470132</v>
       </c>
       <c r="F33">
-        <v>6.8629764747819</v>
+        <v>7.80452357153009</v>
       </c>
       <c r="G33">
-        <v>50.7805260651293</v>
+        <v>63.2679675996888</v>
       </c>
       <c r="H33">
-        <v>22.5203346005531</v>
+        <v>28.7855495723623</v>
       </c>
       <c r="I33">
-        <v>17.0226200605024</v>
+        <v>21.666419833746</v>
       </c>
       <c r="J33">
-        <v>66.53698154981571</v>
+        <v>89.51307009918961</v>
       </c>
       <c r="K33">
-        <v>42.3202003170377</v>
+        <v>53.0050253202848</v>
       </c>
       <c r="L33">
-        <v>79.6165337165462</v>
+        <v>97.15061748550779</v>
       </c>
       <c r="M33">
-        <v>38.3896115115191</v>
+        <v>48.2124186697986</v>
       </c>
       <c r="N33">
-        <v>108.93618217196</v>
+        <v>134.229893202248</v>
       </c>
       <c r="O33">
-        <v>6390.24235160554</v>
+        <v>7586.87107521525</v>
       </c>
       <c r="P33">
-        <v>65.1096299923065</v>
+        <v>53.4774022004204</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2435.39158156498</v>
+        <v>1934.27149936584</v>
       </c>
       <c r="C34">
-        <v>54.0663193367359</v>
+        <v>66.1598689273375</v>
       </c>
       <c r="D34">
-        <v>54.5265366312135</v>
+        <v>71.4286610977188</v>
       </c>
       <c r="E34">
-        <v>41.8706266999377</v>
+        <v>55.1297245925435</v>
       </c>
       <c r="F34">
-        <v>1.89337247242294</v>
+        <v>1.95083471626107</v>
       </c>
       <c r="G34">
-        <v>39.9111039114185</v>
+        <v>48.7887404861372</v>
       </c>
       <c r="H34">
-        <v>28.6246533909338</v>
+        <v>38.7596522487268</v>
       </c>
       <c r="I34">
-        <v>11.0747142323705</v>
+        <v>15.0326857833549</v>
       </c>
       <c r="J34">
-        <v>39.3519497167876</v>
+        <v>47.1528127133547</v>
       </c>
       <c r="K34">
-        <v>8.315040698364919</v>
+        <v>10.1257020603771</v>
       </c>
       <c r="L34">
-        <v>80.6074852834896</v>
+        <v>100.257042688328</v>
       </c>
       <c r="M34">
-        <v>32.7386444794505</v>
+        <v>37.7510164791928</v>
       </c>
       <c r="N34">
-        <v>103.590603366473</v>
+        <v>128.644823076186</v>
       </c>
       <c r="O34">
-        <v>2927.03862112151</v>
+        <v>3325.97133638762</v>
       </c>
       <c r="P34">
-        <v>49.6812723185573</v>
+        <v>57.5147118732673</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>146.920445767838</v>
+        <v>90.1682055626931</v>
       </c>
       <c r="C35">
-        <v>5.52676767940362</v>
+        <v>6.28357303936702</v>
       </c>
       <c r="D35">
-        <v>0.35342631500724</v>
+        <v>0.369906390411153</v>
       </c>
       <c r="E35">
-        <v>2.61761884808364</v>
+        <v>3.22276978962999</v>
       </c>
       <c r="F35">
-        <v>2.91182343465474</v>
+        <v>3.45723391826122</v>
       </c>
       <c r="G35">
-        <v>0.513394046904869</v>
+        <v>0.73047414288642</v>
       </c>
       <c r="H35">
-        <v>0.605683305951629</v>
+        <v>0.706078766962723</v>
       </c>
       <c r="I35">
-        <v>0.985622739843026</v>
+        <v>0.98759369802035</v>
       </c>
       <c r="J35">
-        <v>2.28946033917033</v>
+        <v>2.64008225241419</v>
       </c>
       <c r="K35">
-        <v>3.15365657817757</v>
+        <v>3.9352018907612</v>
       </c>
       <c r="L35">
-        <v>2.59696292649357</v>
+        <v>2.65935534386407</v>
       </c>
       <c r="M35">
-        <v>2.91596173615731</v>
+        <v>3.26740545212588</v>
       </c>
       <c r="N35">
-        <v>3.35514203739309</v>
+        <v>3.60555831488064</v>
       </c>
       <c r="O35">
-        <v>238.77937214212</v>
+        <v>275.311122415215</v>
       </c>
       <c r="P35">
-        <v>35.2414031530791</v>
+        <v>36.5157848215864</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3193.7526394852</v>
+        <v>2554.14394613738</v>
       </c>
       <c r="C36">
-        <v>65.79922523063451</v>
+        <v>79.2320859858377</v>
       </c>
       <c r="D36">
-        <v>7.0146350455714</v>
+        <v>7.9694531604273</v>
       </c>
       <c r="E36">
-        <v>110.00590858825</v>
+        <v>132.292961692983</v>
       </c>
       <c r="F36">
-        <v>20.7208193189635</v>
+        <v>25.461041553536</v>
       </c>
       <c r="G36">
-        <v>70.16187895793721</v>
+        <v>82.0868675229967</v>
       </c>
       <c r="H36">
-        <v>65.5663549589317</v>
+        <v>74.10016201518</v>
       </c>
       <c r="I36">
-        <v>27.6507074265102</v>
+        <v>33.2252599366944</v>
       </c>
       <c r="J36">
-        <v>172.868434990373</v>
+        <v>217.598137257559</v>
       </c>
       <c r="K36">
-        <v>45.3179502133045</v>
+        <v>53.8211119498218</v>
       </c>
       <c r="L36">
-        <v>51.0148549951621</v>
+        <v>60.6309312922561</v>
       </c>
       <c r="M36">
-        <v>157.261542384349</v>
+        <v>179.385995341718</v>
       </c>
       <c r="N36">
-        <v>96.37873916731429</v>
+        <v>111.671331434881</v>
       </c>
       <c r="O36">
-        <v>3794.41354911184</v>
+        <v>4255.04634056594</v>
       </c>
       <c r="P36">
-        <v>51.8933830568602</v>
+        <v>64.67080190223091</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1061.818696241</v>
+        <v>836.68969291954</v>
       </c>
       <c r="C37">
-        <v>13.0516417441759</v>
+        <v>17.1290952304057</v>
       </c>
       <c r="D37">
-        <v>2.32680878520111</v>
+        <v>2.29713902194813</v>
       </c>
       <c r="E37">
-        <v>17.6865001390965</v>
+        <v>19.855018587038</v>
       </c>
       <c r="F37">
-        <v>35.9555534069925</v>
+        <v>38.2983841003945</v>
       </c>
       <c r="G37">
-        <v>5.9749307587981</v>
+        <v>7.05939480052114</v>
       </c>
       <c r="H37">
-        <v>21.5501027115318</v>
+        <v>27.0018444113587</v>
       </c>
       <c r="I37">
-        <v>8.964067020467899</v>
+        <v>9.785196318104299</v>
       </c>
       <c r="J37">
-        <v>32.5399396937253</v>
+        <v>36.7028647064154</v>
       </c>
       <c r="K37">
-        <v>5.43063679732</v>
+        <v>7.01751259159509</v>
       </c>
       <c r="L37">
-        <v>15.8086270589266</v>
+        <v>21.1094337839774</v>
       </c>
       <c r="M37">
-        <v>25.1851264456722</v>
+        <v>33.1118514239369</v>
       </c>
       <c r="N37">
-        <v>20.6330429973827</v>
+        <v>24.1596695922021</v>
       </c>
       <c r="O37">
-        <v>1129.42904332807</v>
+        <v>1311.35992423444</v>
       </c>
       <c r="P37">
-        <v>43.6621802029806</v>
+        <v>48.0395818439222</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1059.35733183383</v>
+        <v>790.4253465806741</v>
       </c>
       <c r="C38">
-        <v>22.3538772826426</v>
+        <v>23.7820857332641</v>
       </c>
       <c r="D38">
-        <v>4.65749272313409</v>
+        <v>5.10622160727484</v>
       </c>
       <c r="E38">
-        <v>40.3835639865774</v>
+        <v>45.831587635009</v>
       </c>
       <c r="F38">
-        <v>0.718190127283231</v>
+        <v>0.964041511141415</v>
       </c>
       <c r="G38">
-        <v>8.19857587254552</v>
+        <v>10.2937551508596</v>
       </c>
       <c r="H38">
-        <v>1.01195645588377</v>
+        <v>1.18616350396716</v>
       </c>
       <c r="I38">
-        <v>2.67557677294653</v>
+        <v>3.24599475032944</v>
       </c>
       <c r="J38">
-        <v>24.1455102820268</v>
+        <v>31.7381769097449</v>
       </c>
       <c r="K38">
-        <v>2.80292890956058</v>
+        <v>3.8847833139001</v>
       </c>
       <c r="L38">
-        <v>80.20132732700699</v>
+        <v>93.9763363178154</v>
       </c>
       <c r="M38">
-        <v>17.8647780238742</v>
+        <v>23.1720109374469</v>
       </c>
       <c r="N38">
-        <v>44.6427606187748</v>
+        <v>52.2047382583488</v>
       </c>
       <c r="O38">
-        <v>1234.75609234744</v>
+        <v>1464.98505343747</v>
       </c>
       <c r="P38">
-        <v>41.236024547984</v>
+        <v>57.9497654773921</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3570.72127039111</v>
+        <v>2688.20340863913</v>
       </c>
       <c r="C39">
-        <v>80.6922597026167</v>
+        <v>93.99253360732411</v>
       </c>
       <c r="D39">
-        <v>25.5217292390056</v>
+        <v>25.6547757283531</v>
       </c>
       <c r="E39">
-        <v>116.736204187839</v>
+        <v>129.747865912582</v>
       </c>
       <c r="F39">
-        <v>25.7212711731782</v>
+        <v>31.5377380584162</v>
       </c>
       <c r="G39">
-        <v>104.165266043586</v>
+        <v>127.526083069629</v>
       </c>
       <c r="H39">
-        <v>41.9634402410957</v>
+        <v>56.701030365646</v>
       </c>
       <c r="I39">
-        <v>20.0268173842305</v>
+        <v>22.5509168268383</v>
       </c>
       <c r="J39">
-        <v>135.338086711674</v>
+        <v>165.926538229088</v>
       </c>
       <c r="K39">
-        <v>34.6704163808156</v>
+        <v>40.6245413435778</v>
       </c>
       <c r="L39">
-        <v>90.1490686694987</v>
+        <v>118.064208970731</v>
       </c>
       <c r="M39">
-        <v>53.7709233793944</v>
+        <v>73.94520261786541</v>
       </c>
       <c r="N39">
-        <v>104.413554714605</v>
+        <v>124.197664749015</v>
       </c>
       <c r="O39">
-        <v>4312.51679175814</v>
+        <v>4982.11858455054</v>
       </c>
       <c r="P39">
-        <v>68.5269019075737</v>
+        <v>72.0823747648444</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>282.338104009804</v>
+        <v>211.447435338017</v>
       </c>
       <c r="C40">
-        <v>2.73809047071466</v>
+        <v>2.22377644178692</v>
       </c>
       <c r="D40">
-        <v>5.42830234409792</v>
+        <v>7.14857697220083</v>
       </c>
       <c r="E40">
-        <v>4.04270303958731</v>
+        <v>4.18192823123121</v>
       </c>
       <c r="F40">
-        <v>0.241610944983521</v>
+        <v>0.215318433321289</v>
       </c>
       <c r="G40">
-        <v>3.91528956773943</v>
+        <v>4.67834000842463</v>
       </c>
       <c r="H40">
-        <v>3.58261997770727</v>
+        <v>3.98342524160653</v>
       </c>
       <c r="I40">
-        <v>1.99319054708145</v>
+        <v>2.48448347580187</v>
       </c>
       <c r="J40">
-        <v>8.63403231383899</v>
+        <v>10.4618984996967</v>
       </c>
       <c r="K40">
-        <v>1.12823162405911</v>
+        <v>1.36996021135195</v>
       </c>
       <c r="L40">
-        <v>8.307441627671251</v>
+        <v>10.3704671393941</v>
       </c>
       <c r="M40">
-        <v>4.3605738823285</v>
+        <v>4.72813154475409</v>
       </c>
       <c r="N40">
-        <v>15.9612144726875</v>
+        <v>19.4817054026407</v>
       </c>
       <c r="O40">
-        <v>374.262469331275</v>
+        <v>419.767503303872</v>
       </c>
       <c r="P40">
-        <v>3.91995692628621</v>
+        <v>6.02322964150844</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1334.176002436</v>
+        <v>1078.17490304067</v>
       </c>
       <c r="C41">
-        <v>15.5798801544828</v>
+        <v>18.6042940113711</v>
       </c>
       <c r="D41">
-        <v>43.5918261298846</v>
+        <v>54.7990583328644</v>
       </c>
       <c r="E41">
-        <v>25.9584156223711</v>
+        <v>30.1817385468574</v>
       </c>
       <c r="F41">
-        <v>1.39586685536696</v>
+        <v>1.89516520078626</v>
       </c>
       <c r="G41">
-        <v>23.4341533057824</v>
+        <v>26.2357378338981</v>
       </c>
       <c r="H41">
-        <v>20.0548174026077</v>
+        <v>23.765917643798</v>
       </c>
       <c r="I41">
-        <v>11.5411964852038</v>
+        <v>12.1463540446802</v>
       </c>
       <c r="J41">
-        <v>34.3140035419848</v>
+        <v>40.6103385563294</v>
       </c>
       <c r="K41">
-        <v>6.80779461122576</v>
+        <v>8.3113976410693</v>
       </c>
       <c r="L41">
-        <v>25.6037229216096</v>
+        <v>30.3722140210089</v>
       </c>
       <c r="M41">
-        <v>27.8950059183068</v>
+        <v>31.9082201152995</v>
       </c>
       <c r="N41">
-        <v>19.3008971551417</v>
+        <v>21.1036699554482</v>
       </c>
       <c r="O41">
-        <v>1338.70227073411</v>
+        <v>1543.40392094342</v>
       </c>
       <c r="P41">
-        <v>18.9743652013383</v>
+        <v>20.2951672874563</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>158.505691003049</v>
+        <v>101.839049431591</v>
       </c>
       <c r="C42">
-        <v>5.31949313838205</v>
+        <v>7.24302635059553</v>
       </c>
       <c r="D42">
-        <v>1.21506154804</v>
+        <v>1.91536818579231</v>
       </c>
       <c r="E42">
-        <v>4.48243908193664</v>
+        <v>5.85954554188874</v>
       </c>
       <c r="F42">
-        <v>1.8313390375848</v>
+        <v>2.25791718585614</v>
       </c>
       <c r="G42">
-        <v>1.25312036058392</v>
+        <v>1.60849145580824</v>
       </c>
       <c r="H42">
-        <v>1.45386124694521</v>
+        <v>1.58891209624631</v>
       </c>
       <c r="I42">
-        <v>1.93259384988964</v>
+        <v>2.16430965349684</v>
       </c>
       <c r="J42">
-        <v>4.39889097309581</v>
+        <v>5.79260089542084</v>
       </c>
       <c r="K42">
-        <v>2.89693009921376</v>
+        <v>3.82259872388883</v>
       </c>
       <c r="L42">
-        <v>4.31236735763905</v>
+        <v>4.91720931229077</v>
       </c>
       <c r="M42">
-        <v>2.8426739394388</v>
+        <v>3.58372820262472</v>
       </c>
       <c r="N42">
-        <v>7.2070863922739</v>
+        <v>8.882300595688781</v>
       </c>
       <c r="O42">
-        <v>266.717737755135</v>
+        <v>314.172318382125</v>
       </c>
       <c r="P42">
-        <v>43.7343745475712</v>
+        <v>45.8189181977153</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1833.02490278666</v>
+        <v>1558.09034120523</v>
       </c>
       <c r="C43">
-        <v>30.114846515907</v>
+        <v>36.9753250510853</v>
       </c>
       <c r="D43">
-        <v>15.9359310429492</v>
+        <v>17.7847630037027</v>
       </c>
       <c r="E43">
-        <v>59.9849420598579</v>
+        <v>71.53234372095631</v>
       </c>
       <c r="F43">
-        <v>10.3707456918296</v>
+        <v>10.3532726088015</v>
       </c>
       <c r="G43">
-        <v>34.3362397497365</v>
+        <v>38.0610930839253</v>
       </c>
       <c r="H43">
-        <v>38.1548345400871</v>
+        <v>38.9018815168482</v>
       </c>
       <c r="I43">
-        <v>7.18287163540513</v>
+        <v>8.17285778950186</v>
       </c>
       <c r="J43">
-        <v>50.3861388175577</v>
+        <v>62.5527934455885</v>
       </c>
       <c r="K43">
-        <v>7.62734951073861</v>
+        <v>7.90939431932973</v>
       </c>
       <c r="L43">
-        <v>31.6150502479106</v>
+        <v>29.8092608096654</v>
       </c>
       <c r="M43">
-        <v>81.7438632638471</v>
+        <v>85.39576281424461</v>
       </c>
       <c r="N43">
-        <v>52.4166828647372</v>
+        <v>61.73113744799</v>
       </c>
       <c r="O43">
-        <v>1919.09050689802</v>
+        <v>2177.69857141691</v>
       </c>
       <c r="P43">
-        <v>37.1769267769481</v>
+        <v>52.9554537849941</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5733.22588162795</v>
+        <v>4632.35073670159</v>
       </c>
       <c r="C44">
-        <v>126.798827201053</v>
+        <v>153.863827698795</v>
       </c>
       <c r="D44">
-        <v>16.4798247733291</v>
+        <v>16.3353579180388</v>
       </c>
       <c r="E44">
-        <v>63.9091296214996</v>
+        <v>79.73051594827111</v>
       </c>
       <c r="F44">
-        <v>230.210463200574</v>
+        <v>271.799849425923</v>
       </c>
       <c r="G44">
-        <v>108.899310716422</v>
+        <v>135.169085916234</v>
       </c>
       <c r="H44">
-        <v>26.7067306960472</v>
+        <v>31.237973354582</v>
       </c>
       <c r="I44">
-        <v>42.461833050783</v>
+        <v>50.2586104022727</v>
       </c>
       <c r="J44">
-        <v>106.542897712431</v>
+        <v>130.644759325936</v>
       </c>
       <c r="K44">
-        <v>25.0918270427699</v>
+        <v>30.8618760959467</v>
       </c>
       <c r="L44">
-        <v>145.733044977606</v>
+        <v>177.882915620705</v>
       </c>
       <c r="M44">
-        <v>74.1767944695611</v>
+        <v>87.0213020670265</v>
       </c>
       <c r="N44">
-        <v>89.9039751920802</v>
+        <v>106.169575216008</v>
       </c>
       <c r="O44">
-        <v>7670.54234988743</v>
+        <v>8615.72908435396</v>
       </c>
       <c r="P44">
-        <v>164.397796640908</v>
+        <v>156.093988068627</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>507.907528803557</v>
+        <v>387.858006431097</v>
       </c>
       <c r="C45">
-        <v>16.5343823229008</v>
+        <v>17.6746285971419</v>
       </c>
       <c r="D45">
-        <v>1.46496856379397</v>
+        <v>1.51036775730381</v>
       </c>
       <c r="E45">
-        <v>10.3352231137266</v>
+        <v>12.2234517706672</v>
       </c>
       <c r="F45">
-        <v>21.5366944820009</v>
+        <v>22.0857487630188</v>
       </c>
       <c r="G45">
-        <v>6.42891335988277</v>
+        <v>7.35919372438867</v>
       </c>
       <c r="H45">
-        <v>2.04137132933764</v>
+        <v>2.68395573684216</v>
       </c>
       <c r="I45">
-        <v>3.39971963442172</v>
+        <v>3.05374066713007</v>
       </c>
       <c r="J45">
-        <v>20.9860509309509</v>
+        <v>20.1014620813011</v>
       </c>
       <c r="K45">
-        <v>1.96705802191241</v>
+        <v>2.1167673403975</v>
       </c>
       <c r="L45">
-        <v>13.8233652559505</v>
+        <v>15.1888284770739</v>
       </c>
       <c r="M45">
-        <v>13.7501024627019</v>
+        <v>14.209895157629</v>
       </c>
       <c r="N45">
-        <v>29.0586511337285</v>
+        <v>31.7523245282721</v>
       </c>
       <c r="O45">
-        <v>846.548450279413</v>
+        <v>907.266139260697</v>
       </c>
       <c r="P45">
-        <v>11.8680325917534</v>
+        <v>16.7167466488405</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>137.000972988451</v>
+        <v>93.38464670453909</v>
       </c>
       <c r="C46">
-        <v>3.39675338323481</v>
+        <v>3.63317312295283</v>
       </c>
       <c r="D46">
-        <v>0.5915294173379651</v>
+        <v>0.499866749548145</v>
       </c>
       <c r="E46">
-        <v>3.96673367167587</v>
+        <v>4.83336131372249</v>
       </c>
       <c r="F46">
-        <v>0.523734908295612</v>
+        <v>0.7115426048553249</v>
       </c>
       <c r="G46">
-        <v>1.26790636631448</v>
+        <v>1.346708314086</v>
       </c>
       <c r="H46">
-        <v>0.628516411944833</v>
+        <v>0.730012981039279</v>
       </c>
       <c r="I46">
-        <v>1.99546037059549</v>
+        <v>2.00718584767251</v>
       </c>
       <c r="J46">
-        <v>3.70508991222767</v>
+        <v>4.72026261984583</v>
       </c>
       <c r="K46">
-        <v>0.888580029059287</v>
+        <v>0.961849234050581</v>
       </c>
       <c r="L46">
-        <v>9.821267449888049</v>
+        <v>13.2480154683768</v>
       </c>
       <c r="M46">
-        <v>2.46854912593146</v>
+        <v>2.96554218940089</v>
       </c>
       <c r="N46">
-        <v>6.03388606076157</v>
+        <v>8.00367805069763</v>
       </c>
       <c r="O46">
-        <v>243.031126988018</v>
+        <v>278.734850620782</v>
       </c>
       <c r="P46">
-        <v>8.396707360866181</v>
+        <v>8.247844961068489</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1920.87310338342</v>
+        <v>1518.40768998697</v>
       </c>
       <c r="C47">
-        <v>41.3501572066799</v>
+        <v>41.5100448403114</v>
       </c>
       <c r="D47">
-        <v>13.1370842260879</v>
+        <v>12.5757838256123</v>
       </c>
       <c r="E47">
-        <v>37.4595906685638</v>
+        <v>43.9269142289375</v>
       </c>
       <c r="F47">
-        <v>2.80161383575283</v>
+        <v>2.9095848568411</v>
       </c>
       <c r="G47">
-        <v>25.9411181817339</v>
+        <v>25.6167034148363</v>
       </c>
       <c r="H47">
-        <v>8.64378310227402</v>
+        <v>10.9992280553343</v>
       </c>
       <c r="I47">
-        <v>6.36335702996739</v>
+        <v>6.87901590380826</v>
       </c>
       <c r="J47">
-        <v>28.8707118590087</v>
+        <v>26.7834785953554</v>
       </c>
       <c r="K47">
-        <v>4.9661316017719</v>
+        <v>5.40033762948609</v>
       </c>
       <c r="L47">
-        <v>20.6740320871327</v>
+        <v>27.18836811168</v>
       </c>
       <c r="M47">
-        <v>54.4725810261194</v>
+        <v>65.7258766846648</v>
       </c>
       <c r="N47">
-        <v>25.4297827564651</v>
+        <v>28.998419108394</v>
       </c>
       <c r="O47">
-        <v>2711.62976021264</v>
+        <v>3059.74813094031</v>
       </c>
       <c r="P47">
-        <v>24.4360740207602</v>
+        <v>29.108918188871</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1640.68692343091</v>
+        <v>1234.43395915987</v>
       </c>
       <c r="C48">
-        <v>31.2530478879643</v>
+        <v>35.0276567154518</v>
       </c>
       <c r="D48">
-        <v>4.70292654203458</v>
+        <v>6.13420061268363</v>
       </c>
       <c r="E48">
-        <v>55.4664390210585</v>
+        <v>67.038806905309</v>
       </c>
       <c r="F48">
-        <v>10.7791295144765</v>
+        <v>15.0166646394404</v>
       </c>
       <c r="G48">
-        <v>5.58833958711235</v>
+        <v>7.33445966968789</v>
       </c>
       <c r="H48">
-        <v>8.31312565767634</v>
+        <v>9.5161852179899</v>
       </c>
       <c r="I48">
-        <v>8.027561324970391</v>
+        <v>8.7990655227988</v>
       </c>
       <c r="J48">
-        <v>32.7225414546902</v>
+        <v>39.0199790255557</v>
       </c>
       <c r="K48">
-        <v>7.3731841092984</v>
+        <v>9.566640878075111</v>
       </c>
       <c r="L48">
-        <v>41.4677642434329</v>
+        <v>52.9955267896104</v>
       </c>
       <c r="M48">
-        <v>118.231935297771</v>
+        <v>147.962599677333</v>
       </c>
       <c r="N48">
-        <v>33.7949257597382</v>
+        <v>41.7744043845905</v>
       </c>
       <c r="O48">
-        <v>2181.3798285827</v>
+        <v>2513.52449314258</v>
       </c>
       <c r="P48">
-        <v>77.96649832719039</v>
+        <v>94.3891914966142</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>722.061821285538</v>
+        <v>641.984140837534</v>
       </c>
       <c r="C49">
-        <v>3.32147911150974</v>
+        <v>4.29782582335002</v>
       </c>
       <c r="D49">
-        <v>0.487114937176426</v>
+        <v>0.339332795538334</v>
       </c>
       <c r="E49">
-        <v>17.9225719423229</v>
+        <v>21.9401281466555</v>
       </c>
       <c r="F49">
-        <v>24.5542896347108</v>
+        <v>26.0671933530841</v>
       </c>
       <c r="G49">
-        <v>11.7648113221832</v>
+        <v>13.7933606243835</v>
       </c>
       <c r="H49">
-        <v>3.11762205715428</v>
+        <v>4.09826478203452</v>
       </c>
       <c r="I49">
-        <v>2.25387516243065</v>
+        <v>3.13883628148093</v>
       </c>
       <c r="J49">
-        <v>15.4856621678505</v>
+        <v>18.327632223099</v>
       </c>
       <c r="K49">
-        <v>2.33222391169362</v>
+        <v>1.73124094635973</v>
       </c>
       <c r="L49">
-        <v>1.26205499484037</v>
+        <v>1.53808471008154</v>
       </c>
       <c r="M49">
-        <v>2.87798275230619</v>
+        <v>3.97648599570177</v>
       </c>
       <c r="N49">
-        <v>6.3216770561217</v>
+        <v>7.76774680336862</v>
       </c>
       <c r="O49">
-        <v>514.3983680724471</v>
+        <v>584.712912034355</v>
       </c>
       <c r="P49">
-        <v>6.20804539686654</v>
+        <v>9.18787078935816</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1273.51071633981</v>
+        <v>888.742218674755</v>
       </c>
       <c r="C50">
-        <v>57.1149472229179</v>
+        <v>64.2502711303181</v>
       </c>
       <c r="D50">
-        <v>6.74147671883085</v>
+        <v>7.90135231736391</v>
       </c>
       <c r="E50">
-        <v>117.769499292549</v>
+        <v>137.063903520843</v>
       </c>
       <c r="F50">
-        <v>3.20410251757631</v>
+        <v>3.7822392832226</v>
       </c>
       <c r="G50">
-        <v>29.6870026967885</v>
+        <v>36.6529133931451</v>
       </c>
       <c r="H50">
-        <v>38.7302790528436</v>
+        <v>41.8798487634961</v>
       </c>
       <c r="I50">
-        <v>8.52211329416633</v>
+        <v>10.5921682591362</v>
       </c>
       <c r="J50">
-        <v>72.8792397526291</v>
+        <v>81.4439550690475</v>
       </c>
       <c r="K50">
-        <v>38.0149130260354</v>
+        <v>44.4469456652</v>
       </c>
       <c r="L50">
-        <v>62.9642645746846</v>
+        <v>76.01668562130369</v>
       </c>
       <c r="M50">
-        <v>49.3100105979477</v>
+        <v>58.1689801906757</v>
       </c>
       <c r="N50">
-        <v>51.7360473392097</v>
+        <v>59.5322354970323</v>
       </c>
       <c r="O50">
-        <v>1926.25273114029</v>
+        <v>2221.69942341999</v>
       </c>
       <c r="P50">
-        <v>78.690789727994</v>
+        <v>84.5634274734666</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>117.890315427244</v>
+        <v>84.5510337776885</v>
       </c>
       <c r="C51">
-        <v>1.87472382976906</v>
+        <v>2.65816224581008</v>
       </c>
       <c r="D51">
-        <v>0.00741480736778722</v>
+        <v>0.0102142623085024</v>
       </c>
       <c r="E51">
-        <v>1.61055107461012</v>
+        <v>1.28705462789644</v>
       </c>
       <c r="F51">
-        <v>24.8969325443426</v>
+        <v>27.6019280045359</v>
       </c>
       <c r="G51">
-        <v>1.21624125105959</v>
+        <v>1.49226877551666</v>
       </c>
       <c r="H51">
-        <v>0.130810444735988</v>
+        <v>0.136033783150198</v>
       </c>
       <c r="I51">
-        <v>0.824662012897262</v>
+        <v>1.03001443056997</v>
       </c>
       <c r="J51">
-        <v>1.06638508644904</v>
+        <v>1.09227999182109</v>
       </c>
       <c r="K51">
-        <v>0.661720335605525</v>
+        <v>0.770444896577668</v>
       </c>
       <c r="L51">
-        <v>0.401821679698885</v>
+        <v>0.502814507717945</v>
       </c>
       <c r="M51">
-        <v>0.540689492258031</v>
+        <v>0.479365951955831</v>
       </c>
       <c r="N51">
-        <v>0.594893109909764</v>
+        <v>0.828118911381455</v>
       </c>
       <c r="O51">
-        <v>173.753782367918</v>
+        <v>204.3330298931</v>
       </c>
       <c r="P51">
-        <v>18.7704722761443</v>
+        <v>19.0111645239068</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1296.43575092063</v>
+        <v>1298.16736332314</v>
       </c>
       <c r="C2">
-        <v>18.6149746628699</v>
+        <v>18.8917064306429</v>
       </c>
       <c r="D2">
-        <v>26.112863653657</v>
+        <v>26.9206503542781</v>
       </c>
       <c r="E2">
-        <v>45.4807808886581</v>
+        <v>46.8860833599348</v>
       </c>
       <c r="F2">
-        <v>25.6749589519048</v>
+        <v>25.9661235310281</v>
       </c>
       <c r="G2">
-        <v>17.9034349827798</v>
+        <v>17.9129961361397</v>
       </c>
       <c r="H2">
-        <v>10.5425259337494</v>
+        <v>10.7538451385881</v>
       </c>
       <c r="I2">
-        <v>16.73392765142</v>
+        <v>16.8809143024686</v>
       </c>
       <c r="J2">
-        <v>76.9637993861635</v>
+        <v>77.330910197405</v>
       </c>
       <c r="K2">
-        <v>16.9502448672671</v>
+        <v>17.0173131646679</v>
       </c>
       <c r="L2">
-        <v>48.3543611178417</v>
+        <v>48.3628262311102</v>
       </c>
       <c r="M2">
-        <v>46.0886374316826</v>
+        <v>46.060746884318</v>
       </c>
       <c r="N2">
-        <v>29.9595923731917</v>
+        <v>30.141539768037</v>
       </c>
       <c r="O2">
-        <v>1523.42645684956</v>
+        <v>1518.63860853596</v>
       </c>
       <c r="P2">
-        <v>21.3617777413881</v>
+        <v>21.9026403189548</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>94.9433798723299</v>
+        <v>95.1115657072743</v>
       </c>
       <c r="C3">
-        <v>1.72716379993939</v>
+        <v>1.7313556533093</v>
       </c>
       <c r="D3">
-        <v>0.2406112660759</v>
+        <v>0.243642811208984</v>
       </c>
       <c r="E3">
-        <v>0.850936499602051</v>
+        <v>0.877216990467922</v>
       </c>
       <c r="F3">
-        <v>8.234036937669361</v>
+        <v>8.15979252599162</v>
       </c>
       <c r="G3">
-        <v>0.239978551818817</v>
+        <v>0.230389027529029</v>
       </c>
       <c r="H3">
-        <v>0.18273248100755</v>
+        <v>0.182734887915347</v>
       </c>
       <c r="I3">
-        <v>0.580210684758276</v>
+        <v>0.58147204889394</v>
       </c>
       <c r="J3">
-        <v>0.136586904287069</v>
+        <v>0.136512035798396</v>
       </c>
       <c r="K3">
-        <v>0.175518192275622</v>
+        <v>0.173877736479981</v>
       </c>
       <c r="L3">
-        <v>0.234030896623341</v>
+        <v>0.233944917477925</v>
       </c>
       <c r="M3">
-        <v>0.205357666869785</v>
+        <v>0.20502278976658</v>
       </c>
       <c r="N3">
-        <v>0.540759886199517</v>
+        <v>0.541978170917918</v>
       </c>
       <c r="O3">
-        <v>223.372636299081</v>
+        <v>223.240263442536</v>
       </c>
       <c r="P3">
-        <v>7.29611880115077</v>
+        <v>7.64897889395303</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1339.23212737159</v>
+        <v>1338.957616205</v>
       </c>
       <c r="C4">
-        <v>14.0059772942126</v>
+        <v>14.0073718446044</v>
       </c>
       <c r="D4">
-        <v>1.56649550588434</v>
+        <v>1.55840826079893</v>
       </c>
       <c r="E4">
-        <v>22.2164483514824</v>
+        <v>22.1860516436054</v>
       </c>
       <c r="F4">
-        <v>14.3529558616197</v>
+        <v>14.7393687706906</v>
       </c>
       <c r="G4">
-        <v>5.02601410494159</v>
+        <v>4.97910419520183</v>
       </c>
       <c r="H4">
-        <v>4.30718366701388</v>
+        <v>4.29150546902968</v>
       </c>
       <c r="I4">
-        <v>7.21660713957162</v>
+        <v>7.18914796988684</v>
       </c>
       <c r="J4">
-        <v>31.4845865485657</v>
+        <v>31.6850045388619</v>
       </c>
       <c r="K4">
-        <v>5.07008361601372</v>
+        <v>5.05981578137481</v>
       </c>
       <c r="L4">
-        <v>62.5265973205767</v>
+        <v>61.9583487041636</v>
       </c>
       <c r="M4">
-        <v>46.7500770057663</v>
+        <v>46.4363089430065</v>
       </c>
       <c r="N4">
-        <v>43.1295718711128</v>
+        <v>43.0201583794897</v>
       </c>
       <c r="O4">
-        <v>2365.24898929248</v>
+        <v>2361.63783536183</v>
       </c>
       <c r="P4">
-        <v>19.9541769355286</v>
+        <v>20.6161049177145</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>731.032922866843</v>
+        <v>732.653982012533</v>
       </c>
       <c r="C5">
-        <v>41.7758755728366</v>
+        <v>42.525557859879</v>
       </c>
       <c r="D5">
-        <v>12.428911805017</v>
+        <v>12.9292858206345</v>
       </c>
       <c r="E5">
-        <v>24.7353994458416</v>
+        <v>25.6155772619509</v>
       </c>
       <c r="F5">
-        <v>6.93621137001393</v>
+        <v>7.04153576632088</v>
       </c>
       <c r="G5">
-        <v>5.30187789847957</v>
+        <v>5.32010522500441</v>
       </c>
       <c r="H5">
-        <v>11.656522757637</v>
+        <v>11.8101286008106</v>
       </c>
       <c r="I5">
-        <v>6.05422135326354</v>
+        <v>6.10619784871548</v>
       </c>
       <c r="J5">
-        <v>29.4214914159588</v>
+        <v>29.7985254761006</v>
       </c>
       <c r="K5">
-        <v>3.8814548084979</v>
+        <v>3.93374093833035</v>
       </c>
       <c r="L5">
-        <v>11.2162423056276</v>
+        <v>11.3418281529907</v>
       </c>
       <c r="M5">
-        <v>15.334721520562</v>
+        <v>15.5166864743587</v>
       </c>
       <c r="N5">
-        <v>26.9024938735364</v>
+        <v>27.4299662531547</v>
       </c>
       <c r="O5">
-        <v>1015.51153215836</v>
+        <v>1009.68893161214</v>
       </c>
       <c r="P5">
-        <v>49.3179104097601</v>
+        <v>51.8168783631471</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7410.53493830722</v>
+        <v>7413.49824838199</v>
       </c>
       <c r="C6">
-        <v>230.347811820002</v>
+        <v>231.084693174277</v>
       </c>
       <c r="D6">
-        <v>35.0527582513444</v>
+        <v>35.0258701154524</v>
       </c>
       <c r="E6">
-        <v>160.638024686656</v>
+        <v>160.743194113368</v>
       </c>
       <c r="F6">
-        <v>48.1556284059043</v>
+        <v>48.1947409407615</v>
       </c>
       <c r="G6">
-        <v>121.840786712981</v>
+        <v>121.81873456401</v>
       </c>
       <c r="H6">
-        <v>40.8567949442853</v>
+        <v>40.8233267782769</v>
       </c>
       <c r="I6">
-        <v>40.9755801726313</v>
+        <v>40.9380347775574</v>
       </c>
       <c r="J6">
-        <v>145.286776464043</v>
+        <v>145.141236629827</v>
       </c>
       <c r="K6">
-        <v>44.0693469950324</v>
+        <v>44.0515042846428</v>
       </c>
       <c r="L6">
-        <v>438.014051602445</v>
+        <v>437.126645863197</v>
       </c>
       <c r="M6">
-        <v>241.072058944677</v>
+        <v>240.640631271717</v>
       </c>
       <c r="N6">
-        <v>265.920223701027</v>
+        <v>265.722156060045</v>
       </c>
       <c r="O6">
-        <v>13273.4036575332</v>
+        <v>13263.1191467606</v>
       </c>
       <c r="P6">
-        <v>307.452135589094</v>
+        <v>314.626664368318</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>791.848590268761</v>
+        <v>791.756060235819</v>
       </c>
       <c r="C7">
-        <v>44.2117176460823</v>
+        <v>44.6391963884089</v>
       </c>
       <c r="D7">
-        <v>4.95989931774749</v>
+        <v>4.93847048923127</v>
       </c>
       <c r="E7">
-        <v>19.2982363784851</v>
+        <v>19.2130815128482</v>
       </c>
       <c r="F7">
-        <v>24.8667613620995</v>
+        <v>25.2927430439822</v>
       </c>
       <c r="G7">
-        <v>14.50552760343</v>
+        <v>14.4059242043805</v>
       </c>
       <c r="H7">
-        <v>2.46100581882075</v>
+        <v>2.45016946155844</v>
       </c>
       <c r="I7">
-        <v>9.594259290227461</v>
+        <v>9.66574519811501</v>
       </c>
       <c r="J7">
-        <v>17.7949850507699</v>
+        <v>17.7179326671613</v>
       </c>
       <c r="K7">
-        <v>5.98701885998622</v>
+        <v>5.96540626595991</v>
       </c>
       <c r="L7">
-        <v>50.6397494740735</v>
+        <v>50.2839089310553</v>
       </c>
       <c r="M7">
-        <v>13.9469533524311</v>
+        <v>13.8502313164206</v>
       </c>
       <c r="N7">
-        <v>22.944078636785</v>
+        <v>22.808335718669</v>
       </c>
       <c r="O7">
-        <v>2023.09065024492</v>
+        <v>2018.28040010689</v>
       </c>
       <c r="P7">
-        <v>32.4809222083541</v>
+        <v>34.0732276957738</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>639.633976602024</v>
+        <v>639.560492831745</v>
       </c>
       <c r="C8">
-        <v>10.7348693298221</v>
+        <v>10.7469615242498</v>
       </c>
       <c r="D8">
-        <v>2.37493734718517</v>
+        <v>2.37233358333446</v>
       </c>
       <c r="E8">
-        <v>24.63677869738</v>
+        <v>24.6653051727544</v>
       </c>
       <c r="F8">
-        <v>1.68592174422975</v>
+        <v>1.68657979270325</v>
       </c>
       <c r="G8">
-        <v>22.259462564182</v>
+        <v>22.2177685206278</v>
       </c>
       <c r="H8">
-        <v>8.07493333365132</v>
+        <v>8.06823282625027</v>
       </c>
       <c r="I8">
-        <v>8.229849820463791</v>
+        <v>8.23711776267983</v>
       </c>
       <c r="J8">
-        <v>39.7254730710804</v>
+        <v>39.7134354060255</v>
       </c>
       <c r="K8">
-        <v>10.9914851042653</v>
+        <v>10.9920624060058</v>
       </c>
       <c r="L8">
-        <v>38.3470094508364</v>
+        <v>38.3227191918397</v>
       </c>
       <c r="M8">
-        <v>46.491783187929</v>
+        <v>46.5366867440732</v>
       </c>
       <c r="N8">
-        <v>29.1159293311696</v>
+        <v>29.1162035582946</v>
       </c>
       <c r="O8">
-        <v>1449.62614006132</v>
+        <v>1449.32049751366</v>
       </c>
       <c r="P8">
-        <v>6.09384250328276</v>
+        <v>6.11950968213907</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>168.585525006346</v>
+        <v>168.521433951642</v>
       </c>
       <c r="C9">
-        <v>9.111263014747919</v>
+        <v>9.19336494670134</v>
       </c>
       <c r="D9">
-        <v>2.44752942204197</v>
+        <v>2.44359880650019</v>
       </c>
       <c r="E9">
-        <v>3.3482202554232</v>
+        <v>3.34822523908896</v>
       </c>
       <c r="F9">
-        <v>0.376838612241034</v>
+        <v>0.378233330570214</v>
       </c>
       <c r="G9">
-        <v>17.8004129850511</v>
+        <v>17.6322147966457</v>
       </c>
       <c r="H9">
-        <v>2.16822617957411</v>
+        <v>2.16037977606509</v>
       </c>
       <c r="I9">
-        <v>0.922406424551277</v>
+        <v>0.921620270521157</v>
       </c>
       <c r="J9">
-        <v>4.80909011873716</v>
+        <v>4.80261144786547</v>
       </c>
       <c r="K9">
-        <v>0.414854828895501</v>
+        <v>0.414404937845959</v>
       </c>
       <c r="L9">
-        <v>2.98191503164474</v>
+        <v>2.96711709403604</v>
       </c>
       <c r="M9">
-        <v>3.58179437322246</v>
+        <v>3.46019047285564</v>
       </c>
       <c r="N9">
-        <v>2.5428204493952</v>
+        <v>2.55257966721633</v>
       </c>
       <c r="O9">
-        <v>352.169083363216</v>
+        <v>352.270432512256</v>
       </c>
       <c r="P9">
-        <v>5.55430079665428</v>
+        <v>5.67406471005178</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4052.6607019194</v>
+        <v>4051.84907925084</v>
       </c>
       <c r="C10">
-        <v>73.0600301515493</v>
+        <v>73.3963947940517</v>
       </c>
       <c r="D10">
-        <v>9.9260374503338</v>
+        <v>9.925507693444491</v>
       </c>
       <c r="E10">
-        <v>55.6596018768356</v>
+        <v>55.6857300725751</v>
       </c>
       <c r="F10">
-        <v>8.494507298425651</v>
+        <v>8.51492529612103</v>
       </c>
       <c r="G10">
-        <v>35.6214991882548</v>
+        <v>35.6504195665626</v>
       </c>
       <c r="H10">
-        <v>11.5990980045512</v>
+        <v>11.6023801895177</v>
       </c>
       <c r="I10">
-        <v>16.6299394917037</v>
+        <v>16.6513395921247</v>
       </c>
       <c r="J10">
-        <v>57.6891749213694</v>
+        <v>57.7216492834603</v>
       </c>
       <c r="K10">
-        <v>7.42671469883918</v>
+        <v>7.42281254612147</v>
       </c>
       <c r="L10">
-        <v>66.9646375977314</v>
+        <v>66.9387087367035</v>
       </c>
       <c r="M10">
-        <v>87.2269203428467</v>
+        <v>87.2736216115639</v>
       </c>
       <c r="N10">
-        <v>95.77676428534031</v>
+        <v>95.7755445652185</v>
       </c>
       <c r="O10">
-        <v>7767.62917161944</v>
+        <v>7762.50715071634</v>
       </c>
       <c r="P10">
-        <v>57.1005197376693</v>
+        <v>57.4830930413195</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2012.02670720368</v>
+        <v>2012.0718778068</v>
       </c>
       <c r="C11">
-        <v>83.9174698335661</v>
+        <v>84.4301315490884</v>
       </c>
       <c r="D11">
-        <v>94.91606031968681</v>
+        <v>98.26247524834869</v>
       </c>
       <c r="E11">
-        <v>76.70699257440469</v>
+        <v>77.1665029042077</v>
       </c>
       <c r="F11">
-        <v>10.9135157455176</v>
+        <v>10.9442067396028</v>
       </c>
       <c r="G11">
-        <v>18.8408825186082</v>
+        <v>18.9632614274911</v>
       </c>
       <c r="H11">
-        <v>21.7168826965887</v>
+        <v>21.9417806960115</v>
       </c>
       <c r="I11">
-        <v>14.2466298209053</v>
+        <v>14.2353887511438</v>
       </c>
       <c r="J11">
-        <v>38.2931607656088</v>
+        <v>38.4203895421296</v>
       </c>
       <c r="K11">
-        <v>8.34041055417436</v>
+        <v>8.355575002807811</v>
       </c>
       <c r="L11">
-        <v>40.0290227388468</v>
+        <v>39.9649601146275</v>
       </c>
       <c r="M11">
-        <v>39.0064122324357</v>
+        <v>39.3620494050411</v>
       </c>
       <c r="N11">
-        <v>61.8387938502731</v>
+        <v>62.0215068976376</v>
       </c>
       <c r="O11">
-        <v>3398.34708922307</v>
+        <v>3392.41124611312</v>
       </c>
       <c r="P11">
-        <v>43.6924170362324</v>
+        <v>44.3319810214707</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>227.495349343797</v>
+        <v>227.479964031054</v>
       </c>
       <c r="C12">
-        <v>6.61226922551865</v>
+        <v>6.68311765033771</v>
       </c>
       <c r="D12">
-        <v>0.365305767126984</v>
+        <v>0.364942297237626</v>
       </c>
       <c r="E12">
-        <v>2.23010181206943</v>
+        <v>2.2272156841295</v>
       </c>
       <c r="F12">
-        <v>0.697913675993772</v>
+        <v>0.697767553652843</v>
       </c>
       <c r="G12">
-        <v>0.506501100638097</v>
+        <v>0.506068371035505</v>
       </c>
       <c r="H12">
-        <v>0.233289394935543</v>
+        <v>0.233136841701592</v>
       </c>
       <c r="I12">
-        <v>0.622102623170656</v>
+        <v>0.621344234342829</v>
       </c>
       <c r="J12">
-        <v>1.63101477827324</v>
+        <v>1.62671425970966</v>
       </c>
       <c r="K12">
-        <v>0.00349134716717801</v>
+        <v>0.00346889262718584</v>
       </c>
       <c r="L12">
-        <v>0.0349252258262238</v>
+        <v>0.0348484933565765</v>
       </c>
       <c r="M12">
-        <v>3.05638912522911</v>
+        <v>3.03433861734801</v>
       </c>
       <c r="N12">
-        <v>5.00259646937652</v>
+        <v>4.99746043814161</v>
       </c>
       <c r="O12">
-        <v>544.311615670216</v>
+        <v>544.021315131991</v>
       </c>
       <c r="P12">
-        <v>16.8828435784915</v>
+        <v>17.2674038568947</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>249.593286594428</v>
+        <v>250.454506098984</v>
       </c>
       <c r="C13">
-        <v>20.2252551916171</v>
+        <v>20.6254270709589</v>
       </c>
       <c r="D13">
-        <v>0.333685976297951</v>
+        <v>0.331821331917952</v>
       </c>
       <c r="E13">
-        <v>10.0164872997228</v>
+        <v>10.1135619012964</v>
       </c>
       <c r="F13">
-        <v>2.59985977908601</v>
+        <v>2.71386444706268</v>
       </c>
       <c r="G13">
-        <v>7.42969738720583</v>
+        <v>7.57538719446205</v>
       </c>
       <c r="H13">
-        <v>1.30864171989961</v>
+        <v>1.32547698177484</v>
       </c>
       <c r="I13">
-        <v>2.49218455775391</v>
+        <v>2.48592655490072</v>
       </c>
       <c r="J13">
-        <v>5.02454798940891</v>
+        <v>5.06995389497639</v>
       </c>
       <c r="K13">
-        <v>3.58312739672327</v>
+        <v>3.59684374288228</v>
       </c>
       <c r="L13">
-        <v>19.7784540129745</v>
+        <v>18.9505813004096</v>
       </c>
       <c r="M13">
-        <v>1.71996775362407</v>
+        <v>1.69583062229818</v>
       </c>
       <c r="N13">
-        <v>3.35608497030261</v>
+        <v>3.33619480543697</v>
       </c>
       <c r="O13">
-        <v>559.861261088349</v>
+        <v>557.455273365268</v>
       </c>
       <c r="P13">
-        <v>42.0840552217528</v>
+        <v>45.0611562405492</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2537.79494574262</v>
+        <v>2536.92686566249</v>
       </c>
       <c r="C14">
-        <v>124.614311117128</v>
+        <v>125.037202030151</v>
       </c>
       <c r="D14">
-        <v>10.2342182837618</v>
+        <v>10.2677276441698</v>
       </c>
       <c r="E14">
-        <v>86.6642099572917</v>
+        <v>86.9283879402299</v>
       </c>
       <c r="F14">
-        <v>22.0614850795537</v>
+        <v>22.1521271510439</v>
       </c>
       <c r="G14">
-        <v>75.63829589898771</v>
+        <v>75.7650485835694</v>
       </c>
       <c r="H14">
-        <v>38.5462022159377</v>
+        <v>38.8564064584159</v>
       </c>
       <c r="I14">
-        <v>25.899645633355</v>
+        <v>26.0592598461907</v>
       </c>
       <c r="J14">
-        <v>135.358440974712</v>
+        <v>136.570284117318</v>
       </c>
       <c r="K14">
-        <v>85.31041727162351</v>
+        <v>86.6426372031866</v>
       </c>
       <c r="L14">
-        <v>88.68875333577979</v>
+        <v>88.6724811933468</v>
       </c>
       <c r="M14">
-        <v>69.6896665433938</v>
+        <v>70.4252196313476</v>
       </c>
       <c r="N14">
-        <v>71.8654313120264</v>
+        <v>72.1521405164556</v>
       </c>
       <c r="O14">
-        <v>4993.67021496015</v>
+        <v>4982.58387361788</v>
       </c>
       <c r="P14">
-        <v>62.3038844705331</v>
+        <v>67.01608926247739</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1256.25353695376</v>
+        <v>1256.46489201289</v>
       </c>
       <c r="C15">
-        <v>52.7812235103573</v>
+        <v>52.899331003958</v>
       </c>
       <c r="D15">
-        <v>7.6140159109149</v>
+        <v>7.64485349583116</v>
       </c>
       <c r="E15">
-        <v>68.5758541856262</v>
+        <v>69.2672686122152</v>
       </c>
       <c r="F15">
-        <v>22.7270948382294</v>
+        <v>23.1137478401885</v>
       </c>
       <c r="G15">
-        <v>59.0321303838954</v>
+        <v>59.0485966881879</v>
       </c>
       <c r="H15">
-        <v>36.6453296158009</v>
+        <v>37.0528737431168</v>
       </c>
       <c r="I15">
-        <v>17.780248387596</v>
+        <v>17.9764356600771</v>
       </c>
       <c r="J15">
-        <v>130.830543786411</v>
+        <v>132.48543440702</v>
       </c>
       <c r="K15">
-        <v>32.6216966855566</v>
+        <v>33.0144153334073</v>
       </c>
       <c r="L15">
-        <v>41.5284887201483</v>
+        <v>41.8840260934419</v>
       </c>
       <c r="M15">
-        <v>154.803795907693</v>
+        <v>157.315379183647</v>
       </c>
       <c r="N15">
-        <v>89.0581581509783</v>
+        <v>90.51897435074029</v>
       </c>
       <c r="O15">
-        <v>2242.15418099713</v>
+        <v>2235.01419362514</v>
       </c>
       <c r="P15">
-        <v>48.6493382636697</v>
+        <v>49.0710499176173</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>448.584448671888</v>
+        <v>448.119401209317</v>
       </c>
       <c r="C16">
-        <v>73.2760249859751</v>
+        <v>73.7066168099486</v>
       </c>
       <c r="D16">
-        <v>3.69117085991565</v>
+        <v>3.73583403441252</v>
       </c>
       <c r="E16">
-        <v>26.8885253281563</v>
+        <v>27.1463421838827</v>
       </c>
       <c r="F16">
-        <v>1.4858148156777</v>
+        <v>1.61768973334389</v>
       </c>
       <c r="G16">
-        <v>14.9608764253751</v>
+        <v>15.0141628549254</v>
       </c>
       <c r="H16">
-        <v>12.6213249921725</v>
+        <v>12.8183030986941</v>
       </c>
       <c r="I16">
-        <v>4.02175761149005</v>
+        <v>4.13991850919176</v>
       </c>
       <c r="J16">
-        <v>40.9203509580133</v>
+        <v>41.7217430362627</v>
       </c>
       <c r="K16">
-        <v>44.9014551934058</v>
+        <v>45.8127155541682</v>
       </c>
       <c r="L16">
-        <v>16.4434606898498</v>
+        <v>16.4850670093325</v>
       </c>
       <c r="M16">
-        <v>22.0260132058298</v>
+        <v>22.4362999061619</v>
       </c>
       <c r="N16">
-        <v>32.5911708782966</v>
+        <v>32.8304143581925</v>
       </c>
       <c r="O16">
-        <v>1219.31180455642</v>
+        <v>1211.82831087965</v>
       </c>
       <c r="P16">
-        <v>85.49293210415191</v>
+        <v>91.4952911165896</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>456.283713489985</v>
+        <v>455.946530209832</v>
       </c>
       <c r="C17">
-        <v>22.7462682606504</v>
+        <v>22.6494058192252</v>
       </c>
       <c r="D17">
-        <v>1.74784692044328</v>
+        <v>1.7250114408588</v>
       </c>
       <c r="E17">
-        <v>22.5026720594495</v>
+        <v>22.4980357600194</v>
       </c>
       <c r="F17">
-        <v>13.4277727228066</v>
+        <v>13.9132792719068</v>
       </c>
       <c r="G17">
-        <v>12.2243905003465</v>
+        <v>12.3973309873578</v>
       </c>
       <c r="H17">
-        <v>12.6276027800953</v>
+        <v>12.8606610401399</v>
       </c>
       <c r="I17">
-        <v>4.94322241279876</v>
+        <v>4.98021039664395</v>
       </c>
       <c r="J17">
-        <v>20.0539716555176</v>
+        <v>20.2124706128875</v>
       </c>
       <c r="K17">
-        <v>8.986374788818781</v>
+        <v>9.00395736927384</v>
       </c>
       <c r="L17">
-        <v>11.0858369311326</v>
+        <v>10.9926554018052</v>
       </c>
       <c r="M17">
-        <v>71.7786809727569</v>
+        <v>70.11534513151911</v>
       </c>
       <c r="N17">
-        <v>9.463607012418621</v>
+        <v>9.427890348781281</v>
       </c>
       <c r="O17">
-        <v>1095.85226097426</v>
+        <v>1092.36991845267</v>
       </c>
       <c r="P17">
-        <v>38.5470868114394</v>
+        <v>44.097101635022</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1075.70532362529</v>
+        <v>1076.00038897335</v>
       </c>
       <c r="C18">
-        <v>27.2772394778559</v>
+        <v>27.3436511714788</v>
       </c>
       <c r="D18">
-        <v>5.46669290554189</v>
+        <v>5.46978528299716</v>
       </c>
       <c r="E18">
-        <v>37.0095277687413</v>
+        <v>37.0138333437739</v>
       </c>
       <c r="F18">
-        <v>40.4851366094214</v>
+        <v>41.0376616689967</v>
       </c>
       <c r="G18">
-        <v>14.2594061406181</v>
+        <v>14.2651111568487</v>
       </c>
       <c r="H18">
-        <v>9.9305325602064</v>
+        <v>9.91912695036147</v>
       </c>
       <c r="I18">
-        <v>6.84648942862384</v>
+        <v>6.87755455078413</v>
       </c>
       <c r="J18">
-        <v>21.2964970755228</v>
+        <v>21.3007504247407</v>
       </c>
       <c r="K18">
-        <v>8.647196724587079</v>
+        <v>8.644360835751611</v>
       </c>
       <c r="L18">
-        <v>25.2015475522777</v>
+        <v>25.1641726178255</v>
       </c>
       <c r="M18">
-        <v>59.3140037070279</v>
+        <v>59.2267717985535</v>
       </c>
       <c r="N18">
-        <v>23.0303448175889</v>
+        <v>22.9935391241717</v>
       </c>
       <c r="O18">
-        <v>1531.38150186154</v>
+        <v>1530.77577928434</v>
       </c>
       <c r="P18">
-        <v>56.3631828290293</v>
+        <v>56.6195529595777</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1069.04943313565</v>
+        <v>1068.26070234398</v>
       </c>
       <c r="C19">
-        <v>37.7722493501844</v>
+        <v>37.9961071565077</v>
       </c>
       <c r="D19">
-        <v>2.2594175942458</v>
+        <v>2.29264705922902</v>
       </c>
       <c r="E19">
-        <v>27.071803632816</v>
+        <v>28.587233463788</v>
       </c>
       <c r="F19">
-        <v>90.3324941523195</v>
+        <v>90.36826902233</v>
       </c>
       <c r="G19">
-        <v>38.3299423824255</v>
+        <v>38.3672540159557</v>
       </c>
       <c r="H19">
-        <v>7.01998863527397</v>
+        <v>7.01774265472994</v>
       </c>
       <c r="I19">
-        <v>9.027312397358839</v>
+        <v>9.032962724946451</v>
       </c>
       <c r="J19">
-        <v>17.05272776256</v>
+        <v>17.1634591202596</v>
       </c>
       <c r="K19">
-        <v>5.06055289971706</v>
+        <v>5.11154558771408</v>
       </c>
       <c r="L19">
-        <v>4.21543767621434</v>
+        <v>4.20660674459189</v>
       </c>
       <c r="M19">
-        <v>19.7791272438683</v>
+        <v>19.6489977159992</v>
       </c>
       <c r="N19">
-        <v>12.2111215131061</v>
+        <v>12.2223779376131</v>
       </c>
       <c r="O19">
-        <v>1514.25975596305</v>
+        <v>1511.1236068648</v>
       </c>
       <c r="P19">
-        <v>42.2596522154282</v>
+        <v>43.8149667886312</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>278.000387982476</v>
+        <v>279.011770587962</v>
       </c>
       <c r="C20">
-        <v>8.648900271501811</v>
+        <v>8.65243751808401</v>
       </c>
       <c r="D20">
-        <v>6.05293470651467</v>
+        <v>6.18305946966977</v>
       </c>
       <c r="E20">
-        <v>27.719012946832</v>
+        <v>29.0609022056846</v>
       </c>
       <c r="F20">
-        <v>0.960754525091386</v>
+        <v>0.974848375988174</v>
       </c>
       <c r="G20">
-        <v>3.2369846418319</v>
+        <v>3.25760484984299</v>
       </c>
       <c r="H20">
-        <v>1.40645571479363</v>
+        <v>1.42044895266921</v>
       </c>
       <c r="I20">
-        <v>2.42319459114455</v>
+        <v>2.41147812590333</v>
       </c>
       <c r="J20">
-        <v>4.97817571708121</v>
+        <v>4.90230495986888</v>
       </c>
       <c r="K20">
-        <v>0.872810926010226</v>
+        <v>0.86567736770598</v>
       </c>
       <c r="L20">
-        <v>6.89307171052837</v>
+        <v>6.80238198356169</v>
       </c>
       <c r="M20">
-        <v>19.235070257877</v>
+        <v>18.107360609506</v>
       </c>
       <c r="N20">
-        <v>6.36821352594187</v>
+        <v>6.44862771295932</v>
       </c>
       <c r="O20">
-        <v>562.724536503394</v>
+        <v>561.593075222675</v>
       </c>
       <c r="P20">
-        <v>17.6892600628297</v>
+        <v>18.4005819181629</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1031.24107689134</v>
+        <v>1030.88281570532</v>
       </c>
       <c r="C21">
-        <v>17.5782522327797</v>
+        <v>17.6943517469985</v>
       </c>
       <c r="D21">
-        <v>0.842077437687857</v>
+        <v>0.846844424368179</v>
       </c>
       <c r="E21">
-        <v>18.612712068156</v>
+        <v>18.6668754376882</v>
       </c>
       <c r="F21">
-        <v>2.93241552972403</v>
+        <v>2.94593938812733</v>
       </c>
       <c r="G21">
-        <v>19.2808939262339</v>
+        <v>19.2849389697657</v>
       </c>
       <c r="H21">
-        <v>5.14266350534208</v>
+        <v>5.15342902035019</v>
       </c>
       <c r="I21">
-        <v>12.0758745607516</v>
+        <v>12.095255177852</v>
       </c>
       <c r="J21">
-        <v>20.037630197968</v>
+        <v>20.1262200512414</v>
       </c>
       <c r="K21">
-        <v>3.64547726536691</v>
+        <v>3.65282465324884</v>
       </c>
       <c r="L21">
-        <v>24.6007548734998</v>
+        <v>24.5971353158293</v>
       </c>
       <c r="M21">
-        <v>20.4510959833791</v>
+        <v>20.4517594265859</v>
       </c>
       <c r="N21">
-        <v>15.2459341348125</v>
+        <v>15.2475810951664</v>
       </c>
       <c r="O21">
-        <v>2347.75282027175</v>
+        <v>2345.60249700846</v>
       </c>
       <c r="P21">
-        <v>17.1803143303641</v>
+        <v>17.4978343286545</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1204.20975718579</v>
+        <v>1204.08332328183</v>
       </c>
       <c r="C22">
-        <v>30.3587055777826</v>
+        <v>30.4340686270544</v>
       </c>
       <c r="D22">
-        <v>9.52943083220902</v>
+        <v>9.541473369549671</v>
       </c>
       <c r="E22">
-        <v>36.5017597356495</v>
+        <v>36.7252789469442</v>
       </c>
       <c r="F22">
-        <v>2.873338581596</v>
+        <v>2.87956534660843</v>
       </c>
       <c r="G22">
-        <v>26.4838372742352</v>
+        <v>26.487597350944</v>
       </c>
       <c r="H22">
-        <v>16.8600179242603</v>
+        <v>16.9017331023752</v>
       </c>
       <c r="I22">
-        <v>6.90633274273575</v>
+        <v>6.92099102612381</v>
       </c>
       <c r="J22">
-        <v>31.6796605992604</v>
+        <v>31.8382518815917</v>
       </c>
       <c r="K22">
-        <v>4.98366565406928</v>
+        <v>4.98798159456217</v>
       </c>
       <c r="L22">
-        <v>95.11151193660371</v>
+        <v>95.0213505329111</v>
       </c>
       <c r="M22">
-        <v>21.4826862468673</v>
+        <v>21.4669284814322</v>
       </c>
       <c r="N22">
-        <v>57.470785108016</v>
+        <v>57.6140112397681</v>
       </c>
       <c r="O22">
-        <v>2760.70039860392</v>
+        <v>2759.04387237173</v>
       </c>
       <c r="P22">
-        <v>11.8948630765929</v>
+        <v>12.0911721983057</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2368.63835523081</v>
+        <v>2370.30987740236</v>
       </c>
       <c r="C23">
-        <v>34.477659902761</v>
+        <v>34.7544398036226</v>
       </c>
       <c r="D23">
-        <v>5.75689004305782</v>
+        <v>5.77961405007993</v>
       </c>
       <c r="E23">
-        <v>45.058266421726</v>
+        <v>45.437665197361</v>
       </c>
       <c r="F23">
-        <v>10.7195109552515</v>
+        <v>11.1574082458114</v>
       </c>
       <c r="G23">
-        <v>51.1154760182071</v>
+        <v>50.9669880776757</v>
       </c>
       <c r="H23">
-        <v>51.2219026744186</v>
+        <v>51.1472312998756</v>
       </c>
       <c r="I23">
-        <v>19.1920468331299</v>
+        <v>19.270046303117</v>
       </c>
       <c r="J23">
-        <v>103.351093877246</v>
+        <v>103.013135496745</v>
       </c>
       <c r="K23">
-        <v>73.2633992678486</v>
+        <v>73.07212116423079</v>
       </c>
       <c r="L23">
-        <v>34.9828148664625</v>
+        <v>34.8827106834997</v>
       </c>
       <c r="M23">
-        <v>520.741971983074</v>
+        <v>515.70413053806</v>
       </c>
       <c r="N23">
-        <v>88.33753182486269</v>
+        <v>88.1358481390826</v>
       </c>
       <c r="O23">
-        <v>3403.91260705063</v>
+        <v>3400.7104135264</v>
       </c>
       <c r="P23">
-        <v>48.6118353186786</v>
+        <v>51.8413246659195</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>806.798152508214</v>
+        <v>805.95670507536</v>
       </c>
       <c r="C24">
-        <v>45.0568240862312</v>
+        <v>46.424578173026</v>
       </c>
       <c r="D24">
-        <v>6.78928515019903</v>
+        <v>7.01510946206079</v>
       </c>
       <c r="E24">
-        <v>58.7872504356266</v>
+        <v>58.3761856971326</v>
       </c>
       <c r="F24">
-        <v>9.641622256352189</v>
+        <v>9.80900515594705</v>
       </c>
       <c r="G24">
-        <v>29.5259124533396</v>
+        <v>29.3939544058277</v>
       </c>
       <c r="H24">
-        <v>18.4610533036027</v>
+        <v>18.5519126484851</v>
       </c>
       <c r="I24">
-        <v>14.0434624435357</v>
+        <v>13.9992509821127</v>
       </c>
       <c r="J24">
-        <v>48.6406973015644</v>
+        <v>48.9428307591107</v>
       </c>
       <c r="K24">
-        <v>18.5178700616358</v>
+        <v>18.5556151212579</v>
       </c>
       <c r="L24">
-        <v>70.2815681976481</v>
+        <v>69.2550333017288</v>
       </c>
       <c r="M24">
-        <v>18.5541764883691</v>
+        <v>18.5537391858705</v>
       </c>
       <c r="N24">
-        <v>74.5823998617366</v>
+        <v>73.97447683768139</v>
       </c>
       <c r="O24">
-        <v>2139.39727107738</v>
+        <v>2123.01462343318</v>
       </c>
       <c r="P24">
-        <v>74.63802962596471</v>
+        <v>91.32627516525911</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>774.058017821745</v>
+        <v>773.846146886505</v>
       </c>
       <c r="C25">
-        <v>38.017493196197</v>
+        <v>38.7295797188385</v>
       </c>
       <c r="D25">
-        <v>13.6140556442538</v>
+        <v>14.163035321953</v>
       </c>
       <c r="E25">
-        <v>47.1419216773617</v>
+        <v>48.1480419987144</v>
       </c>
       <c r="F25">
-        <v>14.6977130613284</v>
+        <v>14.7965398959949</v>
       </c>
       <c r="G25">
-        <v>12.5176340875029</v>
+        <v>12.7153506183819</v>
       </c>
       <c r="H25">
-        <v>6.44882267280438</v>
+        <v>6.64339306789199</v>
       </c>
       <c r="I25">
-        <v>3.90670172692881</v>
+        <v>4.01473016267689</v>
       </c>
       <c r="J25">
-        <v>9.28315899211804</v>
+        <v>9.48044562646664</v>
       </c>
       <c r="K25">
-        <v>7.31607076827134</v>
+        <v>7.3796717414728</v>
       </c>
       <c r="L25">
-        <v>8.538687051110539</v>
+        <v>8.690318500387489</v>
       </c>
       <c r="M25">
-        <v>38.4836904360337</v>
+        <v>38.566711813427</v>
       </c>
       <c r="N25">
-        <v>34.8640010891305</v>
+        <v>36.0720713836677</v>
       </c>
       <c r="O25">
-        <v>855.052777778492</v>
+        <v>850.900583617638</v>
       </c>
       <c r="P25">
-        <v>49.5527484478903</v>
+        <v>50.9559500697022</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1127.50355604478</v>
+        <v>1127.27698359045</v>
       </c>
       <c r="C26">
-        <v>49.0621243789977</v>
+        <v>50.0798296177731</v>
       </c>
       <c r="D26">
-        <v>3.43323999937855</v>
+        <v>3.45393247738593</v>
       </c>
       <c r="E26">
-        <v>45.7849737273413</v>
+        <v>46.5606095405274</v>
       </c>
       <c r="F26">
-        <v>11.0953848747426</v>
+        <v>11.4052696306775</v>
       </c>
       <c r="G26">
-        <v>31.402874887922</v>
+        <v>31.3430326321204</v>
       </c>
       <c r="H26">
-        <v>12.719557057948</v>
+        <v>12.8533221690771</v>
       </c>
       <c r="I26">
-        <v>19.7627772848879</v>
+        <v>20.0123394415655</v>
       </c>
       <c r="J26">
-        <v>36.6595602520702</v>
+        <v>36.8051681932622</v>
       </c>
       <c r="K26">
-        <v>11.9880942835894</v>
+        <v>12.0338915646442</v>
       </c>
       <c r="L26">
-        <v>30.4076822282204</v>
+        <v>30.6543160649813</v>
       </c>
       <c r="M26">
-        <v>54.9456281472507</v>
+        <v>55.2175452064911</v>
       </c>
       <c r="N26">
-        <v>28.3504771675841</v>
+        <v>28.4606247960116</v>
       </c>
       <c r="O26">
-        <v>2404.83222819595</v>
+        <v>2395.74125241806</v>
       </c>
       <c r="P26">
-        <v>46.1007109137931</v>
+        <v>50.3386310112615</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>183.109640250602</v>
+        <v>183.283175110264</v>
       </c>
       <c r="C27">
-        <v>2.03287714344221</v>
+        <v>2.09479100268317</v>
       </c>
       <c r="D27">
-        <v>2.01276638667193</v>
+        <v>2.05430731212093</v>
       </c>
       <c r="E27">
-        <v>8.217748190173101</v>
+        <v>8.282729133675289</v>
       </c>
       <c r="F27">
-        <v>5.72707315162771</v>
+        <v>5.81575540413469</v>
       </c>
       <c r="G27">
-        <v>0.664927323763736</v>
+        <v>0.659864557249243</v>
       </c>
       <c r="H27">
-        <v>0.195898443984317</v>
+        <v>0.193939568761143</v>
       </c>
       <c r="I27">
-        <v>2.21726902277497</v>
+        <v>2.24614768816274</v>
       </c>
       <c r="J27">
-        <v>3.16802682869669</v>
+        <v>3.17718654129294</v>
       </c>
       <c r="K27">
-        <v>0.583892036332927</v>
+        <v>0.5737893986470221</v>
       </c>
       <c r="L27">
-        <v>1.94017271673855</v>
+        <v>1.90093651762034</v>
       </c>
       <c r="M27">
-        <v>0.564078607787158</v>
+        <v>0.5581114619394461</v>
       </c>
       <c r="N27">
-        <v>3.39934527400657</v>
+        <v>3.37831928245083</v>
       </c>
       <c r="O27">
-        <v>394.391398816028</v>
+        <v>391.519251576692</v>
       </c>
       <c r="P27">
-        <v>42.7196737705827</v>
+        <v>47.1175937869217</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>246.00085054203</v>
+        <v>244.927261731937</v>
       </c>
       <c r="C28">
-        <v>33.7827212314508</v>
+        <v>33.8710030487327</v>
       </c>
       <c r="D28">
-        <v>1.16057361674608</v>
+        <v>1.14717971246632</v>
       </c>
       <c r="E28">
-        <v>5.69129658558182</v>
+        <v>5.61131868265657</v>
       </c>
       <c r="F28">
-        <v>0.208647758433583</v>
+        <v>0.205550791098808</v>
       </c>
       <c r="G28">
-        <v>5.41859890476576</v>
+        <v>5.34567096391115</v>
       </c>
       <c r="H28">
-        <v>6.01940469321893</v>
+        <v>6.18566916195947</v>
       </c>
       <c r="I28">
-        <v>4.70320923998443</v>
+        <v>4.60917781151674</v>
       </c>
       <c r="J28">
-        <v>17.8916694339017</v>
+        <v>18.3715083968361</v>
       </c>
       <c r="K28">
-        <v>11.209808901155</v>
+        <v>11.346897374472</v>
       </c>
       <c r="L28">
-        <v>11.9249060387936</v>
+        <v>11.6014861978173</v>
       </c>
       <c r="M28">
-        <v>10.4598191266274</v>
+        <v>10.5488710707765</v>
       </c>
       <c r="N28">
-        <v>11.2847475334722</v>
+        <v>11.1193304604906</v>
       </c>
       <c r="O28">
-        <v>748.172540206999</v>
+        <v>736.1115226187879</v>
       </c>
       <c r="P28">
-        <v>60.8866876178879</v>
+        <v>77.090615260848</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>442.903594125315</v>
+        <v>442.405586390306</v>
       </c>
       <c r="C29">
-        <v>3.80834425368812</v>
+        <v>3.83851792853095</v>
       </c>
       <c r="D29">
-        <v>2.50502411687563</v>
+        <v>2.499858534659</v>
       </c>
       <c r="E29">
-        <v>5.50477749822816</v>
+        <v>5.48985054299914</v>
       </c>
       <c r="F29">
-        <v>21.2436037957507</v>
+        <v>23.3939228430288</v>
       </c>
       <c r="G29">
-        <v>4.43199655979952</v>
+        <v>4.41632438316044</v>
       </c>
       <c r="H29">
-        <v>0.923240337208698</v>
+        <v>0.91905161606685</v>
       </c>
       <c r="I29">
-        <v>1.39839454843702</v>
+        <v>1.50006380256617</v>
       </c>
       <c r="J29">
-        <v>2.97215874699874</v>
+        <v>2.96363983090464</v>
       </c>
       <c r="K29">
-        <v>1.38957343185513</v>
+        <v>1.38479072643435</v>
       </c>
       <c r="L29">
-        <v>2.87856878959143</v>
+        <v>2.86716413455063</v>
       </c>
       <c r="M29">
-        <v>3.95790375791673</v>
+        <v>3.94293241282075</v>
       </c>
       <c r="N29">
-        <v>10.420364488526</v>
+        <v>10.3889466881298</v>
       </c>
       <c r="O29">
-        <v>1095.86927661029</v>
+        <v>1093.09618303355</v>
       </c>
       <c r="P29">
-        <v>4.03867052353269</v>
+        <v>4.21263460803664</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>196.846191807809</v>
+        <v>196.764908265097</v>
       </c>
       <c r="C30">
-        <v>4.82242011381104</v>
+        <v>4.81773728145455</v>
       </c>
       <c r="D30">
-        <v>3.58268954216406</v>
+        <v>3.58835038159153</v>
       </c>
       <c r="E30">
-        <v>9.48575912533172</v>
+        <v>9.58666061145065</v>
       </c>
       <c r="F30">
-        <v>0.163351339001193</v>
+        <v>0.163521997805384</v>
       </c>
       <c r="G30">
-        <v>5.58874743841338</v>
+        <v>5.57661045525316</v>
       </c>
       <c r="H30">
-        <v>3.20397409671194</v>
+        <v>3.19211004777045</v>
       </c>
       <c r="I30">
-        <v>1.93033196749747</v>
+        <v>1.925296591892</v>
       </c>
       <c r="J30">
-        <v>18.409040332092</v>
+        <v>18.3221246148261</v>
       </c>
       <c r="K30">
-        <v>4.28911295132827</v>
+        <v>4.26139456469437</v>
       </c>
       <c r="L30">
-        <v>41.384798011568</v>
+        <v>40.9110521250321</v>
       </c>
       <c r="M30">
-        <v>8.69635670587922</v>
+        <v>8.61912007556292</v>
       </c>
       <c r="N30">
-        <v>16.1581429565922</v>
+        <v>16.1281752464896</v>
       </c>
       <c r="O30">
-        <v>532.540035668874</v>
+        <v>532.465276917712</v>
       </c>
       <c r="P30">
-        <v>4.76131659476511</v>
+        <v>4.94093256772447</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1663.08517498438</v>
+        <v>1662.80066675658</v>
       </c>
       <c r="C31">
-        <v>59.610218156229</v>
+        <v>59.6466217359993</v>
       </c>
       <c r="D31">
-        <v>5.9624019462451</v>
+        <v>5.95713580535173</v>
       </c>
       <c r="E31">
-        <v>33.8408576439932</v>
+        <v>33.8506111887206</v>
       </c>
       <c r="F31">
-        <v>1.63325306527218</v>
+        <v>1.6389090267476</v>
       </c>
       <c r="G31">
-        <v>113.95200361853</v>
+        <v>113.951393465813</v>
       </c>
       <c r="H31">
-        <v>7.0931673427807</v>
+        <v>7.10100826894347</v>
       </c>
       <c r="I31">
-        <v>10.518975873569</v>
+        <v>10.5820286186993</v>
       </c>
       <c r="J31">
-        <v>29.3391540186815</v>
+        <v>29.3458003833037</v>
       </c>
       <c r="K31">
-        <v>6.8020350665651</v>
+        <v>6.80002191707533</v>
       </c>
       <c r="L31">
-        <v>60.2947391790354</v>
+        <v>60.2492826905381</v>
       </c>
       <c r="M31">
-        <v>20.2662357883186</v>
+        <v>20.2585198821756</v>
       </c>
       <c r="N31">
-        <v>60.2644339261743</v>
+        <v>60.2675420381586</v>
       </c>
       <c r="O31">
-        <v>3625.52402744416</v>
+        <v>3623.79323204834</v>
       </c>
       <c r="P31">
-        <v>22.7126265277491</v>
+        <v>23.0691964496369</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>454.682291369457</v>
+        <v>454.903203828804</v>
       </c>
       <c r="C32">
-        <v>3.04430027436582</v>
+        <v>3.05691076959772</v>
       </c>
       <c r="D32">
-        <v>1.59742813386141</v>
+        <v>1.59744728895417</v>
       </c>
       <c r="E32">
-        <v>3.6176048647822</v>
+        <v>3.66886982713302</v>
       </c>
       <c r="F32">
-        <v>24.7155160354394</v>
+        <v>25.0895760133602</v>
       </c>
       <c r="G32">
-        <v>3.55704101485441</v>
+        <v>3.56777765752382</v>
       </c>
       <c r="H32">
-        <v>0.104287494300304</v>
+        <v>0.104883311011297</v>
       </c>
       <c r="I32">
-        <v>1.21692754760068</v>
+        <v>1.21593441789894</v>
       </c>
       <c r="J32">
-        <v>4.50164384043085</v>
+        <v>4.48328952649759</v>
       </c>
       <c r="K32">
-        <v>2.08859929260314</v>
+        <v>2.06988652349975</v>
       </c>
       <c r="L32">
-        <v>7.32719495343342</v>
+        <v>7.1846587930321</v>
       </c>
       <c r="M32">
-        <v>6.41709360231351</v>
+        <v>6.39128003823275</v>
       </c>
       <c r="N32">
-        <v>13.2141667863433</v>
+        <v>13.2019505648287</v>
       </c>
       <c r="O32">
-        <v>741.789786463644</v>
+        <v>741.130866389738</v>
       </c>
       <c r="P32">
-        <v>15.0010099718228</v>
+        <v>16.214467492512</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4355.97137129007</v>
+        <v>4352.82496172476</v>
       </c>
       <c r="C33">
-        <v>78.6424894088244</v>
+        <v>79.14113425219721</v>
       </c>
       <c r="D33">
-        <v>12.1113796874584</v>
+        <v>12.0898970654138</v>
       </c>
       <c r="E33">
-        <v>68.8238689470132</v>
+        <v>69.2810725118904</v>
       </c>
       <c r="F33">
-        <v>7.80452357153009</v>
+        <v>7.79719037050772</v>
       </c>
       <c r="G33">
-        <v>63.2679675996888</v>
+        <v>63.8620658157103</v>
       </c>
       <c r="H33">
-        <v>28.7855495723623</v>
+        <v>29.1539358331125</v>
       </c>
       <c r="I33">
-        <v>21.666419833746</v>
+        <v>21.7784359561928</v>
       </c>
       <c r="J33">
-        <v>89.51307009918961</v>
+        <v>91.2838530505847</v>
       </c>
       <c r="K33">
-        <v>53.0050253202848</v>
+        <v>54.1431001177706</v>
       </c>
       <c r="L33">
-        <v>97.15061748550779</v>
+        <v>98.5604481287775</v>
       </c>
       <c r="M33">
-        <v>48.2124186697986</v>
+        <v>49.4156327784688</v>
       </c>
       <c r="N33">
-        <v>134.229893202248</v>
+        <v>135.406628306993</v>
       </c>
       <c r="O33">
-        <v>7586.87107521525</v>
+        <v>7568.64144728095</v>
       </c>
       <c r="P33">
-        <v>53.4774022004204</v>
+        <v>60.1236193189397</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1934.27149936584</v>
+        <v>1935.50014729052</v>
       </c>
       <c r="C34">
-        <v>66.1598689273375</v>
+        <v>66.35595649335561</v>
       </c>
       <c r="D34">
-        <v>71.4286610977188</v>
+        <v>72.3938070036706</v>
       </c>
       <c r="E34">
-        <v>55.1297245925435</v>
+        <v>55.31946787266</v>
       </c>
       <c r="F34">
-        <v>1.95083471626107</v>
+        <v>1.95964099680001</v>
       </c>
       <c r="G34">
-        <v>48.7887404861372</v>
+        <v>48.8118058584814</v>
       </c>
       <c r="H34">
-        <v>38.7596522487268</v>
+        <v>38.7736182539499</v>
       </c>
       <c r="I34">
-        <v>15.0326857833549</v>
+        <v>15.0654270335889</v>
       </c>
       <c r="J34">
-        <v>47.1528127133547</v>
+        <v>47.3622272288461</v>
       </c>
       <c r="K34">
-        <v>10.1257020603771</v>
+        <v>10.1332646670612</v>
       </c>
       <c r="L34">
-        <v>100.257042688328</v>
+        <v>100.447846192557</v>
       </c>
       <c r="M34">
-        <v>37.7510164791928</v>
+        <v>37.7114849018766</v>
       </c>
       <c r="N34">
-        <v>128.644823076186</v>
+        <v>129.513185952179</v>
       </c>
       <c r="O34">
-        <v>3325.97133638762</v>
+        <v>3323.15580840283</v>
       </c>
       <c r="P34">
-        <v>57.5147118732673</v>
+        <v>58.4449791518884</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>90.1682055626931</v>
+        <v>90.6856161874188</v>
       </c>
       <c r="C35">
-        <v>6.28357303936702</v>
+        <v>6.30789354112155</v>
       </c>
       <c r="D35">
-        <v>0.369906390411153</v>
+        <v>0.367551253662644</v>
       </c>
       <c r="E35">
-        <v>3.22276978962999</v>
+        <v>3.15901699446245</v>
       </c>
       <c r="F35">
-        <v>3.45723391826122</v>
+        <v>3.61772970448159</v>
       </c>
       <c r="G35">
-        <v>0.73047414288642</v>
+        <v>0.71037890395562</v>
       </c>
       <c r="H35">
-        <v>0.706078766962723</v>
+        <v>0.691676651186605</v>
       </c>
       <c r="I35">
-        <v>0.98759369802035</v>
+        <v>0.97831916812349</v>
       </c>
       <c r="J35">
-        <v>2.64008225241419</v>
+        <v>2.60119614230056</v>
       </c>
       <c r="K35">
-        <v>3.9352018907612</v>
+        <v>3.90357192913248</v>
       </c>
       <c r="L35">
-        <v>2.65935534386407</v>
+        <v>2.5788267783627</v>
       </c>
       <c r="M35">
-        <v>3.26740545212588</v>
+        <v>3.20519937101121</v>
       </c>
       <c r="N35">
-        <v>3.60555831488064</v>
+        <v>3.52652778495081</v>
       </c>
       <c r="O35">
-        <v>275.311122415215</v>
+        <v>270.7457157643</v>
       </c>
       <c r="P35">
-        <v>36.5157848215864</v>
+        <v>42.6325830064668</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2554.14394613738</v>
+        <v>2554.47683295641</v>
       </c>
       <c r="C36">
-        <v>79.2320859858377</v>
+        <v>79.46320808517901</v>
       </c>
       <c r="D36">
-        <v>7.9694531604273</v>
+        <v>8.026282681400691</v>
       </c>
       <c r="E36">
-        <v>132.292961692983</v>
+        <v>132.986895548447</v>
       </c>
       <c r="F36">
-        <v>25.461041553536</v>
+        <v>25.7357962464836</v>
       </c>
       <c r="G36">
-        <v>82.0868675229967</v>
+        <v>82.43082813660401</v>
       </c>
       <c r="H36">
-        <v>74.10016201518</v>
+        <v>75.1492030583303</v>
       </c>
       <c r="I36">
-        <v>33.2252599366944</v>
+        <v>33.4773424462008</v>
       </c>
       <c r="J36">
-        <v>217.598137257559</v>
+        <v>219.874734817711</v>
       </c>
       <c r="K36">
-        <v>53.8211119498218</v>
+        <v>54.3599717206136</v>
       </c>
       <c r="L36">
-        <v>60.6309312922561</v>
+        <v>60.9269900376406</v>
       </c>
       <c r="M36">
-        <v>179.385995341718</v>
+        <v>181.562259237505</v>
       </c>
       <c r="N36">
-        <v>111.671331434881</v>
+        <v>112.360716128227</v>
       </c>
       <c r="O36">
-        <v>4255.04634056594</v>
+        <v>4246.11771014626</v>
       </c>
       <c r="P36">
-        <v>64.67080190223091</v>
+        <v>65.34969607858601</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>836.68969291954</v>
+        <v>838.912920385582</v>
       </c>
       <c r="C37">
-        <v>17.1290952304057</v>
+        <v>17.444300825279</v>
       </c>
       <c r="D37">
-        <v>2.29713902194813</v>
+        <v>2.31496270252865</v>
       </c>
       <c r="E37">
-        <v>19.855018587038</v>
+        <v>20.0459551312753</v>
       </c>
       <c r="F37">
-        <v>38.2983841003945</v>
+        <v>38.6419544337068</v>
       </c>
       <c r="G37">
-        <v>7.05939480052114</v>
+        <v>7.01802024966959</v>
       </c>
       <c r="H37">
-        <v>27.0018444113587</v>
+        <v>27.3834621587403</v>
       </c>
       <c r="I37">
-        <v>9.785196318104299</v>
+        <v>9.947881136897561</v>
       </c>
       <c r="J37">
-        <v>36.7028647064154</v>
+        <v>36.9334657423668</v>
       </c>
       <c r="K37">
-        <v>7.01751259159509</v>
+        <v>7.04188311209025</v>
       </c>
       <c r="L37">
-        <v>21.1094337839774</v>
+        <v>21.0709055306713</v>
       </c>
       <c r="M37">
-        <v>33.1118514239369</v>
+        <v>33.0454727704084</v>
       </c>
       <c r="N37">
-        <v>24.1596695922021</v>
+        <v>24.2283537440048</v>
       </c>
       <c r="O37">
-        <v>1311.35992423444</v>
+        <v>1306.51122989073</v>
       </c>
       <c r="P37">
-        <v>48.0395818439222</v>
+        <v>50.5798565124605</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>790.4253465806741</v>
+        <v>791.200508489265</v>
       </c>
       <c r="C38">
-        <v>23.7820857332641</v>
+        <v>24.1755164168744</v>
       </c>
       <c r="D38">
-        <v>5.10622160727484</v>
+        <v>5.07497779336992</v>
       </c>
       <c r="E38">
-        <v>45.831587635009</v>
+        <v>46.4796764311394</v>
       </c>
       <c r="F38">
-        <v>0.964041511141415</v>
+        <v>0.964178151999374</v>
       </c>
       <c r="G38">
-        <v>10.2937551508596</v>
+        <v>10.2732520647228</v>
       </c>
       <c r="H38">
-        <v>1.18616350396716</v>
+        <v>1.18290792309298</v>
       </c>
       <c r="I38">
-        <v>3.24599475032944</v>
+        <v>3.23519842357869</v>
       </c>
       <c r="J38">
-        <v>31.7381769097449</v>
+        <v>31.7322400675171</v>
       </c>
       <c r="K38">
-        <v>3.8847833139001</v>
+        <v>3.88175366615642</v>
       </c>
       <c r="L38">
-        <v>93.9763363178154</v>
+        <v>92.3587329921294</v>
       </c>
       <c r="M38">
-        <v>23.1720109374469</v>
+        <v>23.1013258935962</v>
       </c>
       <c r="N38">
-        <v>52.2047382583488</v>
+        <v>52.1507925043496</v>
       </c>
       <c r="O38">
-        <v>1464.98505343747</v>
+        <v>1463.4111678045</v>
       </c>
       <c r="P38">
-        <v>57.9497654773921</v>
+        <v>60.2511279689986</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2688.20340863913</v>
+        <v>2689.56453295465</v>
       </c>
       <c r="C39">
-        <v>93.99253360732411</v>
+        <v>94.4674211192563</v>
       </c>
       <c r="D39">
-        <v>25.6547757283531</v>
+        <v>26.2497373924652</v>
       </c>
       <c r="E39">
-        <v>129.747865912582</v>
+        <v>132.84650243611</v>
       </c>
       <c r="F39">
-        <v>31.5377380584162</v>
+        <v>32.2996437771194</v>
       </c>
       <c r="G39">
-        <v>127.526083069629</v>
+        <v>127.435207835099</v>
       </c>
       <c r="H39">
-        <v>56.701030365646</v>
+        <v>57.6462950313653</v>
       </c>
       <c r="I39">
-        <v>22.5509168268383</v>
+        <v>22.8659299284134</v>
       </c>
       <c r="J39">
-        <v>165.926538229088</v>
+        <v>169.288184863145</v>
       </c>
       <c r="K39">
-        <v>40.6245413435778</v>
+        <v>41.6556585350276</v>
       </c>
       <c r="L39">
-        <v>118.064208970731</v>
+        <v>118.74715603696</v>
       </c>
       <c r="M39">
-        <v>73.94520261786541</v>
+        <v>74.8453175866175</v>
       </c>
       <c r="N39">
-        <v>124.197664749015</v>
+        <v>126.091403087173</v>
       </c>
       <c r="O39">
-        <v>4982.11858455054</v>
+        <v>4964.86622635139</v>
       </c>
       <c r="P39">
-        <v>72.0823747648444</v>
+        <v>75.56444773227059</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>211.447435338017</v>
+        <v>211.410769935633</v>
       </c>
       <c r="C40">
-        <v>2.22377644178692</v>
+        <v>2.22340588576706</v>
       </c>
       <c r="D40">
-        <v>7.14857697220083</v>
+        <v>7.15563604640144</v>
       </c>
       <c r="E40">
-        <v>4.18192823123121</v>
+        <v>4.18152289646998</v>
       </c>
       <c r="F40">
-        <v>0.215318433321289</v>
+        <v>0.215196298693736</v>
       </c>
       <c r="G40">
-        <v>4.67834000842463</v>
+        <v>4.69506096202947</v>
       </c>
       <c r="H40">
-        <v>3.98342524160653</v>
+        <v>4.00116804274438</v>
       </c>
       <c r="I40">
-        <v>2.48448347580187</v>
+        <v>2.48440763247381</v>
       </c>
       <c r="J40">
-        <v>10.4618984996967</v>
+        <v>10.4631357101935</v>
       </c>
       <c r="K40">
-        <v>1.36996021135195</v>
+        <v>1.37020901213547</v>
       </c>
       <c r="L40">
-        <v>10.3704671393941</v>
+        <v>10.3672358503343</v>
       </c>
       <c r="M40">
-        <v>4.72813154475409</v>
+        <v>4.72525604822163</v>
       </c>
       <c r="N40">
-        <v>19.4817054026407</v>
+        <v>19.475535780897</v>
       </c>
       <c r="O40">
-        <v>419.767503303872</v>
+        <v>419.685091043558</v>
       </c>
       <c r="P40">
-        <v>6.02322964150844</v>
+        <v>6.0463740600945</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1078.17490304067</v>
+        <v>1078.66178313011</v>
       </c>
       <c r="C41">
-        <v>18.6042940113711</v>
+        <v>18.7573807269433</v>
       </c>
       <c r="D41">
-        <v>54.7990583328644</v>
+        <v>56.5132122458868</v>
       </c>
       <c r="E41">
-        <v>30.1817385468574</v>
+        <v>30.3466803871602</v>
       </c>
       <c r="F41">
-        <v>1.89516520078626</v>
+        <v>1.89041257677239</v>
       </c>
       <c r="G41">
-        <v>26.2357378338981</v>
+        <v>26.4373344841242</v>
       </c>
       <c r="H41">
-        <v>23.765917643798</v>
+        <v>24.035537180794</v>
       </c>
       <c r="I41">
-        <v>12.1463540446802</v>
+        <v>12.3191585332276</v>
       </c>
       <c r="J41">
-        <v>40.6103385563294</v>
+        <v>40.7978032614365</v>
       </c>
       <c r="K41">
-        <v>8.3113976410693</v>
+        <v>8.324819269306531</v>
       </c>
       <c r="L41">
-        <v>30.3722140210089</v>
+        <v>30.3186355919989</v>
       </c>
       <c r="M41">
-        <v>31.9082201152995</v>
+        <v>32.1105387723512</v>
       </c>
       <c r="N41">
-        <v>21.1036699554482</v>
+        <v>21.1530873599075</v>
       </c>
       <c r="O41">
-        <v>1543.40392094342</v>
+        <v>1540.15088911475</v>
       </c>
       <c r="P41">
-        <v>20.2951672874563</v>
+        <v>20.5840088201768</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>101.839049431591</v>
+        <v>101.434267199988</v>
       </c>
       <c r="C42">
-        <v>7.24302635059553</v>
+        <v>7.28129736420287</v>
       </c>
       <c r="D42">
-        <v>1.91536818579231</v>
+        <v>1.87994943702544</v>
       </c>
       <c r="E42">
-        <v>5.85954554188874</v>
+        <v>5.70154082859097</v>
       </c>
       <c r="F42">
-        <v>2.25791718585614</v>
+        <v>2.20726512198632</v>
       </c>
       <c r="G42">
-        <v>1.60849145580824</v>
+        <v>1.61731276853397</v>
       </c>
       <c r="H42">
-        <v>1.58891209624631</v>
+        <v>1.54041458912313</v>
       </c>
       <c r="I42">
-        <v>2.16430965349684</v>
+        <v>2.11069777941843</v>
       </c>
       <c r="J42">
-        <v>5.79260089542084</v>
+        <v>5.78387941973608</v>
       </c>
       <c r="K42">
-        <v>3.82259872388883</v>
+        <v>3.87526168210685</v>
       </c>
       <c r="L42">
-        <v>4.91720931229077</v>
+        <v>4.65792112980329</v>
       </c>
       <c r="M42">
-        <v>3.58372820262472</v>
+        <v>3.59643696210537</v>
       </c>
       <c r="N42">
-        <v>8.882300595688781</v>
+        <v>8.725932024577601</v>
       </c>
       <c r="O42">
-        <v>314.172318382125</v>
+        <v>309.411912440357</v>
       </c>
       <c r="P42">
-        <v>45.8189181977153</v>
+        <v>53.7830199272425</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1558.09034120523</v>
+        <v>1558.2682836384</v>
       </c>
       <c r="C43">
-        <v>36.9753250510853</v>
+        <v>36.8437968042964</v>
       </c>
       <c r="D43">
-        <v>17.7847630037027</v>
+        <v>18.2815860404783</v>
       </c>
       <c r="E43">
-        <v>71.53234372095631</v>
+        <v>71.7799564661867</v>
       </c>
       <c r="F43">
-        <v>10.3532726088015</v>
+        <v>10.519293064669</v>
       </c>
       <c r="G43">
-        <v>38.0610930839253</v>
+        <v>38.412834069937</v>
       </c>
       <c r="H43">
-        <v>38.9018815168482</v>
+        <v>39.5225591092489</v>
       </c>
       <c r="I43">
-        <v>8.17285778950186</v>
+        <v>8.404284189520039</v>
       </c>
       <c r="J43">
-        <v>62.5527934455885</v>
+        <v>63.6247723028848</v>
       </c>
       <c r="K43">
-        <v>7.90939431932973</v>
+        <v>8.11191193331212</v>
       </c>
       <c r="L43">
-        <v>29.8092608096654</v>
+        <v>30.143083683038</v>
       </c>
       <c r="M43">
-        <v>85.39576281424461</v>
+        <v>87.3911046640456</v>
       </c>
       <c r="N43">
-        <v>61.73113744799</v>
+        <v>62.2493325664159</v>
       </c>
       <c r="O43">
-        <v>2177.69857141691</v>
+        <v>2171.07447363904</v>
       </c>
       <c r="P43">
-        <v>52.9554537849941</v>
+        <v>53.5286568440161</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4632.35073670159</v>
+        <v>4637.15208845093</v>
       </c>
       <c r="C44">
-        <v>153.863827698795</v>
+        <v>155.933319962386</v>
       </c>
       <c r="D44">
-        <v>16.3353579180388</v>
+        <v>16.3877264133956</v>
       </c>
       <c r="E44">
-        <v>79.73051594827111</v>
+        <v>79.87858756841</v>
       </c>
       <c r="F44">
-        <v>271.799849425923</v>
+        <v>272.607464484035</v>
       </c>
       <c r="G44">
-        <v>135.169085916234</v>
+        <v>135.18137566367</v>
       </c>
       <c r="H44">
-        <v>31.237973354582</v>
+        <v>31.3094353782463</v>
       </c>
       <c r="I44">
-        <v>50.2586104022727</v>
+        <v>50.3844898740929</v>
       </c>
       <c r="J44">
-        <v>130.644759325936</v>
+        <v>130.919254795612</v>
       </c>
       <c r="K44">
-        <v>30.8618760959467</v>
+        <v>30.9176310808522</v>
       </c>
       <c r="L44">
-        <v>177.882915620705</v>
+        <v>176.677656859522</v>
       </c>
       <c r="M44">
-        <v>87.0213020670265</v>
+        <v>87.0144917427709</v>
       </c>
       <c r="N44">
-        <v>106.169575216008</v>
+        <v>106.089016878056</v>
       </c>
       <c r="O44">
-        <v>8615.72908435396</v>
+        <v>8602.44353338761</v>
       </c>
       <c r="P44">
-        <v>156.093988068627</v>
+        <v>163.070721323335</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>387.858006431097</v>
+        <v>388.747231895547</v>
       </c>
       <c r="C45">
-        <v>17.6746285971419</v>
+        <v>17.7769078480518</v>
       </c>
       <c r="D45">
-        <v>1.51036775730381</v>
+        <v>1.49951296319623</v>
       </c>
       <c r="E45">
-        <v>12.2234517706672</v>
+        <v>12.1448283212051</v>
       </c>
       <c r="F45">
-        <v>22.0857487630188</v>
+        <v>23.3376567125223</v>
       </c>
       <c r="G45">
-        <v>7.35919372438867</v>
+        <v>7.33526978260268</v>
       </c>
       <c r="H45">
-        <v>2.68395573684216</v>
+        <v>2.68637037924717</v>
       </c>
       <c r="I45">
-        <v>3.05374066713007</v>
+        <v>3.1096656593433</v>
       </c>
       <c r="J45">
-        <v>20.1014620813011</v>
+        <v>20.1482161254801</v>
       </c>
       <c r="K45">
-        <v>2.1167673403975</v>
+        <v>2.10896828763416</v>
       </c>
       <c r="L45">
-        <v>15.1888284770739</v>
+        <v>15.0733579735227</v>
       </c>
       <c r="M45">
-        <v>14.209895157629</v>
+        <v>14.1690771685059</v>
       </c>
       <c r="N45">
-        <v>31.7523245282721</v>
+        <v>31.5561765655949</v>
       </c>
       <c r="O45">
-        <v>907.266139260697</v>
+        <v>904.049930154144</v>
       </c>
       <c r="P45">
-        <v>16.7167466488405</v>
+        <v>17.9876332949505</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>93.38464670453909</v>
+        <v>93.5365355622462</v>
       </c>
       <c r="C46">
-        <v>3.63317312295283</v>
+        <v>3.71516360202759</v>
       </c>
       <c r="D46">
-        <v>0.499866749548145</v>
+        <v>0.502548155263583</v>
       </c>
       <c r="E46">
-        <v>4.83336131372249</v>
+        <v>4.87689025635596</v>
       </c>
       <c r="F46">
-        <v>0.7115426048553249</v>
+        <v>0.712220932236918</v>
       </c>
       <c r="G46">
-        <v>1.346708314086</v>
+        <v>1.33480669795473</v>
       </c>
       <c r="H46">
-        <v>0.730012981039279</v>
+        <v>0.731507185288123</v>
       </c>
       <c r="I46">
-        <v>2.00718584767251</v>
+        <v>1.99417416842498</v>
       </c>
       <c r="J46">
-        <v>4.72026261984583</v>
+        <v>4.68097739264669</v>
       </c>
       <c r="K46">
-        <v>0.961849234050581</v>
+        <v>0.952768822858758</v>
       </c>
       <c r="L46">
-        <v>13.2480154683768</v>
+        <v>12.563579577569</v>
       </c>
       <c r="M46">
-        <v>2.96554218940089</v>
+        <v>2.88804426370462</v>
       </c>
       <c r="N46">
-        <v>8.00367805069763</v>
+        <v>7.97831977641285</v>
       </c>
       <c r="O46">
-        <v>278.734850620782</v>
+        <v>278.875626477539</v>
       </c>
       <c r="P46">
-        <v>8.247844961068489</v>
+        <v>8.9278748816398</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1518.40768998697</v>
+        <v>1519.35853684832</v>
       </c>
       <c r="C47">
-        <v>41.5100448403114</v>
+        <v>42.1753289354601</v>
       </c>
       <c r="D47">
-        <v>12.5757838256123</v>
+        <v>12.9254003216901</v>
       </c>
       <c r="E47">
-        <v>43.9269142289375</v>
+        <v>44.2995763208918</v>
       </c>
       <c r="F47">
-        <v>2.9095848568411</v>
+        <v>3.00580199713099</v>
       </c>
       <c r="G47">
-        <v>25.6167034148363</v>
+        <v>25.8859094408585</v>
       </c>
       <c r="H47">
-        <v>10.9992280553343</v>
+        <v>11.1527696525813</v>
       </c>
       <c r="I47">
-        <v>6.87901590380826</v>
+        <v>6.92807080428393</v>
       </c>
       <c r="J47">
-        <v>26.7834785953554</v>
+        <v>26.9807853240151</v>
       </c>
       <c r="K47">
-        <v>5.40033762948609</v>
+        <v>5.38711235766579</v>
       </c>
       <c r="L47">
-        <v>27.18836811168</v>
+        <v>27.2274980251265</v>
       </c>
       <c r="M47">
-        <v>65.7258766846648</v>
+        <v>65.44065987743871</v>
       </c>
       <c r="N47">
-        <v>28.998419108394</v>
+        <v>29.0383039579587</v>
       </c>
       <c r="O47">
-        <v>3059.74813094031</v>
+        <v>3054.86222129577</v>
       </c>
       <c r="P47">
-        <v>29.108918188871</v>
+        <v>29.8568723989224</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1234.43395915987</v>
+        <v>1235.97938382292</v>
       </c>
       <c r="C48">
-        <v>35.0276567154518</v>
+        <v>35.1391826590936</v>
       </c>
       <c r="D48">
-        <v>6.13420061268363</v>
+        <v>6.12402214188118</v>
       </c>
       <c r="E48">
-        <v>67.038806905309</v>
+        <v>68.1891080978554</v>
       </c>
       <c r="F48">
-        <v>15.0166646394404</v>
+        <v>15.1371668953266</v>
       </c>
       <c r="G48">
-        <v>7.33445966968789</v>
+        <v>7.29296381672324</v>
       </c>
       <c r="H48">
-        <v>9.5161852179899</v>
+        <v>9.48971829360085</v>
       </c>
       <c r="I48">
-        <v>8.7990655227988</v>
+        <v>8.879979016290021</v>
       </c>
       <c r="J48">
-        <v>39.0199790255557</v>
+        <v>38.821880914865</v>
       </c>
       <c r="K48">
-        <v>9.566640878075111</v>
+        <v>9.52597594069649</v>
       </c>
       <c r="L48">
-        <v>52.9955267896104</v>
+        <v>52.7660687987828</v>
       </c>
       <c r="M48">
-        <v>147.962599677333</v>
+        <v>144.336240586547</v>
       </c>
       <c r="N48">
-        <v>41.7744043845905</v>
+        <v>41.7415084251886</v>
       </c>
       <c r="O48">
-        <v>2513.52449314258</v>
+        <v>2512.17064824366</v>
       </c>
       <c r="P48">
-        <v>94.3891914966142</v>
+        <v>97.071430009832</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>641.984140837534</v>
+        <v>642.151134225614</v>
       </c>
       <c r="C49">
-        <v>4.29782582335002</v>
+        <v>4.30665599456395</v>
       </c>
       <c r="D49">
-        <v>0.339332795538334</v>
+        <v>0.342194353652983</v>
       </c>
       <c r="E49">
-        <v>21.9401281466555</v>
+        <v>21.997458681003</v>
       </c>
       <c r="F49">
-        <v>26.0671933530841</v>
+        <v>26.3978150644044</v>
       </c>
       <c r="G49">
-        <v>13.7933606243835</v>
+        <v>13.6829133435133</v>
       </c>
       <c r="H49">
-        <v>4.09826478203452</v>
+        <v>4.08979071369733</v>
       </c>
       <c r="I49">
-        <v>3.13883628148093</v>
+        <v>3.1004699598316</v>
       </c>
       <c r="J49">
-        <v>18.327632223099</v>
+        <v>18.1860601794954</v>
       </c>
       <c r="K49">
-        <v>1.73124094635973</v>
+        <v>1.72544725219733</v>
       </c>
       <c r="L49">
-        <v>1.53808471008154</v>
+        <v>1.53313334972385</v>
       </c>
       <c r="M49">
-        <v>3.97648599570177</v>
+        <v>3.97313223332963</v>
       </c>
       <c r="N49">
-        <v>7.76774680336862</v>
+        <v>7.76708385666907</v>
       </c>
       <c r="O49">
-        <v>584.712912034355</v>
+        <v>584.724107190037</v>
       </c>
       <c r="P49">
-        <v>9.18787078935816</v>
+        <v>9.215330894168449</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>888.742218674755</v>
+        <v>889.981340990051</v>
       </c>
       <c r="C50">
-        <v>64.2502711303181</v>
+        <v>66.0338436248462</v>
       </c>
       <c r="D50">
-        <v>7.90135231736391</v>
+        <v>8.005780607525971</v>
       </c>
       <c r="E50">
-        <v>137.063903520843</v>
+        <v>137.651938915705</v>
       </c>
       <c r="F50">
-        <v>3.7822392832226</v>
+        <v>3.75874988763219</v>
       </c>
       <c r="G50">
-        <v>36.6529133931451</v>
+        <v>36.4791937775185</v>
       </c>
       <c r="H50">
-        <v>41.8798487634961</v>
+        <v>41.8606903161588</v>
       </c>
       <c r="I50">
-        <v>10.5921682591362</v>
+        <v>10.6116783495775</v>
       </c>
       <c r="J50">
-        <v>81.4439550690475</v>
+        <v>81.5064802122278</v>
       </c>
       <c r="K50">
-        <v>44.4469456652</v>
+        <v>44.4646514869256</v>
       </c>
       <c r="L50">
-        <v>76.01668562130369</v>
+        <v>75.5189575038372</v>
       </c>
       <c r="M50">
-        <v>58.1689801906757</v>
+        <v>57.935826357369</v>
       </c>
       <c r="N50">
-        <v>59.5322354970323</v>
+        <v>59.4000201403562</v>
       </c>
       <c r="O50">
-        <v>2221.69942341999</v>
+        <v>2208.53634371869</v>
       </c>
       <c r="P50">
-        <v>84.5634274734666</v>
+        <v>97.1643860327122</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>84.5510337776885</v>
+        <v>84.521815875491</v>
       </c>
       <c r="C51">
-        <v>2.65816224581008</v>
+        <v>2.64205587132861</v>
       </c>
       <c r="D51">
-        <v>0.0102142623085024</v>
+        <v>0.0103661538456004</v>
       </c>
       <c r="E51">
-        <v>1.28705462789644</v>
+        <v>1.2856686605935</v>
       </c>
       <c r="F51">
-        <v>27.6019280045359</v>
+        <v>28.1777958070325</v>
       </c>
       <c r="G51">
-        <v>1.49226877551666</v>
+        <v>1.50433970121277</v>
       </c>
       <c r="H51">
-        <v>0.136033783150198</v>
+        <v>0.135316752101128</v>
       </c>
       <c r="I51">
-        <v>1.03001443056997</v>
+        <v>1.02833783748666</v>
       </c>
       <c r="J51">
-        <v>1.09227999182109</v>
+        <v>1.08539702749949</v>
       </c>
       <c r="K51">
-        <v>0.770444896577668</v>
+        <v>0.773497491650226</v>
       </c>
       <c r="L51">
-        <v>0.502814507717945</v>
+        <v>0.5037205318870101</v>
       </c>
       <c r="M51">
-        <v>0.479365951955831</v>
+        <v>0.478470059216897</v>
       </c>
       <c r="N51">
-        <v>0.828118911381455</v>
+        <v>0.823811993293858</v>
       </c>
       <c r="O51">
-        <v>204.3330298931</v>
+        <v>203.7397147995</v>
       </c>
       <c r="P51">
-        <v>19.0111645239068</v>
+        <v>20.6193231064574</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2006.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2006.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>95.1115657072743</v>
+        <v>95.11156570727429</v>
       </c>
       <c r="C3">
         <v>1.7313556533093</v>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>791.756060235819</v>
+        <v>791.7560602358189</v>
       </c>
       <c r="C7">
         <v>44.6391963884089</v>
@@ -981,7 +981,7 @@
         <v>0.697767553652843</v>
       </c>
       <c r="G12">
-        <v>0.506068371035505</v>
+        <v>0.5060683710355049</v>
       </c>
       <c r="H12">
         <v>0.233136841701592</v>
@@ -1005,7 +1005,7 @@
         <v>4.99746043814161</v>
       </c>
       <c r="O12">
-        <v>544.021315131991</v>
+        <v>544.0213151319909</v>
       </c>
       <c r="P12">
         <v>17.2674038568947</v>
@@ -1632,7 +1632,7 @@
         <v>2123.01462343318</v>
       </c>
       <c r="P24">
-        <v>91.32627516525911</v>
+        <v>91.3262751652591</v>
       </c>
     </row>
     <row r="25">
@@ -1681,7 +1681,7 @@
         <v>36.0720713836677</v>
       </c>
       <c r="O25">
-        <v>850.900583617638</v>
+        <v>850.9005836176379</v>
       </c>
       <c r="P25">
         <v>50.9559500697022</v>
@@ -2061,7 +2061,7 @@
         <v>4352.82496172476</v>
       </c>
       <c r="C33">
-        <v>79.14113425219721</v>
+        <v>79.1411342521972</v>
       </c>
       <c r="D33">
         <v>12.0898970654138</v>
@@ -2088,7 +2088,7 @@
         <v>54.1431001177706</v>
       </c>
       <c r="L33">
-        <v>98.5604481287775</v>
+        <v>98.56044812877749</v>
       </c>
       <c r="M33">
         <v>49.4156327784688</v>
@@ -2819,7 +2819,7 @@
         <v>27.2274980251265</v>
       </c>
       <c r="M47">
-        <v>65.44065987743871</v>
+        <v>65.4406598774387</v>
       </c>
       <c r="N47">
         <v>29.0383039579587</v>
@@ -3024,7 +3024,7 @@
         <v>0.773497491650226</v>
       </c>
       <c r="L51">
-        <v>0.5037205318870101</v>
+        <v>0.50372053188701</v>
       </c>
       <c r="M51">
         <v>0.478470059216897</v>
@@ -3244,7 +3244,7 @@
         <v>1696.46137833943</v>
       </c>
       <c r="P55">
-        <v>687.8225690517101</v>
+        <v>687.82256905171</v>
       </c>
     </row>
     <row r="56">
@@ -3290,7 +3290,7 @@
         <v>459.459294988273</v>
       </c>
       <c r="N56">
-        <v>777.95109458036</v>
+        <v>777.9510945803599</v>
       </c>
       <c r="O56">
         <v>50407.3392283584</v>
@@ -3422,7 +3422,7 @@
         <v>5.58473337988305</v>
       </c>
       <c r="F59">
-        <v>0.5235687543640361</v>
+        <v>0.523568754364036</v>
       </c>
       <c r="G59">
         <v>1.65796772215278</v>
@@ -3547,7 +3547,7 @@
         <v>1053.1202589078</v>
       </c>
       <c r="M61">
-        <v>984.4604529579131</v>
+        <v>984.460452957913</v>
       </c>
       <c r="N61">
         <v>274.639223799541</v>
@@ -4162,10 +4162,10 @@
         <v>238.02297318336</v>
       </c>
       <c r="J73">
-        <v>849.587696816363</v>
+        <v>849.5876968163629</v>
       </c>
       <c r="K73">
-        <v>612.0323522640121</v>
+        <v>612.032352264012</v>
       </c>
       <c r="L73">
         <v>454.72208079273</v>
@@ -4275,7 +4275,7 @@
         <v>838.157921241935</v>
       </c>
       <c r="M75">
-        <v>523.8252353154931</v>
+        <v>523.825235315493</v>
       </c>
       <c r="N75">
         <v>120.49842491511</v>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>958.18560983198</v>
+        <v>958.1856098319799</v>
       </c>
       <c r="C76">
         <v>44.2228600833009</v>
@@ -4645,7 +4645,7 @@
         <v>853.552600373015</v>
       </c>
       <c r="O82">
-        <v>69209.05439435291</v>
+        <v>69209.0543943529</v>
       </c>
       <c r="P82">
         <v>12454.5125203306</v>
